--- a/data/02_intermediate/cleaned_Daddy_Lord_C_songs.xlsx
+++ b/data/02_intermediate/cleaned_Daddy_Lord_C_songs.xlsx
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Suzie était une fille du genre de celles qui rassasient Aussi bien montée, compacte qu'un pistolet Uzi Uzi, te fais pas d'souci c'coup-ci pas d'homicide Cette meuf parmi les autres elle fait office d'insecticide La rencontre s'effectua un mardi dans une party Pleine à craquer qu'on se serait cru un samedi à Darty J'avertis, avec ou sans képi je m'incruste rect-di Tout de suite la voici sexy qui occupe mon esprit Ses jambes, fines, belles, bonnes, longues, rondes, dodues, jolies La fin je passe dessus dans l'unique but de rester poli Elle débarque dans ma vie comme un coup de fusil à pompe Tout ça pour vous dire je cirai même ses pompes Le D-a-d-y, la grosse pointure, le dur, le totem Coincé tel un gosse, un gamin le jour de son baptême J'avais le freaky flow freaky freaky flow x2 Freaky, freaky, freaky freaky flow freaky flow Freaky, freaky, freaky freaky flow freaky flow Freaky, freaky, freaky freaky flow freaky flow Freaky, freaky, freaky freaky flow Remplie de gaz, pleine de faces et faux airs d'enfant sage Je bousille ton courage, te forçant à tourner la page Suffit que tu te fâches, qu'elle perde son sourire aux lèvres Que veux-tu que je réponde à part que moi même j'avais la fièvre ? Elle disait toujours non pour ce qui est de rendre un homme content Ceci étant pour tout dépense vainement mon argent comptant Sac à main, veste chic, chaussures en croco Elle m'a quitté illico pour rejoindre un toxico Ca m'apprendra à jouer les timides, les tendres, les Bell Biv DeVoe Cest mon talon dAchille, ma faiblesse, mon défaut Elle se la raconte trop, vraiment, pour ce qu'elle vaut J'avais sous-estimé son vice de haut niveau You might also like x2 Suzie n'arrêtait pas de commettre des bêtises Cela constituait son trip, son pied, sa hantise Je ne comptais pas prendre une décision hâtive Mais au rythme, mouvement, à la façon dont les choses s'activent Il faut agir, ce problème s'éternise Je reste, demeure un homme d'action qu'on se le dise Le D-a-d-y L-o-r-d C te brise Suzie l'a saisi pour sa plus grande surprise Doucement, lentement, je m'impose pour qui ose Sous prétexte davoir avalé des Cheerios Nuire à mon business qu'est le rap, la fesse Pas de politesse en ce qui concerne le sexe Le calme, le pardon à d'autres je les laisse Foncer, se dépenser, s'enfoncer, s'élancer Lancer en français du sensé bien pensé Voici l'odyssée, le Calypso de mes pensées Bonnes ou mauvaises, lascar mets-toi à l'aise J'apaise le malaise qui pèse car en gros J'annonce la couleur, indique la météo Le Maître Capello des lettres et des mots Avait le freaky freaky freak, le freaky flow Freaky, freaky, freaky flow x3 Yo, pour La Cliqua ! Freaky Flow remix , dans la place ! C'est comme ça que ça se passe !</t>
+          <t>Suzie était une fille du genre de celles qui rassasient Aussi bien montée, compacte qu'un pistolet Uzi Uzi, te fais pas d'souci c'coup-ci pas d'homicide Cette meuf parmi les autres elle fait office d'insecticide La rencontre s'effectua un mardi dans une party Pleine à craquer qu'on se serait cru un samedi à Darty J'avertis, avec ou sans képi je m'incruste rect-di Tout de suite la voici sexy qui occupe mon esprit Ses jambes, fines, belles, bonnes, longues, rondes, dodues, jolies La fin je passe dessus dans l'unique but de rester poli Elle débarque dans ma vie comme un coup de fusil à pompe Tout ça pour vous dire je cirai même ses pompes Le D-a-d-y, la grosse pointure, le dur, le totem Coincé tel un gosse, un gamin le jour de son baptême J'avais le freaky flow freaky freaky flow x2 Freaky, freaky, freaky freaky flow freaky flow Freaky, freaky, freaky freaky flow freaky flow Freaky, freaky, freaky freaky flow freaky flow Freaky, freaky, freaky freaky flow Remplie de gaz, pleine de faces et faux airs d'enfant sage Je bousille ton courage, te forçant à tourner la page Suffit que tu te fâches, qu'elle perde son sourire aux lèvres Que veux-tu que je réponde à part que moi même j'avais la fièvre ? Elle disait toujours non pour ce qui est de rendre un homme content Ceci étant pour tout dépense vainement mon argent comptant Sac à main, veste chic, chaussures en croco Elle m'a quitté illico pour rejoindre un toxico Ca m'apprendra à jouer les timides, les tendres, les Bell Biv DeVoe Cest mon talon dAchille, ma faiblesse, mon défaut Elle se la raconte trop, vraiment, pour ce qu'elle vaut J'avais sous-estimé son vice de haut niveau x2 Suzie n'arrêtait pas de commettre des bêtises Cela constituait son trip, son pied, sa hantise Je ne comptais pas prendre une décision hâtive Mais au rythme, mouvement, à la façon dont les choses s'activent Il faut agir, ce problème s'éternise Je reste, demeure un homme d'action qu'on se le dise Le D-a-d-y L-o-r-d C te brise Suzie l'a saisi pour sa plus grande surprise Doucement, lentement, je m'impose pour qui ose Sous prétexte davoir avalé des Cheerios Nuire à mon business qu'est le rap, la fesse Pas de politesse en ce qui concerne le sexe Le calme, le pardon à d'autres je les laisse Foncer, se dépenser, s'enfoncer, s'élancer Lancer en français du sensé bien pensé Voici l'odyssée, le Calypso de mes pensées Bonnes ou mauvaises, lascar mets-toi à l'aise J'apaise le malaise qui pèse car en gros J'annonce la couleur, indique la météo Le Maître Capello des lettres et des mots Avait le freaky freaky freak, le freaky flow Freaky, freaky, freaky flow x3 Yo, pour La Cliqua ! Freaky Flow remix , dans la place ! C'est comme ça que ça se passe !</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Id like to propose something to you Lets have a friendly little keystyle battle. You seem to think youre hot shit, and I respect that kind of mentality. 3 rounds on the RG forums, judged by the community, if you can beat me, I will produce your debut mixtapeEPalbumwhatever or at least a large portion of it up to 10 tracks Ok lets ignite this fight I spit so much fire Ill spark the fucking mic Light the joint fly so high call me a wright After Im done youll be sleeping six feet under with a night light Just wait cause when Im done with you Youll be scared straight to bump into Me again the the streets You know I run that shit like Spoelstra run the heat Yo momma should run to lose it cause shes obese Listen to me, use your imagination Cause what Im about to say aint no exaggeration Your dickll be stitched to your nipples Youre gonna be hunched over and bruised like a cripple Your ballsll be cut off and dangled through your nostrils down your throat Everytime you scream shitll be sounding like a mountain goat Cause your throatll be cut too and the bloodll be gushing down your esophagus Come here little girl you wanna big sloppy kiss? Oops! Your screaming sounds too much like your mother Especially when I cant see here in the dark, your squirming reminds of her You might also likeCause she used to swallow pills like a drain And youre failed abortion didnt help her much with the pain Portal veins too heavy with roofie poisoned alcohol That bitch gets passed around so many times shes like a basketball And who knows whos your daddy Im willing to bet your moms stripper money that its shaggy N they were both butt naked bangin on the bathroom floor Cops kicked in the door waving their four fours And that nigga saw trouble and kicked out the window and ran Then he screamed catch me if you can Im a gingerbread man Nigga was crazy and your mom was in a daze see? I came in fucked her and know its out of her dang reach Preach Check out that last paragraph, its an acronym lol Okay, okay okay Im from the California Coast, boy, beaches and bridges You tryna Mac like Dre, but you aint sleepin' with bitches See here, your whole rap styles a gimmick just like Frees beard That shit about Ill kill your daddy and fuck your mom wouldve sounded dope, butmy parents been divorced 15 years And I dont know how, but it seems before this fight you got some intel How in 10th grade Id take 10 vals, crush em all up at once inhale And I suggest you try it, cause Id love to see you in hell Andoh, wait, that pill line was about my moms too? Shit, well Your parents had you cause they were too broke to even buy rubbers And who are you tryna battle rap here anyways, me or my mother? See, I keep an actual ninjato, swing my sword hella hard You have Dungeons and Dragons bars like a fourth-level bard And Catnips a fuckin' Owlbear, you best fuck up outta here Listen faggot, talkin' bout my dick like that is not allowed in here! You dress like a fat bitch in a pink cheeta-print tee WellIm guessing you do, because youve never been seen in the streets Cause you like a crippled bitch, needin' a machine just to breathe I got them iron lungs, you got one around your body And out your whole round you only had one bar Im gon' see You bout as fly as Wright brothersbefore 1903 And after you lose this fair and square I bet youll try to steal a beat But heystart your rebuttals any time you feel the need From the California coast? Battle with me its like getting tied to a whipping post Pose like your ancestors and get prepared for this roast Nigga my raps are so breath taking its like the Ivory Coast In the name of the Father, Son, and Holy Ghost Whoops I forgot you dont have the Father, so thats why youre so morose Gonna rep the west, ok do your best Just dont forget to wear that bulletproof vest Cause Ill pop those five shots till you drop like Pac Except theyll be no crying at your funeral just your sliced off cock Ok so youre an owlbear, is that named after the way your mother howled when she put nare on her back to rip off the hair? Just remember hedwig died in mid air You might think your soaring now but just wait Wait till you walk around the New York State Best be checking over your shoulders cause its getting a little late Try and stab me you hit an armored plate Not used to being able to see cause of all that smog Beating your ass and trying drown you in the sea, guess I took over your dads job Keep quiet in the basement till the storm blows over Take out your dragon game and blow the dust off the cover Cause its 2013 and youre rhythm sounds like a washer machine Got an iron lung? Then call my raps lightning cause I strike that and put up a smoke screen The puffs turn chronic green , im smoking royal call it the queen Ill tear your face off and wear it as a mask on Halloween Even if you could pop me like Pac, Id find a way to refute ya Aint you heard? Pacs alive in Cuba All you say is, my mom this, my dad this, my trees that Im from Cali where your weed is grown, and bitch I dont believe that But I actually rap, and your shit I believes whack But to prove Im better, Ill play you at your own game and beat that! Ahem Youre never ever testin' me My bitch gave your dad a STD You starin' up at the sky like Lord, bless me please How bout you stop with all that prayin, and just emcee? You gonna rep the East? Okay, thats effin weak How you gon' like it when I stick my razor blades here? Lets just see Hold up, where are those razor blades goin? They gettin' left in me? Who knows? You cant even spit your lil murder raps descriptively! I will shit up your asshole and piss on your dick Dawg, you infected, that shit on your dickhas some shit on its dick And I hope you think thats stupid and disgusting, cause suprise, suprise Thats the way I feel bout four out of 5 of your lines Fuck that, fuck that, fuck that y'all wanna hear some real battle rap shit? I slide like M. Bison, your fat ass more E. Honda Bring flames like Dhalsim, and my kicksll T-Hawk ya So think youll see me in the street? You fuckin' lame, guy My bitch look like Chun-Li and your bitch is named Guy! You want me to be descriptive? Don think your murderll be vindictive My raps are very addictive like your rhymes are very predictive You seem conflicted Are you really as gay as you depicted? Shitting on my asshole and pissing on my dick I guess Ill have to end your life quick before I get sick Or before you try and slick your prick and get a couple licks in quick Nigga yous as gay as those cousin fucking hicks Well first off let me get you alone or in a group it dont matter Cause once I introduce myself as the well known Funkmaster, the restll scatter Ill slit your wrists or at least the ones that already show that pattern Duck tape your mouth shut, actually leave it open I like hearing you try to rap battle it makes my rhymes seem golden Ill Take a hammer and fuck up your head maybe make it more swollen Take some rusty nails and stick em through your eyes Hammer em in more so your eyes to make it painful when you start to cry Then Ill tear off your nipples and fingernails You might not want me to tell you the rest of the details I dont give a fuck where youre from Cause tonight, your gonna be a Atlantic Ocean scrum Youll join your ancestors at the bottom of the ocean But youre not getting off that easy so put on the lotion Get ready for this cause its gonna be rough Take a hit of a bunt and take your last puff Prepare for your balls being sawed off and shoved up your ass Till they can serve as ovaries soon youll pass out from the carbon monoxide gas Finally cut your head off and stick it on a pike Put it on show for the rest of the world to see what i do to your like When I started this battle, I felt generous, like What have I to lose? If hes dope, Ill produce for him, if not, the guyll lose So he spit, and with each round it became clear-oh my, its true! Youre a New York washup down to the soul, your spirit guides Papoose! You love to talk about ridin' dicks when you ride the mic Thats half why its assured that victory is mine tonight Ohwait, you were calling me a faggot? Youd be kinda right Except you guessed my gender wrong, stupidIm a dyke Seewhen Im not battling Im speaking at meditation centers, droppin' zen wisdom You stay cooped up in your room writing erotic friend-fiction And Im sure youve got bars in whatever language youre speakin' But youre battling in America now, you gotta learn English Only needed 12 bars for this one</t>
+          <t>Id like to propose something to you Lets have a friendly little keystyle battle. You seem to think youre hot shit, and I respect that kind of mentality. 3 rounds on the RG forums, judged by the community, if you can beat me, I will produce your debut mixtapeEPalbumwhatever or at least a large portion of it up to 10 tracks Ok lets ignite this fight I spit so much fire Ill spark the fucking mic Light the joint fly so high call me a wright After Im done youll be sleeping six feet under with a night light Just wait cause when Im done with you Youll be scared straight to bump into Me again the the streets You know I run that shit like Spoelstra run the heat Yo momma should run to lose it cause shes obese Listen to me, use your imagination Cause what Im about to say aint no exaggeration Your dickll be stitched to your nipples Youre gonna be hunched over and bruised like a cripple Your ballsll be cut off and dangled through your nostrils down your throat Everytime you scream shitll be sounding like a mountain goat Cause your throatll be cut too and the bloodll be gushing down your esophagus Come here little girl you wanna big sloppy kiss? Oops! Your screaming sounds too much like your mother Especially when I cant see here in the dark, your squirming reminds of her Cause she used to swallow pills like a drain And youre failed abortion didnt help her much with the pain Portal veins too heavy with roofie poisoned alcohol That bitch gets passed around so many times shes like a basketball And who knows whos your daddy Im willing to bet your moms stripper money that its shaggy N they were both butt naked bangin on the bathroom floor Cops kicked in the door waving their four fours And that nigga saw trouble and kicked out the window and ran Then he screamed catch me if you can Im a gingerbread man Nigga was crazy and your mom was in a daze see? I came in fucked her and know its out of her dang reach Preach Check out that last paragraph, its an acronym lol Okay, okay okay Im from the California Coast, boy, beaches and bridges You tryna Mac like Dre, but you aint sleepin' with bitches See here, your whole rap styles a gimmick just like Frees beard That shit about Ill kill your daddy and fuck your mom wouldve sounded dope, butmy parents been divorced 15 years And I dont know how, but it seems before this fight you got some intel How in 10th grade Id take 10 vals, crush em all up at once inhale And I suggest you try it, cause Id love to see you in hell Andoh, wait, that pill line was about my moms too? Shit, well Your parents had you cause they were too broke to even buy rubbers And who are you tryna battle rap here anyways, me or my mother? See, I keep an actual ninjato, swing my sword hella hard You have Dungeons and Dragons bars like a fourth-level bard And Catnips a fuckin' Owlbear, you best fuck up outta here Listen faggot, talkin' bout my dick like that is not allowed in here! You dress like a fat bitch in a pink cheeta-print tee WellIm guessing you do, because youve never been seen in the streets Cause you like a crippled bitch, needin' a machine just to breathe I got them iron lungs, you got one around your body And out your whole round you only had one bar Im gon' see You bout as fly as Wright brothersbefore 1903 And after you lose this fair and square I bet youll try to steal a beat But heystart your rebuttals any time you feel the need From the California coast? Battle with me its like getting tied to a whipping post Pose like your ancestors and get prepared for this roast Nigga my raps are so breath taking its like the Ivory Coast In the name of the Father, Son, and Holy Ghost Whoops I forgot you dont have the Father, so thats why youre so morose Gonna rep the west, ok do your best Just dont forget to wear that bulletproof vest Cause Ill pop those five shots till you drop like Pac Except theyll be no crying at your funeral just your sliced off cock Ok so youre an owlbear, is that named after the way your mother howled when she put nare on her back to rip off the hair? Just remember hedwig died in mid air You might think your soaring now but just wait Wait till you walk around the New York State Best be checking over your shoulders cause its getting a little late Try and stab me you hit an armored plate Not used to being able to see cause of all that smog Beating your ass and trying drown you in the sea, guess I took over your dads job Keep quiet in the basement till the storm blows over Take out your dragon game and blow the dust off the cover Cause its 2013 and youre rhythm sounds like a washer machine Got an iron lung? Then call my raps lightning cause I strike that and put up a smoke screen The puffs turn chronic green , im smoking royal call it the queen Ill tear your face off and wear it as a mask on Halloween Even if you could pop me like Pac, Id find a way to refute ya Aint you heard? Pacs alive in Cuba All you say is, my mom this, my dad this, my trees that Im from Cali where your weed is grown, and bitch I dont believe that But I actually rap, and your shit I believes whack But to prove Im better, Ill play you at your own game and beat that! Ahem Youre never ever testin' me My bitch gave your dad a STD You starin' up at the sky like Lord, bless me please How bout you stop with all that prayin, and just emcee? You gonna rep the East? Okay, thats effin weak How you gon' like it when I stick my razor blades here? Lets just see Hold up, where are those razor blades goin? They gettin' left in me? Who knows? You cant even spit your lil murder raps descriptively! I will shit up your asshole and piss on your dick Dawg, you infected, that shit on your dickhas some shit on its dick And I hope you think thats stupid and disgusting, cause suprise, suprise Thats the way I feel bout four out of 5 of your lines Fuck that, fuck that, fuck that y'all wanna hear some real battle rap shit? I slide like M. Bison, your fat ass more E. Honda Bring flames like Dhalsim, and my kicksll T-Hawk ya So think youll see me in the street? You fuckin' lame, guy My bitch look like Chun-Li and your bitch is named Guy! You want me to be descriptive? Don think your murderll be vindictive My raps are very addictive like your rhymes are very predictive You seem conflicted Are you really as gay as you depicted? Shitting on my asshole and pissing on my dick I guess Ill have to end your life quick before I get sick Or before you try and slick your prick and get a couple licks in quick Nigga yous as gay as those cousin fucking hicks Well first off let me get you alone or in a group it dont matter Cause once I introduce myself as the well known Funkmaster, the restll scatter Ill slit your wrists or at least the ones that already show that pattern Duck tape your mouth shut, actually leave it open I like hearing you try to rap battle it makes my rhymes seem golden Ill Take a hammer and fuck up your head maybe make it more swollen Take some rusty nails and stick em through your eyes Hammer em in more so your eyes to make it painful when you start to cry Then Ill tear off your nipples and fingernails You might not want me to tell you the rest of the details I dont give a fuck where youre from Cause tonight, your gonna be a Atlantic Ocean scrum Youll join your ancestors at the bottom of the ocean But youre not getting off that easy so put on the lotion Get ready for this cause its gonna be rough Take a hit of a bunt and take your last puff Prepare for your balls being sawed off and shoved up your ass Till they can serve as ovaries soon youll pass out from the carbon monoxide gas Finally cut your head off and stick it on a pike Put it on show for the rest of the world to see what i do to your like When I started this battle, I felt generous, like What have I to lose? If hes dope, Ill produce for him, if not, the guyll lose So he spit, and with each round it became clear-oh my, its true! Youre a New York washup down to the soul, your spirit guides Papoose! You love to talk about ridin' dicks when you ride the mic Thats half why its assured that victory is mine tonight Ohwait, you were calling me a faggot? Youd be kinda right Except you guessed my gender wrong, stupidIm a dyke Seewhen Im not battling Im speaking at meditation centers, droppin' zen wisdom You stay cooped up in your room writing erotic friend-fiction And Im sure youve got bars in whatever language youre speakin' But youre battling in America now, you gotta learn English Only needed 12 bars for this one</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Écoute ça gars, écoute ça gars Mattes les dégâts, comment on kill Ça va Daddy ? Tranquille A part ça qu'est ce qu'on dit ? On arrive avec du flow, le reste, notre blaze le fournit On a pas dormi sur nos lauriers, il y a un taf de fourmis Un produit Parisien, non ça vient pas de Californie Hormis les on-dit, on s'est réunis Comme à l'époque des grands MC's Bénit soit le rap à l'ancienne, code de rue, contrat que l'on scelle Les ragots qui XXX à la Seine, les sticks aux pompes à la pelle Les nuits blanches, j'sais plus laquelle, mythoner c'est pas la peine Tous baignés de courage et d'aubaines Les plus faibles finissent dans la benne Ma profession négocier et rapper Fuck les 35 heures, moi j'veux palper Le plus dur c'est pas de faire de la monnaie Mais c'est de rester vrai dans le succès tu le sais J'roule comme mes trieuses de billets J'fais du cash depuis que j'ai plus mes dents de lait Si je rappe encore mes vieux couplets C'est qu'une parcelle de mon âme y est Passion, raison, action, ambition Un but pour partir en mission L'objectif changer de condition C'est le savoir qui payera l'addition Nous sommes toujours colère, décision Détermination sans friction Le bitume, son atmosphère, sa façon d'agir, ses dictons You might also like Blah, brah, écoutes ça gars, mattes les dégâts Blah, brah, on remet ça gars, v'là La Squadra Mentalité Africaine, exportation toujours Colombienne Que Dieu bénisse le rap à l'ancienne, bénit soit le rap à l'ancienne Le bras long balançant devant XXX Y'a pas que sur le terrain que l'on XXX Que Dieu bénisse le rap à l'ancienne, bénit soit le rap à l'ancienne MC tu l'a ressenti, tu t'es repenti, pas de tié-pi, ni de répit - Comment on kill ! - Ça va Daddy ? - Tranquille A part ça qu'est ce qu'on dit ? 1</t>
+          <t>Écoute ça gars, écoute ça gars Mattes les dégâts, comment on kill Ça va Daddy ? Tranquille A part ça qu'est ce qu'on dit ? On arrive avec du flow, le reste, notre blaze le fournit On a pas dormi sur nos lauriers, il y a un taf de fourmis Un produit Parisien, non ça vient pas de Californie Hormis les on-dit, on s'est réunis Comme à l'époque des grands MC's Bénit soit le rap à l'ancienne, code de rue, contrat que l'on scelle Les ragots qui XXX à la Seine, les sticks aux pompes à la pelle Les nuits blanches, j'sais plus laquelle, mythoner c'est pas la peine Tous baignés de courage et d'aubaines Les plus faibles finissent dans la benne Ma profession négocier et rapper Fuck les 35 heures, moi j'veux palper Le plus dur c'est pas de faire de la monnaie Mais c'est de rester vrai dans le succès tu le sais J'roule comme mes trieuses de billets J'fais du cash depuis que j'ai plus mes dents de lait Si je rappe encore mes vieux couplets C'est qu'une parcelle de mon âme y est Passion, raison, action, ambition Un but pour partir en mission L'objectif changer de condition C'est le savoir qui payera l'addition Nous sommes toujours colère, décision Détermination sans friction Le bitume, son atmosphère, sa façon d'agir, ses dictons Blah, brah, écoutes ça gars, mattes les dégâts Blah, brah, on remet ça gars, v'là La Squadra Mentalité Africaine, exportation toujours Colombienne Que Dieu bénisse le rap à l'ancienne, bénit soit le rap à l'ancienne Le bras long balançant devant XXX Y'a pas que sur le terrain que l'on XXX Que Dieu bénisse le rap à l'ancienne, bénit soit le rap à l'ancienne MC tu l'a ressenti, tu t'es repenti, pas de tié-pi, ni de répit - Comment on kill ! - Ça va Daddy ? - Tranquille A part ça qu'est ce qu'on dit ? 1</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Ouais, prends garde à toi MC Fais gaffe, tourne pas le dos MC, prends garde à toi Prends garde à toi MC Fais gaffe, tourne pas le dos Fais gaffe, fais gaffe C'est fou comment l'argent, les gens, même toi as plutôt changé Depuis que je te vois manger sous prétexte que tu t'es rangé Néglige de te venger Bataille clairement au moindre danger Combien d'affreux ramassé à la petite cuillée Pas grâce à toi, même pour l'honneur dépouiller Tu fuyais, craignant que la police vienne t'ennuyer Après qui on retrouve vantant les quartiers chaud au mois de juillet? Dans le domaine du courage, si l'on te paye, plus on me paye À croire qu'un bon flow, du baratin ça fait des merveilles Évidemment dans ton attitude, t'as pas ton pareil Mais gare au réveil, sort de sa bouteille Moët Chandon, Black White, d'la cité Pure sans puls-cru d'la rue, rien qu'la qualité Toute l'année t'es invité, pas seulement un son pour l'été Gamin en VTT, lascar en BMW Ramène ton pé-pé Kiffe ma dope comme dit Gué-gué Pas une raison j'offre a tout le monde le pot de l'amitié Aucune pitié que tu sois pauvre ou plein de liquidités You might also like Chacun son tour, j'attendrai pas, pour te faire la peau Ce que la rue te donne peut te le reprendre a tout bout de champ x3 Renie ton quartier, sous prétexte au bras une montre Cartier Langage de charretier, slang, l'argot extraverti Lequel avec dans les party tu faisais la sère-mi En l'occurrence, trémousser, les immigrés, tes amis M'sieur joue les mondains Depuis qu'il est devenu quelqu'un Il y en a plus d'un, qui rêve de te briser les reins Mais ça ne fait rien, ça te fait rien, m'sieur boit du vin Porte du lin, manque pas d'compagnie pour les câlins Faut dire avant tu mangeais des pâtes, aujourd'hui t'es fat Vas pouvoir enfin soulager ta rate gaver de tsap Ta famille tu t'en tapes, ce qui compte, l'argent entre tes mains moites Des nouvelles connaissances, celles qu'on rencontre qu'en boite Tu t'en fiches, soit ! Après traite pas la vie d'ingrate Tout ça parce que tu racles, quand chez toi débarque les hommes en cravate Ou l'on te savate, t'as pas voulu partager Seul tu as mangé, seul garçon tu vas plonger Que toi pour regretter ou reculer, même y songer Se venger, contente-toi ton sang de l'éponger Chacun son tour, j'attendrai pas, pour te faire la peau Ce que la rue te donne peut te le reprendre à tout bout de champ x3 T'étonne pas si dorénavant, l'on te passe un savon Puisque auparavant, avec tes gars tu traînais souvent Fidèle d'ailleurs comptant qui te le prouve a tout moment Vu ton quartier solidaire en concert sans cesse en mouvement Maintenant exactement, que deviennent ces lieutenants Que deviennent ceux qui mirent a ton service leur côté violent Ose attendre pour autant d'l'argent un geste galant Mais qu'à présent, tu arbores les rues cigare au volant Prétentieux, pourquoi faisais du boucan de délinquant Pousse pas l'bouchon trop loin, elle t'aime, je sais, mais gare au volcan Ce que la rue te donne peut te le reprendre à tout bout de champ C'n'est pas tout le monde que tu corromps avec un billet de 500 Même au fin fond de ma banlieue où coule le bon son Ou voulait une profession banale comme d'autre une fonction Quel que soit le dilemme, la situation aucune délation Trahison dépit des exactions Commises par le crew Autant finir sous les verrous Six pieds sous terre au cimetière couché au fond d'un trou Que ça ne vaille ou pas l'coup, je lâche pas mes gars malgré tout Je laisse ça aux autres, tant pis pour moi si je me vautre Chacun son tour mais j'attendrai pas pour te faire la peau Ce que la rue te donne peux te le reprendre à tout bout de champ Chacun son tour, j'attendrai pas, pour te faire la peau Ce que la rue te donne peut te le reprendre à tout bout de champ x4 Ce que la rue te donne peut te le reprendre à tout bout de champ A tout bout de champ</t>
+          <t>Ouais, prends garde à toi MC Fais gaffe, tourne pas le dos MC, prends garde à toi Prends garde à toi MC Fais gaffe, tourne pas le dos Fais gaffe, fais gaffe C'est fou comment l'argent, les gens, même toi as plutôt changé Depuis que je te vois manger sous prétexte que tu t'es rangé Néglige de te venger Bataille clairement au moindre danger Combien d'affreux ramassé à la petite cuillée Pas grâce à toi, même pour l'honneur dépouiller Tu fuyais, craignant que la police vienne t'ennuyer Après qui on retrouve vantant les quartiers chaud au mois de juillet? Dans le domaine du courage, si l'on te paye, plus on me paye À croire qu'un bon flow, du baratin ça fait des merveilles Évidemment dans ton attitude, t'as pas ton pareil Mais gare au réveil, sort de sa bouteille Moët Chandon, Black White, d'la cité Pure sans puls-cru d'la rue, rien qu'la qualité Toute l'année t'es invité, pas seulement un son pour l'été Gamin en VTT, lascar en BMW Ramène ton pé-pé Kiffe ma dope comme dit Gué-gué Pas une raison j'offre a tout le monde le pot de l'amitié Aucune pitié que tu sois pauvre ou plein de liquidités Chacun son tour, j'attendrai pas, pour te faire la peau Ce que la rue te donne peut te le reprendre a tout bout de champ x3 Renie ton quartier, sous prétexte au bras une montre Cartier Langage de charretier, slang, l'argot extraverti Lequel avec dans les party tu faisais la sère-mi En l'occurrence, trémousser, les immigrés, tes amis M'sieur joue les mondains Depuis qu'il est devenu quelqu'un Il y en a plus d'un, qui rêve de te briser les reins Mais ça ne fait rien, ça te fait rien, m'sieur boit du vin Porte du lin, manque pas d'compagnie pour les câlins Faut dire avant tu mangeais des pâtes, aujourd'hui t'es fat Vas pouvoir enfin soulager ta rate gaver de tsap Ta famille tu t'en tapes, ce qui compte, l'argent entre tes mains moites Des nouvelles connaissances, celles qu'on rencontre qu'en boite Tu t'en fiches, soit ! Après traite pas la vie d'ingrate Tout ça parce que tu racles, quand chez toi débarque les hommes en cravate Ou l'on te savate, t'as pas voulu partager Seul tu as mangé, seul garçon tu vas plonger Que toi pour regretter ou reculer, même y songer Se venger, contente-toi ton sang de l'éponger Chacun son tour, j'attendrai pas, pour te faire la peau Ce que la rue te donne peut te le reprendre à tout bout de champ x3 T'étonne pas si dorénavant, l'on te passe un savon Puisque auparavant, avec tes gars tu traînais souvent Fidèle d'ailleurs comptant qui te le prouve a tout moment Vu ton quartier solidaire en concert sans cesse en mouvement Maintenant exactement, que deviennent ces lieutenants Que deviennent ceux qui mirent a ton service leur côté violent Ose attendre pour autant d'l'argent un geste galant Mais qu'à présent, tu arbores les rues cigare au volant Prétentieux, pourquoi faisais du boucan de délinquant Pousse pas l'bouchon trop loin, elle t'aime, je sais, mais gare au volcan Ce que la rue te donne peut te le reprendre à tout bout de champ C'n'est pas tout le monde que tu corromps avec un billet de 500 Même au fin fond de ma banlieue où coule le bon son Ou voulait une profession banale comme d'autre une fonction Quel que soit le dilemme, la situation aucune délation Trahison dépit des exactions Commises par le crew Autant finir sous les verrous Six pieds sous terre au cimetière couché au fond d'un trou Que ça ne vaille ou pas l'coup, je lâche pas mes gars malgré tout Je laisse ça aux autres, tant pis pour moi si je me vautre Chacun son tour mais j'attendrai pas pour te faire la peau Ce que la rue te donne peux te le reprendre à tout bout de champ Chacun son tour, j'attendrai pas, pour te faire la peau Ce que la rue te donne peut te le reprendre à tout bout de champ x4 Ce que la rue te donne peut te le reprendre à tout bout de champ A tout bout de champ</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Daddy Jen balance une aux vrais gars, Nouvelle école ou vétéran Du Ter-Ter actif gros, Du bitume opérant Cash franc-parler, Peu dbla-bla ni dOpéra Ya que laction sans suivi qui nous plaira et nous paiera Si tentends parler dnous un peu partout, là ou tu iras La rue possède ses putains, mais aussi ses héros O.G. du terre-plein bouillant, tu tes cheminé Je sais que tas lseum, et tu ne peux que le ruminer Le Rap cest mieux maintenant, ce que disent prétendre les minots Grace au bombes dans les bacs depuis, nous disséminons Jconçoit et jrespecte le coté hardcore dun jeune Méfies-toi de ce vieux, qui porte encore un jean Hardcore cest ldeal, Tyson Pelé Zinedine Jconnais aucun combatant ou guerrier qui ne dine Ouvrier, gangster, homme daffaire, médecin Si la fourchette est belle, toujours prêt à remettre ça Lacoste, Fila, Wrung Division, Tacchini On vient pas tapiner, quand lpavé on vient le taquiner Ok ça va pas tarrêter tfaçon, si tas dlappétit Par contre si tas pas lbras long, arraches-toi dla petit Du sud au nord on monte le son, Serres le verre à ras bord Jrime hardcore jdis ce qui me plait dabord surtout ce que jdéplore Jfous ldel-bor quand jsort, pour les frères qui manquent au rapport Toujours le mors aucun remords, comme ce Rap dur quon adore You might also likeCest pour lépoque Bruce Lee tas vu, G-Money, Nino, San-ku-kaï Le couvre-feu d20 heure, lorsque le ghetto est sous Sky Tu veux goûter, tester lancienneté, no-souci . tas lbeau grenaille, coup dcisaille Les ragots dingues, les gens trimbalent, déballent ou quils aillent La tendance, lambiance, le seigneur des représailles Toujours op sous la neige la pluie ou la grisaille Si ya un bail ou quand on prétends que le rap est die Bitume qui graille, débrouillard méritant une médaille Faut pas qutu râles ou qutu railles, et yaura pas dpagaille De ces canailles le goût du jus dpapaye Jtépargne certains détails, ranges ta marmaille au bercail Ta petite on guette sa taille, comme un loup quitte du bétail Aie aie aie, accroches-toi Du sud au nord on monte le son, Serres le verre à ras bord Jrime hardcore jdis ce qui me plait dabord surtout ce que jdéplore Jfous ldel-bor quand jsort, pour les frères qui manquent au rapport Toujours le mors aucun remords, comme ce Rap dur quon adore</t>
+          <t>Daddy Jen balance une aux vrais gars, Nouvelle école ou vétéran Du Ter-Ter actif gros, Du bitume opérant Cash franc-parler, Peu dbla-bla ni dOpéra Ya que laction sans suivi qui nous plaira et nous paiera Si tentends parler dnous un peu partout, là ou tu iras La rue possède ses putains, mais aussi ses héros O.G. du terre-plein bouillant, tu tes cheminé Je sais que tas lseum, et tu ne peux que le ruminer Le Rap cest mieux maintenant, ce que disent prétendre les minots Grace au bombes dans les bacs depuis, nous disséminons Jconçoit et jrespecte le coté hardcore dun jeune Méfies-toi de ce vieux, qui porte encore un jean Hardcore cest ldeal, Tyson Pelé Zinedine Jconnais aucun combatant ou guerrier qui ne dine Ouvrier, gangster, homme daffaire, médecin Si la fourchette est belle, toujours prêt à remettre ça Lacoste, Fila, Wrung Division, Tacchini On vient pas tapiner, quand lpavé on vient le taquiner Ok ça va pas tarrêter tfaçon, si tas dlappétit Par contre si tas pas lbras long, arraches-toi dla petit Du sud au nord on monte le son, Serres le verre à ras bord Jrime hardcore jdis ce qui me plait dabord surtout ce que jdéplore Jfous ldel-bor quand jsort, pour les frères qui manquent au rapport Toujours le mors aucun remords, comme ce Rap dur quon adore Cest pour lépoque Bruce Lee tas vu, G-Money, Nino, San-ku-kaï Le couvre-feu d20 heure, lorsque le ghetto est sous Sky Tu veux goûter, tester lancienneté, no-souci . tas lbeau grenaille, coup dcisaille Les ragots dingues, les gens trimbalent, déballent ou quils aillent La tendance, lambiance, le seigneur des représailles Toujours op sous la neige la pluie ou la grisaille Si ya un bail ou quand on prétends que le rap est die Bitume qui graille, débrouillard méritant une médaille Faut pas qutu râles ou qutu railles, et yaura pas dpagaille De ces canailles le goût du jus dpapaye Jtépargne certains détails, ranges ta marmaille au bercail Ta petite on guette sa taille, comme un loup quitte du bétail Aie aie aie, accroches-toi Du sud au nord on monte le son, Serres le verre à ras bord Jrime hardcore jdis ce qui me plait dabord surtout ce que jdéplore Jfous ldel-bor quand jsort, pour les frères qui manquent au rapport Toujours le mors aucun remords, comme ce Rap dur quon adore</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Une heure du mat', serré, flash-back d'une soirée niquée Cul-de-sac d'enfoiré, menotté, privé de ma liberté, coincé Alors que sans fin la Lune déteint dans l'obscurité Alors que certains, comme moi se retrouvent dans un commissariat Plein de flics partout... Pour contrôler les passant che-lou, comme nous, en fly ou baggy Alors qu'un connard plus loin viole une gadji, Paris la nuit Vas-y lâche-moi quest ce que tu fais là? Lâche-le Mais que vont penser mes parents en sortant d'ici ? D'ici les flics se relaient, un par un me manquent de respect, remplissent les taules Des soi-disant stupéfiants qu'ils frôlent Self contrôle jusqu'à l'aube Entassés dans une piaule glauque ! Je sens du hall, l'odeur qui daube d'un clodo qui piaute Drôle de nuit, deux heures et demie Que j'entends sans rien dire des conneries Des blagues nazes de beaufs frustrés sous leurs képis Des sons de Cibi, des machines à écrire sans encre La police une planque pour cancres Qui se concentrent quand leur patron rentre énervé Remake des Ripoux, j'observe les murs lézardés Percés par le cri de suspects interrogés D'injures dispersées, quelques plaintes à déclarer Quand le téléphone sonne, quelques-uns cognent les ivrognes Insomniaques, rap légal, kidnapping, derrière une plaque Des petites frappent refont la justice à coups de matraques Forcé style Gestapo armée 7 heures du mat' et toujours coincé, fiché Ma nationalité les fait tous marrer, saoulé Parmi les piles d'annuaires Des fichus questionnaires, il n'y a rien à faire Si tu t'appelles Rachid, imagine la galère ! Frappées par des éclats de rire, les heures passent Enfermé dans une cage tel un otage Des stups m'insultent en face La loi me menace Piétine mes droits, me pourchasse dans ma liberté, efface Tout processus de paix à coups de godasses Écuré par cette justice en place Je sors d'ici près à me protéger des hommes en képis You might also like Parler qu'en présence d'un avocat Tout ce que tu dis sera contrôlé, puis retenu contre toi De toi à moi, lequel se situe en dehors des lois ? Quelle justice doit protéger mes droits ? Snip, lardus, kisdés, condés, colbocs L'uniforme bleu, l'air sévère, cheville gonflée à bloc En groupe te provoque, solitaire ça fait dans son froc Ton allure de beauf, m'effrayer de qui tu te moques En manque prends une clope Appelle mon gars sur son Bibop Corrompus comme ils sont, n'empêcherons pas l'argent qu'on le chope Les mains qu'on se frotte Face à eux, je me sens toujours plus propre Y'a quoi ? Je lâche mon rott' Je verrait bien comment s'en tire Robocop Tu penses que je débloque Je me fiche que tu me trouve toc-toc Avec Daddy 'faut pas fuck sur ton bloc-notes Faut que tu le notes t'étonnes pas sur le keuf, moi mon crew Le Hip-Hop complote ne me tourne pas le dos Ce sera sans pitié ni cadeaux Je te coulerais comme un paquebot Bien que tu me trouves vilain, pas beau Ta femme, pas de pot, apprécie ce talon d'Achille, ce pied bot L'insigne, l'arme à feu tout est permis Un vrai demi-dieu, mais dans mon milieu N'importe quel gars, même le moins vieux, le plus studieux J'ai pas peur de dire le plus racailleux Se montre toujours plus courageux que ceux qui marchent deux par deux Qui parle d'honneur mal placé Cette jeunesse que les bavures ont froissé ? Facilement classés, leur famille y as-tu pensé ? Te vexe pas si en conséquence t'es récompensé Tu apprendras vite que dans le rap on sait pas seulement danser Pas ltemps de jouer agir Pas qu'un flux de phrases sensées sur fonk fâché Combien de victimes t'as lynché ? De dents qu'ont grincés ? Pour cela d'innocents coincés il pour il, dent pour dent Théorème d'il y a longtemps Pour toi je le reprends et avec je te paye comptant Parler qu'en présence d'un avocat Tout ce que tu dis sera contrôlé, puis retenu contre toi De toi à moi, lequel se situe en dehors des lois ? Quelle justice doit protéger mes droits ? Aucune ligne tracés sur leurs paumes Encore moins de diplômes Pour devenir un bon flic, il suffit de tirer vite Des clones robotisés, la gâchette à la place de la tête LÉtat nous lâche ses bêtes, camouflées sous une plaque et une casquette Me traite pas d'ingrat Quand le premier pas, levant ton bras Aux mains, un corps gras perpétuellement pointé vers moi T'avances criant Negro, t'es fait comme un rat ! Protège ton foie ou tu sauras que je fais pas dans le coton T'aimes pas nos prénoms ? Moussa, Mohamed, Amar, Diouf, Pacheco Pas assez péquenaud ? Pas assez beauf en gros tu veux me faire la peau ? Les hommes ne naissent-ils pas tous égaux ? Je crois bien que non Je suis la jeunesse qui embarrasse beaucoup de fachos garçon !</t>
+          <t>Une heure du mat', serré, flash-back d'une soirée niquée Cul-de-sac d'enfoiré, menotté, privé de ma liberté, coincé Alors que sans fin la Lune déteint dans l'obscurité Alors que certains, comme moi se retrouvent dans un commissariat Plein de flics partout... Pour contrôler les passant che-lou, comme nous, en fly ou baggy Alors qu'un connard plus loin viole une gadji, Paris la nuit Vas-y lâche-moi quest ce que tu fais là? Lâche-le Mais que vont penser mes parents en sortant d'ici ? D'ici les flics se relaient, un par un me manquent de respect, remplissent les taules Des soi-disant stupéfiants qu'ils frôlent Self contrôle jusqu'à l'aube Entassés dans une piaule glauque ! Je sens du hall, l'odeur qui daube d'un clodo qui piaute Drôle de nuit, deux heures et demie Que j'entends sans rien dire des conneries Des blagues nazes de beaufs frustrés sous leurs képis Des sons de Cibi, des machines à écrire sans encre La police une planque pour cancres Qui se concentrent quand leur patron rentre énervé Remake des Ripoux, j'observe les murs lézardés Percés par le cri de suspects interrogés D'injures dispersées, quelques plaintes à déclarer Quand le téléphone sonne, quelques-uns cognent les ivrognes Insomniaques, rap légal, kidnapping, derrière une plaque Des petites frappent refont la justice à coups de matraques Forcé style Gestapo armée 7 heures du mat' et toujours coincé, fiché Ma nationalité les fait tous marrer, saoulé Parmi les piles d'annuaires Des fichus questionnaires, il n'y a rien à faire Si tu t'appelles Rachid, imagine la galère ! Frappées par des éclats de rire, les heures passent Enfermé dans une cage tel un otage Des stups m'insultent en face La loi me menace Piétine mes droits, me pourchasse dans ma liberté, efface Tout processus de paix à coups de godasses Écuré par cette justice en place Je sors d'ici près à me protéger des hommes en képis Parler qu'en présence d'un avocat Tout ce que tu dis sera contrôlé, puis retenu contre toi De toi à moi, lequel se situe en dehors des lois ? Quelle justice doit protéger mes droits ? Snip, lardus, kisdés, condés, colbocs L'uniforme bleu, l'air sévère, cheville gonflée à bloc En groupe te provoque, solitaire ça fait dans son froc Ton allure de beauf, m'effrayer de qui tu te moques En manque prends une clope Appelle mon gars sur son Bibop Corrompus comme ils sont, n'empêcherons pas l'argent qu'on le chope Les mains qu'on se frotte Face à eux, je me sens toujours plus propre Y'a quoi ? Je lâche mon rott' Je verrait bien comment s'en tire Robocop Tu penses que je débloque Je me fiche que tu me trouve toc-toc Avec Daddy 'faut pas fuck sur ton bloc-notes Faut que tu le notes t'étonnes pas sur le keuf, moi mon crew Le Hip-Hop complote ne me tourne pas le dos Ce sera sans pitié ni cadeaux Je te coulerais comme un paquebot Bien que tu me trouves vilain, pas beau Ta femme, pas de pot, apprécie ce talon d'Achille, ce pied bot L'insigne, l'arme à feu tout est permis Un vrai demi-dieu, mais dans mon milieu N'importe quel gars, même le moins vieux, le plus studieux J'ai pas peur de dire le plus racailleux Se montre toujours plus courageux que ceux qui marchent deux par deux Qui parle d'honneur mal placé Cette jeunesse que les bavures ont froissé ? Facilement classés, leur famille y as-tu pensé ? Te vexe pas si en conséquence t'es récompensé Tu apprendras vite que dans le rap on sait pas seulement danser Pas ltemps de jouer agir Pas qu'un flux de phrases sensées sur fonk fâché Combien de victimes t'as lynché ? De dents qu'ont grincés ? Pour cela d'innocents coincés il pour il, dent pour dent Théorème d'il y a longtemps Pour toi je le reprends et avec je te paye comptant Parler qu'en présence d'un avocat Tout ce que tu dis sera contrôlé, puis retenu contre toi De toi à moi, lequel se situe en dehors des lois ? Quelle justice doit protéger mes droits ? Aucune ligne tracés sur leurs paumes Encore moins de diplômes Pour devenir un bon flic, il suffit de tirer vite Des clones robotisés, la gâchette à la place de la tête LÉtat nous lâche ses bêtes, camouflées sous une plaque et une casquette Me traite pas d'ingrat Quand le premier pas, levant ton bras Aux mains, un corps gras perpétuellement pointé vers moi T'avances criant Negro, t'es fait comme un rat ! Protège ton foie ou tu sauras que je fais pas dans le coton T'aimes pas nos prénoms ? Moussa, Mohamed, Amar, Diouf, Pacheco Pas assez péquenaud ? Pas assez beauf en gros tu veux me faire la peau ? Les hommes ne naissent-ils pas tous égaux ? Je crois bien que non Je suis la jeunesse qui embarrasse beaucoup de fachos garçon !</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>V'là la lame dans ta shoes, le soleil quand t'as chaud La rébellion, le coup d'état, le fusil d'assaut Ça fait un bout d'temps, qu'tu m'as pas pas entendu J'ai rien perdu, j'ai l'flow, bien entendu J'apparais pas pour faire le rigolo Je laisse aux autres de vendre pour du dombolo Je respecte mon boulot, avec ou sans promo Rimer, le faire bien, en plus sans trop de gros mots Représenter cet amour qui t'embrasse tendrement Dire qu'notre avenir au quartier, on l'voit autrement J'me lève comme toi, tous les matins Affamé, voire pitbull, tous les matins Un vrai dog, un vrai thug, un Lounès Matoub Je l'dis aux cons on veut péter ma couv' Beaucoup m'approuvent, toi-même tu t'y retrouves, gros Le MC, si tu l'fais, fais-le bien T'étonne pas après si ce cercueil, c'est le tien La vérité si tu la dis, dis-la bien Qu'on t'compte toujours parmi ceux dont on dit du bien Mon nom si tu l'écris, écris-le bien Tu seras jamais le dernier, à l'esprit qui nous viens Le quartier, tu l'décris, décris-le bien Ne mets pas en valeur que les bons à rien You might also like Je viens toucher le monde, c'est une mise à l'amende Verre de thé à la menthe en voiture allemande Je suis pas à la mode XXX loin d'là La loi du bitume, la rue, je viens d'là Avec les putes, les flics et tout c'qui vient d'là Qu'il y ait une descente, qu'on me descende L'essentiel pour chacun, qu'la balle soit remise au centre Je perds pas mon temps, j'ai choisi mon camp, toi ton boucan Que mes gosses tiennent un bouquin Oublie-moi si des principes, t'en as aucun Qu'tu t'sens mal si je suis jaune, noir ou encore Marocain Compte tenu que le bruit tourne, la vie continue Mais une chose surveille ton langage si on continue Ici on a d'quoi te faire grimper aux rideaux Que tu fugues comme sur ce poulet dans ton frigo Le MC, si tu l'fais, fais-le bien T'étonne pas après si ce cercueil, c'est le tien La vérité si tu la dis, dis-la bien Qu'on t'compte toujours parmi ceux dont on dit du bien Mon nom si tu l'écris, écris-le bien Tu seras jamais le dernier, à l'esprit qui nous viens Le quartier, tu l'décris, décris-le bien Ne mets pas en valeur que les bons à rien À quoi veux-tu ressembler, à un gars qui fait semblant Plein de faux-semblants, uzi même sans plan Ça devient à la mode de devenir un hustler Franchement entre nous, est-ce le moment, est-ce l'heure La vie qu'tu mènes ne sera jamais un best-seller Même si t'as pas en paix ces nerfs et dans le vol tu persévères Consomme pas ces merdes, ça nous convient pas c'est mort Je cours pas après ces chimères, pourquoi le bon son se meurt En plus, aujourd'hui j'suis pas d'humeur Autre chose à penser, moi ma ville y a pas de maire Pour avancer, le hip-hop ma voie et quelques potes Se mettre bien, toujours reçu dans quelques boîtes Un point d'honneur si dans la famille quelqu'un lutte T'es stressé? Écoute ça, prends quelques lattes Tu verras qu'tu connais pas mais c'est pas mauvais Dépêche-toi, n'attends pas ce jour où je m'en vais Toute façon, tu verras si je m'en fais Le MC, si tu l'fais, fais-le bien T'étonne pas après si ce cercueil, c'est le tien La vérité si tu la dis, dis-la bien Qu'on t'compte toujours parmi ceux dont on dit du bien Mon nom si tu l'écris, écris-le bien Tu seras jamais le dernier, à l'esprit qui nous viens Le quartier, tu l'décris, décris-le bien Ne mets pas en valeur que les bons à rien</t>
+          <t>V'là la lame dans ta shoes, le soleil quand t'as chaud La rébellion, le coup d'état, le fusil d'assaut Ça fait un bout d'temps, qu'tu m'as pas pas entendu J'ai rien perdu, j'ai l'flow, bien entendu J'apparais pas pour faire le rigolo Je laisse aux autres de vendre pour du dombolo Je respecte mon boulot, avec ou sans promo Rimer, le faire bien, en plus sans trop de gros mots Représenter cet amour qui t'embrasse tendrement Dire qu'notre avenir au quartier, on l'voit autrement J'me lève comme toi, tous les matins Affamé, voire pitbull, tous les matins Un vrai dog, un vrai thug, un Lounès Matoub Je l'dis aux cons on veut péter ma couv' Beaucoup m'approuvent, toi-même tu t'y retrouves, gros Le MC, si tu l'fais, fais-le bien T'étonne pas après si ce cercueil, c'est le tien La vérité si tu la dis, dis-la bien Qu'on t'compte toujours parmi ceux dont on dit du bien Mon nom si tu l'écris, écris-le bien Tu seras jamais le dernier, à l'esprit qui nous viens Le quartier, tu l'décris, décris-le bien Ne mets pas en valeur que les bons à rien Je viens toucher le monde, c'est une mise à l'amende Verre de thé à la menthe en voiture allemande Je suis pas à la mode XXX loin d'là La loi du bitume, la rue, je viens d'là Avec les putes, les flics et tout c'qui vient d'là Qu'il y ait une descente, qu'on me descende L'essentiel pour chacun, qu'la balle soit remise au centre Je perds pas mon temps, j'ai choisi mon camp, toi ton boucan Que mes gosses tiennent un bouquin Oublie-moi si des principes, t'en as aucun Qu'tu t'sens mal si je suis jaune, noir ou encore Marocain Compte tenu que le bruit tourne, la vie continue Mais une chose surveille ton langage si on continue Ici on a d'quoi te faire grimper aux rideaux Que tu fugues comme sur ce poulet dans ton frigo Le MC, si tu l'fais, fais-le bien T'étonne pas après si ce cercueil, c'est le tien La vérité si tu la dis, dis-la bien Qu'on t'compte toujours parmi ceux dont on dit du bien Mon nom si tu l'écris, écris-le bien Tu seras jamais le dernier, à l'esprit qui nous viens Le quartier, tu l'décris, décris-le bien Ne mets pas en valeur que les bons à rien À quoi veux-tu ressembler, à un gars qui fait semblant Plein de faux-semblants, uzi même sans plan Ça devient à la mode de devenir un hustler Franchement entre nous, est-ce le moment, est-ce l'heure La vie qu'tu mènes ne sera jamais un best-seller Même si t'as pas en paix ces nerfs et dans le vol tu persévères Consomme pas ces merdes, ça nous convient pas c'est mort Je cours pas après ces chimères, pourquoi le bon son se meurt En plus, aujourd'hui j'suis pas d'humeur Autre chose à penser, moi ma ville y a pas de maire Pour avancer, le hip-hop ma voie et quelques potes Se mettre bien, toujours reçu dans quelques boîtes Un point d'honneur si dans la famille quelqu'un lutte T'es stressé? Écoute ça, prends quelques lattes Tu verras qu'tu connais pas mais c'est pas mauvais Dépêche-toi, n'attends pas ce jour où je m'en vais Toute façon, tu verras si je m'en fais Le MC, si tu l'fais, fais-le bien T'étonne pas après si ce cercueil, c'est le tien La vérité si tu la dis, dis-la bien Qu'on t'compte toujours parmi ceux dont on dit du bien Mon nom si tu l'écris, écris-le bien Tu seras jamais le dernier, à l'esprit qui nous viens Le quartier, tu l'décris, décris-le bien Ne mets pas en valeur que les bons à rien</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>On s'était dit que d'une manière ou d'une autre on y arriverait Et que malgré tout sur le rap on parierait Macadam dans l'âme, me sers de l'art comme une arme Ma cabane Le Havre si la France est un arbre En Normandie, tout est banal Si ce bled est un bananier nous en sommes les bananes avariées Une poignée de jeunes de quartier plutôt que les balles Placèrent les mots dans un barillet Coupent le canal Disney, voilà dix années Nos parents dissuadés par nos couplets designés Si Dieu l'accepte, artiste à perpète Sans vraiment connaître le sens des termes auteur interprète Indépendante est la manière l'Islam est la bannière Beaucoup disait qu'on s'ajoutait des barrières Mais bien plus fort que la consanguinité L'Islam est venu cimenter jusqu'à la plus petite cavité Appelle ça comme tu veux pour le plaisir Tantôt l'opium du peuple tantôt de l'hérésie Dans les récits prophétiques j'ai trouvé mon équilibre De quoi enchaîner mes démons avec les chapitres d'un Livre Elle est mon garde fou celle qui garde au garde-à-vous Mon garde boue quotidien si la Dounia est une autoroute D'un héritage paternel au nourrisson J'obtiens des gants de boxe et les trésors d'un prénom MÉDINE ! J'habite à 5000 km de cette ville Mais l'écho de son histoire résonne en moi comme un missile Comme une bénédiction une sorte d'armure invisible Qui m'a préservé du crime De toute manière je n'étais pas fait pour être gangster La moindre taffe sur un spliff m'aurait filé le cancer J'aurai chopé la cirrhose avec une gorgée de scotch Embrassé des tonnes de murs en pilotant des moto-cross La crosse à la ceinture je m'éclate un testicule à coup sûr Heureusement qu'on meurt pas de ridicule Ou je serai mort depuis des lustres dans un bus Encore gosse aux cotés d'un poste qui jouait Kriss Kross J'avais peut-être l'étoffe d'un bon boxeur Mais toute force de la nature possède les faiblesses d'un corps Frappe-moi le nez si tu veux l'effet de Sangoku À qui on sert la queue je serai KO à coup sûr À la moindre pichenette je pisse du bec Alors de Daddy Lord C j'endosse la partie poète Mon titre n'était pas sur un ring mais planqué sous des rimes Et de l'iceberg ma rage était la partie sous-marine Maritime seine c'est la qu'ma team sème Ses graines pour qu'un jour elles germent par dizaines Les médisants disaient que ça se terminerait dans deux ans Au final ça fait dix ans que ça doit faire deux ans Aucun ancien ne nous a pris sous son aile Aucun directeur artistique n'est venu nous signer sur son label Crier à l'aide même pas en rêve Écrire, une lettre, aux maisons de squeuds plutôt s'ouvrir les veines C'est tout le mental de la maison On partira le cur léger sur l'estrade de la pendaison Et à raison d'un morceau par semaine On parsèmera les bacs d'un album par semestre Par semestre, par semestre, par semestre... Moi j'ai le mal du siècle Depuis qu'à Manhattan les tours jumelles ne décorent plus le ciel Sans vouloir romancer mon parcours officiel J'ai déposé ma plume au profit d'un retour spirituel Individuelle retraite au sein des mosquées de quartier Aucune scène, aucun concert viendra me perturber Un aller simple pour le voyage intérieur Afin de réparer les curs que la vie matérielle détériore Une éponge à la place de la mémoire Moi j'ai le cerveau perméable à toutes formes de savoir Ne souris pas j'ai des sourates sous les soupapes Et j'aspire à devenir un Livre Saint sur pattes Lorsque enfin l'envie de rapper me dépasse Moi en 2004 ma destinée me déclasse Premier album c'est l'autopsie d'une catastrophe Eleven september seulement présent dans quelques stores C'était l'époque où les radios se prenaient pour Skyrock Où pour ouvrir les portes fallait paraître au top Ifop Mon pote, la rotation s'achète à coups de pub Mais le respect du public s'obtient à coups de plume Alors je n'écoute plus les ondes et leurs contenus Le game est une guerre dont l'issue est déjà convenue Les dés sont pipés par l'industrie friquée La profession pour les provinciaux est plus que cryptée On passe du groupe de quartier, au statut associatif De la société, au label qualitatif Géographiquement éloigné de la capitale S'avère au final être un bien beaucoup plus qu'un mal Mais est-ce un signe que malgré tout ceci Ma carrière se dessine et mon chemin se désigne En toute modestie c'est le conscient qu'on me destine Mes premiers sque-di se soldent en succès d'estime Les magazines se décident à nous citer Après le forcing bien connu des artistes de l'indé Jenchaîne les compiles freestyle et featuring Ma culture devient de la confiture de barbituriques En 2005 deuxième album en demi-teinte j'emprunte Les voix de la provocation pour tous les convaincre Et non les combattre avec un disque en forme de sabre Mais lutter contre soi reste le plus grand Jihad ! J'amène un message de paix derrière une épée Mes pieds dans le guêpier par les RG je suis épié Quand les khalifes sont sur les terrasses des cafés Moi j'écris comme un greffier de l'encre au bout d'une griffe Productif mais sans faire de l'alimentaire C'est tout le défi du R.A.P contestataire On sort des squeuds malgré les crises financières Afin d'éviter les diverses liquidations judiciaires Chaque sortie sauve les salaires D'aller bien ça n'a que l'air L'ensemble des banquiers s'alertent Les plus âgés s'endettent, sous les traites s'enterrent Que vaut l'argent devant la rage d'un groupe de jeune déter ? Ajoute à ça quelques tensions familiales Qui nous répètent sans cesse que le rap n'est pas un boulot fiable Ajoute à ça quelques pressions d'imams Qui nous répètent que ne font pas bon ménage musique et Islam Maintenant je sais que le diable est dans le détail Que dans la division souvent se cache le Sheitan Alors je m'en remets à Dieu et à ses scientifiques Je suis un muslim qui fait de la black musique Pourtant je n'ai rien de black je suis tout pâle j'ai même du sang toubab Je ne suis ni Serigne Touba ni 2Pac Je n'ai que la barbe à Barry White Et puis j'habite Le Havre À l'embouchure de la Seine pleine de cadavres Je déclare mon profond respect aux leaders morts Et laisse une couronne de lyrics sur leurs lits de mort Do'a pour Malcom, Luther King et Massoud Sankara, Lumumba, Arafat Yasser Dîn Record humain chaque membre est vital Chaque organe a su se rendre inévitable D comme Déterminé I pour Islam N comme Nécessaire aux hommes aux enfants et aux femmes C'est de l'hostile gospel, de l'arabospiritual Des mots de velours écrits d'une main de métal Ma profession gratter des textes sombres Déjà en gestation le prochain album c'est Protest Song Mais pour l'heure fini de chialer dans les chaumières J'arrive dans les charts avec la chance du chômeur Et pour le dire rien qu'une centaine de vers frères Sculptés dans le fer par L'Arabian PantherYou might also like3</t>
+          <t>On s'était dit que d'une manière ou d'une autre on y arriverait Et que malgré tout sur le rap on parierait Macadam dans l'âme, me sers de l'art comme une arme Ma cabane Le Havre si la France est un arbre En Normandie, tout est banal Si ce bled est un bananier nous en sommes les bananes avariées Une poignée de jeunes de quartier plutôt que les balles Placèrent les mots dans un barillet Coupent le canal Disney, voilà dix années Nos parents dissuadés par nos couplets designés Si Dieu l'accepte, artiste à perpète Sans vraiment connaître le sens des termes auteur interprète Indépendante est la manière l'Islam est la bannière Beaucoup disait qu'on s'ajoutait des barrières Mais bien plus fort que la consanguinité L'Islam est venu cimenter jusqu'à la plus petite cavité Appelle ça comme tu veux pour le plaisir Tantôt l'opium du peuple tantôt de l'hérésie Dans les récits prophétiques j'ai trouvé mon équilibre De quoi enchaîner mes démons avec les chapitres d'un Livre Elle est mon garde fou celle qui garde au garde-à-vous Mon garde boue quotidien si la Dounia est une autoroute D'un héritage paternel au nourrisson J'obtiens des gants de boxe et les trésors d'un prénom MÉDINE ! J'habite à 5000 km de cette ville Mais l'écho de son histoire résonne en moi comme un missile Comme une bénédiction une sorte d'armure invisible Qui m'a préservé du crime De toute manière je n'étais pas fait pour être gangster La moindre taffe sur un spliff m'aurait filé le cancer J'aurai chopé la cirrhose avec une gorgée de scotch Embrassé des tonnes de murs en pilotant des moto-cross La crosse à la ceinture je m'éclate un testicule à coup sûr Heureusement qu'on meurt pas de ridicule Ou je serai mort depuis des lustres dans un bus Encore gosse aux cotés d'un poste qui jouait Kriss Kross J'avais peut-être l'étoffe d'un bon boxeur Mais toute force de la nature possède les faiblesses d'un corps Frappe-moi le nez si tu veux l'effet de Sangoku À qui on sert la queue je serai KO à coup sûr À la moindre pichenette je pisse du bec Alors de Daddy Lord C j'endosse la partie poète Mon titre n'était pas sur un ring mais planqué sous des rimes Et de l'iceberg ma rage était la partie sous-marine Maritime seine c'est la qu'ma team sème Ses graines pour qu'un jour elles germent par dizaines Les médisants disaient que ça se terminerait dans deux ans Au final ça fait dix ans que ça doit faire deux ans Aucun ancien ne nous a pris sous son aile Aucun directeur artistique n'est venu nous signer sur son label Crier à l'aide même pas en rêve Écrire, une lettre, aux maisons de squeuds plutôt s'ouvrir les veines C'est tout le mental de la maison On partira le cur léger sur l'estrade de la pendaison Et à raison d'un morceau par semaine On parsèmera les bacs d'un album par semestre Par semestre, par semestre, par semestre... Moi j'ai le mal du siècle Depuis qu'à Manhattan les tours jumelles ne décorent plus le ciel Sans vouloir romancer mon parcours officiel J'ai déposé ma plume au profit d'un retour spirituel Individuelle retraite au sein des mosquées de quartier Aucune scène, aucun concert viendra me perturber Un aller simple pour le voyage intérieur Afin de réparer les curs que la vie matérielle détériore Une éponge à la place de la mémoire Moi j'ai le cerveau perméable à toutes formes de savoir Ne souris pas j'ai des sourates sous les soupapes Et j'aspire à devenir un Livre Saint sur pattes Lorsque enfin l'envie de rapper me dépasse Moi en 2004 ma destinée me déclasse Premier album c'est l'autopsie d'une catastrophe Eleven september seulement présent dans quelques stores C'était l'époque où les radios se prenaient pour Skyrock Où pour ouvrir les portes fallait paraître au top Ifop Mon pote, la rotation s'achète à coups de pub Mais le respect du public s'obtient à coups de plume Alors je n'écoute plus les ondes et leurs contenus Le game est une guerre dont l'issue est déjà convenue Les dés sont pipés par l'industrie friquée La profession pour les provinciaux est plus que cryptée On passe du groupe de quartier, au statut associatif De la société, au label qualitatif Géographiquement éloigné de la capitale S'avère au final être un bien beaucoup plus qu'un mal Mais est-ce un signe que malgré tout ceci Ma carrière se dessine et mon chemin se désigne En toute modestie c'est le conscient qu'on me destine Mes premiers sque-di se soldent en succès d'estime Les magazines se décident à nous citer Après le forcing bien connu des artistes de l'indé Jenchaîne les compiles freestyle et featuring Ma culture devient de la confiture de barbituriques En 2005 deuxième album en demi-teinte j'emprunte Les voix de la provocation pour tous les convaincre Et non les combattre avec un disque en forme de sabre Mais lutter contre soi reste le plus grand Jihad ! J'amène un message de paix derrière une épée Mes pieds dans le guêpier par les RG je suis épié Quand les khalifes sont sur les terrasses des cafés Moi j'écris comme un greffier de l'encre au bout d'une griffe Productif mais sans faire de l'alimentaire C'est tout le défi du R.A.P contestataire On sort des squeuds malgré les crises financières Afin d'éviter les diverses liquidations judiciaires Chaque sortie sauve les salaires D'aller bien ça n'a que l'air L'ensemble des banquiers s'alertent Les plus âgés s'endettent, sous les traites s'enterrent Que vaut l'argent devant la rage d'un groupe de jeune déter ? Ajoute à ça quelques tensions familiales Qui nous répètent sans cesse que le rap n'est pas un boulot fiable Ajoute à ça quelques pressions d'imams Qui nous répètent que ne font pas bon ménage musique et Islam Maintenant je sais que le diable est dans le détail Que dans la division souvent se cache le Sheitan Alors je m'en remets à Dieu et à ses scientifiques Je suis un muslim qui fait de la black musique Pourtant je n'ai rien de black je suis tout pâle j'ai même du sang toubab Je ne suis ni Serigne Touba ni 2Pac Je n'ai que la barbe à Barry White Et puis j'habite Le Havre À l'embouchure de la Seine pleine de cadavres Je déclare mon profond respect aux leaders morts Et laisse une couronne de lyrics sur leurs lits de mort Do'a pour Malcom, Luther King et Massoud Sankara, Lumumba, Arafat Yasser Dîn Record humain chaque membre est vital Chaque organe a su se rendre inévitable D comme Déterminé I pour Islam N comme Nécessaire aux hommes aux enfants et aux femmes C'est de l'hostile gospel, de l'arabospiritual Des mots de velours écrits d'une main de métal Ma profession gratter des textes sombres Déjà en gestation le prochain album c'est Protest Song Mais pour l'heure fini de chialer dans les chaumières J'arrive dans les charts avec la chance du chômeur Et pour le dire rien qu'une centaine de vers frères Sculptés dans le fer par L'Arabian Panther3</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>J'reste normal, ouvert à tous malgré mes airs sérieux C'est curieux, vivre ainsi ça peut être périlleux Vu tout c'que j'ai vu sur les miens, c'qu'on a créé Ça perturbe pas mon flow, son talent, bête de V.O T'façon moi mon équipe, lumière éteinte, nous brillerons Ni vibrons, nique les jaloux, j'avoue seul eux se grilleront Non, je n'me cache pas derrière la religion Derrière mes gens méchants, mec tu connais le nom de ma légion Le son de ma région Le pourquoi du comment, ma raison Ce avec quoi, pour durer, j'traverse les saisons Parlons-en, parlons-en vite fait, j'suis pris par le temps Y a pas une chose qu'on peut partager et parler taro Hustler, Daddy Lord C Insolent, Hustler Hustler, Hustler, Daddy Lord C Insolent, Hustler, Daddy Lord C remet de l'ordre ici XXX quand tu dois, sois celui qui paie ses dettes Si tu penses qu'être connu peut tout combler, c'est bête Le besoin m'embête, dans l'rap cette bête de compète Ceux qui s'la pètent, coupe la tête Ton sale couplet Les vieux m'apprécient Quelqu'un souffre, apporte-lui de l'aide La rue mon XXX, si y a drah XXX de l'être Ça la fout mal car dans l'domaine il n'existe pas de maître Le danger le mesurer, j'connais pas de mètre On sait tous si j'espère sur des préjugés En tous cas, entre toi et elle qui va mieux me sucer Chacun à sa place, y aurait moins de soucis Moins de ceci, moins de cela Des défauts j'en ai Pourquoi pas, j'vais pas m'gêner Quand il s'agit d'donner d'moi j'connais pas d'limite You might also like Hustler, Daddy Lord C Insolent, Hustler Hustler, Hustler, Daddy Lord C Insolent, Hustler, Daddy Lord C remet de l'ordre ici Me vante pas, une fois de plus, les sarcasmes de ton génie J'vais pas finir menottes aux mains, accroupi à genoux J'ai envie de m'investir dans ce qu'il y a de flou De croire en l'amour, aux sentiments, pas les films porno Que les déboires de l'amitié sont inspirés par nous Et j'te revoyais que s'consomme toujours ce tord-boyaux Jamais jeter mon XXX avec l'eau du bain De plus, j'conçois pas ma vie sans rien, comme un jour sans pain De nos jours le père Noël porte un bas d'laine Compte-tenu que t'as pas mûri le tien bat d'l'aile J'causerai pas de paix, c'qui la veut l'appelle Tout ça n'a pas de prix, impossible de me doubler Bien qu'on s'en fout du blé, t'évites de trembler Personne t'as troublé, et qu't'oublies pas c'couplet Si, si Hustler, Daddy Lord C Insolent, Hustler Hustler, Hustler, Daddy Lord C Insolent, Hustler, Daddy Lord C remet de l'ordre ici</t>
+          <t>J'reste normal, ouvert à tous malgré mes airs sérieux C'est curieux, vivre ainsi ça peut être périlleux Vu tout c'que j'ai vu sur les miens, c'qu'on a créé Ça perturbe pas mon flow, son talent, bête de V.O T'façon moi mon équipe, lumière éteinte, nous brillerons Ni vibrons, nique les jaloux, j'avoue seul eux se grilleront Non, je n'me cache pas derrière la religion Derrière mes gens méchants, mec tu connais le nom de ma légion Le son de ma région Le pourquoi du comment, ma raison Ce avec quoi, pour durer, j'traverse les saisons Parlons-en, parlons-en vite fait, j'suis pris par le temps Y a pas une chose qu'on peut partager et parler taro Hustler, Daddy Lord C Insolent, Hustler Hustler, Hustler, Daddy Lord C Insolent, Hustler, Daddy Lord C remet de l'ordre ici XXX quand tu dois, sois celui qui paie ses dettes Si tu penses qu'être connu peut tout combler, c'est bête Le besoin m'embête, dans l'rap cette bête de compète Ceux qui s'la pètent, coupe la tête Ton sale couplet Les vieux m'apprécient Quelqu'un souffre, apporte-lui de l'aide La rue mon XXX, si y a drah XXX de l'être Ça la fout mal car dans l'domaine il n'existe pas de maître Le danger le mesurer, j'connais pas de mètre On sait tous si j'espère sur des préjugés En tous cas, entre toi et elle qui va mieux me sucer Chacun à sa place, y aurait moins de soucis Moins de ceci, moins de cela Des défauts j'en ai Pourquoi pas, j'vais pas m'gêner Quand il s'agit d'donner d'moi j'connais pas d'limite Hustler, Daddy Lord C Insolent, Hustler Hustler, Hustler, Daddy Lord C Insolent, Hustler, Daddy Lord C remet de l'ordre ici Me vante pas, une fois de plus, les sarcasmes de ton génie J'vais pas finir menottes aux mains, accroupi à genoux J'ai envie de m'investir dans ce qu'il y a de flou De croire en l'amour, aux sentiments, pas les films porno Que les déboires de l'amitié sont inspirés par nous Et j'te revoyais que s'consomme toujours ce tord-boyaux Jamais jeter mon XXX avec l'eau du bain De plus, j'conçois pas ma vie sans rien, comme un jour sans pain De nos jours le père Noël porte un bas d'laine Compte-tenu que t'as pas mûri le tien bat d'l'aile J'causerai pas de paix, c'qui la veut l'appelle Tout ça n'a pas de prix, impossible de me doubler Bien qu'on s'en fout du blé, t'évites de trembler Personne t'as troublé, et qu't'oublies pas c'couplet Si, si Hustler, Daddy Lord C Insolent, Hustler Hustler, Hustler, Daddy Lord C Insolent, Hustler, Daddy Lord C remet de l'ordre ici</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>OK, 9-1, l'Essonne gros 1-3, Marseille DLC, AKH Ha ha! Dirty dirtyy, daddy daddy Écoute ça Accroche-toi Y a trop d'flics politicos qui jouent les cow-boys Autant d'jeunes de cités et d'banlieue qui font les homeboys On baille, sauf si c'est pour nous traiter comme boys Usés, manipulés comme une X-Box ou Game Boy Personne veut devenir cette pute que t'as vue nue Dans un film X, à l'hôtel ou sur l'avenue Nos gosses disent papa, le père Noël n'est pas venu Y a des livres saints même si gamin j'en ai peu vu On s'entend, si c'est le chemin que tu vises c'est parfait Jamais ces délits par besoin qu'tu finisses par faire Rester franc et sincère, durer dans l'temps ça sert Sauf que tu trouves ça cher, dis chez toi c'qui s'avère Écoute les sanglots longs d'ces violons d'automne C'est la BO d'ma tuerie, mon avertissement, danger Quand j'suis passé au crom', un truc de puriste Pas d'abrutis passés au poste et pourquoi tu ris hamdeck Ils vont finir par t'jeter au coffre Au pire ils t'zinguent, au mieux ils t'envoient l'fisc Et pour eux tu n'es rien qu'un d'ces chimpanzés sur la piste Un monde où les coupables sont freluqués en victimes Mais tu verras personne en prison quand sera passé Clearstream Et pendant tout c'temps, nos fesses sont dans les voitures À monter à fond ces sons et croiser dans les avenues Non ils m'font pas rêver avec Clovis et Charlemagne Ils ont peur de nos gueules comme avant ils flippaient sur l'Allemagne You might also like Pourquoi t'amputer si le diable est dans la maison pourquoi? Et jouer les chauds, on sait qu'l'hiver sera la saison C'est vrai on sait qu'l'effet d'annonce nous a tous trompé Ça finit en sirènes de flics et pompiers Incorruptibles, incorruptibles, incorruptibles Incorruptibles, la cargaison, avec j'ai bâti ma maison C'est dans mes gènes pas ma mission, bah j'y suis collé J'porte mes origines, ma banlieue mon labeur, comme un collier Ma condition de position de reddition de réaction de satisfaction Production fait l'encre couler Pour l'Élysée la rue pas d'journée d'repos si on doit y retour' T'as pas vu, vu, pourquoi t'es borné Tu votes pas, on t'as eu, eu Ici si t'abuses ou tu flaires, on te hmm hmm Surtout confonds pas, lorsque tu nous as vus, vus On connaît le blabla, ceux d'en haut, ceux d'en-bas, bas Arriver à ses fins, trois carottes et puis s'en va, va Politique ou rap à cage, c'est c'qui nous sans blabla On bouge la nuit sans faire de vague, nos cahiers comme des fers de lance Nos aka sont sur les rames, nos classiques dans les tours de France Et poussent dans les halls ou dans les clubs Certains rêvent de danger alors d'entrée ça joue les thugs Mais la race des bandits ne joue pas dans les cages Ni shit ni coke ni crack Trafique pas les pouchka dans les caves, frère ils s'en foutent des blocs Pas prêts à tout pour grimper dans les hits et dans les charts One love à ceux qui rappent, qui scratchent, graffent et qui dansent Au mic avec l'arc, défend notre art Mate nos poings, on les baisse pas, feu dans le regard On monte la garde, si t'es malsain dis vas-y qu'est-ce t'as Mon son lèche pas les culs blindés des BCBG Frère on change ton séjour dans le rap en vrai CDD Pourquoi t'amputer si le diable est dans la maison pourquoi? Et jouer les chauds, on sait qu'l'hiver sera la saison C'est vrai on sait qu'l'effet d'annonce nous a tous trompé Ça finit en sirènes de flics et pompiers Incorruptibles, incorruptibles, incorruptibles</t>
+          <t>OK, 9-1, l'Essonne gros 1-3, Marseille DLC, AKH Ha ha! Dirty dirtyy, daddy daddy Écoute ça Accroche-toi Y a trop d'flics politicos qui jouent les cow-boys Autant d'jeunes de cités et d'banlieue qui font les homeboys On baille, sauf si c'est pour nous traiter comme boys Usés, manipulés comme une X-Box ou Game Boy Personne veut devenir cette pute que t'as vue nue Dans un film X, à l'hôtel ou sur l'avenue Nos gosses disent papa, le père Noël n'est pas venu Y a des livres saints même si gamin j'en ai peu vu On s'entend, si c'est le chemin que tu vises c'est parfait Jamais ces délits par besoin qu'tu finisses par faire Rester franc et sincère, durer dans l'temps ça sert Sauf que tu trouves ça cher, dis chez toi c'qui s'avère Écoute les sanglots longs d'ces violons d'automne C'est la BO d'ma tuerie, mon avertissement, danger Quand j'suis passé au crom', un truc de puriste Pas d'abrutis passés au poste et pourquoi tu ris hamdeck Ils vont finir par t'jeter au coffre Au pire ils t'zinguent, au mieux ils t'envoient l'fisc Et pour eux tu n'es rien qu'un d'ces chimpanzés sur la piste Un monde où les coupables sont freluqués en victimes Mais tu verras personne en prison quand sera passé Clearstream Et pendant tout c'temps, nos fesses sont dans les voitures À monter à fond ces sons et croiser dans les avenues Non ils m'font pas rêver avec Clovis et Charlemagne Ils ont peur de nos gueules comme avant ils flippaient sur l'Allemagne Pourquoi t'amputer si le diable est dans la maison pourquoi? Et jouer les chauds, on sait qu'l'hiver sera la saison C'est vrai on sait qu'l'effet d'annonce nous a tous trompé Ça finit en sirènes de flics et pompiers Incorruptibles, incorruptibles, incorruptibles Incorruptibles, la cargaison, avec j'ai bâti ma maison C'est dans mes gènes pas ma mission, bah j'y suis collé J'porte mes origines, ma banlieue mon labeur, comme un collier Ma condition de position de reddition de réaction de satisfaction Production fait l'encre couler Pour l'Élysée la rue pas d'journée d'repos si on doit y retour' T'as pas vu, vu, pourquoi t'es borné Tu votes pas, on t'as eu, eu Ici si t'abuses ou tu flaires, on te hmm hmm Surtout confonds pas, lorsque tu nous as vus, vus On connaît le blabla, ceux d'en haut, ceux d'en-bas, bas Arriver à ses fins, trois carottes et puis s'en va, va Politique ou rap à cage, c'est c'qui nous sans blabla On bouge la nuit sans faire de vague, nos cahiers comme des fers de lance Nos aka sont sur les rames, nos classiques dans les tours de France Et poussent dans les halls ou dans les clubs Certains rêvent de danger alors d'entrée ça joue les thugs Mais la race des bandits ne joue pas dans les cages Ni shit ni coke ni crack Trafique pas les pouchka dans les caves, frère ils s'en foutent des blocs Pas prêts à tout pour grimper dans les hits et dans les charts One love à ceux qui rappent, qui scratchent, graffent et qui dansent Au mic avec l'arc, défend notre art Mate nos poings, on les baisse pas, feu dans le regard On monte la garde, si t'es malsain dis vas-y qu'est-ce t'as Mon son lèche pas les culs blindés des BCBG Frère on change ton séjour dans le rap en vrai CDD Pourquoi t'amputer si le diable est dans la maison pourquoi? Et jouer les chauds, on sait qu'l'hiver sera la saison C'est vrai on sait qu'l'effet d'annonce nous a tous trompé Ça finit en sirènes de flics et pompiers Incorruptibles, incorruptibles, incorruptibles</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Hey, lascar Les 3 Coups Te mènent à bout Represent 95 Sur la compil Time Bomb Represent Que vas-tu faire Lorsque latmosphère sassombrie ? Et que tu flaires Les 2 fous des 3 Coups qui te guettent au cutter ? Si tu fuis ne tinquiètes pas homologue au Ménage A 3 suffiront à faire laffaire Lyon prend le mic pour tous les OG boy Je balance mes rimes et técrase, tes quun toy Comme un ta-ka, kata boom Enchaîne donc le judoka Dun front kick je mécarte Joue le rôle dune camera Enregistre, analyse, ou m'essouffle comme la bise Reste droit et ne soit penché comme la Tour de Pise là est la question de la constitution Révolution, sans solution pour lévolution Trois fois cest la pression LÂCHE LA PRESSION ! 1 des 2 fous des 3 Coups te sert donc un plat La vengeance est un plat qui se mange chaud ou bien froid Canalise ta rage, ton énergie, ainsi que ta force Si mes rimes ne téclairent pas, alors allume donc une torche Dans la nuit, fais gaffe aux mauvais esprits Lyon te protègera de lui Le courage relève la tête dun homme faible Comme le Lièvre et la Tortue dans les Fables de La Fontaine Tic-Tac, Tic-Tac, Haaaa Que vas-tu faire, alors, gars ? Puisque je mapproche de toi Bouffonner ou réagir pour ten sortir de là Toutefois, 1 fois, 2 fois, Haa ! Jamais 2 sans 3 Lyon represent les 3 Coups du Ménage A 3 You might also like Que vas-tu faire Lorsque latmosphère sassombrie ? Et que tu flaires Les 2 fous des 3 Coups qui te guettent au cutter ? Si tu fuis ne tinquiètes pas dhomologue au Ménage A 3 suffiront à faire laffaire Sur son undeground Damn-damn-damn Sur ta tête je slam, pas de blèmes, espèce de flemme Haa ! Je suis dans mon art, noble art Comme la boxe, quelle soit thaïlandaise ou anglaise High kick, uppercut, crochet te mettent mal à laise Que tu sois balèze, sache que le courage me brûle comme la braise Je serais ton cauchemar du lundi jusquau vendredi 13 Surmonter la peur pour exploser dans la fureur du Dragon Noir Cracher son feu, régner en seigneur Le courage est comme une torche One on one, pas de pitié pour lennemi qui sapproche face à lennemi tapportera des ennuis Lhonneur avant tout, lutte jusquau dernier qui survit Abracadabra ya pas le dra caillera Ne tabaisse pas, sinon te fera le coup du von-sa Quoi ? quoi ? quoi ? quoi ? quoi ? quoi ? Quoi, quest-ce qui tarrive, là, quoi, mec ? He ! He, gars He, tu vos... tu vas menculer ou quoi ? Quest-ce qui tarrive, toi ? Tes fou, toi, ou quoi ? Tiens, enculé, va ! Tiens, prend ça dans ta face, enculé ! Hein ! Represent pour mon gang, pour ma click Je nettoie latmosphère des esprits maléfiques Si je mappelais Mamadou et toi Dominique Lequel de nous deux se fera serrer par les flics ? Avale-ça Comme la canicule je te déshydrate, tempestes, tu hurles Jai découvert ton talon dAchille, appelle-moi Hercule Plus costaud que Cousteau, jexplore avec mon couteau-couteau Le fossé que jai causé dans ta peau Manie donc le couteau dans sa plaie La douleur équivaut une rage dentaire ou un abcès-abcès Balancer dans le tié-quar un RG La bouffonnerie nengendre que la lâcheté Le chien est le meilleur ami de lhomme Dit-donc ! Qui suis-je ? Lennemi de lhomme Ou de celui qui veut tenvoyer dans la tombe Une autopsie de ton cur est nécessaire Découvrir pourquoi il se transforme en cur de pierre Que vas-tu faire Lorsque latmosphère sassombrie ? Et que tu flaires Les 2 fous des 3 Coups qui te guettent au cutter ? Si tu fuis ne tinquiètes pas dhomologue au Ménage A 3 suffiront à faire laffaire Yes Les Dalton Jérémie, Daddy Lord C Jhonygo, Marvel Kick Heya-He A mes filles, Nounou, Kimberley, Respect au reste de la Mandja Family Nasser 2 Bal Niggets 2 Neg Gued1 AdHoc-1 3 Coups Monsieur R Ali Matricule X Jessy James Xavier et Ricks Wallabee Rizo et tous les lascars du Squet-Bo Rougemont, Sevran Blaise, Stevy Les 3000 Represent Pour mes lascars de la foncedé Mes nègres OG Les PDG Represent pour Moudji Mikael Yo Félins Ben Ponpon Stevy, Aristide Cest déjà bon Dans la place Le Lyon de la tribu des Mandja Sort ses griffes Represent pour mon gang Pour ma click Ya-Ex Krokmitten Cest déjà bon Represent pour my man DJ Mars DJ Maître Dj Fat Geraldo DJ Sek Et tous les lascars Les cainris Qui écoutent mon son Represent yo</t>
+          <t>Hey, lascar Les 3 Coups Te mènent à bout Represent 95 Sur la compil Time Bomb Represent Que vas-tu faire Lorsque latmosphère sassombrie ? Et que tu flaires Les 2 fous des 3 Coups qui te guettent au cutter ? Si tu fuis ne tinquiètes pas homologue au Ménage A 3 suffiront à faire laffaire Lyon prend le mic pour tous les OG boy Je balance mes rimes et técrase, tes quun toy Comme un ta-ka, kata boom Enchaîne donc le judoka Dun front kick je mécarte Joue le rôle dune camera Enregistre, analyse, ou m'essouffle comme la bise Reste droit et ne soit penché comme la Tour de Pise là est la question de la constitution Révolution, sans solution pour lévolution Trois fois cest la pression LÂCHE LA PRESSION ! 1 des 2 fous des 3 Coups te sert donc un plat La vengeance est un plat qui se mange chaud ou bien froid Canalise ta rage, ton énergie, ainsi que ta force Si mes rimes ne téclairent pas, alors allume donc une torche Dans la nuit, fais gaffe aux mauvais esprits Lyon te protègera de lui Le courage relève la tête dun homme faible Comme le Lièvre et la Tortue dans les Fables de La Fontaine Tic-Tac, Tic-Tac, Haaaa Que vas-tu faire, alors, gars ? Puisque je mapproche de toi Bouffonner ou réagir pour ten sortir de là Toutefois, 1 fois, 2 fois, Haa ! Jamais 2 sans 3 Lyon represent les 3 Coups du Ménage A 3 Que vas-tu faire Lorsque latmosphère sassombrie ? Et que tu flaires Les 2 fous des 3 Coups qui te guettent au cutter ? Si tu fuis ne tinquiètes pas dhomologue au Ménage A 3 suffiront à faire laffaire Sur son undeground Damn-damn-damn Sur ta tête je slam, pas de blèmes, espèce de flemme Haa ! Je suis dans mon art, noble art Comme la boxe, quelle soit thaïlandaise ou anglaise High kick, uppercut, crochet te mettent mal à laise Que tu sois balèze, sache que le courage me brûle comme la braise Je serais ton cauchemar du lundi jusquau vendredi 13 Surmonter la peur pour exploser dans la fureur du Dragon Noir Cracher son feu, régner en seigneur Le courage est comme une torche One on one, pas de pitié pour lennemi qui sapproche face à lennemi tapportera des ennuis Lhonneur avant tout, lutte jusquau dernier qui survit Abracadabra ya pas le dra caillera Ne tabaisse pas, sinon te fera le coup du von-sa Quoi ? quoi ? quoi ? quoi ? quoi ? quoi ? Quoi, quest-ce qui tarrive, là, quoi, mec ? He ! He, gars He, tu vos... tu vas menculer ou quoi ? Quest-ce qui tarrive, toi ? Tes fou, toi, ou quoi ? Tiens, enculé, va ! Tiens, prend ça dans ta face, enculé ! Hein ! Represent pour mon gang, pour ma click Je nettoie latmosphère des esprits maléfiques Si je mappelais Mamadou et toi Dominique Lequel de nous deux se fera serrer par les flics ? Avale-ça Comme la canicule je te déshydrate, tempestes, tu hurles Jai découvert ton talon dAchille, appelle-moi Hercule Plus costaud que Cousteau, jexplore avec mon couteau-couteau Le fossé que jai causé dans ta peau Manie donc le couteau dans sa plaie La douleur équivaut une rage dentaire ou un abcès-abcès Balancer dans le tié-quar un RG La bouffonnerie nengendre que la lâcheté Le chien est le meilleur ami de lhomme Dit-donc ! Qui suis-je ? Lennemi de lhomme Ou de celui qui veut tenvoyer dans la tombe Une autopsie de ton cur est nécessaire Découvrir pourquoi il se transforme en cur de pierre Que vas-tu faire Lorsque latmosphère sassombrie ? Et que tu flaires Les 2 fous des 3 Coups qui te guettent au cutter ? Si tu fuis ne tinquiètes pas dhomologue au Ménage A 3 suffiront à faire laffaire Yes Les Dalton Jérémie, Daddy Lord C Jhonygo, Marvel Kick Heya-He A mes filles, Nounou, Kimberley, Respect au reste de la Mandja Family Nasser 2 Bal Niggets 2 Neg Gued1 AdHoc-1 3 Coups Monsieur R Ali Matricule X Jessy James Xavier et Ricks Wallabee Rizo et tous les lascars du Squet-Bo Rougemont, Sevran Blaise, Stevy Les 3000 Represent Pour mes lascars de la foncedé Mes nègres OG Les PDG Represent pour Moudji Mikael Yo Félins Ben Ponpon Stevy, Aristide Cest déjà bon Dans la place Le Lyon de la tribu des Mandja Sort ses griffes Represent pour mon gang Pour ma click Ya-Ex Krokmitten Cest déjà bon Represent pour my man DJ Mars DJ Maître Dj Fat Geraldo DJ Sek Et tous les lascars Les cainris Qui écoutent mon son Represent yo</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Yeah, 'coute ça XXX Cliqua seulement, Raphaël MC Cliqua seulement Daddy Lord MC, Cliqua seulement Cliqua seulement 'coute ça Tends l'oreille, prête attention Rentre dans mon délire XXX l'atmosphère Qui s'imprègne dans ton sang comme une injection Geste sauvage pour ma nation Kiffe le son sur lequel j'kicke, ma section Pour la bonne caille, Raphaël d'la maison donne du bon rap de rue Où les thèmes englobent mon vécu qui longe bien trop d'avenues J'suis pas perdu loin d'là, j'sais où sont mes phrases J'en balance une pour tous mes gars, trop d'affreux dans la place Ressens les sensations, vibrations, les mots qu'j'donne avec émotion La rage que j'lâche au mic, j'la partage avec ma population Ça sonne cru pour tous mes gars d'cité Mon public de base, big-up aux XXX d'mon quartier Sans limite, mon délire n'a pas d'frontière Ma musique augmente le niveau, monte l'adrénaline J'lâche des ondes phonétiques XXX soit dans la tess, j'fume d'la vraie sens' Focalise mon stress, malgré tout ça je progresse grâce aux miens J'ai l'mic en main, j'le lâcherai pas demain Sois-en certain frangin, j'compte bien brouiller mon quotidien Les principes sont stricts, j'aime ça J'ai grandi dans c'milieu-là Que ça vous plaise ou non, ça me restera You might also like Quoi quoi? J'fais mon truc, c'est pour ça qu'suis là Quoi quoi? Avec honneur j'en balance une pour tous mes gars J'en balance une aux vrais gars Nourris de XXX break et d'braquages Braille pour têtes brûlées, tas d'prolos qui tendent à briller Pour l'billet, évite pas l'bagne et l'billard Cliqua seulement, yo Cliqua seulement Pour un bout d'terrain, bagarre, prise de gueule à coups d'barre Moins la vie est longue, plus ici l'on se couche tard La pauvreté une tare qu'on essaie d'fuir sans faire de mitard Cueillir quelques miettes de souffle avant la mort de ton corps s'empare Fumée du cigare, l'argent l'oseille le flooze or en barres L'amour, un moment d'répit pour ton esprit barbare Réussir dare-dare, pareil aux stars auxquelles tu t'compares Le diable des Lombards, le prince des lascars, roi des loubards Ces mots vont bien plus loin qu'ton nom tagué sur les murs d'une gare Pardonne-moi, j'mâche pas mes mots à ton égard Méfiant des mauvais regards Des ragots, des traîtres, d'la langue des mouchards De ceux qui t'la jouent XXX baltringues, froussards Faut s'adapter XXX capter, maintenant jactez Ouais, j'en balance une aux vrais gars Vrais gars Pour mes vrais gars, c'est ça La Cliqua, mes vrais gars Raphaël, mon vrai gars Rocca, un vrai gars vrai gars, vrai gars, quoi quoi? Pour tous mes gars Paris, mes vrais gars Pour tous mes gars Parce que j'suis one love Coute ça, MC Vrais gars Comme ça que j'fais J'en balance une aux vrais gars</t>
+          <t>Yeah, 'coute ça XXX Cliqua seulement, Raphaël MC Cliqua seulement Daddy Lord MC, Cliqua seulement Cliqua seulement 'coute ça Tends l'oreille, prête attention Rentre dans mon délire XXX l'atmosphère Qui s'imprègne dans ton sang comme une injection Geste sauvage pour ma nation Kiffe le son sur lequel j'kicke, ma section Pour la bonne caille, Raphaël d'la maison donne du bon rap de rue Où les thèmes englobent mon vécu qui longe bien trop d'avenues J'suis pas perdu loin d'là, j'sais où sont mes phrases J'en balance une pour tous mes gars, trop d'affreux dans la place Ressens les sensations, vibrations, les mots qu'j'donne avec émotion La rage que j'lâche au mic, j'la partage avec ma population Ça sonne cru pour tous mes gars d'cité Mon public de base, big-up aux XXX d'mon quartier Sans limite, mon délire n'a pas d'frontière Ma musique augmente le niveau, monte l'adrénaline J'lâche des ondes phonétiques XXX soit dans la tess, j'fume d'la vraie sens' Focalise mon stress, malgré tout ça je progresse grâce aux miens J'ai l'mic en main, j'le lâcherai pas demain Sois-en certain frangin, j'compte bien brouiller mon quotidien Les principes sont stricts, j'aime ça J'ai grandi dans c'milieu-là Que ça vous plaise ou non, ça me restera Quoi quoi? J'fais mon truc, c'est pour ça qu'suis là Quoi quoi? Avec honneur j'en balance une pour tous mes gars J'en balance une aux vrais gars Nourris de XXX break et d'braquages Braille pour têtes brûlées, tas d'prolos qui tendent à briller Pour l'billet, évite pas l'bagne et l'billard Cliqua seulement, yo Cliqua seulement Pour un bout d'terrain, bagarre, prise de gueule à coups d'barre Moins la vie est longue, plus ici l'on se couche tard La pauvreté une tare qu'on essaie d'fuir sans faire de mitard Cueillir quelques miettes de souffle avant la mort de ton corps s'empare Fumée du cigare, l'argent l'oseille le flooze or en barres L'amour, un moment d'répit pour ton esprit barbare Réussir dare-dare, pareil aux stars auxquelles tu t'compares Le diable des Lombards, le prince des lascars, roi des loubards Ces mots vont bien plus loin qu'ton nom tagué sur les murs d'une gare Pardonne-moi, j'mâche pas mes mots à ton égard Méfiant des mauvais regards Des ragots, des traîtres, d'la langue des mouchards De ceux qui t'la jouent XXX baltringues, froussards Faut s'adapter XXX capter, maintenant jactez Ouais, j'en balance une aux vrais gars Vrais gars Pour mes vrais gars, c'est ça La Cliqua, mes vrais gars Raphaël, mon vrai gars Rocca, un vrai gars vrai gars, vrai gars, quoi quoi? Pour tous mes gars Paris, mes vrais gars Pour tous mes gars Parce que j'suis one love Coute ça, MC Vrais gars Comme ça que j'fais J'en balance une aux vrais gars</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Tache de tenir ta langue Sinon la tienne dégage Mate les dégâts Légende de rap Comment Chief ? ça va Daddy Tranquille, à part ça quest ce quon dit ? Tu sais même pas sur not' dos tout ce quils nont pas dit Tout cquil nont pas du dire Tout cquil nont pas pu jacter devant nous T'as vu ou pas sur l'avenue Pourtant jrime à lexcès, comme chacun le sait Jsuis pas à l'essai, jdois remonter le temps comme Jackie Chan le fait Chaque jour que Dieu fait, des bêtes de couplets Back in a day, Dad faut quon nous paye Nos copies ça play, on revoit ta plaie receleur, soit enfin heureux cest lheure Si t'es ahuri, c'est l'air Tu t'amuse tu ris c'est l'art Nous traite pas de vicelards Hisse la barre bien haut Ceux qu'ont pas dflows quils se barrent C'est le duo de choc qui revient jsais que tattendais ce come-back Rocca, Daddy man phat de nouveau réunis ça fera date Doorag, casquette, baggy, jean, slim, clean Clean, tes yeux hallucinent Vla la dream team Gin, rhum, champagne, donne ce que tas dmieux bonhomme Tu payes cache la somme, on va tfaire cracher la donne Tu connais lhistoire quand y a plus rien despoir Jamais on laisse choir, ça se passe le soir Autour dun joint, dune Heineken Aucune caille me ken, lheure où aucun vide nous canne Y a quune meuf qui nous calme ou le bon sens qui nous came Qui nous dame, qui nous damne Pardon à mes dames de taffer rien quavec mes amygdales Trop de mots Grigny et pense à toi jusquà Pygale Jlève pour toi, toi.le reste ça mest égal You might also like Tache de tenir ta langue Sinon la tienne dégage Mate les dégâts Légende de rap Sache tenir ta langue Dis-leur Gallegos, dis-leur Sinon la tienne dégage Matte les dégâts 'Voici la Squadra Je dois faire bouger toutes les têtes, poulet vos têtes, hurlés et si tes murs tremblent, assures-les Courez si vous voyez un colombien et un africain faire du business ensemble Ptêtre bien quça parle came et butin Diamant, flow et putains Cool et taffe et scrutin Wack MC tu luttes hein ? Plus dun, jen mets à lamende Jclaque rien quà la demande Clark, montre-leur qui commande Vas-y sos jen vois déjà qui srendent Où est lintrus ? Où est lintro ? Qui est le pro ? qui est le gros ? Qui est laccroc ? qui fait le show ? Du champagne qui a le seau ? De qui est le son ? Jette le mauvais et retiens le bon Prends une leçon De notre coté beaucoup le sont Cest ptêtre indécent des groupes indécents Bois ça sans verser du sang Pas besoin ddessin, encore moins d'être sain Daddy Lord C, Rocca, jette ton blaze hein ! Légende de rap Vital rap contact médicinal Mate les dégâts Jai pas ltemps djouer, jveux du concret envoie la monnaie Jai fini par manier le micro comme une sarbacane Quand mon verbe te canne tel un retour de flamme Soit tu tombes sous le charme chico soit il faut que tu tarmes Chauffer la salle faut lavouer cest facile lété Nous on fait les quatre saisons avec facilité La Squadra dla cliqua au cas où tu connais pas hein On représente le vrai Hip Hop allez déconnez pas On est là, les anciens les nouveaux reurs-ti confirmés Go, femmes classes, taff, perce le noyau dur suit nos traces Cest pour les balafrés, les damnés et les affamés Les têtes enflammées, les cramées, jsuis pas là que pour damer Aya yay, Americano Latino Africano La Squadra mon frère, yeah yeah toujours là1</t>
+          <t>Tache de tenir ta langue Sinon la tienne dégage Mate les dégâts Légende de rap Comment Chief ? ça va Daddy Tranquille, à part ça quest ce quon dit ? Tu sais même pas sur not' dos tout ce quils nont pas dit Tout cquil nont pas du dire Tout cquil nont pas pu jacter devant nous T'as vu ou pas sur l'avenue Pourtant jrime à lexcès, comme chacun le sait Jsuis pas à l'essai, jdois remonter le temps comme Jackie Chan le fait Chaque jour que Dieu fait, des bêtes de couplets Back in a day, Dad faut quon nous paye Nos copies ça play, on revoit ta plaie receleur, soit enfin heureux cest lheure Si t'es ahuri, c'est l'air Tu t'amuse tu ris c'est l'art Nous traite pas de vicelards Hisse la barre bien haut Ceux qu'ont pas dflows quils se barrent C'est le duo de choc qui revient jsais que tattendais ce come-back Rocca, Daddy man phat de nouveau réunis ça fera date Doorag, casquette, baggy, jean, slim, clean Clean, tes yeux hallucinent Vla la dream team Gin, rhum, champagne, donne ce que tas dmieux bonhomme Tu payes cache la somme, on va tfaire cracher la donne Tu connais lhistoire quand y a plus rien despoir Jamais on laisse choir, ça se passe le soir Autour dun joint, dune Heineken Aucune caille me ken, lheure où aucun vide nous canne Y a quune meuf qui nous calme ou le bon sens qui nous came Qui nous dame, qui nous damne Pardon à mes dames de taffer rien quavec mes amygdales Trop de mots Grigny et pense à toi jusquà Pygale Jlève pour toi, toi.le reste ça mest égal Tache de tenir ta langue Sinon la tienne dégage Mate les dégâts Légende de rap Sache tenir ta langue Dis-leur Gallegos, dis-leur Sinon la tienne dégage Matte les dégâts 'Voici la Squadra Je dois faire bouger toutes les têtes, poulet vos têtes, hurlés et si tes murs tremblent, assures-les Courez si vous voyez un colombien et un africain faire du business ensemble Ptêtre bien quça parle came et butin Diamant, flow et putains Cool et taffe et scrutin Wack MC tu luttes hein ? Plus dun, jen mets à lamende Jclaque rien quà la demande Clark, montre-leur qui commande Vas-y sos jen vois déjà qui srendent Où est lintrus ? Où est lintro ? Qui est le pro ? qui est le gros ? Qui est laccroc ? qui fait le show ? Du champagne qui a le seau ? De qui est le son ? Jette le mauvais et retiens le bon Prends une leçon De notre coté beaucoup le sont Cest ptêtre indécent des groupes indécents Bois ça sans verser du sang Pas besoin ddessin, encore moins d'être sain Daddy Lord C, Rocca, jette ton blaze hein ! Légende de rap Vital rap contact médicinal Mate les dégâts Jai pas ltemps djouer, jveux du concret envoie la monnaie Jai fini par manier le micro comme une sarbacane Quand mon verbe te canne tel un retour de flamme Soit tu tombes sous le charme chico soit il faut que tu tarmes Chauffer la salle faut lavouer cest facile lété Nous on fait les quatre saisons avec facilité La Squadra dla cliqua au cas où tu connais pas hein On représente le vrai Hip Hop allez déconnez pas On est là, les anciens les nouveaux reurs-ti confirmés Go, femmes classes, taff, perce le noyau dur suit nos traces Cest pour les balafrés, les damnés et les affamés Les têtes enflammées, les cramées, jsuis pas là que pour damer Aya yay, Americano Latino Africano La Squadra mon frère, yeah yeah toujours là1</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Ahí vienen... Así que esconde ese blunt Ahí vienen los guardias Y preparo el cañón Lord'a mercy! Ahí vienen... Así que esconde ese blunt Ahí vienen los guardias Y preparo el cañón Atención, atención policía oficial De, segundo rango Este es Mac Daddy que te viene a cantar A-Lord'a mercy! Eeenie! Mi-nini-nini-nini-nini! Come done! Come done! Come done! Eeenie! Mi-nini-nini-nini-nini! Watch m now'a! Uh-huh! Corre la voz que ellos son bravos, bravos Voy prparado con mi .9mm y disparo Se patalean y se cansan como claro Tablillas amarillas por supuesto su respaldo You might also likeViven de a sol Mimi-mimi! Y to'a las placas Mimi-mimi! Y se ven todos los días Viven de a sol Mimi-mimi! Y to'a las placas Mimi-mimi! Y se llaman Policía Lord'a mercy! Escuchenme-me! Yo iba en mi carro oyendo bien mi musica Mis metras atrás Y mi vida más allá Me hicieron parar y mostrar mi licencia Y con una R-15 y me dio una bofetá' Me baje, de mi carro y nos pusimos a enrrolar Me dieron con macana y esa voz de escopeta Alertaron el rechazo y me hicieron un plan Me echaron a Bayamón a la carcel regional Soy hijo 'e puta y me pude escapar Soy un gangster, y tu eres un guardia, whoa En la calle por supuesto mando yo Soy un gangster, y tu eres un guardia, whoa En la calle por supuesto mando yo Hay guerra Guerra con mi gente Guerra si tu vienes Te espera la muerte Hay guerra Guerra con mi gente Guerra si tu vienes Te espera la muerte Come done! Come done! Corre la voz que ellos son bravos, bravos Voy preparado con mi .9mm y disparo Se patalean y se cansan como claro Tablillas amarillas por supuesto su respaldo Es la policía persiguiendome a mi Y me acusan de tener, una bolas de Creepy Sin cojones me tiene, yo me largo de aquí Soy de la calle, Raggamuffin Mac Daddy Aquí, en la casa todo el mundo está despieto Esperando que lleguen los insectos Los maleantes se encuentran molestos Con orden de cateo llegaron los pendejos Lord'a mercy pregunto lo que tengo Yerba mala confiscaron mi complejo Sin cojones como quiera yo les tiendo Soy de la calle, a maleantes represento Se encuentran ah-yeah... Vestidos de azules Oh yeah... Se encuentran ah-yeah... Vestidos de azules Oh yeah... Come done! Corre la voz que ellos Corre la voz que no- Corre la voz que ellos son bravos, bravos Voy preparado con mi .9mm y disparo Se patalean y se cansan como claro Tablillas amarillas por supuesto su respaldo Alza la mano, no queremos guardias Solo, queremos fumar marihuana Oye que trajin, si has llegao A todos los saquemos, me da metralleta Somos propietarios mira de esta casa No queremo' a nadie que nos ponga la regla Corre la voz que ellos son bravos, bravos Voy preparado con mi .9mm y disparo Se patalean y se cansan como claro Tablillas amarillas por supuesto su respaldo Lord'a mercy, come done! Haha! Siempre que canto con rudeza yo te voy a demostrar Que tengo pues el size Para fuerte batallar Oye el estilo que yo implanto fuera de lo normal Q Mac Daddy lo nombra champion Mac Daddy Mac Daddy, Mac Daddy, Mac Daddy Whoa-oh-ohh-ohh Mac Daddy Mac Daddy, Mac Daddy, Mac Daddy Whoa-oh-ohh-ohh Pam-pam! Ohh-Ohh-Ohh-Ohh Pam-pam! Pam! Pam! Pam! Pam! Pam-pam! Soltamos metralleta para gozar Pues del Raggamuffin soy el champion Me gusta la yale sexy sensual Le gusta mi forma de pregonar La llevo a la cama y no es para hablar Rapatapatam-depam-depam-pam Ohh-Ohh-Ohh-Ohh Mac Daddy Mac Daddy, Mac Daddy, Mac Daddy Ohh-Ohh-Ohh-Ohh Y suena gatillo Gatillo, gatillo, gatillo, gatillo Primero empiezas a hablar y a comentar Pues te has alimentado un enemigo mortal Que horror es hablar, descansa en paz Un pasaje de ida te podemos regalar Que suena gatillo Para que te tiemblen los pies So, gatillo Para que no sepas que hacer Gatillo Para que se pierda la calma Gatillo Para que descanse tu alma Oye le digo para mi yale Y con tu body no pienso Pero que me maten no pienso Oyelo antes lo mato yo Digo para mi yale Y con tu body no pienso Pero que me maten no pienso Oyelo antes lo mato yo Alguien critica no lo quiero señor Alguien me ama, no la debo tener Alguien critica no lo quiero señor Alguien no me ama, no la debo querer Oye le digo para mi yale Y con tu body no pienso Pero que me maten no pienso Oyelo antes lo mato yo Digo para mi yale Y con tu body no pienso Pero que me maten no pienso Oyelo antes lo mato yo Alguien critica no lo quiero señor Alguien me ama, no la debo tener Alguien critica no lo quiero señor Alguien no me ama, no la debo querer... E-I-O-O-O Champion, champion El Mac Daddy en acción E-I-O-O-O Champion, champion El Mac Daddy en acción Mac Daddy Mac Daddy, Mac Daddy, Mac Daddy Pam! Pam! Pam! Pam! Pam! Pam!</t>
+          <t>Ahí vienen... Así que esconde ese blunt Ahí vienen los guardias Y preparo el cañón Lord'a mercy! Ahí vienen... Así que esconde ese blunt Ahí vienen los guardias Y preparo el cañón Atención, atención policía oficial De, segundo rango Este es Mac Daddy que te viene a cantar A-Lord'a mercy! Eeenie! Mi-nini-nini-nini-nini! Come done! Come done! Come done! Eeenie! Mi-nini-nini-nini-nini! Watch m now'a! Uh-huh! Corre la voz que ellos son bravos, bravos Voy prparado con mi .9mm y disparo Se patalean y se cansan como claro Tablillas amarillas por supuesto su respaldo Viven de a sol Mimi-mimi! Y to'a las placas Mimi-mimi! Y se ven todos los días Viven de a sol Mimi-mimi! Y to'a las placas Mimi-mimi! Y se llaman Policía Lord'a mercy! Escuchenme-me! Yo iba en mi carro oyendo bien mi musica Mis metras atrás Y mi vida más allá Me hicieron parar y mostrar mi licencia Y con una R-15 y me dio una bofetá' Me baje, de mi carro y nos pusimos a enrrolar Me dieron con macana y esa voz de escopeta Alertaron el rechazo y me hicieron un plan Me echaron a Bayamón a la carcel regional Soy hijo 'e puta y me pude escapar Soy un gangster, y tu eres un guardia, whoa En la calle por supuesto mando yo Soy un gangster, y tu eres un guardia, whoa En la calle por supuesto mando yo Hay guerra Guerra con mi gente Guerra si tu vienes Te espera la muerte Hay guerra Guerra con mi gente Guerra si tu vienes Te espera la muerte Come done! Come done! Corre la voz que ellos son bravos, bravos Voy preparado con mi .9mm y disparo Se patalean y se cansan como claro Tablillas amarillas por supuesto su respaldo Es la policía persiguiendome a mi Y me acusan de tener, una bolas de Creepy Sin cojones me tiene, yo me largo de aquí Soy de la calle, Raggamuffin Mac Daddy Aquí, en la casa todo el mundo está despieto Esperando que lleguen los insectos Los maleantes se encuentran molestos Con orden de cateo llegaron los pendejos Lord'a mercy pregunto lo que tengo Yerba mala confiscaron mi complejo Sin cojones como quiera yo les tiendo Soy de la calle, a maleantes represento Se encuentran ah-yeah... Vestidos de azules Oh yeah... Se encuentran ah-yeah... Vestidos de azules Oh yeah... Come done! Corre la voz que ellos Corre la voz que no- Corre la voz que ellos son bravos, bravos Voy preparado con mi .9mm y disparo Se patalean y se cansan como claro Tablillas amarillas por supuesto su respaldo Alza la mano, no queremos guardias Solo, queremos fumar marihuana Oye que trajin, si has llegao A todos los saquemos, me da metralleta Somos propietarios mira de esta casa No queremo' a nadie que nos ponga la regla Corre la voz que ellos son bravos, bravos Voy preparado con mi .9mm y disparo Se patalean y se cansan como claro Tablillas amarillas por supuesto su respaldo Lord'a mercy, come done! Haha! Siempre que canto con rudeza yo te voy a demostrar Que tengo pues el size Para fuerte batallar Oye el estilo que yo implanto fuera de lo normal Q Mac Daddy lo nombra champion Mac Daddy Mac Daddy, Mac Daddy, Mac Daddy Whoa-oh-ohh-ohh Mac Daddy Mac Daddy, Mac Daddy, Mac Daddy Whoa-oh-ohh-ohh Pam-pam! Ohh-Ohh-Ohh-Ohh Pam-pam! Pam! Pam! Pam! Pam! Pam-pam! Soltamos metralleta para gozar Pues del Raggamuffin soy el champion Me gusta la yale sexy sensual Le gusta mi forma de pregonar La llevo a la cama y no es para hablar Rapatapatam-depam-depam-pam Ohh-Ohh-Ohh-Ohh Mac Daddy Mac Daddy, Mac Daddy, Mac Daddy Ohh-Ohh-Ohh-Ohh Y suena gatillo Gatillo, gatillo, gatillo, gatillo Primero empiezas a hablar y a comentar Pues te has alimentado un enemigo mortal Que horror es hablar, descansa en paz Un pasaje de ida te podemos regalar Que suena gatillo Para que te tiemblen los pies So, gatillo Para que no sepas que hacer Gatillo Para que se pierda la calma Gatillo Para que descanse tu alma Oye le digo para mi yale Y con tu body no pienso Pero que me maten no pienso Oyelo antes lo mato yo Digo para mi yale Y con tu body no pienso Pero que me maten no pienso Oyelo antes lo mato yo Alguien critica no lo quiero señor Alguien me ama, no la debo tener Alguien critica no lo quiero señor Alguien no me ama, no la debo querer Oye le digo para mi yale Y con tu body no pienso Pero que me maten no pienso Oyelo antes lo mato yo Digo para mi yale Y con tu body no pienso Pero que me maten no pienso Oyelo antes lo mato yo Alguien critica no lo quiero señor Alguien me ama, no la debo tener Alguien critica no lo quiero señor Alguien no me ama, no la debo querer... E-I-O-O-O Champion, champion El Mac Daddy en acción E-I-O-O-O Champion, champion El Mac Daddy en acción Mac Daddy Mac Daddy, Mac Daddy, Mac Daddy Pam! Pam! Pam! Pam! Pam! Pam!</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>J'arrive avec le flow, les mots, le reste mon blaze le fournit Un produit français, non ça vient pas de Californie Ça va soulager ta tête tes pieds si t'as des fourmis Et changer ton opinion à c'qu'on t'a dit sur moi Non c'est pas un mytho au mic qui dit des sornettes Qui ressasse à qui veut l'savoir, rien qu'il est fort mec Et jamais dans un contentieux qui s'en sort net Toujours XXX si y a un drame, il cherche à s'en remettre C'est loin derrière, les cours et la cité Obligé d'être plus finaud pour le cash et la GTI XXX si je t'ai eu, me parle pas de CPE Le temps défile autant qu'mes phrases en stéréo pleuvent L'amour d'mes gosses et d'mon équipe, qu'espérer en plus Pour XXX ces larmes ces XXX en teuf Au retour mains sur l'capot c'que dira un keuf Le refaire, pourquoi pas tant qu'j'peux remplir le coffre Faut autant d'appétit qu'c't enculé de Jean-Pierre Coffe J'suis la lumière éteinte lorsque tu prends ton temps La banlieue ou l'monde, c'est prends prends prends La rage du ghetto, c'est bang bang bang Sirènes de police, ainsi font font font Ça y est j'casse des dents, v'là qu'tu m'caces-dédi Tu dis mon nom, moi souvent le gars case Teddy Qu'est-ce t'as dit hier, à présent qu'est-ce t'en dis Même si t'apprécies pas, faut qu't'encaisses, tant pis À propos cache ta go, même si t'as pas XXX Elle kiffera quand même ce type qui roule en caisse tapée Qui pense qu'à s'taper, te prendre qu'est-ce t'avais Tu XXX ravive ça, mon Dieu putain mais qu'est-ce t'as fait Qu'est-ce ça fait, tout c'que t'as fait, qu'est-ce t'as pu Qu'est-ce t'as vu, bouger comme ça mais qu'est-ce t'as bu C'est mon putain d'son qui tourne tonton, c'est c'que j't'avoue You might also like J'suis la lumière éteinte lorsque tu prends ton temps La banlieue ou l'monde, c'est prends prends prends La rage du ghetto, c'est bang bang bang Sirènes de police, ainsi font font font Je suis la lumière Qui t'éclaire dans le noir La rage du ghetto Sirènes de police J'suis la lumière, la lumière La banlieue, la banlieue La rage du ghetto, du ghetto Sirènes de police, de police Ta vie est mal barrée, en plus tu peux pas t'barrer Un crédit, une femme des gosses une voiture à réparer Un frère taré, une sur qui s'prend pour Mariah Carey Il reste une chose, mon son gros, au moins ça c'est carré C'est comme un Glock, une carte Premier, faut pas s'en séparer Ou l'retour de Mormeck, surtout s'y préparer Dur de boucler, vous l'savez, toutes les fines bouches T'étonne pas, pour qu'tu t'couches, j'en rajoute une petite couche Parler de quoi, du rap ce qu'il en reste, il m'manquerait de l'encre T'façon j'suis pas du genre à blâmer ou critiquer l'autre Plutôt calculer ce qui peut me manquer, tu notes? Je sais de quoi j'parle, j'ai mis mes mots sur la table Dédicace à ceux dont le bruit est déduit à table Francs et efficaces comme une thérapie XXX J'ai jamais eu besoin, moi, de baratiner J'suis la lumière éteinte lorsque tu prends ton temps La banlieue ou l'monde, c'est prends prends prends La rage du ghetto, c'est bang bang bang Sirènes de police, ainsi font font font</t>
+          <t>J'arrive avec le flow, les mots, le reste mon blaze le fournit Un produit français, non ça vient pas de Californie Ça va soulager ta tête tes pieds si t'as des fourmis Et changer ton opinion à c'qu'on t'a dit sur moi Non c'est pas un mytho au mic qui dit des sornettes Qui ressasse à qui veut l'savoir, rien qu'il est fort mec Et jamais dans un contentieux qui s'en sort net Toujours XXX si y a un drame, il cherche à s'en remettre C'est loin derrière, les cours et la cité Obligé d'être plus finaud pour le cash et la GTI XXX si je t'ai eu, me parle pas de CPE Le temps défile autant qu'mes phrases en stéréo pleuvent L'amour d'mes gosses et d'mon équipe, qu'espérer en plus Pour XXX ces larmes ces XXX en teuf Au retour mains sur l'capot c'que dira un keuf Le refaire, pourquoi pas tant qu'j'peux remplir le coffre Faut autant d'appétit qu'c't enculé de Jean-Pierre Coffe J'suis la lumière éteinte lorsque tu prends ton temps La banlieue ou l'monde, c'est prends prends prends La rage du ghetto, c'est bang bang bang Sirènes de police, ainsi font font font Ça y est j'casse des dents, v'là qu'tu m'caces-dédi Tu dis mon nom, moi souvent le gars case Teddy Qu'est-ce t'as dit hier, à présent qu'est-ce t'en dis Même si t'apprécies pas, faut qu't'encaisses, tant pis À propos cache ta go, même si t'as pas XXX Elle kiffera quand même ce type qui roule en caisse tapée Qui pense qu'à s'taper, te prendre qu'est-ce t'avais Tu XXX ravive ça, mon Dieu putain mais qu'est-ce t'as fait Qu'est-ce ça fait, tout c'que t'as fait, qu'est-ce t'as pu Qu'est-ce t'as vu, bouger comme ça mais qu'est-ce t'as bu C'est mon putain d'son qui tourne tonton, c'est c'que j't'avoue J'suis la lumière éteinte lorsque tu prends ton temps La banlieue ou l'monde, c'est prends prends prends La rage du ghetto, c'est bang bang bang Sirènes de police, ainsi font font font Je suis la lumière Qui t'éclaire dans le noir La rage du ghetto Sirènes de police J'suis la lumière, la lumière La banlieue, la banlieue La rage du ghetto, du ghetto Sirènes de police, de police Ta vie est mal barrée, en plus tu peux pas t'barrer Un crédit, une femme des gosses une voiture à réparer Un frère taré, une sur qui s'prend pour Mariah Carey Il reste une chose, mon son gros, au moins ça c'est carré C'est comme un Glock, une carte Premier, faut pas s'en séparer Ou l'retour de Mormeck, surtout s'y préparer Dur de boucler, vous l'savez, toutes les fines bouches T'étonne pas, pour qu'tu t'couches, j'en rajoute une petite couche Parler de quoi, du rap ce qu'il en reste, il m'manquerait de l'encre T'façon j'suis pas du genre à blâmer ou critiquer l'autre Plutôt calculer ce qui peut me manquer, tu notes? Je sais de quoi j'parle, j'ai mis mes mots sur la table Dédicace à ceux dont le bruit est déduit à table Francs et efficaces comme une thérapie XXX J'ai jamais eu besoin, moi, de baratiner J'suis la lumière éteinte lorsque tu prends ton temps La banlieue ou l'monde, c'est prends prends prends La rage du ghetto, c'est bang bang bang Sirènes de police, ainsi font font font</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Samedi, la soirée, celle d'la semaine dernière J'l'avoue, franchement a foiré Cette fois j'vais y croire et j'mets l'paquet pour fuir l'dawa, l'enfoiré Rencard avec une go, une petite perle plutôt bien taillée Un flow gratte-papier, bien sapé, d'la maille, du style et ça y est J'me pointe en retard déjà j'l'entends en train d'piailler c'est à c'tte heure-ci qu't'arrives? j'en ai marre, ça fait cinq minutes que j't'attends Pour la calmer soirée disco mais d'abord grailler J'veux l'éliminer, mais tête brûlée comme un Pas l'genre de minet, efféminé, blindé d'monnaie Prêt à tout, baltringuer, ramper, lécher, s'faire vanner Plutôt caner qu'de laisser ma poire, fini d'ricaner Personne je permets, si c'n'est celle qui a fait d'moi son nouveau-né Bien élevé, bien rap dur j'ai grandi, gavé, arpenté l'pavé Les mains sales, si tu savais La loi entravée pour qu'dans la rue j'passe, on m'dise avé Lagerfeld, Ralph Lauren Ça frime, ça flambe, s'prend pour Sophia Loren La elle a rien à dire, tu parles, y en a qu'pour mes oreilles T'as une voiture, t'es garé où, c'est quelle marque d'abord? V'là qu'elle veut un chauffeur, j'suis pas chauvin Mais Claudia Schiffer commence à m'chauffer J'suis chaud j'y vais j'démarre j'abrège T'façon tôt ou tard fallait y venir Au peu qui puisse te convenir pour l'avenir et les jours à venir non mais moi tu m'as prise pour qui là? j'arrive la couche au plumard J'sens qu'autant d'chiffres sur un chèque, c'est pas plus mal elle m'coûte la peau des seufs, j'dégoûte la demoiselle En causant d'mes Coste-La, toute la nuit t'bagarre, écoute-la You might also like L'âme sur Besoin d'idéal Si tu cherches L'âme sur triche pas Pour jouer à armes égales Si tu cherches L'âme sur Besoin d'une étoile Si tu cherches L'âme sur Aussi pure que du cristal Mercredi, pas ou d'concert, j'suis en congés Pas d'ongles s'ronger, l'pif à éponger Risquer d'plonger faiblir, flancher, mordre le plancher Ici c'est cances-va et quand ça va m'reposer C'est pas la me-da la nouvelle dans l'immédiat qui va m'aider à faits-divers, infos, médias Avec tous les cartonnés qu'elle connaît j'connais c'que désire c'est tricard paumé Désolé, j'sais pas l'pardonner Elle me rend parano quand j'guette ses mains, un doigt par anneau Autant parier sur la être parrainé C'est pas une fille pour toi, elle va te tuer V'là qu'mes parents m'disent Mon paradis part en parodie, question savate, heureusement, j'suis pas radin mais attends, qu'est-ce que tu fais là, c'est qui çui-là? j'm'acquitte, v'là c'que ça m'coûte Ma cote et une putain d'répute de Tonton Makoute L'âme sur Besoin d'idéal Si tu cherches L'âme sur triche pas Pour jouer à armes égales Ouais si tu cherches L'âme sur l'unique, la seule Besoin d'idéal Si tu cherches L'âme sur Aussi pure que du cristal Après l'freaky flow, maintenant j'ai l'fric et l'flow V'là falloir encore qu'j'évite le vrac et Des plans galère, en v'là à la pelle Si tu prends pas la peine de rentrer ton instinct et bien gaillard, tu resteras pèlerin Mais apprends sur Terre, qu'des femmes, pas d'pénurie L'âme sur Besoin d'idéal Si tu cherches L'âme sur triche pas La seule, l'unqiue Si tu cherches L'âme sur Pour jouer à armes égales L'âme sur Besoin d'idéal Si tu cherches L'âme sur Besoin d'une étoile Si tu cherches L'âme sur la seule, l'unique Aussi pure que du cristal ouais, triche pas Si tu cherches L'âme sur L'âme sur</t>
+          <t>Samedi, la soirée, celle d'la semaine dernière J'l'avoue, franchement a foiré Cette fois j'vais y croire et j'mets l'paquet pour fuir l'dawa, l'enfoiré Rencard avec une go, une petite perle plutôt bien taillée Un flow gratte-papier, bien sapé, d'la maille, du style et ça y est J'me pointe en retard déjà j'l'entends en train d'piailler c'est à c'tte heure-ci qu't'arrives? j'en ai marre, ça fait cinq minutes que j't'attends Pour la calmer soirée disco mais d'abord grailler J'veux l'éliminer, mais tête brûlée comme un Pas l'genre de minet, efféminé, blindé d'monnaie Prêt à tout, baltringuer, ramper, lécher, s'faire vanner Plutôt caner qu'de laisser ma poire, fini d'ricaner Personne je permets, si c'n'est celle qui a fait d'moi son nouveau-né Bien élevé, bien rap dur j'ai grandi, gavé, arpenté l'pavé Les mains sales, si tu savais La loi entravée pour qu'dans la rue j'passe, on m'dise avé Lagerfeld, Ralph Lauren Ça frime, ça flambe, s'prend pour Sophia Loren La elle a rien à dire, tu parles, y en a qu'pour mes oreilles T'as une voiture, t'es garé où, c'est quelle marque d'abord? V'là qu'elle veut un chauffeur, j'suis pas chauvin Mais Claudia Schiffer commence à m'chauffer J'suis chaud j'y vais j'démarre j'abrège T'façon tôt ou tard fallait y venir Au peu qui puisse te convenir pour l'avenir et les jours à venir non mais moi tu m'as prise pour qui là? j'arrive la couche au plumard J'sens qu'autant d'chiffres sur un chèque, c'est pas plus mal elle m'coûte la peau des seufs, j'dégoûte la demoiselle En causant d'mes Coste-La, toute la nuit t'bagarre, écoute-la L'âme sur Besoin d'idéal Si tu cherches L'âme sur triche pas Pour jouer à armes égales Si tu cherches L'âme sur Besoin d'une étoile Si tu cherches L'âme sur Aussi pure que du cristal Mercredi, pas ou d'concert, j'suis en congés Pas d'ongles s'ronger, l'pif à éponger Risquer d'plonger faiblir, flancher, mordre le plancher Ici c'est cances-va et quand ça va m'reposer C'est pas la me-da la nouvelle dans l'immédiat qui va m'aider à faits-divers, infos, médias Avec tous les cartonnés qu'elle connaît j'connais c'que désire c'est tricard paumé Désolé, j'sais pas l'pardonner Elle me rend parano quand j'guette ses mains, un doigt par anneau Autant parier sur la être parrainé C'est pas une fille pour toi, elle va te tuer V'là qu'mes parents m'disent Mon paradis part en parodie, question savate, heureusement, j'suis pas radin mais attends, qu'est-ce que tu fais là, c'est qui çui-là? j'm'acquitte, v'là c'que ça m'coûte Ma cote et une putain d'répute de Tonton Makoute L'âme sur Besoin d'idéal Si tu cherches L'âme sur triche pas Pour jouer à armes égales Ouais si tu cherches L'âme sur l'unique, la seule Besoin d'idéal Si tu cherches L'âme sur Aussi pure que du cristal Après l'freaky flow, maintenant j'ai l'fric et l'flow V'là falloir encore qu'j'évite le vrac et Des plans galère, en v'là à la pelle Si tu prends pas la peine de rentrer ton instinct et bien gaillard, tu resteras pèlerin Mais apprends sur Terre, qu'des femmes, pas d'pénurie L'âme sur Besoin d'idéal Si tu cherches L'âme sur triche pas La seule, l'unqiue Si tu cherches L'âme sur Pour jouer à armes égales L'âme sur Besoin d'idéal Si tu cherches L'âme sur Besoin d'une étoile Si tu cherches L'âme sur la seule, l'unique Aussi pure que du cristal ouais, triche pas Si tu cherches L'âme sur L'âme sur</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Laisse le bizness aux gars qui rappent mieux que toi Je représente mon crew La Cliqua Je représente ce que la jeunesse d'aujourd'hui veut entendre Un produit qu'on ne peut corrompre et que rien ne peut fendre La Cliqua des incorruptibles, de vrais pros, rien que la vérité Rien que la vérité Rocca Yeah ! Laisse le bizness aux gars qui rappent mieux que toi Raphaël J'ai la voix, le talent, les mots qu'il te faut pour parler de tout ça Rocca Raphael La vie dure, ses combats, les phrases chocs, je suis trop crédible et tu le vois Yeah ! Rocca, Raphaël, Dad au micro débarquent flow Rien que la vérité Rocca You might also likeJe parle de ce qui m'entoure Le ciel gris, les tours, les joies, les peines, l'amour, le stress de tous les jours Pour les jeunes, c'est l'instant présent qui compte, l'avenir est flou Raphaël J'ai traversé les tunnels les plus sombres, j'irai jusqu'au bout, quoi ? Daddy Lord C D'une manière ou d'une autre, n'essaies pas de me la faire à l'envers J'ai d'autres méthodes pour te calmer que de te faire mal en vers Vivre pénard et être au vert, obligé d'avoir l'esprit ouvert Pour réussir y a des limites, j'suis quand même pas prêt à tout faire Quitte à faire le sale boulot, je préfère de loin celui a qu'il d'affaires Affamé, reste d-spee comme un Ducati moteur compressé Je reste net, je donne pas mon boule, j'y mets un point d'honneur, compris, c'est Ma cause, mon optique, ma raison, ma manière de voir qui me pousse Autrui à rien devoir, rançon à remplir mon devoir Textes d'acier, mental d'enfer, au cas khouya faut pas t'en faire J'investis jamais ma clique dans des bizness nulle part ailleurs Ce coté incorruptible, tu le retrouves nulle part ailleurs Je représente ce que la jeunesse d'aujourd'hui veut entendre Un produit qu'on ne peut corrompre et que rien ne peut fendre La Cliqua des incorruptibles, de vrais pros, rien que la vérité Rien que la vérité Si je rappe c'est parce que j'aime ça Kicker au mic, tu crois que j'avais le choix ? Yeah j'suis né pour ça Crois pas que je sais rien faire d'autre de mes 10 doigts Mais c'est la vie qui l'a voulue ainsi, c'était écrit Je suis un MC fort, un battant qui vivra pour ce qu'il dit C'est ma liberté, ma façon d'exorciser Mes mots de représenter comme il faut ceux qui vont te parler T'as peur de quoi ? Dis Que je fasse une émeute dans toutes les cités, c'est ça qui dérange les képis LÉtat je suis leur pire ennemi, je représente mon pays Pourquoi ? Parce que celui-ci ne veut pas de moi Les contrôles abusifs des flics me font bien comprendre mes droits Extradition, expulsion, on avait déjà le chômage, l'exclusion Tu veux pas savoir ce qui vient de rager mes raisons Mais je vendrais pas mon âme, ni fausserait mon message pour être plus accessible mira Je suis un incorruptible Je représente ce que la jeunesse d'aujourd'hui veut entendre Un produit qu'on ne peut corrompre et que rien ne peut fendre La Cliqua des incorruptibles, de vrais pros, rien que la vérité Rien que la vérité Je représente la jeunesse, les jours gris, la peur d'un lendemain sans boulot Yo Maman ! T'inquiète pas, j'ai ce qu'il faut, je mérite ce qu'il y a de plus beau Le mic, ma liberté d'expression, ma fonction Parler de vérité, sous forme d'amour, de haine, toutes sortes d'émotions Pose pas de questions, m'impose aucune condition J'ai mes convictions, le pognon ne dévie jamais ma direction Plein Sud, garçon d'une vraie aptitude dur absolue C'est juste le prélude d'une nouvelle ère, du rap pur Le mic ma légitime défense, un crime, pour certain l'hymne Pour les jeunes mes rimes assassinent, je ne serai jamais une victime Fier de moi, sûr de moi, concret dans tous mes projets J'ai intérêt d'y croire l'état vas t'mont tant sans pitié En aucun cas je ne serai une putain de cible En tant que vrai gars, Raphaël est incorruptible Scratchs Le hip hop, toi moi, ma cause, je représent</t>
+          <t>Laisse le bizness aux gars qui rappent mieux que toi Je représente mon crew La Cliqua Je représente ce que la jeunesse d'aujourd'hui veut entendre Un produit qu'on ne peut corrompre et que rien ne peut fendre La Cliqua des incorruptibles, de vrais pros, rien que la vérité Rien que la vérité Rocca Yeah ! Laisse le bizness aux gars qui rappent mieux que toi Raphaël J'ai la voix, le talent, les mots qu'il te faut pour parler de tout ça Rocca Raphael La vie dure, ses combats, les phrases chocs, je suis trop crédible et tu le vois Yeah ! Rocca, Raphaël, Dad au micro débarquent flow Rien que la vérité Rocca Je parle de ce qui m'entoure Le ciel gris, les tours, les joies, les peines, l'amour, le stress de tous les jours Pour les jeunes, c'est l'instant présent qui compte, l'avenir est flou Raphaël J'ai traversé les tunnels les plus sombres, j'irai jusqu'au bout, quoi ? Daddy Lord C D'une manière ou d'une autre, n'essaies pas de me la faire à l'envers J'ai d'autres méthodes pour te calmer que de te faire mal en vers Vivre pénard et être au vert, obligé d'avoir l'esprit ouvert Pour réussir y a des limites, j'suis quand même pas prêt à tout faire Quitte à faire le sale boulot, je préfère de loin celui a qu'il d'affaires Affamé, reste d-spee comme un Ducati moteur compressé Je reste net, je donne pas mon boule, j'y mets un point d'honneur, compris, c'est Ma cause, mon optique, ma raison, ma manière de voir qui me pousse Autrui à rien devoir, rançon à remplir mon devoir Textes d'acier, mental d'enfer, au cas khouya faut pas t'en faire J'investis jamais ma clique dans des bizness nulle part ailleurs Ce coté incorruptible, tu le retrouves nulle part ailleurs Je représente ce que la jeunesse d'aujourd'hui veut entendre Un produit qu'on ne peut corrompre et que rien ne peut fendre La Cliqua des incorruptibles, de vrais pros, rien que la vérité Rien que la vérité Si je rappe c'est parce que j'aime ça Kicker au mic, tu crois que j'avais le choix ? Yeah j'suis né pour ça Crois pas que je sais rien faire d'autre de mes 10 doigts Mais c'est la vie qui l'a voulue ainsi, c'était écrit Je suis un MC fort, un battant qui vivra pour ce qu'il dit C'est ma liberté, ma façon d'exorciser Mes mots de représenter comme il faut ceux qui vont te parler T'as peur de quoi ? Dis Que je fasse une émeute dans toutes les cités, c'est ça qui dérange les képis LÉtat je suis leur pire ennemi, je représente mon pays Pourquoi ? Parce que celui-ci ne veut pas de moi Les contrôles abusifs des flics me font bien comprendre mes droits Extradition, expulsion, on avait déjà le chômage, l'exclusion Tu veux pas savoir ce qui vient de rager mes raisons Mais je vendrais pas mon âme, ni fausserait mon message pour être plus accessible mira Je suis un incorruptible Je représente ce que la jeunesse d'aujourd'hui veut entendre Un produit qu'on ne peut corrompre et que rien ne peut fendre La Cliqua des incorruptibles, de vrais pros, rien que la vérité Rien que la vérité Je représente la jeunesse, les jours gris, la peur d'un lendemain sans boulot Yo Maman ! T'inquiète pas, j'ai ce qu'il faut, je mérite ce qu'il y a de plus beau Le mic, ma liberté d'expression, ma fonction Parler de vérité, sous forme d'amour, de haine, toutes sortes d'émotions Pose pas de questions, m'impose aucune condition J'ai mes convictions, le pognon ne dévie jamais ma direction Plein Sud, garçon d'une vraie aptitude dur absolue C'est juste le prélude d'une nouvelle ère, du rap pur Le mic ma légitime défense, un crime, pour certain l'hymne Pour les jeunes mes rimes assassinent, je ne serai jamais une victime Fier de moi, sûr de moi, concret dans tous mes projets J'ai intérêt d'y croire l'état vas t'mont tant sans pitié En aucun cas je ne serai une putain de cible En tant que vrai gars, Raphaël est incorruptible Scratchs Le hip hop, toi moi, ma cause, je représent</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>D-O-N-T-C-H-A Tu me connais Aight 9.8, je représente, gars Trop pressé parfois, je veux des billets, brasser des liasses Préférant gars La fortune sourit Sourit aux audacieux gars Tétonne pas, dans mon quartier les jeunes paraissent plus vieux, car Les temps deviennent dur Difficile pour nous aujourdhui, frangin De parsemer sa semence, chaque jour veiller au bon grain Que la récolte soit bonne chaque année Cest ça que je prie, Seigneur Mais en vain, rien pour rien, par mon front viendra la sueur Cette sueur a coulé de mon front, mon col en est tacheté Si je lutte chaque semaine comme un guedin Cest pour le pouvoir dacheter Fou, guedin du MC qui rappe que pour des gains Les meufs sifflent à chaque fois si pour ton compte elles ont le béguin Je rêve de cueillir des billets sur les putains de branches dun chêne Ça cest comme dans Alice Ici, cest le pays où chacun se démène Nous, on se lève tôt Payer le ticket, être dans le bon wagon Pas de grasse matinée, nourrir les cafards et acheter Baygon Certains lâchent, des guns, cachent Des faux flingues juste pour du cash Mais faut que tu saches que par le pistolet tu finis à coup de hache Tu veux jouer au truand dur pour que la détente te rapporte Mais même dans les films de tueurs gangsters Cest le bon qui le remporte Comme tu veux que le mal règne, si le mal gagne, Satan gagne Pour des enfants noirs, ici, de femmes qui ont porté des pagnes Bref, jai laptitude de vaincre sans devoir sortir les armes Sans dealer de la coke, came, sans devoir faire couler de larmes Alors, re-frè, dis-moi, tu sais comment senfonce une punaise ? Facilement, avec un bruit, comme cela est écrit dans la Genèse Jespère que tu ne pries plus pour quon exauce tes prières Car jai limpression que tu voudrais que sétende le règne de Lucifer You might also like Trop pressé parfois, je veux des billets, brasser des liasses Préférant gars La fortune sourit Sourit aux audacieux gars Tétonne pas, dans mon quartier les jeunes paraissent plus vieux, car Trop pressé parfois, je veux des billets, brasser des liasses Préférant gars La fortune sourit Sourit aux audacieux gars Tétonne pas, dans mon quartier les jeunes paraissent plus vieux Arrive le Daddy, plein de rimes, de face, de phases comme promis Apportant ce qui manque au Hip Hop, vaut mieux, parce quil vomit Face au cro-mi, linsoumis y trouve un de ces compromis Au fin fond dun son cramé, lui enlevant son air de paumé À consommer avec modération car pour habitués Pour ceux qui font de largent légalement, illégalement Qui pourrissent en prison, peuvent même pas Plus ont ce quon a pas, le perdront, pardon, car on le reprendra Ainsi va la vie, les aléas faut faire avec Ce quil y a, sil y a, sans se soucier de ce que lon dira Pauvre, un cur de pierre, mal éduqué, la tête dun caillou Lesprit racailleux de simples voyous, pour qui nous prends-tu ? voyons ! Ton histoire à pleurer, rajoutes-y une note de violon Mais avant sache que vieux lon traite sans se brader et se dévaluer Du gamin au vieillard, pas de repos pour la matière grise Aspire pour que le départ se fasse en douceur sans surprise tassumes ta tune, s'en sorte pas prise On me reproche souvent davoir voulu grandir trop vite Les jeunes maintenant à treize ans veulent en paraître dix-huit La galère, sen sortir et essayer de sortir du chaos Montrer que ta tête nest pas remplie de carottes et de cacao La brute épaisse, tu représentes, donne pas que dans le pied au pao En un mot, malgré tes défauts, en service un cerveau Yo, Daddy lord C, Dontcha, aight MC Trop pressé parfois, je veux des billets, brasser des liasses ouais Préférant gars La fortune sourit Sourit aux audacieux gars Tétonne pas, dans mon quartier les jeunes paraissent plus vieux, car Trop pressé parfois, je veux des billets, brasser des liasses Préférant gars MC La fortune sourit Sourit aux audacieux gars Tétonne pas, dans mon quartier les jeunes paraissent plus vieux Yo Vieux 9.9 8 MC Écoute ça Le 9.3, je représente, gars Écoute ça Le 9.2, je dédicace, aight MC, MC Teddy Derrière les barreaux Cliqua, seulement Aight Seulement Da LAs Les miens, je représente Da LAs Les miens, je représente, gars Da LAs Les miens, je représente Da LAs 9.3, je représente, gars Écoute ça 7.7 Le 9.2, je dédicace, aight 7.7 9.4 9.1 Yo D-O-N-T-C-H-A Écoute ça Daddy Lord C, MC Daddy Lord C remet de lordre ici, aight Écoute ça</t>
+          <t>D-O-N-T-C-H-A Tu me connais Aight 9.8, je représente, gars Trop pressé parfois, je veux des billets, brasser des liasses Préférant gars La fortune sourit Sourit aux audacieux gars Tétonne pas, dans mon quartier les jeunes paraissent plus vieux, car Les temps deviennent dur Difficile pour nous aujourdhui, frangin De parsemer sa semence, chaque jour veiller au bon grain Que la récolte soit bonne chaque année Cest ça que je prie, Seigneur Mais en vain, rien pour rien, par mon front viendra la sueur Cette sueur a coulé de mon front, mon col en est tacheté Si je lutte chaque semaine comme un guedin Cest pour le pouvoir dacheter Fou, guedin du MC qui rappe que pour des gains Les meufs sifflent à chaque fois si pour ton compte elles ont le béguin Je rêve de cueillir des billets sur les putains de branches dun chêne Ça cest comme dans Alice Ici, cest le pays où chacun se démène Nous, on se lève tôt Payer le ticket, être dans le bon wagon Pas de grasse matinée, nourrir les cafards et acheter Baygon Certains lâchent, des guns, cachent Des faux flingues juste pour du cash Mais faut que tu saches que par le pistolet tu finis à coup de hache Tu veux jouer au truand dur pour que la détente te rapporte Mais même dans les films de tueurs gangsters Cest le bon qui le remporte Comme tu veux que le mal règne, si le mal gagne, Satan gagne Pour des enfants noirs, ici, de femmes qui ont porté des pagnes Bref, jai laptitude de vaincre sans devoir sortir les armes Sans dealer de la coke, came, sans devoir faire couler de larmes Alors, re-frè, dis-moi, tu sais comment senfonce une punaise ? Facilement, avec un bruit, comme cela est écrit dans la Genèse Jespère que tu ne pries plus pour quon exauce tes prières Car jai limpression que tu voudrais que sétende le règne de Lucifer Trop pressé parfois, je veux des billets, brasser des liasses Préférant gars La fortune sourit Sourit aux audacieux gars Tétonne pas, dans mon quartier les jeunes paraissent plus vieux, car Trop pressé parfois, je veux des billets, brasser des liasses Préférant gars La fortune sourit Sourit aux audacieux gars Tétonne pas, dans mon quartier les jeunes paraissent plus vieux Arrive le Daddy, plein de rimes, de face, de phases comme promis Apportant ce qui manque au Hip Hop, vaut mieux, parce quil vomit Face au cro-mi, linsoumis y trouve un de ces compromis Au fin fond dun son cramé, lui enlevant son air de paumé À consommer avec modération car pour habitués Pour ceux qui font de largent légalement, illégalement Qui pourrissent en prison, peuvent même pas Plus ont ce quon a pas, le perdront, pardon, car on le reprendra Ainsi va la vie, les aléas faut faire avec Ce quil y a, sil y a, sans se soucier de ce que lon dira Pauvre, un cur de pierre, mal éduqué, la tête dun caillou Lesprit racailleux de simples voyous, pour qui nous prends-tu ? voyons ! Ton histoire à pleurer, rajoutes-y une note de violon Mais avant sache que vieux lon traite sans se brader et se dévaluer Du gamin au vieillard, pas de repos pour la matière grise Aspire pour que le départ se fasse en douceur sans surprise tassumes ta tune, s'en sorte pas prise On me reproche souvent davoir voulu grandir trop vite Les jeunes maintenant à treize ans veulent en paraître dix-huit La galère, sen sortir et essayer de sortir du chaos Montrer que ta tête nest pas remplie de carottes et de cacao La brute épaisse, tu représentes, donne pas que dans le pied au pao En un mot, malgré tes défauts, en service un cerveau Yo, Daddy lord C, Dontcha, aight MC Trop pressé parfois, je veux des billets, brasser des liasses ouais Préférant gars La fortune sourit Sourit aux audacieux gars Tétonne pas, dans mon quartier les jeunes paraissent plus vieux, car Trop pressé parfois, je veux des billets, brasser des liasses Préférant gars MC La fortune sourit Sourit aux audacieux gars Tétonne pas, dans mon quartier les jeunes paraissent plus vieux Yo Vieux 9.9 8 MC Écoute ça Le 9.3, je représente, gars Écoute ça Le 9.2, je dédicace, aight MC, MC Teddy Derrière les barreaux Cliqua, seulement Aight Seulement Da LAs Les miens, je représente Da LAs Les miens, je représente, gars Da LAs Les miens, je représente Da LAs 9.3, je représente, gars Écoute ça 7.7 Le 9.2, je dédicace, aight 7.7 9.4 9.1 Yo D-O-N-T-C-H-A Écoute ça Daddy Lord C, MC Daddy Lord C remet de lordre ici, aight Écoute ça</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Yeah yeah, écoute ça Squadra Le pacte Ça, c'est XXX l'album XXX Eh eh Yeah Les poings fermés dans les poches, observant les ombres qui s'approchent Les amis qui clochent, c'est fou comme le succès change tes proches Y a rien à faire, le mieux c'est d'fuir toute cette médiocrité Changer d'atmosphère, liquider les traîtres démasqués Moi et mon partenaire, on a fait un pacte qui nous unit pour la vie S'il n'y a plus d'amitié entre nous, on arrête c'est promis On a tellement subi de trahisons ces dernières années Qu'aujourd'hui, c'est décidé, c'est Cliqua Squadra pour durer Onda, ganga, mafia S'il faut faire des lois pour s'entendre entre nous, bien, on les fera C'est comme une famille qui s'endurcit Comme un bloc de béton pour une guerre D'l'acier inoxydable, j'y crois dur comme fer J'y vois plus clair Des paranos subsistent encore malgré tout dans l'crew Il n'y a plus d'temps à perdre, le hip-hop n'attend plus que nous Sexe, mensonges au micro, complot Stress, contrats, fiasco Gonzesses et business XXX y a plus d'politesse, plus d'amis ni noblesse Que des soi-disant potes qui s'engraissent Qui cherchent nos faiblesses, nous pressent Pour grossir leur compte en caisse La méfiance est un atout majeur dans la profession Choisis bien tes pions fiston, n'ais confiance qu'en ton intuition C'est comme un échiquier, un face-à-face bestial Où chaque faux mouvement crée les cases vides Sois clair, précis et rapide Tellement d'intrus qui veulent nous séparer, nous disperser, nous aveugler Même brûler les liens sacrés d'une amitié Faire couler, nous effacer, nous liquider Nous retarder yeah Je sais qu'parfois ça peut vexer mais j'dis qu'la vérité Les ombres du mal nous envahissent à chaque faux pas J'ai toujours cru en l'union Mais la gloire, le pognon créent trop de tensions De fausses fréquentations, les compliments Les nouveaux amis sont pires que des sables mouvants Dès qu'on s'enlise, peu en survivant Je nage parmi les requins, j'essaie de suivre mon chemin J'ai mon destin dans les mains Personne m'arrêtera, c'est certain You might also like Tch-Tch-Bla, écoute ça gars Mate les dégâts Les savateurs XXX Pour la Cliqua, voici la Squadra El Néro y el Hispano XXX C'est comme un pacte Un lien, une sorte de contrat, liés par le sang Un serment Toute la survie du clan en dépend Je vois dans les yeux, tu vois dans les miens à présent Fidèle aux miens quand bien même ton crew te prête main-forte C'est comme un pacte Un lien, une sorte de contrat, liés par le sang Un serment Toute la survie du clan en dépend Je vois dans les yeux, tu vois dans les miens à présent J'lâcherai pas l'affaire, j'irai jusqu'au bout maintenant J'arrive pour tout péter Tu cherches la paix, t'es mal barré, j'vais pas m'répéter Mais l'image qui m'a refleté C'n'est pas l'pied que j'prends, plaisir que j'trouve quand il faut s'latter La sale ambiance tendue autour de moi que j'laisse flotter Par mon flow t'es subjugué, à devoir me flatter Mais parce que j'mets l'feu, quand l'mal est fait, à ma mille-fa Sois preuve d'amour et d'patience j'le veux bien, calme et patient Vas-y, on touche à un d'mes proches XXX ces théories T'es en rouge, fini, oublie l'principe d'théologie Le temps qu'j'monte au logis afin d'trouver d'quoi t'soulager C'coup-là, j'ai l'expérience, ce serait à refaire, je l'referais Chirdé pour mon crew, mes gars ma clique, rien qu'des refrés Sois pas con, complice XXX pour combine, CD compact Banal délire de copains Plus qu'un XXX pour l'pactole entre nous, pas pour l'échec Meufs choc et soirées chics Ça va plus loin qu'ça gamin Histoire d'bédos, d'sacs à mains Ça commence, des points communs, grandir sans commodités Dans une cité comme on dit Comme on s'dit combattants entre nous J'compte pas ces cons battant en retraite, l'esprit combatif Pas d'ceux qui t'laissent en plan, qui ont plein ou qui compatissent Avoir le même sang dans nos veines nous vaut vannes et venin Va-nu-pieds vénèr s'rabattent sur nous pour nous voir khabatt J'taffe pour un seul crew, une seule famille Dans la main un seul micro, dans ma tête un seul principe Un seul XXX l'argent une seule couleur Donc pour ma vie un seul contrat C'est comme un pacte Un lien, une sorte de contrat, liés par le sang Un serment Toute la survie du clan en dépend Je vois dans les yeux, tu vois dans les miens à présent Fidèle aux miens quand bien même le diable dans la tour m'emporte C'est comme un pacte Un lien, une sorte de contrat, liés par le sang Un serment Toute la survie du clan en dépend Je vois dans les yeux, tu vois dans les miens à présent J'lâcherai pas l'affaire, j'irai jusqu'au bout maintenant</t>
+          <t>Yeah yeah, écoute ça Squadra Le pacte Ça, c'est XXX l'album XXX Eh eh Yeah Les poings fermés dans les poches, observant les ombres qui s'approchent Les amis qui clochent, c'est fou comme le succès change tes proches Y a rien à faire, le mieux c'est d'fuir toute cette médiocrité Changer d'atmosphère, liquider les traîtres démasqués Moi et mon partenaire, on a fait un pacte qui nous unit pour la vie S'il n'y a plus d'amitié entre nous, on arrête c'est promis On a tellement subi de trahisons ces dernières années Qu'aujourd'hui, c'est décidé, c'est Cliqua Squadra pour durer Onda, ganga, mafia S'il faut faire des lois pour s'entendre entre nous, bien, on les fera C'est comme une famille qui s'endurcit Comme un bloc de béton pour une guerre D'l'acier inoxydable, j'y crois dur comme fer J'y vois plus clair Des paranos subsistent encore malgré tout dans l'crew Il n'y a plus d'temps à perdre, le hip-hop n'attend plus que nous Sexe, mensonges au micro, complot Stress, contrats, fiasco Gonzesses et business XXX y a plus d'politesse, plus d'amis ni noblesse Que des soi-disant potes qui s'engraissent Qui cherchent nos faiblesses, nous pressent Pour grossir leur compte en caisse La méfiance est un atout majeur dans la profession Choisis bien tes pions fiston, n'ais confiance qu'en ton intuition C'est comme un échiquier, un face-à-face bestial Où chaque faux mouvement crée les cases vides Sois clair, précis et rapide Tellement d'intrus qui veulent nous séparer, nous disperser, nous aveugler Même brûler les liens sacrés d'une amitié Faire couler, nous effacer, nous liquider Nous retarder yeah Je sais qu'parfois ça peut vexer mais j'dis qu'la vérité Les ombres du mal nous envahissent à chaque faux pas J'ai toujours cru en l'union Mais la gloire, le pognon créent trop de tensions De fausses fréquentations, les compliments Les nouveaux amis sont pires que des sables mouvants Dès qu'on s'enlise, peu en survivant Je nage parmi les requins, j'essaie de suivre mon chemin J'ai mon destin dans les mains Personne m'arrêtera, c'est certain Tch-Tch-Bla, écoute ça gars Mate les dégâts Les savateurs XXX Pour la Cliqua, voici la Squadra El Néro y el Hispano XXX C'est comme un pacte Un lien, une sorte de contrat, liés par le sang Un serment Toute la survie du clan en dépend Je vois dans les yeux, tu vois dans les miens à présent Fidèle aux miens quand bien même ton crew te prête main-forte C'est comme un pacte Un lien, une sorte de contrat, liés par le sang Un serment Toute la survie du clan en dépend Je vois dans les yeux, tu vois dans les miens à présent J'lâcherai pas l'affaire, j'irai jusqu'au bout maintenant J'arrive pour tout péter Tu cherches la paix, t'es mal barré, j'vais pas m'répéter Mais l'image qui m'a refleté C'n'est pas l'pied que j'prends, plaisir que j'trouve quand il faut s'latter La sale ambiance tendue autour de moi que j'laisse flotter Par mon flow t'es subjugué, à devoir me flatter Mais parce que j'mets l'feu, quand l'mal est fait, à ma mille-fa Sois preuve d'amour et d'patience j'le veux bien, calme et patient Vas-y, on touche à un d'mes proches XXX ces théories T'es en rouge, fini, oublie l'principe d'théologie Le temps qu'j'monte au logis afin d'trouver d'quoi t'soulager C'coup-là, j'ai l'expérience, ce serait à refaire, je l'referais Chirdé pour mon crew, mes gars ma clique, rien qu'des refrés Sois pas con, complice XXX pour combine, CD compact Banal délire de copains Plus qu'un XXX pour l'pactole entre nous, pas pour l'échec Meufs choc et soirées chics Ça va plus loin qu'ça gamin Histoire d'bédos, d'sacs à mains Ça commence, des points communs, grandir sans commodités Dans une cité comme on dit Comme on s'dit combattants entre nous J'compte pas ces cons battant en retraite, l'esprit combatif Pas d'ceux qui t'laissent en plan, qui ont plein ou qui compatissent Avoir le même sang dans nos veines nous vaut vannes et venin Va-nu-pieds vénèr s'rabattent sur nous pour nous voir khabatt J'taffe pour un seul crew, une seule famille Dans la main un seul micro, dans ma tête un seul principe Un seul XXX l'argent une seule couleur Donc pour ma vie un seul contrat C'est comme un pacte Un lien, une sorte de contrat, liés par le sang Un serment Toute la survie du clan en dépend Je vois dans les yeux, tu vois dans les miens à présent Fidèle aux miens quand bien même le diable dans la tour m'emporte C'est comme un pacte Un lien, une sorte de contrat, liés par le sang Un serment Toute la survie du clan en dépend Je vois dans les yeux, tu vois dans les miens à présent J'lâcherai pas l'affaire, j'irai jusqu'au bout maintenant</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Mafia Trece La pression s'accentue, exprès Aussi vrai que mon accent tue en express Pour les reufrès, sur les ondes je m'empresse de foutre le ramdam Cest Awax, sens-tu ma présence ? Ya bon banania Je mabonne à France Telecom Tu veux Moovens ? Bip mon Tam-Tam Certains pensent pour joindre le Gabon, Dom-Tom Au bled, au jeu de tam-tam Je plaide pour les gars bons Les mauvais, tire au Gomm Cogne pah pah ! Si tu sais que cest le mauvais chemin, écoute, je te dis que tu déconnes Aujourdhui, tas eu des échos On sachemine vers les sommets comme et Gilbert Bécaud SergeM, cest cheum Faut que je perce, cest sûr, même par la cheminée G-Wild, Effa pour miner la place, La Dream Team Vas, A-Speak, Awax, Yannick, Kim On panique les flics et Bernard Minet Si tu frimes, trace ! Tu dis que tes déterminé Si on se croise, flippe, cest la rencontre du 13ème type Chaque étape, je mouille le maillot Réfléchis, cogite, tourne la mayo Aiguise le crayon pour que le pognon tombe Façon varié cest sur ma poire quon pari et Soit pas contrarié je lâche un cahier et ça y est, ça se met à brailler Rap ou boxe, me décourager tu peux toujours essayer Je bosse pour briller, bien grillé, le biz commence à me payer Un fils denculé, une vrai tête brûlée Que rien ne fait reculer Mais vu les Dégâts scrupuleux pour qui joue le Juge doit être moins crapuleux, respect, oblige Toute façon, javoue, le boulot que je viens représenter pour un gars plein de culot Tu fais bien de flipper, le rap de caille que je taille te rattrape pas Si tes trop sensible, une vrai chochotte, alors, gars, sauve-toi Je cautionne pas dhistoires de fils à papa, ça me passionne pas Je trouve pas ça exaltant dailleurs, jai pas le temps Quand on me bigo cest pour faire largent, énervant, pas vrai, msieur lagent ? Emergeant sans avenir ou seul dispersant Anti-costard A fond dedans, à cent pour cent Je suis pour les gars en vêt-sur Sportif Qui se tapent, se battent pour sen sortir veulent pas juste amortir Dans de sales plans foireux, fumer ou ya que mort que ten tire Le mal, mon empire je veux pas que ça empire Comment ralentir ? Suis mon voisin de palier les flics du coin peuvent pas me sentir Ecoute ça, gars Cest comme ça, je fais Daddy Lord C, Mafia Trece Représente, gars Pour la Cliqua représente, yo Ecoute, ça One love 97, 98 You might also like Hey ya Les sabres que je manie gâchent la vie des MC renois Ouga ouga Peuvent créer la zizanie entre des reufrès siamois À base Féroces rimes, traque, braque Agressif comme Xena Si les MC me tachent, touchent, tu vois des taches dexéma Le M.I. je manie, quand je brûle, je fais peur au Non, jai trop de sales manies, gratte mon pif et le cul des Barbies Quand jexplose des doses de prose, ya débris dMC partout Des cicatrices de cramés indélébiles comme des tatoo Trece est la Mafia Nicosie Traque-moi dans les rues du 9.3, jai la tête rasée Info lancée insolence et mots sensés Flow insensé pure pensée Mécanique compensée DAfrique à Vitry Trans Les Moovens dépensent pas le fric dans la sense Laissent la chance, pensent et investissent pour avancer dans le biz Les real Gz financés mescortent car Vas représente pour ces potes Apporte son éminence grise fils, en une prise cest balancé Mais cest pas le Pérou Tas beau doser, oser plus de damaja que Jeru Faire le mérou tant que tu déroules pas des rimes cool Passe-moi le microphone, jai les munitions Je suis arrivé en renfort, poursuivant lexpédition Punitive contre le lindustrie musicale Requiem pour tous les pèquenauds quand je me pose sur linstrumental Assassin verbal MC qui en a dans le çon-cale Je suis réputé pour lassassinat verbal de toutes les pédales Tous ceux qui baissent leurs slops Cailles, MC, va mettre à mort Afin de nettoyer le Hip Hop Ils ont le blues Car elles courent après moi, ils me jalousent Ils ont le blues Car mon crew à les femmes, le flow, le flouze Ils ont le blues Car par mon flow ils sont dépassés Repense aux années passées Epoque dépassée Où le rap nétait pas à ce niveau non, non Avant que mon posse, la Mafia Trece Débarque pour mettre la barre plus haut Y-A-2N-I-C-K lui-même Je viens, je me zente-pré Je te zente-pré mes excuses A-Aïe, A-Aïe, A-Aïe Mate les battes swing du fonce-dé, fêlé Telle une drag-queen Mais guette le feeling Dêtre trop puissant comme Pat Ewing K-E-S-I-A-H prêt pour le fighting, cest lui le king Qui sélève au rang des héros Sous qui sabaissent tous les rivaux Appelle oim Geronimo, bravo, nigaud Tas le cul dans le faux Dixième dan de vocal taekwondo Maso, Desperado Coule ton radeau Psycho, tel Mario Battant Wario Sur Nintendo Pas de cadeaux Sur le microphone les phases fusent Senvolent comme Astro le petit robot et te casse-fra Té-ma le pro -fessionnel en extra Tel un pro -totype au calibre, a -ffuté comme un sabre au -bout duquel ta femme kiffera Tout comme un vibro Tu flipperas Cen est trop, car tel un cobra javais les crocs This for my Gz and this is for my hustlaz This is for my hustlaz now back to my Gz</t>
+          <t>Mafia Trece La pression s'accentue, exprès Aussi vrai que mon accent tue en express Pour les reufrès, sur les ondes je m'empresse de foutre le ramdam Cest Awax, sens-tu ma présence ? Ya bon banania Je mabonne à France Telecom Tu veux Moovens ? Bip mon Tam-Tam Certains pensent pour joindre le Gabon, Dom-Tom Au bled, au jeu de tam-tam Je plaide pour les gars bons Les mauvais, tire au Gomm Cogne pah pah ! Si tu sais que cest le mauvais chemin, écoute, je te dis que tu déconnes Aujourdhui, tas eu des échos On sachemine vers les sommets comme et Gilbert Bécaud SergeM, cest cheum Faut que je perce, cest sûr, même par la cheminée G-Wild, Effa pour miner la place, La Dream Team Vas, A-Speak, Awax, Yannick, Kim On panique les flics et Bernard Minet Si tu frimes, trace ! Tu dis que tes déterminé Si on se croise, flippe, cest la rencontre du 13ème type Chaque étape, je mouille le maillot Réfléchis, cogite, tourne la mayo Aiguise le crayon pour que le pognon tombe Façon varié cest sur ma poire quon pari et Soit pas contrarié je lâche un cahier et ça y est, ça se met à brailler Rap ou boxe, me décourager tu peux toujours essayer Je bosse pour briller, bien grillé, le biz commence à me payer Un fils denculé, une vrai tête brûlée Que rien ne fait reculer Mais vu les Dégâts scrupuleux pour qui joue le Juge doit être moins crapuleux, respect, oblige Toute façon, javoue, le boulot que je viens représenter pour un gars plein de culot Tu fais bien de flipper, le rap de caille que je taille te rattrape pas Si tes trop sensible, une vrai chochotte, alors, gars, sauve-toi Je cautionne pas dhistoires de fils à papa, ça me passionne pas Je trouve pas ça exaltant dailleurs, jai pas le temps Quand on me bigo cest pour faire largent, énervant, pas vrai, msieur lagent ? Emergeant sans avenir ou seul dispersant Anti-costard A fond dedans, à cent pour cent Je suis pour les gars en vêt-sur Sportif Qui se tapent, se battent pour sen sortir veulent pas juste amortir Dans de sales plans foireux, fumer ou ya que mort que ten tire Le mal, mon empire je veux pas que ça empire Comment ralentir ? Suis mon voisin de palier les flics du coin peuvent pas me sentir Ecoute ça, gars Cest comme ça, je fais Daddy Lord C, Mafia Trece Représente, gars Pour la Cliqua représente, yo Ecoute, ça One love 97, 98 Hey ya Les sabres que je manie gâchent la vie des MC renois Ouga ouga Peuvent créer la zizanie entre des reufrès siamois À base Féroces rimes, traque, braque Agressif comme Xena Si les MC me tachent, touchent, tu vois des taches dexéma Le M.I. je manie, quand je brûle, je fais peur au Non, jai trop de sales manies, gratte mon pif et le cul des Barbies Quand jexplose des doses de prose, ya débris dMC partout Des cicatrices de cramés indélébiles comme des tatoo Trece est la Mafia Nicosie Traque-moi dans les rues du 9.3, jai la tête rasée Info lancée insolence et mots sensés Flow insensé pure pensée Mécanique compensée DAfrique à Vitry Trans Les Moovens dépensent pas le fric dans la sense Laissent la chance, pensent et investissent pour avancer dans le biz Les real Gz financés mescortent car Vas représente pour ces potes Apporte son éminence grise fils, en une prise cest balancé Mais cest pas le Pérou Tas beau doser, oser plus de damaja que Jeru Faire le mérou tant que tu déroules pas des rimes cool Passe-moi le microphone, jai les munitions Je suis arrivé en renfort, poursuivant lexpédition Punitive contre le lindustrie musicale Requiem pour tous les pèquenauds quand je me pose sur linstrumental Assassin verbal MC qui en a dans le çon-cale Je suis réputé pour lassassinat verbal de toutes les pédales Tous ceux qui baissent leurs slops Cailles, MC, va mettre à mort Afin de nettoyer le Hip Hop Ils ont le blues Car elles courent après moi, ils me jalousent Ils ont le blues Car mon crew à les femmes, le flow, le flouze Ils ont le blues Car par mon flow ils sont dépassés Repense aux années passées Epoque dépassée Où le rap nétait pas à ce niveau non, non Avant que mon posse, la Mafia Trece Débarque pour mettre la barre plus haut Y-A-2N-I-C-K lui-même Je viens, je me zente-pré Je te zente-pré mes excuses A-Aïe, A-Aïe, A-Aïe Mate les battes swing du fonce-dé, fêlé Telle une drag-queen Mais guette le feeling Dêtre trop puissant comme Pat Ewing K-E-S-I-A-H prêt pour le fighting, cest lui le king Qui sélève au rang des héros Sous qui sabaissent tous les rivaux Appelle oim Geronimo, bravo, nigaud Tas le cul dans le faux Dixième dan de vocal taekwondo Maso, Desperado Coule ton radeau Psycho, tel Mario Battant Wario Sur Nintendo Pas de cadeaux Sur le microphone les phases fusent Senvolent comme Astro le petit robot et te casse-fra Té-ma le pro -fessionnel en extra Tel un pro -totype au calibre, a -ffuté comme un sabre au -bout duquel ta femme kiffera Tout comme un vibro Tu flipperas Cen est trop, car tel un cobra javais les crocs This for my Gz and this is for my hustlaz This is for my hustlaz now back to my Gz</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Professionnel, j'fais sonner l'fond, l'façonne sors du piano Appris l'solfège ou l'école, reçu deux leçons À devoir fouler l'sol dans la salle sur chaque clé d'sol Kiffer t'es pas l'seul, normal lascar et si ça t'console Gallegos, la Section souscrivent Mon blaze s'inscrit Dans les affaires ça gère, des ronds on soulève Pour l'bifton, compe-moi fiston de ceux qui s'lèvent tôt Même si ici c'est plus KFC, MacDo qu'restos Au top, reste haut, trop d'keufs arpentent tess et bistrots Espère qu'l bif trouve trouve son bifteck dans mon biz go J'pès mais ils s'trompent, à l'ancienne rétro Ouais j'en baise trop Beaucoup me considèrent comme un reur-ti, un simple ler-dea Voici ma réponse eh toi accroche-toi v'là c'que j'leur dis On échange nos places, aussi si le cur t'en dit Du dimanche au lundi, tu constates qu'on même jeu d'bandits On marque une pause à une seule condition la journée remplie On reste professionnels J'bosse pour briller, bien grillé, l'biz commence à m'payer Professionnel Bon nombre m'voient clamser en rêve, ils savent que l'attaque j'aime ça Même si la boxe mon âme sur, j'avoue j'mordrai pas l'hameçon j'retiens la leçon, à part l'caleçon J'suis des affaires dans l'bizness, dans l'commerce, qui en a l'sens Drogues rime avec rappeur, j'vois pas l'rapport T'façon on t'frappe Cette espèce sur terre s'en va, s'évapore Ma couleur t'fait peur, j'constate qu'pour ça t'as des vapeurs Tu vas pour prendre ton pied si j'vends pas, en tous cas vend pas La merde me tente pas eh bien j'm'en vante pas Quand on aime on compte pas Heureusement copain, sinon contraint d'mettre un contrat contre un proche Avec moi, qui s'la contera Mollo, t'affole pas, juste mon micro, pas un couteau Utile pour rappeler certains qu'ils peuvent toujours s'lever tôt Le sale boulot, t'espères plus qu'ils le fassent à ta place Trace, mais avant sache que si j'occupe ton espace Si j'décrasse alors c'est avec moi hélas que ça s'passe Pas mon habitude dans l'rap, du rab du supplémentaire Allonge quelques billets et je verrai bien ce que je vais faire Pas mélanger vitesse et précipitation J'suis un professionnel You might also like J'bosse pour briller, bien grillé l'biz commence à m'payer Professionnel Y a au mic, pas d'panique, c'est pas l'Titanic Le lyric lourd, franc-parler, surtout pas d'gimmick Ma populace n'en peut plus, lasse usée comme un joint d'culasse Boulot terne, dégueulasse, SDF, cités, jamais d'palace Pas l'temps qu'j'paraisse, ma gueule pas pour rouler pelles et galoches kalash, aujourd'hui faut qu'tu payes et que tes gars lâchent Insulte-moi, dis c'que tu veux, surtout me traite pas d'lâche Pour percer pas d'lèche, au cou deux grains d'café, surtout pas d'laisse Malgré haine et censure, sans un seul c'est pour moi ça Sans sas et sensass', les fans des sangsues, leur esprit sens-dessus-dessous Sur ce, une chose garçon Viens pas sans sous parce que professionnel J'bosse pour briller, bien grillé l'biz commence à m'payer Professionnel</t>
+          <t>Professionnel, j'fais sonner l'fond, l'façonne sors du piano Appris l'solfège ou l'école, reçu deux leçons À devoir fouler l'sol dans la salle sur chaque clé d'sol Kiffer t'es pas l'seul, normal lascar et si ça t'console Gallegos, la Section souscrivent Mon blaze s'inscrit Dans les affaires ça gère, des ronds on soulève Pour l'bifton, compe-moi fiston de ceux qui s'lèvent tôt Même si ici c'est plus KFC, MacDo qu'restos Au top, reste haut, trop d'keufs arpentent tess et bistrots Espère qu'l bif trouve trouve son bifteck dans mon biz go J'pès mais ils s'trompent, à l'ancienne rétro Ouais j'en baise trop Beaucoup me considèrent comme un reur-ti, un simple ler-dea Voici ma réponse eh toi accroche-toi v'là c'que j'leur dis On échange nos places, aussi si le cur t'en dit Du dimanche au lundi, tu constates qu'on même jeu d'bandits On marque une pause à une seule condition la journée remplie On reste professionnels J'bosse pour briller, bien grillé, l'biz commence à m'payer Professionnel Bon nombre m'voient clamser en rêve, ils savent que l'attaque j'aime ça Même si la boxe mon âme sur, j'avoue j'mordrai pas l'hameçon j'retiens la leçon, à part l'caleçon J'suis des affaires dans l'bizness, dans l'commerce, qui en a l'sens Drogues rime avec rappeur, j'vois pas l'rapport T'façon on t'frappe Cette espèce sur terre s'en va, s'évapore Ma couleur t'fait peur, j'constate qu'pour ça t'as des vapeurs Tu vas pour prendre ton pied si j'vends pas, en tous cas vend pas La merde me tente pas eh bien j'm'en vante pas Quand on aime on compte pas Heureusement copain, sinon contraint d'mettre un contrat contre un proche Avec moi, qui s'la contera Mollo, t'affole pas, juste mon micro, pas un couteau Utile pour rappeler certains qu'ils peuvent toujours s'lever tôt Le sale boulot, t'espères plus qu'ils le fassent à ta place Trace, mais avant sache que si j'occupe ton espace Si j'décrasse alors c'est avec moi hélas que ça s'passe Pas mon habitude dans l'rap, du rab du supplémentaire Allonge quelques billets et je verrai bien ce que je vais faire Pas mélanger vitesse et précipitation J'suis un professionnel J'bosse pour briller, bien grillé l'biz commence à m'payer Professionnel Y a au mic, pas d'panique, c'est pas l'Titanic Le lyric lourd, franc-parler, surtout pas d'gimmick Ma populace n'en peut plus, lasse usée comme un joint d'culasse Boulot terne, dégueulasse, SDF, cités, jamais d'palace Pas l'temps qu'j'paraisse, ma gueule pas pour rouler pelles et galoches kalash, aujourd'hui faut qu'tu payes et que tes gars lâchent Insulte-moi, dis c'que tu veux, surtout me traite pas d'lâche Pour percer pas d'lèche, au cou deux grains d'café, surtout pas d'laisse Malgré haine et censure, sans un seul c'est pour moi ça Sans sas et sensass', les fans des sangsues, leur esprit sens-dessus-dessous Sur ce, une chose garçon Viens pas sans sous parce que professionnel J'bosse pour briller, bien grillé l'biz commence à m'payer Professionnel</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Tu veux t'éclater, tu veux te faire épater D'être du métier, travaillant avec du doigté, toi t'es Laisse donc la place à ceux qui savent venir savater Tu veux t'éclater, tu veux te faire épater D'être du métier, travaillant avec du doigté, toi t'es Laisse donc la place à ceux qui savent Si la plupart des gens en ta faveur sont plus sensibles Gardien de tes rimes, c'est ta valeur au mic qui décide Un flow flexible crée un air inaccessif XXX tu rappes façon XXX soul clap Du rap contact fredonné par un beau Black Chassant le wack par un don du ciel, un mic, une prise jack Pour te montrer que même en solo, à l'aise en Ralph Lau' Possède le funk flow, une vraie tempête, un vrai fléau Pour éduquer ton cerveau, sans cesse de renouveau Hausser le niveau sans trop traumatiser le tempo D'ôter le flou, qu'tu fasses des sous, pas qu'des clous Apporte de quoi s'mettre sous la dent à tous les jaloux Diffusant l'info comme la cause, Barbès XXX La politique des rues XXX déplacé Si t'es mou, te rends un peu plus fâché Pas seulement frime, gratuité, mots obscènes Mes rimes se succèdent, dans l'intellect s'injecte un remède You might also like Tu veux t'éclater, tu veux te faire épater D'être du métier, travaillant avec du doigté, toi t'es XXX prends ton pied devant la voie lactée Laisse donc la place à ceux qui savent venir savater Tu veux t'éclater, tu veux te faire épater D'être du métier, travaillant avec du doigté, toi t'es Déjanté, prends ton pied, vois la voie lactée Laisse donc la place à ceux qui savent En Nike, Lacoste XXX Fila, savamment vêtu Mais plus têtu que McEnroe sur court de terre battue Très jeune, j'ai combattu, rendu me suis défendu Pour un statut que je réclame, considérant qu'il m'est dû Qu'on me respecte, qu'on me dise plus souvent tu tues Ne porte pas un inconnu plaqué sur une avenue Jamais soutenu puisque ma go jugeait ta cause perdue Induit en erreur par mon allure, à la bonne heure Pour mon malheur, plutôt le tien corrige ses erreurs Sans faire de faveurs Dans ton esprit s'impose la terreur Tes amis en causent si XXX t'y parviens S'donner les moyens, y arriver sans eau dans son vin Ça étonnerait le monde entier si j'tombe au fond d'un ravin Sans l'vouloir, c'est mon son qu'tu fais jump up Normal tu bloques sur c'qu'évoque l'authentique hip-hop De mon époque, on préfère la soul, copain Vu qu'ta pop censure, boycott pépin Écoute bien l'bruit qu'ça fait quand je crache mon venin Après dis-moi gamin si ton cerveau s'en sort bénin Tu veux t'éclater, tu veux te faire épater D'être du métier, travaillant avec du doigté, toi t'es XXX prends ton pied devant la voie lactée Laisse donc la place à ceux qui savent venir savater Tu veux t'éclater, tu veux te faire épater D'être du métier, travaillant avec du doigté, toi t'es Déjanté, prends ton pied, vois la voie lactée Laisse donc la place à ceux qui savent</t>
+          <t>Tu veux t'éclater, tu veux te faire épater D'être du métier, travaillant avec du doigté, toi t'es Laisse donc la place à ceux qui savent venir savater Tu veux t'éclater, tu veux te faire épater D'être du métier, travaillant avec du doigté, toi t'es Laisse donc la place à ceux qui savent Si la plupart des gens en ta faveur sont plus sensibles Gardien de tes rimes, c'est ta valeur au mic qui décide Un flow flexible crée un air inaccessif XXX tu rappes façon XXX soul clap Du rap contact fredonné par un beau Black Chassant le wack par un don du ciel, un mic, une prise jack Pour te montrer que même en solo, à l'aise en Ralph Lau' Possède le funk flow, une vraie tempête, un vrai fléau Pour éduquer ton cerveau, sans cesse de renouveau Hausser le niveau sans trop traumatiser le tempo D'ôter le flou, qu'tu fasses des sous, pas qu'des clous Apporte de quoi s'mettre sous la dent à tous les jaloux Diffusant l'info comme la cause, Barbès XXX La politique des rues XXX déplacé Si t'es mou, te rends un peu plus fâché Pas seulement frime, gratuité, mots obscènes Mes rimes se succèdent, dans l'intellect s'injecte un remède Tu veux t'éclater, tu veux te faire épater D'être du métier, travaillant avec du doigté, toi t'es XXX prends ton pied devant la voie lactée Laisse donc la place à ceux qui savent venir savater Tu veux t'éclater, tu veux te faire épater D'être du métier, travaillant avec du doigté, toi t'es Déjanté, prends ton pied, vois la voie lactée Laisse donc la place à ceux qui savent En Nike, Lacoste XXX Fila, savamment vêtu Mais plus têtu que McEnroe sur court de terre battue Très jeune, j'ai combattu, rendu me suis défendu Pour un statut que je réclame, considérant qu'il m'est dû Qu'on me respecte, qu'on me dise plus souvent tu tues Ne porte pas un inconnu plaqué sur une avenue Jamais soutenu puisque ma go jugeait ta cause perdue Induit en erreur par mon allure, à la bonne heure Pour mon malheur, plutôt le tien corrige ses erreurs Sans faire de faveurs Dans ton esprit s'impose la terreur Tes amis en causent si XXX t'y parviens S'donner les moyens, y arriver sans eau dans son vin Ça étonnerait le monde entier si j'tombe au fond d'un ravin Sans l'vouloir, c'est mon son qu'tu fais jump up Normal tu bloques sur c'qu'évoque l'authentique hip-hop De mon époque, on préfère la soul, copain Vu qu'ta pop censure, boycott pépin Écoute bien l'bruit qu'ça fait quand je crache mon venin Après dis-moi gamin si ton cerveau s'en sort bénin Tu veux t'éclater, tu veux te faire épater D'être du métier, travaillant avec du doigté, toi t'es XXX prends ton pied devant la voie lactée Laisse donc la place à ceux qui savent venir savater Tu veux t'éclater, tu veux te faire épater D'être du métier, travaillant avec du doigté, toi t'es Déjanté, prends ton pied, vois la voie lactée Laisse donc la place à ceux qui savent</t>
         </is>
       </c>
     </row>
@@ -939,7 +939,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Ça y est c'est reparti, l'artiste hardi de l'art dit ardu Fardeau pour lardus, fais de la résistance bref reprends du Galon j'vais au charbon, Y aura pas de cadeau ni de pardon Le dernier salaud qu'on n'a pas encore foutu au ballon Normal j'ai le bras long, les alibis mes soss et moi les salons Pour mattraper ce sera pas Château-Vallon, la vie de salon Dehors ils prétendent tous qu'on m'entende bien que j'ai le même vice qu'eux Le même flot, la même langue visqueuse, la seule excuse J'me drogue pas j'deale pas bien que depuis longtemps cramé Et pas du genre à consommer seulement qu'du lait écrémé Bêtement rimer arrimer à style phases périmées J'ai longtemps trimé dans le crime, La Défense, Grigny, le 13, Crimée Pas pour aujourd'hui mon son débarque, j'te vois l'supprimer C'est l'retour du Dad Du rap Soweto sur fond de son de Bagdad un expert comptable C'est l'retour du Dad Du rap Soweto sur fond de son de Bagdad MC reste tranquille ou te faire du mal je vais pas me gêner Hey Daddy ! me gêne pas j'suis en train de shooter Montrer aux MCs fragiles que c'est plus l'heure de goûter J'ai pas l'temps de jouer, je l'ai fait en disque tu peux l'écouter Du rap fruité, futé pour ce que cela va te coûter Pour moi c'qu'est vital le choc brutal du fameux métal Bien que j'évite sheitan, c'est pas la CSG qui va me mer-cal Kelkal du mic calcule avec recul pour que tu cales Mc reste tranquille ou tu faire du mal je vais pas me gêner Personne pour me freiner, je maltraite le beat comme une trainée Et né dans la mêlée j'mets les bouchées doubles, botte les plus zélés T'interpeller comme la télé le fait une meuf bien roulée J'fais mieux que roucouler, me défouler te saouler tu craques sous les Boulets de la tête brûlée du crane pelé en Pelle Pelle You might also like C'est l'retour du Dad Du rap Soweto sur fond de son de Bagdad un expert comptable C'est l'retour du Dad Du rap Soweto sur fond de son de Bagdad MC reste tranquille ou te faire du mal je vais pas me gêner Au plus haut degré ma voix en continue sans arrêt Sois prêt à devenir taré par mon phrasé sons samples carrés À s'imaginer que tu apprécies mon son tel qu'il est Mon look stylé Ralph Lauren, Lacoste, baggy, crâne pelé Me traite de fêlé par contre bois mes phases comme un gosse son p'tit lait Me critique pompe mon style à l'heure qu'il est File de la ville avant que mes vilains rabattent le filet Et que les vieux lâchent encore une fois voilà j'suis violent J'me fiche des histoires de gangs, d'bandits, d'voyous, d'parrains Ça m'fait marrer, s'ils sont si forts qu'ils viennent un par un Une fois par an à Paris dans les bacs j'parais J'parie qu'mes paroles parues perturbent, paralysent tes parents Me parle pas d'mafia, moi je me fie à c'que j'ai Le manche je lai et ya pas quau mic dailleurs que j'donne des dégelées On cause peu d'moi en bien, j'aggrave les choses avec mon pote colombien Tu veux qu'ça pète le jackpot pour ça tu paies combien ? J'ris quand les ragots racontent qu'intrigant cain-fri qui s'prend pour un ricain, passe pour un brigand Car question d'fric en vrai j'vois grand, j'range ma clique au premier rang C'est l'retour du Dad Du rap Soweto sur fond de son de Bagdad MC reste tranquille ou te faire du mal je vais pas me gêner C'est l'retour du Dad Du rap Soweto sur fond de son de Bagdad MC reste tranquille ou te faire du mal je vais pas me gêner MC reste tranquille ou te faire du mal je vais pas me gêner MC reste tranquille ou te faire du mal je vais pas me gêner MC reste tranquille ou te faire du mal je vais pas me gêner</t>
+          <t>Ça y est c'est reparti, l'artiste hardi de l'art dit ardu Fardeau pour lardus, fais de la résistance bref reprends du Galon j'vais au charbon, Y aura pas de cadeau ni de pardon Le dernier salaud qu'on n'a pas encore foutu au ballon Normal j'ai le bras long, les alibis mes soss et moi les salons Pour mattraper ce sera pas Château-Vallon, la vie de salon Dehors ils prétendent tous qu'on m'entende bien que j'ai le même vice qu'eux Le même flot, la même langue visqueuse, la seule excuse J'me drogue pas j'deale pas bien que depuis longtemps cramé Et pas du genre à consommer seulement qu'du lait écrémé Bêtement rimer arrimer à style phases périmées J'ai longtemps trimé dans le crime, La Défense, Grigny, le 13, Crimée Pas pour aujourd'hui mon son débarque, j'te vois l'supprimer C'est l'retour du Dad Du rap Soweto sur fond de son de Bagdad un expert comptable C'est l'retour du Dad Du rap Soweto sur fond de son de Bagdad MC reste tranquille ou te faire du mal je vais pas me gêner Hey Daddy ! me gêne pas j'suis en train de shooter Montrer aux MCs fragiles que c'est plus l'heure de goûter J'ai pas l'temps de jouer, je l'ai fait en disque tu peux l'écouter Du rap fruité, futé pour ce que cela va te coûter Pour moi c'qu'est vital le choc brutal du fameux métal Bien que j'évite sheitan, c'est pas la CSG qui va me mer-cal Kelkal du mic calcule avec recul pour que tu cales Mc reste tranquille ou tu faire du mal je vais pas me gêner Personne pour me freiner, je maltraite le beat comme une trainée Et né dans la mêlée j'mets les bouchées doubles, botte les plus zélés T'interpeller comme la télé le fait une meuf bien roulée J'fais mieux que roucouler, me défouler te saouler tu craques sous les Boulets de la tête brûlée du crane pelé en Pelle Pelle C'est l'retour du Dad Du rap Soweto sur fond de son de Bagdad un expert comptable C'est l'retour du Dad Du rap Soweto sur fond de son de Bagdad MC reste tranquille ou te faire du mal je vais pas me gêner Au plus haut degré ma voix en continue sans arrêt Sois prêt à devenir taré par mon phrasé sons samples carrés À s'imaginer que tu apprécies mon son tel qu'il est Mon look stylé Ralph Lauren, Lacoste, baggy, crâne pelé Me traite de fêlé par contre bois mes phases comme un gosse son p'tit lait Me critique pompe mon style à l'heure qu'il est File de la ville avant que mes vilains rabattent le filet Et que les vieux lâchent encore une fois voilà j'suis violent J'me fiche des histoires de gangs, d'bandits, d'voyous, d'parrains Ça m'fait marrer, s'ils sont si forts qu'ils viennent un par un Une fois par an à Paris dans les bacs j'parais J'parie qu'mes paroles parues perturbent, paralysent tes parents Me parle pas d'mafia, moi je me fie à c'que j'ai Le manche je lai et ya pas quau mic dailleurs que j'donne des dégelées On cause peu d'moi en bien, j'aggrave les choses avec mon pote colombien Tu veux qu'ça pète le jackpot pour ça tu paies combien ? J'ris quand les ragots racontent qu'intrigant cain-fri qui s'prend pour un ricain, passe pour un brigand Car question d'fric en vrai j'vois grand, j'range ma clique au premier rang C'est l'retour du Dad Du rap Soweto sur fond de son de Bagdad MC reste tranquille ou te faire du mal je vais pas me gêner C'est l'retour du Dad Du rap Soweto sur fond de son de Bagdad MC reste tranquille ou te faire du mal je vais pas me gêner MC reste tranquille ou te faire du mal je vais pas me gêner MC reste tranquille ou te faire du mal je vais pas me gêner MC reste tranquille ou te faire du mal je vais pas me gêner</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Mon clan c'est comme un patate dans ça casse et ça saigne C'est ce que la rue m'a enseigné, au fil des années le pe-ra J'ai appris à le manier comme un sport de combat Dans toutes sortes de terrains minés, trime inédit Avec mon escorte Comme un joint Ma mi-fa faut que tu la respecte C'est comme un toit sur ma tête mec Alors matte le À la conquête du hip-hop français On avance pas avec des sourires forcés mais les sourcils froncés Prêt à foncer afin de tout défoncer on a faim et on sait Alors on s'efforce de rester authentique autant qu'on l'peut Et ce du mieux qu'on peut Car quoi qu'il arrive je pisse dans la rue Car on est ce qu'on est et on a ce qu'on a Et en ce qui me concerne je serais fidèle à mes ainés Je revendique ma clique, dans le 77 mon matricule Le seul et l'même qui t'encule Alors en tant qu'MC je pose une bombe verbale et je creuse Ta tombe sur l'instrumentale Ainsi que pour l'homme qu'on nomme Daddy C sur l'album Le sens du clan se transmet de père en fils Le respect, l'éducation de nos jours s'perd en vice On s'plie en dix pour pas que nos enfants subissent You might also like Sans la présence de mes gars franchement j'aurais pas le Ni fait de ma cité un sacré palais Et c'est pas les ragots qui font que mon blase n'est pas laid Trainer les sales histoires que je porte comme des galets Ni l'assurance dans une embrouille comme un vrai A partir au galop porter Je préfère être Condamné à 12 piges afin que tout se pige Je suis pas une tasse-pé même si j'ai changé d'aspect Trahir ça s'paie, que tu y échappe je veux bien J'imagine que ça se peut, mais la rue en laisse peu Moi j'suis fidèle aux miens Y'a que ma vie qui est à prendre Mes meubles à vendre Tout le reste à défendre Mon attitude va dépendre J'ai le sens du clan Le sens du clan se transmet de père en fils Le respect, l'éducation de nos jours s'perd en vice On s'plie en dix pour pas que nos enfants subissent Le sens du clan, je l'ai donc je l'ouvre À mon sens, mon clan est vrai donc découvre Ma carence Nes-O et Daddy C Tu sais que le son n'est pas bad ici MC Faut qu'on sorte tous de là ou on est Même s'il faut faire bouger la femme et l'escorte à la rescousse Laissant derrière nous que le mauvais souvenir d'un passé Dans la merde tu es Mais j'y resterai pas De voir mes reufs tous Dans ce monde de requin, tous vouloir faire briller les billets De façon immonde comme dans Dans mon clan on est tous issu Fais le Mais sache que dans la mêlée, y'a que des loups à l'appel Donc j'appelle à la loi de la jungle Face à ta femme et ton clan savoir rester humble Le mec qui devant toi fera Mais qu'est-ce tu veux que je te dise reuf, flingue-le Le sens du clan se transmet de père en fils Le respect, l'éducation de nos jours s'perd en vice On s'plie en dix pour pas que nos enfants subissent</t>
+          <t>Mon clan c'est comme un patate dans ça casse et ça saigne C'est ce que la rue m'a enseigné, au fil des années le pe-ra J'ai appris à le manier comme un sport de combat Dans toutes sortes de terrains minés, trime inédit Avec mon escorte Comme un joint Ma mi-fa faut que tu la respecte C'est comme un toit sur ma tête mec Alors matte le À la conquête du hip-hop français On avance pas avec des sourires forcés mais les sourcils froncés Prêt à foncer afin de tout défoncer on a faim et on sait Alors on s'efforce de rester authentique autant qu'on l'peut Et ce du mieux qu'on peut Car quoi qu'il arrive je pisse dans la rue Car on est ce qu'on est et on a ce qu'on a Et en ce qui me concerne je serais fidèle à mes ainés Je revendique ma clique, dans le 77 mon matricule Le seul et l'même qui t'encule Alors en tant qu'MC je pose une bombe verbale et je creuse Ta tombe sur l'instrumentale Ainsi que pour l'homme qu'on nomme Daddy C sur l'album Le sens du clan se transmet de père en fils Le respect, l'éducation de nos jours s'perd en vice On s'plie en dix pour pas que nos enfants subissent Sans la présence de mes gars franchement j'aurais pas le Ni fait de ma cité un sacré palais Et c'est pas les ragots qui font que mon blase n'est pas laid Trainer les sales histoires que je porte comme des galets Ni l'assurance dans une embrouille comme un vrai A partir au galop porter Je préfère être Condamné à 12 piges afin que tout se pige Je suis pas une tasse-pé même si j'ai changé d'aspect Trahir ça s'paie, que tu y échappe je veux bien J'imagine que ça se peut, mais la rue en laisse peu Moi j'suis fidèle aux miens Y'a que ma vie qui est à prendre Mes meubles à vendre Tout le reste à défendre Mon attitude va dépendre J'ai le sens du clan Le sens du clan se transmet de père en fils Le respect, l'éducation de nos jours s'perd en vice On s'plie en dix pour pas que nos enfants subissent Le sens du clan, je l'ai donc je l'ouvre À mon sens, mon clan est vrai donc découvre Ma carence Nes-O et Daddy C Tu sais que le son n'est pas bad ici MC Faut qu'on sorte tous de là ou on est Même s'il faut faire bouger la femme et l'escorte à la rescousse Laissant derrière nous que le mauvais souvenir d'un passé Dans la merde tu es Mais j'y resterai pas De voir mes reufs tous Dans ce monde de requin, tous vouloir faire briller les billets De façon immonde comme dans Dans mon clan on est tous issu Fais le Mais sache que dans la mêlée, y'a que des loups à l'appel Donc j'appelle à la loi de la jungle Face à ta femme et ton clan savoir rester humble Le mec qui devant toi fera Mais qu'est-ce tu veux que je te dise reuf, flingue-le Le sens du clan se transmet de père en fils Le respect, l'éducation de nos jours s'perd en vice On s'plie en dix pour pas que nos enfants subissent</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Laisse le bizness aux gars qui rappent mieux que toi Je représente mon crew La Cliqua Je représente ce que la jeunesse d'aujourd'hui veut entendre Un produit qu'on ne peut corrompre et que rien ne peut fendre La Cliqua des incorruptibles, de vrais pros, rien que la vérité Rien que la vérité Rocca Yeah ! Laisse le bizness aux gars qui rappent mieux que toi Raphaël J'ai la voix, le talent, les mots qu'il te faut pour parler de tout ça Rocca Raphael La vie dure, ses combats, les phrases chocs, je suis trop crédible et tu le vois Yeah ! Rocca, Raphaël, Dad au micro débarquent flow Rien que la vérité Rocca You might also likeJe parle de ce qui m'entoure Le ciel gris, les tours, les joies, les peines, l'amour, le stress de tous les jours Pour les jeunes, c'est l'instant présent qui compte, l'avenir est flou Raphaël J'ai traversé les tunnels les plus sombres, j'irai jusqu'au bout, quoi ? Daddy Lord C D'une manière ou d'une autre, n'essaies pas de me la faire à l'envers J'ai d'autres méthodes pour te calmer que de te faire mal en vers Vivre pénard et être au vert, obligé d'avoir l'esprit ouvert Pour réussir y a des limites, j'suis quand même pas prêt à tout faire Quitte à faire le sale boulot, je préfère de loin celui a qu'il d'affaires Affamé, reste d-spee comme un Ducati moteur compressé Je reste net, je donne pas mon boule, j'y mets un point d'honneur, compris, c'est Ma cause, mon optique, ma raison, ma manière de voir qui me pousse Autrui à rien devoir, rançon à remplir mon devoir Textes d'acier, mental d'enfer, au cas khouya faut pas t'en faire J'investis jamais ma clique dans des bizness nulle part ailleurs Ce coté incorruptible, tu le retrouves nulle part ailleurs Je représente ce que la jeunesse d'aujourd'hui veut entendre Un produit qu'on ne peut corrompre et que rien ne peut fendre La Cliqua des incorruptibles, de vrais pros, rien que la vérité Rien que la vérité Si je rappe c'est parce que j'aime ça Kicker au mic, tu crois que j'avais le choix ? Yeah j'suis né pour ça Crois pas que je sais rien faire d'autre de mes 10 doigts Mais c'est la vie qui l'a voulue ainsi, c'était écrit Je suis un MC fort, un battant qui vivra pour ce qu'il dit C'est ma liberté, ma façon d'exorciser Mes mots de représenter comme il faut ceux qui vont te parler T'as peur de quoi ? Dis Que je fasse une émeute dans toutes les cités, c'est ça qui dérange les képis LÉtat je suis leur pire ennemi, je représente mon pays Pourquoi ? Parce que celui-ci ne veut pas de moi Les contrôles abusifs des flics me font bien comprendre mes droits Extradition, expulsion, on avait déjà le chômage, l'exclusion Tu veux pas savoir ce qui vient de rager mes raisons Mais je vendrais pas mon âme, ni fausserait mon message pour être plus accessible mira Je suis un incorruptible Je représente ce que la jeunesse d'aujourd'hui veut entendre Un produit qu'on ne peut corrompre et que rien ne peut fendre La Cliqua des incorruptibles, de vrais pros, rien que la vérité Rien que la vérité Je représente la jeunesse, les jours gris, la peur d'un lendemain sans boulot Yo Maman ! T'inquiète pas, j'ai ce qu'il faut, je mérite ce qu'il y a de plus beau Le mic, ma liberté d'expression, ma fonction Parler de vérité, sous forme d'amour, de haine, toutes sortes d'émotions Pose pas de questions, m'impose aucune condition J'ai mes convictions, le pognon ne dévie jamais ma direction Plein Sud, garçon d'une vraie aptitude dur absolue C'est juste le prélude d'une nouvelle ère, du rap pur Le mic ma légitime défense, un crime, pour certain l'hymne Pour les jeunes mes rimes assassinent, je ne serai jamais une victime Fier de moi, sûr de moi, concret dans tous mes projets J'ai intérêt d'y croire l'état vas t'mont tant sans pitié En aucun cas je ne serai une putain de cible En tant que vrai gars, Raphaël est incorruptible Scratchs Le hip hop, toi moi, ma cause, je représent</t>
+          <t>Laisse le bizness aux gars qui rappent mieux que toi Je représente mon crew La Cliqua Je représente ce que la jeunesse d'aujourd'hui veut entendre Un produit qu'on ne peut corrompre et que rien ne peut fendre La Cliqua des incorruptibles, de vrais pros, rien que la vérité Rien que la vérité Rocca Yeah ! Laisse le bizness aux gars qui rappent mieux que toi Raphaël J'ai la voix, le talent, les mots qu'il te faut pour parler de tout ça Rocca Raphael La vie dure, ses combats, les phrases chocs, je suis trop crédible et tu le vois Yeah ! Rocca, Raphaël, Dad au micro débarquent flow Rien que la vérité Rocca Je parle de ce qui m'entoure Le ciel gris, les tours, les joies, les peines, l'amour, le stress de tous les jours Pour les jeunes, c'est l'instant présent qui compte, l'avenir est flou Raphaël J'ai traversé les tunnels les plus sombres, j'irai jusqu'au bout, quoi ? Daddy Lord C D'une manière ou d'une autre, n'essaies pas de me la faire à l'envers J'ai d'autres méthodes pour te calmer que de te faire mal en vers Vivre pénard et être au vert, obligé d'avoir l'esprit ouvert Pour réussir y a des limites, j'suis quand même pas prêt à tout faire Quitte à faire le sale boulot, je préfère de loin celui a qu'il d'affaires Affamé, reste d-spee comme un Ducati moteur compressé Je reste net, je donne pas mon boule, j'y mets un point d'honneur, compris, c'est Ma cause, mon optique, ma raison, ma manière de voir qui me pousse Autrui à rien devoir, rançon à remplir mon devoir Textes d'acier, mental d'enfer, au cas khouya faut pas t'en faire J'investis jamais ma clique dans des bizness nulle part ailleurs Ce coté incorruptible, tu le retrouves nulle part ailleurs Je représente ce que la jeunesse d'aujourd'hui veut entendre Un produit qu'on ne peut corrompre et que rien ne peut fendre La Cliqua des incorruptibles, de vrais pros, rien que la vérité Rien que la vérité Si je rappe c'est parce que j'aime ça Kicker au mic, tu crois que j'avais le choix ? Yeah j'suis né pour ça Crois pas que je sais rien faire d'autre de mes 10 doigts Mais c'est la vie qui l'a voulue ainsi, c'était écrit Je suis un MC fort, un battant qui vivra pour ce qu'il dit C'est ma liberté, ma façon d'exorciser Mes mots de représenter comme il faut ceux qui vont te parler T'as peur de quoi ? Dis Que je fasse une émeute dans toutes les cités, c'est ça qui dérange les képis LÉtat je suis leur pire ennemi, je représente mon pays Pourquoi ? Parce que celui-ci ne veut pas de moi Les contrôles abusifs des flics me font bien comprendre mes droits Extradition, expulsion, on avait déjà le chômage, l'exclusion Tu veux pas savoir ce qui vient de rager mes raisons Mais je vendrais pas mon âme, ni fausserait mon message pour être plus accessible mira Je suis un incorruptible Je représente ce que la jeunesse d'aujourd'hui veut entendre Un produit qu'on ne peut corrompre et que rien ne peut fendre La Cliqua des incorruptibles, de vrais pros, rien que la vérité Rien que la vérité Je représente la jeunesse, les jours gris, la peur d'un lendemain sans boulot Yo Maman ! T'inquiète pas, j'ai ce qu'il faut, je mérite ce qu'il y a de plus beau Le mic, ma liberté d'expression, ma fonction Parler de vérité, sous forme d'amour, de haine, toutes sortes d'émotions Pose pas de questions, m'impose aucune condition J'ai mes convictions, le pognon ne dévie jamais ma direction Plein Sud, garçon d'une vraie aptitude dur absolue C'est juste le prélude d'une nouvelle ère, du rap pur Le mic ma légitime défense, un crime, pour certain l'hymne Pour les jeunes mes rimes assassinent, je ne serai jamais une victime Fier de moi, sûr de moi, concret dans tous mes projets J'ai intérêt d'y croire l'état vas t'mont tant sans pitié En aucun cas je ne serai une putain de cible En tant que vrai gars, Raphaël est incorruptible Scratchs Le hip hop, toi moi, ma cause, je représent</t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Daddy Lord C remet de lordre ici Daddy Lord C remet de lordre ici Daddy Lord C remet de lordre ici Daddy Lord C remet de lordre ici Ma vinylique gangsta propa-propagande Revendique son immondice sinon te vise, met à lamende Infime ami intime, qui leçons qui le prétende Mange dans ton frigo, boit ton Pop, fume toute ta weed Te dit jamais merci, cest à te pousser au suicide Acide, enfin, sil te sourit, dans ton dos rit de Il te nargue, dès quil drague ta femme te blague, quil bavarde Le biggy Daddy tridigi dit de prendre garde Ca barde, chaque cochon a son Mardi Gras Etape, quaujourdhui soit le tien, tes dans de beaux draps Les chats-chats gogols, gagascaille-ras reloues Appelle-les comme tu veux, je dirais seulement jaloux Ne sintéressent quau sexe, mêlent la fesse au business Je suis vexe et mon réflexe nest pas complexe Ma politique, celle dun type type schizophrénique Cynique, trisomique envers tous les hypocrites, les Les jaloux, jaloux, jaloux, jaloux Les jaloux, jaloux, jaloux, jaloux Daddy Lord C remet de lordre ici Daddy Lord C remet de lordre ici Daddy Lord C remet de lordre ici Daddy Lord C remet de lordre ici Quand je dis hula hoop, il répond sopa, sopa Mauvais conseiller dans mes affaires, il me croit dupe Inutile dans le groupe, arriviste de la troupe, mencroûte Ces troupes déroutent tout ce quelles envoûtent Pas besoin dexpertise aux dégâts quil réalise Conduisent, concrétisent mon analyse vers la bêtise Convoitise, envie et jalousie, envie du voisin Avis aux amateurs désireux dêtre les prochains Daddy Lord C le seul, lunique, le vrai Dun geste détruit la récupération funeste Fêtée à mon insu sur mon deal, sur mes restes Le prétexte, le contexte où je situe mon texte Mènent, malmènent le do-lo-lomaine qui atteste Bon nombre damis me tournent, retournent leurs vestes A ces têtes de chiens pas de quartier, pas de politesse il pour il, dent pour dent, théorème dil y a longtemps Mon temps je le reprends et avec je te paye comptant Jaime mieux être un gagnant quêtre un perdant, ça me rendrait dingo Quand je joue au loto cest pour gagner le gros lot, le bingo Toi-même tu dis pas non aux diamants et aux trois lingots Ta femme quest-ce quelle choisit ? Le que-to ou le roro ? Les khos saisis, comprends limpro du négro super héros Qui se dresse contre Amasser le gros pactole, relever les audimats Oublier le protocole de flambe, de frime, est-ce un crime ? Si le millésime, la cime de mes rimes Musent, riment plus avec mon franc que centimes Si tu naimes pas mon dialecte, quand même, respecte Jinspecte, ceux qui se la pètent, mont direct Vecteur sectaire, balaie, guette le secteur Infâme, toi qui te pâmes de mon programme Jentame, dame, mon bestial te crame Daddy Lord C remet de lordre ici Daddy Lord C remet de lordre ici Daddy Lord C remet de lordre ici Daddy Lord C remet de lordre iciYou might also like</t>
+          <t>Daddy Lord C remet de lordre ici Daddy Lord C remet de lordre ici Daddy Lord C remet de lordre ici Daddy Lord C remet de lordre ici Ma vinylique gangsta propa-propagande Revendique son immondice sinon te vise, met à lamende Infime ami intime, qui leçons qui le prétende Mange dans ton frigo, boit ton Pop, fume toute ta weed Te dit jamais merci, cest à te pousser au suicide Acide, enfin, sil te sourit, dans ton dos rit de Il te nargue, dès quil drague ta femme te blague, quil bavarde Le biggy Daddy tridigi dit de prendre garde Ca barde, chaque cochon a son Mardi Gras Etape, quaujourdhui soit le tien, tes dans de beaux draps Les chats-chats gogols, gagascaille-ras reloues Appelle-les comme tu veux, je dirais seulement jaloux Ne sintéressent quau sexe, mêlent la fesse au business Je suis vexe et mon réflexe nest pas complexe Ma politique, celle dun type type schizophrénique Cynique, trisomique envers tous les hypocrites, les Les jaloux, jaloux, jaloux, jaloux Les jaloux, jaloux, jaloux, jaloux Daddy Lord C remet de lordre ici Daddy Lord C remet de lordre ici Daddy Lord C remet de lordre ici Daddy Lord C remet de lordre ici Quand je dis hula hoop, il répond sopa, sopa Mauvais conseiller dans mes affaires, il me croit dupe Inutile dans le groupe, arriviste de la troupe, mencroûte Ces troupes déroutent tout ce quelles envoûtent Pas besoin dexpertise aux dégâts quil réalise Conduisent, concrétisent mon analyse vers la bêtise Convoitise, envie et jalousie, envie du voisin Avis aux amateurs désireux dêtre les prochains Daddy Lord C le seul, lunique, le vrai Dun geste détruit la récupération funeste Fêtée à mon insu sur mon deal, sur mes restes Le prétexte, le contexte où je situe mon texte Mènent, malmènent le do-lo-lomaine qui atteste Bon nombre damis me tournent, retournent leurs vestes A ces têtes de chiens pas de quartier, pas de politesse il pour il, dent pour dent, théorème dil y a longtemps Mon temps je le reprends et avec je te paye comptant Jaime mieux être un gagnant quêtre un perdant, ça me rendrait dingo Quand je joue au loto cest pour gagner le gros lot, le bingo Toi-même tu dis pas non aux diamants et aux trois lingots Ta femme quest-ce quelle choisit ? Le que-to ou le roro ? Les khos saisis, comprends limpro du négro super héros Qui se dresse contre Amasser le gros pactole, relever les audimats Oublier le protocole de flambe, de frime, est-ce un crime ? Si le millésime, la cime de mes rimes Musent, riment plus avec mon franc que centimes Si tu naimes pas mon dialecte, quand même, respecte Jinspecte, ceux qui se la pètent, mont direct Vecteur sectaire, balaie, guette le secteur Infâme, toi qui te pâmes de mon programme Jentame, dame, mon bestial te crame Daddy Lord C remet de lordre ici Daddy Lord C remet de lordre ici Daddy Lord C remet de lordre ici Daddy Lord C remet de lordre ici</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>L'underground s'exprime ! C'est un freestyle fanatique comme un film avec un tas de pubs ! ... ... ...You might also like</t>
+          <t>L'underground s'exprime ! C'est un freestyle fanatique comme un film avec un tas de pubs ! ... ... ...</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Yeah, yeah Ne joue pas avec le feu, sinon tu risques de te brûler La douleur équivaut quand Daddy Lord se met à hurler N'essaie pas de contrôler ce qui te dépasse à Gap Mon vocab te balade semblable à du tennis de table Sur le beat, sur le beat, yeah, sur le fonky beat, yeah Chaud devant de dent de mèche pour mttre fin à ton sketch? A l'aise, appréci mon cul sur un bon siège Un jour, vient faire un tour dans le 18ème sur la ligne 13 Il y'a pas plus teigneux qu'un bon mangeur de frite merguez Daddy Lord C, La Clique Ere sans paradis, sans enfer, ohh Ma pauvre vie s'étouffe telle dans un tombeau Cessez le feu, c'est un jeu qui peut blesser, ahh Ahh Rocca se réveille d'un coma Le micro est mon allumette, moi je suis la poudre L'explosif nocif peut éclater comme la foudre Les tambours sonnent, s'actionne la mise à mort des cons La Squadra de La Cliqua en cas de pépin répond Pour qui le feu enquille mon flow comme l'eau éteint les plus nerveux Eloignez moi des flammes et fait partir un coup de feu You might also like Le feu te brûle, alors tu hurles, avale la pilule Quand tu ris avec moi c'est parce que tu ne fais pas le poids Le mien est variable, basta, mais pour les meufs je reste acceptable Je deviens bracable, je le deviens quand je suis touché là Toi ça te fait rien, tant que tu ne te brûles pas les mains Tiens, prends-toi ça pour te refroidir au lieu de me maudire Pire, si tu as le sang chaud, éloigne toi de mon personnage Je suis en nage, je prends des risques et devant toi je voyage Tu mailles où que tu ailles, tu dis que je vie les orteils en éventail Tu me fais de la publicité mensongère Pourtant tu te dis mon frère? Trop fier, trop clair Trop jaloux, tu t'fais aussi les passes de ta pouf T'as les cheveux d'un fou, ta jalousie t'a rendu fou Double de dingo Ne joue pas Joue pas avec le feu, ne joue pas Ne joue pas Joue pas avec le feu, ne joue pas Ne joue pas Joue pas avec le feu, ne joue pas Ne joue pas Joue pas avec le feu, ne joue pas Ne joue pas Joue pas avec le feu, ne joue pas Ne joue pas Joue pas avec le feu, ne joue pas Ne joue pas Joue pas avec le feu, ne joue pas Ne joue pas Joue pas avec le feu, ne joue pas Pour le roi, le bus est là, non, non, non, ne joue pas, je ne suis pas le roi Mais tous ceux qui me prennent la tête, j'les remet à leur place Je n'aime pas tous ceux qui nous sous estiment, Bruno des Petits Gars Dans le rap, la taille ou l'âge n'a pas de place, alors kiff ça Rap, ah, je m'en passe sans prendre la position Dépassant tous ces bouffons qui me prennent pour un PA Un bouzin Rubest, ah, de mon pote Eli Mes coéquipiers me donnent la force pour rapper aujourd'hui Je suis encore une fois plus fort que toi Ne joue pas, ne joue pas, le petit boss fait la loi Yeah, yeah, represent, represent, uh, uh Au pays, des bandits comme dans tous les pays Je m'amuse, tu pleures, ils en rient Il y a des caille-ra et des reur-ti, ici Paris Craque une allumette et matte la tête que tu tires Tu joues les durs, mais moi je sais que tu transpires Encore pire, ça empire et tu cries au secours Comme une poule, quand un renard est dans la basse-cour Cours encore et tu vas finir par tomber En dehors du décor quand le corps à corps est imposé Abusé, qui t'as cru baiser? On t'avait prévenu Les grands de ton quartier t'avaient dit de ne pas jouer les tordus T'as perdu, t'as joué avec le feu, ta fin c'est de finir fumé Ecrasé comme un mégot dans un cendrier Si tu ne connaissais pas les règles du jeu Alors pourquoi t'as joué avec le feu mon vieux? Ne joue pas Joue pas avec le feu, ne joue pas Ne joue pas Joue pas avec le feu, ne joue pas Ne joue pas Joue pas avec le feu, ne joue pas Ne joue pas Joue pas avec le feu, ne joue pas Ne joue pas Joue pas avec le feu, ne joue pas Ne joue pas Joue pas avec le feu, ne joue pas Ne joue pas Joue pas avec le feu, ne joue pas Ne joue pas Joue pas avec le feu, ne joue pas Je prends la parole sur le mic sans que l'on m'invite Lady Laistee, la girly au micky dénonce trop de tasse-pé Femme sans s'arrêter, j'ai calmé le feu de la femelle sans respect, hah A l'aide des mots je malmène, la vile femelle qui se traîne Salis mon image, celle des filles de mon âge L'alchimie véner de la meuf qui causait foncky Je rends folle la tasse-pé, kill des keufs qui se raffolent Celle qui pour la notoriété, est prête à se donner Fait pas la belle t'es vilaine, moi j'encaisse pas ta dégaîne Simple sur le beat, pour les girly je rapplique Et t'explique, ne joue pas avec le feu Je butte les Zippo, crypto micro, Osez exploser Dynamite les pseudo MC's à l'eau de rose Comme mes po-zi, on les arrose à la racine carrée Mes rimes les rendent tarés, les sons de ma voix les noient comme une marée Fini les sentiments de concurrence, maintenant le français danse Ne compte pas t'en tirer sans en subir les conséquences La peau percée sur mes phrases on a laissé L'état semble sous le prix de mon silence n'a pas de coût Car il est d'ores et déjà hors de portée Sors de mon esprit, frère pour te contrer Laissez-moi rapper du haut des sommets Ecouter mon écho se répercuter jusque dans les vallées Même si je tombe dans une falaise Mes cordes vocales m'attacheront à l'aise au MC's à la Vèze Ho, go c'est pas du karaoké Tous les po-zi dans la party sont ok Represent pour '95, écoute, écoute Donne ta bourse ou je te course, dit la caille Passe-moi ton pascal ou je t'entaille Faut le fly-fly guy qui t'entaille comme une caille T'attaque au dico comme on t'attaque au couteau Moi je vois celui qui trime qui ne connait pas la Zim Dis moi ça sert à quoi de prendre un coup de couteau? Comme une poussée d'urticaire qui jaillit sous ta peau T'as pas de pot, j'vais te coller sur le beat si tu kiffes la techno Comme les zombies qui s'agitent la Gogo, voici le Voodoo Le Googoo met des coups de Haïti Tiens ton couteau comme un Voodoo, tu casses les cous Si tu joues les casses cous, go, tu joues avec le feu Yeah, yeah, yeah, yeah, check, check Ne joue pas avec le feu, tout feu, tout flamme à Paname Ne joue pas les bufs avec le feu, tout feu, tout flamme à Paname Bobo Rasta donne le mic, dédicasse a tous les po-zi qui font tchatcher Bobo, Rosin, Afrodi, tous les sons Ecoute , alaise qui checkent le mic Je le tiens dans le , écoute Allez, bouge , represent Et puis tous les MC's, écoute , on revient Check, check, check, check, check, check</t>
+          <t>Yeah, yeah Ne joue pas avec le feu, sinon tu risques de te brûler La douleur équivaut quand Daddy Lord se met à hurler N'essaie pas de contrôler ce qui te dépasse à Gap Mon vocab te balade semblable à du tennis de table Sur le beat, sur le beat, yeah, sur le fonky beat, yeah Chaud devant de dent de mèche pour mttre fin à ton sketch? A l'aise, appréci mon cul sur un bon siège Un jour, vient faire un tour dans le 18ème sur la ligne 13 Il y'a pas plus teigneux qu'un bon mangeur de frite merguez Daddy Lord C, La Clique Ere sans paradis, sans enfer, ohh Ma pauvre vie s'étouffe telle dans un tombeau Cessez le feu, c'est un jeu qui peut blesser, ahh Ahh Rocca se réveille d'un coma Le micro est mon allumette, moi je suis la poudre L'explosif nocif peut éclater comme la foudre Les tambours sonnent, s'actionne la mise à mort des cons La Squadra de La Cliqua en cas de pépin répond Pour qui le feu enquille mon flow comme l'eau éteint les plus nerveux Eloignez moi des flammes et fait partir un coup de feu Le feu te brûle, alors tu hurles, avale la pilule Quand tu ris avec moi c'est parce que tu ne fais pas le poids Le mien est variable, basta, mais pour les meufs je reste acceptable Je deviens bracable, je le deviens quand je suis touché là Toi ça te fait rien, tant que tu ne te brûles pas les mains Tiens, prends-toi ça pour te refroidir au lieu de me maudire Pire, si tu as le sang chaud, éloigne toi de mon personnage Je suis en nage, je prends des risques et devant toi je voyage Tu mailles où que tu ailles, tu dis que je vie les orteils en éventail Tu me fais de la publicité mensongère Pourtant tu te dis mon frère? Trop fier, trop clair Trop jaloux, tu t'fais aussi les passes de ta pouf T'as les cheveux d'un fou, ta jalousie t'a rendu fou Double de dingo Ne joue pas Joue pas avec le feu, ne joue pas Ne joue pas Joue pas avec le feu, ne joue pas Ne joue pas Joue pas avec le feu, ne joue pas Ne joue pas Joue pas avec le feu, ne joue pas Ne joue pas Joue pas avec le feu, ne joue pas Ne joue pas Joue pas avec le feu, ne joue pas Ne joue pas Joue pas avec le feu, ne joue pas Ne joue pas Joue pas avec le feu, ne joue pas Pour le roi, le bus est là, non, non, non, ne joue pas, je ne suis pas le roi Mais tous ceux qui me prennent la tête, j'les remet à leur place Je n'aime pas tous ceux qui nous sous estiment, Bruno des Petits Gars Dans le rap, la taille ou l'âge n'a pas de place, alors kiff ça Rap, ah, je m'en passe sans prendre la position Dépassant tous ces bouffons qui me prennent pour un PA Un bouzin Rubest, ah, de mon pote Eli Mes coéquipiers me donnent la force pour rapper aujourd'hui Je suis encore une fois plus fort que toi Ne joue pas, ne joue pas, le petit boss fait la loi Yeah, yeah, represent, represent, uh, uh Au pays, des bandits comme dans tous les pays Je m'amuse, tu pleures, ils en rient Il y a des caille-ra et des reur-ti, ici Paris Craque une allumette et matte la tête que tu tires Tu joues les durs, mais moi je sais que tu transpires Encore pire, ça empire et tu cries au secours Comme une poule, quand un renard est dans la basse-cour Cours encore et tu vas finir par tomber En dehors du décor quand le corps à corps est imposé Abusé, qui t'as cru baiser? On t'avait prévenu Les grands de ton quartier t'avaient dit de ne pas jouer les tordus T'as perdu, t'as joué avec le feu, ta fin c'est de finir fumé Ecrasé comme un mégot dans un cendrier Si tu ne connaissais pas les règles du jeu Alors pourquoi t'as joué avec le feu mon vieux? Ne joue pas Joue pas avec le feu, ne joue pas Ne joue pas Joue pas avec le feu, ne joue pas Ne joue pas Joue pas avec le feu, ne joue pas Ne joue pas Joue pas avec le feu, ne joue pas Ne joue pas Joue pas avec le feu, ne joue pas Ne joue pas Joue pas avec le feu, ne joue pas Ne joue pas Joue pas avec le feu, ne joue pas Ne joue pas Joue pas avec le feu, ne joue pas Je prends la parole sur le mic sans que l'on m'invite Lady Laistee, la girly au micky dénonce trop de tasse-pé Femme sans s'arrêter, j'ai calmé le feu de la femelle sans respect, hah A l'aide des mots je malmène, la vile femelle qui se traîne Salis mon image, celle des filles de mon âge L'alchimie véner de la meuf qui causait foncky Je rends folle la tasse-pé, kill des keufs qui se raffolent Celle qui pour la notoriété, est prête à se donner Fait pas la belle t'es vilaine, moi j'encaisse pas ta dégaîne Simple sur le beat, pour les girly je rapplique Et t'explique, ne joue pas avec le feu Je butte les Zippo, crypto micro, Osez exploser Dynamite les pseudo MC's à l'eau de rose Comme mes po-zi, on les arrose à la racine carrée Mes rimes les rendent tarés, les sons de ma voix les noient comme une marée Fini les sentiments de concurrence, maintenant le français danse Ne compte pas t'en tirer sans en subir les conséquences La peau percée sur mes phrases on a laissé L'état semble sous le prix de mon silence n'a pas de coût Car il est d'ores et déjà hors de portée Sors de mon esprit, frère pour te contrer Laissez-moi rapper du haut des sommets Ecouter mon écho se répercuter jusque dans les vallées Même si je tombe dans une falaise Mes cordes vocales m'attacheront à l'aise au MC's à la Vèze Ho, go c'est pas du karaoké Tous les po-zi dans la party sont ok Represent pour '95, écoute, écoute Donne ta bourse ou je te course, dit la caille Passe-moi ton pascal ou je t'entaille Faut le fly-fly guy qui t'entaille comme une caille T'attaque au dico comme on t'attaque au couteau Moi je vois celui qui trime qui ne connait pas la Zim Dis moi ça sert à quoi de prendre un coup de couteau? Comme une poussée d'urticaire qui jaillit sous ta peau T'as pas de pot, j'vais te coller sur le beat si tu kiffes la techno Comme les zombies qui s'agitent la Gogo, voici le Voodoo Le Googoo met des coups de Haïti Tiens ton couteau comme un Voodoo, tu casses les cous Si tu joues les casses cous, go, tu joues avec le feu Yeah, yeah, yeah, yeah, check, check Ne joue pas avec le feu, tout feu, tout flamme à Paname Ne joue pas les bufs avec le feu, tout feu, tout flamme à Paname Bobo Rasta donne le mic, dédicasse a tous les po-zi qui font tchatcher Bobo, Rosin, Afrodi, tous les sons Ecoute , alaise qui checkent le mic Je le tiens dans le , écoute Allez, bouge , represent Et puis tous les MC's, écoute , on revient Check, check, check, check, check, check</t>
         </is>
       </c>
     </row>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Rocca Né pour ça, rapper, R.A.P, ma religion c'est Croire en moi et se battre pour y arriver Du sang-mêlé, un esprit combattif, un guerrier Le messager des temps modernes, des Titan né pour ça, le microphone mon épée Excalibur, ma voix le bélier brisant n'importe quelle armée Raphaël Né pour ça, réveille les âmes même par les nuits d'orage Ma voix le magma venant des volcans les plus sauvages Le commencement du monde se fonde dans Ma rage des éclairs, ça explose de partout comme à la guerre Je suis passé par là, l'audimat reste ébahi Né pour me faire entendre, j'ai le flow qui envahit Daddy Lord C Né pour ça, faire les faires-a, forza qu'adore ça Au mic le yakuza qui te pousse à Réussir, le succès t'étouffe pas Tu bouffes quoi ? Pas de pushkas J'use ma voix, je pousse car du gâteau, je veux une des douze parts Quitte à ce que le concert, ce soir, parte en touze-par Car je compte pas voir mon nom seulement inscrit sur le mur au Poska Né pour ça, se battre pour pas finir dans l'oubli Rester dans la course, tenir tête, relever le défi MC, plus qu'une vocation, une philosophie Un don de la vie, le prolongement de nos anatomies En dépit de ce que les gens sur notre méthode de faire l'argent disent Jamais de bêtise sur la qualité d'la marchandise You might also like Rocca Né pour ça, rapper 24 heures sur 24 en soirée Le corps trempé de sueur, la voix niquée, la foule agitée Forcené, j'écris sans cesse pour aliéner le mal en moi Bouleverse mes courants négatifs Combats mes démons instinctifs Moitié-homme, moitié-bête magicien, je rentre en piste pour poser Tel un alchimiste qu'est enfermé pour créer Raphaël Né pour ça, tirer dessus de bonnes lattes mes yeux doivent pétiller L'âme obscurcie par l'occupation du moment Loin du stress, mon esprit décompresse Sous hasch Buddha est à l'aise comme dans une Benz Je fume pour m'élever, ma voix se faufile sur le vinyle Me laisse glisser par l'atmosphère ainsi je peaufine mon style Daddy Lord C Né pour ça, pour ceux que je donne ça à 100 au service du pur son Des purs gars, des pures gos, joues pas un mauvais tour gars T'auras besoin d'Urgo Mec m'en veux pas si mon flow me sert d'appât Malgré le succès, j'ai qu'un seul gosse qui m'appelle Papa Rocca Raphaël Né pour ça, gagner, sortir du béton, faire du blé Représenter, lâcher des productions bootleg Mon crew des vrais gars, un gang, mi familia Ma destinée para la vida J'y crois comme personne, sacrifie ma vie Le micro, j'ai choisi Juré fidélité et foi Honneur, respect es cosa nostra Raphaël Né pour ça, donner de la valeur À tout ce que je touche mon ardeur Hypnotiser le peuple, l'emmener dans un véritable bonheur Une sorte de lueur pour contrôler les humeurs C'est révélateur, mon flow rallie les jeunes de toutes les couleurs J'ai besoin d'oxygène, de son, de basse dans les baffles Mon rap est un besoin intense au même titre que la faim ou la soif Daddy Lord C Né pour ça, tu me diras, qu'est-ce que je sais faire à part ça Fringuer, ça fait peur ça, boxer, ça fait peur ça Voler, c'est pire, ça ! Ce qu'on veut, moi, mes compères, c'est Percer, remplir Bercy avec ma soul ton âme la bercer T'inquiète, je serai pas amer si tu t'amuses et dis pas merci Car à voir ça, c'qu'on a bouge la foule comme au foot, le Barça Né pour ça, se battre pour pas finir dans l'oubli Rester dans la course, tenir tête, relever le défi MC, plus qu'une vocation, une philosophie Un don de la vie, le prolongement de nos anatomies En dépit de ce que les gens sur notre méthode de faire l'argent disent Jamais de bêtise sur la qualité d'la marchandise</t>
+          <t>Rocca Né pour ça, rapper, R.A.P, ma religion c'est Croire en moi et se battre pour y arriver Du sang-mêlé, un esprit combattif, un guerrier Le messager des temps modernes, des Titan né pour ça, le microphone mon épée Excalibur, ma voix le bélier brisant n'importe quelle armée Raphaël Né pour ça, réveille les âmes même par les nuits d'orage Ma voix le magma venant des volcans les plus sauvages Le commencement du monde se fonde dans Ma rage des éclairs, ça explose de partout comme à la guerre Je suis passé par là, l'audimat reste ébahi Né pour me faire entendre, j'ai le flow qui envahit Daddy Lord C Né pour ça, faire les faires-a, forza qu'adore ça Au mic le yakuza qui te pousse à Réussir, le succès t'étouffe pas Tu bouffes quoi ? Pas de pushkas J'use ma voix, je pousse car du gâteau, je veux une des douze parts Quitte à ce que le concert, ce soir, parte en touze-par Car je compte pas voir mon nom seulement inscrit sur le mur au Poska Né pour ça, se battre pour pas finir dans l'oubli Rester dans la course, tenir tête, relever le défi MC, plus qu'une vocation, une philosophie Un don de la vie, le prolongement de nos anatomies En dépit de ce que les gens sur notre méthode de faire l'argent disent Jamais de bêtise sur la qualité d'la marchandise Rocca Né pour ça, rapper 24 heures sur 24 en soirée Le corps trempé de sueur, la voix niquée, la foule agitée Forcené, j'écris sans cesse pour aliéner le mal en moi Bouleverse mes courants négatifs Combats mes démons instinctifs Moitié-homme, moitié-bête magicien, je rentre en piste pour poser Tel un alchimiste qu'est enfermé pour créer Raphaël Né pour ça, tirer dessus de bonnes lattes mes yeux doivent pétiller L'âme obscurcie par l'occupation du moment Loin du stress, mon esprit décompresse Sous hasch Buddha est à l'aise comme dans une Benz Je fume pour m'élever, ma voix se faufile sur le vinyle Me laisse glisser par l'atmosphère ainsi je peaufine mon style Daddy Lord C Né pour ça, pour ceux que je donne ça à 100 au service du pur son Des purs gars, des pures gos, joues pas un mauvais tour gars T'auras besoin d'Urgo Mec m'en veux pas si mon flow me sert d'appât Malgré le succès, j'ai qu'un seul gosse qui m'appelle Papa Rocca Raphaël Né pour ça, gagner, sortir du béton, faire du blé Représenter, lâcher des productions bootleg Mon crew des vrais gars, un gang, mi familia Ma destinée para la vida J'y crois comme personne, sacrifie ma vie Le micro, j'ai choisi Juré fidélité et foi Honneur, respect es cosa nostra Raphaël Né pour ça, donner de la valeur À tout ce que je touche mon ardeur Hypnotiser le peuple, l'emmener dans un véritable bonheur Une sorte de lueur pour contrôler les humeurs C'est révélateur, mon flow rallie les jeunes de toutes les couleurs J'ai besoin d'oxygène, de son, de basse dans les baffles Mon rap est un besoin intense au même titre que la faim ou la soif Daddy Lord C Né pour ça, tu me diras, qu'est-ce que je sais faire à part ça Fringuer, ça fait peur ça, boxer, ça fait peur ça Voler, c'est pire, ça ! Ce qu'on veut, moi, mes compères, c'est Percer, remplir Bercy avec ma soul ton âme la bercer T'inquiète, je serai pas amer si tu t'amuses et dis pas merci Car à voir ça, c'qu'on a bouge la foule comme au foot, le Barça Né pour ça, se battre pour pas finir dans l'oubli Rester dans la course, tenir tête, relever le défi MC, plus qu'une vocation, une philosophie Un don de la vie, le prolongement de nos anatomies En dépit de ce que les gens sur notre méthode de faire l'argent disent Jamais de bêtise sur la qualité d'la marchandise</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Association de MC causant pertes et fracas On se retrouvera, je serai à la prochaine étape Association de MC causant pertes et fracas On se retrouvera, je serai à la prochaine étape Association de MC causant pertes et fracas J'ai pas l'temps d'trainer, de m'faire freiner Dans les sales plans m'laisser entrainer Avant de crever, de bonnes rimes j'viens t'abreuver La rime, mon brevet J'représente pour toi partout ou j'vais J'fais, j'effectue, j'produis, j'nique les faux-culs Hypocrites tordus Fallait qu'ça cesse frangin, que certains l'disent Avant qu'ça s'produise Qu'ils prennent le dessus J'voulais pas douter que tu sois déçu Qu'leur vécu de bagnard inventé Changent nos idéaux Qu'là où on vit soit transformé par des récits d'faux Tu sais d'quoi j'parle, deux ans qu'le hip-hop part en dérive Y'a plus d'morale Le rap n'est plus que meurtre et freestyle You might also like Plans mythos d'histoires bateau Chacun se bataille, se bastaille Un passé d'caille rempli de représailles Trop de félons, gars Révolution, j'créerai comme Malcom X, une troupe d'élite Entrainée de rappeurs déchainés De gardiens, si pour la paix faut que j'prenne les armes Tu seras mon guide, mon bras, mes yeux comme mon crew et ma voix Mon guide, mon bras, mes yeux comme mon crew et ma voix On sait que la où t'es, tu r'gardes nos vies Et puis tu souris comme un gardien Au panthéon du Hip-Hop français East, un nouveau but, un nouveau cap On se retrouvera, je serais à la prochaine étape Chaque étape, j'mouille le maillot Réfléchis, cogite, tourne la mayo Aiguise le crayon pour qu'le pognon tombe Façon de varier tôt sur ma poire ou parier Soit pas contrarié J'lâche les cahiers et ça y est, ça se met à brailler Rap en box pour encourager Tu peux toujours essayer J'bosse pour briller, bien grillé L'biz commence a m'payer Un fils d'enculé, une vraie tête brûlée Qu'rien n'fait reculer Mais vu les dégâts scrupuleux Pour qui joue le Juge doit être moins crapuleux Respect oblige, t'façons j'avoue le Boulot qu'j'ai représenté pour un gars plein de culot Donc on l'dit en duo, studio audio sur bande vidéo Nos idéaux quelque soit l'endroit représente nos gars, Ste-ea Pour toi La Cliqua c'texte te dédie On fera jamais partie de ceux que ton regard aura puni Comme tu disais jadis Ouais comme tu disais jadis Pervers et vicieux aussi Les victimes qui s'en soucie Qui sème le vent récolte la mort Leur destin, ils l'ont choisi East Un nouveau but Un nouveau cap Association de MC causant pertes et fracas On sait que la où t'es, tu r'gardes nos vies Et puis tu souris comme un gardien Au panthéon du Hip-Hop français East, un nouveau but, un nouveau cap On se retrouvera, je serais à la prochaine étape En remontant la pente de la Onze, Ste-ea croise La Cliqua Association de MC causant pertes et fracas L'école du Double H avance 5 keuz pour le programme La lame tranche la carotide, le sang jaillit c'est le drame Meurtre microphonique sur cassette, un scoop inédit Que font les journalistes ? Et Ste-Ea appelle Get Busy Endurci comme Dany Dan, je crame, brûle de mille flammes Mon cur est rouge comme un district lumineux d'Amsterdam Je rame dans la même galère que la plupart de mes pairs Faites vos jeux rien ne va plus- noir - Impair est passe -c'est la guerre Pervers et vicieux aussi, les victimes qui s'en soucient Qui sème le vent récole la mort, leur destin ils l'ont choisi La Double 1 va battre tous les records de l'audirap On se retrouvera, je serais à la prochaine étape La bombe du freestyle français Cut et ses projets secrets La fin décembre sent mauvais pour les suckers tu le savais 95, année de l'autoproduction, en masse East et Cut Killer, La Cliqua Hasta Luego, je trace On sait que la où t'es, tu r'gardes nos vies Et puis tu souris comme un gardien Au panthéon du Hip-Hop français East, un nouveau but, un nouveau cap On sait que la où t'es, tu r'gardes nos vies Et puis tu souris comme un gardien Au panthéon du Hip-Hop français East, un nouveau but, un nouveau cap On se retrouvera, je serais à la prochaine étape On se retrouvera, je serais à la prochaine étape On se retrouvera, je serais à la prochaine étape Association de MC causant pertes et fracas 3</t>
+          <t>Association de MC causant pertes et fracas On se retrouvera, je serai à la prochaine étape Association de MC causant pertes et fracas On se retrouvera, je serai à la prochaine étape Association de MC causant pertes et fracas J'ai pas l'temps d'trainer, de m'faire freiner Dans les sales plans m'laisser entrainer Avant de crever, de bonnes rimes j'viens t'abreuver La rime, mon brevet J'représente pour toi partout ou j'vais J'fais, j'effectue, j'produis, j'nique les faux-culs Hypocrites tordus Fallait qu'ça cesse frangin, que certains l'disent Avant qu'ça s'produise Qu'ils prennent le dessus J'voulais pas douter que tu sois déçu Qu'leur vécu de bagnard inventé Changent nos idéaux Qu'là où on vit soit transformé par des récits d'faux Tu sais d'quoi j'parle, deux ans qu'le hip-hop part en dérive Y'a plus d'morale Le rap n'est plus que meurtre et freestyle Plans mythos d'histoires bateau Chacun se bataille, se bastaille Un passé d'caille rempli de représailles Trop de félons, gars Révolution, j'créerai comme Malcom X, une troupe d'élite Entrainée de rappeurs déchainés De gardiens, si pour la paix faut que j'prenne les armes Tu seras mon guide, mon bras, mes yeux comme mon crew et ma voix Mon guide, mon bras, mes yeux comme mon crew et ma voix On sait que la où t'es, tu r'gardes nos vies Et puis tu souris comme un gardien Au panthéon du Hip-Hop français East, un nouveau but, un nouveau cap On se retrouvera, je serais à la prochaine étape Chaque étape, j'mouille le maillot Réfléchis, cogite, tourne la mayo Aiguise le crayon pour qu'le pognon tombe Façon de varier tôt sur ma poire ou parier Soit pas contrarié J'lâche les cahiers et ça y est, ça se met à brailler Rap en box pour encourager Tu peux toujours essayer J'bosse pour briller, bien grillé L'biz commence a m'payer Un fils d'enculé, une vraie tête brûlée Qu'rien n'fait reculer Mais vu les dégâts scrupuleux Pour qui joue le Juge doit être moins crapuleux Respect oblige, t'façons j'avoue le Boulot qu'j'ai représenté pour un gars plein de culot Donc on l'dit en duo, studio audio sur bande vidéo Nos idéaux quelque soit l'endroit représente nos gars, Ste-ea Pour toi La Cliqua c'texte te dédie On fera jamais partie de ceux que ton regard aura puni Comme tu disais jadis Ouais comme tu disais jadis Pervers et vicieux aussi Les victimes qui s'en soucie Qui sème le vent récolte la mort Leur destin, ils l'ont choisi East Un nouveau but Un nouveau cap Association de MC causant pertes et fracas On sait que la où t'es, tu r'gardes nos vies Et puis tu souris comme un gardien Au panthéon du Hip-Hop français East, un nouveau but, un nouveau cap On se retrouvera, je serais à la prochaine étape En remontant la pente de la Onze, Ste-ea croise La Cliqua Association de MC causant pertes et fracas L'école du Double H avance 5 keuz pour le programme La lame tranche la carotide, le sang jaillit c'est le drame Meurtre microphonique sur cassette, un scoop inédit Que font les journalistes ? Et Ste-Ea appelle Get Busy Endurci comme Dany Dan, je crame, brûle de mille flammes Mon cur est rouge comme un district lumineux d'Amsterdam Je rame dans la même galère que la plupart de mes pairs Faites vos jeux rien ne va plus- noir - Impair est passe -c'est la guerre Pervers et vicieux aussi, les victimes qui s'en soucient Qui sème le vent récole la mort, leur destin ils l'ont choisi La Double 1 va battre tous les records de l'audirap On se retrouvera, je serais à la prochaine étape La bombe du freestyle français Cut et ses projets secrets La fin décembre sent mauvais pour les suckers tu le savais 95, année de l'autoproduction, en masse East et Cut Killer, La Cliqua Hasta Luego, je trace On sait que la où t'es, tu r'gardes nos vies Et puis tu souris comme un gardien Au panthéon du Hip-Hop français East, un nouveau but, un nouveau cap On sait que la où t'es, tu r'gardes nos vies Et puis tu souris comme un gardien Au panthéon du Hip-Hop français East, un nouveau but, un nouveau cap On se retrouvera, je serais à la prochaine étape On se retrouvera, je serais à la prochaine étape On se retrouvera, je serais à la prochaine étape Association de MC causant pertes et fracas 3</t>
         </is>
       </c>
     </row>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Parfois vivre, c'est souffrir... souffrir... Et survivre, ouais survivre... c'est trouver un sens à cette souffrance J'entends mes profs me dire Ta culture, c'est l'hécatombe va lire ! Depuis j'dois bien écrire Lavokato m'valide La délinquance, trop occupé pour m'tourner vers elle Rhey, mes vieilles déceptions sont tes nouveaux rêves C'que j'ai dans l'crâne, tu l'verras pas dans ton IRM Solidaire en taule avec mes reufs, comme Tony Vairelles Nos plus belles chansons parlent des bâtiments Certains anciens sont dans l'héro, mais pas l'département, nan J'me suis vu combattre la rue, et elle perdait j'crois Donc j'l'ai quittée pour pas qu'mon fils réitère l'exploit Beaucoup sont encore en vie, mais ils perdent espoir T'sais, la survie c'est mon domaine, j'sais y faire laisse-moi Leur vie est belle, ils trouvent la nôtre vulgaire Ils sortent de boîte à l'aube, putain j'suis à l'aube d'une guerre Les pacifistes fashions portent des vestes militaires Les descendants d'Gandhi portent des 9 milli', frère Merde, tu crois qu'on s'laisse faire ? Nan nan, reste tranquille J'garde un il ouvert pour qu'ma mère nahess tranquille Jeu d'mots, quand tu nous tiens Dans la rue, des mecs m'accostent Nakkos, continue bien Le peura c'est toute ma iv', pousse-toi Surtout qu'j'arrive comme un dealer d'coke J'crois qu'j'suis gagnant sur toute la ligne Les concerts à Paris s'passent bien Y'a pas d'reustas, viens Voilà l'staff Nakk, Les 10', Nathalie Bastien Leurs ventes chutent, ils ont honte de dire leurs chiffres J'mélange rap et boxe, comme Bors et Daddy Lord C C'est l'chaos, car la Terre vient d'trembler J'voudrais un K-way, ouais j'ai l'caractère bien trempé Ton gamin grandit trop vite, c'est insensé, yo Il regarde les prix des yachts en finissant son Yop J'vais encore éclater la boîte de Nurofen J'crois qu'j'suis perdu, mettez en place le numéro vert Si jamais je m'ennuie, remets-moi ce titre À 14h, toute la France vit à Genoa City On s'humanise par dépit, j'crois Et j'imagine que l'ient-cli n'voit pas la peine des filles d'joie Si j'ai compris, là c'est mon tour de dire c'que j'pense Y'a pas d'médaille quand c'est un concours de circonstances Les p'tites ados, elles bouquinent plus, elles préfèrent Voici Elles ont des kilos en trop, comme les cainfs à Roissy Si si, j'deviens vieux Ils connaissent pas De Gaulle Mais ils répondent tous à l'appel des 18 joints d'beuh Ma sur tu souffres, on va t'ramasser sous quelle forme ? Et ton vieux mec squatte le canapé sous Pelforth Déjouer son destin, crois-moi c'est super fort J'suis devenu quelqu'un, sans marcher sur personne Si tu croises mon côté doux, tu lui diras qu'j'veux l'voir Si être sincère c'est un critère qui rappe mieux qu'moi ? You might also like Qui ? Qui ? Devenir quelqu'un... 'dosa5</t>
+          <t>Parfois vivre, c'est souffrir... souffrir... Et survivre, ouais survivre... c'est trouver un sens à cette souffrance J'entends mes profs me dire Ta culture, c'est l'hécatombe va lire ! Depuis j'dois bien écrire Lavokato m'valide La délinquance, trop occupé pour m'tourner vers elle Rhey, mes vieilles déceptions sont tes nouveaux rêves C'que j'ai dans l'crâne, tu l'verras pas dans ton IRM Solidaire en taule avec mes reufs, comme Tony Vairelles Nos plus belles chansons parlent des bâtiments Certains anciens sont dans l'héro, mais pas l'département, nan J'me suis vu combattre la rue, et elle perdait j'crois Donc j'l'ai quittée pour pas qu'mon fils réitère l'exploit Beaucoup sont encore en vie, mais ils perdent espoir T'sais, la survie c'est mon domaine, j'sais y faire laisse-moi Leur vie est belle, ils trouvent la nôtre vulgaire Ils sortent de boîte à l'aube, putain j'suis à l'aube d'une guerre Les pacifistes fashions portent des vestes militaires Les descendants d'Gandhi portent des 9 milli', frère Merde, tu crois qu'on s'laisse faire ? Nan nan, reste tranquille J'garde un il ouvert pour qu'ma mère nahess tranquille Jeu d'mots, quand tu nous tiens Dans la rue, des mecs m'accostent Nakkos, continue bien Le peura c'est toute ma iv', pousse-toi Surtout qu'j'arrive comme un dealer d'coke J'crois qu'j'suis gagnant sur toute la ligne Les concerts à Paris s'passent bien Y'a pas d'reustas, viens Voilà l'staff Nakk, Les 10', Nathalie Bastien Leurs ventes chutent, ils ont honte de dire leurs chiffres J'mélange rap et boxe, comme Bors et Daddy Lord C C'est l'chaos, car la Terre vient d'trembler J'voudrais un K-way, ouais j'ai l'caractère bien trempé Ton gamin grandit trop vite, c'est insensé, yo Il regarde les prix des yachts en finissant son Yop J'vais encore éclater la boîte de Nurofen J'crois qu'j'suis perdu, mettez en place le numéro vert Si jamais je m'ennuie, remets-moi ce titre À 14h, toute la France vit à Genoa City On s'humanise par dépit, j'crois Et j'imagine que l'ient-cli n'voit pas la peine des filles d'joie Si j'ai compris, là c'est mon tour de dire c'que j'pense Y'a pas d'médaille quand c'est un concours de circonstances Les p'tites ados, elles bouquinent plus, elles préfèrent Voici Elles ont des kilos en trop, comme les cainfs à Roissy Si si, j'deviens vieux Ils connaissent pas De Gaulle Mais ils répondent tous à l'appel des 18 joints d'beuh Ma sur tu souffres, on va t'ramasser sous quelle forme ? Et ton vieux mec squatte le canapé sous Pelforth Déjouer son destin, crois-moi c'est super fort J'suis devenu quelqu'un, sans marcher sur personne Si tu croises mon côté doux, tu lui diras qu'j'veux l'voir Si être sincère c'est un critère qui rappe mieux qu'moi ? Qui ? Qui ? Devenir quelqu'un... 'dosa5</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Yeaaah ! La Cliqua ! Daddy Lord C ! Rocca Raphaël ! La section ! Camouflage ! XXXX J'ai c'qu'il faut pour foutre le boxon L'flow, le vrai son, une clique de champions Une bonne connexion d'plomb De quoi farcir toute la profession d'plans! XXX au sang chaud, le guerrier XXX J'passe devant XXX j'ai le calibre qu'il faut Avant qu'un d'eux dans tous les cas Je sais reconnaître les vrais gars et les faux gars Les gars qui baltringuent et ceux qui restent jusqu'au bout avec toi C'est comme ça, y a plein de faux-culs et ça dans tous les crews Ça fout la merde beaucoup Démasque-les vite avant que le jour J vienne à tomber Avant que me trahisse, je préfère tirer le premier C'est le jugement dernier, l'heure de vérité a sonné Le filet s'est refermé, les judas paniquent, la rue va frapper Prépare tes arrières appelle tes frères, mets-y les barrières La sentence approche comme un présage, trop tard pour faire tes prières Chialer ou regretter, y a pas d'excuses ni d'pardon C'est l'exécution pour haute trahison Pour les bouffons, plumes et goudron Où est passé le sens de l'honneur l'esprit de famille La force de vaincre la rage combattue par la force des liens Je fuck les Donnie Brasco, les traîtres parmi mes pains-co Les infidèles, les complots, ciao XXX You might also like x2 Si le hip-hop est un bateau je fais une mutinerie ! Pends tous les traîtres du haut d'un mât, puis noies les wack MC's ! Eh yeah yo, yeah yo ! Pas d'place pour les traîtres... Eh yeah yo, yeah yo, yeah yo ! Dans mon crew y'a pas d'place pour les traîtres... L'honneur, l'humiliation diffèrent souvent l'goût, la saveur A toi d'faire en sorte qu'ta tour bascule, glisse en ta faveur ! Savoir c'qui s'révère, s'avère favorable pour tes affaires T'es dans l'rouge frère... Tu donnes mes reufs, tu veux qu'j'laisse ça faire ? J'trouve ça fort! Pas d'portable, être plus joignable qu'SFR Poucave, shit, j'suis désolé gamin, graille pas d'ce pain-là Du genre, j'en suis pas là à faire l'pin-la devant la police J'reste poli mais j'compte bien punir pourrir polir ta peau lisse Dans mon quartier la caille, les types comme toi, les salauds salés Incitent à l'illicite, faut pas qu't'insistes, j'crains pour ton salut Si mon nom sali, scellé pour toi, la note seulement salée Plus besoin d'parler, t'en as d'jà trop dit Serré par les schmitts, c'qui va déferler va tacher, souiller ton beau sol carrelé Famille, gent-gent unité, ici c'est l'principe maison Bien qu'malfaisant et loin d'la charité, toutes ces leçons Tu sais l'son, tu connais la zik-mu, si y a trahison Mauviettes haïssons, scarla vrais gars bonhommes rares ils sont Comme le bon son rarissime, tu trouves ça risible Où t'iras t'terrer, l'air atterré, j'irai tirer et t'tuerai Car dans mon crew, y a pas d'place pour les traîtres x2 Si le hip-hop est un bateau je fais une mutinerie ! Pends tous les traîtres du haut d'un mât, puis noies les wack MC's ! Eh yeah yo, yeah yo ! Pas d'place pour les traîtres... Eh yeah yo, yeah yo, yeah yo ! Dans mon crew y'a pas d'place pour les traîtres... Y'a trop d'faux ! Trop d'gars qui s'assument pas ! Qui parlent derrière moi, mais devant baissent la tête, écoute ça ! Trop d'arrivistes ont tenté d'saboter mon taf, un peu partout Là d'où je viens l'authenticité passe avant tout ! Matte les gars de mon crew ! Pure attitude naturelle réelle Le destin nous bluffe, les mentalités artificielles Trop d'baltringues se cachent sous une fausse identité, quoi? Si c'est ça le hip-hop, yo, j'emmerde ça Certains sont plus de dignité ni d'fierté Sont là à s'afficher croyant être bien camouflés parce que bien sapés Croyant être camouflés parce que bien accompagnés tu sais La route est longue garçon et seuls les vrais resteront J'ai des principes, un sens de l'honneur, une parole comme personne Des amis de confiance, les coups fourrés sont des pénitences Pour ta lessive faut du vrai détergent, faut l'admettre Car dans mon crew, y a pas d'place pour les traîtres Si le hip-hop est un bateau je fais une mutinerie Pends tous les traîtres du haut d'un mât, puis noie les wack MC's Yeah yo, yeah yo ! Pas d'place pour les traîtres... Yeah yo, yeah yo, yeah yo ! Dans mon crew y a pas d'place pour les traîtres</t>
+          <t>Yeaaah ! La Cliqua ! Daddy Lord C ! Rocca Raphaël ! La section ! Camouflage ! XXXX J'ai c'qu'il faut pour foutre le boxon L'flow, le vrai son, une clique de champions Une bonne connexion d'plomb De quoi farcir toute la profession d'plans! XXX au sang chaud, le guerrier XXX J'passe devant XXX j'ai le calibre qu'il faut Avant qu'un d'eux dans tous les cas Je sais reconnaître les vrais gars et les faux gars Les gars qui baltringuent et ceux qui restent jusqu'au bout avec toi C'est comme ça, y a plein de faux-culs et ça dans tous les crews Ça fout la merde beaucoup Démasque-les vite avant que le jour J vienne à tomber Avant que me trahisse, je préfère tirer le premier C'est le jugement dernier, l'heure de vérité a sonné Le filet s'est refermé, les judas paniquent, la rue va frapper Prépare tes arrières appelle tes frères, mets-y les barrières La sentence approche comme un présage, trop tard pour faire tes prières Chialer ou regretter, y a pas d'excuses ni d'pardon C'est l'exécution pour haute trahison Pour les bouffons, plumes et goudron Où est passé le sens de l'honneur l'esprit de famille La force de vaincre la rage combattue par la force des liens Je fuck les Donnie Brasco, les traîtres parmi mes pains-co Les infidèles, les complots, ciao XXX x2 Si le hip-hop est un bateau je fais une mutinerie ! Pends tous les traîtres du haut d'un mât, puis noies les wack MC's ! Eh yeah yo, yeah yo ! Pas d'place pour les traîtres... Eh yeah yo, yeah yo, yeah yo ! Dans mon crew y'a pas d'place pour les traîtres... L'honneur, l'humiliation diffèrent souvent l'goût, la saveur A toi d'faire en sorte qu'ta tour bascule, glisse en ta faveur ! Savoir c'qui s'révère, s'avère favorable pour tes affaires T'es dans l'rouge frère... Tu donnes mes reufs, tu veux qu'j'laisse ça faire ? J'trouve ça fort! Pas d'portable, être plus joignable qu'SFR Poucave, shit, j'suis désolé gamin, graille pas d'ce pain-là Du genre, j'en suis pas là à faire l'pin-la devant la police J'reste poli mais j'compte bien punir pourrir polir ta peau lisse Dans mon quartier la caille, les types comme toi, les salauds salés Incitent à l'illicite, faut pas qu't'insistes, j'crains pour ton salut Si mon nom sali, scellé pour toi, la note seulement salée Plus besoin d'parler, t'en as d'jà trop dit Serré par les schmitts, c'qui va déferler va tacher, souiller ton beau sol carrelé Famille, gent-gent unité, ici c'est l'principe maison Bien qu'malfaisant et loin d'la charité, toutes ces leçons Tu sais l'son, tu connais la zik-mu, si y a trahison Mauviettes haïssons, scarla vrais gars bonhommes rares ils sont Comme le bon son rarissime, tu trouves ça risible Où t'iras t'terrer, l'air atterré, j'irai tirer et t'tuerai Car dans mon crew, y a pas d'place pour les traîtres x2 Si le hip-hop est un bateau je fais une mutinerie ! Pends tous les traîtres du haut d'un mât, puis noies les wack MC's ! Eh yeah yo, yeah yo ! Pas d'place pour les traîtres... Eh yeah yo, yeah yo, yeah yo ! Dans mon crew y'a pas d'place pour les traîtres... Y'a trop d'faux ! Trop d'gars qui s'assument pas ! Qui parlent derrière moi, mais devant baissent la tête, écoute ça ! Trop d'arrivistes ont tenté d'saboter mon taf, un peu partout Là d'où je viens l'authenticité passe avant tout ! Matte les gars de mon crew ! Pure attitude naturelle réelle Le destin nous bluffe, les mentalités artificielles Trop d'baltringues se cachent sous une fausse identité, quoi? Si c'est ça le hip-hop, yo, j'emmerde ça Certains sont plus de dignité ni d'fierté Sont là à s'afficher croyant être bien camouflés parce que bien sapés Croyant être camouflés parce que bien accompagnés tu sais La route est longue garçon et seuls les vrais resteront J'ai des principes, un sens de l'honneur, une parole comme personne Des amis de confiance, les coups fourrés sont des pénitences Pour ta lessive faut du vrai détergent, faut l'admettre Car dans mon crew, y a pas d'place pour les traîtres Si le hip-hop est un bateau je fais une mutinerie Pends tous les traîtres du haut d'un mât, puis noie les wack MC's Yeah yo, yeah yo ! Pas d'place pour les traîtres... Yeah yo, yeah yo, yeah yo ! Dans mon crew y a pas d'place pour les traîtres</t>
         </is>
       </c>
     </row>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Je te gave de basse comme MacDonald de matière grasse Enlace ta carcasse Par un flow non moins efficace Place-dé, pousse-toi, car aujourdhui cest mon heure Mon tour, mon jour J Droit au but sans raccourci Dose ceux qui osent critiquer quand je me pose Car je tchatche, cause, la vérité des choses Choses que beaucoup oublient, ça ne fait pas un pli Quand jy entends, écoute, reçois, perçois ce qui se dit Comme tous les hommes jaime le sexy, les beaux clips Le luxe, le champagne, les bonnes bagarres, les grands trips, tu flippes Les pieds sur terre, même si ça nen pas à lair Fier de mon ego, de mes biz illégaux Car ambitieux ne me contente pas de remplir mon frigo Toujours plus haut, me hisse, ma folie des grandeurs Mon âme soeur, en qui jai plus le retour dascenseur Posé flegme à la façon Keyser Soze Creuse un faussé entre moi et le mauvais Retiens ce qui me convient Me convient que les choses biens Toi même tu sais, remets de lordre en plein effet Pas l'temps de jouer Mon crew na pas l'temps de jouer Quand je prends la parole ça nest plus un jeu You might also likeJai pas l'temps de jouer Mon crew na pas l'temps de jouer Quand je prends la parole ça nest plus un jeu Jai pas l'temps de jouer Mon crew na pas l'temps de jouer Quand je prends la parole ça nest plus un jeu A lécole tu réfléchis avant daller au premier rang Cest tout vu Tu connais ton job, plus tard une fois grand Pareil, de nos jours ça rapporte plus, marier sa fille à un truand Pourquoi tes vieux sénervent, semballent, quand je parle ? Quest-ce qui leur prend ? Mon franc parlé Que je lâche comme du petit lait Me censuré ny compte pas, au micro jy suis scellé Accroché, soudé Un vrai bagnard a son boulet Quest-ce qui se complote ? Pourquoi me rejette-t-on la faute ? Les salaires bas, cest le Président qui a lantidote Règle tes comptes, soit, mais frappe à la bonne porte Tfaçons je pars pas tout seul si un jour le Diable memporte Mentraine avec Lui, me côtoie dans mes ennuis Taffole pas, y'a pas le feu, ce sera pas pour aujourdhui Que sera permis à autrui de fuck avec le taf que je produis Busy sur le mic, même si le nombre des vrais se réduit Jaccrois mon crédit, mon originalité te séduit Pas l'temps de jouer Mon crew na pas l'temps de jouer Quand je prends la parole ça nest plus un jeu Pas l'temps de jouer Mon crew na pas l'temps de jouer Quand je prends la parole ça nest plus un jeu Pas l'temps de jouer Mon crew na pas l'temps de jouer Quand je prends la parole ça nest plus un jeu Busy sur le mic, comme un flic et sa matraque Du rap contact, flow posé dosé Par le biais de mon jab du gauche, une prise jack Normal, tu raques quand je récidive, donne sur bonus track Cest de mon devoir de dénoncer, parler de ce qui gêne De ma compétence De mon ressort, de mon domaine Dêtre formel Afin que tout le monde se souvienne Se rappelle, garde des séquelles du négro XL Tas le chant du réel au travers le son mixé dun maxi Pressé comme prendre le premier le taxi Pourquoi à Paris Voudrait-on que mon langage varie ? corruptions, scandales, abus en série Gouvernants pourris Carotte on te nourrit Me pousse à vomir Et tu désires que je fasse un sourire Que je lâche un fou rire Quand à mes yeux se déroule le pire Quand je prends le mic je représente et ne blague pas Ne lâche pas Ne lutilise pas pour être sympa Tout le monde, il est beau, il est gentil Certains le disent mieux que moi Le font mieux que moi Chaque fois pitié quils deviennent des proies Moi je nai pas l'temps de jouer Pas l'temps de jouer Mon crew na pas l'temps de jouer Quand je prends la parole ça nest plus un jeu Pas l'temps de jouer Mon crew na pas l'temps de jouer Quand je prends la parole ça nest plus un jeu Pas l'temps de jouer Mon crew na pas l'temps de jouer Quand je prends la parole ça nest plus un jeu ça nest plus un jeu</t>
+          <t>Je te gave de basse comme MacDonald de matière grasse Enlace ta carcasse Par un flow non moins efficace Place-dé, pousse-toi, car aujourdhui cest mon heure Mon tour, mon jour J Droit au but sans raccourci Dose ceux qui osent critiquer quand je me pose Car je tchatche, cause, la vérité des choses Choses que beaucoup oublient, ça ne fait pas un pli Quand jy entends, écoute, reçois, perçois ce qui se dit Comme tous les hommes jaime le sexy, les beaux clips Le luxe, le champagne, les bonnes bagarres, les grands trips, tu flippes Les pieds sur terre, même si ça nen pas à lair Fier de mon ego, de mes biz illégaux Car ambitieux ne me contente pas de remplir mon frigo Toujours plus haut, me hisse, ma folie des grandeurs Mon âme soeur, en qui jai plus le retour dascenseur Posé flegme à la façon Keyser Soze Creuse un faussé entre moi et le mauvais Retiens ce qui me convient Me convient que les choses biens Toi même tu sais, remets de lordre en plein effet Pas l'temps de jouer Mon crew na pas l'temps de jouer Quand je prends la parole ça nest plus un jeu Jai pas l'temps de jouer Mon crew na pas l'temps de jouer Quand je prends la parole ça nest plus un jeu Jai pas l'temps de jouer Mon crew na pas l'temps de jouer Quand je prends la parole ça nest plus un jeu A lécole tu réfléchis avant daller au premier rang Cest tout vu Tu connais ton job, plus tard une fois grand Pareil, de nos jours ça rapporte plus, marier sa fille à un truand Pourquoi tes vieux sénervent, semballent, quand je parle ? Quest-ce qui leur prend ? Mon franc parlé Que je lâche comme du petit lait Me censuré ny compte pas, au micro jy suis scellé Accroché, soudé Un vrai bagnard a son boulet Quest-ce qui se complote ? Pourquoi me rejette-t-on la faute ? Les salaires bas, cest le Président qui a lantidote Règle tes comptes, soit, mais frappe à la bonne porte Tfaçons je pars pas tout seul si un jour le Diable memporte Mentraine avec Lui, me côtoie dans mes ennuis Taffole pas, y'a pas le feu, ce sera pas pour aujourdhui Que sera permis à autrui de fuck avec le taf que je produis Busy sur le mic, même si le nombre des vrais se réduit Jaccrois mon crédit, mon originalité te séduit Pas l'temps de jouer Mon crew na pas l'temps de jouer Quand je prends la parole ça nest plus un jeu Pas l'temps de jouer Mon crew na pas l'temps de jouer Quand je prends la parole ça nest plus un jeu Pas l'temps de jouer Mon crew na pas l'temps de jouer Quand je prends la parole ça nest plus un jeu Busy sur le mic, comme un flic et sa matraque Du rap contact, flow posé dosé Par le biais de mon jab du gauche, une prise jack Normal, tu raques quand je récidive, donne sur bonus track Cest de mon devoir de dénoncer, parler de ce qui gêne De ma compétence De mon ressort, de mon domaine Dêtre formel Afin que tout le monde se souvienne Se rappelle, garde des séquelles du négro XL Tas le chant du réel au travers le son mixé dun maxi Pressé comme prendre le premier le taxi Pourquoi à Paris Voudrait-on que mon langage varie ? corruptions, scandales, abus en série Gouvernants pourris Carotte on te nourrit Me pousse à vomir Et tu désires que je fasse un sourire Que je lâche un fou rire Quand à mes yeux se déroule le pire Quand je prends le mic je représente et ne blague pas Ne lâche pas Ne lutilise pas pour être sympa Tout le monde, il est beau, il est gentil Certains le disent mieux que moi Le font mieux que moi Chaque fois pitié quils deviennent des proies Moi je nai pas l'temps de jouer Pas l'temps de jouer Mon crew na pas l'temps de jouer Quand je prends la parole ça nest plus un jeu Pas l'temps de jouer Mon crew na pas l'temps de jouer Quand je prends la parole ça nest plus un jeu Pas l'temps de jouer Mon crew na pas l'temps de jouer Quand je prends la parole ça nest plus un jeu ça nest plus un jeu</t>
         </is>
       </c>
     </row>
@@ -1160,7 +1160,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Rap de lover Vigilant toutefois, crois-moi Vigile en tendresse Écoute ça Faut que tu saches bébé, pour pas faire d'bébé Pour pas apprendre de nouvelle pouvant tlaisser bouche bée Pas regretter quand tu cajoles ce type tel un bébé Tu lui donnes des idées hein, quand tu remues ton tarpé Faut pas t'plaindre si son effort de te garder tard paie D'où tu mconnais pour m'faire croire qu't'es sa première poupée Tout ça parce que ta photo il l'a découpée Comme sur le ring, apprends que le premier des coups paie À voir c'qui t'motive, comme ce motif dans mes couplets Dis, t'es une pro dans la méthode de saccoupler Lamour est un jeu, on s'y fie tous car chaque coup plaît Faut pas lui reprocher demain de tavoir doublée En tout d'vigilance j't'ai poussée à redoubler Ça ta pas empêchée cette nuit de te dédoubler hein Quand je suis avec toi moi aussi, hein Tu me serres dans tes bras ouais, ouais Surtout, pour notre amour, fais ça pour moi Protège-toi bébé, protège-toi Quand je suis avec toi moi aussi Tu me serres dans tes bras ouais, ouais Surtout, pour notre amour, fais ça Protège-toi tonton, protège-toi You might also like Ce soir c'qu'on m'propose, j'reconnais qu'c'est tentant C'sera tout autant d'la même alors prends tout ton temps T'as pas l'air bête pourtant, t'as pas la tête à Toto À voir l'rabla comment tu brasses, tu comptes les totaux T'es pas un toutou, la vie chez toi c'est rien ou tout Mais si ça t'tombe dessus, ce sera pire qu'la guerre Tutsis-Hutus Vas-y enfile sans honte ce bonnet à gros pompon T'uses bien une feuille à rouler quand tu fumes le popo 'Scuse-moi, j'veux pas choquer par la rudesse d'mes propos Comment on met c'truc en latex ? Bah, avec les mains tiens Tu ferais mieux d't'appliquer si en vie tu veux qu'ça t'maintient J'cause qu'à preuve de loin d'là moi oh, j'suis pas homo Mais c'que j'dis, dédicace à l'homme dur jusqu'à l'homme mou J'te prends au mot, lave ton esprit comme Paic ou Omo Prévenu au moins, t'avanceras pas les lascars au moins Perdant même en disant au Sida, c'est toi ou moi Quand je suis avec toi moi aussi, hein Tu me serres dans tes bras ouais, ouais Surtout, pour notre amour, fais ça pour moi Protège-toi bébé, protège-toi Quand je suis avec toi moi aussi Tu me serres dans tes bras ouais, ouais Surtout, pour notre amour, fais ça Protège-toi tonton, protège-toi Pour ce j'me donne à fond comme ceux dans l'foot J'ai c'qu'il faut, des mots lourds pas seulement un beat qui fond Ton voisin c'qu'il fout t'occupes, t'occupes, toi fais c'qu'il faut Aux résultats médicaux on verra c'est qui qu'est fou Qui qu'est fou, l'aventurier, la chair tu penses qu'à la fendre Ou celui en cas d'coup dur qui enfile son scaphandre Sing my lady quand t'as pécho la maladie Va pas chialer après en soupirant, bah l'mal est dit Toi demoiselle, après c'qu'il t'a donné de bon, nomme N'appelle pas l'virus par le nom de ton bonhomme Mon rôle au mic quel qu'il soit, éviter l'incident En poussant au raisonnable, au moins l'incitant L'incitant, l'incitant Ouais, ouais Protège-toi bébé Protège-toi tonton Protège-toi aussi gars Quand je suis avec toi moi aussi, hein Tu me serres dans tes bras ouais, ouais Surtout, pour notre amour, fais ça pour moi Protège-toi bébé, protège-toi Quand je suis avec toi moi aussi Tu me serres dans tes bras ouais, ouais Surtout, pour notre amour, fais ça Protège-toi tonton, protège-toi</t>
+          <t>Rap de lover Vigilant toutefois, crois-moi Vigile en tendresse Écoute ça Faut que tu saches bébé, pour pas faire d'bébé Pour pas apprendre de nouvelle pouvant tlaisser bouche bée Pas regretter quand tu cajoles ce type tel un bébé Tu lui donnes des idées hein, quand tu remues ton tarpé Faut pas t'plaindre si son effort de te garder tard paie D'où tu mconnais pour m'faire croire qu't'es sa première poupée Tout ça parce que ta photo il l'a découpée Comme sur le ring, apprends que le premier des coups paie À voir c'qui t'motive, comme ce motif dans mes couplets Dis, t'es une pro dans la méthode de saccoupler Lamour est un jeu, on s'y fie tous car chaque coup plaît Faut pas lui reprocher demain de tavoir doublée En tout d'vigilance j't'ai poussée à redoubler Ça ta pas empêchée cette nuit de te dédoubler hein Quand je suis avec toi moi aussi, hein Tu me serres dans tes bras ouais, ouais Surtout, pour notre amour, fais ça pour moi Protège-toi bébé, protège-toi Quand je suis avec toi moi aussi Tu me serres dans tes bras ouais, ouais Surtout, pour notre amour, fais ça Protège-toi tonton, protège-toi Ce soir c'qu'on m'propose, j'reconnais qu'c'est tentant C'sera tout autant d'la même alors prends tout ton temps T'as pas l'air bête pourtant, t'as pas la tête à Toto À voir l'rabla comment tu brasses, tu comptes les totaux T'es pas un toutou, la vie chez toi c'est rien ou tout Mais si ça t'tombe dessus, ce sera pire qu'la guerre Tutsis-Hutus Vas-y enfile sans honte ce bonnet à gros pompon T'uses bien une feuille à rouler quand tu fumes le popo 'Scuse-moi, j'veux pas choquer par la rudesse d'mes propos Comment on met c'truc en latex ? Bah, avec les mains tiens Tu ferais mieux d't'appliquer si en vie tu veux qu'ça t'maintient J'cause qu'à preuve de loin d'là moi oh, j'suis pas homo Mais c'que j'dis, dédicace à l'homme dur jusqu'à l'homme mou J'te prends au mot, lave ton esprit comme Paic ou Omo Prévenu au moins, t'avanceras pas les lascars au moins Perdant même en disant au Sida, c'est toi ou moi Quand je suis avec toi moi aussi, hein Tu me serres dans tes bras ouais, ouais Surtout, pour notre amour, fais ça pour moi Protège-toi bébé, protège-toi Quand je suis avec toi moi aussi Tu me serres dans tes bras ouais, ouais Surtout, pour notre amour, fais ça Protège-toi tonton, protège-toi Pour ce j'me donne à fond comme ceux dans l'foot J'ai c'qu'il faut, des mots lourds pas seulement un beat qui fond Ton voisin c'qu'il fout t'occupes, t'occupes, toi fais c'qu'il faut Aux résultats médicaux on verra c'est qui qu'est fou Qui qu'est fou, l'aventurier, la chair tu penses qu'à la fendre Ou celui en cas d'coup dur qui enfile son scaphandre Sing my lady quand t'as pécho la maladie Va pas chialer après en soupirant, bah l'mal est dit Toi demoiselle, après c'qu'il t'a donné de bon, nomme N'appelle pas l'virus par le nom de ton bonhomme Mon rôle au mic quel qu'il soit, éviter l'incident En poussant au raisonnable, au moins l'incitant L'incitant, l'incitant Ouais, ouais Protège-toi bébé Protège-toi tonton Protège-toi aussi gars Quand je suis avec toi moi aussi, hein Tu me serres dans tes bras ouais, ouais Surtout, pour notre amour, fais ça pour moi Protège-toi bébé, protège-toi Quand je suis avec toi moi aussi Tu me serres dans tes bras ouais, ouais Surtout, pour notre amour, fais ça Protège-toi tonton, protège-toi</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Quand ton passé te rattrape, méfie-toi d'sa force de frappe Tu tombes dans la trappe gavée d'crabes, phase de rap mou L'esprit ramolli, gens trop polis, des meufs bien roulées T'as changé d'rôle au bras ronronne une montre Rolex Maintenant t'as des ronds, ça roule, ton passé drôle tu laisses Loin derrière, manière à XXX reculer, bêtement basculer Manipuler sans scrupule un d'ces jeux masculins Jouer les vilains alors qu'là tu t'la XXX tranquille hein T'as trouvé l'filon, plus besoin d'filer, faire le filou Pas d'bile, on voit qu'ça s'passe, t'engraisses, prends des kilos L'passé on l'oublie vite, XXX ta cellulite Ça s'complique quand s'pointe le type d'une ancienne élite À qui t'as fait payer XXX dépasser les limites À l'époque épique où Pacino pour toi plus qu'un mythe Donc tu l'imitais, danger, fatalité Eh, tu t'souviens d'moi enculé? XXX v'là qu'tu répliques, attends que j't'explique J'mate qu'tu fais sur toi tu t'chies dessus Comme en face des keufs dans un cul-de-sac, un trou sans issue Rangé, casé, comme sur le beat mon phrasé Regrette le passé, l'époque tu jouais les Keyser Soze Fallait oser, et désormais voudrais t'reposer Mais tes anciens clients sans cesse reviennent pour t'ankyloser Quand ton passé te rattrape ou frappe, tape à ta porte L'ambiance qu'il apporte, tu peux l'éviter que lorsque Que lorsque au moins ce service te rapporte Quand ton passé te rattrape ou frappe, tape à ta porte L'ambiance qu'il apporte, tu peux l'éviter que lorsque Que lorsque au moins ce service te rapporte You might also like Le genre de Suzy, tout son tralala Et tu tombes dans l'coma, habillé, tu t'crois vaguement au sauna Son arrivée, peux pas t'priver d'cette madonna À qui elle se donne, à toi, lui dire bébé tu sais qu't'es bonne ah Vu l'effet qu'on a à la voir, ça t'promet direct nirvana Tu peux pas vanner quand depuis des années j'te vois entamé Damné à damer des dames fanées Jamais j'plaisante, j'blague, quand il s'agit d'femmes et d'monnaie Qu'est-ce tu veux, j'ai cette manie, faudra m'compter parmi Cette armée d'mecs cramés qui pour c'sujet peuvent pas la fermer Des hommes, des tonnes à la conso, pourtant pas d'coma Au lit un combat, comme à Las Vegas le pire des traumas Le premier quereau-ma XXX femelle n'est pas son format Le temps passe, même les plus belles ne peuvent faire face Aux menaces des rides, aux séquelles, quelle crasse D'ailleurs Anna se lasse, ses nombreux excès et flirts l'agacent Désire du durable, changer d'air devient inévitable Son profil lui permet, avec un homme respectable Bref, Anna une fois pour toutes à ces délires, met un verrou Nouvelle adresse, nouveau numéro, un blindé d'blaireau Un peu moins véreux qu'les autres, p't-être un peu plus sérieux On verra vers où elle ira, l'avenir et l'destin nous l'diront Pour l'moment faut assurer on sait jamais Au cas où les fins d'mois difficile, tant pis si c'est un cas au lit Tu vas rigoler, v'là qu'un des gosses sort bariolé Pourtant l'teint du pater, la peau d'la mère couleur riz au lait Rions bien Anna, v'là ton passé qui t'rit au nez Quand ton passé te rattrape ou frappe, tape à ta porte L'ambiance qu'il apporte, tu peux l'éviter que lorsque Que lorsque au moins ce service te rapporte Quand ton passé te rattrape ou frappe, tape à ta porte L'ambiance qu'il apporte, tu peux l'éviter que lorsque Que lorsque au moins ce service te rapporte Quand ton passé te rattrape, méfie-toi de sa force de frappe Suffit derrière ton dos que quelques gars réclament justice Des histoires sans demi-mesure, t'as pas fait preuve de justesse Discret jusqu'à c'que l'jeu s'tasse, les gens s'taisent Mais qu'on s'dise bien, c'est pas en un clin d'il Qu'une bonne réputation s'tisse Penses-tu sérieusement pouvoir gommer certains événements Sous prétexte simplement qu't'étais juste âgé de vingt ans Donc évidemment, pas contrôler une fois d'plus ton tempérament Tant pis, rarement t'en sors pour pas t'faire XXX chiale à torrents Car le passé aime ces restaurants n'affichant jamais complets C'con d'blé on l'veut tous mais maintenant, te v'là comblé</t>
+          <t>Quand ton passé te rattrape, méfie-toi d'sa force de frappe Tu tombes dans la trappe gavée d'crabes, phase de rap mou L'esprit ramolli, gens trop polis, des meufs bien roulées T'as changé d'rôle au bras ronronne une montre Rolex Maintenant t'as des ronds, ça roule, ton passé drôle tu laisses Loin derrière, manière à XXX reculer, bêtement basculer Manipuler sans scrupule un d'ces jeux masculins Jouer les vilains alors qu'là tu t'la XXX tranquille hein T'as trouvé l'filon, plus besoin d'filer, faire le filou Pas d'bile, on voit qu'ça s'passe, t'engraisses, prends des kilos L'passé on l'oublie vite, XXX ta cellulite Ça s'complique quand s'pointe le type d'une ancienne élite À qui t'as fait payer XXX dépasser les limites À l'époque épique où Pacino pour toi plus qu'un mythe Donc tu l'imitais, danger, fatalité Eh, tu t'souviens d'moi enculé? XXX v'là qu'tu répliques, attends que j't'explique J'mate qu'tu fais sur toi tu t'chies dessus Comme en face des keufs dans un cul-de-sac, un trou sans issue Rangé, casé, comme sur le beat mon phrasé Regrette le passé, l'époque tu jouais les Keyser Soze Fallait oser, et désormais voudrais t'reposer Mais tes anciens clients sans cesse reviennent pour t'ankyloser Quand ton passé te rattrape ou frappe, tape à ta porte L'ambiance qu'il apporte, tu peux l'éviter que lorsque Que lorsque au moins ce service te rapporte Quand ton passé te rattrape ou frappe, tape à ta porte L'ambiance qu'il apporte, tu peux l'éviter que lorsque Que lorsque au moins ce service te rapporte Le genre de Suzy, tout son tralala Et tu tombes dans l'coma, habillé, tu t'crois vaguement au sauna Son arrivée, peux pas t'priver d'cette madonna À qui elle se donne, à toi, lui dire bébé tu sais qu't'es bonne ah Vu l'effet qu'on a à la voir, ça t'promet direct nirvana Tu peux pas vanner quand depuis des années j'te vois entamé Damné à damer des dames fanées Jamais j'plaisante, j'blague, quand il s'agit d'femmes et d'monnaie Qu'est-ce tu veux, j'ai cette manie, faudra m'compter parmi Cette armée d'mecs cramés qui pour c'sujet peuvent pas la fermer Des hommes, des tonnes à la conso, pourtant pas d'coma Au lit un combat, comme à Las Vegas le pire des traumas Le premier quereau-ma XXX femelle n'est pas son format Le temps passe, même les plus belles ne peuvent faire face Aux menaces des rides, aux séquelles, quelle crasse D'ailleurs Anna se lasse, ses nombreux excès et flirts l'agacent Désire du durable, changer d'air devient inévitable Son profil lui permet, avec un homme respectable Bref, Anna une fois pour toutes à ces délires, met un verrou Nouvelle adresse, nouveau numéro, un blindé d'blaireau Un peu moins véreux qu'les autres, p't-être un peu plus sérieux On verra vers où elle ira, l'avenir et l'destin nous l'diront Pour l'moment faut assurer on sait jamais Au cas où les fins d'mois difficile, tant pis si c'est un cas au lit Tu vas rigoler, v'là qu'un des gosses sort bariolé Pourtant l'teint du pater, la peau d'la mère couleur riz au lait Rions bien Anna, v'là ton passé qui t'rit au nez Quand ton passé te rattrape ou frappe, tape à ta porte L'ambiance qu'il apporte, tu peux l'éviter que lorsque Que lorsque au moins ce service te rapporte Quand ton passé te rattrape ou frappe, tape à ta porte L'ambiance qu'il apporte, tu peux l'éviter que lorsque Que lorsque au moins ce service te rapporte Quand ton passé te rattrape, méfie-toi de sa force de frappe Suffit derrière ton dos que quelques gars réclament justice Des histoires sans demi-mesure, t'as pas fait preuve de justesse Discret jusqu'à c'que l'jeu s'tasse, les gens s'taisent Mais qu'on s'dise bien, c'est pas en un clin d'il Qu'une bonne réputation s'tisse Penses-tu sérieusement pouvoir gommer certains événements Sous prétexte simplement qu't'étais juste âgé de vingt ans Donc évidemment, pas contrôler une fois d'plus ton tempérament Tant pis, rarement t'en sors pour pas t'faire XXX chiale à torrents Car le passé aime ces restaurants n'affichant jamais complets C'con d'blé on l'veut tous mais maintenant, te v'là comblé</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Avec ma clique C'est toujours le même son depuis qu'nous couvons Tant pis si c'est pour toujours les mêmes que les coups vont Même si c'est plus varié à présent c'que les radios balancent J'vois aucun compromis, coup d'gueule lorsque des balances Est-ce que ça a vraiment basculé du bon côté d'la balance Je me force à chaque fois bonhomme pour que ta bataille Aille bien plus loin qu'un gros mélange de weed de tabac thaÏ Dans les annales du son soit gravé Daddy Lord son logo Et ce, quitte à mettre foutre le zbeul dans ces locaux Passer pour un taré, comme dit Rocca Mucho loco Que l'petit nourri XXX flambée d'alloco Ait d'quoi s'mettre sous la dent et faire avancer la loco Que tu salives devant du rap, le live du XXX Car pour la sélection hip-hop demeure toujours en qualif' Hélas question gent-gent c'est pas encore la bourse d'un calife Passe-moi un mic, un calibre, j'bosse pas avec un caniche Daddy Lord C Yeah you know me Lorsque le rap champion arrive enfin à point nommé Depuis les Jaloux, Conçus pour durer ou le Noble art Ça demeure ça reste pour le même but, le même principe qu'on vit Que tu sois dans l'rock, la techno, je n'sais quoi, je t'y convie Même si ici les gosses préfèrent les guns aux fruits confits Mais dis-toi que XXX comme dit Koffi À chaque fois qu'on m'propose une te-fê, une soirée mée-ca C'est toujours que j'vienne en solo sans la présence de mes gars Si tu crois qu'ça peut m'égarer, XXX personne ne m'égale C'est le retour du Dad On connaît déjà Ok merci t'es til-gen Mais c'est pas ça à mon concert qui t'aidera à rentrer des gens J'rappe pour tous les critères sociaux surtout pour ceux qu'on dit jeunes Qui font l'beurre à Pierre-Luc Séguillon quand on déjeune Actifs, plein d'rebondissements, pas bateau comme un sitcom Comme attention, mon but, mes intentions sont explicites comme Mike Tyson, quitte à m'emporter et t'bouffer l'oreille Que j'perde ma licence et qu'à la fédé, mon blaze on raye J'ai du succès comme les keufs le dealer, attends guette J'prépare mon OPA comme Microsoft XXX Bill Gates You might also like Daddy Lord C Yeah you know me Lorsque le rap champion arrive enfin à point nommé C'est pas l'petit fétu qui va m'freiner Tu fais pas l'poids, t'as pas d'pot c'est XXX Dans l'rap, on s'met à palper, j'sais faire le faux, lyrics de faiblard Un rap de taspé, change pas d'esprit Seulement d'espace et un peu d'aspect Et à c'prix, XXX keuf, teur-inspec J'te respecte, la preuve, t'apprécies, t'as pas besoin d'Aspro Comment est-ce pris? Le rap facile d'la lèche, beaucoup s'laissent prendre Bah j'laisse faire, à voir, tu peux m'croire, parole d'expert Quand j'respire, j'reste pire qu'un XXX le fric ne rince pas Garde espoir, pour cela, prends tout ça pour du sport C'qu'ils disent pas, c'que t'éprouves en face XXX transport C'est une transe pour qu'tu saches qu'on transpire pour qu'le vrai transperce Daddy Lord C Yeah you know me Lorsque le rap champion arrive enfin à point nommé Jai pas ltemps djouer, jveux du concret envoie la monnaie</t>
+          <t>Avec ma clique C'est toujours le même son depuis qu'nous couvons Tant pis si c'est pour toujours les mêmes que les coups vont Même si c'est plus varié à présent c'que les radios balancent J'vois aucun compromis, coup d'gueule lorsque des balances Est-ce que ça a vraiment basculé du bon côté d'la balance Je me force à chaque fois bonhomme pour que ta bataille Aille bien plus loin qu'un gros mélange de weed de tabac thaÏ Dans les annales du son soit gravé Daddy Lord son logo Et ce, quitte à mettre foutre le zbeul dans ces locaux Passer pour un taré, comme dit Rocca Mucho loco Que l'petit nourri XXX flambée d'alloco Ait d'quoi s'mettre sous la dent et faire avancer la loco Que tu salives devant du rap, le live du XXX Car pour la sélection hip-hop demeure toujours en qualif' Hélas question gent-gent c'est pas encore la bourse d'un calife Passe-moi un mic, un calibre, j'bosse pas avec un caniche Daddy Lord C Yeah you know me Lorsque le rap champion arrive enfin à point nommé Depuis les Jaloux, Conçus pour durer ou le Noble art Ça demeure ça reste pour le même but, le même principe qu'on vit Que tu sois dans l'rock, la techno, je n'sais quoi, je t'y convie Même si ici les gosses préfèrent les guns aux fruits confits Mais dis-toi que XXX comme dit Koffi À chaque fois qu'on m'propose une te-fê, une soirée mée-ca C'est toujours que j'vienne en solo sans la présence de mes gars Si tu crois qu'ça peut m'égarer, XXX personne ne m'égale C'est le retour du Dad On connaît déjà Ok merci t'es til-gen Mais c'est pas ça à mon concert qui t'aidera à rentrer des gens J'rappe pour tous les critères sociaux surtout pour ceux qu'on dit jeunes Qui font l'beurre à Pierre-Luc Séguillon quand on déjeune Actifs, plein d'rebondissements, pas bateau comme un sitcom Comme attention, mon but, mes intentions sont explicites comme Mike Tyson, quitte à m'emporter et t'bouffer l'oreille Que j'perde ma licence et qu'à la fédé, mon blaze on raye J'ai du succès comme les keufs le dealer, attends guette J'prépare mon OPA comme Microsoft XXX Bill Gates Daddy Lord C Yeah you know me Lorsque le rap champion arrive enfin à point nommé C'est pas l'petit fétu qui va m'freiner Tu fais pas l'poids, t'as pas d'pot c'est XXX Dans l'rap, on s'met à palper, j'sais faire le faux, lyrics de faiblard Un rap de taspé, change pas d'esprit Seulement d'espace et un peu d'aspect Et à c'prix, XXX keuf, teur-inspec J'te respecte, la preuve, t'apprécies, t'as pas besoin d'Aspro Comment est-ce pris? Le rap facile d'la lèche, beaucoup s'laissent prendre Bah j'laisse faire, à voir, tu peux m'croire, parole d'expert Quand j'respire, j'reste pire qu'un XXX le fric ne rince pas Garde espoir, pour cela, prends tout ça pour du sport C'qu'ils disent pas, c'que t'éprouves en face XXX transport C'est une transe pour qu'tu saches qu'on transpire pour qu'le vrai transperce Daddy Lord C Yeah you know me Lorsque le rap champion arrive enfin à point nommé Jai pas ltemps djouer, jveux du concret envoie la monnaie</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Tache de tenir ta langue Sinon la tienne dégage Mate les dégâts Légende de rap Comment Chief ? ça va Daddy Tranquille, à part ça quest ce quon dit ? Tu sais même pas sur not' dos tout ce quils nont pas dit Tout cquil nont pas du dire Tout cquil nont pas pu jacter devant nous T'as vu ou pas sur l'avenue Pourtant jrime à lexcès, comme chacun le sait Jsuis pas à l'essai, jdois remonter le temps comme Jackie Chan le fait Chaque jour que Dieu fait, des bêtes de couplets Back in a day, Dad faut quon nous paye Nos copies ça play, on revoit ta plaie receleur, soit enfin heureux cest lheure Si t'es ahuri, c'est l'air Tu t'amuse tu ris c'est l'art Nous traite pas de vicelards Hisse la barre bien haut Ceux qu'ont pas dflows quils se barrent C'est le duo de choc qui revient jsais que tattendais ce come-back Rocca, Daddy man phat de nouveau réunis ça fera date Doorag, casquette, baggy, jean, slim, clean Clean, tes yeux hallucinent Vla la dream team Gin, rhum, champagne, donne ce que tas dmieux bonhomme Tu payes cache la somme, on va tfaire cracher la donne Tu connais lhistoire quand y a plus rien despoir Jamais on laisse choir, ça se passe le soir Autour dun joint, dune Heineken Aucune caille me ken, lheure où aucun vide nous canne Y a quune meuf qui nous calme ou le bon sens qui nous came Qui nous dame, qui nous damne Pardon à mes dames de taffer rien quavec mes amygdales Trop de mots Grigny et pense à toi jusquà Pygale Jlève pour toi, toi.le reste ça mest égal You might also like Tache de tenir ta langue Sinon la tienne dégage Mate les dégâts Légende de rap Sache tenir ta langue Dis-leur Gallegos, dis-leur Sinon la tienne dégage Matte les dégâts 'Voici la Squadra Je dois faire bouger toutes les têtes, poulet vos têtes, hurlés et si tes murs tremblent, assures-les Courez si vous voyez un colombien et un africain faire du business ensemble Ptêtre bien quça parle came et butin Diamant, flow et putains Cool et taffe et scrutin Wack MC tu luttes hein ? Plus dun, jen mets à lamende Jclaque rien quà la demande Clark, montre-leur qui commande Vas-y sos jen vois déjà qui srendent Où est lintrus ? Où est lintro ? Qui est le pro ? qui est le gros ? Qui est laccroc ? qui fait le show ? Du champagne qui a le seau ? De qui est le son ? Jette le mauvais et retiens le bon Prends une leçon De notre coté beaucoup le sont Cest ptêtre indécent des groupes indécents Bois ça sans verser du sang Pas besoin ddessin, encore moins d'être sain Daddy Lord C, Rocca, jette ton blaze hein ! Légende de rap Vital rap contact médicinal Mate les dégâts Jai pas ltemps djouer, jveux du concret envoie la monnaie Jai fini par manier le micro comme une sarbacane Quand mon verbe te canne tel un retour de flamme Soit tu tombes sous le charme chico soit il faut que tu tarmes Chauffer la salle faut lavouer cest facile lété Nous on fait les quatre saisons avec facilité La Squadra dla cliqua au cas où tu connais pas hein On représente le vrai Hip Hop allez déconnez pas On est là, les anciens les nouveaux reurs-ti confirmés Go, femmes classes, taff, perce le noyau dur suit nos traces Cest pour les balafrés, les damnés et les affamés Les têtes enflammées, les cramées, jsuis pas là que pour damer Aya yay, Americano Latino Africano La Squadra mon frère, yeah yeah toujours là1</t>
+          <t>Tache de tenir ta langue Sinon la tienne dégage Mate les dégâts Légende de rap Comment Chief ? ça va Daddy Tranquille, à part ça quest ce quon dit ? Tu sais même pas sur not' dos tout ce quils nont pas dit Tout cquil nont pas du dire Tout cquil nont pas pu jacter devant nous T'as vu ou pas sur l'avenue Pourtant jrime à lexcès, comme chacun le sait Jsuis pas à l'essai, jdois remonter le temps comme Jackie Chan le fait Chaque jour que Dieu fait, des bêtes de couplets Back in a day, Dad faut quon nous paye Nos copies ça play, on revoit ta plaie receleur, soit enfin heureux cest lheure Si t'es ahuri, c'est l'air Tu t'amuse tu ris c'est l'art Nous traite pas de vicelards Hisse la barre bien haut Ceux qu'ont pas dflows quils se barrent C'est le duo de choc qui revient jsais que tattendais ce come-back Rocca, Daddy man phat de nouveau réunis ça fera date Doorag, casquette, baggy, jean, slim, clean Clean, tes yeux hallucinent Vla la dream team Gin, rhum, champagne, donne ce que tas dmieux bonhomme Tu payes cache la somme, on va tfaire cracher la donne Tu connais lhistoire quand y a plus rien despoir Jamais on laisse choir, ça se passe le soir Autour dun joint, dune Heineken Aucune caille me ken, lheure où aucun vide nous canne Y a quune meuf qui nous calme ou le bon sens qui nous came Qui nous dame, qui nous damne Pardon à mes dames de taffer rien quavec mes amygdales Trop de mots Grigny et pense à toi jusquà Pygale Jlève pour toi, toi.le reste ça mest égal Tache de tenir ta langue Sinon la tienne dégage Mate les dégâts Légende de rap Sache tenir ta langue Dis-leur Gallegos, dis-leur Sinon la tienne dégage Matte les dégâts 'Voici la Squadra Je dois faire bouger toutes les têtes, poulet vos têtes, hurlés et si tes murs tremblent, assures-les Courez si vous voyez un colombien et un africain faire du business ensemble Ptêtre bien quça parle came et butin Diamant, flow et putains Cool et taffe et scrutin Wack MC tu luttes hein ? Plus dun, jen mets à lamende Jclaque rien quà la demande Clark, montre-leur qui commande Vas-y sos jen vois déjà qui srendent Où est lintrus ? Où est lintro ? Qui est le pro ? qui est le gros ? Qui est laccroc ? qui fait le show ? Du champagne qui a le seau ? De qui est le son ? Jette le mauvais et retiens le bon Prends une leçon De notre coté beaucoup le sont Cest ptêtre indécent des groupes indécents Bois ça sans verser du sang Pas besoin ddessin, encore moins d'être sain Daddy Lord C, Rocca, jette ton blaze hein ! Légende de rap Vital rap contact médicinal Mate les dégâts Jai pas ltemps djouer, jveux du concret envoie la monnaie Jai fini par manier le micro comme une sarbacane Quand mon verbe te canne tel un retour de flamme Soit tu tombes sous le charme chico soit il faut que tu tarmes Chauffer la salle faut lavouer cest facile lété Nous on fait les quatre saisons avec facilité La Squadra dla cliqua au cas où tu connais pas hein On représente le vrai Hip Hop allez déconnez pas On est là, les anciens les nouveaux reurs-ti confirmés Go, femmes classes, taff, perce le noyau dur suit nos traces Cest pour les balafrés, les damnés et les affamés Les têtes enflammées, les cramées, jsuis pas là que pour damer Aya yay, Americano Latino Africano La Squadra mon frère, yeah yeah toujours là1</t>
         </is>
       </c>
     </row>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>They said, Loso need a PG! Well, I hate that they had to get Scott involved They invested in me 'cause they knew it was no chance of a profit prophet loss Oh, you Goliath in this town? No you gon' lyith on the ground after I rock his jaw! A single hit will crack heads for thinkin' your wit needs Whitney Houston just to body God Bodyguard Aye, A. Ward! Why they rootin' against me? Are they not in awe? Like, how many times squares Time Square gonna wanna see me drop the ball? But for what? You think that I'm upset at that? My brother, not at all My thinkin' is, How they gonna hurt a PG in Houston if I'm not appalled a Paul? Follow me, see, P CP, three acapella Capela rounds for the project is not enough to offer That's why I put my heart in Harden to help the PJ's, and that's just for four starters! Boy, I'mma kill you, and then give the Lord props 'Cause for playin' with a talent that's Astro-nomical, your career'll Correa come to a short stop! I am sure, Scott, your best bet is to call a truce, man Why would I get out of pocket with two nickels like I'm carrying loose change? I'll grab that wire off ya body, then wrap it around ya neck I'll make it look like a new chain They'll see Scotty Scottie with a mic Mike hangin' from him like the Flu Game That's why it's Bullpen over bull...stuff - got you Look, you gotta get the reference Why you upset? Just cause your name's Scotty that don't mean you gotta be defensive Oh, did I mention, that we love Jesus? But we like fights Watch how the tables turn when I come across your temple I'm tryin' to be like Christ Oh, your team type nice? Well, I don't care who Scott called or Scott hired You are not hard, and your block liars We can get it shakin' with the hands, or the arms lift up You want the Scott Hall, or the Scott Steiner!? I'm so ahead of my time, they knew I would come destroy All of my messages are from the Future like...I'm good luv, enjoy. If I diss Scott, then this gotta be The biggest body of work that every disc got in the discography Oh, you gon' lift rounds at me? Then I'm attackin' this guy gotta, lackin' it like nada 'Cause it's a wrap if I start it up like Afrika Bambaataa Hey, he be gettin' reaction off trash when it's so borin' to me Maybe I don't understand everything Scott land Scotland because it's so foreign to me Oh, accordin' to P, I didn't have to take this battle You almost got left, Scott But if I wasn't running back for this easy kill Ezekiel, then who are you gonna impress, Scott Prescott? I bet, Scott, we on two different levels, and even the viewers know! For me? This is the preseason For you? It's like the Super Bowl! Here's a rule to grow lose your flow I could give your career a lift Lyft But if you U wanna drive, go get an Uber, bro This body is gettin' bigger, I'mma kill him before the tumor grows Jesus flip, Yeezy kicks I can really boost your soul sole! 'Cause I got charisma, punches and a flow that's cold! Boy, they knew he was gonna lose Round 1 I just came here so he wouldn't lose his soul You might also like First, givin' honor to god bishop Smack. And the rest of the members on the deacon board. I'mma start this off with a prayer real fast, if y'all don't mind. Bow your head with me. Let's have fun tonight Dear Lord, I prayed and prayed that Smack would come to my city and I'd be on the card Then, well, that's finally come true There's only one person that could've made that happen, Lord and, well, that had to be You Is it me, or am I trippin'? But these URL niggas on some crazy shit 'Cause how this battle in my city, but I ain't the motherfuckin' main event!? You know me, Lord, I'm really just grateful for this opportunity But they could've gave me T-Top or somebody! Damn, look at how they doin' me! And I know your Commandments, Thou shall not steal, thou shall not kill, and so-so But You got to forgive me for what I'm 'bout to do to Loso Him thought he was gonna come get him a dub in my city Really? Lord, you and I both know that's a no-go He's standin' here right now, Lord But in 'bout 30-35 minutes, he's gon' be knockin' on yo' do'! I KNOW! I KNOW! I KNOW! Aye, God gon' strike y'all down for yellin' through my prayer, so listen See, Lord, I'm thankful for every fan in attendance, and every fan that's a witness So let us all say Amen while I go handle my business Amen Where yo' daddy John John at? I need to talk to him He ain't want war? Well, a war been brought to him He ain't want war? Tell that nigga to go back East before I put an end to his whole lil' South career Bitch, we want war! It's the south of America, it ain't South Korea! That nigga tell y'all when and where to move Dawg, we all know how the story go Now ain't none of you niggas poppin' Bullpen Battle League look like the Maury show But let you tell it, it's Bullpen over the bullshit, nigga And with John, that's yo' homie tho? Boy, you in Texas now save all that bullshit for the rodeo! Houston bars, my nigga! You know the code, bitch! They hate to see a nigga shine like my old bitch You try to touch mine? I'm fine, you'll get the whole clip Just know we gon' ride for ours hours let's take a road trip First stop, Third Ward, I take him to my projects to get it started We slip ya in them PJ's this ain't no slumber party Next stop New Orleans, Louisiana, where I'm puttin' yo' ass I drag you down to the boot, right after I put my foot in yo' ass! Now, man, listen, fuck what that nigga DNA was rappin' 'bout The city treat me like a Prince cause I Rap-A-Lot! I can give a rat's ass if you the toughest nigga in your class or not! Boy, this big Texas TEC Tech will get every nigga on yo' campus shot! Boy, I'm squeezin' on the dang iron! I'm weavin' and them thangs flyin'! Try to call my bluff? Bitch, you better have Jesus on your main line! Whoever thought we was even won't be leavin' with the same mind! 'Cause I believe in Jesus, but bitch, I'm a heathen at the same time! So scratch all that religion shit, you actually a hypocrite Rappin' what you rappin' for he cappin' at some benefits I'm laughin' at this nigga when he do them make-believe gun bars just to relate to the crowd See, that's the part I'm not gettin' Because a man of God should know better than to compromise just to fit in! I know you're pushin' for the dub, lil' homie, won't get this win I'mma shove you an L, my nigga now go dig in! Round 1, man, let's make it happen It must hurt to know that you're from Houston, on a stage with somebody who's never been here before And yet, you don't matter the most They literally could've called this battle, Loso Versus... Yo, Why Does It Even Matter? We Just Need Him To Get This PG Out The Way, So He Can Battle Some GOATS. See the fact is you dope, in ya hometown league They be watchin' and admirin' But Smack wouldn't have booked this in New York, Virginia Hell, even Compton ain't even buyin' it Tell me, Scott, what are you providin' then? 'Cause if you can only get sold at home Then that means you're nothin' more than a product of your environment Let's try it, then you saw this as an opportunity, and chased it Bent backwards just to get this to work embrace in brace it Ya faced it, for the simple fact that you didn't pray I would hate for you to tank forever like a No Limit chain They knew I was a star when I walked in, they been amazed In 60 seconds, they knew I was an Astro field look what a Minute made Maid! Wow, you're disappointin' Maybe you should try somethin' new, since nuisance your style is so annoyin' Like, y'all know how he rap, right? When them choppers lift up, you gon' think that it's MASH And when them bucks handed out, you gon' think that it's cas- Scotty, they didn't book you in three years You may think it's the staff It's not politics, it's common sense we think that you're trash! So, what hurts more? The outward pain? Nah, I say inward N-word, like I don't curse, boy Funny, you've been hustlin' backwards with everything you work towards Oh, they want to usher in ya death Guess who's standin' before the church doors? You're down 2-0 already, and he gon' need a lot more than the tre Trae if he want to get into the 3rd, Ward! Aye, you are dirt-poor, I pray they don't book a failure I be tryin' to take these rappers to the light, I'll try to Sugar Hill ya Wait, wait, wait, wait, should Christian rappers- Man, keep askin', Can he, man? Candyman and the hook'll kill ya! Get ya eye dent if I identify think you look familiar! 'Cause I will strike holmes, with a right blow Get to snappin' on him like nice poems When I do a number on this Houston rapper like Mike Jones! What's that? 281-330-8004! Nah, forget that, I got a different approach, tho' What I'm liftin' is so cold All he heard was, Who? Mike Jones! 'Cause I'm tippin' on fo' fo's! Or, I could have John John handle my light work I ain't gotta reach to smoke ya Funny how a Don is Adonis the reason son is hidin' Watch how we expose ya Oh, you on track for a response? Well, I think he needs some closure See, he don't Rap-A-Lot, but when you see J Prince, just know that the beef is over! They say, To each his own, bruh So with my face in the skies disguise, I can tell why you mad, Scott mascot No, no, no? Cool, I got another one This won't be a tie I'm at ya neck with every question I'mma ask, Scott ascot Nah, nah, nah, cool, I got one more Look, here's the plan, Scott The next time you write, string punchlines together so they can start makin' some sense You can still kill thugs Just get an Ill Will plug, so at least what ya makin' Jamaican connects! I am showin' you a small clip of what I can do I am Go-Pro ready 1-2, 1-2 I am Cotto deadly The only reason they ain't hit you is 'cause Loso said it And I kept you on my good side like I'm photogenic Nah, nah, I got charisma, punches, and a flow that's cold You just lost Round 2, and I promise you, you not gon' lose your soul Shout out to all my supporters in the building They haters want me to die out, but I doubt it 'cause I'm too resilient They gon' be mad like, Man, we wanted that nigga Scotty dead, but Loso who they sent to kill him And that nigga damn near died on stage like Wendy Williams! Put three fingers in the air wit' me, y'all Yeah, I'm from that Ward I was raised in the bottom of the Tre It's like three minutes that way This shit right here is my backyard And today, my city want to hear you rap bars on this SMACK card They ain't come to see you rap God to a rap god I'm perfect, at least that's how I feel on this damn stage And if I ain't perfect to you, then I'm closer to you on your best damn days I mean peep it, fresh fit, fresh kicks, and shit, check out the man's waves Fresh cut nigga, I'mma need a Band-Aid You ain't seen my battles killin' niggas on the YouTube? I'm the shit, boy this is what I do do doo-doo Aye, Sy, I think it's time I switch into a new mood 'Cause this battle shit in Texas now, and down here, we playin' by some new rules Aye, fuck that pussy-ass vest, lil' bitch, I'mma shoot through He like, Be a man and fight wit' ya hands, until I doot! doot! Then these hands start connectin' like a Bluetooth! Do a number on this square like Sudoku! I hit his ass wit' two! Ooh! He fell in the street The nigga balled up, tucked his tail in his feet He get up, try to run Bitch, I got a gun, and I shoot well wit' the heat This ratchet spit better than Cardi Boy, you better Be Careful wit' me! I grab the new big Glock and quick to squirt it I snap and you get shot it's picture-perfect The same pastor that be mad at ya like, Uhh, Loso, why you skip the service? Gon' be the same one rappin' at your eulogy like, He didn't deserve it. I know, and after this, I'm headed to Florida, straight to yo' bitch house She wrote a check that that ass can't cash, then make that bitch bounce She say, Loso can't fuck me! He be hollerin' 'bout he celibate. I say, Bitch, I ain't tryin' to fuck ya neither, I just wanted you to suck my dick. But fuck it, she let my brother hit, we both had some fun A bitch with two Johns I nicknamed her Da Don Come see me! Come SEE ME! Come SEE ME! Yeeaaaahh! The hoe was like, Damn, Scotty! Ya dick game is the bomb. But he's still countin' on Love his nickname is Lebron And I don't trust this bitch, so I grab it and tuck it In case this faggot start wildin' out Wild N' Out like Emmanuel Hudson Boy, if you ain't got a plan on hand, man, plan for destruction 12-gauge give him all these bucks Let's see just how you manage ya budget No, no, wait, these new shooters, they cheap, and they don't even give me no problems One of 'em say he gon' let the K ring for just 25 dollars I been out here grindin' eight days a week, and each of it's 25 hours So when a nigga speak on niggas who's hustlin', they can't deny ours Time, man AYO, SCOTTY! Aye, what airline they booked you in? Oh, you drove Aight, well, what hotel they put you in? Oh, you're home Aight, cool, see, aye, that's great, 'cause that could've been a double loss for your friend But please tell me Smack at least covered the cost for ya- Look bro, you ain't gotta lie, ain't no need to floss to pretend Plus, I seen how they spelled his name Scott on my contract I knew he was gettin' double-crossed in the end! I say, listen and register! I came to tweak ya wrongs because you tweet too long In other words, I'm fixin' yo' character Ain't no need to start dissin' the messenger I just think it's Childish how he wanna shoot down the church Aye, This Is America! The hint that I'm gettin', bruh, is Smack having no desires to push your brand You gotta call on the block for some help I mean the only reason he booked you for the warehouse Is cause he had plans of puttin' ya stock on the shelf Aye, that's why I don't rock by myself When you see Los', you see I'm steppin' to you, reppin' the crew Thought John John was the only great Bullpen had until the Reverend debut See, the first part of my movie left an impression on you And although it took you a long time to see it, now you know I'm incredible, too Incredibles 2 Let's extend it to you! Houston Bar Code is it? That's ya league? Aye, what are you doin', Scott? Always actin' like you on top, your crew won't pop Nobody in it wit' a Big Bang I see we got the same view on God Boy you are not responsible for anybody's career That right there is confusin', Ahk 'Cause how you like to talk a good game, but never been a good steward, Stuart Scott? You got a battle wit' DNA, hosted by Hollow Da Don and it's sittin' at 60,000 views I know you mad and upset, you be sharin' that battle everyday like, Yo, it's a classic, I bet The whole concept of askin' I get But just cause you rep' Bar Code doesn't mean you need to tag every thread Aye, let's back up instead, 'cause you lack creativity Always copyin' my moves You're shootin' yourself, it gotta stop For instance, I put on for Christianity Now, he wanna put on for his block I battled DNA, he battled DNA 'cause he just wanna follow his pops I beat Phara Funeral, then you beat Phara- Oh, I see why you keep puttin' yourself in a box! Crowd starts chanting 3-0 That pussy good, that pussy good Trash! Trash! Everybody told me Aye, it's always gun bar after gun bar They be lazy when they preppin' I mean all of my metaphors make them see now senile They goin' crazy up in the reference Aye, you think I gotta act hard wit' a .380 without a message? Boy, I'm Hacksaw Ridge I be savin' 'em without a weapon 'Cause all that, Christians are weak because they say they need the Lord. These the same dudes that try angles triangles to get they words across like a Ouija Board Aye, you right, every mornin' when my feet hit the floor, my knees hit the floor But not because of what I need, because I know I need Him more For instance, He guides me, that's why I never been without sight Even when they cut my electricity off, I never been without light I should've died on that cross, but Jesus got on and got me Now my verdict is the same as his battle price In other words, I got off Scott-free Aye, where are all them URL battlers who was on the Internet gunnin' for me? Aye, Twork, I just finished my PG! What's now your excuse for runnin' from me!? Unfortunately, I just finished Now we gotta listen to him spittin' that trash Thank God I ain't got no more rounds of me whippin' that ass! ...Good night! I started not to do this bullshit-ass battle A PG? URL was on some mo' shit I used to think Hitman and Verb and them was just sayin' that shit for promotion But e'rytime y'all look up, it's another East Coast, then a West Coast nigga bein' shoved in ya face No hate, but shit, them boys down South got somethin' to say It's like they ain't even lookin' our way Now to me, that's some sucker shit Fuck the battle rap politics! We created our own government! And right now, you lookin' at the nigga who governs it And I don't know what Loso done did to deserve this punishment But fuck it, I got the heat, I cock the heat, then spray yo' face Nigga, I'll drop the heat and ya ass get beat like an 808 Claimin' he's worth a mill' meal Boy, down here, niggas will take yo' plate Roll a blade Rollerblade 'cross ya neck, bitch, then they gon' skate! I know you had this win projected well, and it ain't goin' great Now you gettin' this F'in L, and it ain't yo' state Now wait, ain't the great state of Florida who birthed you, my nigga? Why you ain't puttin' on wit' them people? Why you ain't givin' them none of these good lines? You doin' all these shows, but still ain't showed Mother Florida no Good Times? When I go back to Florida, I'm gon' back to that lil' spot where yo' freak be She sucked me clean and keep me clean I gotta O.C.D I tell that bitch, Take it out yo' mouth, then slap it on yo' jaws! She like when daddy talk crazy to her she call me Lavar Ball! Nah, y'all, fuck all that! It's war time now, I'm fully in motion Bitch, you better go buy the biggest bottle of bulletproof lotion Nigga, cut the commotion Extended clip on the hammer holdin' I bet 21 knock ya off like Amber Rose Dammit, bro, I'm high Eyes lookin' like a Chinese dude Two sticks in my hands look like I'm 'bout to eat Chinese food Don't try me, dude, 'cause we could even put the guns up Beat ya ass, you gon' walk around wit' bigger knots on you than Blac Youngsta Before I go, 'cause God sent me here with a message for ya nigga He say you gotta stop gettin' in these battles actin' like you Him Jump on stage and start judgin' niggas Let he without sin cast the first stone- Yeah, you know these words that I utter, nigga Stop tellin' other niggas how to live they life, dawg You are not them other niggas I know what he gon' say, But I'm my brother's keeper Nooo, you are not my brother, nigga! If you done knew 'bout half of the shit niggas dealt wit' Then maybe you would think, Man, he probably couldn't help it. Or maybe you too nervous to even go scratch the surface and dig for a purpose before you caught yourself tryin' to help shit Who made these people the fuckin' keeper to my life? When, a few years ago, I was invisible to ya eyesight But now it's critical, I don't get to do the shit that I like? However I choose to live my life, it's my life - am I right!? Right, so for instance, if Chess wanna be a dirty lil' nigga his whole life, dawg Let that nigga be that! Don't look at Charlie Clips and T-Top and say, Now, why them niggas eat that? Next time you see DNA, before you say, Bro, where that nigga teeth at? What you should be sayin' is, He made it to the top without it, so I too can achieve that. H-Town, nigga! We out this bitch, mayne!1</t>
+          <t>They said, Loso need a PG! Well, I hate that they had to get Scott involved They invested in me 'cause they knew it was no chance of a profit prophet loss Oh, you Goliath in this town? No you gon' lyith on the ground after I rock his jaw! A single hit will crack heads for thinkin' your wit needs Whitney Houston just to body God Bodyguard Aye, A. Ward! Why they rootin' against me? Are they not in awe? Like, how many times squares Time Square gonna wanna see me drop the ball? But for what? You think that I'm upset at that? My brother, not at all My thinkin' is, How they gonna hurt a PG in Houston if I'm not appalled a Paul? Follow me, see, P CP, three acapella Capela rounds for the project is not enough to offer That's why I put my heart in Harden to help the PJ's, and that's just for four starters! Boy, I'mma kill you, and then give the Lord props 'Cause for playin' with a talent that's Astro-nomical, your career'll Correa come to a short stop! I am sure, Scott, your best bet is to call a truce, man Why would I get out of pocket with two nickels like I'm carrying loose change? I'll grab that wire off ya body, then wrap it around ya neck I'll make it look like a new chain They'll see Scotty Scottie with a mic Mike hangin' from him like the Flu Game That's why it's Bullpen over bull...stuff - got you Look, you gotta get the reference Why you upset? Just cause your name's Scotty that don't mean you gotta be defensive Oh, did I mention, that we love Jesus? But we like fights Watch how the tables turn when I come across your temple I'm tryin' to be like Christ Oh, your team type nice? Well, I don't care who Scott called or Scott hired You are not hard, and your block liars We can get it shakin' with the hands, or the arms lift up You want the Scott Hall, or the Scott Steiner!? I'm so ahead of my time, they knew I would come destroy All of my messages are from the Future like...I'm good luv, enjoy. If I diss Scott, then this gotta be The biggest body of work that every disc got in the discography Oh, you gon' lift rounds at me? Then I'm attackin' this guy gotta, lackin' it like nada 'Cause it's a wrap if I start it up like Afrika Bambaataa Hey, he be gettin' reaction off trash when it's so borin' to me Maybe I don't understand everything Scott land Scotland because it's so foreign to me Oh, accordin' to P, I didn't have to take this battle You almost got left, Scott But if I wasn't running back for this easy kill Ezekiel, then who are you gonna impress, Scott Prescott? I bet, Scott, we on two different levels, and even the viewers know! For me? This is the preseason For you? It's like the Super Bowl! Here's a rule to grow lose your flow I could give your career a lift Lyft But if you U wanna drive, go get an Uber, bro This body is gettin' bigger, I'mma kill him before the tumor grows Jesus flip, Yeezy kicks I can really boost your soul sole! 'Cause I got charisma, punches and a flow that's cold! Boy, they knew he was gonna lose Round 1 I just came here so he wouldn't lose his soul First, givin' honor to god bishop Smack. And the rest of the members on the deacon board. I'mma start this off with a prayer real fast, if y'all don't mind. Bow your head with me. Let's have fun tonight Dear Lord, I prayed and prayed that Smack would come to my city and I'd be on the card Then, well, that's finally come true There's only one person that could've made that happen, Lord and, well, that had to be You Is it me, or am I trippin'? But these URL niggas on some crazy shit 'Cause how this battle in my city, but I ain't the motherfuckin' main event!? You know me, Lord, I'm really just grateful for this opportunity But they could've gave me T-Top or somebody! Damn, look at how they doin' me! And I know your Commandments, Thou shall not steal, thou shall not kill, and so-so But You got to forgive me for what I'm 'bout to do to Loso Him thought he was gonna come get him a dub in my city Really? Lord, you and I both know that's a no-go He's standin' here right now, Lord But in 'bout 30-35 minutes, he's gon' be knockin' on yo' do'! I KNOW! I KNOW! I KNOW! Aye, God gon' strike y'all down for yellin' through my prayer, so listen See, Lord, I'm thankful for every fan in attendance, and every fan that's a witness So let us all say Amen while I go handle my business Amen Where yo' daddy John John at? I need to talk to him He ain't want war? Well, a war been brought to him He ain't want war? Tell that nigga to go back East before I put an end to his whole lil' South career Bitch, we want war! It's the south of America, it ain't South Korea! That nigga tell y'all when and where to move Dawg, we all know how the story go Now ain't none of you niggas poppin' Bullpen Battle League look like the Maury show But let you tell it, it's Bullpen over the bullshit, nigga And with John, that's yo' homie tho? Boy, you in Texas now save all that bullshit for the rodeo! Houston bars, my nigga! You know the code, bitch! They hate to see a nigga shine like my old bitch You try to touch mine? I'm fine, you'll get the whole clip Just know we gon' ride for ours hours let's take a road trip First stop, Third Ward, I take him to my projects to get it started We slip ya in them PJ's this ain't no slumber party Next stop New Orleans, Louisiana, where I'm puttin' yo' ass I drag you down to the boot, right after I put my foot in yo' ass! Now, man, listen, fuck what that nigga DNA was rappin' 'bout The city treat me like a Prince cause I Rap-A-Lot! I can give a rat's ass if you the toughest nigga in your class or not! Boy, this big Texas TEC Tech will get every nigga on yo' campus shot! Boy, I'm squeezin' on the dang iron! I'm weavin' and them thangs flyin'! Try to call my bluff? Bitch, you better have Jesus on your main line! Whoever thought we was even won't be leavin' with the same mind! 'Cause I believe in Jesus, but bitch, I'm a heathen at the same time! So scratch all that religion shit, you actually a hypocrite Rappin' what you rappin' for he cappin' at some benefits I'm laughin' at this nigga when he do them make-believe gun bars just to relate to the crowd See, that's the part I'm not gettin' Because a man of God should know better than to compromise just to fit in! I know you're pushin' for the dub, lil' homie, won't get this win I'mma shove you an L, my nigga now go dig in! Round 1, man, let's make it happen It must hurt to know that you're from Houston, on a stage with somebody who's never been here before And yet, you don't matter the most They literally could've called this battle, Loso Versus... Yo, Why Does It Even Matter? We Just Need Him To Get This PG Out The Way, So He Can Battle Some GOATS. See the fact is you dope, in ya hometown league They be watchin' and admirin' But Smack wouldn't have booked this in New York, Virginia Hell, even Compton ain't even buyin' it Tell me, Scott, what are you providin' then? 'Cause if you can only get sold at home Then that means you're nothin' more than a product of your environment Let's try it, then you saw this as an opportunity, and chased it Bent backwards just to get this to work embrace in brace it Ya faced it, for the simple fact that you didn't pray I would hate for you to tank forever like a No Limit chain They knew I was a star when I walked in, they been amazed In 60 seconds, they knew I was an Astro field look what a Minute made Maid! Wow, you're disappointin' Maybe you should try somethin' new, since nuisance your style is so annoyin' Like, y'all know how he rap, right? When them choppers lift up, you gon' think that it's MASH And when them bucks handed out, you gon' think that it's cas- Scotty, they didn't book you in three years You may think it's the staff It's not politics, it's common sense we think that you're trash! So, what hurts more? The outward pain? Nah, I say inward N-word, like I don't curse, boy Funny, you've been hustlin' backwards with everything you work towards Oh, they want to usher in ya death Guess who's standin' before the church doors? You're down 2-0 already, and he gon' need a lot more than the tre Trae if he want to get into the 3rd, Ward! Aye, you are dirt-poor, I pray they don't book a failure I be tryin' to take these rappers to the light, I'll try to Sugar Hill ya Wait, wait, wait, wait, should Christian rappers- Man, keep askin', Can he, man? Candyman and the hook'll kill ya! Get ya eye dent if I identify think you look familiar! 'Cause I will strike holmes, with a right blow Get to snappin' on him like nice poems When I do a number on this Houston rapper like Mike Jones! What's that? 281-330-8004! Nah, forget that, I got a different approach, tho' What I'm liftin' is so cold All he heard was, Who? Mike Jones! 'Cause I'm tippin' on fo' fo's! Or, I could have John John handle my light work I ain't gotta reach to smoke ya Funny how a Don is Adonis the reason son is hidin' Watch how we expose ya Oh, you on track for a response? Well, I think he needs some closure See, he don't Rap-A-Lot, but when you see J Prince, just know that the beef is over! They say, To each his own, bruh So with my face in the skies disguise, I can tell why you mad, Scott mascot No, no, no? Cool, I got another one This won't be a tie I'm at ya neck with every question I'mma ask, Scott ascot Nah, nah, nah, cool, I got one more Look, here's the plan, Scott The next time you write, string punchlines together so they can start makin' some sense You can still kill thugs Just get an Ill Will plug, so at least what ya makin' Jamaican connects! I am showin' you a small clip of what I can do I am Go-Pro ready 1-2, 1-2 I am Cotto deadly The only reason they ain't hit you is 'cause Loso said it And I kept you on my good side like I'm photogenic Nah, nah, I got charisma, punches, and a flow that's cold You just lost Round 2, and I promise you, you not gon' lose your soul Shout out to all my supporters in the building They haters want me to die out, but I doubt it 'cause I'm too resilient They gon' be mad like, Man, we wanted that nigga Scotty dead, but Loso who they sent to kill him And that nigga damn near died on stage like Wendy Williams! Put three fingers in the air wit' me, y'all Yeah, I'm from that Ward I was raised in the bottom of the Tre It's like three minutes that way This shit right here is my backyard And today, my city want to hear you rap bars on this SMACK card They ain't come to see you rap God to a rap god I'm perfect, at least that's how I feel on this damn stage And if I ain't perfect to you, then I'm closer to you on your best damn days I mean peep it, fresh fit, fresh kicks, and shit, check out the man's waves Fresh cut nigga, I'mma need a Band-Aid You ain't seen my battles killin' niggas on the YouTube? I'm the shit, boy this is what I do do doo-doo Aye, Sy, I think it's time I switch into a new mood 'Cause this battle shit in Texas now, and down here, we playin' by some new rules Aye, fuck that pussy-ass vest, lil' bitch, I'mma shoot through He like, Be a man and fight wit' ya hands, until I doot! doot! Then these hands start connectin' like a Bluetooth! Do a number on this square like Sudoku! I hit his ass wit' two! Ooh! He fell in the street The nigga balled up, tucked his tail in his feet He get up, try to run Bitch, I got a gun, and I shoot well wit' the heat This ratchet spit better than Cardi Boy, you better Be Careful wit' me! I grab the new big Glock and quick to squirt it I snap and you get shot it's picture-perfect The same pastor that be mad at ya like, Uhh, Loso, why you skip the service? Gon' be the same one rappin' at your eulogy like, He didn't deserve it. I know, and after this, I'm headed to Florida, straight to yo' bitch house She wrote a check that that ass can't cash, then make that bitch bounce She say, Loso can't fuck me! He be hollerin' 'bout he celibate. I say, Bitch, I ain't tryin' to fuck ya neither, I just wanted you to suck my dick. But fuck it, she let my brother hit, we both had some fun A bitch with two Johns I nicknamed her Da Don Come see me! Come SEE ME! Come SEE ME! Yeeaaaahh! The hoe was like, Damn, Scotty! Ya dick game is the bomb. But he's still countin' on Love his nickname is Lebron And I don't trust this bitch, so I grab it and tuck it In case this faggot start wildin' out Wild N' Out like Emmanuel Hudson Boy, if you ain't got a plan on hand, man, plan for destruction 12-gauge give him all these bucks Let's see just how you manage ya budget No, no, wait, these new shooters, they cheap, and they don't even give me no problems One of 'em say he gon' let the K ring for just 25 dollars I been out here grindin' eight days a week, and each of it's 25 hours So when a nigga speak on niggas who's hustlin', they can't deny ours Time, man AYO, SCOTTY! Aye, what airline they booked you in? Oh, you drove Aight, well, what hotel they put you in? Oh, you're home Aight, cool, see, aye, that's great, 'cause that could've been a double loss for your friend But please tell me Smack at least covered the cost for ya- Look bro, you ain't gotta lie, ain't no need to floss to pretend Plus, I seen how they spelled his name Scott on my contract I knew he was gettin' double-crossed in the end! I say, listen and register! I came to tweak ya wrongs because you tweet too long In other words, I'm fixin' yo' character Ain't no need to start dissin' the messenger I just think it's Childish how he wanna shoot down the church Aye, This Is America! The hint that I'm gettin', bruh, is Smack having no desires to push your brand You gotta call on the block for some help I mean the only reason he booked you for the warehouse Is cause he had plans of puttin' ya stock on the shelf Aye, that's why I don't rock by myself When you see Los', you see I'm steppin' to you, reppin' the crew Thought John John was the only great Bullpen had until the Reverend debut See, the first part of my movie left an impression on you And although it took you a long time to see it, now you know I'm incredible, too Incredibles 2 Let's extend it to you! Houston Bar Code is it? That's ya league? Aye, what are you doin', Scott? Always actin' like you on top, your crew won't pop Nobody in it wit' a Big Bang I see we got the same view on God Boy you are not responsible for anybody's career That right there is confusin', Ahk 'Cause how you like to talk a good game, but never been a good steward, Stuart Scott? You got a battle wit' DNA, hosted by Hollow Da Don and it's sittin' at 60,000 views I know you mad and upset, you be sharin' that battle everyday like, Yo, it's a classic, I bet The whole concept of askin' I get But just cause you rep' Bar Code doesn't mean you need to tag every thread Aye, let's back up instead, 'cause you lack creativity Always copyin' my moves You're shootin' yourself, it gotta stop For instance, I put on for Christianity Now, he wanna put on for his block I battled DNA, he battled DNA 'cause he just wanna follow his pops I beat Phara Funeral, then you beat Phara- Oh, I see why you keep puttin' yourself in a box! Crowd starts chanting 3-0 That pussy good, that pussy good Trash! Trash! Everybody told me Aye, it's always gun bar after gun bar They be lazy when they preppin' I mean all of my metaphors make them see now senile They goin' crazy up in the reference Aye, you think I gotta act hard wit' a .380 without a message? Boy, I'm Hacksaw Ridge I be savin' 'em without a weapon 'Cause all that, Christians are weak because they say they need the Lord. These the same dudes that try angles triangles to get they words across like a Ouija Board Aye, you right, every mornin' when my feet hit the floor, my knees hit the floor But not because of what I need, because I know I need Him more For instance, He guides me, that's why I never been without sight Even when they cut my electricity off, I never been without light I should've died on that cross, but Jesus got on and got me Now my verdict is the same as his battle price In other words, I got off Scott-free Aye, where are all them URL battlers who was on the Internet gunnin' for me? Aye, Twork, I just finished my PG! What's now your excuse for runnin' from me!? Unfortunately, I just finished Now we gotta listen to him spittin' that trash Thank God I ain't got no more rounds of me whippin' that ass! ...Good night! I started not to do this bullshit-ass battle A PG? URL was on some mo' shit I used to think Hitman and Verb and them was just sayin' that shit for promotion But e'rytime y'all look up, it's another East Coast, then a West Coast nigga bein' shoved in ya face No hate, but shit, them boys down South got somethin' to say It's like they ain't even lookin' our way Now to me, that's some sucker shit Fuck the battle rap politics! We created our own government! And right now, you lookin' at the nigga who governs it And I don't know what Loso done did to deserve this punishment But fuck it, I got the heat, I cock the heat, then spray yo' face Nigga, I'll drop the heat and ya ass get beat like an 808 Claimin' he's worth a mill' meal Boy, down here, niggas will take yo' plate Roll a blade Rollerblade 'cross ya neck, bitch, then they gon' skate! I know you had this win projected well, and it ain't goin' great Now you gettin' this F'in L, and it ain't yo' state Now wait, ain't the great state of Florida who birthed you, my nigga? Why you ain't puttin' on wit' them people? Why you ain't givin' them none of these good lines? You doin' all these shows, but still ain't showed Mother Florida no Good Times? When I go back to Florida, I'm gon' back to that lil' spot where yo' freak be She sucked me clean and keep me clean I gotta O.C.D I tell that bitch, Take it out yo' mouth, then slap it on yo' jaws! She like when daddy talk crazy to her she call me Lavar Ball! Nah, y'all, fuck all that! It's war time now, I'm fully in motion Bitch, you better go buy the biggest bottle of bulletproof lotion Nigga, cut the commotion Extended clip on the hammer holdin' I bet 21 knock ya off like Amber Rose Dammit, bro, I'm high Eyes lookin' like a Chinese dude Two sticks in my hands look like I'm 'bout to eat Chinese food Don't try me, dude, 'cause we could even put the guns up Beat ya ass, you gon' walk around wit' bigger knots on you than Blac Youngsta Before I go, 'cause God sent me here with a message for ya nigga He say you gotta stop gettin' in these battles actin' like you Him Jump on stage and start judgin' niggas Let he without sin cast the first stone- Yeah, you know these words that I utter, nigga Stop tellin' other niggas how to live they life, dawg You are not them other niggas I know what he gon' say, But I'm my brother's keeper Nooo, you are not my brother, nigga! If you done knew 'bout half of the shit niggas dealt wit' Then maybe you would think, Man, he probably couldn't help it. Or maybe you too nervous to even go scratch the surface and dig for a purpose before you caught yourself tryin' to help shit Who made these people the fuckin' keeper to my life? When, a few years ago, I was invisible to ya eyesight But now it's critical, I don't get to do the shit that I like? However I choose to live my life, it's my life - am I right!? Right, so for instance, if Chess wanna be a dirty lil' nigga his whole life, dawg Let that nigga be that! Don't look at Charlie Clips and T-Top and say, Now, why them niggas eat that? Next time you see DNA, before you say, Bro, where that nigga teeth at? What you should be sayin' is, He made it to the top without it, so I too can achieve that. H-Town, nigga! We out this bitch, mayne!1</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Rap contact, au mic come back Ma clique débarque dans tous les bacs, claque À chaque attaque XXX t'éclate en vrac mac Bouddha, Rocca, Clark XXX Gallegos pour l'troisième acte Autodidacte, OK c'est vrai j'ai l'bac en sac Quoi que c'est la rue, ses trappes, qui m'ont forgé mais soit C'qui compte, du tact, du flow des mots des rimes exactes J'ai choisi d'être MC, me battre pour mes XXX c'est un pacte Impact verbal, comme les balles je transperce les dalles Cale l'instrumentale, mon freestyle vocal fait scandale, emballe les vandales J'balaie le mic tous les sales MC XXX à l'hexagonale Cliqua chirurgicale pour un rap médicinal Lifting complet, on déride le rap français On vire les peaux mortes et on redonne au hip-hop un bon aspect Fat sound des bidonvilles pullule comme des bactéries J'continuerai même si j'dois test' tous les MC Soy mero melo primero dello rappero toreo Comu yanero rumpero perua quiro por quero Saga légendaire, rap Titanic On trahira pas notre public Mon rap flow progresse Interpelle ton attention les textes qui blessent Rap contact, médicinal You might also like Ça y est c'est reparti pour un nouveau Rap Contact 3 Frappe pas d'ici si maintenant, on s'la raconte à trois Daddy Lord moi-même Rocca et mon pote Raphaël Pour ceux qu'ça nous gêne de signer des autographes à elles Et si tout s'dégage enfin mon phrasé Mes mérites corespondent au côté teigneux À la hargne, on lâche rien XXX lourds, franc-parler, pas d'gimmick ni d'sacerdoce Sur vinyle ou mixtape, aux wack MC que ça sert d'os J'dirai pas que l'usage de ma musique, même si elle est bonne, sert À transformer les mecs en curés et les jeunes filles en bonnes surs J'avoue j'ai pas trop d'mal à faire valoir mon côté bosseur La tâche demeure plutôt facile c'est vrai quand t'es boxeur Mon son ma mélodie j'en conviens ne t'paraît pas bien douce C'est pas pour autant qu'tu ne danseras pas dessus aux Bains-Douches Sinon ça s'passe bien tranquille Franchement sens ça cool Ce soir faut qu'ça l'fasse sans embrouilles, sans qu'le sang ça coule Pour que ça colle, que des XXX ton surnom ça colle La foule soit devant toi pareil à un toxico sans sa colle Pourquoi tu tailles, j'ai pas l'humour d'Yves Duteil Pourtant j'suis d'taille qu'tu prennes une table, claque une bouteille Mon rap flow progresse Interpelle ton attention les textes qui blessent Rap contact, médicinal Contact au mic de manière stratégique Pour ma clique, mon public Ça va plus loin que la flambe et l'fric Les vibes d'la notoriété prennent le dessus Sois le bienvenu, je représente les gars de la rue J'donne du rap pour les durs, ramène le hip-hop à sa base Crue est mon écriture, goûte à la construction d'mes phrases J'essaie de mériter mon nom pour garder ma position Croire en ma puissance sur le son pour m'imposer pour de bon Dans la musique tout doit être géant Le but est d'éveiller un maximum de gens avec un maximum de sentiments Flow infatigable, hors du commun Chaque jour je m'concentre sur ma situation mic en main frangin Un pour ma mif', deux pour mes amis puis trois pour le cash Pour la vie et la foi qu'il y a en moi Plus que jamais, j'avance sans regret sans cesse Même si béni de sagesse, mon rap flow progresse Tu veux du style, mon crew débarque muni d'ses ustensiles Fallait pas nous appeler, maintenant nous v'là dans toutes les villes Mon rap flow progresse Interpelle ton attention les textes qui blessent Rap contact, médicinal</t>
+          <t>Rap contact, au mic come back Ma clique débarque dans tous les bacs, claque À chaque attaque XXX t'éclate en vrac mac Bouddha, Rocca, Clark XXX Gallegos pour l'troisième acte Autodidacte, OK c'est vrai j'ai l'bac en sac Quoi que c'est la rue, ses trappes, qui m'ont forgé mais soit C'qui compte, du tact, du flow des mots des rimes exactes J'ai choisi d'être MC, me battre pour mes XXX c'est un pacte Impact verbal, comme les balles je transperce les dalles Cale l'instrumentale, mon freestyle vocal fait scandale, emballe les vandales J'balaie le mic tous les sales MC XXX à l'hexagonale Cliqua chirurgicale pour un rap médicinal Lifting complet, on déride le rap français On vire les peaux mortes et on redonne au hip-hop un bon aspect Fat sound des bidonvilles pullule comme des bactéries J'continuerai même si j'dois test' tous les MC Soy mero melo primero dello rappero toreo Comu yanero rumpero perua quiro por quero Saga légendaire, rap Titanic On trahira pas notre public Mon rap flow progresse Interpelle ton attention les textes qui blessent Rap contact, médicinal Ça y est c'est reparti pour un nouveau Rap Contact 3 Frappe pas d'ici si maintenant, on s'la raconte à trois Daddy Lord moi-même Rocca et mon pote Raphaël Pour ceux qu'ça nous gêne de signer des autographes à elles Et si tout s'dégage enfin mon phrasé Mes mérites corespondent au côté teigneux À la hargne, on lâche rien XXX lourds, franc-parler, pas d'gimmick ni d'sacerdoce Sur vinyle ou mixtape, aux wack MC que ça sert d'os J'dirai pas que l'usage de ma musique, même si elle est bonne, sert À transformer les mecs en curés et les jeunes filles en bonnes surs J'avoue j'ai pas trop d'mal à faire valoir mon côté bosseur La tâche demeure plutôt facile c'est vrai quand t'es boxeur Mon son ma mélodie j'en conviens ne t'paraît pas bien douce C'est pas pour autant qu'tu ne danseras pas dessus aux Bains-Douches Sinon ça s'passe bien tranquille Franchement sens ça cool Ce soir faut qu'ça l'fasse sans embrouilles, sans qu'le sang ça coule Pour que ça colle, que des XXX ton surnom ça colle La foule soit devant toi pareil à un toxico sans sa colle Pourquoi tu tailles, j'ai pas l'humour d'Yves Duteil Pourtant j'suis d'taille qu'tu prennes une table, claque une bouteille Mon rap flow progresse Interpelle ton attention les textes qui blessent Rap contact, médicinal Contact au mic de manière stratégique Pour ma clique, mon public Ça va plus loin que la flambe et l'fric Les vibes d'la notoriété prennent le dessus Sois le bienvenu, je représente les gars de la rue J'donne du rap pour les durs, ramène le hip-hop à sa base Crue est mon écriture, goûte à la construction d'mes phrases J'essaie de mériter mon nom pour garder ma position Croire en ma puissance sur le son pour m'imposer pour de bon Dans la musique tout doit être géant Le but est d'éveiller un maximum de gens avec un maximum de sentiments Flow infatigable, hors du commun Chaque jour je m'concentre sur ma situation mic en main frangin Un pour ma mif', deux pour mes amis puis trois pour le cash Pour la vie et la foi qu'il y a en moi Plus que jamais, j'avance sans regret sans cesse Même si béni de sagesse, mon rap flow progresse Tu veux du style, mon crew débarque muni d'ses ustensiles Fallait pas nous appeler, maintenant nous v'là dans toutes les villes Mon rap flow progresse Interpelle ton attention les textes qui blessent Rap contact, médicinal</t>
         </is>
       </c>
     </row>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Back in the ghetto x2 Assez assez, en voilà assez Le système glisse, mène, sonne ton requiem Haine, peine, parsèment le dilemme Le système glisse, mène, sonne ton requiem Assez assez, en voilà assez Agacé, lassé des excès je vais tout casser Arrêtez, jétouffe, laissez-moi respirer Ma vie perd son sens, mon goût, mon souffle est épuisé Tout sefface, quest-ce qui se passe, où sont mes traces ? Dans un désert de glace, ma face, mon tout devient flasque Un casque, un masque à gaz, pour mon crâne Puisque dans mon cerveau bouillonne une tempête, une bourrasque Lexistence absorbe mes substances, méfiance Limpuissance donne naissance à bien de perpétuelles souffrances Pense au bon sens, à lintense résistance, ma conscience lance loffensive La sentence avance et on ne pense quà se remplir la panse Jai beau mappliquer, lutter pour être plus méthodique La rue guide mes pas vers un cap pas catholique Chaotique, incompatible aux produits chimiques Mon cas dépasse scientifiques, avec eux toutes choses physiques Oh ! Bientôt vos maux briseront vos cerveaux Métro, boulot, dodo, trop didiots suivent le troupeau Limpôt ou léchafaud, faut donner ta peau pour du repos, pour un tombeau Je ne suis quun robot mais la fierté de mon bourreau Bluesé, entourloupé, leurré, lesprit emmuré Ecoeuré, préférant passer pour un demeuré La drogue dont je me came, le hip-hop ma seule denrée Rentre dans le stress qui oppresse le négro beurré Sors, viens faire un tour dehors, explore, sors de ton décor pécore Si la rue tu ignores, tu ignores pourquoi je suis hardcore La vie, la mort, lutte à corps à corps Encore laurore, encore une journée deffort On rapte ma pensée, capte mes idées, plutôt que madapter Je préfère encore me suicider Suicider, vendre son âme, son bien, sa vie au diable Que de servir de pâture à des incapables You might also like x2 Assez assez, en voilà assez Le système glisse, mène, sonne ton requiem Haine, peine, parsèment le dilemme Le système glisse, mène, sonne ton requiem Back in the ghetto, back in the ghetto... Jétouffe dans des décombres, souffre de maux en nombre Vis dans une pénombre, lombre des cons mencombre Ils poussent vers le vice, dans les villes en polyester Où vit lhomme perdu à la recherche dun salaire Je suis la faille, le produit qui déraille, lappareil déglingué La caille, lentaille du système, la volaille qui braille au travail à la chaîne Je vois des hommes qui gueulent de stress Cesse que le système te prenne ton mental en laisse Business, défaite, méfait, en fait cest net On rentre en décadence dans une société soi-disant prête Là où je fourre mes pattes, on memboîte, mexploite de gauche à droite Je tâte, mate lobstacle et avec hâte, bah ! , léclate Jai des choses à dire, mais peu de fric pour lavenir Sans mentir, je nai pas besoin de filles pour madoucir On me colle, on misole en sous-sol, manque de bol Même en camisole, mes paroles prennent leur envol Lanonyme, ultime victime que le régime opprime Frime dans le crime, tandis que je manime dans la rime Sans centimes, crevant la dalle à la recherche dun Pascal Le jeune de la rue craque, braque pour quelques balles Haaa ! Qui sonne le requiem ? Tombe dans la messe quon te parsème de chrysanthèmes Get down ! Get down, plutôt guette dans ma tête ce boucan Mes cellules, lune après lautre, se dérobent, foutent le camp Lincident mincitant à un tempérament moins excitant Pas étonnant à tes dépends je décide de prendre du bon temps Lhygiène on sen tamponne, survivre faut que tu ty cramponnes Dans ma zone la drogue vaut bien plus cher que la couche dozone Ingurgite ma zic synthétique, vas-y avale mon Aspégic Plein de techniques, pas de critiques sans gimmicks Prêt à tout pour du fric même à de laérobic Le vice devient une porte de sortie au lieu dun hobby Cette phobie, lEtat produit un tas de photocopies Youpi youpi ya ! Youpi ya ya yo ! Dans les quartiers chauds lhonnêteté fait pas de vieux os Dire sil vous plaît ça me déplaît, moi jai dépassé ce cap Mon Hijack capte, décape, tape tous les new jacks Qui vont à lencontre du Chief Rocca ou du Daddy Mac x2 Assez assez, en voilà assez Le système glisse, mène, sonne ton requiem Haine, peine, parsèment le dilemme Le système glisse, mène, sonne ton requiem</t>
+          <t>Back in the ghetto x2 Assez assez, en voilà assez Le système glisse, mène, sonne ton requiem Haine, peine, parsèment le dilemme Le système glisse, mène, sonne ton requiem Assez assez, en voilà assez Agacé, lassé des excès je vais tout casser Arrêtez, jétouffe, laissez-moi respirer Ma vie perd son sens, mon goût, mon souffle est épuisé Tout sefface, quest-ce qui se passe, où sont mes traces ? Dans un désert de glace, ma face, mon tout devient flasque Un casque, un masque à gaz, pour mon crâne Puisque dans mon cerveau bouillonne une tempête, une bourrasque Lexistence absorbe mes substances, méfiance Limpuissance donne naissance à bien de perpétuelles souffrances Pense au bon sens, à lintense résistance, ma conscience lance loffensive La sentence avance et on ne pense quà se remplir la panse Jai beau mappliquer, lutter pour être plus méthodique La rue guide mes pas vers un cap pas catholique Chaotique, incompatible aux produits chimiques Mon cas dépasse scientifiques, avec eux toutes choses physiques Oh ! Bientôt vos maux briseront vos cerveaux Métro, boulot, dodo, trop didiots suivent le troupeau Limpôt ou léchafaud, faut donner ta peau pour du repos, pour un tombeau Je ne suis quun robot mais la fierté de mon bourreau Bluesé, entourloupé, leurré, lesprit emmuré Ecoeuré, préférant passer pour un demeuré La drogue dont je me came, le hip-hop ma seule denrée Rentre dans le stress qui oppresse le négro beurré Sors, viens faire un tour dehors, explore, sors de ton décor pécore Si la rue tu ignores, tu ignores pourquoi je suis hardcore La vie, la mort, lutte à corps à corps Encore laurore, encore une journée deffort On rapte ma pensée, capte mes idées, plutôt que madapter Je préfère encore me suicider Suicider, vendre son âme, son bien, sa vie au diable Que de servir de pâture à des incapables x2 Assez assez, en voilà assez Le système glisse, mène, sonne ton requiem Haine, peine, parsèment le dilemme Le système glisse, mène, sonne ton requiem Back in the ghetto, back in the ghetto... Jétouffe dans des décombres, souffre de maux en nombre Vis dans une pénombre, lombre des cons mencombre Ils poussent vers le vice, dans les villes en polyester Où vit lhomme perdu à la recherche dun salaire Je suis la faille, le produit qui déraille, lappareil déglingué La caille, lentaille du système, la volaille qui braille au travail à la chaîne Je vois des hommes qui gueulent de stress Cesse que le système te prenne ton mental en laisse Business, défaite, méfait, en fait cest net On rentre en décadence dans une société soi-disant prête Là où je fourre mes pattes, on memboîte, mexploite de gauche à droite Je tâte, mate lobstacle et avec hâte, bah ! , léclate Jai des choses à dire, mais peu de fric pour lavenir Sans mentir, je nai pas besoin de filles pour madoucir On me colle, on misole en sous-sol, manque de bol Même en camisole, mes paroles prennent leur envol Lanonyme, ultime victime que le régime opprime Frime dans le crime, tandis que je manime dans la rime Sans centimes, crevant la dalle à la recherche dun Pascal Le jeune de la rue craque, braque pour quelques balles Haaa ! Qui sonne le requiem ? Tombe dans la messe quon te parsème de chrysanthèmes Get down ! Get down, plutôt guette dans ma tête ce boucan Mes cellules, lune après lautre, se dérobent, foutent le camp Lincident mincitant à un tempérament moins excitant Pas étonnant à tes dépends je décide de prendre du bon temps Lhygiène on sen tamponne, survivre faut que tu ty cramponnes Dans ma zone la drogue vaut bien plus cher que la couche dozone Ingurgite ma zic synthétique, vas-y avale mon Aspégic Plein de techniques, pas de critiques sans gimmicks Prêt à tout pour du fric même à de laérobic Le vice devient une porte de sortie au lieu dun hobby Cette phobie, lEtat produit un tas de photocopies Youpi youpi ya ! Youpi ya ya yo ! Dans les quartiers chauds lhonnêteté fait pas de vieux os Dire sil vous plaît ça me déplaît, moi jai dépassé ce cap Mon Hijack capte, décape, tape tous les new jacks Qui vont à lencontre du Chief Rocca ou du Daddy Mac x2 Assez assez, en voilà assez Le système glisse, mène, sonne ton requiem Haine, peine, parsèment le dilemme Le système glisse, mène, sonne ton requiem</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Sur le Mix, DJ Poska Au microphone, Lord Issa, toi-même tu sais C'est dangereux Exclusive Approche-toi DLC Eh, pas l'temps d'jouer, gros Aïe, aïe, aïe Tu mets un N, après un A, après un S, après un M, après un E Tout est possible, je dis que rien n'est impossible Pour avancer, t'accroche pas à du futile J'ai dit que tout est possible, rien n'est impossible Il faut se battre, baisser la tête est inutile Tout est possible, j'ai dit que rien n'est impossible Réagis t t'attache pas à du futile Tout est possibl, rien n'est impossible Il faut se battre, baisser la tête n'est pas utile Rester positif, j'dis que rien n'est impossible C'est c'qui m'motive, triste ou peut t'pousser au suicide Quand tout part en sucette sept sur sept, prise de tête sur prise de bec Sans prise de prix ni check Y a pas d'surprise du chef Pas impossible que j'change les règles Impossible que j'me taise, moi j'me tape avant d'me tèj À chaque étage même dans un état étrange Impossible que j'me rende, pas impossible que j'me range ou que j'me venge Si tu m'mens, je veux croire que c'est impossible que j'flanche Ou que j'tende la main dans le métro pour que j'mange Toujours un dernier plan sous la manche Impossible que j'porte la frange Ma peau, un gros problème pour la France Impossible que tout soit parfait, pour ça qu'souvent tout est à refaire Mes rêves d'enfant, j'y crois plus du tout dur comme fer Rien n'est impossible, j'suis déjà devenu père Tout est possible, au deuxième tour j'ai vu Le Pen Peut-être qu'de mon vivant en Palestine j'verrai la paix You might also like Tout est possible, je dis que rien n'est impossible Pour avancer, t'accroche pas à du futile J'ai dit que tout est possible, rien n'est impossible Il faut se battre, baisser la tête est inutile Tout est possible, j'ai dit que rien n'est impossible Réagis et t'attache pas à du futile Je dis que tout est possible, rien n'est impossible Il faut se battre, baisser la tête n'est pas utile Cela dit, je m'entends, tout est possible On vise nous aussi c'que tous tes potes ciblent XXX, je l'avoue, à titre posthume Mais personne prétendra, pas le bon costume, ouais J'apprécie Malcolm, ses caisses en custom C'est toujours du bon dès qu'on accouche donne Que Dieu te pardonne, qu'avant qu'on cartonne Pour qu'à tes oreilles ce soit mon nom qu'on marmonne Va nourrir la marmaille, sourire sous cette maille Bien qu'le patron soit aussi mauvais que ce barman Tout est possible, vu c'qu'on ramène même Un clin d'il à Arthur H, Mandela et Mel-Man Tout est possible OK, mais faut pas pousser Jamais sur l'terrain l'gazon ne va repousser On vient te doucher, XXX retoucher Sans devoir baisser les frocs ou encore coucher Tout est possible, je dis que rien n'est impossible Pour avancer, t'accroche pas à du futile J'ai dit que tout est possible, rien n'est impossible Il faut se battre, baisser la tête est inutile Tout est possible, j'ai dit que rien n'est impossible Réagis et t'attache pas à du futile Je dis que tout est possible, rien n'est impossible Il faut se battre, baisser la tête n'est pas utile Tout est possible donc vas-y, reste posé Mets-toi bien, le son, Voodoo l'a composé Donc on va s'amuser mais sans abuser Ni oublier qu'on nous veut sur l'banc des accusés Rien n'est impossible parce que tout est accessible Y a pas d'magie, faut agir, rien n'arrive si tu restes assis La maille divise, la devise c'est de s'presser Vise, mais faut être précis pour pas finir les poches percées Tout est possible, t'as vu Nasme Daddy font un feat C'qui s'passe ensuite pour qu'les mythos soient en fuite Qu'à cogiter le son, les mots, le fond ainsi À c'que les gosses à l'école soient forts en chiffres Impossible que j'change, que d'la vérité quand j'chante Tout est parti d'ma chambre, pas impossible que ça s'vende Impossible que j'montre pas c'que j'ai dans l'ventre XXX c'est pas du Hugh Grant Que les derniers finiront devant Tout est possible, je dis que rien n'est impossible Pour avancer, t'accroche pas à du futile J'ai dit que tout est possible, rien n'est impossible Il faut se battre, baisser la tête est inutile Tout est possible, j'ai dit que rien n'est impossible Réagis et t'attache pas à du futile Je dis que tout est possible, rien n'est impossible Il faut se battre, baisser la tête n'est pas utile Wesh poto Track List Tu mets un N, après un A, après un S, après un M, après un E D.L.C Aïe, aïe, aïe On a dit, rien n'est impossible, poto Rien n'est impossible, poto Rien n'est impossible Aïe, aïe, aïe Aïe, aïe, aïe Track List Combinaison Exclusive Daddy Lord C, Nasme C'est pas fini</t>
+          <t>Sur le Mix, DJ Poska Au microphone, Lord Issa, toi-même tu sais C'est dangereux Exclusive Approche-toi DLC Eh, pas l'temps d'jouer, gros Aïe, aïe, aïe Tu mets un N, après un A, après un S, après un M, après un E Tout est possible, je dis que rien n'est impossible Pour avancer, t'accroche pas à du futile J'ai dit que tout est possible, rien n'est impossible Il faut se battre, baisser la tête est inutile Tout est possible, j'ai dit que rien n'est impossible Réagis t t'attache pas à du futile Tout est possibl, rien n'est impossible Il faut se battre, baisser la tête n'est pas utile Rester positif, j'dis que rien n'est impossible C'est c'qui m'motive, triste ou peut t'pousser au suicide Quand tout part en sucette sept sur sept, prise de tête sur prise de bec Sans prise de prix ni check Y a pas d'surprise du chef Pas impossible que j'change les règles Impossible que j'me taise, moi j'me tape avant d'me tèj À chaque étage même dans un état étrange Impossible que j'me rende, pas impossible que j'me range ou que j'me venge Si tu m'mens, je veux croire que c'est impossible que j'flanche Ou que j'tende la main dans le métro pour que j'mange Toujours un dernier plan sous la manche Impossible que j'porte la frange Ma peau, un gros problème pour la France Impossible que tout soit parfait, pour ça qu'souvent tout est à refaire Mes rêves d'enfant, j'y crois plus du tout dur comme fer Rien n'est impossible, j'suis déjà devenu père Tout est possible, au deuxième tour j'ai vu Le Pen Peut-être qu'de mon vivant en Palestine j'verrai la paix Tout est possible, je dis que rien n'est impossible Pour avancer, t'accroche pas à du futile J'ai dit que tout est possible, rien n'est impossible Il faut se battre, baisser la tête est inutile Tout est possible, j'ai dit que rien n'est impossible Réagis et t'attache pas à du futile Je dis que tout est possible, rien n'est impossible Il faut se battre, baisser la tête n'est pas utile Cela dit, je m'entends, tout est possible On vise nous aussi c'que tous tes potes ciblent XXX, je l'avoue, à titre posthume Mais personne prétendra, pas le bon costume, ouais J'apprécie Malcolm, ses caisses en custom C'est toujours du bon dès qu'on accouche donne Que Dieu te pardonne, qu'avant qu'on cartonne Pour qu'à tes oreilles ce soit mon nom qu'on marmonne Va nourrir la marmaille, sourire sous cette maille Bien qu'le patron soit aussi mauvais que ce barman Tout est possible, vu c'qu'on ramène même Un clin d'il à Arthur H, Mandela et Mel-Man Tout est possible OK, mais faut pas pousser Jamais sur l'terrain l'gazon ne va repousser On vient te doucher, XXX retoucher Sans devoir baisser les frocs ou encore coucher Tout est possible, je dis que rien n'est impossible Pour avancer, t'accroche pas à du futile J'ai dit que tout est possible, rien n'est impossible Il faut se battre, baisser la tête est inutile Tout est possible, j'ai dit que rien n'est impossible Réagis et t'attache pas à du futile Je dis que tout est possible, rien n'est impossible Il faut se battre, baisser la tête n'est pas utile Tout est possible donc vas-y, reste posé Mets-toi bien, le son, Voodoo l'a composé Donc on va s'amuser mais sans abuser Ni oublier qu'on nous veut sur l'banc des accusés Rien n'est impossible parce que tout est accessible Y a pas d'magie, faut agir, rien n'arrive si tu restes assis La maille divise, la devise c'est de s'presser Vise, mais faut être précis pour pas finir les poches percées Tout est possible, t'as vu Nasme Daddy font un feat C'qui s'passe ensuite pour qu'les mythos soient en fuite Qu'à cogiter le son, les mots, le fond ainsi À c'que les gosses à l'école soient forts en chiffres Impossible que j'change, que d'la vérité quand j'chante Tout est parti d'ma chambre, pas impossible que ça s'vende Impossible que j'montre pas c'que j'ai dans l'ventre XXX c'est pas du Hugh Grant Que les derniers finiront devant Tout est possible, je dis que rien n'est impossible Pour avancer, t'accroche pas à du futile J'ai dit que tout est possible, rien n'est impossible Il faut se battre, baisser la tête est inutile Tout est possible, j'ai dit que rien n'est impossible Réagis et t'attache pas à du futile Je dis que tout est possible, rien n'est impossible Il faut se battre, baisser la tête n'est pas utile Wesh poto Track List Tu mets un N, après un A, après un S, après un M, après un E D.L.C Aïe, aïe, aïe On a dit, rien n'est impossible, poto Rien n'est impossible, poto Rien n'est impossible Aïe, aïe, aïe Aïe, aïe, aïe Track List Combinaison Exclusive Daddy Lord C, Nasme C'est pas fini</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Baggy jean berline limousine 4x4 Toyota Histoire de ne pas avoir l'allure que ce coyote a... Vu son état lui ressembler t'es fou ou quoi? Pas me fréquenter c'est ce que ta femme t'as dit? T'a-t-elle dit où elle était un certain mercredi? Pas de gros mots ça peut gâter ma promo avec ça en plus tu peux finir alcoolo Mais ne joue pas avec moi stp au sale colon au salop ici on te brisera le colon... Wé j'apprécie le fric le luxe tu piges Et jme fiche sur moi ce que les gens là disent J'garde le sourire tant que mes gosses me font la bise Et mon équipe mon ter ter tant qu'on tient le jez... T'occupes j'continuerai d'aboyer tant que l'état criminel brûlera nos foyers Vous même vous voyez où que vous soyez dans la rue les loups sont déployés MIEUX VAUT UNE FIN QUI FAIT SOUFFRIR QUE SOUFFRIR EN VAIN UN BUT COURIR QUE COURIR EN VAIN UN VISAGE SOURIRE QUE SOURIRE EN VAIN UN MOT MURIR AVANT DE MOURIR ENFIN... Tu prétends que tu écris dur, mais est ce ton écriture A la hauteur de ce gosse que ses vieux ont décrit pur Parles moi simplement ça me suffit amplement T'auras des compliments du buzz en complément Ce que tu racontes n'a rien à voir en plus ça reste à voir J'suis là car y a à boire et pas se sentir seul le soir Au fait dans ta jeunesse toi t'étais un cassos Pour une histoire de... t'as pété un gars Ce baratin rapporte à faire péter un cable Car quand je t'ai croisé toi t'étais en cabriolet Au fait t'es le dernier que le quartier encadre Et si tu repasses ici on te pliera en quatre En locationvoiture vois ta mère à l'occasion On sait tout ici qui porte le caleçon You might also like MIEUX VAUT UNE FIN QUI FAIT SOUFFRIR QUE SOUFFRIR EN VAIN UN BUT COURIR QUE COURIR EN VAIN UN VISAGE SOURIRE QUE SOURIRE EN VAIN UN MOT MURIR AVANT DE MOURIR ENFIN... OK j'aime le bling bling Pas comme cet homme verreux qui s'estime clean Plutôt le jez le fric quand y a tchin tchin Toujours deuspi toujours car qui dort dîne Un mec à l'ancienne que du rentre dedans La lumière éteinte lorsque tu prends ton temps De la banlieue où le mot c'est prends prends prends Car l'appât du gain est tant tentant La rage du ghetto ce bang bang bang Sirène de police ainsi font font font Un appel de phare et déjà tu te ranges Des mecs en baskets et voilà que tu trembles Ce qui fait que tu mouilles tiens c'est étrange Ce que tu n'oses pas dire ces mots qui t'étranglent Provoques pas un talent fâché Tu boiteras comme cette meuf au talon cassé J'espère que tu sais nager, tu t'y es engagé La peur tu le sais n'évite pas le danger rire HAHA HIHI HOHO !!!!! MIEUX VAUT UNE FIN QUI FAIT SOUFFRIR QUE SOUFFRIR EN VAIN UN BUT COURIR QUE COURIR EN VAIN UN VISAGE SOURIRE QUE SOURIRE EN VAIN UN MOT MURIR AVANT DE MOURIR ENFIN... DADDY LOURDEMENT VÔTRE</t>
+          <t>Baggy jean berline limousine 4x4 Toyota Histoire de ne pas avoir l'allure que ce coyote a... Vu son état lui ressembler t'es fou ou quoi? Pas me fréquenter c'est ce que ta femme t'as dit? T'a-t-elle dit où elle était un certain mercredi? Pas de gros mots ça peut gâter ma promo avec ça en plus tu peux finir alcoolo Mais ne joue pas avec moi stp au sale colon au salop ici on te brisera le colon... Wé j'apprécie le fric le luxe tu piges Et jme fiche sur moi ce que les gens là disent J'garde le sourire tant que mes gosses me font la bise Et mon équipe mon ter ter tant qu'on tient le jez... T'occupes j'continuerai d'aboyer tant que l'état criminel brûlera nos foyers Vous même vous voyez où que vous soyez dans la rue les loups sont déployés MIEUX VAUT UNE FIN QUI FAIT SOUFFRIR QUE SOUFFRIR EN VAIN UN BUT COURIR QUE COURIR EN VAIN UN VISAGE SOURIRE QUE SOURIRE EN VAIN UN MOT MURIR AVANT DE MOURIR ENFIN... Tu prétends que tu écris dur, mais est ce ton écriture A la hauteur de ce gosse que ses vieux ont décrit pur Parles moi simplement ça me suffit amplement T'auras des compliments du buzz en complément Ce que tu racontes n'a rien à voir en plus ça reste à voir J'suis là car y a à boire et pas se sentir seul le soir Au fait dans ta jeunesse toi t'étais un cassos Pour une histoire de... t'as pété un gars Ce baratin rapporte à faire péter un cable Car quand je t'ai croisé toi t'étais en cabriolet Au fait t'es le dernier que le quartier encadre Et si tu repasses ici on te pliera en quatre En locationvoiture vois ta mère à l'occasion On sait tout ici qui porte le caleçon MIEUX VAUT UNE FIN QUI FAIT SOUFFRIR QUE SOUFFRIR EN VAIN UN BUT COURIR QUE COURIR EN VAIN UN VISAGE SOURIRE QUE SOURIRE EN VAIN UN MOT MURIR AVANT DE MOURIR ENFIN... OK j'aime le bling bling Pas comme cet homme verreux qui s'estime clean Plutôt le jez le fric quand y a tchin tchin Toujours deuspi toujours car qui dort dîne Un mec à l'ancienne que du rentre dedans La lumière éteinte lorsque tu prends ton temps De la banlieue où le mot c'est prends prends prends Car l'appât du gain est tant tentant La rage du ghetto ce bang bang bang Sirène de police ainsi font font font Un appel de phare et déjà tu te ranges Des mecs en baskets et voilà que tu trembles Ce qui fait que tu mouilles tiens c'est étrange Ce que tu n'oses pas dire ces mots qui t'étranglent Provoques pas un talent fâché Tu boiteras comme cette meuf au talon cassé J'espère que tu sais nager, tu t'y es engagé La peur tu le sais n'évite pas le danger rire HAHA HIHI HOHO !!!!! MIEUX VAUT UNE FIN QUI FAIT SOUFFRIR QUE SOUFFRIR EN VAIN UN BUT COURIR QUE COURIR EN VAIN UN VISAGE SOURIRE QUE SOURIRE EN VAIN UN MOT MURIR AVANT DE MOURIR ENFIN... DADDY LOURDEMENT VÔTRE</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>C'est comme ça qu'j'fais C'est ça, MC, c'est comme ça qu'j'fais Qui es-tu pour me juger, bourré d'préjugés Dans les jupons d'tes vieux réfugié Parlant fort, poussant ta voix à l'user Sans vouloir abuser, désabusé, faut pas m'refuser D'm'expliquer pourquoi ma haine attisée Comme tous ces délinquants violents, pensant qu'à tiser Parce que j'ai pas sympathisé avec la risée J'veux pas t'baiser XXX s'maîtriser Bordée d'apaiser petit gamin ma mère me le faisait Autour du CD, bref des demoiselles l'ont remplacé Pourvu qu'elles demeurent bien constituées Pour m'enlacer, viens pas m'les casser Avec tes contes, tes histoires d'écolier Rêve d'être prisonniers où des types comme toi prennent des dérouillées Se débrouiller, se battre XXX ma bouche jamais verrouillée Provoquant une femme pour te mener en bateau Un homme costaud qui XXX au premier coup d'couteau L'hiver sans manteau, mon anniversaire sans gâteau Y a pas photo, guette la balafre sur mon pecto' Qui excite les femmes et fait jaser les péquenots You might also like Arrête de parler, d'râler, d'gaver l'charley Entouré d'salauds, tout l'monde sait bien qu't'es qu'un charlot Arrête de parler, d'râler, d'gaver l'charley Entouré d'salauds, tout l'monde sait bien qu't'es qu'un charlot Arrête de parler, d'râler, d'gaver l'charley Entouré d'salauds, tout l'monde sait bien qu't'es qu'un charlot Fais bien d'flipper le rap caille que j'taille, te rattrape pas Des connaissances, un niveau scolaire pas trop mauvais Savoir où je vais, une conscience pour tout c'que j'fais Le rap un forfait consolidant mes rêves en vrai Mêlant l'agréable au désagréable tel un bon spray Pas d'à-peu-près, pour l'action réponds toujours prêt Barbès Marcadet, tu sauras qu'y a pas qu'des cadets Ou qu'des soldats dont l'seul combat, fumer l'bouddha Professionnels dans l'deal ou le vol à l'arraché Si on t'l'a caché, là où circule zedou, poudre en sachet Tellement détachés, vivent des gens aux murs attachées J'vais pas t'lâcher, pour qui t'prends-tu, tu t'es crashé J'vends pas d'eau soluble, produit d'résine, juste un papier Ici on est tous frères même si comme nous, y pas d'brindille Joue pas les bandits, tu XXX kiffes le rap bandit Pareil à mon petit devant une glace au sucre candi Répéter c'que j'dis, faut pas qu'ça devienne une maladie S'ils ont du mal à deux, on dansera sur cette mélodie Arrête de parler, d'râler, d'gaver l'charley Entouré d'salauds, tout l'monde sait bien qu't'es qu'un charlot Arrête de parler, d'râler, d'gaver l'charley Entouré d'salauds, tout l'monde sait bien qu't'es qu'un charlot Arrête de parler, d'râler, d'gaver l'charley Entouré d'salauds, tout l'monde sait bien qu't'es qu'un charlot Fais bien d'flipper le rap caille que j'taille, te rattrape pas Entouré d'salauds, tout l'monde sait bien qu't'es qu'un charlot Combien m'critiquaient, le premier à passer à table À m'traiter d'incapable, peu d'ex, un gros cartable Montaient sur mon diable une fois devant des mecs valables Mon charme devant des femmes, indomptable, puisque indésirable S'imaginant que tout est négociable et monnayable Tant mieux si caillassé t'a vu grandir, rester paresseux Quant à t'moquer d'ceux Dont le destin plus fâcheux, l'avenir capricieux Me pousse pas trop à faire feu, réussir je l'veux Toujours crédible aux yeux de Dieu Ça t'en bouche un coin, un gars d'ma trempe, un type de XXX Les bonnes manières se perdent Tout comme les bons MC pleins d'verbe Arrête de parler, d'râler, d'gaver l'charley Entouré d'salauds, tout l'monde sait bien qu't'es qu'un charlot Arrête de parler, d'râler, d'gaver l'charley Entouré d'salauds, tout l'monde sait bien qu't'es qu'un charlot Arrête de parler, d'râler, d'gaver l'charley Entouré d'salauds, tout l'monde sait bien qu't'es qu'un charlot Bien d'flipper le rap caille que j'taille, te rattrape pas Entouré d'salauds, tout l'monde sait bien qu't'es qu'un charlot Fais bien d'flipper le rap caille que j'taille, te rattrape pas Bien d'flipper le rap caille que j'taille, te rattrape pas</t>
+          <t>C'est comme ça qu'j'fais C'est ça, MC, c'est comme ça qu'j'fais Qui es-tu pour me juger, bourré d'préjugés Dans les jupons d'tes vieux réfugié Parlant fort, poussant ta voix à l'user Sans vouloir abuser, désabusé, faut pas m'refuser D'm'expliquer pourquoi ma haine attisée Comme tous ces délinquants violents, pensant qu'à tiser Parce que j'ai pas sympathisé avec la risée J'veux pas t'baiser XXX s'maîtriser Bordée d'apaiser petit gamin ma mère me le faisait Autour du CD, bref des demoiselles l'ont remplacé Pourvu qu'elles demeurent bien constituées Pour m'enlacer, viens pas m'les casser Avec tes contes, tes histoires d'écolier Rêve d'être prisonniers où des types comme toi prennent des dérouillées Se débrouiller, se battre XXX ma bouche jamais verrouillée Provoquant une femme pour te mener en bateau Un homme costaud qui XXX au premier coup d'couteau L'hiver sans manteau, mon anniversaire sans gâteau Y a pas photo, guette la balafre sur mon pecto' Qui excite les femmes et fait jaser les péquenots Arrête de parler, d'râler, d'gaver l'charley Entouré d'salauds, tout l'monde sait bien qu't'es qu'un charlot Arrête de parler, d'râler, d'gaver l'charley Entouré d'salauds, tout l'monde sait bien qu't'es qu'un charlot Arrête de parler, d'râler, d'gaver l'charley Entouré d'salauds, tout l'monde sait bien qu't'es qu'un charlot Fais bien d'flipper le rap caille que j'taille, te rattrape pas Des connaissances, un niveau scolaire pas trop mauvais Savoir où je vais, une conscience pour tout c'que j'fais Le rap un forfait consolidant mes rêves en vrai Mêlant l'agréable au désagréable tel un bon spray Pas d'à-peu-près, pour l'action réponds toujours prêt Barbès Marcadet, tu sauras qu'y a pas qu'des cadets Ou qu'des soldats dont l'seul combat, fumer l'bouddha Professionnels dans l'deal ou le vol à l'arraché Si on t'l'a caché, là où circule zedou, poudre en sachet Tellement détachés, vivent des gens aux murs attachées J'vais pas t'lâcher, pour qui t'prends-tu, tu t'es crashé J'vends pas d'eau soluble, produit d'résine, juste un papier Ici on est tous frères même si comme nous, y pas d'brindille Joue pas les bandits, tu XXX kiffes le rap bandit Pareil à mon petit devant une glace au sucre candi Répéter c'que j'dis, faut pas qu'ça devienne une maladie S'ils ont du mal à deux, on dansera sur cette mélodie Arrête de parler, d'râler, d'gaver l'charley Entouré d'salauds, tout l'monde sait bien qu't'es qu'un charlot Arrête de parler, d'râler, d'gaver l'charley Entouré d'salauds, tout l'monde sait bien qu't'es qu'un charlot Arrête de parler, d'râler, d'gaver l'charley Entouré d'salauds, tout l'monde sait bien qu't'es qu'un charlot Fais bien d'flipper le rap caille que j'taille, te rattrape pas Entouré d'salauds, tout l'monde sait bien qu't'es qu'un charlot Combien m'critiquaient, le premier à passer à table À m'traiter d'incapable, peu d'ex, un gros cartable Montaient sur mon diable une fois devant des mecs valables Mon charme devant des femmes, indomptable, puisque indésirable S'imaginant que tout est négociable et monnayable Tant mieux si caillassé t'a vu grandir, rester paresseux Quant à t'moquer d'ceux Dont le destin plus fâcheux, l'avenir capricieux Me pousse pas trop à faire feu, réussir je l'veux Toujours crédible aux yeux de Dieu Ça t'en bouche un coin, un gars d'ma trempe, un type de XXX Les bonnes manières se perdent Tout comme les bons MC pleins d'verbe Arrête de parler, d'râler, d'gaver l'charley Entouré d'salauds, tout l'monde sait bien qu't'es qu'un charlot Arrête de parler, d'râler, d'gaver l'charley Entouré d'salauds, tout l'monde sait bien qu't'es qu'un charlot Arrête de parler, d'râler, d'gaver l'charley Entouré d'salauds, tout l'monde sait bien qu't'es qu'un charlot Bien d'flipper le rap caille que j'taille, te rattrape pas Entouré d'salauds, tout l'monde sait bien qu't'es qu'un charlot Fais bien d'flipper le rap caille que j'taille, te rattrape pas Bien d'flipper le rap caille que j'taille, te rattrape pas</t>
         </is>
       </c>
     </row>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>O-o-k, hé Skenawin Music J'ai passé l'âge de m'dire Il faut qu'ça pète Ils voudraient qu'j'la baisse et, du coup, j'hoche la tête Zéro tolérance pour ceux qui pompent la tech' J'fais des intolérances à c'que l'époque accepte J'viens de l'époque poste-cassette Où, si tu bégayes en freestyle, t'es juste une grosse tapette J'suis rentré dans l'game en mode shortclaquettes T'es prévnu et l'bienvenu dans l'Simpl Constat 7 J'rappe, t'as l'impression qu'je pars en guerre J'prends ça au sérieux, y'a rien de marrant, frère J'vois le rap comme un art à part entière Pour moi, c'est comme le vélo prends le bus si tu sais pas en faire Pas d'longues études, j'ai stoppé à temps Pour être diplômé de L'École du micro d'argent Un point commun avec IAM j'te l'explique en chanson On est nés sous la même étoile celle de la Ligue des champions Et j'ai débité pour aller froisser des compil' Et j'ai débuté sur la face B comme Chill Les yeux rouges vifs que toutes les écuries craignent Quand tu m'demandes où j'vis dans la même ville que Shurik'n Et vu qu'hier est plus loin que demain Le troisième il surveille mes arrières quand je crache le venin J'me voyais à Beach Galawa avec une Testarossa J'écoutais la Cliqua, Daddy Lord C, les textes de Rocca Mystik, et j'voulais être le chef, bref, j'fais trop d'tueries à la fois Comme les frères de FF, entre la furie et la foi J'aime pas m'étendre, j'leur fais archi mal, j'fusille Cherche vraiment pas à comprendre, c'est d'la marginale musique Dans le bocal, j'ai des alligators J'ai lié nos rimes avec nos modes de vies hardcore Et, même si ça m'arrange, jamais j'croque avec les faux J'écris mes textes sur mes phalanges et je boxe avec les mots Entouré qu'de gars solides Car plus rien n'va si les gars qui font cet art se niquent Et puis j'te fais légèrement goûter à mon flow, tu trouveras ça sans doute stupide Pas b'soin d'en faire des tonnes, d'en boire des litres, quelques gouttes suffisent La puissance vient du Nord, ça te paraît louche ? Sale vie infecte, le monde est stone, d'mande à Carré rouge J'suis un psychopathe de la rime le roi Mais nul besoin de me faire suivre tant qu'j'suis follow par les Psy 4 de ma ville J'éclaire ma ville, j'suis une menace terrible Issus des ghettos fabuleux, on a fait d'nos bâtiments des halls cains-ri' Comme L'indis, et t'as pigé, que sale quand je crache Si t'es DJ, tu s'ras validé qu'si y'a l'style dans tes scratchs You might also like C'est du classique sans fioriture Culture urbaine mon cul, mon art se nomme R-A-P C'est du classique, ouais Culture urbaine mon cul, mon art se nomme R-A-P C'est du classique sans fioriture Culture urbaine mon cul, mon art se nomme R-A-P C'est du classique, ouais Culture urbaine mon cul, mon art se nomme R-A-P Les connexions sont screds car faut mettre de la ruse Pour devenir un sage poète de la rue Et crois pas qu'j'avance à tâtons comme un père qui rentre de GAV J'écris des lettres à Macron avec l'impertinence de Fabe Et c'est pour ceux qui bougent, les anti-poucaves C'est pour tous nos bougs, tous ceux qui se sentent intouchables Tous soudés car c'est mieux si on s'entraide, sans doute J'suis plus rap qu'RB, beaucoup plus 113 que 112 La prod' est tellement lourde que, par amour, j'pourrais la crosser Faux MC, si tu m'vois dans ton ch'min, wutsi n'drongozé Évite de faire le caïd, surtout si t'es pas équipé Le micro, c'est comme le calibre si tu l'sors, faut pas hésiter Écoutez, ça fait click-click, j'ai plus de balle, c'est dead Mieux vaut être tué par un flic plutôt qu'buté par un frère C'est mon choix, de quoi j'me mêle ? J'préfère mourir d'une balle d'un flic plutôt qu'me prendre deux balles de neg' Tirer par amour ou jalousie J'ai mal au mic quand j'entends le niveau, j'hallucine Mais le combat continue, j'en fais mon idéal Hostile à l'article L.432, j'applique la loi du point final Ouais, tu m'connais quand y'a embrouille Mon expression devient directe car mon esprit part en couilles J'suis dans de drôles d'histoires, négro, je trouve pas ça malsain Selon les khos qui squattent les halls, je suis un assassin Leurs politiques, j'sais pas ce qu'elles valent Du coup, je m'en moque, demande au Doc, j'y nnais-co' que dalle Jamais faire confiance à la parole du président, tout reste à vérifier Car j'sais pas si c'tho-my' m'dira la vérité Eh, eh, faut qu'ces bâtards atterrissent J'suis un rappeur aguerri qui a le hardcore à Kery Sale à la Nubi, du coup, les trois-quarts se font harakiri J'ai la rage comme Faf et Arkana Keny J'fais mon job à plein temps pour qu'ça tourne mieux Mais qu'est-ce, mais qu'est-ce qu'on attend pour foutre le feu? Quarante degrés Celsius, je leur ai mis la fièvre Sous-coté, j'suis un roi sans couronne, j'ai pas gobé la fève J's'rai pas diamant ça, je l'savais Gros, j'suis tellement lourd qu'les spécialistes savent pas où m'caser J'voulais mettre ma rime sur les ondes et puis tous les voir ramper Puis mettre Paris sous les bombes, que le Hip-Hop repose en paix Eh, MC, j'ai pas fini, pourquoi tu t'couches pare-terre ? J'viens faire des bisous baveux avec la langue de Molière J'suis pas d'humeur donc j'laisse courir la rumeur selon laquelle J'suis un sniper qui tire à balles réelles baow J'écris dans ma tête et peu importe le thème J'imagine les mots et mets le fond et la forme en tandem Un gars à la hauteur, c'est rare comme une radio qui joue le jeu Vieux, le temps passe et passe et passe, toujours pas mieux que Couvre-Feu T'entends pas ou quoi ? On parle à la ghetto youth, râle à la ghetto youth Elle, chienne qu'on malmène à la ghetto youth Je dis rien et c'est ça qui les détruit Car le silence n'est pas un oubli mais le meilleur des mépris Eh ouais, mon son te met la pression donc ton mauvais il me fixe À ce problème, j'trouverai solution, t'inquiète, quelles que soient les X J'garde la mentale d'un buteur Pour pas être classé mal comme X dans l'alphabet mais être un king comme Martin Luther Et t'es jamais déçu, eh ouais, poto, j'suis loin Si loin que je n'entends même plus l'instru' Mais j'suis jamais a capella, d'mande à Dinos, j'les laisse en pleurs Quand j'prends l'micro, les MC flippent, j'rappe sur les battements de leur cur C'est du classique sans fioriture Culture urbaine mon cul, mon art se nomme R-A-P C'est du classique, ouais Culture urbaine mon cul, mon art se nomme R-A-P C'est du classique sans fioriture Culture urbaine mon cul, mon art se nomme R-A-P C'est du classique, ouais Culture urbaine mon cul, mon art se nomme R-A-P R-A-P, R-A-P, R-A-P, R-A-P, R-A-P, R-A-P, R-A-P, R-A-P, R-A-P R-A-P, R-A-P, R-A-P, R-A-P, R-A-P, R-A-P, R-A-P, R-A-P, R-A-P R-A-P, R-A-P, R-A-P, R-A-P, R-A-P, R-A-P, R-A-P, R-A-P, R-A-P R-A-P, R-A-P, R-A-P, R-A-P, R-A-P, R-A-P, R-A-P, R-A-P, R-A-P1</t>
+          <t>O-o-k, hé Skenawin Music J'ai passé l'âge de m'dire Il faut qu'ça pète Ils voudraient qu'j'la baisse et, du coup, j'hoche la tête Zéro tolérance pour ceux qui pompent la tech' J'fais des intolérances à c'que l'époque accepte J'viens de l'époque poste-cassette Où, si tu bégayes en freestyle, t'es juste une grosse tapette J'suis rentré dans l'game en mode shortclaquettes T'es prévnu et l'bienvenu dans l'Simpl Constat 7 J'rappe, t'as l'impression qu'je pars en guerre J'prends ça au sérieux, y'a rien de marrant, frère J'vois le rap comme un art à part entière Pour moi, c'est comme le vélo prends le bus si tu sais pas en faire Pas d'longues études, j'ai stoppé à temps Pour être diplômé de L'École du micro d'argent Un point commun avec IAM j'te l'explique en chanson On est nés sous la même étoile celle de la Ligue des champions Et j'ai débité pour aller froisser des compil' Et j'ai débuté sur la face B comme Chill Les yeux rouges vifs que toutes les écuries craignent Quand tu m'demandes où j'vis dans la même ville que Shurik'n Et vu qu'hier est plus loin que demain Le troisième il surveille mes arrières quand je crache le venin J'me voyais à Beach Galawa avec une Testarossa J'écoutais la Cliqua, Daddy Lord C, les textes de Rocca Mystik, et j'voulais être le chef, bref, j'fais trop d'tueries à la fois Comme les frères de FF, entre la furie et la foi J'aime pas m'étendre, j'leur fais archi mal, j'fusille Cherche vraiment pas à comprendre, c'est d'la marginale musique Dans le bocal, j'ai des alligators J'ai lié nos rimes avec nos modes de vies hardcore Et, même si ça m'arrange, jamais j'croque avec les faux J'écris mes textes sur mes phalanges et je boxe avec les mots Entouré qu'de gars solides Car plus rien n'va si les gars qui font cet art se niquent Et puis j'te fais légèrement goûter à mon flow, tu trouveras ça sans doute stupide Pas b'soin d'en faire des tonnes, d'en boire des litres, quelques gouttes suffisent La puissance vient du Nord, ça te paraît louche ? Sale vie infecte, le monde est stone, d'mande à Carré rouge J'suis un psychopathe de la rime le roi Mais nul besoin de me faire suivre tant qu'j'suis follow par les Psy 4 de ma ville J'éclaire ma ville, j'suis une menace terrible Issus des ghettos fabuleux, on a fait d'nos bâtiments des halls cains-ri' Comme L'indis, et t'as pigé, que sale quand je crache Si t'es DJ, tu s'ras validé qu'si y'a l'style dans tes scratchs C'est du classique sans fioriture Culture urbaine mon cul, mon art se nomme R-A-P C'est du classique, ouais Culture urbaine mon cul, mon art se nomme R-A-P C'est du classique sans fioriture Culture urbaine mon cul, mon art se nomme R-A-P C'est du classique, ouais Culture urbaine mon cul, mon art se nomme R-A-P Les connexions sont screds car faut mettre de la ruse Pour devenir un sage poète de la rue Et crois pas qu'j'avance à tâtons comme un père qui rentre de GAV J'écris des lettres à Macron avec l'impertinence de Fabe Et c'est pour ceux qui bougent, les anti-poucaves C'est pour tous nos bougs, tous ceux qui se sentent intouchables Tous soudés car c'est mieux si on s'entraide, sans doute J'suis plus rap qu'RB, beaucoup plus 113 que 112 La prod' est tellement lourde que, par amour, j'pourrais la crosser Faux MC, si tu m'vois dans ton ch'min, wutsi n'drongozé Évite de faire le caïd, surtout si t'es pas équipé Le micro, c'est comme le calibre si tu l'sors, faut pas hésiter Écoutez, ça fait click-click, j'ai plus de balle, c'est dead Mieux vaut être tué par un flic plutôt qu'buté par un frère C'est mon choix, de quoi j'me mêle ? J'préfère mourir d'une balle d'un flic plutôt qu'me prendre deux balles de neg' Tirer par amour ou jalousie J'ai mal au mic quand j'entends le niveau, j'hallucine Mais le combat continue, j'en fais mon idéal Hostile à l'article L.432, j'applique la loi du point final Ouais, tu m'connais quand y'a embrouille Mon expression devient directe car mon esprit part en couilles J'suis dans de drôles d'histoires, négro, je trouve pas ça malsain Selon les khos qui squattent les halls, je suis un assassin Leurs politiques, j'sais pas ce qu'elles valent Du coup, je m'en moque, demande au Doc, j'y nnais-co' que dalle Jamais faire confiance à la parole du président, tout reste à vérifier Car j'sais pas si c'tho-my' m'dira la vérité Eh, eh, faut qu'ces bâtards atterrissent J'suis un rappeur aguerri qui a le hardcore à Kery Sale à la Nubi, du coup, les trois-quarts se font harakiri J'ai la rage comme Faf et Arkana Keny J'fais mon job à plein temps pour qu'ça tourne mieux Mais qu'est-ce, mais qu'est-ce qu'on attend pour foutre le feu? Quarante degrés Celsius, je leur ai mis la fièvre Sous-coté, j'suis un roi sans couronne, j'ai pas gobé la fève J's'rai pas diamant ça, je l'savais Gros, j'suis tellement lourd qu'les spécialistes savent pas où m'caser J'voulais mettre ma rime sur les ondes et puis tous les voir ramper Puis mettre Paris sous les bombes, que le Hip-Hop repose en paix Eh, MC, j'ai pas fini, pourquoi tu t'couches pare-terre ? J'viens faire des bisous baveux avec la langue de Molière J'suis pas d'humeur donc j'laisse courir la rumeur selon laquelle J'suis un sniper qui tire à balles réelles baow J'écris dans ma tête et peu importe le thème J'imagine les mots et mets le fond et la forme en tandem Un gars à la hauteur, c'est rare comme une radio qui joue le jeu Vieux, le temps passe et passe et passe, toujours pas mieux que Couvre-Feu T'entends pas ou quoi ? On parle à la ghetto youth, râle à la ghetto youth Elle, chienne qu'on malmène à la ghetto youth Je dis rien et c'est ça qui les détruit Car le silence n'est pas un oubli mais le meilleur des mépris Eh ouais, mon son te met la pression donc ton mauvais il me fixe À ce problème, j'trouverai solution, t'inquiète, quelles que soient les X J'garde la mentale d'un buteur Pour pas être classé mal comme X dans l'alphabet mais être un king comme Martin Luther Et t'es jamais déçu, eh ouais, poto, j'suis loin Si loin que je n'entends même plus l'instru' Mais j'suis jamais a capella, d'mande à Dinos, j'les laisse en pleurs Quand j'prends l'micro, les MC flippent, j'rappe sur les battements de leur cur C'est du classique sans fioriture Culture urbaine mon cul, mon art se nomme R-A-P C'est du classique, ouais Culture urbaine mon cul, mon art se nomme R-A-P C'est du classique sans fioriture Culture urbaine mon cul, mon art se nomme R-A-P C'est du classique, ouais Culture urbaine mon cul, mon art se nomme R-A-P R-A-P, R-A-P, R-A-P, R-A-P, R-A-P, R-A-P, R-A-P, R-A-P, R-A-P R-A-P, R-A-P, R-A-P, R-A-P, R-A-P, R-A-P, R-A-P, R-A-P, R-A-P R-A-P, R-A-P, R-A-P, R-A-P, R-A-P, R-A-P, R-A-P, R-A-P, R-A-P R-A-P, R-A-P, R-A-P, R-A-P, R-A-P, R-A-P, R-A-P, R-A-P, R-A-P1</t>
         </is>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Bien des victoires méritent honte, silence, sourdine et panier J'nie pas, j'panique pas le rap fané nique pas le raffiné Femmes et fans s'enflamment pour des tempos bateaux mal peaufinés Ma gueule j'l'ouvre je l'affirme me vide car je l'avoue je l'ai fine Quand depuis des lustres beaucoup se sont saignés pour être signés Des bacs consignés pourtant du rap les plus conseillés Les cons ça y est s'agitent ça jure à croire singerie injure Domineront un jour franchise qualité une fatalité j'pense pas Un manque de maturité ouais Endurant, dur au mal j'durcis la procédure Je sais que c'est dur de garder espoir quand certains sûrs d'eux au moins un sur deux Se servent du rap façon Sardou pour parler de rue du jamais vu Connus ni d'Adam ni d'Eve la question s'pose tous ceux-là sortent d'où ? Bien que j'en sois mordu ce rap me dégoûte dessus je broute Comme dit l'autre chacun sa route chacun son chemin moi j'prends le mien J'donne pas mon boule, je reste net, j'm'efforce qu'on me respecte Et là-dessus gamin J'y mets un point d'honneur... Respect oblige... Respect oblige... Décale ! Décampe ! Tire-toi ! Béou ! Bouge je changerai pas de camp Combien ? même frime filles ou flouze tombent en même temps Tu m'en diras tant, je veux aucunement ressembler à un de ces gens Plein de faux-semblant, vivant des cancans Comptant sur les autres dans le caca J'apprécie, j'préfère encore de loin comme tu dis cette racaille sans l'sou Prête à tout, tout le temps saoule parlant sans cesse de palabres et de dessous Déçu de ça ? j'm'en bats en déblatérant un rap vétérans de chien errant Pas d'un rat invétéré qui vit en se terrant Prêt à lourder frères et daronnes pour que l'embrouille se fasse enterrer Mon son un clairon éclairant, ceux qui se reconnaîtront se tairont La réussite qu'est ce que tu crois ? pourquoi je suis là, bien sûr je ne pense qu'à ça J'mets le paquet, froisse, ma côte croisse quitte à bouffer l'pain rassis Qu'un raciste réussisse l'assemblée se réunisse à faire en sorte que j'me retrouve à Roissy J'mens pas j'donne pas mon boule j'reste net, j'm'efforce qu'on me respecte Et là-dessus gamin, là-d'ssus gamin J'y mets un point d'honneur... Respect oblige... Respect oblige... Respect oblige... You might also like Chaque jour que Dieu fait j'essaie de faire en sorte que ça le fasse Que ça se passe, qu'il y ait pas de casse, bien que j'ai pas de cash en sport pro mais sans le fric de pat cash J'cache pas je cherche le pascal faut pas que je cale donc j'me tue à la tâche pour fuir la misère Ça m'prend des heures d'trouver un plan à ma mesure qui m'assure fromage et dessert Mon désir mon souhait un kaiser, un prince des tunes un brasseur J'rêve c'est rasoir, en attendant j'travaille mes méninges, ménage ni les gars ni le son sur lequel j'me lâche et je lynche Car j'apprécie luxe et beaux linges de jouer j'ai plus l'âge C'qui me botte voir mon blase devenir plus large Marre d'être en marge donc corrige soigne marginalise moins mon image Être connu ou me faire connaître en tant que poète de mec honnête Moi je regrette tout le mal, le crime sale que j'ai pu commettre J'voudrais pas que mon gosse voie qu'il possède un père malhonnête Y'a pas de quoi être fier Façon j'me fie à mon étoile Allah ma comète Qu'on me mette aux Baumettes, Fleury, Fresnes, la Santé J'reste net j'm'efforce qu'on me respecte, j'donne pas mon boule Et là-dessus gamin, là-dessus gamin J'y mets un point d'honneur Respect oblige Respect oblige Respect oblige La Cliqua y met un point d'honneur Respect oblige Section Camouflage, Gallegos, S, Noï Y mettent un point d'honneur Respect oblige Respect oblige Dallas y met un point d'honneur Les Dalton y mettent un point d'honneur Wrung Division y met un point d'honneur Respect oblige Respect oblige J'y mets un point d'honneur</t>
+          <t>Bien des victoires méritent honte, silence, sourdine et panier J'nie pas, j'panique pas le rap fané nique pas le raffiné Femmes et fans s'enflamment pour des tempos bateaux mal peaufinés Ma gueule j'l'ouvre je l'affirme me vide car je l'avoue je l'ai fine Quand depuis des lustres beaucoup se sont saignés pour être signés Des bacs consignés pourtant du rap les plus conseillés Les cons ça y est s'agitent ça jure à croire singerie injure Domineront un jour franchise qualité une fatalité j'pense pas Un manque de maturité ouais Endurant, dur au mal j'durcis la procédure Je sais que c'est dur de garder espoir quand certains sûrs d'eux au moins un sur deux Se servent du rap façon Sardou pour parler de rue du jamais vu Connus ni d'Adam ni d'Eve la question s'pose tous ceux-là sortent d'où ? Bien que j'en sois mordu ce rap me dégoûte dessus je broute Comme dit l'autre chacun sa route chacun son chemin moi j'prends le mien J'donne pas mon boule, je reste net, j'm'efforce qu'on me respecte Et là-dessus gamin J'y mets un point d'honneur... Respect oblige... Respect oblige... Décale ! Décampe ! Tire-toi ! Béou ! Bouge je changerai pas de camp Combien ? même frime filles ou flouze tombent en même temps Tu m'en diras tant, je veux aucunement ressembler à un de ces gens Plein de faux-semblant, vivant des cancans Comptant sur les autres dans le caca J'apprécie, j'préfère encore de loin comme tu dis cette racaille sans l'sou Prête à tout, tout le temps saoule parlant sans cesse de palabres et de dessous Déçu de ça ? j'm'en bats en déblatérant un rap vétérans de chien errant Pas d'un rat invétéré qui vit en se terrant Prêt à lourder frères et daronnes pour que l'embrouille se fasse enterrer Mon son un clairon éclairant, ceux qui se reconnaîtront se tairont La réussite qu'est ce que tu crois ? pourquoi je suis là, bien sûr je ne pense qu'à ça J'mets le paquet, froisse, ma côte croisse quitte à bouffer l'pain rassis Qu'un raciste réussisse l'assemblée se réunisse à faire en sorte que j'me retrouve à Roissy J'mens pas j'donne pas mon boule j'reste net, j'm'efforce qu'on me respecte Et là-dessus gamin, là-d'ssus gamin J'y mets un point d'honneur... Respect oblige... Respect oblige... Respect oblige... Chaque jour que Dieu fait j'essaie de faire en sorte que ça le fasse Que ça se passe, qu'il y ait pas de casse, bien que j'ai pas de cash en sport pro mais sans le fric de pat cash J'cache pas je cherche le pascal faut pas que je cale donc j'me tue à la tâche pour fuir la misère Ça m'prend des heures d'trouver un plan à ma mesure qui m'assure fromage et dessert Mon désir mon souhait un kaiser, un prince des tunes un brasseur J'rêve c'est rasoir, en attendant j'travaille mes méninges, ménage ni les gars ni le son sur lequel j'me lâche et je lynche Car j'apprécie luxe et beaux linges de jouer j'ai plus l'âge C'qui me botte voir mon blase devenir plus large Marre d'être en marge donc corrige soigne marginalise moins mon image Être connu ou me faire connaître en tant que poète de mec honnête Moi je regrette tout le mal, le crime sale que j'ai pu commettre J'voudrais pas que mon gosse voie qu'il possède un père malhonnête Y'a pas de quoi être fier Façon j'me fie à mon étoile Allah ma comète Qu'on me mette aux Baumettes, Fleury, Fresnes, la Santé J'reste net j'm'efforce qu'on me respecte, j'donne pas mon boule Et là-dessus gamin, là-dessus gamin J'y mets un point d'honneur Respect oblige Respect oblige Respect oblige La Cliqua y met un point d'honneur Respect oblige Section Camouflage, Gallegos, S, Noï Y mettent un point d'honneur Respect oblige Respect oblige Dallas y met un point d'honneur Les Dalton y mettent un point d'honneur Wrung Division y met un point d'honneur Respect oblige Respect oblige J'y mets un point d'honneur</t>
         </is>
       </c>
     </row>

--- a/data/02_intermediate/cleaned_Daddy_Lord_C_songs.xlsx
+++ b/data/02_intermediate/cleaned_Daddy_Lord_C_songs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,17 +436,27 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>GeniusName</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Lyrics</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>GeniusName.1</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Artist</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Title</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Lyrics</t>
         </is>
       </c>
     </row>
@@ -458,12 +468,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Un dernier jour sur terre</t>
+          <t>Ce que la rue te donne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Janvier - 0101 Veence Hanao - Saint-Idesbald - 0901 Sexion d'Assaut - Les Chroniques du 75 1201 La Swija - Au sourire levant 1401 Sofiane - La vie de cauchemar - 1801 Mysa - Enfermé dehors, jamais libre 1901 Lesly Ja - Black album 1901 Taïro - Churs et âme 2401 La K-Bine - Légitime défense 2601 Artistes multiples - 59 Hostile 2601 Al Peco - Clandestines Connexions vol 1 2601 ATK - Hommage à Fredy K 2601 Brakage - La rue est vers l'or 2601 El Kebir - Avec tous mes frères 2601 Kamnouze - Sensations Suprêmes 2601 LCC - Le chant du crime 2601 Leeroy - African trip 2601 Sinistre - Historik 2801 Medjo - Feuilles mortes 3001 Fatale Clique - Réussir ou crever Février 0202 Babass - Brûlé dans l'âme 0902 Kennedy - Cicatrice - 1602 Orelsan - Perdu d'avance 1602 Pit Baccardi - Juste Moi 1602 Puissance Rap - Spécial Rap Francais 2009 - 1602 Casey Hamé Zone Libre - L'Angle Mort - 2302 Scred Connexion - Ni vu Ni connu - 2302 La Fouine - Mes Repères XX02 LMC Click - Trop Parler Peut Dead Mars 0203 Alonzo - Un dernier coup dil dans le rétroviseur 0803 Black Barbie - Barbieturique 0803 Mac Kregor - Autarcie 0903 Alibi Montana - Sur le terre terre 1003 Black Kent - Le Scalpel Vol. 1 1603 Kayline - Bravoure, respect et famille 1603 Seth Gueko - Camping sauvage 2303 DJ Goldfinger DJ Lord Chamy - Les yeux dans la banlieue vol.2 - 2303 Oxmo Puccino - L'arme de Paix 3003 Antidote V-1.0 - Soins intensifs 3003 Nessbeal - Street album XX03 Bazooka - Misère ou fortune Avril 0104 Kema - Le rap me porte Mixtape 0304 Stress - Des Rois, Des Pions Et Des Fous 0504 Hugo TSR - La salle d'attente 0604 AK93 - Aulnay 0604 Le 3ème il - Anthologie Mixtape 0604 AP - Discret 0604 Lord Kossity - Le best of 0604 Playad - Dernier royaume 0604 Zoxea - Le Meilleur de Zoxea 1004 Le Brigadier - Etat d'urgence 1304 L'Algérino - Effet miroir 1404 Dmo - Mine de Rien 1404 Gued'1 - Sur le coup 1404 Manu Key - Collector 1404 M.A.P - Les bronzés font du ch'ti 1604 1Kizition - D'hier à aujourd'hui 1604 Manu Key - Collector 2004 Joe Lucazz, ILL Cross - So parano 2004 Les Frères De La Rue - L'école ou la barette 2004 Nessbeal - RSC sessions perdues 2004 Psy 4 de la Rime - Autour des cités d'or 2004 Shone - Association de malfaiteurs vol 1 2104 Ades - Chasse à l'homme 2 2704 Empathik - 8 clos 2704 Moubaraka - Déterminé avant l'album 2704 Rockin'Squat - Confessions d'un Enfant du Siècle Vol.2 2704 Stress - Entre deux mondes XX04 Ekoué et Le Bavar - Nord Sud Est Ouest Vol.2 XX04 Explicit Politik - Volume 2 - 2704 - Kery James - Réel 2704 Artistes multiples - 93 Seine Saint Denis compilation Mai 0205 Larsen - Arme de guerre Algérienne 0405 Rma2n - 95 Val d'Oise Thugz - 0405 Seth Gueko - La chevalière - 0405 Sexion d'Assaut - L'Écrasement de tête 1105 Talents Fachés 4 1205 400 Hyènes - L'esprit du clan 1305 Six Coups Mc - Un pied dans la lumière 1805 Carpe Diem - Notre silence a toujours son mot à dire 1805 Co-Errance - Next level 1805 Epsilon - Ghetto soldier - 2305 Disiz - Disiz The End 2505 El Matador - Au clair du bitume 2505 Fossoyeur - Mauvais jour 2505 Kheimer - Les balles tombent du ciel 2505 Krimeur - La passion du crime 2505 Le Klub des 7 - La Classe de Musique 2505 Les Fères Sy - Coup d'Etat 2505 Mala - Himalaya 2505 RP Records - Sous haute tension vol.2 2505 Synkronic Musik - Punchline Street Beat Show 2605 Baala - Prototype 2605 Effi Ello - Entretien avec un MC 2705 Kiddam - La toile de Pénélope 2905 LK de l'Hotel Moscou - Tha Springbreak Mixtape XX05 Himalaya - Hymne à la rue XX05 LIM Meiday - Combinaison dangereuse XX05 Nehrvy - Echantillon Korozif XX05 S.Killa - Katrina XX05 You-K-Off - L'oubli pour mémoire Juin 0106 Humphrey - Mon 6TM 0206 Casus Belli - Para Bellum street album 0206 LIM et Zeler - Evolution urbaine 0206 Samat - La douleur du bitume 0206 Sofiane - La vie de cauchemar 0806 Singuila - Ca fait mal 0806 Sola - L'1nsolant - 1506 Alkpote - La crème du 91 1506 Bisso Na Bisso - Africa - 1506 Demi Portion - 8 titres et demi 1506 Les Grandes Gueules - Au paradis d'enfer 1506 Révolution Urbaine - Lhistoire ne fait que commencer 1606 AL Peco - Clandestines Connexions Vol 2 1606 Les Associés - 1er avertissement 1606 S'Co - Soldat Comorien 2206 Farage - La voix des oubliés 2206 H Magnum - Rafales 2206 Kamelancien - Ghettoghaphie 2 2306 Rim'K - Maghreb United 2306 Booba - Les Inédits Autopsie 2906 Booba - Autopsie Vol.3 Mixtape - 3006 Scylla - Immersion EP XX06 Mac Tyer - D'ou je viens réédition Juillet 0307 Taipan - Afpan Saison 1 - 0607 IAM - Galaxie Compilaton Août 3108 Joke - Prêt pour l'argent Septembre 0709 La Canaille - Une goutte de Miel dans un litre de Plomb 2109 Dry - Les derniers seront les premiers - 2209 Alain 2 L'Ombre - Avant la prophétie - 2809 Salif - Curriculum Vital XX09 L'Ami Midha - Hard level XX09 Casus Belli - Cas de guerre XX09 Alino - De La Poudre Au Rap 2 Octobre - 0110 Kacem Wapalek - Street Tape n1 0510 Stone Black - Mort pour mort, on s'tue - 1210 Youssoupha - Sur les chemins du retour 1310 Beli Blanco - Blanc album 1310 Beuz - Seulement une plume pour me donner des ailes 1310 Fik's P.Kaer - Le Kartier général 1510 Kyokiro - Ennemi de la patrie - 1810 Nakk - Le monde est mon pays XX10 Gaïden - Dinologie Vol.2 Novembre - 0211 Kool Shen - Crise de conscience - 0911 Grain 2 Caf - Thomas Traoré 1611 Diam's - SOS - 1911 Fayçal - Secrets de l'oubli 2311 B-La - Pourquoi tu pleures ? - 2311 Médine - On peut tuer un révolutionnaire mais pas la révolution EP - 2311 VII - Le Grand Chaos - 3011 Sinik - Ballon d'or Décembre 0712 Black Marché - French Connection 1912 Taipan - Punchliner Mixtape 2212 La Comera - Boyz in the hood Dates non connues 3010 - NEMO-TAPE 6Fa - Cicatrice de guerre 9.2 Prodige - LOrage avant la Tempête Béné - Premier album Blacko - Enfant du Soleil Breece-lu - Étrange partie Chodo - Ma part d'ombre Cid Youssef - Ecoute ma hood Reloaded Clan.do - Entre 2 monde Daddy Lord C - Pas là pour rien Maxi Falcko - Conte 2 Tess Ghetto Youss - Nouvelle Marque Hdisign - Born to fly Heckel Geckel - 1er album K-sur - K-suspect K.ommando Toxik - Première salve Kazkami - Skazophrene L'Hexaler - L'Hexalourd Le prologue L'Or du Silence - Xplosif Le 3ème Oeil - Indomptable Lexro - Propagande music Lyricalchimie - Xxperience Mixtape Mystik - Magnitude 9 X-Men - Jeunes coupables et libres Réédition7</t>
+          <t>Ouais, prends garde à toi MC Fais gaffe, tourne pas le dos MC, prends garde à toi Prends garde à toi MC Fais gaffe, tourne pas le dos Fais gaffe, fais gaffe C'est fou comment l'argent, les gens, même toi as plutôt changé Depuis que je te vois manger sous prétexte que tu t'es rangé Néglige de te venger Bataille clairement au moindre danger Combien d'affreux ramassé à la petite cuillée Pas grâce à toi, même pour l'honneur dépouiller Tu fuyais, craignant que la police vienne t'ennuyer Après qui on retrouve vantant les quartiers chaud au mois de juillet? Dans le domaine du courage, si l'on te paye, plus on me paye À croire qu'un bon flow, du baratin ça fait des merveilles Évidemment dans ton attitude, t'as pas ton pareil Mais gare au réveil, sort de sa bouteille Moët Chandon, Black White, d'la cité Pure sans puls-cru d'la rue, rien qu'la qualité Toute l'année t'es invité, pas seulement un son pour l'été Gamin en VTT, lascar en BMW Ramène ton pé-pé Kiffe ma dope comme dit Gué-gué Pas une raison j'offre a tout le monde le pot de l'amitié Aucune pitié que tu sois pauvre ou plein de liquidités Chacun son tour, j'attendrai pas, pour te faire la peau Ce que la rue te donne peut te le reprendre a tout bout de champ x3 Renie ton quartier, sous prétexte au bras une montre Cartier Langage de charretier, slang, l'argot extraverti Lequel avec dans les party tu faisais la sère-mi En l'occurrence, trémousser, les immigrés, tes amis M'sieur joue les mondains Depuis qu'il est devenu quelqu'un Il y en a plus d'un, qui rêve de te briser les reins Mais ça ne fait rien, ça te fait rien, m'sieur boit du vin Porte du lin, manque pas d'compagnie pour les câlins Faut dire avant tu mangeais des pâtes, aujourd'hui t'es fat Vas pouvoir enfin soulager ta rate gaver de tsap Ta famille tu t'en tapes, ce qui compte, l'argent entre tes mains moites Des nouvelles connaissances, celles qu'on rencontre qu'en boite Tu t'en fiches, soit ! Après traite pas la vie d'ingrate Tout ça parce que tu racles, quand chez toi débarque les hommes en cravate Ou l'on te savate, t'as pas voulu partager Seul tu as mangé, seul garçon tu vas plonger Que toi pour regretter ou reculer, même y songer Se venger, contente-toi ton sang de l'éponger Chacun son tour, j'attendrai pas, pour te faire la peau Ce que la rue te donne peut te le reprendre à tout bout de champ x3 T'étonne pas si dorénavant, l'on te passe un savon Puisque auparavant, avec tes gars tu traînais souvent Fidèle d'ailleurs comptant qui te le prouve a tout moment Vu ton quartier solidaire en concert sans cesse en mouvement Maintenant exactement, que deviennent ces lieutenants Que deviennent ceux qui mirent a ton service leur côté violent Ose attendre pour autant d'l'argent un geste galant Mais qu'à présent, tu arbores les rues cigare au volant Prétentieux, pourquoi faisais du boucan de délinquant Pousse pas l'bouchon trop loin, elle t'aime, je sais, mais gare au volcan Ce que la rue te donne peut te le reprendre à tout bout de champ C'n'est pas tout le monde que tu corromps avec un billet de 500 Même au fin fond de ma banlieue où coule le bon son Ou voulait une profession banale comme d'autre une fonction Quel que soit le dilemme, la situation aucune délation Trahison dépit des exactions Commises par le crew Autant finir sous les verrous Six pieds sous terre au cimetière couché au fond d'un trou Que ça ne vaille ou pas l'coup, je lâche pas mes gars malgré tout Je laisse ça aux autres, tant pis pour moi si je me vautre Chacun son tour mais j'attendrai pas pour te faire la peau Ce que la rue te donne peux te le reprendre à tout bout de champ Chacun son tour, j'attendrai pas, pour te faire la peau Ce que la rue te donne peut te le reprendre à tout bout de champ x4 Ce que la rue te donne peut te le reprendre à tout bout de champ A tout bout de champ</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Daddy Lord C</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Daddy Lord C</t>
         </is>
       </c>
     </row>
@@ -475,12 +495,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Freaky Flow 1995 Remix</t>
+          <t>Fais-le bien</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Suzie était une fille du genre de celles qui rassasient Aussi bien montée, compacte qu'un pistolet Uzi Uzi, te fais pas d'souci c'coup-ci pas d'homicide Cette meuf parmi les autres elle fait office d'insecticide La rencontre s'effectua un mardi dans une party Pleine à craquer qu'on se serait cru un samedi à Darty J'avertis, avec ou sans képi je m'incruste rect-di Tout de suite la voici sexy qui occupe mon esprit Ses jambes, fines, belles, bonnes, longues, rondes, dodues, jolies La fin je passe dessus dans l'unique but de rester poli Elle débarque dans ma vie comme un coup de fusil à pompe Tout ça pour vous dire je cirai même ses pompes Le D-a-d-y, la grosse pointure, le dur, le totem Coincé tel un gosse, un gamin le jour de son baptême J'avais le freaky flow freaky freaky flow x2 Freaky, freaky, freaky freaky flow freaky flow Freaky, freaky, freaky freaky flow freaky flow Freaky, freaky, freaky freaky flow freaky flow Freaky, freaky, freaky freaky flow Remplie de gaz, pleine de faces et faux airs d'enfant sage Je bousille ton courage, te forçant à tourner la page Suffit que tu te fâches, qu'elle perde son sourire aux lèvres Que veux-tu que je réponde à part que moi même j'avais la fièvre ? Elle disait toujours non pour ce qui est de rendre un homme content Ceci étant pour tout dépense vainement mon argent comptant Sac à main, veste chic, chaussures en croco Elle m'a quitté illico pour rejoindre un toxico Ca m'apprendra à jouer les timides, les tendres, les Bell Biv DeVoe Cest mon talon dAchille, ma faiblesse, mon défaut Elle se la raconte trop, vraiment, pour ce qu'elle vaut J'avais sous-estimé son vice de haut niveau x2 Suzie n'arrêtait pas de commettre des bêtises Cela constituait son trip, son pied, sa hantise Je ne comptais pas prendre une décision hâtive Mais au rythme, mouvement, à la façon dont les choses s'activent Il faut agir, ce problème s'éternise Je reste, demeure un homme d'action qu'on se le dise Le D-a-d-y L-o-r-d C te brise Suzie l'a saisi pour sa plus grande surprise Doucement, lentement, je m'impose pour qui ose Sous prétexte davoir avalé des Cheerios Nuire à mon business qu'est le rap, la fesse Pas de politesse en ce qui concerne le sexe Le calme, le pardon à d'autres je les laisse Foncer, se dépenser, s'enfoncer, s'élancer Lancer en français du sensé bien pensé Voici l'odyssée, le Calypso de mes pensées Bonnes ou mauvaises, lascar mets-toi à l'aise J'apaise le malaise qui pèse car en gros J'annonce la couleur, indique la météo Le Maître Capello des lettres et des mots Avait le freaky freaky freak, le freaky flow Freaky, freaky, freaky flow x3 Yo, pour La Cliqua ! Freaky Flow remix , dans la place ! C'est comme ça que ça se passe !</t>
+          <t>V'là la lame dans ta shoes, le soleil quand t'as chaud La rébellion, le coup d'état, le fusil d'assaut Ça fait un bout d'temps, qu'tu m'as pas pas entendu J'ai rien perdu, j'ai l'flow, bien entendu J'apparais pas pour faire le rigolo Je laisse aux autres de vendre pour du dombolo Je respecte mon boulot, avec ou sans promo Rimer, le faire bien, en plus sans trop de gros mots Représenter cet amour qui t'embrasse tendrement Dire qu'notre avenir au quartier, on l'voit autrement J'me lève comme toi, tous les matins Affamé, voire pitbull, tous les matins Un vrai dog, un vrai thug, un Lounès Matoub Je l'dis aux cons on veut péter ma couv' Beaucoup m'approuvent, toi-même tu t'y retrouves, gros Le MC, si tu l'fais, fais-le bien T'étonne pas après si ce cercueil, c'est le tien La vérité si tu la dis, dis-la bien Qu'on t'compte toujours parmi ceux dont on dit du bien Mon nom si tu l'écris, écris-le bien Tu seras jamais le dernier, à l'esprit qui nous viens Le quartier, tu l'décris, décris-le bien Ne mets pas en valeur que les bons à rien Je viens toucher le monde, c'est une mise à l'amende Verre de thé à la menthe en voiture allemande Je suis pas à la mode XXX loin d'là La loi du bitume, la rue, je viens d'là Avec les putes, les flics et tout c'qui vient d'là Qu'il y ait une descente, qu'on me descende L'essentiel pour chacun, qu'la balle soit remise au centre Je perds pas mon temps, j'ai choisi mon camp, toi ton boucan Que mes gosses tiennent un bouquin Oublie-moi si des principes, t'en as aucun Qu'tu t'sens mal si je suis jaune, noir ou encore Marocain Compte tenu que le bruit tourne, la vie continue Mais une chose surveille ton langage si on continue Ici on a d'quoi te faire grimper aux rideaux Que tu fugues comme sur ce poulet dans ton frigo Le MC, si tu l'fais, fais-le bien T'étonne pas après si ce cercueil, c'est le tien La vérité si tu la dis, dis-la bien Qu'on t'compte toujours parmi ceux dont on dit du bien Mon nom si tu l'écris, écris-le bien Tu seras jamais le dernier, à l'esprit qui nous viens Le quartier, tu l'décris, décris-le bien Ne mets pas en valeur que les bons à rien À quoi veux-tu ressembler, à un gars qui fait semblant Plein de faux-semblants, uzi même sans plan Ça devient à la mode de devenir un hustler Franchement entre nous, est-ce le moment, est-ce l'heure La vie qu'tu mènes ne sera jamais un best-seller Même si t'as pas en paix ces nerfs et dans le vol tu persévères Consomme pas ces merdes, ça nous convient pas c'est mort Je cours pas après ces chimères, pourquoi le bon son se meurt En plus, aujourd'hui j'suis pas d'humeur Autre chose à penser, moi ma ville y a pas de maire Pour avancer, le hip-hop ma voie et quelques potes Se mettre bien, toujours reçu dans quelques boîtes Un point d'honneur si dans la famille quelqu'un lutte T'es stressé? Écoute ça, prends quelques lattes Tu verras qu'tu connais pas mais c'est pas mauvais Dépêche-toi, n'attends pas ce jour où je m'en vais Toute façon, tu verras si je m'en fais Le MC, si tu l'fais, fais-le bien T'étonne pas après si ce cercueil, c'est le tien La vérité si tu la dis, dis-la bien Qu'on t'compte toujours parmi ceux dont on dit du bien Mon nom si tu l'écris, écris-le bien Tu seras jamais le dernier, à l'esprit qui nous viens Le quartier, tu l'décris, décris-le bien Ne mets pas en valeur que les bons à rien</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Daddy Lord C</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Daddy Lord C</t>
         </is>
       </c>
     </row>
@@ -492,12 +522,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3 Rounds</t>
+          <t>Freaky Flow 1995 Remix</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Id like to propose something to you Lets have a friendly little keystyle battle. You seem to think youre hot shit, and I respect that kind of mentality. 3 rounds on the RG forums, judged by the community, if you can beat me, I will produce your debut mixtapeEPalbumwhatever or at least a large portion of it up to 10 tracks Ok lets ignite this fight I spit so much fire Ill spark the fucking mic Light the joint fly so high call me a wright After Im done youll be sleeping six feet under with a night light Just wait cause when Im done with you Youll be scared straight to bump into Me again the the streets You know I run that shit like Spoelstra run the heat Yo momma should run to lose it cause shes obese Listen to me, use your imagination Cause what Im about to say aint no exaggeration Your dickll be stitched to your nipples Youre gonna be hunched over and bruised like a cripple Your ballsll be cut off and dangled through your nostrils down your throat Everytime you scream shitll be sounding like a mountain goat Cause your throatll be cut too and the bloodll be gushing down your esophagus Come here little girl you wanna big sloppy kiss? Oops! Your screaming sounds too much like your mother Especially when I cant see here in the dark, your squirming reminds of her Cause she used to swallow pills like a drain And youre failed abortion didnt help her much with the pain Portal veins too heavy with roofie poisoned alcohol That bitch gets passed around so many times shes like a basketball And who knows whos your daddy Im willing to bet your moms stripper money that its shaggy N they were both butt naked bangin on the bathroom floor Cops kicked in the door waving their four fours And that nigga saw trouble and kicked out the window and ran Then he screamed catch me if you can Im a gingerbread man Nigga was crazy and your mom was in a daze see? I came in fucked her and know its out of her dang reach Preach Check out that last paragraph, its an acronym lol Okay, okay okay Im from the California Coast, boy, beaches and bridges You tryna Mac like Dre, but you aint sleepin' with bitches See here, your whole rap styles a gimmick just like Frees beard That shit about Ill kill your daddy and fuck your mom wouldve sounded dope, butmy parents been divorced 15 years And I dont know how, but it seems before this fight you got some intel How in 10th grade Id take 10 vals, crush em all up at once inhale And I suggest you try it, cause Id love to see you in hell Andoh, wait, that pill line was about my moms too? Shit, well Your parents had you cause they were too broke to even buy rubbers And who are you tryna battle rap here anyways, me or my mother? See, I keep an actual ninjato, swing my sword hella hard You have Dungeons and Dragons bars like a fourth-level bard And Catnips a fuckin' Owlbear, you best fuck up outta here Listen faggot, talkin' bout my dick like that is not allowed in here! You dress like a fat bitch in a pink cheeta-print tee WellIm guessing you do, because youve never been seen in the streets Cause you like a crippled bitch, needin' a machine just to breathe I got them iron lungs, you got one around your body And out your whole round you only had one bar Im gon' see You bout as fly as Wright brothersbefore 1903 And after you lose this fair and square I bet youll try to steal a beat But heystart your rebuttals any time you feel the need From the California coast? Battle with me its like getting tied to a whipping post Pose like your ancestors and get prepared for this roast Nigga my raps are so breath taking its like the Ivory Coast In the name of the Father, Son, and Holy Ghost Whoops I forgot you dont have the Father, so thats why youre so morose Gonna rep the west, ok do your best Just dont forget to wear that bulletproof vest Cause Ill pop those five shots till you drop like Pac Except theyll be no crying at your funeral just your sliced off cock Ok so youre an owlbear, is that named after the way your mother howled when she put nare on her back to rip off the hair? Just remember hedwig died in mid air You might think your soaring now but just wait Wait till you walk around the New York State Best be checking over your shoulders cause its getting a little late Try and stab me you hit an armored plate Not used to being able to see cause of all that smog Beating your ass and trying drown you in the sea, guess I took over your dads job Keep quiet in the basement till the storm blows over Take out your dragon game and blow the dust off the cover Cause its 2013 and youre rhythm sounds like a washer machine Got an iron lung? Then call my raps lightning cause I strike that and put up a smoke screen The puffs turn chronic green , im smoking royal call it the queen Ill tear your face off and wear it as a mask on Halloween Even if you could pop me like Pac, Id find a way to refute ya Aint you heard? Pacs alive in Cuba All you say is, my mom this, my dad this, my trees that Im from Cali where your weed is grown, and bitch I dont believe that But I actually rap, and your shit I believes whack But to prove Im better, Ill play you at your own game and beat that! Ahem Youre never ever testin' me My bitch gave your dad a STD You starin' up at the sky like Lord, bless me please How bout you stop with all that prayin, and just emcee? You gonna rep the East? Okay, thats effin weak How you gon' like it when I stick my razor blades here? Lets just see Hold up, where are those razor blades goin? They gettin' left in me? Who knows? You cant even spit your lil murder raps descriptively! I will shit up your asshole and piss on your dick Dawg, you infected, that shit on your dickhas some shit on its dick And I hope you think thats stupid and disgusting, cause suprise, suprise Thats the way I feel bout four out of 5 of your lines Fuck that, fuck that, fuck that y'all wanna hear some real battle rap shit? I slide like M. Bison, your fat ass more E. Honda Bring flames like Dhalsim, and my kicksll T-Hawk ya So think youll see me in the street? You fuckin' lame, guy My bitch look like Chun-Li and your bitch is named Guy! You want me to be descriptive? Don think your murderll be vindictive My raps are very addictive like your rhymes are very predictive You seem conflicted Are you really as gay as you depicted? Shitting on my asshole and pissing on my dick I guess Ill have to end your life quick before I get sick Or before you try and slick your prick and get a couple licks in quick Nigga yous as gay as those cousin fucking hicks Well first off let me get you alone or in a group it dont matter Cause once I introduce myself as the well known Funkmaster, the restll scatter Ill slit your wrists or at least the ones that already show that pattern Duck tape your mouth shut, actually leave it open I like hearing you try to rap battle it makes my rhymes seem golden Ill Take a hammer and fuck up your head maybe make it more swollen Take some rusty nails and stick em through your eyes Hammer em in more so your eyes to make it painful when you start to cry Then Ill tear off your nipples and fingernails You might not want me to tell you the rest of the details I dont give a fuck where youre from Cause tonight, your gonna be a Atlantic Ocean scrum Youll join your ancestors at the bottom of the ocean But youre not getting off that easy so put on the lotion Get ready for this cause its gonna be rough Take a hit of a bunt and take your last puff Prepare for your balls being sawed off and shoved up your ass Till they can serve as ovaries soon youll pass out from the carbon monoxide gas Finally cut your head off and stick it on a pike Put it on show for the rest of the world to see what i do to your like When I started this battle, I felt generous, like What have I to lose? If hes dope, Ill produce for him, if not, the guyll lose So he spit, and with each round it became clear-oh my, its true! Youre a New York washup down to the soul, your spirit guides Papoose! You love to talk about ridin' dicks when you ride the mic Thats half why its assured that victory is mine tonight Ohwait, you were calling me a faggot? Youd be kinda right Except you guessed my gender wrong, stupidIm a dyke Seewhen Im not battling Im speaking at meditation centers, droppin' zen wisdom You stay cooped up in your room writing erotic friend-fiction And Im sure youve got bars in whatever language youre speakin' But youre battling in America now, you gotta learn English Only needed 12 bars for this one</t>
+          <t>Suzie était une fille du genre de celles qui rassasient Aussi bien montée, compacte qu'un pistolet Uzi Uzi, te fais pas d'souci c'coup-ci pas d'homicide Cette meuf parmi les autres elle fait office d'insecticide La rencontre s'effectua un mardi dans une party Pleine à craquer qu'on se serait cru un samedi à Darty J'avertis, avec ou sans képi je m'incruste rect-di Tout de suite la voici sexy qui occupe mon esprit Ses jambes, fines, belles, bonnes, longues, rondes, dodues, jolies La fin je passe dessus dans l'unique but de rester poli Elle débarque dans ma vie comme un coup de fusil à pompe Tout ça pour vous dire je cirai même ses pompes Le D-a-d-y, la grosse pointure, le dur, le totem Coincé tel un gosse, un gamin le jour de son baptême J'avais le freaky flow freaky freaky flow x2 Freaky, freaky, freaky freaky flow freaky flow Freaky, freaky, freaky freaky flow freaky flow Freaky, freaky, freaky freaky flow freaky flow Freaky, freaky, freaky freaky flow Remplie de gaz, pleine de faces et faux airs d'enfant sage Je bousille ton courage, te forçant à tourner la page Suffit que tu te fâches, qu'elle perde son sourire aux lèvres Que veux-tu que je réponde à part que moi même j'avais la fièvre ? Elle disait toujours non pour ce qui est de rendre un homme content Ceci étant pour tout dépense vainement mon argent comptant Sac à main, veste chic, chaussures en croco Elle m'a quitté illico pour rejoindre un toxico Ca m'apprendra à jouer les timides, les tendres, les Bell Biv DeVoe Cest mon talon dAchille, ma faiblesse, mon défaut Elle se la raconte trop, vraiment, pour ce qu'elle vaut J'avais sous-estimé son vice de haut niveau x2 Suzie n'arrêtait pas de commettre des bêtises Cela constituait son trip, son pied, sa hantise Je ne comptais pas prendre une décision hâtive Mais au rythme, mouvement, à la façon dont les choses s'activent Il faut agir, ce problème s'éternise Je reste, demeure un homme d'action qu'on se le dise Le D-a-d-y L-o-r-d C te brise Suzie l'a saisi pour sa plus grande surprise Doucement, lentement, je m'impose pour qui ose Sous prétexte davoir avalé des Cheerios Nuire à mon business qu'est le rap, la fesse Pas de politesse en ce qui concerne le sexe Le calme, le pardon à d'autres je les laisse Foncer, se dépenser, s'enfoncer, s'élancer Lancer en français du sensé bien pensé Voici l'odyssée, le Calypso de mes pensées Bonnes ou mauvaises, lascar mets-toi à l'aise J'apaise le malaise qui pèse car en gros J'annonce la couleur, indique la météo Le Maître Capello des lettres et des mots Avait le freaky freaky freak, le freaky flow Freaky, freaky, freaky flow x3 Yo, pour La Cliqua ! Freaky Flow remix , dans la place ! C'est comme ça que ça se passe !</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Daddy Lord C</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Daddy Lord C</t>
         </is>
       </c>
     </row>
@@ -509,12 +549,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>À l’ancienne</t>
+          <t>Hustler</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Écoute ça gars, écoute ça gars Mattes les dégâts, comment on kill Ça va Daddy ? Tranquille A part ça qu'est ce qu'on dit ? On arrive avec du flow, le reste, notre blaze le fournit On a pas dormi sur nos lauriers, il y a un taf de fourmis Un produit Parisien, non ça vient pas de Californie Hormis les on-dit, on s'est réunis Comme à l'époque des grands MC's Bénit soit le rap à l'ancienne, code de rue, contrat que l'on scelle Les ragots qui XXX à la Seine, les sticks aux pompes à la pelle Les nuits blanches, j'sais plus laquelle, mythoner c'est pas la peine Tous baignés de courage et d'aubaines Les plus faibles finissent dans la benne Ma profession négocier et rapper Fuck les 35 heures, moi j'veux palper Le plus dur c'est pas de faire de la monnaie Mais c'est de rester vrai dans le succès tu le sais J'roule comme mes trieuses de billets J'fais du cash depuis que j'ai plus mes dents de lait Si je rappe encore mes vieux couplets C'est qu'une parcelle de mon âme y est Passion, raison, action, ambition Un but pour partir en mission L'objectif changer de condition C'est le savoir qui payera l'addition Nous sommes toujours colère, décision Détermination sans friction Le bitume, son atmosphère, sa façon d'agir, ses dictons Blah, brah, écoutes ça gars, mattes les dégâts Blah, brah, on remet ça gars, v'là La Squadra Mentalité Africaine, exportation toujours Colombienne Que Dieu bénisse le rap à l'ancienne, bénit soit le rap à l'ancienne Le bras long balançant devant XXX Y'a pas que sur le terrain que l'on XXX Que Dieu bénisse le rap à l'ancienne, bénit soit le rap à l'ancienne MC tu l'a ressenti, tu t'es repenti, pas de tié-pi, ni de répit - Comment on kill ! - Ça va Daddy ? - Tranquille A part ça qu'est ce qu'on dit ? 1</t>
+          <t>J'reste normal, ouvert à tous malgré mes airs sérieux C'est curieux, vivre ainsi ça peut être périlleux Vu tout c'que j'ai vu sur les miens, c'qu'on a créé Ça perturbe pas mon flow, son talent, bête de V.O T'façon moi mon équipe, lumière éteinte, nous brillerons Ni vibrons, nique les jaloux, j'avoue seul eux se grilleront Non, je n'me cache pas derrière la religion Derrière mes gens méchants, mec tu connais le nom de ma légion Le son de ma région Le pourquoi du comment, ma raison Ce avec quoi, pour durer, j'traverse les saisons Parlons-en, parlons-en vite fait, j'suis pris par le temps Y a pas une chose qu'on peut partager et parler taro Hustler, Daddy Lord C Insolent, Hustler Hustler, Hustler, Daddy Lord C Insolent, Hustler, Daddy Lord C remet de l'ordre ici XXX quand tu dois, sois celui qui paie ses dettes Si tu penses qu'être connu peut tout combler, c'est bête Le besoin m'embête, dans l'rap cette bête de compète Ceux qui s'la pètent, coupe la tête Ton sale couplet Les vieux m'apprécient Quelqu'un souffre, apporte-lui de l'aide La rue mon XXX, si y a drah XXX de l'être Ça la fout mal car dans l'domaine il n'existe pas de maître Le danger le mesurer, j'connais pas de mètre On sait tous si j'espère sur des préjugés En tous cas, entre toi et elle qui va mieux me sucer Chacun à sa place, y aurait moins de soucis Moins de ceci, moins de cela Des défauts j'en ai Pourquoi pas, j'vais pas m'gêner Quand il s'agit d'donner d'moi j'connais pas d'limite Hustler, Daddy Lord C Insolent, Hustler Hustler, Hustler, Daddy Lord C Insolent, Hustler, Daddy Lord C remet de l'ordre ici Me vante pas, une fois de plus, les sarcasmes de ton génie J'vais pas finir menottes aux mains, accroupi à genoux J'ai envie de m'investir dans ce qu'il y a de flou De croire en l'amour, aux sentiments, pas les films porno Que les déboires de l'amitié sont inspirés par nous Et j'te revoyais que s'consomme toujours ce tord-boyaux Jamais jeter mon XXX avec l'eau du bain De plus, j'conçois pas ma vie sans rien, comme un jour sans pain De nos jours le père Noël porte un bas d'laine Compte-tenu que t'as pas mûri le tien bat d'l'aile J'causerai pas de paix, c'qui la veut l'appelle Tout ça n'a pas de prix, impossible de me doubler Bien qu'on s'en fout du blé, t'évites de trembler Personne t'as troublé, et qu't'oublies pas c'couplet Si, si Hustler, Daddy Lord C Insolent, Hustler Hustler, Hustler, Daddy Lord C Insolent, Hustler, Daddy Lord C remet de l'ordre ici</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Daddy Lord C</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Daddy Lord C</t>
         </is>
       </c>
     </row>
@@ -526,12 +576,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ce que la rue te donne</t>
+          <t>Incorruptibles pt. 2</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Ouais, prends garde à toi MC Fais gaffe, tourne pas le dos MC, prends garde à toi Prends garde à toi MC Fais gaffe, tourne pas le dos Fais gaffe, fais gaffe C'est fou comment l'argent, les gens, même toi as plutôt changé Depuis que je te vois manger sous prétexte que tu t'es rangé Néglige de te venger Bataille clairement au moindre danger Combien d'affreux ramassé à la petite cuillée Pas grâce à toi, même pour l'honneur dépouiller Tu fuyais, craignant que la police vienne t'ennuyer Après qui on retrouve vantant les quartiers chaud au mois de juillet? Dans le domaine du courage, si l'on te paye, plus on me paye À croire qu'un bon flow, du baratin ça fait des merveilles Évidemment dans ton attitude, t'as pas ton pareil Mais gare au réveil, sort de sa bouteille Moët Chandon, Black White, d'la cité Pure sans puls-cru d'la rue, rien qu'la qualité Toute l'année t'es invité, pas seulement un son pour l'été Gamin en VTT, lascar en BMW Ramène ton pé-pé Kiffe ma dope comme dit Gué-gué Pas une raison j'offre a tout le monde le pot de l'amitié Aucune pitié que tu sois pauvre ou plein de liquidités Chacun son tour, j'attendrai pas, pour te faire la peau Ce que la rue te donne peut te le reprendre a tout bout de champ x3 Renie ton quartier, sous prétexte au bras une montre Cartier Langage de charretier, slang, l'argot extraverti Lequel avec dans les party tu faisais la sère-mi En l'occurrence, trémousser, les immigrés, tes amis M'sieur joue les mondains Depuis qu'il est devenu quelqu'un Il y en a plus d'un, qui rêve de te briser les reins Mais ça ne fait rien, ça te fait rien, m'sieur boit du vin Porte du lin, manque pas d'compagnie pour les câlins Faut dire avant tu mangeais des pâtes, aujourd'hui t'es fat Vas pouvoir enfin soulager ta rate gaver de tsap Ta famille tu t'en tapes, ce qui compte, l'argent entre tes mains moites Des nouvelles connaissances, celles qu'on rencontre qu'en boite Tu t'en fiches, soit ! Après traite pas la vie d'ingrate Tout ça parce que tu racles, quand chez toi débarque les hommes en cravate Ou l'on te savate, t'as pas voulu partager Seul tu as mangé, seul garçon tu vas plonger Que toi pour regretter ou reculer, même y songer Se venger, contente-toi ton sang de l'éponger Chacun son tour, j'attendrai pas, pour te faire la peau Ce que la rue te donne peut te le reprendre à tout bout de champ x3 T'étonne pas si dorénavant, l'on te passe un savon Puisque auparavant, avec tes gars tu traînais souvent Fidèle d'ailleurs comptant qui te le prouve a tout moment Vu ton quartier solidaire en concert sans cesse en mouvement Maintenant exactement, que deviennent ces lieutenants Que deviennent ceux qui mirent a ton service leur côté violent Ose attendre pour autant d'l'argent un geste galant Mais qu'à présent, tu arbores les rues cigare au volant Prétentieux, pourquoi faisais du boucan de délinquant Pousse pas l'bouchon trop loin, elle t'aime, je sais, mais gare au volcan Ce que la rue te donne peut te le reprendre à tout bout de champ C'n'est pas tout le monde que tu corromps avec un billet de 500 Même au fin fond de ma banlieue où coule le bon son Ou voulait une profession banale comme d'autre une fonction Quel que soit le dilemme, la situation aucune délation Trahison dépit des exactions Commises par le crew Autant finir sous les verrous Six pieds sous terre au cimetière couché au fond d'un trou Que ça ne vaille ou pas l'coup, je lâche pas mes gars malgré tout Je laisse ça aux autres, tant pis pour moi si je me vautre Chacun son tour mais j'attendrai pas pour te faire la peau Ce que la rue te donne peux te le reprendre à tout bout de champ Chacun son tour, j'attendrai pas, pour te faire la peau Ce que la rue te donne peut te le reprendre à tout bout de champ x4 Ce que la rue te donne peut te le reprendre à tout bout de champ A tout bout de champ</t>
+          <t>OK, 9-1, l'Essonne gros 1-3, Marseille DLC, AKH Ha ha! Dirty dirtyy, daddy daddy Écoute ça Accroche-toi Y a trop d'flics politicos qui jouent les cow-boys Autant d'jeunes de cités et d'banlieue qui font les homeboys On baille, sauf si c'est pour nous traiter comme boys Usés, manipulés comme une X-Box ou Game Boy Personne veut devenir cette pute que t'as vue nue Dans un film X, à l'hôtel ou sur l'avenue Nos gosses disent papa, le père Noël n'est pas venu Y a des livres saints même si gamin j'en ai peu vu On s'entend, si c'est le chemin que tu vises c'est parfait Jamais ces délits par besoin qu'tu finisses par faire Rester franc et sincère, durer dans l'temps ça sert Sauf que tu trouves ça cher, dis chez toi c'qui s'avère Écoute les sanglots longs d'ces violons d'automne C'est la BO d'ma tuerie, mon avertissement, danger Quand j'suis passé au crom', un truc de puriste Pas d'abrutis passés au poste et pourquoi tu ris hamdeck Ils vont finir par t'jeter au coffre Au pire ils t'zinguent, au mieux ils t'envoient l'fisc Et pour eux tu n'es rien qu'un d'ces chimpanzés sur la piste Un monde où les coupables sont freluqués en victimes Mais tu verras personne en prison quand sera passé Clearstream Et pendant tout c'temps, nos fesses sont dans les voitures À monter à fond ces sons et croiser dans les avenues Non ils m'font pas rêver avec Clovis et Charlemagne Ils ont peur de nos gueules comme avant ils flippaient sur l'Allemagne Pourquoi t'amputer si le diable est dans la maison pourquoi? Et jouer les chauds, on sait qu'l'hiver sera la saison C'est vrai on sait qu'l'effet d'annonce nous a tous trompé Ça finit en sirènes de flics et pompiers Incorruptibles, incorruptibles, incorruptibles Incorruptibles, la cargaison, avec j'ai bâti ma maison C'est dans mes gènes pas ma mission, bah j'y suis collé J'porte mes origines, ma banlieue mon labeur, comme un collier Ma condition de position de reddition de réaction de satisfaction Production fait l'encre couler Pour l'Élysée la rue pas d'journée d'repos si on doit y retour' T'as pas vu, vu, pourquoi t'es borné Tu votes pas, on t'as eu, eu Ici si t'abuses ou tu flaires, on te hmm hmm Surtout confonds pas, lorsque tu nous as vus, vus On connaît le blabla, ceux d'en haut, ceux d'en-bas, bas Arriver à ses fins, trois carottes et puis s'en va, va Politique ou rap à cage, c'est c'qui nous sans blabla On bouge la nuit sans faire de vague, nos cahiers comme des fers de lance Nos aka sont sur les rames, nos classiques dans les tours de France Et poussent dans les halls ou dans les clubs Certains rêvent de danger alors d'entrée ça joue les thugs Mais la race des bandits ne joue pas dans les cages Ni shit ni coke ni crack Trafique pas les pouchka dans les caves, frère ils s'en foutent des blocs Pas prêts à tout pour grimper dans les hits et dans les charts One love à ceux qui rappent, qui scratchent, graffent et qui dansent Au mic avec l'arc, défend notre art Mate nos poings, on les baisse pas, feu dans le regard On monte la garde, si t'es malsain dis vas-y qu'est-ce t'as Mon son lèche pas les culs blindés des BCBG Frère on change ton séjour dans le rap en vrai CDD Pourquoi t'amputer si le diable est dans la maison pourquoi? Et jouer les chauds, on sait qu'l'hiver sera la saison C'est vrai on sait qu'l'effet d'annonce nous a tous trompé Ça finit en sirènes de flics et pompiers Incorruptibles, incorruptibles, incorruptibles</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Daddy Lord C</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Daddy Lord C</t>
         </is>
       </c>
     </row>
@@ -543,12 +603,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Conçu pour durer</t>
+          <t>J’En Balance Une Pour Mes Gars</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Janvier - Février - Mars 2103 Les Fabulous Trobadors - Quel sera notre futur ? EP 2803 NTM - Paris sous les bombes Avril 1904 Les Fabulous Trobadors - Ma ville est le plus beau park Mai - 0305 Fabe - Befa surprend ses frères Juin 0206 Assassin - Homicide volontaire 0506 Cool et sans Reproches - Plus français que moi tu meurs 1605 Ménélik - Phénoménélik Juillet - Août 1208 Mellowman - La voie du mellow Septembre 1309 Cut Killer - Mixtape n10 Freestyle Octobre - 2010 AkhenatonChili - Métèque et mat - XX10 Les Sages Poètes de la rue - Qu'est-ce qui fait marcher les sages Novembre 1311 Alliance Ethnik - Simple et funky ! 2011 De Puta Madre - Comme une ball' dans la tête 2211 Double Pact - Impact N3 Décembre - 0112 Akhenaton - L'Americano EP 1112 Tout Simplement Noir - Dans Paris Nocturne Dates non connues ABS - C'est la fête AK 700 Chapitre 1 - AKTBImpact Antidote - L'Instinct Maxi Assassin - L' Odyssée suit son cours Maxi - Artistes multiples - La Haine B.O. B Love - Où est la différence ? Maxi Boboch 1 Pakt - La Putain 2 ta race Maxi Daddy Lord C La Cliqua - Freaky FlowLes Jaloux Maxi Daddy Yod - Le Survivant Da Soul Man - Da Soul Man est un âne - Démocrates D La voie du peuple - Different Teap - La route est longue Maxi Dynamic TRC - Chrinique funeste Maxi - Expression Direkt - Mon Esprit Part En C.. Maxi - Fabe - Lentement mais surement EP Hasheem - II Groove Maxi - IAM - Une femme seule Remix sachet blanc EP Independant - Independant Maxi Indifonkigene - Les Masksandifonkitreme Maxi - La Cliqua - Conçu pour durer EP Master Love - C'est comme vous voulez Maxi Melaaz - Je marche en solitaire Moda Dan - Le Mec fier le plus sophistiqué Maxi Negkipakafelafet - Plitaplitris Negmarrons - Lyrical Nomad Présente Inspiration - Les beureus du rap arrivent Maxi Nosé ft. Ménélik - Quelle aventure Maxi Positive Black Soul - Salaam Ricco - On s'la donne Rod - Nouveau Départ Maxi Rollercone - Reste éveillé Maxi Saï-Saï - Le ragga ça l'fait Silent Majority - Cursew Maxi Sléo - Ensemble pour une nouvelle aventure Timide Et Sans Complexe Psychose Timide et Sans Complexe - Plastique Maxi Yaya - Mal en point Maxi Artistes multiples - Dee Jays D'Élite Compilation Artistes Multiples - Le Hip-Hop dans tous ses états Compilation Artistes multiples - Ragga Raleti Volume 1 Compilation Artistes multiples - Raï B.O du film Date à confirmer Artistes multiples - L'art d'utiliser son savoir Dee Nasty Big Brother Hakim - Même le diable ne peut plus m'aider Maxi3</t>
+          <t>Yeah, 'coute ça XXX Cliqua seulement, Raphaël MC Cliqua seulement Daddy Lord MC, Cliqua seulement Cliqua seulement 'coute ça Tends l'oreille, prête attention Rentre dans mon délire XXX l'atmosphère Qui s'imprègne dans ton sang comme une injection Geste sauvage pour ma nation Kiffe le son sur lequel j'kicke, ma section Pour la bonne caille, Raphaël d'la maison donne du bon rap de rue Où les thèmes englobent mon vécu qui longe bien trop d'avenues J'suis pas perdu loin d'là, j'sais où sont mes phrases J'en balance une pour tous mes gars, trop d'affreux dans la place Ressens les sensations, vibrations, les mots qu'j'donne avec émotion La rage que j'lâche au mic, j'la partage avec ma population Ça sonne cru pour tous mes gars d'cité Mon public de base, big-up aux XXX d'mon quartier Sans limite, mon délire n'a pas d'frontière Ma musique augmente le niveau, monte l'adrénaline J'lâche des ondes phonétiques XXX soit dans la tess, j'fume d'la vraie sens' Focalise mon stress, malgré tout ça je progresse grâce aux miens J'ai l'mic en main, j'le lâcherai pas demain Sois-en certain frangin, j'compte bien brouiller mon quotidien Les principes sont stricts, j'aime ça J'ai grandi dans c'milieu-là Que ça vous plaise ou non, ça me restera Quoi quoi? J'fais mon truc, c'est pour ça qu'suis là Quoi quoi? Avec honneur j'en balance une pour tous mes gars J'en balance une aux vrais gars Nourris de XXX break et d'braquages Braille pour têtes brûlées, tas d'prolos qui tendent à briller Pour l'billet, évite pas l'bagne et l'billard Cliqua seulement, yo Cliqua seulement Pour un bout d'terrain, bagarre, prise de gueule à coups d'barre Moins la vie est longue, plus ici l'on se couche tard La pauvreté une tare qu'on essaie d'fuir sans faire de mitard Cueillir quelques miettes de souffle avant la mort de ton corps s'empare Fumée du cigare, l'argent l'oseille le flooze or en barres L'amour, un moment d'répit pour ton esprit barbare Réussir dare-dare, pareil aux stars auxquelles tu t'compares Le diable des Lombards, le prince des lascars, roi des loubards Ces mots vont bien plus loin qu'ton nom tagué sur les murs d'une gare Pardonne-moi, j'mâche pas mes mots à ton égard Méfiant des mauvais regards Des ragots, des traîtres, d'la langue des mouchards De ceux qui t'la jouent XXX baltringues, froussards Faut s'adapter XXX capter, maintenant jactez Ouais, j'en balance une aux vrais gars Vrais gars Pour mes vrais gars, c'est ça La Cliqua, mes vrais gars Raphaël, mon vrai gars Rocca, un vrai gars vrai gars, vrai gars, quoi quoi? Pour tous mes gars Paris, mes vrais gars Pour tous mes gars Parce que j'suis one love Coute ça, MC Vrais gars Comme ça que j'fais J'en balance une aux vrais gars</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Daddy Lord C</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Daddy Lord C</t>
         </is>
       </c>
     </row>
@@ -560,12 +630,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Du Sud au Nord</t>
+          <t>La Lumière</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Daddy Jen balance une aux vrais gars, Nouvelle école ou vétéran Du Ter-Ter actif gros, Du bitume opérant Cash franc-parler, Peu dbla-bla ni dOpéra Ya que laction sans suivi qui nous plaira et nous paiera Si tentends parler dnous un peu partout, là ou tu iras La rue possède ses putains, mais aussi ses héros O.G. du terre-plein bouillant, tu tes cheminé Je sais que tas lseum, et tu ne peux que le ruminer Le Rap cest mieux maintenant, ce que disent prétendre les minots Grace au bombes dans les bacs depuis, nous disséminons Jconçoit et jrespecte le coté hardcore dun jeune Méfies-toi de ce vieux, qui porte encore un jean Hardcore cest ldeal, Tyson Pelé Zinedine Jconnais aucun combatant ou guerrier qui ne dine Ouvrier, gangster, homme daffaire, médecin Si la fourchette est belle, toujours prêt à remettre ça Lacoste, Fila, Wrung Division, Tacchini On vient pas tapiner, quand lpavé on vient le taquiner Ok ça va pas tarrêter tfaçon, si tas dlappétit Par contre si tas pas lbras long, arraches-toi dla petit Du sud au nord on monte le son, Serres le verre à ras bord Jrime hardcore jdis ce qui me plait dabord surtout ce que jdéplore Jfous ldel-bor quand jsort, pour les frères qui manquent au rapport Toujours le mors aucun remords, comme ce Rap dur quon adore Cest pour lépoque Bruce Lee tas vu, G-Money, Nino, San-ku-kaï Le couvre-feu d20 heure, lorsque le ghetto est sous Sky Tu veux goûter, tester lancienneté, no-souci . tas lbeau grenaille, coup dcisaille Les ragots dingues, les gens trimbalent, déballent ou quils aillent La tendance, lambiance, le seigneur des représailles Toujours op sous la neige la pluie ou la grisaille Si ya un bail ou quand on prétends que le rap est die Bitume qui graille, débrouillard méritant une médaille Faut pas qutu râles ou qutu railles, et yaura pas dpagaille De ces canailles le goût du jus dpapaye Jtépargne certains détails, ranges ta marmaille au bercail Ta petite on guette sa taille, comme un loup quitte du bétail Aie aie aie, accroches-toi Du sud au nord on monte le son, Serres le verre à ras bord Jrime hardcore jdis ce qui me plait dabord surtout ce que jdéplore Jfous ldel-bor quand jsort, pour les frères qui manquent au rapport Toujours le mors aucun remords, comme ce Rap dur quon adore</t>
+          <t>J'arrive avec le flow, les mots, le reste mon blaze le fournit Un produit français, non ça vient pas de Californie Ça va soulager ta tête tes pieds si t'as des fourmis Et changer ton opinion à c'qu'on t'a dit sur moi Non c'est pas un mytho au mic qui dit des sornettes Qui ressasse à qui veut l'savoir, rien qu'il est fort mec Et jamais dans un contentieux qui s'en sort net Toujours XXX si y a un drame, il cherche à s'en remettre C'est loin derrière, les cours et la cité Obligé d'être plus finaud pour le cash et la GTI XXX si je t'ai eu, me parle pas de CPE Le temps défile autant qu'mes phrases en stéréo pleuvent L'amour d'mes gosses et d'mon équipe, qu'espérer en plus Pour XXX ces larmes ces XXX en teuf Au retour mains sur l'capot c'que dira un keuf Le refaire, pourquoi pas tant qu'j'peux remplir le coffre Faut autant d'appétit qu'c't enculé de Jean-Pierre Coffe J'suis la lumière éteinte lorsque tu prends ton temps La banlieue ou l'monde, c'est prends prends prends La rage du ghetto, c'est bang bang bang Sirènes de police, ainsi font font font Ça y est j'casse des dents, v'là qu'tu m'caces-dédi Tu dis mon nom, moi souvent le gars case Teddy Qu'est-ce t'as dit hier, à présent qu'est-ce t'en dis Même si t'apprécies pas, faut qu't'encaisses, tant pis À propos cache ta go, même si t'as pas XXX Elle kiffera quand même ce type qui roule en caisse tapée Qui pense qu'à s'taper, te prendre qu'est-ce t'avais Tu XXX ravive ça, mon Dieu putain mais qu'est-ce t'as fait Qu'est-ce ça fait, tout c'que t'as fait, qu'est-ce t'as pu Qu'est-ce t'as vu, bouger comme ça mais qu'est-ce t'as bu C'est mon putain d'son qui tourne tonton, c'est c'que j't'avoue J'suis la lumière éteinte lorsque tu prends ton temps La banlieue ou l'monde, c'est prends prends prends La rage du ghetto, c'est bang bang bang Sirènes de police, ainsi font font font Je suis la lumière Qui t'éclaire dans le noir La rage du ghetto Sirènes de police J'suis la lumière, la lumière La banlieue, la banlieue La rage du ghetto, du ghetto Sirènes de police, de police Ta vie est mal barrée, en plus tu peux pas t'barrer Un crédit, une femme des gosses une voiture à réparer Un frère taré, une sur qui s'prend pour Mariah Carey Il reste une chose, mon son gros, au moins ça c'est carré C'est comme un Glock, une carte Premier, faut pas s'en séparer Ou l'retour de Mormeck, surtout s'y préparer Dur de boucler, vous l'savez, toutes les fines bouches T'étonne pas, pour qu'tu t'couches, j'en rajoute une petite couche Parler de quoi, du rap ce qu'il en reste, il m'manquerait de l'encre T'façon j'suis pas du genre à blâmer ou critiquer l'autre Plutôt calculer ce qui peut me manquer, tu notes? Je sais de quoi j'parle, j'ai mis mes mots sur la table Dédicace à ceux dont le bruit est déduit à table Francs et efficaces comme une thérapie XXX J'ai jamais eu besoin, moi, de baratiner J'suis la lumière éteinte lorsque tu prends ton temps La banlieue ou l'monde, c'est prends prends prends La rage du ghetto, c'est bang bang bang Sirènes de police, ainsi font font font</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Daddy Lord C</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Daddy Lord C</t>
         </is>
       </c>
     </row>
@@ -577,12 +657,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>En dehors des lois</t>
+          <t>L’Âme Sœur</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Une heure du mat', serré, flash-back d'une soirée niquée Cul-de-sac d'enfoiré, menotté, privé de ma liberté, coincé Alors que sans fin la Lune déteint dans l'obscurité Alors que certains, comme moi se retrouvent dans un commissariat Plein de flics partout... Pour contrôler les passant che-lou, comme nous, en fly ou baggy Alors qu'un connard plus loin viole une gadji, Paris la nuit Vas-y lâche-moi quest ce que tu fais là? Lâche-le Mais que vont penser mes parents en sortant d'ici ? D'ici les flics se relaient, un par un me manquent de respect, remplissent les taules Des soi-disant stupéfiants qu'ils frôlent Self contrôle jusqu'à l'aube Entassés dans une piaule glauque ! Je sens du hall, l'odeur qui daube d'un clodo qui piaute Drôle de nuit, deux heures et demie Que j'entends sans rien dire des conneries Des blagues nazes de beaufs frustrés sous leurs képis Des sons de Cibi, des machines à écrire sans encre La police une planque pour cancres Qui se concentrent quand leur patron rentre énervé Remake des Ripoux, j'observe les murs lézardés Percés par le cri de suspects interrogés D'injures dispersées, quelques plaintes à déclarer Quand le téléphone sonne, quelques-uns cognent les ivrognes Insomniaques, rap légal, kidnapping, derrière une plaque Des petites frappent refont la justice à coups de matraques Forcé style Gestapo armée 7 heures du mat' et toujours coincé, fiché Ma nationalité les fait tous marrer, saoulé Parmi les piles d'annuaires Des fichus questionnaires, il n'y a rien à faire Si tu t'appelles Rachid, imagine la galère ! Frappées par des éclats de rire, les heures passent Enfermé dans une cage tel un otage Des stups m'insultent en face La loi me menace Piétine mes droits, me pourchasse dans ma liberté, efface Tout processus de paix à coups de godasses Écuré par cette justice en place Je sors d'ici près à me protéger des hommes en képis Parler qu'en présence d'un avocat Tout ce que tu dis sera contrôlé, puis retenu contre toi De toi à moi, lequel se situe en dehors des lois ? Quelle justice doit protéger mes droits ? Snip, lardus, kisdés, condés, colbocs L'uniforme bleu, l'air sévère, cheville gonflée à bloc En groupe te provoque, solitaire ça fait dans son froc Ton allure de beauf, m'effrayer de qui tu te moques En manque prends une clope Appelle mon gars sur son Bibop Corrompus comme ils sont, n'empêcherons pas l'argent qu'on le chope Les mains qu'on se frotte Face à eux, je me sens toujours plus propre Y'a quoi ? Je lâche mon rott' Je verrait bien comment s'en tire Robocop Tu penses que je débloque Je me fiche que tu me trouve toc-toc Avec Daddy 'faut pas fuck sur ton bloc-notes Faut que tu le notes t'étonnes pas sur le keuf, moi mon crew Le Hip-Hop complote ne me tourne pas le dos Ce sera sans pitié ni cadeaux Je te coulerais comme un paquebot Bien que tu me trouves vilain, pas beau Ta femme, pas de pot, apprécie ce talon d'Achille, ce pied bot L'insigne, l'arme à feu tout est permis Un vrai demi-dieu, mais dans mon milieu N'importe quel gars, même le moins vieux, le plus studieux J'ai pas peur de dire le plus racailleux Se montre toujours plus courageux que ceux qui marchent deux par deux Qui parle d'honneur mal placé Cette jeunesse que les bavures ont froissé ? Facilement classés, leur famille y as-tu pensé ? Te vexe pas si en conséquence t'es récompensé Tu apprendras vite que dans le rap on sait pas seulement danser Pas ltemps de jouer agir Pas qu'un flux de phrases sensées sur fonk fâché Combien de victimes t'as lynché ? De dents qu'ont grincés ? Pour cela d'innocents coincés il pour il, dent pour dent Théorème d'il y a longtemps Pour toi je le reprends et avec je te paye comptant Parler qu'en présence d'un avocat Tout ce que tu dis sera contrôlé, puis retenu contre toi De toi à moi, lequel se situe en dehors des lois ? Quelle justice doit protéger mes droits ? Aucune ligne tracés sur leurs paumes Encore moins de diplômes Pour devenir un bon flic, il suffit de tirer vite Des clones robotisés, la gâchette à la place de la tête LÉtat nous lâche ses bêtes, camouflées sous une plaque et une casquette Me traite pas d'ingrat Quand le premier pas, levant ton bras Aux mains, un corps gras perpétuellement pointé vers moi T'avances criant Negro, t'es fait comme un rat ! Protège ton foie ou tu sauras que je fais pas dans le coton T'aimes pas nos prénoms ? Moussa, Mohamed, Amar, Diouf, Pacheco Pas assez péquenaud ? Pas assez beauf en gros tu veux me faire la peau ? Les hommes ne naissent-ils pas tous égaux ? Je crois bien que non Je suis la jeunesse qui embarrasse beaucoup de fachos garçon !</t>
+          <t>Samedi, la soirée, celle d'la semaine dernière J'l'avoue, franchement a foiré Cette fois j'vais y croire et j'mets l'paquet pour fuir l'dawa, l'enfoiré Rencard avec une go, une petite perle plutôt bien taillée Un flow gratte-papier, bien sapé, d'la maille, du style et ça y est J'me pointe en retard déjà j'l'entends en train d'piailler c'est à c'tte heure-ci qu't'arrives? j'en ai marre, ça fait cinq minutes que j't'attends Pour la calmer soirée disco mais d'abord grailler J'veux l'éliminer, mais tête brûlée comme un Pas l'genre de minet, efféminé, blindé d'monnaie Prêt à tout, baltringuer, ramper, lécher, s'faire vanner Plutôt caner qu'de laisser ma poire, fini d'ricaner Personne je permets, si c'n'est celle qui a fait d'moi son nouveau-né Bien élevé, bien rap dur j'ai grandi, gavé, arpenté l'pavé Les mains sales, si tu savais La loi entravée pour qu'dans la rue j'passe, on m'dise avé Lagerfeld, Ralph Lauren Ça frime, ça flambe, s'prend pour Sophia Loren La elle a rien à dire, tu parles, y en a qu'pour mes oreilles T'as une voiture, t'es garé où, c'est quelle marque d'abord? V'là qu'elle veut un chauffeur, j'suis pas chauvin Mais Claudia Schiffer commence à m'chauffer J'suis chaud j'y vais j'démarre j'abrège T'façon tôt ou tard fallait y venir Au peu qui puisse te convenir pour l'avenir et les jours à venir non mais moi tu m'as prise pour qui là? j'arrive la couche au plumard J'sens qu'autant d'chiffres sur un chèque, c'est pas plus mal elle m'coûte la peau des seufs, j'dégoûte la demoiselle En causant d'mes Coste-La, toute la nuit t'bagarre, écoute-la L'âme sur Besoin d'idéal Si tu cherches L'âme sur triche pas Pour jouer à armes égales Si tu cherches L'âme sur Besoin d'une étoile Si tu cherches L'âme sur Aussi pure que du cristal Mercredi, pas ou d'concert, j'suis en congés Pas d'ongles s'ronger, l'pif à éponger Risquer d'plonger faiblir, flancher, mordre le plancher Ici c'est cances-va et quand ça va m'reposer C'est pas la me-da la nouvelle dans l'immédiat qui va m'aider à faits-divers, infos, médias Avec tous les cartonnés qu'elle connaît j'connais c'que désire c'est tricard paumé Désolé, j'sais pas l'pardonner Elle me rend parano quand j'guette ses mains, un doigt par anneau Autant parier sur la être parrainé C'est pas une fille pour toi, elle va te tuer V'là qu'mes parents m'disent Mon paradis part en parodie, question savate, heureusement, j'suis pas radin mais attends, qu'est-ce que tu fais là, c'est qui çui-là? j'm'acquitte, v'là c'que ça m'coûte Ma cote et une putain d'répute de Tonton Makoute L'âme sur Besoin d'idéal Si tu cherches L'âme sur triche pas Pour jouer à armes égales Ouais si tu cherches L'âme sur l'unique, la seule Besoin d'idéal Si tu cherches L'âme sur Aussi pure que du cristal Après l'freaky flow, maintenant j'ai l'fric et l'flow V'là falloir encore qu'j'évite le vrac et Des plans galère, en v'là à la pelle Si tu prends pas la peine de rentrer ton instinct et bien gaillard, tu resteras pèlerin Mais apprends sur Terre, qu'des femmes, pas d'pénurie L'âme sur Besoin d'idéal Si tu cherches L'âme sur triche pas La seule, l'unqiue Si tu cherches L'âme sur Pour jouer à armes égales L'âme sur Besoin d'idéal Si tu cherches L'âme sur Besoin d'une étoile Si tu cherches L'âme sur la seule, l'unique Aussi pure que du cristal ouais, triche pas Si tu cherches L'âme sur L'âme sur</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Daddy Lord C</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Daddy Lord C</t>
         </is>
       </c>
     </row>
@@ -594,12 +684,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Exercice de style</t>
+          <t>La vie, un combat</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>JAY AND SILENT BOB STRIKE BACK Screenplay by Kevin Smith OVER BLACK WE SEE CHYRON A long time ago, in front of a convenience store far, far away-- EXT. QUICK STOP YEARS AGO--DAY We FADE IN on the block of stores Quick StopRST, from sometime ago, In fact, RST isn't RST it's THE RECORD RACK -- a 45's store with head shop paraphernalia in the window. A white-trash MOTHER maybe seventeen wearing a baseball cap comes into frame carrying a chubby BABY. The Baby wears an oversized t-shirt under what looks like a little bathrobe, and messily eats a CHOCOLATE BAR. There are food stamps in the Mother's hands. MOTHER Bobby-Boy stay here while mommy picks up the free cheese, 'kay? She looks up at the bright sun, shielding her eyes slightly, then looks back at the baby on the ground. She takes off her baseball cap and places it on the baby. MOTHER This'll keep the sun out of your eyes. You be good now. She walks away, leaving the baby sitting against the wall. With the backwards baseball cap and the chocolate around his mouth forming something that resembles a beard, the kid looks kind of familiar. Then, another MOTHER also very young decked out in a KISS concert shirt from years gone by and huge, feathered hair enters, with a black skullcap wearing BABY slung at her hip. She sees the first Baby, sitting against the wall and sets her Baby down beside him. MOTHER Don't fucking move, you little shit- machine. Mommy's gonna try to score. A PASSERBY enters, heading toward the convenience store. He takes note of the Babies and the Mother heading into the record store, and then stops and addresses her, disgusted. PASSERBY Excuse me--who's watching these babies? MOTHER The fat one's watching the little one. PASSERBY Oh, nice parenting. walking away Leave'em out here like that and see what happens. The Passerby walks away. The Mother flips him the bird. MOTHER FUCK YOU, YOU FUCKING SQUARE! PASSERBY waving her off Ah, keep on truckin'. MOTHER to baby D'jou hear the crazy fuck tellin' me how to fuckin' raise you? Motherfucker, man! Who's he fucking think he is? What's the worse fuckin' thing could happen to you sitting outside the fuckin' stores? Fuck! The door closes, and the Babies sit there quietly for a beat. Then, they look at each other. The larger one says nothing. The smaller one says-- BABY Fuck, fuck, fuck... DISSOLVE TO THE PRESENT JAY and SILENT BOB stand where the Babies sat. The Record Rack is now RST VIDEO. Jay is mid-chant. JAY as a chant --fuck, fuck, fuck, mother-mother fuck, mother-mother fuck-fuck! Mother- fuck-, mother-fuck, mother-fuck, noinch, noinch, noinch, smoking weed, smoking weed, doing coke, drinking beers! Drinking beers, beers, beers, rolling fatties, smoking blunts! Who smokes the blunts? We smoke the blunts! A pair of TEENS approach them. TEEN 1 Lemme get a nickel bag. JAY Fifteen bucks, little man. Put that shit in my hand. If the money does not show, then you owe-me-owe-me- owe. changing up to Morris Day My Jungle Love! Yes, Oh-we-oh-we-oh! I think I want to know ya', know ya'-- TEEN 1 digging in pockets What the hell are you singing? JAY You don't know Jungle Love? That shit is the mad notes. Written by God Herself and handed down to the world's greatest band--the motherfucking Time. TEEN 2 The guys in that Prince movie? TEEN 1 Purple Rain. TEEN 2 Man, that shit was so gay--fucking eighties style. Jay suddenly grabs the kid by the throat, throwing him against the wall. JAY Bitch, don't you NEVER say an unkind word about The Time! Me and Silent Bob modeled our whole fucking lives after Morris Day and Jerome! I'm a smooth pimp who loves the pussy, and Tubby here's my black manservant! Just then, RANDAL exits the video store, locking the door behind him. RANDAL What'd I tell you two about dealing in front of the store? Drop the kid and peddle your wares someplace else, burn-boy. walking away And for the record, The Time sucked ass. He exits. Jay, Silent Bob, and the Teens watch him go. After a beat-- JAY Yo-youse guys wanna hear something fucked up about him and the Quick Stop guy? INT. QUICK STOP-DAY Randal joins Dante behind the counter. Dante rings up a customer, a half-eaten submarine sandwich sitting on the counter. Randal grabs it, takes a bite, and starts reading a newspaper. RANDAL Hey, can't we do something about those two stoners hanging around outside all the time? DANTE Why? What'd they do now? RANDAL I'm trying to watch Clash of the Titans, and all I can hear is the two them screaming about Morris Day at the top of their lungs. DANTE I thought the fat one didn't really talk much. RANDAL What, am I producing an AE Biography about 'em? I'm just saying they shouldn't be loitering around the stores like they do. DANTE Neither should you, but we let you stay. RANDAL See, man--if you were funnier than that, ABC never would've canceled us. DANTE What? RANDAL Nothing. Enter Teen 1 and Teen 2, chuckling. TEEN 1 Two packs of Wraps. beat Yo--how was the service? RANDAL What service? TEEN 2 The one at the Unitarian church where you two got married to each other last week. RANDAL What the hell are you talking about? TEEN 1 Jay said you had a Star-Wars--themed wedding and you guys tied the knot dressed like storm troopers. TEEN 2 Yeah. And he said you're the bitch and you're the butch. Oh, sorry--the Leia and the Luke. DANTE I'm the bitch?! RANDAL Well if we were gay, that's how I'd see it. DANTE Would you shut up?! TEEN 1 to TEEN 2 Holy shit, dude. The honeymoon's over. DANTE We're not married to each other. TEEN 1 Well, sure. Not in the eyes of the state or any real church, Skywalker. RANDAL heading for the phone That does it. I'm gonna do something about those two. I shoulda done a long time ago TEEN 2 In a galaxy far, far away! TEEN 1 exiting May the Foreskin be with you. Hand Jabba the Hutt. RANDAL into phone Yeah, I want to report a couple of drug dealers out in front of the Quick Stop. EXT. QUICK STOP--DAY Jay and Silent Bob are thrown against the wall outside by a COP, who frisks them. JAY What the Fuck, Serpico? What'd we do? COP We got a report that two guys were hanging around outside the stores, selling pot? JAY We don't smoke pot, yo. Teen 1 enters and hands Jay rolling papers. TEEN 1 Here're the rolling papers you wanted for your pot. And your change. Thanks. getting in Jay's face And The Time sucks ass! Teen 1 races off. Jay and Bob move to follow, but the Cop stops them, grabbing the rolling papers out of Jay's hand. He eyeballs the pair. COP No pot, hunh? What do you need this for? JAY What? I got a wiping problem. I stick these little pieces of paper over my brown-eye, and bam--no shit stains in my undies. unbuttoning pants You don't believe me? Lemme show you. Jay drops his pants and leans against the wall, looking back over his shoulder. JAY Just spread my cheeks a little and you can see the fucking stink nuggets-- COP Pull up your pants up sir, Now! Jay bends down to pull up his pants and FARTS. Silent Bob cracks up. The Cop grabs them both, leading them toward the car. COP Let's take a ride down to the station. JAY What? It's suddenly a crime to fart, motherfucker?! EXT. BRODIE BRUCE'S SECRET STASH COMIC BOOK STORE--DAY An ESTABLISHING SHOT of Brodie's store in the heart of Red Bank. BRODIE O.S. No fucking way! WE GO TIGHT on the huge, cartoon sign of BRODIE outside to-- INT. BRODIE BRUCE'S SECRET STASH COMIC BOOK STORE--LATER BRODIE himself, holding a stack of comics in one hand and a Dixie cup in the other, Jay and Silent Bob follow him as he puts new books in the racks. BRODIE Dante and Randal slapped you with a restraining order?! JAY Judge said if we go within a hundred feet of the stores, we get thrown into County. BRODIE So you gonna abide by the court's ruling or you gonna go Bandit-- Reynolds style? JAY Fuck yeah! You know what they make you do in county? Toss the fucking salad! I don't like this fuck's asshole I'm gonna do it for some stranger? BRODIE I guess if you really wanted to hang out in from of a convenience store, you could just buy your own now-- what with all that money you guys made. JAY Hell yeah, bitch. beat Wait a second--what money? BRODIE The money from the movie, dumb-ass. JAY What the fuck are you babbling about? BRODIE pulling a bagged-and- boarded issue down from the wall The Bluntman and Chronic movie. dawns on him Oh my God--don't tell me you have no idea there's a movie being made of the comic you two were the basis for. JAY What?! Since when? BRODIE Goddamit, man-- taps his wrist Here's the pulse, alright. And here's your finger-- shoves his hand down the back of his pants --far from the pulse, jammed straight up your ass. extracts hand and extends it to Jay Say--would you like a chocolate covered pretzel? Brodie leads them back to the counter. BRODIE You see, kids, if you read Wizard, you'd know it's the top story this month. Check it out. Brodie hands Jay and Silent Bob a copy of Wizard, opened to the headline Snootchie Bootchies! Bluntman and Chronic Get Big Screen Treatment! There are pictures of HOLDEN MCNEIL AND BANKY EDWARDS, as well as drawings of Bluntman and Chronic. JAY When the fuck did this happen?! BRODIE Well, after X-Men hit at the box office, all the studios started buying up every comic property they could get their hands on. Miramax optioned Bluntman and Chronic. JAY Miramax? I thought they only made classy flicks like The Piano and The Crying Game? BRODIE Yeah, well once they made She's All That, everything went to hell. So you're saying you haven't gotten a cut of the movie? Didn't Holden McNeil and Banky Edwards used to pay you likeness rights for the comic book? JAY We haven't seen a fucking dime for no movie! BRODIE Well boys, I'm no lawyer, but I think Holden and Banky owe you some of the proverbial phat cash. I mean they're making a movie based on characters that are based on you and Quiet Robert. JAY It ain't me and Quiet Robert. It's a pair of stupid-ass superheroes that run around saying Snitchy-Nitchies or something. BRODIE I believe it Snootchie Boochies. Regardless--you're getting screwed. If I was you guys, I'd confront Holden McNeil and ask him for my movie check. JAY Shit yeah. We gotsa get paid. BRODIE And on that note, we cue the music. Jay lays down a House bass beat. Brodie complements it with his own beat. EXT. POTZER'S INC--DAY Jay and Silent Bob mosey past the front door of the building and knock. INT. POTZER'S INC--DAY Holden McNeil, opens the door and smiles. HOLDEN Well! I have been waiting years to do this. smiles Look at these morose motherfuckers right here. Smells like someone shit in their cereal. Bunngg! Jay and Silent Bob enter. Holden closes the door, following them. JAY What the fuck took you so long answering your damn door? You trying to talk another girlfriend of yours into some of that gay-ass three-way action with your buddy? HOLDEN No, I was just showering your mother's stink off me after I gave her a quick jump and sent her home. But now that you mention it-- to Bob Thanks, you know. You could've made the moral of that story you told me a bit more clear. Silent Bob shrugs. HOLDEN So what brings you two dirt merchants to my neck of the woods? JAY Oh, I'll tell you what our necks are doing in your woods-- Silent Bob holds up the Wizard article. JAY Where's our motherfucking movie check? HOLDEN You heard about that too, Hunh? Well, I've got nothing to do with it. That's Banky's deal. He owns the property now. I signed my half of the Bluntman and Chronic right over to him years ago. JAY Why the fuck would you do a thing like that? HOLDEN Because I'm almost thirty, for God's sake--why on earth would I want to keep writing about characters whose central preoccupations are weed and dick and fart jokes? You gotta grow, man. Don't you ever want more for yourself? off Silent Bob I know this poor, hapless sonovabitch does. I look in his doe eyes and I see a man crying out, When, Lord? When the fuck can your servant ditch this foul-mouthed little chucklehead to whom I am a constant victim of his folly, and who bombards me and those around us with grade-A foolishness that prevents me from even getting to kiss a girl? Fuck! When?! Silent Bob nod like he's finally understood. Jay looks at him, hurt, and Bob tried to downplay the comment's truth. JAY I'm the chucklehead? Fuck you--you're the dumb-ass who gave away his comic, and now you ain't got no fat movie check neither. HOLDEN When you're right, you're right. I wish I'd broken off a little piece for myself. Because if the buzz is any indication, the movie's gonna make some huge bank. JAY What buzz? HOLDEN The Internet buzz. JAY What the fuck is the Internet? INT. OFFICE OF POTZER'S INC--LATER Holden's at a computer terminal. Jay and Silent bob look over his shoulder. HOLDEN The Internet is a communication device that allows people the world over to bitch about movies and share pornography with one another. off monitor Here's what we're looking for Movie PoopShoot.com JAY to Bob PoopChute. Yeaaahhh. HOLDEN This is a site full of militant movie buffs sad bastards who live in their parents' basements, downloading scripts and trading what they believe to be inside info about movies and actors they despise yet can't stop discussing. This is where you go if you wanna hear frustrated would-be filmmakers mouth off with their two- bit, arm-chair-director's opinions on how they all could've made a better Episode One. On the computer monitor, we see the site mainpage load up. Holden begins navigating the site. HOLDEN Here. This is about the Bluntman movie. reading Inside sources tell me Miramax is starting production this Friday on their adaptation of underground comic fave Bluntman and Chronic. JAY Friday?! Shit. Does it say who's playing us in the movie? HOLDEN No, but if it's Miramax, I'm sure it'll be Ben Affleck and Matt Damon. They put'em in a bunch of movies. JAY Who? HOLDEN You know--the guys from Good Will Hunting. JAY You mean the fucking movie with Mork from Ork in it? HOLDEN Yeah, I'm not too big a fan either. Though Affleck was the bomb in Phantoms. JAY Word, bitch. Phantoms like a motherfucker. Holden and Jay slap hands. Holden points at the monitor again. HOLDEN Now down here is where you can gauge the buzz. This is the Shoot Back area. It's where people who read the news get to chime in with their two cents. Here's what a guy who goes by the chick-magnet Net handle of Wampa- One thinks about Bluntman and Chronic. reading Bluntman and Chronic and their stupid alter egos Jay and Silent Bob only work in small doses, if at all. They don't deserve their own movie. to Jay He's got a point. JAY Fuck him. What's the next one say? HOLDEN reading Bluntman and Chronic is the worst comic I ever read. Jay and Silent Bob are stupid characters. A couple of stoners who spout dumb-ass catchphrases like a third-rate Cheech and Chong or Bill and Ted. Fuck Jay and Silent Bob. Fuck them up their stupid asses. JAY Who the fuck said that shit?! HOLDEN A guy who calls himself Magnolia- Fan. Check out what the guy after him said Jay and Silent Bob are terrible, one-note jokes that only stoners laugh at. They're fucking clown shoes. If they were real, I'd beat the shit out of them for being so stupid. I can't believe Miramax would have anything to so with this shit. I, for one, will be boycotting this movie. Who's with me? leans back And then there are about fifty more posts from people who agree to join Spartacus-here's boycott of the flick. JAY grimly I'm gonna kill all these fucks-- HOLDEN Ah, let it go. Number one, they're a bunch of jealous little dicks who use the anonymity of the Net to insult people who're doing what they wish they were doing, and number two, they're not really talking about you guys--they talking about Bluntman and Chronic. JAY But they said Jay and Silent Bob! They used our real names. It doesn't matter that there's a comic book version of us and a real version, 'cause nobody knows we're real in real life. HOLDEN Really. JAY Yeah! And all these people who read that shit think the real Jay and Silent Bob are a couple of faggots 'cause of that all these dicks are writing about the comic book Jay and Silent Bob! And maybe one night, me and Lunchbox'll be macking some bitch, and she'll be like Oooo! I want to suck youse guys dicks off. What's your names? And I'll be like, Jay and Silent Bob. And she'll be like, Oh--I read on the Internet that youse guys were little fucking jerkoffs. And then she goes and sucks two other guys's dicks off instead! Well fuck that! We gotta put a stop to these hateful sonsa- bitches before they ruin our good names! HOLDEN First off, I don't know how good your names really are. Secondly, there's not much you can do about stopping this bile. The Internet's given everyone in America a voice, and everyone in American has chosen to use that voice to bitch about movies. As long as there's a Bluntman and Chronic movie, the Net-nerds are gonna have something negative to say about it. Jay steams, thinking. Then, a light dawns on him. JAY But wait a second--if there wasn't a Bluntman and Chronic movie, then no one would be saying shit about Jay and Silent Bob, right? HOLDEN They're not saying anything about you now--they're talking about fictional characters! JAY oblivious to Holden to Bob So all we gotta do is stop 'em from making the movie! HOLDEN Yeah, and kiss-off the hundreds of thousands of dollars in royalties you're due in the process. Are you fucking retarded? Look, I'm probably not alone in the opinion that this flick is the worst idea since Greedo shooting first. I mean, a Jay and Silent Bob movie? Who would pay to see that? Holden, Jay and Silent Bob pause and look at the camera for a beat. Then-- HOLDEN But since it is happening, you might as well just ignore the idiots on the Internet, go find Banky, and get your motherfucking movie check. As you so succinctly put it. That's what's important here. JAY No, Holden McNeil--what's important here is that there's a bunch of motherfuckers we don't even know calling us assholes on the Internet to a bunch of teenagers and guys who can't even get laid. Putting a stop to that is the most important thing we could ever do. off monitor When did it say they're making that movie? HOLDEN They start this Friday. JAY So if today's Tuesday, that gives us-- counts Eight days. HOLDEN It's more like three days. JAY Right. Three days to stop that stupid fucking movie from getting made! C'mon, Silent Bob-- Jay and Bob stand and look at each other, filled with purpose. JAY We're going to Hollywood. They stride off. Holden shakes his head. HOLDEN Now that's what I call the Blunt leading the Blunt. EXT. BUS STATION--DAY Jay and Silent Bob approach a bus that's labeled Los Angeles. They nod at each other and then climb aboard. After a beat, they re-emerge. JAY Tickets? Since when did they start charging for the bus? They head toward the depot. JAY Didn't we used to ride that shit to school every day for free? EXT. HIGHWAY--DAY The bus roars past a sign that read Leaving New Jersey. INT. BUS--SAME Jay makes his way up to the DRIVER. JAY We in Hollywood yet? DRIVER It's a three--day ride to Los Angeles, sir. We left twenty minutes ago. JAY I didn't ask you about Los Angeles. I asked you about Hollywood. DRIVER Hollywood's in Los Angeles, sir. JAY Don't change the subject! Are we in Hollywood yet or not? DRIVER Please sit down, sir. Jay glares at the Driver and heads back to his seat. JAY Why don't you take your seat Ralph Kramden-- Jay slumps into the seat beside Silent Bob. JAY I'm fucking bored, man. There ain't shit to so on this bus. Silent Bob mimes jerking off. JAY I already did that. Twice. Silent Bob shrugs, looking out the window, Jay looks across the aisle and spots a CHILD IN A HELMET playing a handheld video game. He leans over to him. JAY Yo, Gretzky--lemme get a turn. CHILD Leave me alone, little kid. The Child gives him the finger. Jay goes wide-eyed, turning to Silent Bob. JAY That fuck called me a little kid and gave me the finger! Go kick his ass! Silent Bob offers an incredulous look, as if to say, He's ten years old. JAY You're my muscle, ain'tcha? Silent Bob kind of nods. JAY So go open a can of whup-ass on that little fuck, and get me his game! Silent Bob sighs and stands. He climbs over Jay into the aisle and stands in front of the child. He looks at him and registers doubt. He looks back to Jay, who waves him on. Silent Bob steels himself, looks back to the kid and reaches for his game. The Child emits a high-pitched scream and starts punching himself in the head. Silent Bob dives back into his seat, trying to look nonchalant. The Child stops crying. Jay looks at Silent Bob. JAY You're one tough motherfucker, you know that? EXT. HIGHWAY--DAY The bus pulls over by the side of the road. INT. BUS--DAY The Bus Driver heads down the aisle toward the back of the bus, followed by pissed-off PASSENGERS. PASSENGER They been in there going on half an hour now! Two of them! Doing God knows what! The Bus Driver bangs on the bathroom door and shouts. DRIVER This bus isn't moving another inch unless you clear out of there right now! No answer. The Bus Driver bangs on the door harder. DRIVER DO YOU HEAR ME?! OPEN THIS DOOR! NOW!! The door handle turns, the door swings wide, and massive amounts of smoke suddenly billow through the back of the bus. The smoke clears to reveal Jay and Silent Bob squeezed into the bathroom, holding a massive joint. JAY Um--I think something's burning back here. EXT. ROADSIDE--LATER As the bus pulls away, Jay and Silent Bob are revealed, left behind. JAY The whole fucking world's against us, dude. I swear to God. Silent Bob nods. Jay sticks out his thumb and starts hitching. EXT. ROADSIDE--LATER Jay and Bob are walking backwards, hitching still. JAY This sucks balls, man. How come we ain't getting no rides? VOICE 'Cause you're doing it all wrong. Jay and Bob look behind them. There's a GUY hitching as well. GUY You gotta induce the drivers a little. JAY Like how? GUY Like this. The GUY holds out his sign to them. It reads Will Give Head For Ride. JAY Yeah, but what happens when you get in the car, and you don't make with the head? Don't they kick your ass to the curb? GUY Sure--if you don't make with the head. Jay and Bob look at him for a long beat. Then-- JAY Eww! You eat the cock?!? GUY Yeah. If it'll get me a few hundred miles across country. I'll take a shot in the mouth. JAY Yeah, but we ain't gay. GUY Well, neither am I. But have you seen the price of bus tickets lately? Shit--I don't wanna cough up two hundred bucks just to get to Chicago. JAY Well, I don't wanna cough up some dude's sperm! GUY Don't be so suburban--this is the new millennium. Gay, straight--it's all the same now. There're no more lines. Jay draws a line on the ground with his foot. JAY There's one. On this side of it, we ain't gay. GUY All hitchers do this. Why do you think people pick us up? If you get a ride, it's expected--I don't care who the driver is. It's the first rule in the Book. JAY What book? GUY The unwritten Book of the Road. A TRUCK starts to pull over to the side of the road. The Guy points to it, as if to say See? The passenger-side door opens. The Guy climbs into the truck and closes the door. He looks out the window at Jay and Bob. GUY Follow the rules of the Book, and you'll get where you're going in no time. Excuse me. Through the windshield, Jay and Silent Bob see the Guy go face-first into the TRUCK DRIVER'S lap. The Truck Drivers smiles, and the truck takes off, roaring down the road. Jay and Silent Bob watch the truck disappear. Then, a CAR pulls up. The NUN driving rolls down the passenger side window and leans toward them. NUN You two boys need a ride? INT. CAR--LATER The NUN drives, smiling. Jay and Silent Bob sit in the back seat, huddled close together, their eyes glued on the Nun. NUN You both don't have to sit back there. One of you can sit up here with me. Silent Bob shakes his head no to Jay. Jay shrugs and climbs up front. NUN So where are you boys from? JAY New Jersey. NUN What brings you to Indiana? JAY We're going to Hollywood. NUN Hollywood, hunh? That's a long ways away. JAY Yeah--we're lucky you picked us up. NUN Well, do unto others. That's what the Book says. JAY misinterpreting completely Wait a minute--you follow the Book, too? NUN I live my life by it. JAY Really? You? NUN Of course. You know how lonely it gets on the road? Thanks to the Book, I'm never alone--if you know what I mean. JAY I guess. This guy back there explained it to us. But I didn't think you'd be into that. NUN Are you kidding? I've dedicated my life to it. Every hour of every day. JAY Shit--you nuns are alright. NUN You live by the Book, too? JAY You picked us up, didn't you? I gotta. NUN That's good to hear. But it takes deed, not words. It's a lot easier to say you live by the Book than to actually do it. looks at him Can you do it? JAY You want me to do it right now? NUN No time like the present, right? Jay looks back at Silent Bob. Silent Bob shakes his head no. Jay shrugs them flips his hair over his shoulder, and starts to bend down. JAY Alright. he suddenly stops You hear that? She's not a Catholic. She's a Presbyterian. Jay disappears below the dash, The Nun goes wide-eyed. EXT. ROADSIDE--DAY The Nun's car screeched to the side of the road. Jay gets kicked our of the front seat by the screaming Nun. Silent Bob rushes out too, and the car races off. Jay's wipes his mouth. He pulls a long curly hair from between his teeth. JAY Dude--she had seventies bush. EXT. HIGHWAY--NIGHT Jay and Bob continue hitching. JAY I can't believe this shit. Five hours and not a single ride. Every day, millions of people hitch to Hollywood and stop studios from making movies about 'em. But when you and me try it, it's like we're trapped in a fucking cartoon! A familiar-looking VAN pulls up in the other side of the raid, The horn beeps. Jay and Bob look at each other, shrug, and race across the street, get in. The van pulls off. INT. VAN--NIGHT Jay and Bob sit in the back of the can and stare at-- A clean-cut GUY, a Bookish woman in glasses, a red headed Beauty, a stoner DUDE, and a GREAT DANE. Jay looks at Silent Bob. JAY Zoinks, yo GUY And now we can finally solve the mystery of the Hitchhiking Ghouls! Pull off their masks and let's see who they really are! BOOKISH I don't think they are masks. BEAUTY I don't think they're Hitchhiking Girls either. BOOKISH Ghouls, you fucking moron. Not Girls. to herself Though I wish they were hitchhiking girls. Sexy, skimpily clad hitchhiking girls-- GUY Let's kick them out. We've got a mystery to solve. DUDE The only mystery here is why we take our cues from a dick in a neckerchief! GUY Keep it up, Beatnik! I'll feed you to the fucking dog! BEAUTY covering her ears shrieking I CAN'T TAKE ALL THIS FIGHTING! JAY YO! The Gang look to Jay and Bob. JAY Youse guys need to turn those frowns upside down! And we got just the thing for that. pulls out a bag of joints We call them Doobie Snax. INT. VAN--WEED VISION As Jay and Bob toke up, we go all SLO-MO and 70's freaky with the image seeming to SWIM. Through their stoned haze, we see old-school witches, skeletons, and ghouls swirling about their heads--the latter of which gets his mask taken off to reveal a man inside a costume. Jay and Bob look at the gang, then take a hit off their joint and look back. Suddenly, the gang's engaged in total debauchery the Dude rides the windshield while the Guy cackles insanely, blindfolded by his neckerchief. Bookish and Beauty are in their underwear, making out with each other. The Great Dane looks at Jay and Bob and says-- GREAT DANE Ri, Ray rand Rirent Rob The Great Dane rolls over, revealing its RED THING sticking way out of its sheath. It's monstrous. Jay and Bob go wide- eyed. JAY Look at his fuckin' lipstick!!! He's got a stoner-boner!!! Jay and Bob smile and pass out. We cut back to the gang, who now appear as they did prior to Weed-Vision. They stare at the O.C. Jay and Bob. BEAUTY I think they passed out. GUY Great. What do we do with them now? DUDE Let's cut out their kidneys to sell on the black market and leave them in a seedy motel bathtub full of ice. BOOKISH Oh God, not again? INT. SEEDY MOTEL BATHROOM--NIGHT Jay lies in a bathtub full of ice, screaming. There's a scar on his back. EXT. KANSAS CITY PARK--DAY Jay wakes up suddenly, screaming. He startles Bob awake as well, as he clutched at this back lifting his shirt to see the scar. It's not there. JAY Holy shit, I had a horrible dream. looks around Yo, I'm hungry. Where can we get some breakfast? Bob looks around, and then locks on something O.C. He points, and Jay looks, smiles widely, and nods. EXT. MOOBY'S FAST FOOD JOINT--DAY An ESTABLISHING SHOT of the fast food eatery, as Jay and Bob enter. INT. MOOBY'S FAST FOOD JOINT--SAME As the pair head for the counter, Jay notices a public INTERNET TERMINAL. He tugs at Silent Bob's arm. JAY Yo--check that shit out the Internet. Let's see if those fucks said something new about us and that stupid flick. Bob shrugs, heading for the terminal. He inserts a dollar and types, following it up with a mouse click. The pair look at the screen and go wide-eyed. JAY Any movie based on Jay and Silent Bob is gonna lick balls, because they both, in fact, lick balls. Namely each other's. Jay and Silent Bob look at each other, wide-eyed. JAY Eww. reading further Yes--they are real people. Real stupid people. Signed, Darth Randal. to Bob Motherfucker! It's time we wrote something back! Type this shit down. Silent Bob starts typing as Jay dictates. JAY All you motherfuckers are gonna pay. You are the ones who are the ball- lickers. We're gonna fuck your mothers whole you watch and cry like little bitches. Once we get to Hollywood and find those Miramax fucks who are making the movie, we're gonna make 'em eat our shit, then shit our shit, then eat their shit which is made of our shit that we made 'em eat. Then all you motherfuckers are next. Love, Jay and Silent Bob. Silent Bob finishes typing and presses Return. He and Jay nod at each other, then head over to the counter line, looking up at the menu board. JAY That'll fucking show 'em. Now we eat our Egga-Mooby-Muffins, then get back on the road, get to Hollywood, and stop that fucking movie from getting made. No more hairy-bush nuns, no more dogs. We keep our eye on the prize, and not let nothing-- and I mean NOTHING--distract me. As Jay finishes speaking, he looks to the O.C. doors and freezes. A gorgeous GIRL walks through the front doors, all in SLO-MO to the tune of Prince's The Most Beautiful Girl in the World. She's bathed in light, glowing. She bats her eyelashes, gliding toward us. Jay is mouth-agape wide eyed. Silent Bob looks at him, then at the O.C.Girl. He slowly waves his hand in front of Jay's eyes, getting zero response. JAY'S POV The Girl smiles at us. His POV goes from her face, down to her breasts, then down to her crotch. Jay moves past Silent Bob and meets the Girl in the middle of the floor. He embraces her and lands a long, sweet kiss on her mouth. After a beat, he starts fumbling like a teenager to get to second base under her shirt, totally incongruous with the music. The Girl kindly tries to deter him. But it's just a fantasy. Jay's still standing there next to Silent Bob, but he is sporting a huge BONER. Silent Bob rolls his eyes. He grabs a soda cup off the counter and sticks it over Jay's boner, just as the Girl joins them in line. She smiles at the zombified Jay. GIRL off cup Oh my God. Do you get free refills with that? JAY Oh, what--this? I just wear this for protection. You know--so no guys try to grab my shit. GIRL Hi. I'm Justice. JAY dreamily And I am so fucking yours-- Silent Bob pokes Jay, who shakes of his daze. JAY I mean hi. I'm Jay. And this is my hereto life-mate, Silent Bob. JUSTICE It's nice to meet you. JAY Justice, hunh? That's a nice name. under his breath, to Bob Jay'n'Justice, sitting in a tree. F- U-C-K-I-N-G-- back to Justice So you come here often? JUSTICE Oh, I'm not from around here. My friends and I are taking a road trip, and we just stopped to grab something to eat. JAY Your friends, hunh? Where they at? JUSTICE pointing Out there. By that van. Jay and Bob look past Justice to see a VAN with three other gorgeous GIRLS stretching outside of it, throwing their hair around, looking incredibly sexy. Without looking at Silent Bob, Jay quietly says to him-- JAY Dude--I think I just filled the cup. INT. VAN--DAY Jay and Bob climb into the can, getting odd looks from the other Girls, Justice follows them in, tossing the fast food to her friends. JAY Ladies, ladies, ladies! Jay and Silent Bob ar</t>
+          <t>D-O-N-T-C-H-A Tu me connais Aight 9.8, je représente, gars Trop pressé parfois, je veux des billets, brasser des liasses Préférant gars La fortune sourit Sourit aux audacieux gars Tétonne pas, dans mon quartier les jeunes paraissent plus vieux, car Les temps deviennent dur Difficile pour nous aujourdhui, frangin De parsemer sa semence, chaque jour veiller au bon grain Que la récolte soit bonne chaque année Cest ça que je prie, Seigneur Mais en vain, rien pour rien, par mon front viendra la sueur Cette sueur a coulé de mon front, mon col en est tacheté Si je lutte chaque semaine comme un guedin Cest pour le pouvoir dacheter Fou, guedin du MC qui rappe que pour des gains Les meufs sifflent à chaque fois si pour ton compte elles ont le béguin Je rêve de cueillir des billets sur les putains de branches dun chêne Ça cest comme dans Alice Ici, cest le pays où chacun se démène Nous, on se lève tôt Payer le ticket, être dans le bon wagon Pas de grasse matinée, nourrir les cafards et acheter Baygon Certains lâchent, des guns, cachent Des faux flingues juste pour du cash Mais faut que tu saches que par le pistolet tu finis à coup de hache Tu veux jouer au truand dur pour que la détente te rapporte Mais même dans les films de tueurs gangsters Cest le bon qui le remporte Comme tu veux que le mal règne, si le mal gagne, Satan gagne Pour des enfants noirs, ici, de femmes qui ont porté des pagnes Bref, jai laptitude de vaincre sans devoir sortir les armes Sans dealer de la coke, came, sans devoir faire couler de larmes Alors, re-frè, dis-moi, tu sais comment senfonce une punaise ? Facilement, avec un bruit, comme cela est écrit dans la Genèse Jespère que tu ne pries plus pour quon exauce tes prières Car jai limpression que tu voudrais que sétende le règne de Lucifer Trop pressé parfois, je veux des billets, brasser des liasses Préférant gars La fortune sourit Sourit aux audacieux gars Tétonne pas, dans mon quartier les jeunes paraissent plus vieux, car Trop pressé parfois, je veux des billets, brasser des liasses Préférant gars La fortune sourit Sourit aux audacieux gars Tétonne pas, dans mon quartier les jeunes paraissent plus vieux Arrive le Daddy, plein de rimes, de face, de phases comme promis Apportant ce qui manque au Hip Hop, vaut mieux, parce quil vomit Face au cro-mi, linsoumis y trouve un de ces compromis Au fin fond dun son cramé, lui enlevant son air de paumé À consommer avec modération car pour habitués Pour ceux qui font de largent légalement, illégalement Qui pourrissent en prison, peuvent même pas Plus ont ce quon a pas, le perdront, pardon, car on le reprendra Ainsi va la vie, les aléas faut faire avec Ce quil y a, sil y a, sans se soucier de ce que lon dira Pauvre, un cur de pierre, mal éduqué, la tête dun caillou Lesprit racailleux de simples voyous, pour qui nous prends-tu ? voyons ! Ton histoire à pleurer, rajoutes-y une note de violon Mais avant sache que vieux lon traite sans se brader et se dévaluer Du gamin au vieillard, pas de repos pour la matière grise Aspire pour que le départ se fasse en douceur sans surprise tassumes ta tune, s'en sorte pas prise On me reproche souvent davoir voulu grandir trop vite Les jeunes maintenant à treize ans veulent en paraître dix-huit La galère, sen sortir et essayer de sortir du chaos Montrer que ta tête nest pas remplie de carottes et de cacao La brute épaisse, tu représentes, donne pas que dans le pied au pao En un mot, malgré tes défauts, en service un cerveau Yo, Daddy lord C, Dontcha, aight MC Trop pressé parfois, je veux des billets, brasser des liasses ouais Préférant gars La fortune sourit Sourit aux audacieux gars Tétonne pas, dans mon quartier les jeunes paraissent plus vieux, car Trop pressé parfois, je veux des billets, brasser des liasses Préférant gars MC La fortune sourit Sourit aux audacieux gars Tétonne pas, dans mon quartier les jeunes paraissent plus vieux Yo Vieux 9.9 8 MC Écoute ça Le 9.3, je représente, gars Écoute ça Le 9.2, je dédicace, aight MC, MC Teddy Derrière les barreaux Cliqua, seulement Aight Seulement Da LAs Les miens, je représente Da LAs Les miens, je représente, gars Da LAs Les miens, je représente Da LAs 9.3, je représente, gars Écoute ça 7.7 Le 9.2, je dédicace, aight 7.7 9.4 9.1 Yo D-O-N-T-C-H-A Écoute ça Daddy Lord C, MC Daddy Lord C remet de lordre ici, aight Écoute ça</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Daddy Lord C</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Daddy Lord C</t>
         </is>
       </c>
     </row>
@@ -611,12 +711,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Fais-le bien</t>
+          <t>Le Contrat</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>V'là la lame dans ta shoes, le soleil quand t'as chaud La rébellion, le coup d'état, le fusil d'assaut Ça fait un bout d'temps, qu'tu m'as pas pas entendu J'ai rien perdu, j'ai l'flow, bien entendu J'apparais pas pour faire le rigolo Je laisse aux autres de vendre pour du dombolo Je respecte mon boulot, avec ou sans promo Rimer, le faire bien, en plus sans trop de gros mots Représenter cet amour qui t'embrasse tendrement Dire qu'notre avenir au quartier, on l'voit autrement J'me lève comme toi, tous les matins Affamé, voire pitbull, tous les matins Un vrai dog, un vrai thug, un Lounès Matoub Je l'dis aux cons on veut péter ma couv' Beaucoup m'approuvent, toi-même tu t'y retrouves, gros Le MC, si tu l'fais, fais-le bien T'étonne pas après si ce cercueil, c'est le tien La vérité si tu la dis, dis-la bien Qu'on t'compte toujours parmi ceux dont on dit du bien Mon nom si tu l'écris, écris-le bien Tu seras jamais le dernier, à l'esprit qui nous viens Le quartier, tu l'décris, décris-le bien Ne mets pas en valeur que les bons à rien Je viens toucher le monde, c'est une mise à l'amende Verre de thé à la menthe en voiture allemande Je suis pas à la mode XXX loin d'là La loi du bitume, la rue, je viens d'là Avec les putes, les flics et tout c'qui vient d'là Qu'il y ait une descente, qu'on me descende L'essentiel pour chacun, qu'la balle soit remise au centre Je perds pas mon temps, j'ai choisi mon camp, toi ton boucan Que mes gosses tiennent un bouquin Oublie-moi si des principes, t'en as aucun Qu'tu t'sens mal si je suis jaune, noir ou encore Marocain Compte tenu que le bruit tourne, la vie continue Mais une chose surveille ton langage si on continue Ici on a d'quoi te faire grimper aux rideaux Que tu fugues comme sur ce poulet dans ton frigo Le MC, si tu l'fais, fais-le bien T'étonne pas après si ce cercueil, c'est le tien La vérité si tu la dis, dis-la bien Qu'on t'compte toujours parmi ceux dont on dit du bien Mon nom si tu l'écris, écris-le bien Tu seras jamais le dernier, à l'esprit qui nous viens Le quartier, tu l'décris, décris-le bien Ne mets pas en valeur que les bons à rien À quoi veux-tu ressembler, à un gars qui fait semblant Plein de faux-semblants, uzi même sans plan Ça devient à la mode de devenir un hustler Franchement entre nous, est-ce le moment, est-ce l'heure La vie qu'tu mènes ne sera jamais un best-seller Même si t'as pas en paix ces nerfs et dans le vol tu persévères Consomme pas ces merdes, ça nous convient pas c'est mort Je cours pas après ces chimères, pourquoi le bon son se meurt En plus, aujourd'hui j'suis pas d'humeur Autre chose à penser, moi ma ville y a pas de maire Pour avancer, le hip-hop ma voie et quelques potes Se mettre bien, toujours reçu dans quelques boîtes Un point d'honneur si dans la famille quelqu'un lutte T'es stressé? Écoute ça, prends quelques lattes Tu verras qu'tu connais pas mais c'est pas mauvais Dépêche-toi, n'attends pas ce jour où je m'en vais Toute façon, tu verras si je m'en fais Le MC, si tu l'fais, fais-le bien T'étonne pas après si ce cercueil, c'est le tien La vérité si tu la dis, dis-la bien Qu'on t'compte toujours parmi ceux dont on dit du bien Mon nom si tu l'écris, écris-le bien Tu seras jamais le dernier, à l'esprit qui nous viens Le quartier, tu l'décris, décris-le bien Ne mets pas en valeur que les bons à rien</t>
+          <t>Yeah yeah, écoute ça Squadra Le pacte Ça, c'est XXX l'album XXX Eh eh Yeah Les poings fermés dans les poches, observant les ombres qui s'approchent Les amis qui clochent, c'est fou comme le succès change tes proches Y a rien à faire, le mieux c'est d'fuir toute cette médiocrité Changer d'atmosphère, liquider les traîtres démasqués Moi et mon partenaire, on a fait un pacte qui nous unit pour la vie S'il n'y a plus d'amitié entre nous, on arrête c'est promis On a tellement subi de trahisons ces dernières années Qu'aujourd'hui, c'est décidé, c'est Cliqua Squadra pour durer Onda, ganga, mafia S'il faut faire des lois pour s'entendre entre nous, bien, on les fera C'est comme une famille qui s'endurcit Comme un bloc de béton pour une guerre D'l'acier inoxydable, j'y crois dur comme fer J'y vois plus clair Des paranos subsistent encore malgré tout dans l'crew Il n'y a plus d'temps à perdre, le hip-hop n'attend plus que nous Sexe, mensonges au micro, complot Stress, contrats, fiasco Gonzesses et business XXX y a plus d'politesse, plus d'amis ni noblesse Que des soi-disant potes qui s'engraissent Qui cherchent nos faiblesses, nous pressent Pour grossir leur compte en caisse La méfiance est un atout majeur dans la profession Choisis bien tes pions fiston, n'ais confiance qu'en ton intuition C'est comme un échiquier, un face-à-face bestial Où chaque faux mouvement crée les cases vides Sois clair, précis et rapide Tellement d'intrus qui veulent nous séparer, nous disperser, nous aveugler Même brûler les liens sacrés d'une amitié Faire couler, nous effacer, nous liquider Nous retarder yeah Je sais qu'parfois ça peut vexer mais j'dis qu'la vérité Les ombres du mal nous envahissent à chaque faux pas J'ai toujours cru en l'union Mais la gloire, le pognon créent trop de tensions De fausses fréquentations, les compliments Les nouveaux amis sont pires que des sables mouvants Dès qu'on s'enlise, peu en survivant Je nage parmi les requins, j'essaie de suivre mon chemin J'ai mon destin dans les mains Personne m'arrêtera, c'est certain Tch-Tch-Bla, écoute ça gars Mate les dégâts Les savateurs XXX Pour la Cliqua, voici la Squadra El Néro y el Hispano XXX C'est comme un pacte Un lien, une sorte de contrat, liés par le sang Un serment Toute la survie du clan en dépend Je vois dans les yeux, tu vois dans les miens à présent Fidèle aux miens quand bien même ton crew te prête main-forte C'est comme un pacte Un lien, une sorte de contrat, liés par le sang Un serment Toute la survie du clan en dépend Je vois dans les yeux, tu vois dans les miens à présent J'lâcherai pas l'affaire, j'irai jusqu'au bout maintenant J'arrive pour tout péter Tu cherches la paix, t'es mal barré, j'vais pas m'répéter Mais l'image qui m'a refleté C'n'est pas l'pied que j'prends, plaisir que j'trouve quand il faut s'latter La sale ambiance tendue autour de moi que j'laisse flotter Par mon flow t'es subjugué, à devoir me flatter Mais parce que j'mets l'feu, quand l'mal est fait, à ma mille-fa Sois preuve d'amour et d'patience j'le veux bien, calme et patient Vas-y, on touche à un d'mes proches XXX ces théories T'es en rouge, fini, oublie l'principe d'théologie Le temps qu'j'monte au logis afin d'trouver d'quoi t'soulager C'coup-là, j'ai l'expérience, ce serait à refaire, je l'referais Chirdé pour mon crew, mes gars ma clique, rien qu'des refrés Sois pas con, complice XXX pour combine, CD compact Banal délire de copains Plus qu'un XXX pour l'pactole entre nous, pas pour l'échec Meufs choc et soirées chics Ça va plus loin qu'ça gamin Histoire d'bédos, d'sacs à mains Ça commence, des points communs, grandir sans commodités Dans une cité comme on dit Comme on s'dit combattants entre nous J'compte pas ces cons battant en retraite, l'esprit combatif Pas d'ceux qui t'laissent en plan, qui ont plein ou qui compatissent Avoir le même sang dans nos veines nous vaut vannes et venin Va-nu-pieds vénèr s'rabattent sur nous pour nous voir khabatt J'taffe pour un seul crew, une seule famille Dans la main un seul micro, dans ma tête un seul principe Un seul XXX l'argent une seule couleur Donc pour ma vie un seul contrat C'est comme un pacte Un lien, une sorte de contrat, liés par le sang Un serment Toute la survie du clan en dépend Je vois dans les yeux, tu vois dans les miens à présent Fidèle aux miens quand bien même le diable dans la tour m'emporte C'est comme un pacte Un lien, une sorte de contrat, liés par le sang Un serment Toute la survie du clan en dépend Je vois dans les yeux, tu vois dans les miens à présent J'lâcherai pas l'affaire, j'irai jusqu'au bout maintenant</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Daddy Lord C</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Daddy Lord C</t>
         </is>
       </c>
     </row>
@@ -628,12 +738,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Freestyle</t>
+          <t>Le Professionnel</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>On s'était dit que d'une manière ou d'une autre on y arriverait Et que malgré tout sur le rap on parierait Macadam dans l'âme, me sers de l'art comme une arme Ma cabane Le Havre si la France est un arbre En Normandie, tout est banal Si ce bled est un bananier nous en sommes les bananes avariées Une poignée de jeunes de quartier plutôt que les balles Placèrent les mots dans un barillet Coupent le canal Disney, voilà dix années Nos parents dissuadés par nos couplets designés Si Dieu l'accepte, artiste à perpète Sans vraiment connaître le sens des termes auteur interprète Indépendante est la manière l'Islam est la bannière Beaucoup disait qu'on s'ajoutait des barrières Mais bien plus fort que la consanguinité L'Islam est venu cimenter jusqu'à la plus petite cavité Appelle ça comme tu veux pour le plaisir Tantôt l'opium du peuple tantôt de l'hérésie Dans les récits prophétiques j'ai trouvé mon équilibre De quoi enchaîner mes démons avec les chapitres d'un Livre Elle est mon garde fou celle qui garde au garde-à-vous Mon garde boue quotidien si la Dounia est une autoroute D'un héritage paternel au nourrisson J'obtiens des gants de boxe et les trésors d'un prénom MÉDINE ! J'habite à 5000 km de cette ville Mais l'écho de son histoire résonne en moi comme un missile Comme une bénédiction une sorte d'armure invisible Qui m'a préservé du crime De toute manière je n'étais pas fait pour être gangster La moindre taffe sur un spliff m'aurait filé le cancer J'aurai chopé la cirrhose avec une gorgée de scotch Embrassé des tonnes de murs en pilotant des moto-cross La crosse à la ceinture je m'éclate un testicule à coup sûr Heureusement qu'on meurt pas de ridicule Ou je serai mort depuis des lustres dans un bus Encore gosse aux cotés d'un poste qui jouait Kriss Kross J'avais peut-être l'étoffe d'un bon boxeur Mais toute force de la nature possède les faiblesses d'un corps Frappe-moi le nez si tu veux l'effet de Sangoku À qui on sert la queue je serai KO à coup sûr À la moindre pichenette je pisse du bec Alors de Daddy Lord C j'endosse la partie poète Mon titre n'était pas sur un ring mais planqué sous des rimes Et de l'iceberg ma rage était la partie sous-marine Maritime seine c'est la qu'ma team sème Ses graines pour qu'un jour elles germent par dizaines Les médisants disaient que ça se terminerait dans deux ans Au final ça fait dix ans que ça doit faire deux ans Aucun ancien ne nous a pris sous son aile Aucun directeur artistique n'est venu nous signer sur son label Crier à l'aide même pas en rêve Écrire, une lettre, aux maisons de squeuds plutôt s'ouvrir les veines C'est tout le mental de la maison On partira le cur léger sur l'estrade de la pendaison Et à raison d'un morceau par semaine On parsèmera les bacs d'un album par semestre Par semestre, par semestre, par semestre... Moi j'ai le mal du siècle Depuis qu'à Manhattan les tours jumelles ne décorent plus le ciel Sans vouloir romancer mon parcours officiel J'ai déposé ma plume au profit d'un retour spirituel Individuelle retraite au sein des mosquées de quartier Aucune scène, aucun concert viendra me perturber Un aller simple pour le voyage intérieur Afin de réparer les curs que la vie matérielle détériore Une éponge à la place de la mémoire Moi j'ai le cerveau perméable à toutes formes de savoir Ne souris pas j'ai des sourates sous les soupapes Et j'aspire à devenir un Livre Saint sur pattes Lorsque enfin l'envie de rapper me dépasse Moi en 2004 ma destinée me déclasse Premier album c'est l'autopsie d'une catastrophe Eleven september seulement présent dans quelques stores C'était l'époque où les radios se prenaient pour Skyrock Où pour ouvrir les portes fallait paraître au top Ifop Mon pote, la rotation s'achète à coups de pub Mais le respect du public s'obtient à coups de plume Alors je n'écoute plus les ondes et leurs contenus Le game est une guerre dont l'issue est déjà convenue Les dés sont pipés par l'industrie friquée La profession pour les provinciaux est plus que cryptée On passe du groupe de quartier, au statut associatif De la société, au label qualitatif Géographiquement éloigné de la capitale S'avère au final être un bien beaucoup plus qu'un mal Mais est-ce un signe que malgré tout ceci Ma carrière se dessine et mon chemin se désigne En toute modestie c'est le conscient qu'on me destine Mes premiers sque-di se soldent en succès d'estime Les magazines se décident à nous citer Après le forcing bien connu des artistes de l'indé Jenchaîne les compiles freestyle et featuring Ma culture devient de la confiture de barbituriques En 2005 deuxième album en demi-teinte j'emprunte Les voix de la provocation pour tous les convaincre Et non les combattre avec un disque en forme de sabre Mais lutter contre soi reste le plus grand Jihad ! J'amène un message de paix derrière une épée Mes pieds dans le guêpier par les RG je suis épié Quand les khalifes sont sur les terrasses des cafés Moi j'écris comme un greffier de l'encre au bout d'une griffe Productif mais sans faire de l'alimentaire C'est tout le défi du R.A.P contestataire On sort des squeuds malgré les crises financières Afin d'éviter les diverses liquidations judiciaires Chaque sortie sauve les salaires D'aller bien ça n'a que l'air L'ensemble des banquiers s'alertent Les plus âgés s'endettent, sous les traites s'enterrent Que vaut l'argent devant la rage d'un groupe de jeune déter ? Ajoute à ça quelques tensions familiales Qui nous répètent sans cesse que le rap n'est pas un boulot fiable Ajoute à ça quelques pressions d'imams Qui nous répètent que ne font pas bon ménage musique et Islam Maintenant je sais que le diable est dans le détail Que dans la division souvent se cache le Sheitan Alors je m'en remets à Dieu et à ses scientifiques Je suis un muslim qui fait de la black musique Pourtant je n'ai rien de black je suis tout pâle j'ai même du sang toubab Je ne suis ni Serigne Touba ni 2Pac Je n'ai que la barbe à Barry White Et puis j'habite Le Havre À l'embouchure de la Seine pleine de cadavres Je déclare mon profond respect aux leaders morts Et laisse une couronne de lyrics sur leurs lits de mort Do'a pour Malcom, Luther King et Massoud Sankara, Lumumba, Arafat Yasser Dîn Record humain chaque membre est vital Chaque organe a su se rendre inévitable D comme Déterminé I pour Islam N comme Nécessaire aux hommes aux enfants et aux femmes C'est de l'hostile gospel, de l'arabospiritual Des mots de velours écrits d'une main de métal Ma profession gratter des textes sombres Déjà en gestation le prochain album c'est Protest Song Mais pour l'heure fini de chialer dans les chaumières J'arrive dans les charts avec la chance du chômeur Et pour le dire rien qu'une centaine de vers frères Sculptés dans le fer par L'Arabian Panther3</t>
+          <t>Professionnel, j'fais sonner l'fond, l'façonne sors du piano Appris l'solfège ou l'école, reçu deux leçons À devoir fouler l'sol dans la salle sur chaque clé d'sol Kiffer t'es pas l'seul, normal lascar et si ça t'console Gallegos, la Section souscrivent Mon blaze s'inscrit Dans les affaires ça gère, des ronds on soulève Pour l'bifton, compe-moi fiston de ceux qui s'lèvent tôt Même si ici c'est plus KFC, MacDo qu'restos Au top, reste haut, trop d'keufs arpentent tess et bistrots Espère qu'l bif trouve trouve son bifteck dans mon biz go J'pès mais ils s'trompent, à l'ancienne rétro Ouais j'en baise trop Beaucoup me considèrent comme un reur-ti, un simple ler-dea Voici ma réponse eh toi accroche-toi v'là c'que j'leur dis On échange nos places, aussi si le cur t'en dit Du dimanche au lundi, tu constates qu'on même jeu d'bandits On marque une pause à une seule condition la journée remplie On reste professionnels J'bosse pour briller, bien grillé, l'biz commence à m'payer Professionnel Bon nombre m'voient clamser en rêve, ils savent que l'attaque j'aime ça Même si la boxe mon âme sur, j'avoue j'mordrai pas l'hameçon j'retiens la leçon, à part l'caleçon J'suis des affaires dans l'bizness, dans l'commerce, qui en a l'sens Drogues rime avec rappeur, j'vois pas l'rapport T'façon on t'frappe Cette espèce sur terre s'en va, s'évapore Ma couleur t'fait peur, j'constate qu'pour ça t'as des vapeurs Tu vas pour prendre ton pied si j'vends pas, en tous cas vend pas La merde me tente pas eh bien j'm'en vante pas Quand on aime on compte pas Heureusement copain, sinon contraint d'mettre un contrat contre un proche Avec moi, qui s'la contera Mollo, t'affole pas, juste mon micro, pas un couteau Utile pour rappeler certains qu'ils peuvent toujours s'lever tôt Le sale boulot, t'espères plus qu'ils le fassent à ta place Trace, mais avant sache que si j'occupe ton espace Si j'décrasse alors c'est avec moi hélas que ça s'passe Pas mon habitude dans l'rap, du rab du supplémentaire Allonge quelques billets et je verrai bien ce que je vais faire Pas mélanger vitesse et précipitation J'suis un professionnel J'bosse pour briller, bien grillé l'biz commence à m'payer Professionnel Y a au mic, pas d'panique, c'est pas l'Titanic Le lyric lourd, franc-parler, surtout pas d'gimmick Ma populace n'en peut plus, lasse usée comme un joint d'culasse Boulot terne, dégueulasse, SDF, cités, jamais d'palace Pas l'temps qu'j'paraisse, ma gueule pas pour rouler pelles et galoches kalash, aujourd'hui faut qu'tu payes et que tes gars lâchent Insulte-moi, dis c'que tu veux, surtout me traite pas d'lâche Pour percer pas d'lèche, au cou deux grains d'café, surtout pas d'laisse Malgré haine et censure, sans un seul c'est pour moi ça Sans sas et sensass', les fans des sangsues, leur esprit sens-dessus-dessous Sur ce, une chose garçon Viens pas sans sous parce que professionnel J'bosse pour briller, bien grillé l'biz commence à m'payer Professionnel</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Daddy Lord C</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Daddy Lord C</t>
         </is>
       </c>
     </row>
@@ -645,12 +765,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Hip-Hop Sacrifice (New School Version)</t>
+          <t>Le Pur Son</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Albums 7liwa - La Street Alpha-A - Archi Big Breed - F9adnaha Demon - Wizard Diib - Avatar Diib - Revolt Dr Jay - Glory Ep Dr Jay - Dwayat Draganov - Before Colors Dzak - Natural Haris Hamza - Slow Mo Jocker - To9os Krtas Nssa - Otite L9bi7 - Fa9r O Chaja3a Lbenj - Milliard Levy - Chrollo Lferda - Cauchemar Marouane. - Miracle Mocci - Love Yourself First Mol Mic - The Come Up Nikotine - Negro Nizzy Bee - Hijo de la Reina Nessyou - Avant-Goût Profit Za3im - La Vie Sauvage Profit Za3im - Fuego Ra6te - Soprano Soprime - Carrière T9il - EP Skr The Mobb - New Age Weld L'Griya - 09 EP Would Cha3b - Cool Chic ... Yung Kabil - Blue Sky Mixtapes Aafia - Humorist Amine GB - Mixtape Dmaghi Burning Big Breed - Devils in My Room Chpipo - L9fel Crazy Man - C'est Nous Hamza 15-3 - Beatophile Mr Wanted - OVNI S-Boy - Out Of Nowhere SlimGxnz - Chess Stormy - Tempestoso T9il - Sa7i - 0101 West - 97ab - 0101 Centrawi - 2000 0101 Lord Mehdi - Not Over Paroles 0101 Lbenj feat. Vinci - Affaires Paroles 0101 Kouz1 - Trap Roumi Paroles - 0101 Lmkhipsi - Fatality 0101 Small X - HLG Paroles - 0301 All36 - Savage - 0301 Snaik - Don Bitch 0401 West - Fuck a Fake Friend Paroles - 0401 West - 4Eva Heartless Challenge 0401 Hoofer feat. Yakuza - 3arfine Paroles 0401 S3R - Va Bene Paroles 0501 Guzman - Matmchich Paroles 0501 8ird - Djilali Paroles - 0501 Young-R - Hekmet - 0501 Marouane. - Chno Tari 0601 Dizzy Dros - Moutanabbi Paroles - 0601 Jocker - Khalatha Tsfa - 0701 Broow - Mrid 0701 Viper - L'Forno Paroles 0701 West - Juice Paroles - 0901 L'3issaba Muzik - 3la Walou - 1001 Diib - Bug - 1001 ZR feat. T9il CMRD - BB 1101 Maestro - Khelini Paroles 1101 Amir L9wafi - Canette Fanta Paroles - 1101 West - Boco 7eba - 1101 Proof.G.K - Look A Live - 1101 Netos - Back - 1201 Lit Eytch - Everyday 1201 Hamza Haris - Slow Mo Paroles 1201 Caprice - 1,87M Paroles 1201 Krtas Nssa - Rest In Peace Paroles 1301 Ali Ssamid - Khab Danni Paroles 1301 Der'k - Pecho Paroles - 1301 Razin feat. Stoor - No Feelings - 1301 Tflow - Thank You 1401 Snaik feat. T-Flow Youss45 - Ntaya Mahboul Paroles 1401 Bad Flow - Hayda La Paroles 1601 Klass-A feat. Smiimi - Walo Paroles - 1601 Lotfi El Président - Hope - 1601 Broow - Kill'em All - 1701 Dzak - Wa7d Khfif - 1701 L3awfi - Nortes 1701 Lbenj - Animal Paroles 1801 All36 - Game Over Paroles 1801 Dollypran - Senhaji Paroles 1801 Lmoutchou - L'Ex D'Fatema Paroles 1901 Lord Mehdi - Frère Jacques Paroles 1901 Ouenza - He's Back Paroles 1901 H-Name - Mati9tch Paroles - 1901 Ms Flow - Aloo Amigo feat. Madnees - 1901 Bramfori Feat Red1 - Hamdoullah 2001 Mr Wanted - Le9ta 5 Trap God Paroles - 2001 Mo9ana3 - Hayda Ah 2101 Odyne Kratus x Young Oly 777nerd - Dig It Paroles 2101 Tflow - Bezerba Paroles 2201 Pause Flow - Bonne Nuit Paroles - 2401 Youss45 - I3adat Tachghil 3a9l 2201 Mr Wanted - Free Sex Ja l3riss Paroles - 2501 SlimGxnz - 3ayto L'Nasa Intro 2501 Don Bigg - Psycho Wrecking Paroles 2501 Diib feat. Art-Smoke - The Temple of Hip Hop Paroles 2601 Krtas Nssa - 31 Paroles 2601 S-Boy - Low Life Paroles - 2601 Mester Alae feat. Lil Youbey - Casatanja - 2601 Big Breed feat. Mardi, Sirius, Shinydice, Serom, Lmouss L3foo - Holla Paroles 2601 Gnawi - Lwalidin Paroles 2701 Ily - Loca Paroles 2701 Dopage - Kolchi Fayt A Chmayt Paroles 2701 Sky feat. Lbenj - Lbayda Paroles 2701 Bermuda - Oculus Paroles - 2801 Lgaz - Ikhtissar - 2801 Mister H - F Bladi 3aych Barani - 2901 SlimGxnz - Berlin - 3101 Meta4 - Groupie - 3101 Tflow - Fake Fake Fake 0102 Madd feat. Toto - Games Paroles - 0102 Bad Jock - Montana Tony 0202 L'Faree9 - Dajij Paroles 0202 West - Kchkoucha Paroles - 0202 Tflow feat. Beyondo - Mouse Mickey - 0202 Dzak - LManti9 - 0202 Pasha - La Vida - 0302 Diib - Language Games - 0402 9teen - No Break Up - 0402 3KA - Superstar feat. EA 0402 Pause - Freestyle Paroles - 0502 L'Black - 3alam Akhour 0502 Diib - Kankmi Paroles 0802 Small-X feat. Dosseh - Kssiri Paroles 0802 M-Fix - Validé Paroles 0802 Nessyou - Alchemist Paroles - 0802 The Last Samuraï - Montreality 0902 NegaPhone - B. B. King Paroles 0902 7-Toun feat. Jocker - Allo Docteur Paroles - 0902 Diib - Klah-Ssic - 0902 Eladib - Za3-Za3 - 1102 Drizzy - FiyaN3as Freestyle - 1102 T9il - Pokeback - 1102 Mocci - Ya Rassi - 1102 Centrawi feat. Nasty Iceberg - Monafi9inHypocrites 1202 Ouenza - Valentino Paroles 1202 Bermuda - Makarov Paroles 1302 West feat. Mr Crazy - Fake Paroles - 1302 Magnum - BW - 1402 Tendresse - Nta - 1402 Tflow feat. Beyondo - Ooh Yaya 1502 Demon - Tutto Bene Paroles 1502 Stoor - Zawali Paroles - 1502 Crazy Man feat. West - Avion - 1502 Skaymen - Shotgun - 1602 S-boy feat Shvdow - Overdose - 1602 Dzak - B.C.A.A - 1602 Dzak - Pre-Workout - 1602 Zak8 - Capitaine - 1602 Vimalek - Ex - 1602 RedMic - Dalida Remix 1702 Mr Crazy - Khayb Paroles - 1802 Dzak - Concentration - 2002 Zanzan - Freestyle 2019 ft. Youss45, Ismeel - 2002 Mocci - Ring Ring 2102 Big Breed - Ro7i Paroles 2102 SEA - Twerk Paroles 2202 Damost feat Madd - Grammys Paroles 2202 Raid - FOIII Paroles 2202 Ali Ssamid feat. Young Product - Vibe Paroles 2202 Weld Lgriya feat. Lz3er - Khemsa 5 Drahem Paroles - 2202 Profit Za3im feat. Demon - Sway3 2302 Tagne - H1N1 Paroles - 2302 Crazy Man - Gentille - 2302 Uncle Vato feat. Gasper - Ski Mask - 2302 Shiny Dice - Black Friday Freestyle 2402 Tflow feat. Beyondo - CCLV Paroles 2402 Hoofer - Sacem Paroles 2402 Anys - Première fois Paroles - 2602 Snaik - Alyam - 2702 Ashka - Zvba Daba - 0103 Anouar Essif - Tnakat - 0103 Amiron - Shoot - 0103 Mester Alae feat. Marouan Sidah - Cur Brisé 0203 S-Boy - Better Paroles - 0203 Joakk47 - Dc Chicago - 0203 Centrawi - Anas - 0203 Soprime - T'rraa.. - 0203 Marouane. - M6 0303 Hamza - 15-3 - PunchRin Paroles - 0303 Profit Za3im feat. West - High Speed - 0403 Youss45 - Sir Awa T9awd - 0403 Dzak - Dix Vitesse - 0503 Youss45 - Baltagi W Rougoula 0603 Gnawi feat. Nina Williams Salimoox - Warini Mnin Ndouz Paroles 0603 Levy feat. Diib - Azkaban Paroles 0703 Zehronin - Dadas Paroles 0703 Chimera - NH2B Paroles - 0703 T-Flow - Mizi - 0703 Breezy - Ali Zaoua 0803 Diib - Banality Paroles 0803 Mons - VR2 Paroles 0803 The S feat. Moro, Zeroten, Triuu, DH, West, T-Flow, Demon, Mester Alae, Dini, Crazy Man, Snaik - Old Up 2 Paroles 0803 Young Zow - Yow Paroles 0903 Lsan L7a9 - Bin Sma w Lma Paroles - 0903 Crazy Man - 100K - 0903 Reggio - Datni 1003 Mr Crazy - No Bitch Paroles 1103 Pause - Nihil Paroles 1203 Der'k - Freestyle Zepek Paroles 1203 Lil Eytch - Energy Paroles - 1303 MB1 - HGK - 1403 Diib - Madukhch 1503 Clasick Kid - To9os Paroles - 1603 Diib - L'khla - 1603 Centrawi - Code - 1603 Dzak - Ego7rid VL2 - 1603 Young-R - Dommage - 1603 Vimalek - 2 Faces 1903 M-Fix - L9amous Paroles - 1903 Weld l'Griya 09 feat. Weld Lmdina - Mat9isch Ostadi - 1903 Stito - Jemii 2003 Almos - Enemy Paroles - 2103 L9bi7 feat Libi - Dfa3 lkarossa - 2103 Ayoun Elhak - Ma Baghich - 2203 Bad Flow - Sabot Out - 2303 L'MNG - Hada Houa Lblan - 2303 WIMi - Trafic - 2303 Ryodan - Herakl - 2303 Gnawi - Sa9si L3ach9in - 2303 Weld L'Griya 09 - Rawi - 2303 T-Flow - Men L'Wrid 2303 NegaPhone feat. Abdeelgha4 - Bikher Paroles - 2403 Drizzy - Parano - 2403 Lotfi El Président - Awbach - 2403 Hamza DKM - Freestyle 2 - 2503 Big Ely feat. Meta4 - Molo - 2703 Dzak - Trap-Lkarwazi 2703 Lbenj - Fondo Paroles 2803 Dopage - Blaga Paroles - 2803 Diib - 3ala9ty B Rap - 2803 Sooha - Monalika - 2803 Ms Flow - Game Over - 2903 Amine 16-3 - Akrapovic - 2903 Ra6te - All Dayz 2903 Weld l'Griya 09 - Mowatin Maladi V5 Paroles 2903 Hoofer feat. Lazeur, YC - Allô Paroles 3003 Demon feat. Moro - Fidèle Paroles - 3003 Tflow - Taglag V2 - 3003 All36 - Chocolat - 3003 Drizzy El Gringo - Drift - 3003 S3R - Cannapeace - 3003 Dobi - L'walida ft. Nikotine - 3003 Bad Jock - Liberta 3003 Profit Za3im - El Chappo Paroles 3003 Kouz1 - Serwalhom Yti7 Paroles 3103 Kouz1 - Il Est Là Paroles - 0104 Lz3er - Sola7fat - 0104 Crazy Man - Vida De Merda - 0104 Dzak - Machi Kitmanitha 0204 Youss45 - Shaun the Sheep Paroles - 0304 L'king Meta4 x Big Ely - Da7kine - 0404 Kouz1 - Seniora - 0404 T-Flow feat. El Professor - Ghi à aise - 0404 L'Black - El Salvador - 0504 A-Jey eat. Dr Black - 7mama 0504 Muslim - Ch3andek Paroles 0604 L'Morphine - Intro INK Paroles 0604 L'Morphine - Rais M'Bolhi Paroles 0604 Moro feat Pedro - Amigo Paroles - 0604 Dzak - Bikhetisar - 0604 Gnawi feat Hitman Sanchez - Number One 1 - 0604 ZS - Gamila - 0604 Lotfi El Président 3issaba - 0604 Snaik - Darbo Lia Ostadi - 0604 Snick Feat Caprice - Siyassat Solta - 0804 Psycho - Haila - 0804 Odyne Kratus feat. Young Oly - YAYA 0804 Drop - Zanaxxx Paroles 0804 7liwa - Olala Paroles 0904 Profit Za3im feat. Moro - Watta Cheddo Paroles 1004 Klass-A - Al Pacino Paroles 1004 XCEP - Drown Paroles 1004 Fell'G - Brave Heart Paroles - 1004 Queen Luna - M.3.B - 1004 Crazy Man feat. Souhail - Helala 1104 Toto - Bidaoui Paroles 1104 Big Boy feat. Lekok - Mobachara Men Dari part4 Paroles 1104 L'Morphine - Couteau Suisse Paroles - 1104 Diib - Flo-whaat!? 1204 Issam - Makinch Zhar Paroles - 1204 Plumière - 7na - 1204 T9il - CaterPillar - 1204 West feat. Dre Domo - STS - 1204 Hashtagi - Tta3addo ft. Swoosh - 1304 Almos feat. Pedro - Hip-Hop - 1404 Wolf Trapzilla - Malayka ft. Roy 1404 Harry 48 - So Bad Paroles 1504 Pause Flow - Spin Paroles 1504 Krtas Nssa- Iron Paroles 1504 L'Faree9 - Ginga Paroles - 1504 Biggy - Batman 1804 Kouz1 - Lfrite Paroles 1804 Levy - Split Paroles 1804 U7 - Sisyphus Paroles 1904 Anas feat. Toto - Mira Paroles 1904 Odyne Kratus feat Young Oly - Race Paroles - 1904 M-Fix - Fake - 1904 Sipo - Halla Walla - 1904 Drizzy - Solo On My Way - 1904 Loun - Sauce - 1904 L9bi7 - Kat7lem B Pablo - 2004 Snaik feat Morad Achkar - Mama Dream 2004 Ouenza - Hey Ouedi Paroles - 2104 Dzak - C'est La Vérité Remix 2104 Monkey Business Music - Stay in School Remix Paroles 2204 Klass-A - Prblms! Paroles 2204 KDK - The Mic Paroles - 2304 Dzak - Al Bari2a - 2404 Ghost Lawz - Gimme the Lighter 2404 Chimera - Machi Malak Paroles - 2504 Sa3er Man - No Feeling - 2504 Dzak - Takht Lkhatr - 2504 Mocci - Ana Nsitek 2504 Scabreux feat. Lbenj - Sbitar Paroles 2604 Spleux - Yddek Fih Paroles 2604 Mr Crazy - Machi Rjal Paroles 2604 OFlayne - JSPF Paroles - 2604 L'MNG feat. BigBoy - Werrek - 2604 Weld L'Griya - Ya Mouja - 2604 Young Zow - Haka 3aychin 2604 Qaayel feat. Fell'G - High Life Paroles 2704 7-Toun - Samhini Paroles 2704 Levy feat. Uncle Vato Fargo - D.M.T Paroles 2704 Negaphone - Skrt Paroles - 2704 8ird - Egosheitan - 2704 Oza - Sf Sere - 2804 Crazy Man - Gangsta V3 - 2804 Gha4Music - Kloun - 2904 Jeka - Freestyle Kurt Cobain - 2904 Ashka - Mie Rda - 3004 Nikotine feat Youss45 - Ta9o Fiya - 0105 Profit Za3im feat West Stoor - Finahoma Rjal - 0105 Dzak - Wja3 Trap M.A.O 0105 Amine 16-3 - Buzz Pt.2 Paroles 0105 Maestro - Halala Paroles 0105 Amine 16-3 - Buzz Pt.2 Paroles 0105 7ari - Monopoly Paroles 0205 Lbenj - Gratata I Daymolition Paroles 0205 Xanas feat. Mons - Segreteria Paroles - 0205 DH - LaCité - 0205 Romyo - Nadi - 0305 Abdeelgha4 - Casablanca - 0305 SiSimo - Azero - 0305 Tflow Feat Adam - Watani Ghaba 0405 Ali Ssamid feat. Komy - Kan Sogo Paroles 0405 Hamza 15-3 - ice Paroles - 0405 Dzak - Las9 - 0405 Sbai - T.K.N - 0405 Gnawi - Dyaf Denia - 0405 OML - Bad Bitch - 0405 Ach Man Calme Toi V2 - 0405 Abduh x Yag - Rock N Roll - 0405 Shiny Dice - Butterfly feat. Zakaria Aroussy, Feras Dread 0505 Philo feat. Gha4Music - Ptit Pain Paroles - 0505 Der'k - Freestyle 50k - 0505 West - Love 0505 Clasick Kid - So Low Paroles 0605 MONS - Lil Pump Paroles 0705 L'Morphine - Avatar Intro Paroles 1005 Inkonnu - Liyam Paroles - 1205 Nizzy Bee - Ronaldo - 1205 Wofa - Koulhoum Ghayb9aw Lour - 1305 Diib - Muay Thai - 1305 S-Boy feat. Youss45 - Facts 1605 Gha4Music - Lovebirds Paroles 1705 Shobee feat. XCEP - L'Vibe Paroles - 1705 Vimalek - Riding feat. Alien - 1805 Ach Man Galbi 3amar - 1805 Zenji - 3azzy Klay 1805 Dollypran - Trump Paroles 2005 Nizzy Bee - Ga3 Mandem Paroles 2005 Ayoun - Cristala Paroles 2105 Mr Wanted - Psycho Paroles - 2205 Al Kayssar - Veni Vidi Vici V 2 - 2305 Jen - Kant 2305 Nizzy Bee - Old Paroles 2405 Nizzy Bee - Andalucía Paroles - 2405 Nasa - Zan9a - 2405 Shiny Dice - Ballin' feat. Da Goat 2605 Moro - Godzilla Paroles 2905 Moro - Nadia L'Jondi Paroles - 3105 Nizzy Bee - Montana - 3105 Zak8 - Zombie 0106 Moro - Psy Paroles 0306 Psychoqueen - No Boyz 2 Paroles - 0306 West - Fi9 - 0406 Nizzy Bee - Hania - 0406 Ghost Lawz - Black White 0406 Profit Za3im feat. Moro, Stoor West - Mala Paroles - 0506 Lil Eytch - Ibrahimovic - 0506 Dzak - Tiempo 90's - 0506 Youss45 feat K-LiL - Te9tira - 0506 The Last Samuraï - Gotham 0506 Gnawi feat. Mol Mic - L3echra Paroles 0506 Lsan L7a9 - Zreb Teghleb Paroles 0606 Lbenj feat Hazim Jam - La Jiti Paroles 0606 Ouenza - Cake Paroles - 0606 2Taf - Ara Money 0706 Lmoutchou - Wasabi Paroles 0706 Jocker feat. 404 - Lamama Paroles - 0706 Meat4 feat. Big Ely - Stay High - 0706 Sigou - Do L7mer - 0806 Madara Shooka X AD - Oops - 0806 Demon - Allo Omar - 0806 Dobi feat. Youss45 - Ga3ma Calmet 0806 Psycho - Lwlad Khatar Paroles 0906 Ily feat Mayor Bone - Diabla Paroles - 0906 Lz3er - 1000 T 1006 Ayoun - Mr Boulevard Paroles 1006 Viper - Hysteria V2 Paroles - 1006 Tee feat. Illa Illz Demon - Bando - 1006 Broow - Zawali - 1006 Lordie The Goat - L3a9a o Safi - 1106 U7 - Non Stop - 1306 A-Jey feat. Ra6te - Tla3 Tchoof - 1406 Kania - Inchallah feat. Zairi - 1506 Meat4 - No Ties - 1706 Lord Mehdi feat. Naiir, XKey, Plumière Wolf - Ça Marche Apollo Nights 1 - 1706 Ms Flow - Dollar feat. Youss45 1806 Profit Za3im feat. Mr Crazy - Lbato Paroles Hamza Haris - Nsit Paroles - 2006 Weld L'Griya 09 - Camarade - 2006 Mol Mic - Kali - 2006 Profit Za3im feat Mr Crazy Raiss Zakaria - Sa77a Lik - 2106 Skaymen - Cocktail feat. Bezza 2106 Jocker - Msawes Paroles 2106 Lbenj feat. Morad - Venga feat. Morad Paroles - 2206 Rebel - La Pression 2306 Nessyou - The Daltons Paroles - 2306 Weld L'Griya feat. Lz3er - Mowatin M9Sse7 2406 7liwa - Tchikita Paroles - 2406 Wofa - Machi Bhal Bhal - 2506 Hamza Hard - Imta - 2506 Ra6te - Moustaone 2606 Joak - Frrr Paroles - 2606 TheMobb - 13 - 2606 Gha4Music feat. Drizzy - Ghafreestyles - 2606 Hashtagi - - 2706 Uncle Vato - RivoDrill - 2706 Chani Man feat. Moro Stoor - Bad Boys 2806 Magma - I3dam V2 Paroles - 2806 L7a9d - Walio - 2906 Gnawi feat. Nina Williams - Wast Lb7ar - 2906 Dzak - B.C.A.A - 2906 Crazy Man feat Masta Dn - Tendance - 2906 L'Black - Mooka - 2906 Dobi - Hanya 2906 Dopage - Adieu Paroles - 3006 Gha4Music feat. Sa3er Man - Jungle - 0107 Mol Mic - Bravo - 0107 Falcon feat. Lfassi - Ara Lfanid - 0107 Zanzan - Oxxxygen - 0207 Stoor feat. Moro CT - CB4Gang - 0207 Nasa - Solo 0207 Hamza 15-3 - Lee Van Cleef Paroles 0207 Mistah Vee - Paris Paroles - 0307 Stoor feat. Razin CT - 3LR - 0307 LJasos - L7ayat - 0407 Ach Man Non Bye feat. Warrior 0407 Tagne - C'est Pas Grave Paroles 0507 8ird feat. Fell'G - Fiction Paroles - 0507 L3arbe - Victime 0607 Lord Mehdi feat. NegaPhone - Capitano Paroles 0607 Al Nasser - Intro - So It Begins Paroles - 0607 Diib - Nobuyuki - 0607 Crazy Man feat. Mr Soultane - Just Après - 0607 Falcon feat. T-Flow - Beslama - 0607 Amiron - Lwa9t - 0607 Snowflake - Dreams - 0707 Mr Wanted feat. T-Flow - Dragon ball - 0707 Lfassi feat T9il - Mi Amore 0707 Ily - Superwoman Paroles 0807 Al Mos - Ultras Paroles 0807 Meta4 - Last Call Paroles - 0807 Sbai - Panamera - 0907 Ms Flow - Do Lehmar feat. Youss45 - 1007 Youss45 feat. Tbiib - Oro Mentalita Ultras - 1007 Diib - Vision - 1007 Centrawi - Freestyle Sans Mixage - 1007 AAFIA - NBDY 1107 Nizzy Bee - Salut Cava Paroles 1207 Breezy - 7alawiat Paroles 1207 L7or - Lghirb Paroles 1207 Abdeelgha4 - Dybala Paroles - 1207 Young Zow - KLK 1307 TheMobb Oly Young x Odyne Kratus x Shaynaa feat. L'Black - Bless Paroles - 1307 Brako - Tanger-Malaga - 1307 Dzak - Ana - 1307 RedMic - Chiki - 1307 Oza - Fung Life - 1307 T9il - Aweli - 1407 Weld L'Griya - General V2 - 1407 Sa3er Man - La Vida - 1707 Marouane. - No Fear - 1907 Profit Za3im x LGRAD - Allo Allo' - 1907 Hamid Vff - Mowgli 2007 Pause - Sadou Paroles 2007 Pause feat Bermuda - Nausea Paroles - 2007 BigBoy - Batbat Mkom - 2007 West feat. Kooyo - Flous - 2107 Ashka - Awdii 2107 Snaik feat. Adam Mony - Khawa Khawa Paroles - 2207 Youss45 feat. Mr Sam- Kantkhayel - 2307 Rafff - B.A.B.Y 2407 Mr Crazy feat. Dandani - VNTM Paroles - 2407 Gha4Music feat. Lil Eytch - 9DD - 2507 Zepekeño - Favelas Dosa 1 - 2607 Lordie The Goat - Yacht 2607 Zanzan - Boorkan Paroles 2607 Weld l'Griya - Allo l'Faylasof Paroles 2607 Dollypran - Trax Paroles 2707 Kouz1 - Story Insta Paroles 2707 Diib - Diibologie 19 Paroles - 2707 X7KIRA - Darb Calvin Klein - 2707 Youss45 feat. Mc Ano 1 - New Shit - 2707 J...N Dem Lbared - Machi L'Bi3 - 2707 A-Jey feat. Anas Yan - TLA7I 2807 Ali Ssamid - Loumoni Paroles 2807 7-Toun - Zarga Paroles - 2907 Stoor feat. Profit Za3im - Zid F Taman - 2907 Sa3er Man - Hua Elli - 2907 Ms Flow - Fink Al Ms2oul 3007 Mons feat. Flenn - Labass Paroles 3007 Anys - Gha B Love Paroles 0108 T-Flow - Gareth Bale Paroles 0208 Lil Eytch - Woow Paroles - 0208 TheMobb feat. 36Whyte - Gamble - 0208 IZY - 7erki Dak Tarf - 0208 Nizzy Bee - Dyab - 0308 Abduh x Yag - Low - 0308 Xkey - Baghi feat. Wolf Trapzilla - 0308 Dzak - Dars Fta9wiya - 0308 Shiny Dice - Machine Gun Funk Remix 0308 Toto - Groupies Freestyle Paroles 0308 Aminoffice - Putsch Paroles 0408 Breezy - Adriano Paroles 0408 Dini - Ganar 4 Paroles - 0408 Nerd-X - Cowboy 0508 Ssamid feat. Loco Lghadab - Capitanos Paroles - 0708 Nizzy Bee - Rosalia - 0708 Brako - Intro 0808 Lsan L7a9 feat. Lil Wow Baby - Escuchame Paroles 0808 KDK - Gold Skhoon 2.0 Paroles - 0908 Loun - SpaceTune - 0908 Young Zow - Awah 0908 Bezza feat. Toto - Kennedy Paroles 0908 Mol Mic - Zoom Zoom Paroles - 1008 Lafounares - Pornares Freestyle - 1108 One Ace - Pour les miens - 1108 One Ace - Déter - 1108 Reggio - F.D.W - 1108 Miseur - C'est la vie qu'on va mener feat. Profit Za3im 1108 Diib - Gattuso Freestyle Paroles 1108 Mocci - Jani khbarek Paroles 1108 Souf 909 - Bin Nhar o Lil Paroles 1208 Psychoqueen feat. Houssainy - LYAM Paroles 1208 Stormy - 777 Paroles 1308 Vega - Gouliya Paroles 1308 L3arbé - Ajmal Hadiya Paroles - 1308 Hamza DKM - Ankhwi Lblad feat. Caprice - 1408 Zenji - Bouhdi 1408 Raid - Inexact Paroles 1608 Lil Eytch - 3ty L'Mo Paroles 1608 Negaphone feat. Lord Mehdi - MDW Paroles 1608 Nizzy Bee - Trois Bandes Paroles - 1608 Sa3er Man - WTF Freestyle - 1608 ElGrandeToto - VendrediStyle EP1 - 1608 Hashtagi - 9I.6 - 1708 Crazy Man - Tendance 2 - 1808 Nizzy Bee - 3araba - 1808 Ice Akatsuki - Kmi Kmak - 1908 9teen - Zerqa - 1908 Ms Flow - No 3chiri feat. Youss45, Dark Ness 2008 Lbenj feat. Warri - Chicha Paroles 2008 Clasick Kid - Megaphore Freestyle Paroles - 2008 Ghost Lawz - Tortilla 2008 Cody - Fine Ghadi Freestyle Paroles - 2108 Kania - Bang - 2108 Demon - 3.2.4 - 2108 Nizzy Bee - F5ater - 2108 White Nigga - Look Alive - 2108 Youss45 - Fes 7akma 3alam feat. Abdo Jouker, Boysin - 2308 Nizzy Bee - Lflouss - 2308 Ach Man Calme Toi V3 - 2308 Mester Alae - 4Pila 2308 Mons - Bye Paroles - 2408 Brako - Freestyle 9dim 2508 Madd - Karma Paroles 2508 Sooha - Niya Paroles 2708 Lbenj - Loto Paroles 2708 L'Faree9 - Highfive Freestyle Paroles - 2708 Mocci - Mamenhomshi 2808 7liwa - Dinero Paroles 2808 Diib - Signs Paroles 2908 Raid - Fermat Paroles - 2908 Dzak - Machi Haka Tmanitha 3008 Dollypran - Carnaval Paroles 3008 T-Flow - Sultan Paroles 3008 Shobee feat. Lomepal - Ciel Paroles 3108 Plumière feat. NegaPhone - 23 Paroles 3108 l'Mugy - Rissala Paroles - 3108 Dobi - Larga - 3108 Young Zow - Zin Li Fik - 3108 R-D - Amsterdam feat. Xir, Ali Ssamid - 0109 Pasha - Life feat. Diablo - 0109 La Scie - Mamlitch ft. Faube 0209 Ouenza - Babe Paroles 0209 Lmoutchou - Alcootest Paroles - 0209 Youss45 - 7it Mardi feat. Simo Zaen - 0409 Netos - C.R.L - 0409 Ice Akatsuki - Dhab Fedda ft. Freezy 0609 Young-R feat. Moro - B.W.S. Paroles - 0609 Nikotine - Orangina feat. Diablo - 0609 Aziz - Mouchkila 0709 Shayfeen - Blessed Paroles - 0709 L'Black - My Team - 0709 3KA - YNB feat. EA - 1009 Phobia 51 - Bin Eddroub - 1109 DJ Joe - Ora No feat. Ayo 1209 L'Morphine - Robot Paroles 1209 DH - Niffauw Paroles 1309 NegaPhone - Amsaf Paroles 1409 Dada - Agogo Paroles - 1409 Spinoza - Koulha ft. Mostroo 1509 Profit Za3im feat. Moro - La Dose Paroles - 1509 White Nigga - Gravedigger - 1509 Wofa - I Dont Give A Fuck - 1709 9teen - Ghada Tji ft. Godjek 1709 8IRD - Lady Dada Paroles 1709 Moro - Ta Hada 7al Paroles 1809 Diib feat. Uncle Vato - Fire 2 Paroles - 1809 Lordie The Goat - Grams 1809 Psychoqueen - Yarbi Dir Tawil Paroles 1909 Dizzy Dros - Air Max Paroles - 2009 Young Zow - Sir 2009 Mr Crazy - AMG Paroles 2109 L3arbé - Miyek Paroles - 2109 Sipo - Patrona - 2109 The Last Samuraï - Cannabis - 2109 Ms Flow - 7erada F Rap feat. Fire 2209 Lil Eytch - Trapstar V2 Paroles 2209 Fat Mizzo - Kan Drik Paroles - 2209 Youss45 - Reincarnation - 2409 Hamza 15-3 -Repat - 2409 Lafounares - Damn 2509 Profit Za3im - Ghamer Wla Ghader Paroles - 2509 Loco Lghadab - Hell - 2609 Breezy - Da7ia 2609 A-Jey - Broken feat. Ily Paroles - 2709 Nikotine - Papa - 2709 Nortogang - 0.allo 2709 Zimba - Rise Paroles - 2809 Diablo - 13 Goda - 2909 Shiny Dice - Euphoria feat. Moovd - 3009 Nikotine - Clochard - 3009 Diablo - 1.3.1.2 - 3009 Diablo - Uno feat. Jocker 3009 Amine 16-3 feat. L'Morphine - 2 Salopards Paroles 3009 Bad Flow - Ça Va Paroles - 0110 L3awfi - Power - 0110 Veleno VLN - Ghan'visé 0210 Uncle Vato - Men Zen9a Njibo L3a9a feat. .Exe, Gasper Paroles - 0210 Marouane. - Rio feat. Moro - 0210 Phobia 51 - Over Dose - 0310 Dzak - Poke 0310 Diib - Unstable Paroles 0310 Nizoo - Sauvage Paroles 0410 Spleux - Ouuw Yeah Paroles 0410 Negaphone - Ya Rayah feat. Abdeelgha4 Paroles 0410 Pweepa - Oh Merde Paroles 0410 Mons - Ya Rayah Paroles 0410 Makaveli feat. Brown Y - Just Wait Paroles - 0410 All36 - Khatrek - 0410 Sigou feat. Zaka Scoobs - L'Oseille - 0410 Diablo - Ennemies 0510 Mo9ana3 - Skout Paroles 0510 Young-R feat. Mr.M Ruthles - Ok Bye Paroles - 0510 Youss45 - Koula w Dourouf - 0510 Fatma - Valider - 0510 L'Mugy - Elixir - 0510 Ach Man Diwana - 0510 Dopage - Allo - 0610 UntitleD VII - Ice Cream Man 0610 Ra6te - All Jay Paroles - 0710 Zenji - Cannabis 0810 L'Morphine - L'Morphiniya 33 Paroles 0810 Drizzy - Chitana feat. Anys Paroles - 0810 Biggy - Ufo ft. Lilo 1010 DH - Fidèle Paroles - 1210 Bosho - Décollage 1210 Drop - Casanova Paroles 1210 Crazy Man - Tendance 4 Paroles 1210 H-Name - Ibada Paroles - 1210 Brak - Ya Li Ghayeb feat. hmoula - 1210 Nasa - Loca - 1210 3KA - Ain't the Same feat. Nerd-X 1310 Lbenj - Ghdara Paroles 1310 Moro - Dracula Paroles 1310 Moro - Patera Paroles 1410 Amine 16-3 feat. Diib - Marcopolo Paroles - 1410 Chwakere - 7oulmi B3id - 1410 Dzak - Petit Cadeau - 1410 Ghost Lawz - Tangier By Night 1510 Shayfeen - Mendima Paroles 1510 Ali Ssamid - Kifach Te3raf Paroles - 1510 White Nigga - Crook - 1610 West - Grave Remix 1610 Klass-A - Mocro Rabat Paroles 1610 Savage Plug - Gang feat. 7liwa Paroles - 1710 Modmen - 17-10 - 1710 Noobir - Yji Yakhedha 1810 ElGrandeToto - VendrediStyle EP2 Paroles 1810 Lbenj - Eh! Paroles 1810 L'Faree9 feat. Silver Wizy - Epical Paroles - 1810 Berry - Alright - 1810 Charaf - L'bands - 1810 Kalash Nikov - Hasta La Noche feat. Assir - 1910 West - Bitch feat. Noyzzz - 1910 Dzak - Bawlo - 1910 Sbai - Ya Liyam - 1910 Mostroo - Molotov - 1910 Whyzee - Kanbano B3ad feat. Jony Pipo 1910 Furelise - 771 Paroles 1910 Mons - Dream Paroles - 2010 Profit Za3im - Zahia - 2110 Salim - Midnight Express - 2310 La Zone - Ep.1 - 2310 Brako - Hayawanat feat. Primo - 2310 7x7 Dark - C90 - 2410 Profit Za3im - Inshaalah feat. Nikotine - 2510 Plumière - Iceberg feat. Saad 2510 Lferda - Respect Paroles 2510 Krtas Nssa - Super Bitch Paroles - 2510 Mr Crazy - Mamma Mia feat. Issam Kamal - 2610 Ily - Loserbitch - 2610 Sa3er Man - Yah 2610 Young Zow - Occupé Paroles 2610 Lsan L7a9 - Pas de problème Paroles 2610 Pause - Codex Gigas Paroles - 2610 Mr.Caprice - Khasek Tgol - 2610 Tiger HM - L'Oseille - 2610 Gha4music - Life Outro - 2610 Mocci - Kulshi Daa3 - 2710 3okacha - Ktabi - 2710 Hardy Flow - Peaky Blinders - 2710 Tendresse - J.L.G.M feat. Don Bigg - 2710 Soorci - La Banda 68 feat. Zen Dakh, Dady - 2710 Diib - Himalaya 2810 Madd - Sacrifice Paroles - 2810 Diablo - Chambre 8 feat. Nikotine - 2810 Diablo - Mauvais Affaire - 2810 Diablo - Suka Blad feat. Nikotine - 2910 Izi - Paris c'est magique - 2910 ZR - Maladie feat. T9il - 2910 Youss45 - Clash m'y Self - 2910 Krtas Nssa - Bga3 Love - 2910 Bramfori - Hada Ula Hada 2910 Clasick Kid - Sakt Paroles 2910 Weld l'Griya 09 - 3acha Cha3b feat. Lz3er, Gnawi Paroles - 3010 Big Breed - 7asska Masska - 3010 Big Breed - Hal Fal - 3010 Callmeicon - Brevet 1 - 3010 Diablo - La Rage feat. Nikotine 3010 Psychoqueen - L'Vibe Paroles - 3010 Djamal - 7afla Salat - 3010 Bingo - Marokino 3010 USKY - Addictions feat. Ouenza Paroles 3110 ElGrandeToto - Counter Strike Paroles - 3110 Marouane. - R.T.9 feat. Profit Za3im - 3110 7mad feat. MC Kerrou - Chkoun Had Jouj - 3110 Big Breed - A'Nachat - 3110 Big Breed - 3aycha 9andicha 0111 Mester Alae feat. Snaik - Hena W Homa Paroles 0111 Lferda - Mi Amore feat. Witness, Kouz1 Paroles 0111 Stormy - Makandemch feat. Yakuza Paroles 0111 Levy - Wendigo Paroles 0111 Amine 16-3 feat. Iguidr - Lkhobz Lbayt Paroles 0111 Pweepa - XXL Paroles - 0111 Xkey - Dollar Bills feat. Draganov - 0111 Drizzy - Arayi - 0111 Jech L9ba7 - Freestyle Part 1 - 0111 Skaymen - Smile - 0111 Jilali Fantome - Allo Police 0211 Clasick Kid - Wri9a Paroles 0211 Mr Crazy - Tayer Paroles - 0211 Scabreux - Wow feat. West - 0211 Hardy Flow - Number Uno - 0211 Nikotine - Caniche - 0211 Ayoun Elhak - Dik Sata feat. Dr. Black - 0211 Ach Man Hay Mohammadi feat. BTrone, Z-One, Y-K, Shark-Man, Warrior - 0211 Kouz1 - Ghselty Tbassel Sire Syaq - 0211 Streety - Feeling Blue feat. Doorknocker - 0211 Diablo - La Zone Ep 2 feat. Pasha - 0211 Uncle Vato - Ok ! Tsenaw - 0211 Mister MJ - Old Shet - 0211 Ms Flow - Fes Hakma Tazi feat. Youss45 - 0311 Diib - Molotov - 0311 One Ace - Passion - 0311 Sdam - Live the Life feat. Youss45 0411 Drop - Popcorn Paroles - 0411 Noobir - Hitting All the Targets - 0411 L'Black - Senorita - 0411 Rebel - Ibi9or 0511 Marouane. feat. Demon - Wayak d'zbali Paroles - 0511 Zak8 - Narcos - 0511 Modmen - Ghost Writer - 0511 Adam Mony - My Way feat. Snaik - 0511 Nikotine - 3acha Cha3b feat. Diablo - 0511 Smiix324 - Papa, je suis criminel ! 0611 Uncle Vato - Danger Paroles - 0611 Profit Za3im - Gauche Droit - 0611 Mng917 - 80 Bpm - 0611 Youss45 - Kifah feat. Abdo Jouker - 0611 Dzak - Point Mort - 0611 Bramfori - Zero V2 - 0711 Musta - 9alb Mahmoum feat. Youss45 0711 Negaphone - Dinero feat. DJ Smemo Paroles 0811 Lferda - À l'époque feat. Tagne Paroles 0811 Mr Crazy - Weld Derb Paroles 0811 Psychoqueen - Nsitek feat. Wissam, Bouchra Drop Paroles - 0811 Enimaa - Godfather 0811 Komy - J.I.T Paroles - 0811 Dobi - Fabor - 0911 Dobi - 0030 - 0911 Snaik - Lewel - 0911 Magnum - Murder Ep1 - 0911 Taaygaar - Sbah Lkher - 0911 Brako - 0 Followers feat. Skynet - 0911 2Taf - Mode avion - 0911 Diablo - Tourni feat. Broow - 0911 Loco Lghadab - Cobra - 0911 RedMic - Vida - 0911 Reggio - Spy - 0911 Wofa - Wow - 1011 Stoor - Casa Zoo feat. Q-Zain - 1011 Hamza DKM - Mbappé - 1011 Momo - Outsdr feat. Ouenza - 1011 7x7 Dark - Hard Life - 1011 7x7 Dark - HeroWine - 1011 7x7 Dark - Amprovise - 1011 7x7 Dark - Señorita - 1011 7x7 Dark - Party feat. Youss45 - 1011 7x7 Dark - HelloWilly feat. Psych Up - 1011 Phobia 51 - Haraga V2 1111 Lil Assaf - MVI Paroles - 1111 Dzak - Ba9i - 1111 Ayman - Barrio feat. KingSmoke - 1111 Sdam - Chkoune Y7ase B Chkoun - 1111 Jeka - Nodnayd 1211 Demon - Btana feat. Moro, Nizzy Bee Paroles - 1211 Abzaou - La Mort 1311 Furelise - Rihanna Paroles - 1311 Yasine - Miyek 3lina - 1311 Big Breed - Khorotos - 1311 Jilali Fantome - Tmax 3an 3an - 1311 Gnawi - 7shayshi - 1411 Oza - B3ed - 1411 Nasa - Bonita - 1411 Romyo - Nueva Vida - 1411 Nizzy Bee - Sla - 1411 The Last Samuraï - Dark Zone feat. OtKing 1511 Lbenj - Ok BB Paroles 1511 Dollypran - Chiico feat. ElGrandeToto Paroles - 1511 Young Zow - Click Play - 1511 Clasick Kid - 3KS feat. Mobb West, Xico92 - 1511 Nerd-X - Rendez-vous - 1611 Brako - No More feat. Stoor, Razin - 1611 Netos - G.3.R.F - 1611 Nikotine - Déjà Mal - 1611 Beyondo - Storia - 1611 Assil - Dayz - 1611 Xfan - Alif 4 - 1611 Youss45 - Fes Hakma L3alam v2 feat. Abdo Jouker 1611 Ra6te - 3on Sorry Paroles 1711 Maestro - Fidèle Paroles - 1711 Mck1ng - Cash - 1711 Lgaz - Lgana - 1711 Phobia 51 - Kanchof Bl9alb - 1811 Phobia 51 - - 1811 Nbigha - Mestokéé - 1811 Blaz - Freestyle 1 feat. West - 1911 Nikotine - Negro - 1911 Shiny Dice - Hope feat. Saby Buff - 1911 Ms Flow - Machi Lkhatri feat. Youss45 - 2011 Lil Psycho - Gha Bde7k - 2011 Mr Orch - Kolchi Tafi - 2011 Spleux - WeedNess Day Freestyle - 2011 Naiir - Lonely Nights 2111 Witness - Valderrama Paroles 2111 Lordie The Goat - Lit feat. Anys Paroles 2111 Tagne - Génération Bizarre 1 Paroles 2111 Drizzy - Mia feat. Ily Paroles 2211 Snor - Lgana Paroles - 2211 Jocker - Hania feat. 404 - 2211 Mocci - Hada Mashi 3alami - 2211 Tendresse - Man7oot - 2411 Nizzy Bee - Rolex - 2511 Rafff - Li 3waj - 2511 Chwakere - Full Speed 2511 Grünt 39 Feat. Casablanca x Dollypran, Kouz1, Damost, Fell'g, 8ird Snowflake Paroles 2611 Demon - Testre Paroles - 2711 Lafounares - Hustlers ft. Doc-M 2811 Amine 16-3 - Trombia Paroles - 2911 Callmeicon - 29 2911 Weld l'Griya.09 - Mouwatin Maladi V6 Paroles 2911 7ari - OK? Paroles - 3011 S-Boy - Babe 3011 Negaphone - Malgré M9awda Paroles 3011 Dollypran - Khari Paroles - 3011 Drizzy - Fake Love 0112 Hoofer - Woofer Paroles 0112 Madd - DD Paroles 0212 West - Paroles - 0212 Eladib - Darkside - 0312 Sbai - Mood - 0312 Dzak - Dzagora - 0312 Samma King - Yaya Toure ft. Rafa G 0412 Youss45 - Sexfriend's Paroles 0412 H-Name - Mayhemek Paroles - 0412 Lil Eytch - 00H 0512 Abdeelgha4 feat. Negaphone - God Damn Paroles - 0512 3okacha - S7ab 0612 MBIW feat. Tahv - Maarefch Paroles 0612 Young-R - La Vida Paroles - 0612 Ljasos - Euro feat. Hamza Hard - 0612 Mr Crazy - Liyam A Liyam - 0612 Jilali Fantome - Loco - 0712 Snow Ken - Ghadi Bohdi 0812 L3arbé feat. Capitain - Pubg Paroles - 0912 Wofa - Machi A LAise - 1112 Big Breed - Hunger Game - 1212 Ashka - SysWow64 1212 Jocker - No Love V3 Paroles - 1312 Nessyou - Moha - 1312 Lemhlwess - Punk Angel 1312 Noyzzz feat. West - 3chiri Paroles 1412 l'Morphine - Taha Lkobra V3 Paroles 1412 Muslim - Caballero Paroles - 1412 Nizzy Bee - Ch7al F Sa3a - 1412 Orientanarchy - Mood - 1512 Aziz - Nanah - 1512 Amiron - Old Classic - 1512 CefMoon - Badr Army ft. Joseph - 1612 Salim - Wa Ya 7nini Freestyle - 1812 Bad Jock - Kassi - 1812 Maestro - Msameh - 1812 Rafff - Mabghitch Cash - 2012 Marouane. - Çava Nit - 2012 Patro - Ghayb9aw Tlamed 2012 Loun - Ain't Nothing Can Put Me Back Paroles 2112 Zanzan - Makrahnach Paroles 2112 Dini - TN1 Paroles - 2112 Adil Bakkouri - Yo Soy Mejor - 2112 Mostroo - Fake ft. Mng917 - 2112 Diib - Banality V2 - 2112 Cody - Cuba - 2112 Zre9a - Routine - 2112 Dimi - Mi Amor - 2112 Abduh x Yag - Automatic 2212 Cody - Cuba Paroles - 2212 Zenji - Woody - 2212 T9il feat. Camarad - Wagandi - 2212 Laarbi - No Limit ft. Prince - 2212 Smiix324 - All'Estero ft. Youss Yakuza - 2312 Tony P - Trap Nayda ft. Zeta Cooper - 2412 Noobir - Men Zero - 2412 Hamada - Story F Story - 2412 Ice Akatsuki - No Sleep 2412 Klass-A - Call Me Paroles - 2512 Zepekeño - Chicharito - 2512 Lz3er - Lmawt Lkhawana - 2512 Ach Man - Espoir ft. BTrone - 2512 Demon - 25 3am ft. Oussama Jarfe - 2612 Wolf Trapzilla - Work ft. Lord Mehdi - 2612 Mr Orch - One Two ft. Modmen 2612 Komy - Dnia Paroles 2612 Chaos - Ta7 Niveau Paroles 2712 ElGrandeToto - 7elmet Ado 4 Paroles - 2712 The Mobb - Loose - 2712 Orientanarchy - Devil ft. 2Taf - 2712 L9bi7 - Ana Lghaltan Machi Nti - 2712 L'Faree9 - Sakan Trou7 Tri7 - 2712 Stovskii - Back to Back - 2712 3okacha - Yemma - 2712 Hashtagi - Halal 2812 Ra6te - Lifechkel Paroles 2812 Profit Za3im - Les Infidels ft. Dini Paroles 2812 Young Product - 44 ft. KDK Paroles - 2812 Hill Shooka - Nbel Blow Ha - 2812 Lhaj - BIM ft. West - 2812 Abdeelgha4 - Down - 2812 Diib - freestyle - 2812 M-Fix - S3ib ft. 7-Toun - 2812 Zapa - Maria ft. Saad - 2812 Snaik - Chui Pas La - 2812 Djamal - Lazio - 2912 West - Foundi ft. Lhaj - 2912 Young Zow - Glab Mo - 3012 L'Black - BPM ft. Elys - 3012 Scabreux - Los Enemigos 3112 Mr Crazy - Kola Lila ft. Lil Youbey Paroles 3112 L'Morphine - Black Horse Paroles 3112 Mimih - Lila Lila Ya Leyla ft. Loco Paroles - 3112 A-Jey - Bo7di - 3112 U7 - Khalihoum - 3112 9teen - LiiT! - 3112 SkwilaGang - FassiMeknassi ft. Youss45 - 3112 Monkey Business Music - Machi Mouchkil 7-Toun - M</t>
+          <t>Tu veux t'éclater, tu veux te faire épater D'être du métier, travaillant avec du doigté, toi t'es Laisse donc la place à ceux qui savent venir savater Tu veux t'éclater, tu veux te faire épater D'être du métier, travaillant avec du doigté, toi t'es Laisse donc la place à ceux qui savent Si la plupart des gens en ta faveur sont plus sensibles Gardien de tes rimes, c'est ta valeur au mic qui décide Un flow flexible crée un air inaccessif XXX tu rappes façon XXX soul clap Du rap contact fredonné par un beau Black Chassant le wack par un don du ciel, un mic, une prise jack Pour te montrer que même en solo, à l'aise en Ralph Lau' Possède le funk flow, une vraie tempête, un vrai fléau Pour éduquer ton cerveau, sans cesse de renouveau Hausser le niveau sans trop traumatiser le tempo D'ôter le flou, qu'tu fasses des sous, pas qu'des clous Apporte de quoi s'mettre sous la dent à tous les jaloux Diffusant l'info comme la cause, Barbès XXX La politique des rues XXX déplacé Si t'es mou, te rends un peu plus fâché Pas seulement frime, gratuité, mots obscènes Mes rimes se succèdent, dans l'intellect s'injecte un remède Tu veux t'éclater, tu veux te faire épater D'être du métier, travaillant avec du doigté, toi t'es XXX prends ton pied devant la voie lactée Laisse donc la place à ceux qui savent venir savater Tu veux t'éclater, tu veux te faire épater D'être du métier, travaillant avec du doigté, toi t'es Déjanté, prends ton pied, vois la voie lactée Laisse donc la place à ceux qui savent En Nike, Lacoste XXX Fila, savamment vêtu Mais plus têtu que McEnroe sur court de terre battue Très jeune, j'ai combattu, rendu me suis défendu Pour un statut que je réclame, considérant qu'il m'est dû Qu'on me respecte, qu'on me dise plus souvent tu tues Ne porte pas un inconnu plaqué sur une avenue Jamais soutenu puisque ma go jugeait ta cause perdue Induit en erreur par mon allure, à la bonne heure Pour mon malheur, plutôt le tien corrige ses erreurs Sans faire de faveurs Dans ton esprit s'impose la terreur Tes amis en causent si XXX t'y parviens S'donner les moyens, y arriver sans eau dans son vin Ça étonnerait le monde entier si j'tombe au fond d'un ravin Sans l'vouloir, c'est mon son qu'tu fais jump up Normal tu bloques sur c'qu'évoque l'authentique hip-hop De mon époque, on préfère la soul, copain Vu qu'ta pop censure, boycott pépin Écoute bien l'bruit qu'ça fait quand je crache mon venin Après dis-moi gamin si ton cerveau s'en sort bénin Tu veux t'éclater, tu veux te faire épater D'être du métier, travaillant avec du doigté, toi t'es XXX prends ton pied devant la voie lactée Laisse donc la place à ceux qui savent venir savater Tu veux t'éclater, tu veux te faire épater D'être du métier, travaillant avec du doigté, toi t'es Déjanté, prends ton pied, vois la voie lactée Laisse donc la place à ceux qui savent</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Daddy Lord C</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Daddy Lord C</t>
         </is>
       </c>
     </row>
@@ -662,12 +792,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Hustler</t>
+          <t>Le retour du Dad’</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>J'reste normal, ouvert à tous malgré mes airs sérieux C'est curieux, vivre ainsi ça peut être périlleux Vu tout c'que j'ai vu sur les miens, c'qu'on a créé Ça perturbe pas mon flow, son talent, bête de V.O T'façon moi mon équipe, lumière éteinte, nous brillerons Ni vibrons, nique les jaloux, j'avoue seul eux se grilleront Non, je n'me cache pas derrière la religion Derrière mes gens méchants, mec tu connais le nom de ma légion Le son de ma région Le pourquoi du comment, ma raison Ce avec quoi, pour durer, j'traverse les saisons Parlons-en, parlons-en vite fait, j'suis pris par le temps Y a pas une chose qu'on peut partager et parler taro Hustler, Daddy Lord C Insolent, Hustler Hustler, Hustler, Daddy Lord C Insolent, Hustler, Daddy Lord C remet de l'ordre ici XXX quand tu dois, sois celui qui paie ses dettes Si tu penses qu'être connu peut tout combler, c'est bête Le besoin m'embête, dans l'rap cette bête de compète Ceux qui s'la pètent, coupe la tête Ton sale couplet Les vieux m'apprécient Quelqu'un souffre, apporte-lui de l'aide La rue mon XXX, si y a drah XXX de l'être Ça la fout mal car dans l'domaine il n'existe pas de maître Le danger le mesurer, j'connais pas de mètre On sait tous si j'espère sur des préjugés En tous cas, entre toi et elle qui va mieux me sucer Chacun à sa place, y aurait moins de soucis Moins de ceci, moins de cela Des défauts j'en ai Pourquoi pas, j'vais pas m'gêner Quand il s'agit d'donner d'moi j'connais pas d'limite Hustler, Daddy Lord C Insolent, Hustler Hustler, Hustler, Daddy Lord C Insolent, Hustler, Daddy Lord C remet de l'ordre ici Me vante pas, une fois de plus, les sarcasmes de ton génie J'vais pas finir menottes aux mains, accroupi à genoux J'ai envie de m'investir dans ce qu'il y a de flou De croire en l'amour, aux sentiments, pas les films porno Que les déboires de l'amitié sont inspirés par nous Et j'te revoyais que s'consomme toujours ce tord-boyaux Jamais jeter mon XXX avec l'eau du bain De plus, j'conçois pas ma vie sans rien, comme un jour sans pain De nos jours le père Noël porte un bas d'laine Compte-tenu que t'as pas mûri le tien bat d'l'aile J'causerai pas de paix, c'qui la veut l'appelle Tout ça n'a pas de prix, impossible de me doubler Bien qu'on s'en fout du blé, t'évites de trembler Personne t'as troublé, et qu't'oublies pas c'couplet Si, si Hustler, Daddy Lord C Insolent, Hustler Hustler, Hustler, Daddy Lord C Insolent, Hustler, Daddy Lord C remet de l'ordre ici</t>
+          <t>Ça y est c'est reparti, l'artiste hardi de l'art dit ardu Fardeau pour lardus, fais de la résistance bref reprends du Galon j'vais au charbon, Y aura pas de cadeau ni de pardon Le dernier salaud qu'on n'a pas encore foutu au ballon Normal j'ai le bras long, les alibis mes soss et moi les salons Pour mattraper ce sera pas Château-Vallon, la vie de salon Dehors ils prétendent tous qu'on m'entende bien que j'ai le même vice qu'eux Le même flot, la même langue visqueuse, la seule excuse J'me drogue pas j'deale pas bien que depuis longtemps cramé Et pas du genre à consommer seulement qu'du lait écrémé Bêtement rimer arrimer à style phases périmées J'ai longtemps trimé dans le crime, La Défense, Grigny, le 13, Crimée Pas pour aujourd'hui mon son débarque, j'te vois l'supprimer C'est l'retour du Dad Du rap Soweto sur fond de son de Bagdad un expert comptable C'est l'retour du Dad Du rap Soweto sur fond de son de Bagdad MC reste tranquille ou te faire du mal je vais pas me gêner Hey Daddy ! me gêne pas j'suis en train de shooter Montrer aux MCs fragiles que c'est plus l'heure de goûter J'ai pas l'temps de jouer, je l'ai fait en disque tu peux l'écouter Du rap fruité, futé pour ce que cela va te coûter Pour moi c'qu'est vital le choc brutal du fameux métal Bien que j'évite sheitan, c'est pas la CSG qui va me mer-cal Kelkal du mic calcule avec recul pour que tu cales Mc reste tranquille ou tu faire du mal je vais pas me gêner Personne pour me freiner, je maltraite le beat comme une trainée Et né dans la mêlée j'mets les bouchées doubles, botte les plus zélés T'interpeller comme la télé le fait une meuf bien roulée J'fais mieux que roucouler, me défouler te saouler tu craques sous les Boulets de la tête brûlée du crane pelé en Pelle Pelle C'est l'retour du Dad Du rap Soweto sur fond de son de Bagdad un expert comptable C'est l'retour du Dad Du rap Soweto sur fond de son de Bagdad MC reste tranquille ou te faire du mal je vais pas me gêner Au plus haut degré ma voix en continue sans arrêt Sois prêt à devenir taré par mon phrasé sons samples carrés À s'imaginer que tu apprécies mon son tel qu'il est Mon look stylé Ralph Lauren, Lacoste, baggy, crâne pelé Me traite de fêlé par contre bois mes phases comme un gosse son p'tit lait Me critique pompe mon style à l'heure qu'il est File de la ville avant que mes vilains rabattent le filet Et que les vieux lâchent encore une fois voilà j'suis violent J'me fiche des histoires de gangs, d'bandits, d'voyous, d'parrains Ça m'fait marrer, s'ils sont si forts qu'ils viennent un par un Une fois par an à Paris dans les bacs j'parais J'parie qu'mes paroles parues perturbent, paralysent tes parents Me parle pas d'mafia, moi je me fie à c'que j'ai Le manche je lai et ya pas quau mic dailleurs que j'donne des dégelées On cause peu d'moi en bien, j'aggrave les choses avec mon pote colombien Tu veux qu'ça pète le jackpot pour ça tu paies combien ? J'ris quand les ragots racontent qu'intrigant cain-fri qui s'prend pour un ricain, passe pour un brigand Car question d'fric en vrai j'vois grand, j'range ma clique au premier rang C'est l'retour du Dad Du rap Soweto sur fond de son de Bagdad MC reste tranquille ou te faire du mal je vais pas me gêner C'est l'retour du Dad Du rap Soweto sur fond de son de Bagdad MC reste tranquille ou te faire du mal je vais pas me gêner MC reste tranquille ou te faire du mal je vais pas me gêner MC reste tranquille ou te faire du mal je vais pas me gêner MC reste tranquille ou te faire du mal je vais pas me gêner</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Daddy Lord C</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Daddy Lord C</t>
         </is>
       </c>
     </row>
@@ -679,12 +819,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Incorruptibles pt. 2</t>
+          <t>Le Sens du Clan</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>OK, 9-1, l'Essonne gros 1-3, Marseille DLC, AKH Ha ha! Dirty dirtyy, daddy daddy Écoute ça Accroche-toi Y a trop d'flics politicos qui jouent les cow-boys Autant d'jeunes de cités et d'banlieue qui font les homeboys On baille, sauf si c'est pour nous traiter comme boys Usés, manipulés comme une X-Box ou Game Boy Personne veut devenir cette pute que t'as vue nue Dans un film X, à l'hôtel ou sur l'avenue Nos gosses disent papa, le père Noël n'est pas venu Y a des livres saints même si gamin j'en ai peu vu On s'entend, si c'est le chemin que tu vises c'est parfait Jamais ces délits par besoin qu'tu finisses par faire Rester franc et sincère, durer dans l'temps ça sert Sauf que tu trouves ça cher, dis chez toi c'qui s'avère Écoute les sanglots longs d'ces violons d'automne C'est la BO d'ma tuerie, mon avertissement, danger Quand j'suis passé au crom', un truc de puriste Pas d'abrutis passés au poste et pourquoi tu ris hamdeck Ils vont finir par t'jeter au coffre Au pire ils t'zinguent, au mieux ils t'envoient l'fisc Et pour eux tu n'es rien qu'un d'ces chimpanzés sur la piste Un monde où les coupables sont freluqués en victimes Mais tu verras personne en prison quand sera passé Clearstream Et pendant tout c'temps, nos fesses sont dans les voitures À monter à fond ces sons et croiser dans les avenues Non ils m'font pas rêver avec Clovis et Charlemagne Ils ont peur de nos gueules comme avant ils flippaient sur l'Allemagne Pourquoi t'amputer si le diable est dans la maison pourquoi? Et jouer les chauds, on sait qu'l'hiver sera la saison C'est vrai on sait qu'l'effet d'annonce nous a tous trompé Ça finit en sirènes de flics et pompiers Incorruptibles, incorruptibles, incorruptibles Incorruptibles, la cargaison, avec j'ai bâti ma maison C'est dans mes gènes pas ma mission, bah j'y suis collé J'porte mes origines, ma banlieue mon labeur, comme un collier Ma condition de position de reddition de réaction de satisfaction Production fait l'encre couler Pour l'Élysée la rue pas d'journée d'repos si on doit y retour' T'as pas vu, vu, pourquoi t'es borné Tu votes pas, on t'as eu, eu Ici si t'abuses ou tu flaires, on te hmm hmm Surtout confonds pas, lorsque tu nous as vus, vus On connaît le blabla, ceux d'en haut, ceux d'en-bas, bas Arriver à ses fins, trois carottes et puis s'en va, va Politique ou rap à cage, c'est c'qui nous sans blabla On bouge la nuit sans faire de vague, nos cahiers comme des fers de lance Nos aka sont sur les rames, nos classiques dans les tours de France Et poussent dans les halls ou dans les clubs Certains rêvent de danger alors d'entrée ça joue les thugs Mais la race des bandits ne joue pas dans les cages Ni shit ni coke ni crack Trafique pas les pouchka dans les caves, frère ils s'en foutent des blocs Pas prêts à tout pour grimper dans les hits et dans les charts One love à ceux qui rappent, qui scratchent, graffent et qui dansent Au mic avec l'arc, défend notre art Mate nos poings, on les baisse pas, feu dans le regard On monte la garde, si t'es malsain dis vas-y qu'est-ce t'as Mon son lèche pas les culs blindés des BCBG Frère on change ton séjour dans le rap en vrai CDD Pourquoi t'amputer si le diable est dans la maison pourquoi? Et jouer les chauds, on sait qu'l'hiver sera la saison C'est vrai on sait qu'l'effet d'annonce nous a tous trompé Ça finit en sirènes de flics et pompiers Incorruptibles, incorruptibles, incorruptibles</t>
+          <t>Mon clan c'est comme un patate dans ça casse et ça saigne C'est ce que la rue m'a enseigné, au fil des années le pe-ra J'ai appris à le manier comme un sport de combat Dans toutes sortes de terrains minés, trime inédit Avec mon escorte Comme un joint Ma mi-fa faut que tu la respecte C'est comme un toit sur ma tête mec Alors matte le À la conquête du hip-hop français On avance pas avec des sourires forcés mais les sourcils froncés Prêt à foncer afin de tout défoncer on a faim et on sait Alors on s'efforce de rester authentique autant qu'on l'peut Et ce du mieux qu'on peut Car quoi qu'il arrive je pisse dans la rue Car on est ce qu'on est et on a ce qu'on a Et en ce qui me concerne je serais fidèle à mes ainés Je revendique ma clique, dans le 77 mon matricule Le seul et l'même qui t'encule Alors en tant qu'MC je pose une bombe verbale et je creuse Ta tombe sur l'instrumentale Ainsi que pour l'homme qu'on nomme Daddy C sur l'album Le sens du clan se transmet de père en fils Le respect, l'éducation de nos jours s'perd en vice On s'plie en dix pour pas que nos enfants subissent Sans la présence de mes gars franchement j'aurais pas le Ni fait de ma cité un sacré palais Et c'est pas les ragots qui font que mon blase n'est pas laid Trainer les sales histoires que je porte comme des galets Ni l'assurance dans une embrouille comme un vrai A partir au galop porter Je préfère être Condamné à 12 piges afin que tout se pige Je suis pas une tasse-pé même si j'ai changé d'aspect Trahir ça s'paie, que tu y échappe je veux bien J'imagine que ça se peut, mais la rue en laisse peu Moi j'suis fidèle aux miens Y'a que ma vie qui est à prendre Mes meubles à vendre Tout le reste à défendre Mon attitude va dépendre J'ai le sens du clan Le sens du clan se transmet de père en fils Le respect, l'éducation de nos jours s'perd en vice On s'plie en dix pour pas que nos enfants subissent Le sens du clan, je l'ai donc je l'ouvre À mon sens, mon clan est vrai donc découvre Ma carence Nes-O et Daddy C Tu sais que le son n'est pas bad ici MC Faut qu'on sorte tous de là ou on est Même s'il faut faire bouger la femme et l'escorte à la rescousse Laissant derrière nous que le mauvais souvenir d'un passé Dans la merde tu es Mais j'y resterai pas De voir mes reufs tous Dans ce monde de requin, tous vouloir faire briller les billets De façon immonde comme dans Dans mon clan on est tous issu Fais le Mais sache que dans la mêlée, y'a que des loups à l'appel Donc j'appelle à la loi de la jungle Face à ta femme et ton clan savoir rester humble Le mec qui devant toi fera Mais qu'est-ce tu veux que je te dise reuf, flingue-le Le sens du clan se transmet de père en fils Le respect, l'éducation de nos jours s'perd en vice On s'plie en dix pour pas que nos enfants subissent</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Daddy Lord C</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Daddy Lord C</t>
         </is>
       </c>
     </row>
@@ -696,12 +846,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Jackpot</t>
+          <t>Les jaloux</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Cliquez sur la lettre de votre choix pour accéder directement au raccourciABCDEFGHIJKLMNOPQRSTUVWXYZ100Blaze 113 13 Block 1995 1PLIKÉ140 20syl 25G 2CheeseMilkShake 2Fingz 2Spee Gonzales 2zer 3010 3e il 47ter 4Keus 5 Majeur 667 6rano 75ème Session 7 Jaws 8rukiAA2H Abd Al Malik Abdallah Abou Debeing Abou Tall Abuz Adams Ademo Adès Admiral T Aelpéacha Aero Afro S Aketo Akhenaton Al Peco Alaclair Ensemble Aladin 135 Alkpote Ali Alibi Montana Alivor Alonzo ALP Alpha Wann Alpha 5.20 Amine Anton Serra Araujo Arcane Areno Jaz Arma Jackson Ärsenik Ashe 22 Ash Kidd Assaf Assassin Assy Ateyaba ATL4S ATK AxiomBBadjer Bakar Bambi Cruz Barack Adama Bavoog Avers Bazoo Bedjik Beeby Bekar Benab Ben-J Benjamin Epps BEN plg Beny Beozedzed Béton Armé Biffty Bigflo Oli Big Budha Cheez Big Red Billy Joe Black Kent Black M Black Marché Blacko Blaiz Blaz Pit Blondin B-NØM Booba Boostee Bohemian Club Bolémvn Bon Gamin Bosh Boss One Bouga Box Frappe Game Bram's Brasco Brav' Bresom Gang Brulux Brvmsoo BTPKR Busta Flex Butter BulletsCCaballero Cahiips Calbo La Canaille Canardo Captaine Roshi Casey Casseurs Flowters Cassidy Céo CFR CG6 Chanceko Chanje Chapsy Charly Greane Chatnoir Chiens de paille Chilla Chillo Chily Chinwvr Coelho Columbine Congo Bill Cool Connexion C.O.R Coyote Jo Bastard Crown C-sen Cyanure CYPH3RDD6 D. Abuz System D.Ace Daddy Lord C Dadju Dadoo Damso Dandyguel Dante Sito Dany Dan David Okit Davodka Darryl Zeuja DA Uzi Dawa O'Mic Dead Obies Deadi Dee Nasty Deen Burbigo Def Bond Demi Portion Démocrates D Demon One Denza Denzo Derka Despo Rutti DFHDGB Di-Meh Diam's Diddi Trix Dika DIL Dinero Dinos Dinor rdt Diomay Disiz La Peste Djadja Dinaz Djalito Djamal Django Djamatik Djé DJ Weedim Doc Gynéco Doc OVG Doc TMC Don Choa Donkishot Doomams Dooz Kawa Dosseh Dostan Malicia Mc Double Zulu Doudou Masta Doums Doxx Dr Beriz Driver Dry DTFEEast Eddie Hyde Eden Dillinger Eden Eyez Eden Seven Eff Gee Eikiro Ejm Ekoué Elams Elyo El Matador Empty7 Enfantdepauvres Escobar Macson Espiiem Esteban Exodarap Expression Direkt Explicit SamouraïFF430 FA2L Fababy Fabe Faf Larage Faktiss Falcko Farhaon Farlot Faster Jay Faya D Féfé Félix J Fhe-Mann Fiasko Proximo Fibo Fisto Fixpen Sill Fixpen Singe Flev' Flynt Foda C Fonky Family Fonky Flav' FouKi Foulques Nera Framal Franglish Fred Watt Fredy K Fréko Ding Freeman Freeze Corleone Freko Ding Frenetik Furax Barbarossa Futuristiq FuzatiGGaël Faye Gambi Gazouza Setif Ghetto Fabulous Gang Geeeko Georgio Gerard Baste G. Kill GLK Gradur Grand Corps Malade Green Montana Grems Gringe Grödash Gros Mo Guizmo Guy2BezbarHHamed Daye H Magnum Hash24 Hayce Lemsi Hamé Hamza Haristone Hatik Heskis High Five Crew Hitakora Hologram Lo' Hooss Hornet la Frappe Horseck Hors II Portée Hotel Paradisio Hippocampe Fou Hugo Boss Hugo Délire Hugo TSR Hunter HyacintheIIAM Ian Vandooren Ichon ICO Ideal Jim IGee Ikar Ikbal Imhotep Infinit' Insolent Inspire Intouchable Iron Sy Irvin Isha ISK Issaba Issaka Ixzo IZMJJaeyez James Deano James Delleck Jarod Jar Pacino Jason Voriz Jazzy Bazz JeanJass Jeff Le Nerf Jehkyl Jessy Money Jethro Bare Jewel Usain JMK Jnoun Joe Lucazz Joey Larsé JoeyStarr Jok'Air Jo le Pheno Jorrdee Josman Joysad JR O'Chrome Juicy P JuL Junior BvndoKK-LY K-mel K-Rhyme Le Roi Kaaris Kacem Wapalek Kaddour Hadadi Kaki Santana Kalash Kalash Criminel Kalash L'Afro Kalif Hardcore Kamelanc' Kamel Le Nouvo Kamini Kamnouze Kanoé Karlito Kaza Kekra Kema Kemmler Kennedy Keny Arkana Kenyon Kenzy Keroué Kery James Ketokrim Key Largo Kheops Kikesa KingPark Kix Kaki Klub Des Loosers Koba LaD Kobo Kodes Kofs Kohndo Koma Kool Shen Kossi Krampf Krisy KSA KT Gorique KuRt 2020 KymaLLacraps Lacrim La Fouine Lala ce L'Algérino La Mannschaft L'Animal Landy Lanimal L'Animalerie La Race Canine Larry Lartiste La Rumeur Lary Kidd La Smala Lasco Latroce Mex La Meute L'Entourage Laylow Laylow x SirKlo Le A Leck Le D Ledé Markson LeeroY Kesiah Le Club Lefa Le Gouffre Le Juiice Lemdi Leone Leonis Lesram Lestin Le Rat Luciano Les 10' Les Alchimistes Les Frères Scotch Les Rieurs Les Sages Poètes de la Rue Les Tontons Flingueurs Leto Ligue des Ombres Liim's Lil Ryder Lim Limsa Lino L'Institut Lionel D L.I.O. Pétrodollars Lomepal Lonepsi Lord Esperanza Lord Gasmique Lord Kossity L'Ordre Du Périph Lorenzo Loud Loud Lary Ajust Loxley Lpee LT RT Klan Lu'cid Lucien Révolucien Lucio Bukowski Luidji Lujipeka Lunatic Luni Luni Sacks Luv Resval LuXe L'uZine Lycos Lyms LyndaMM le Maudit Mac Kregor Mac Tyer Maes Mafia K'1 Fry Mairo Maître Gims Maj Trafyk Mak G Makala Mala Manu Key Marin Monster Marty de Lutece Maska Max D. Carter Max Paro MC Janik MC Jean Gab'1 MC Solaar Médine Megaski Melopheelo Mekra Ménélik Menzo Meryl Metek Riski MHD Miaouss Mic Fury Michel Midox Ministère A.M.E.R Mino Missié GG Mista Flo Mister C Mister V Mister You Mové Sort Mo'vez Lang MOH Moha La Squale Moi Même Flow Moka Boka Mokobé Morsay Mothas la Mascarade Moubarak MRC Mysa Mystik MZNNadjee Nahir Nakk Narcisse Nawfal Naza Neg Lyrical Neka Nekfeu Nelick Nemir Neo Néochrome Néoklash Népal Neron Nessbeal Nestaman Nikkfurie Nikus Pokus Ninho Nino B Niska Niro NOR Norsacce Berlusconi N.O.S Nosfer Nubi Sale Nusky Nyda NysayOOboy O'Trak Odeuxzero Odezenne OGB Oggy Nilz OldPee Oligarshiiit Ol' Kainry Onze OPG OrelSan Ormaz Orus Osirus Jack Oxmo Puccino OZPPakigo Panama Bende Passi P-dro Petit Voyou Phénomène Bizness Piloophaz Pit Baccardi PLK PNL Pompes Funègres Popey Primero Prince Waly Profecy Psy4 de la Rime PSO Thug PulkraQQrono Q.E FavelasRRaphaël Reckone Red Cross R.E.D.K Rémy Rim'K Rizla RK R'Mak Robdbloc Rocca Rocé Rochdi Rockin' Squat Rohff Roméo Elvis Rounhaa Royce Rowjay RVNHD RvzmoSS-Cap Sadek SAF Saïan Supa Crew Sajfleo Saké Sako Salakid Salek Salif Samat Samm Sanka Sat l'Artificier Saty Savage Toddy Say Says'z Sch S-Crew Scylla SDM sean Sëar Lui-Même SEB Sefyu Selim du 9.4 Senamo Senyss Serane Sese Kepler SetMatch Seth Gueko Sexion d'Assaut Seyté Shay Sheek Sheldon Shone Holocost Shotas Shro Shurik'N Sianna Siboy Sidi Sid Sifax Sinik Silky Shaï Sirap Sir'Klo Sir Samuel Six Slim C Slimka Sly the Mic Buddah Smartzee Smeels Smily Sneazzy Sniper So Clock Sofiane Solo Soolking Soon E MC Sopico Soprano Soso Maness Soul G Specta Spider ZED S.Pri Noir Squidji Stavo Stick Still Fresh Stof Terrier Stomy Bugsy Stupeflip Suikon Blaz AD Sultan SuperWak Clique Suprême NTM Swagg Man Swenz Swift Guad Swing SyenTTake A Mic Taipan Taï Z Tandem Tawsen Tayc Tedax Max Teddy Corona Teki Latex Tengo John thaHomey The Shin Sekaï Tiakola Tiers monde Tiitof Timal T.I.S Tito Prince TK TLF TLZ Clan Tortoz Tsew The Kid TSR Crew Tuerie Tunisiano TyranikUUltimate Bitches USKYVVald Val Mobb Varnish la Piscine Veerus Vesti Veust Lyricist Vicelow Vicenzo Vidji Vin's Vîrus Volts Face VSOWWacko Waltmann Waman Wit. Worms-TXXGangs X-Men XIII Sarkastick XVBARBARYYannick Yaro YL Younès Youri Youssef Swatt's Youssoupha Youv Dee Ysha YUZMVZZamdane Zed Zed Yun Pavarotti Zesau Zeu Zek Zeguerre Ziak Zidi Zikxo Zinée ZKR Zola Zoonard Zoxea Zuukou MayzieABCDEFGHIJKLMNOPQRSTUVWXYZCliquez sur la lettre de votre choix pour accéder directement au raccourci41</t>
+          <t>Daddy Lord C remet de lordre ici Daddy Lord C remet de lordre ici Daddy Lord C remet de lordre ici Daddy Lord C remet de lordre ici Ma vinylique gangsta propa-propagande Revendique son immondice sinon te vise, met à lamende Infime ami intime, qui leçons qui le prétende Mange dans ton frigo, boit ton Pop, fume toute ta weed Te dit jamais merci, cest à te pousser au suicide Acide, enfin, sil te sourit, dans ton dos rit de Il te nargue, dès quil drague ta femme te blague, quil bavarde Le biggy Daddy tridigi dit de prendre garde Ca barde, chaque cochon a son Mardi Gras Etape, quaujourdhui soit le tien, tes dans de beaux draps Les chats-chats gogols, gagascaille-ras reloues Appelle-les comme tu veux, je dirais seulement jaloux Ne sintéressent quau sexe, mêlent la fesse au business Je suis vexe et mon réflexe nest pas complexe Ma politique, celle dun type type schizophrénique Cynique, trisomique envers tous les hypocrites, les Les jaloux, jaloux, jaloux, jaloux Les jaloux, jaloux, jaloux, jaloux Daddy Lord C remet de lordre ici Daddy Lord C remet de lordre ici Daddy Lord C remet de lordre ici Daddy Lord C remet de lordre ici Quand je dis hula hoop, il répond sopa, sopa Mauvais conseiller dans mes affaires, il me croit dupe Inutile dans le groupe, arriviste de la troupe, mencroûte Ces troupes déroutent tout ce quelles envoûtent Pas besoin dexpertise aux dégâts quil réalise Conduisent, concrétisent mon analyse vers la bêtise Convoitise, envie et jalousie, envie du voisin Avis aux amateurs désireux dêtre les prochains Daddy Lord C le seul, lunique, le vrai Dun geste détruit la récupération funeste Fêtée à mon insu sur mon deal, sur mes restes Le prétexte, le contexte où je situe mon texte Mènent, malmènent le do-lo-lomaine qui atteste Bon nombre damis me tournent, retournent leurs vestes A ces têtes de chiens pas de quartier, pas de politesse il pour il, dent pour dent, théorème dil y a longtemps Mon temps je le reprends et avec je te paye comptant Jaime mieux être un gagnant quêtre un perdant, ça me rendrait dingo Quand je joue au loto cest pour gagner le gros lot, le bingo Toi-même tu dis pas non aux diamants et aux trois lingots Ta femme quest-ce quelle choisit ? Le que-to ou le roro ? Les khos saisis, comprends limpro du négro super héros Qui se dresse contre Amasser le gros pactole, relever les audimats Oublier le protocole de flambe, de frime, est-ce un crime ? Si le millésime, la cime de mes rimes Musent, riment plus avec mon franc que centimes Si tu naimes pas mon dialecte, quand même, respecte Jinspecte, ceux qui se la pètent, mont direct Vecteur sectaire, balaie, guette le secteur Infâme, toi qui te pâmes de mon programme Jentame, dame, mon bestial te crame Daddy Lord C remet de lordre ici Daddy Lord C remet de lordre ici Daddy Lord C remet de lordre ici Daddy Lord C remet de lordre ici</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Daddy Lord C</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Daddy Lord C</t>
         </is>
       </c>
     </row>
@@ -713,12 +873,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>J’Amène Ton Énergie</t>
+          <t>Pas L’Temps De Jouer</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Hey, lascar Les 3 Coups Te mènent à bout Represent 95 Sur la compil Time Bomb Represent Que vas-tu faire Lorsque latmosphère sassombrie ? Et que tu flaires Les 2 fous des 3 Coups qui te guettent au cutter ? Si tu fuis ne tinquiètes pas homologue au Ménage A 3 suffiront à faire laffaire Lyon prend le mic pour tous les OG boy Je balance mes rimes et técrase, tes quun toy Comme un ta-ka, kata boom Enchaîne donc le judoka Dun front kick je mécarte Joue le rôle dune camera Enregistre, analyse, ou m'essouffle comme la bise Reste droit et ne soit penché comme la Tour de Pise là est la question de la constitution Révolution, sans solution pour lévolution Trois fois cest la pression LÂCHE LA PRESSION ! 1 des 2 fous des 3 Coups te sert donc un plat La vengeance est un plat qui se mange chaud ou bien froid Canalise ta rage, ton énergie, ainsi que ta force Si mes rimes ne téclairent pas, alors allume donc une torche Dans la nuit, fais gaffe aux mauvais esprits Lyon te protègera de lui Le courage relève la tête dun homme faible Comme le Lièvre et la Tortue dans les Fables de La Fontaine Tic-Tac, Tic-Tac, Haaaa Que vas-tu faire, alors, gars ? Puisque je mapproche de toi Bouffonner ou réagir pour ten sortir de là Toutefois, 1 fois, 2 fois, Haa ! Jamais 2 sans 3 Lyon represent les 3 Coups du Ménage A 3 Que vas-tu faire Lorsque latmosphère sassombrie ? Et que tu flaires Les 2 fous des 3 Coups qui te guettent au cutter ? Si tu fuis ne tinquiètes pas dhomologue au Ménage A 3 suffiront à faire laffaire Sur son undeground Damn-damn-damn Sur ta tête je slam, pas de blèmes, espèce de flemme Haa ! Je suis dans mon art, noble art Comme la boxe, quelle soit thaïlandaise ou anglaise High kick, uppercut, crochet te mettent mal à laise Que tu sois balèze, sache que le courage me brûle comme la braise Je serais ton cauchemar du lundi jusquau vendredi 13 Surmonter la peur pour exploser dans la fureur du Dragon Noir Cracher son feu, régner en seigneur Le courage est comme une torche One on one, pas de pitié pour lennemi qui sapproche face à lennemi tapportera des ennuis Lhonneur avant tout, lutte jusquau dernier qui survit Abracadabra ya pas le dra caillera Ne tabaisse pas, sinon te fera le coup du von-sa Quoi ? quoi ? quoi ? quoi ? quoi ? quoi ? Quoi, quest-ce qui tarrive, là, quoi, mec ? He ! He, gars He, tu vos... tu vas menculer ou quoi ? Quest-ce qui tarrive, toi ? Tes fou, toi, ou quoi ? Tiens, enculé, va ! Tiens, prend ça dans ta face, enculé ! Hein ! Represent pour mon gang, pour ma click Je nettoie latmosphère des esprits maléfiques Si je mappelais Mamadou et toi Dominique Lequel de nous deux se fera serrer par les flics ? Avale-ça Comme la canicule je te déshydrate, tempestes, tu hurles Jai découvert ton talon dAchille, appelle-moi Hercule Plus costaud que Cousteau, jexplore avec mon couteau-couteau Le fossé que jai causé dans ta peau Manie donc le couteau dans sa plaie La douleur équivaut une rage dentaire ou un abcès-abcès Balancer dans le tié-quar un RG La bouffonnerie nengendre que la lâcheté Le chien est le meilleur ami de lhomme Dit-donc ! Qui suis-je ? Lennemi de lhomme Ou de celui qui veut tenvoyer dans la tombe Une autopsie de ton cur est nécessaire Découvrir pourquoi il se transforme en cur de pierre Que vas-tu faire Lorsque latmosphère sassombrie ? Et que tu flaires Les 2 fous des 3 Coups qui te guettent au cutter ? Si tu fuis ne tinquiètes pas dhomologue au Ménage A 3 suffiront à faire laffaire Yes Les Dalton Jérémie, Daddy Lord C Jhonygo, Marvel Kick Heya-He A mes filles, Nounou, Kimberley, Respect au reste de la Mandja Family Nasser 2 Bal Niggets 2 Neg Gued1 AdHoc-1 3 Coups Monsieur R Ali Matricule X Jessy James Xavier et Ricks Wallabee Rizo et tous les lascars du Squet-Bo Rougemont, Sevran Blaise, Stevy Les 3000 Represent Pour mes lascars de la foncedé Mes nègres OG Les PDG Represent pour Moudji Mikael Yo Félins Ben Ponpon Stevy, Aristide Cest déjà bon Dans la place Le Lyon de la tribu des Mandja Sort ses griffes Represent pour mon gang Pour ma click Ya-Ex Krokmitten Cest déjà bon Represent pour my man DJ Mars DJ Maître Dj Fat Geraldo DJ Sek Et tous les lascars Les cainris Qui écoutent mon son Represent yo</t>
+          <t>Je te gave de basse comme MacDonald de matière grasse Enlace ta carcasse Par un flow non moins efficace Place-dé, pousse-toi, car aujourdhui cest mon heure Mon tour, mon jour J Droit au but sans raccourci Dose ceux qui osent critiquer quand je me pose Car je tchatche, cause, la vérité des choses Choses que beaucoup oublient, ça ne fait pas un pli Quand jy entends, écoute, reçois, perçois ce qui se dit Comme tous les hommes jaime le sexy, les beaux clips Le luxe, le champagne, les bonnes bagarres, les grands trips, tu flippes Les pieds sur terre, même si ça nen pas à lair Fier de mon ego, de mes biz illégaux Car ambitieux ne me contente pas de remplir mon frigo Toujours plus haut, me hisse, ma folie des grandeurs Mon âme soeur, en qui jai plus le retour dascenseur Posé flegme à la façon Keyser Soze Creuse un faussé entre moi et le mauvais Retiens ce qui me convient Me convient que les choses biens Toi même tu sais, remets de lordre en plein effet Pas l'temps de jouer Mon crew na pas l'temps de jouer Quand je prends la parole ça nest plus un jeu Jai pas l'temps de jouer Mon crew na pas l'temps de jouer Quand je prends la parole ça nest plus un jeu Jai pas l'temps de jouer Mon crew na pas l'temps de jouer Quand je prends la parole ça nest plus un jeu A lécole tu réfléchis avant daller au premier rang Cest tout vu Tu connais ton job, plus tard une fois grand Pareil, de nos jours ça rapporte plus, marier sa fille à un truand Pourquoi tes vieux sénervent, semballent, quand je parle ? Quest-ce qui leur prend ? Mon franc parlé Que je lâche comme du petit lait Me censuré ny compte pas, au micro jy suis scellé Accroché, soudé Un vrai bagnard a son boulet Quest-ce qui se complote ? Pourquoi me rejette-t-on la faute ? Les salaires bas, cest le Président qui a lantidote Règle tes comptes, soit, mais frappe à la bonne porte Tfaçons je pars pas tout seul si un jour le Diable memporte Mentraine avec Lui, me côtoie dans mes ennuis Taffole pas, y'a pas le feu, ce sera pas pour aujourdhui Que sera permis à autrui de fuck avec le taf que je produis Busy sur le mic, même si le nombre des vrais se réduit Jaccrois mon crédit, mon originalité te séduit Pas l'temps de jouer Mon crew na pas l'temps de jouer Quand je prends la parole ça nest plus un jeu Pas l'temps de jouer Mon crew na pas l'temps de jouer Quand je prends la parole ça nest plus un jeu Pas l'temps de jouer Mon crew na pas l'temps de jouer Quand je prends la parole ça nest plus un jeu Busy sur le mic, comme un flic et sa matraque Du rap contact, flow posé dosé Par le biais de mon jab du gauche, une prise jack Normal, tu raques quand je récidive, donne sur bonus track Cest de mon devoir de dénoncer, parler de ce qui gêne De ma compétence De mon ressort, de mon domaine Dêtre formel Afin que tout le monde se souvienne Se rappelle, garde des séquelles du négro XL Tas le chant du réel au travers le son mixé dun maxi Pressé comme prendre le premier le taxi Pourquoi à Paris Voudrait-on que mon langage varie ? corruptions, scandales, abus en série Gouvernants pourris Carotte on te nourrit Me pousse à vomir Et tu désires que je fasse un sourire Que je lâche un fou rire Quand à mes yeux se déroule le pire Quand je prends le mic je représente et ne blague pas Ne lâche pas Ne lutilise pas pour être sympa Tout le monde, il est beau, il est gentil Certains le disent mieux que moi Le font mieux que moi Chaque fois pitié quils deviennent des proies Moi je nai pas l'temps de jouer Pas l'temps de jouer Mon crew na pas l'temps de jouer Quand je prends la parole ça nest plus un jeu Pas l'temps de jouer Mon crew na pas l'temps de jouer Quand je prends la parole ça nest plus un jeu Pas l'temps de jouer Mon crew na pas l'temps de jouer Quand je prends la parole ça nest plus un jeu ça nest plus un jeu</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Daddy Lord C</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Daddy Lord C</t>
         </is>
       </c>
     </row>
@@ -730,12 +900,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>J’En Balance Une Pour Mes Gars</t>
+          <t>Protège-toi</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Yeah, 'coute ça XXX Cliqua seulement, Raphaël MC Cliqua seulement Daddy Lord MC, Cliqua seulement Cliqua seulement 'coute ça Tends l'oreille, prête attention Rentre dans mon délire XXX l'atmosphère Qui s'imprègne dans ton sang comme une injection Geste sauvage pour ma nation Kiffe le son sur lequel j'kicke, ma section Pour la bonne caille, Raphaël d'la maison donne du bon rap de rue Où les thèmes englobent mon vécu qui longe bien trop d'avenues J'suis pas perdu loin d'là, j'sais où sont mes phrases J'en balance une pour tous mes gars, trop d'affreux dans la place Ressens les sensations, vibrations, les mots qu'j'donne avec émotion La rage que j'lâche au mic, j'la partage avec ma population Ça sonne cru pour tous mes gars d'cité Mon public de base, big-up aux XXX d'mon quartier Sans limite, mon délire n'a pas d'frontière Ma musique augmente le niveau, monte l'adrénaline J'lâche des ondes phonétiques XXX soit dans la tess, j'fume d'la vraie sens' Focalise mon stress, malgré tout ça je progresse grâce aux miens J'ai l'mic en main, j'le lâcherai pas demain Sois-en certain frangin, j'compte bien brouiller mon quotidien Les principes sont stricts, j'aime ça J'ai grandi dans c'milieu-là Que ça vous plaise ou non, ça me restera Quoi quoi? J'fais mon truc, c'est pour ça qu'suis là Quoi quoi? Avec honneur j'en balance une pour tous mes gars J'en balance une aux vrais gars Nourris de XXX break et d'braquages Braille pour têtes brûlées, tas d'prolos qui tendent à briller Pour l'billet, évite pas l'bagne et l'billard Cliqua seulement, yo Cliqua seulement Pour un bout d'terrain, bagarre, prise de gueule à coups d'barre Moins la vie est longue, plus ici l'on se couche tard La pauvreté une tare qu'on essaie d'fuir sans faire de mitard Cueillir quelques miettes de souffle avant la mort de ton corps s'empare Fumée du cigare, l'argent l'oseille le flooze or en barres L'amour, un moment d'répit pour ton esprit barbare Réussir dare-dare, pareil aux stars auxquelles tu t'compares Le diable des Lombards, le prince des lascars, roi des loubards Ces mots vont bien plus loin qu'ton nom tagué sur les murs d'une gare Pardonne-moi, j'mâche pas mes mots à ton égard Méfiant des mauvais regards Des ragots, des traîtres, d'la langue des mouchards De ceux qui t'la jouent XXX baltringues, froussards Faut s'adapter XXX capter, maintenant jactez Ouais, j'en balance une aux vrais gars Vrais gars Pour mes vrais gars, c'est ça La Cliqua, mes vrais gars Raphaël, mon vrai gars Rocca, un vrai gars vrai gars, vrai gars, quoi quoi? Pour tous mes gars Paris, mes vrais gars Pour tous mes gars Parce que j'suis one love Coute ça, MC Vrais gars Comme ça que j'fais J'en balance une aux vrais gars</t>
+          <t>Rap de lover Vigilant toutefois, crois-moi Vigile en tendresse Écoute ça Faut que tu saches bébé, pour pas faire d'bébé Pour pas apprendre de nouvelle pouvant tlaisser bouche bée Pas regretter quand tu cajoles ce type tel un bébé Tu lui donnes des idées hein, quand tu remues ton tarpé Faut pas t'plaindre si son effort de te garder tard paie D'où tu mconnais pour m'faire croire qu't'es sa première poupée Tout ça parce que ta photo il l'a découpée Comme sur le ring, apprends que le premier des coups paie À voir c'qui t'motive, comme ce motif dans mes couplets Dis, t'es une pro dans la méthode de saccoupler Lamour est un jeu, on s'y fie tous car chaque coup plaît Faut pas lui reprocher demain de tavoir doublée En tout d'vigilance j't'ai poussée à redoubler Ça ta pas empêchée cette nuit de te dédoubler hein Quand je suis avec toi moi aussi, hein Tu me serres dans tes bras ouais, ouais Surtout, pour notre amour, fais ça pour moi Protège-toi bébé, protège-toi Quand je suis avec toi moi aussi Tu me serres dans tes bras ouais, ouais Surtout, pour notre amour, fais ça Protège-toi tonton, protège-toi Ce soir c'qu'on m'propose, j'reconnais qu'c'est tentant C'sera tout autant d'la même alors prends tout ton temps T'as pas l'air bête pourtant, t'as pas la tête à Toto À voir l'rabla comment tu brasses, tu comptes les totaux T'es pas un toutou, la vie chez toi c'est rien ou tout Mais si ça t'tombe dessus, ce sera pire qu'la guerre Tutsis-Hutus Vas-y enfile sans honte ce bonnet à gros pompon T'uses bien une feuille à rouler quand tu fumes le popo 'Scuse-moi, j'veux pas choquer par la rudesse d'mes propos Comment on met c'truc en latex ? Bah, avec les mains tiens Tu ferais mieux d't'appliquer si en vie tu veux qu'ça t'maintient J'cause qu'à preuve de loin d'là moi oh, j'suis pas homo Mais c'que j'dis, dédicace à l'homme dur jusqu'à l'homme mou J'te prends au mot, lave ton esprit comme Paic ou Omo Prévenu au moins, t'avanceras pas les lascars au moins Perdant même en disant au Sida, c'est toi ou moi Quand je suis avec toi moi aussi, hein Tu me serres dans tes bras ouais, ouais Surtout, pour notre amour, fais ça pour moi Protège-toi bébé, protège-toi Quand je suis avec toi moi aussi Tu me serres dans tes bras ouais, ouais Surtout, pour notre amour, fais ça Protège-toi tonton, protège-toi Pour ce j'me donne à fond comme ceux dans l'foot J'ai c'qu'il faut, des mots lourds pas seulement un beat qui fond Ton voisin c'qu'il fout t'occupes, t'occupes, toi fais c'qu'il faut Aux résultats médicaux on verra c'est qui qu'est fou Qui qu'est fou, l'aventurier, la chair tu penses qu'à la fendre Ou celui en cas d'coup dur qui enfile son scaphandre Sing my lady quand t'as pécho la maladie Va pas chialer après en soupirant, bah l'mal est dit Toi demoiselle, après c'qu'il t'a donné de bon, nomme N'appelle pas l'virus par le nom de ton bonhomme Mon rôle au mic quel qu'il soit, éviter l'incident En poussant au raisonnable, au moins l'incitant L'incitant, l'incitant Ouais, ouais Protège-toi bébé Protège-toi tonton Protège-toi aussi gars Quand je suis avec toi moi aussi, hein Tu me serres dans tes bras ouais, ouais Surtout, pour notre amour, fais ça pour moi Protège-toi bébé, protège-toi Quand je suis avec toi moi aussi Tu me serres dans tes bras ouais, ouais Surtout, pour notre amour, fais ça Protège-toi tonton, protège-toi</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Daddy Lord C</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Daddy Lord C</t>
         </is>
       </c>
     </row>
@@ -747,12 +927,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Je Pense À Toi</t>
+          <t>Quand ton passé te rattrape</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Tache de tenir ta langue Sinon la tienne dégage Mate les dégâts Légende de rap Comment Chief ? ça va Daddy Tranquille, à part ça quest ce quon dit ? Tu sais même pas sur not' dos tout ce quils nont pas dit Tout cquil nont pas du dire Tout cquil nont pas pu jacter devant nous T'as vu ou pas sur l'avenue Pourtant jrime à lexcès, comme chacun le sait Jsuis pas à l'essai, jdois remonter le temps comme Jackie Chan le fait Chaque jour que Dieu fait, des bêtes de couplets Back in a day, Dad faut quon nous paye Nos copies ça play, on revoit ta plaie receleur, soit enfin heureux cest lheure Si t'es ahuri, c'est l'air Tu t'amuse tu ris c'est l'art Nous traite pas de vicelards Hisse la barre bien haut Ceux qu'ont pas dflows quils se barrent C'est le duo de choc qui revient jsais que tattendais ce come-back Rocca, Daddy man phat de nouveau réunis ça fera date Doorag, casquette, baggy, jean, slim, clean Clean, tes yeux hallucinent Vla la dream team Gin, rhum, champagne, donne ce que tas dmieux bonhomme Tu payes cache la somme, on va tfaire cracher la donne Tu connais lhistoire quand y a plus rien despoir Jamais on laisse choir, ça se passe le soir Autour dun joint, dune Heineken Aucune caille me ken, lheure où aucun vide nous canne Y a quune meuf qui nous calme ou le bon sens qui nous came Qui nous dame, qui nous damne Pardon à mes dames de taffer rien quavec mes amygdales Trop de mots Grigny et pense à toi jusquà Pygale Jlève pour toi, toi.le reste ça mest égal Tache de tenir ta langue Sinon la tienne dégage Mate les dégâts Légende de rap Sache tenir ta langue Dis-leur Gallegos, dis-leur Sinon la tienne dégage Matte les dégâts 'Voici la Squadra Je dois faire bouger toutes les têtes, poulet vos têtes, hurlés et si tes murs tremblent, assures-les Courez si vous voyez un colombien et un africain faire du business ensemble Ptêtre bien quça parle came et butin Diamant, flow et putains Cool et taffe et scrutin Wack MC tu luttes hein ? Plus dun, jen mets à lamende Jclaque rien quà la demande Clark, montre-leur qui commande Vas-y sos jen vois déjà qui srendent Où est lintrus ? Où est lintro ? Qui est le pro ? qui est le gros ? Qui est laccroc ? qui fait le show ? Du champagne qui a le seau ? De qui est le son ? Jette le mauvais et retiens le bon Prends une leçon De notre coté beaucoup le sont Cest ptêtre indécent des groupes indécents Bois ça sans verser du sang Pas besoin ddessin, encore moins d'être sain Daddy Lord C, Rocca, jette ton blaze hein ! Légende de rap Vital rap contact médicinal Mate les dégâts Jai pas ltemps djouer, jveux du concret envoie la monnaie Jai fini par manier le micro comme une sarbacane Quand mon verbe te canne tel un retour de flamme Soit tu tombes sous le charme chico soit il faut que tu tarmes Chauffer la salle faut lavouer cest facile lété Nous on fait les quatre saisons avec facilité La Squadra dla cliqua au cas où tu connais pas hein On représente le vrai Hip Hop allez déconnez pas On est là, les anciens les nouveaux reurs-ti confirmés Go, femmes classes, taff, perce le noyau dur suit nos traces Cest pour les balafrés, les damnés et les affamés Les têtes enflammées, les cramées, jsuis pas là que pour damer Aya yay, Americano Latino Africano La Squadra mon frère, yeah yeah toujours là1</t>
+          <t>Quand ton passé te rattrape, méfie-toi d'sa force de frappe Tu tombes dans la trappe gavée d'crabes, phase de rap mou L'esprit ramolli, gens trop polis, des meufs bien roulées T'as changé d'rôle au bras ronronne une montre Rolex Maintenant t'as des ronds, ça roule, ton passé drôle tu laisses Loin derrière, manière à XXX reculer, bêtement basculer Manipuler sans scrupule un d'ces jeux masculins Jouer les vilains alors qu'là tu t'la XXX tranquille hein T'as trouvé l'filon, plus besoin d'filer, faire le filou Pas d'bile, on voit qu'ça s'passe, t'engraisses, prends des kilos L'passé on l'oublie vite, XXX ta cellulite Ça s'complique quand s'pointe le type d'une ancienne élite À qui t'as fait payer XXX dépasser les limites À l'époque épique où Pacino pour toi plus qu'un mythe Donc tu l'imitais, danger, fatalité Eh, tu t'souviens d'moi enculé? XXX v'là qu'tu répliques, attends que j't'explique J'mate qu'tu fais sur toi tu t'chies dessus Comme en face des keufs dans un cul-de-sac, un trou sans issue Rangé, casé, comme sur le beat mon phrasé Regrette le passé, l'époque tu jouais les Keyser Soze Fallait oser, et désormais voudrais t'reposer Mais tes anciens clients sans cesse reviennent pour t'ankyloser Quand ton passé te rattrape ou frappe, tape à ta porte L'ambiance qu'il apporte, tu peux l'éviter que lorsque Que lorsque au moins ce service te rapporte Quand ton passé te rattrape ou frappe, tape à ta porte L'ambiance qu'il apporte, tu peux l'éviter que lorsque Que lorsque au moins ce service te rapporte Le genre de Suzy, tout son tralala Et tu tombes dans l'coma, habillé, tu t'crois vaguement au sauna Son arrivée, peux pas t'priver d'cette madonna À qui elle se donne, à toi, lui dire bébé tu sais qu't'es bonne ah Vu l'effet qu'on a à la voir, ça t'promet direct nirvana Tu peux pas vanner quand depuis des années j'te vois entamé Damné à damer des dames fanées Jamais j'plaisante, j'blague, quand il s'agit d'femmes et d'monnaie Qu'est-ce tu veux, j'ai cette manie, faudra m'compter parmi Cette armée d'mecs cramés qui pour c'sujet peuvent pas la fermer Des hommes, des tonnes à la conso, pourtant pas d'coma Au lit un combat, comme à Las Vegas le pire des traumas Le premier quereau-ma XXX femelle n'est pas son format Le temps passe, même les plus belles ne peuvent faire face Aux menaces des rides, aux séquelles, quelle crasse D'ailleurs Anna se lasse, ses nombreux excès et flirts l'agacent Désire du durable, changer d'air devient inévitable Son profil lui permet, avec un homme respectable Bref, Anna une fois pour toutes à ces délires, met un verrou Nouvelle adresse, nouveau numéro, un blindé d'blaireau Un peu moins véreux qu'les autres, p't-être un peu plus sérieux On verra vers où elle ira, l'avenir et l'destin nous l'diront Pour l'moment faut assurer on sait jamais Au cas où les fins d'mois difficile, tant pis si c'est un cas au lit Tu vas rigoler, v'là qu'un des gosses sort bariolé Pourtant l'teint du pater, la peau d'la mère couleur riz au lait Rions bien Anna, v'là ton passé qui t'rit au nez Quand ton passé te rattrape ou frappe, tape à ta porte L'ambiance qu'il apporte, tu peux l'éviter que lorsque Que lorsque au moins ce service te rapporte Quand ton passé te rattrape ou frappe, tape à ta porte L'ambiance qu'il apporte, tu peux l'éviter que lorsque Que lorsque au moins ce service te rapporte Quand ton passé te rattrape, méfie-toi de sa force de frappe Suffit derrière ton dos que quelques gars réclament justice Des histoires sans demi-mesure, t'as pas fait preuve de justesse Discret jusqu'à c'que l'jeu s'tasse, les gens s'taisent Mais qu'on s'dise bien, c'est pas en un clin d'il Qu'une bonne réputation s'tisse Penses-tu sérieusement pouvoir gommer certains événements Sous prétexte simplement qu't'étais juste âgé de vingt ans Donc évidemment, pas contrôler une fois d'plus ton tempérament Tant pis, rarement t'en sors pour pas t'faire XXX chiale à torrents Car le passé aime ces restaurants n'affichant jamais complets C'con d'blé on l'veut tous mais maintenant, te v'là comblé</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Daddy Lord C</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Daddy Lord C</t>
         </is>
       </c>
     </row>
@@ -764,12 +954,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>La Cavale</t>
+          <t>Rien n’est impossible</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Ahí vienen... Así que esconde ese blunt Ahí vienen los guardias Y preparo el cañón Lord'a mercy! Ahí vienen... Así que esconde ese blunt Ahí vienen los guardias Y preparo el cañón Atención, atención policía oficial De, segundo rango Este es Mac Daddy que te viene a cantar A-Lord'a mercy! Eeenie! Mi-nini-nini-nini-nini! Come done! Come done! Come done! Eeenie! Mi-nini-nini-nini-nini! Watch m now'a! Uh-huh! Corre la voz que ellos son bravos, bravos Voy prparado con mi .9mm y disparo Se patalean y se cansan como claro Tablillas amarillas por supuesto su respaldo Viven de a sol Mimi-mimi! Y to'a las placas Mimi-mimi! Y se ven todos los días Viven de a sol Mimi-mimi! Y to'a las placas Mimi-mimi! Y se llaman Policía Lord'a mercy! Escuchenme-me! Yo iba en mi carro oyendo bien mi musica Mis metras atrás Y mi vida más allá Me hicieron parar y mostrar mi licencia Y con una R-15 y me dio una bofetá' Me baje, de mi carro y nos pusimos a enrrolar Me dieron con macana y esa voz de escopeta Alertaron el rechazo y me hicieron un plan Me echaron a Bayamón a la carcel regional Soy hijo 'e puta y me pude escapar Soy un gangster, y tu eres un guardia, whoa En la calle por supuesto mando yo Soy un gangster, y tu eres un guardia, whoa En la calle por supuesto mando yo Hay guerra Guerra con mi gente Guerra si tu vienes Te espera la muerte Hay guerra Guerra con mi gente Guerra si tu vienes Te espera la muerte Come done! Come done! Corre la voz que ellos son bravos, bravos Voy preparado con mi .9mm y disparo Se patalean y se cansan como claro Tablillas amarillas por supuesto su respaldo Es la policía persiguiendome a mi Y me acusan de tener, una bolas de Creepy Sin cojones me tiene, yo me largo de aquí Soy de la calle, Raggamuffin Mac Daddy Aquí, en la casa todo el mundo está despieto Esperando que lleguen los insectos Los maleantes se encuentran molestos Con orden de cateo llegaron los pendejos Lord'a mercy pregunto lo que tengo Yerba mala confiscaron mi complejo Sin cojones como quiera yo les tiendo Soy de la calle, a maleantes represento Se encuentran ah-yeah... Vestidos de azules Oh yeah... Se encuentran ah-yeah... Vestidos de azules Oh yeah... Come done! Corre la voz que ellos Corre la voz que no- Corre la voz que ellos son bravos, bravos Voy preparado con mi .9mm y disparo Se patalean y se cansan como claro Tablillas amarillas por supuesto su respaldo Alza la mano, no queremos guardias Solo, queremos fumar marihuana Oye que trajin, si has llegao A todos los saquemos, me da metralleta Somos propietarios mira de esta casa No queremo' a nadie que nos ponga la regla Corre la voz que ellos son bravos, bravos Voy preparado con mi .9mm y disparo Se patalean y se cansan como claro Tablillas amarillas por supuesto su respaldo Lord'a mercy, come done! Haha! Siempre que canto con rudeza yo te voy a demostrar Que tengo pues el size Para fuerte batallar Oye el estilo que yo implanto fuera de lo normal Q Mac Daddy lo nombra champion Mac Daddy Mac Daddy, Mac Daddy, Mac Daddy Whoa-oh-ohh-ohh Mac Daddy Mac Daddy, Mac Daddy, Mac Daddy Whoa-oh-ohh-ohh Pam-pam! Ohh-Ohh-Ohh-Ohh Pam-pam! Pam! Pam! Pam! Pam! Pam-pam! Soltamos metralleta para gozar Pues del Raggamuffin soy el champion Me gusta la yale sexy sensual Le gusta mi forma de pregonar La llevo a la cama y no es para hablar Rapatapatam-depam-depam-pam Ohh-Ohh-Ohh-Ohh Mac Daddy Mac Daddy, Mac Daddy, Mac Daddy Ohh-Ohh-Ohh-Ohh Y suena gatillo Gatillo, gatillo, gatillo, gatillo Primero empiezas a hablar y a comentar Pues te has alimentado un enemigo mortal Que horror es hablar, descansa en paz Un pasaje de ida te podemos regalar Que suena gatillo Para que te tiemblen los pies So, gatillo Para que no sepas que hacer Gatillo Para que se pierda la calma Gatillo Para que descanse tu alma Oye le digo para mi yale Y con tu body no pienso Pero que me maten no pienso Oyelo antes lo mato yo Digo para mi yale Y con tu body no pienso Pero que me maten no pienso Oyelo antes lo mato yo Alguien critica no lo quiero señor Alguien me ama, no la debo tener Alguien critica no lo quiero señor Alguien no me ama, no la debo querer Oye le digo para mi yale Y con tu body no pienso Pero que me maten no pienso Oyelo antes lo mato yo Digo para mi yale Y con tu body no pienso Pero que me maten no pienso Oyelo antes lo mato yo Alguien critica no lo quiero señor Alguien me ama, no la debo tener Alguien critica no lo quiero señor Alguien no me ama, no la debo querer... E-I-O-O-O Champion, champion El Mac Daddy en acción E-I-O-O-O Champion, champion El Mac Daddy en acción Mac Daddy Mac Daddy, Mac Daddy, Mac Daddy Pam! Pam! Pam! Pam! Pam! Pam!</t>
+          <t>Sur le Mix, DJ Poska Au microphone, Lord Issa, toi-même tu sais C'est dangereux Exclusive Approche-toi DLC Eh, pas l'temps d'jouer, gros Aïe, aïe, aïe Tu mets un N, après un A, après un S, après un M, après un E Tout est possible, je dis que rien n'est impossible Pour avancer, t'accroche pas à du futile J'ai dit que tout est possible, rien n'est impossible Il faut se battre, baisser la tête est inutile Tout est possible, j'ai dit que rien n'est impossible Réagis t t'attache pas à du futile Tout est possibl, rien n'est impossible Il faut se battre, baisser la tête n'est pas utile Rester positif, j'dis que rien n'est impossible C'est c'qui m'motive, triste ou peut t'pousser au suicide Quand tout part en sucette sept sur sept, prise de tête sur prise de bec Sans prise de prix ni check Y a pas d'surprise du chef Pas impossible que j'change les règles Impossible que j'me taise, moi j'me tape avant d'me tèj À chaque étage même dans un état étrange Impossible que j'me rende, pas impossible que j'me range ou que j'me venge Si tu m'mens, je veux croire que c'est impossible que j'flanche Ou que j'tende la main dans le métro pour que j'mange Toujours un dernier plan sous la manche Impossible que j'porte la frange Ma peau, un gros problème pour la France Impossible que tout soit parfait, pour ça qu'souvent tout est à refaire Mes rêves d'enfant, j'y crois plus du tout dur comme fer Rien n'est impossible, j'suis déjà devenu père Tout est possible, au deuxième tour j'ai vu Le Pen Peut-être qu'de mon vivant en Palestine j'verrai la paix Tout est possible, je dis que rien n'est impossible Pour avancer, t'accroche pas à du futile J'ai dit que tout est possible, rien n'est impossible Il faut se battre, baisser la tête est inutile Tout est possible, j'ai dit que rien n'est impossible Réagis et t'attache pas à du futile Je dis que tout est possible, rien n'est impossible Il faut se battre, baisser la tête n'est pas utile Cela dit, je m'entends, tout est possible On vise nous aussi c'que tous tes potes ciblent XXX, je l'avoue, à titre posthume Mais personne prétendra, pas le bon costume, ouais J'apprécie Malcolm, ses caisses en custom C'est toujours du bon dès qu'on accouche donne Que Dieu te pardonne, qu'avant qu'on cartonne Pour qu'à tes oreilles ce soit mon nom qu'on marmonne Va nourrir la marmaille, sourire sous cette maille Bien qu'le patron soit aussi mauvais que ce barman Tout est possible, vu c'qu'on ramène même Un clin d'il à Arthur H, Mandela et Mel-Man Tout est possible OK, mais faut pas pousser Jamais sur l'terrain l'gazon ne va repousser On vient te doucher, XXX retoucher Sans devoir baisser les frocs ou encore coucher Tout est possible, je dis que rien n'est impossible Pour avancer, t'accroche pas à du futile J'ai dit que tout est possible, rien n'est impossible Il faut se battre, baisser la tête est inutile Tout est possible, j'ai dit que rien n'est impossible Réagis et t'attache pas à du futile Je dis que tout est possible, rien n'est impossible Il faut se battre, baisser la tête n'est pas utile Tout est possible donc vas-y, reste posé Mets-toi bien, le son, Voodoo l'a composé Donc on va s'amuser mais sans abuser Ni oublier qu'on nous veut sur l'banc des accusés Rien n'est impossible parce que tout est accessible Y a pas d'magie, faut agir, rien n'arrive si tu restes assis La maille divise, la devise c'est de s'presser Vise, mais faut être précis pour pas finir les poches percées Tout est possible, t'as vu Nasme Daddy font un feat C'qui s'passe ensuite pour qu'les mythos soient en fuite Qu'à cogiter le son, les mots, le fond ainsi À c'que les gosses à l'école soient forts en chiffres Impossible que j'change, que d'la vérité quand j'chante Tout est parti d'ma chambre, pas impossible que ça s'vende Impossible que j'montre pas c'que j'ai dans l'ventre XXX c'est pas du Hugh Grant Que les derniers finiront devant Tout est possible, je dis que rien n'est impossible Pour avancer, t'accroche pas à du futile J'ai dit que tout est possible, rien n'est impossible Il faut se battre, baisser la tête est inutile Tout est possible, j'ai dit que rien n'est impossible Réagis et t'attache pas à du futile Je dis que tout est possible, rien n'est impossible Il faut se battre, baisser la tête n'est pas utile Wesh poto Track List Tu mets un N, après un A, après un S, après un M, après un E D.L.C Aïe, aïe, aïe On a dit, rien n'est impossible, poto Rien n'est impossible, poto Rien n'est impossible Aïe, aïe, aïe Aïe, aïe, aïe Track List Combinaison Exclusive Daddy Lord C, Nasme C'est pas fini</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Daddy Lord C</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Daddy Lord C</t>
         </is>
       </c>
     </row>
@@ -781,12 +981,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>La Lumière</t>
+          <t>Souffrir</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>J'arrive avec le flow, les mots, le reste mon blaze le fournit Un produit français, non ça vient pas de Californie Ça va soulager ta tête tes pieds si t'as des fourmis Et changer ton opinion à c'qu'on t'a dit sur moi Non c'est pas un mytho au mic qui dit des sornettes Qui ressasse à qui veut l'savoir, rien qu'il est fort mec Et jamais dans un contentieux qui s'en sort net Toujours XXX si y a un drame, il cherche à s'en remettre C'est loin derrière, les cours et la cité Obligé d'être plus finaud pour le cash et la GTI XXX si je t'ai eu, me parle pas de CPE Le temps défile autant qu'mes phrases en stéréo pleuvent L'amour d'mes gosses et d'mon équipe, qu'espérer en plus Pour XXX ces larmes ces XXX en teuf Au retour mains sur l'capot c'que dira un keuf Le refaire, pourquoi pas tant qu'j'peux remplir le coffre Faut autant d'appétit qu'c't enculé de Jean-Pierre Coffe J'suis la lumière éteinte lorsque tu prends ton temps La banlieue ou l'monde, c'est prends prends prends La rage du ghetto, c'est bang bang bang Sirènes de police, ainsi font font font Ça y est j'casse des dents, v'là qu'tu m'caces-dédi Tu dis mon nom, moi souvent le gars case Teddy Qu'est-ce t'as dit hier, à présent qu'est-ce t'en dis Même si t'apprécies pas, faut qu't'encaisses, tant pis À propos cache ta go, même si t'as pas XXX Elle kiffera quand même ce type qui roule en caisse tapée Qui pense qu'à s'taper, te prendre qu'est-ce t'avais Tu XXX ravive ça, mon Dieu putain mais qu'est-ce t'as fait Qu'est-ce ça fait, tout c'que t'as fait, qu'est-ce t'as pu Qu'est-ce t'as vu, bouger comme ça mais qu'est-ce t'as bu C'est mon putain d'son qui tourne tonton, c'est c'que j't'avoue J'suis la lumière éteinte lorsque tu prends ton temps La banlieue ou l'monde, c'est prends prends prends La rage du ghetto, c'est bang bang bang Sirènes de police, ainsi font font font Je suis la lumière Qui t'éclaire dans le noir La rage du ghetto Sirènes de police J'suis la lumière, la lumière La banlieue, la banlieue La rage du ghetto, du ghetto Sirènes de police, de police Ta vie est mal barrée, en plus tu peux pas t'barrer Un crédit, une femme des gosses une voiture à réparer Un frère taré, une sur qui s'prend pour Mariah Carey Il reste une chose, mon son gros, au moins ça c'est carré C'est comme un Glock, une carte Premier, faut pas s'en séparer Ou l'retour de Mormeck, surtout s'y préparer Dur de boucler, vous l'savez, toutes les fines bouches T'étonne pas, pour qu'tu t'couches, j'en rajoute une petite couche Parler de quoi, du rap ce qu'il en reste, il m'manquerait de l'encre T'façon j'suis pas du genre à blâmer ou critiquer l'autre Plutôt calculer ce qui peut me manquer, tu notes? Je sais de quoi j'parle, j'ai mis mes mots sur la table Dédicace à ceux dont le bruit est déduit à table Francs et efficaces comme une thérapie XXX J'ai jamais eu besoin, moi, de baratiner J'suis la lumière éteinte lorsque tu prends ton temps La banlieue ou l'monde, c'est prends prends prends La rage du ghetto, c'est bang bang bang Sirènes de police, ainsi font font font</t>
+          <t>Baggy jean berline limousine 4x4 Toyota Histoire de ne pas avoir l'allure que ce coyote a... Vu son état lui ressembler t'es fou ou quoi? Pas me fréquenter c'est ce que ta femme t'as dit? T'a-t-elle dit où elle était un certain mercredi? Pas de gros mots ça peut gâter ma promo avec ça en plus tu peux finir alcoolo Mais ne joue pas avec moi stp au sale colon au salop ici on te brisera le colon... Wé j'apprécie le fric le luxe tu piges Et jme fiche sur moi ce que les gens là disent J'garde le sourire tant que mes gosses me font la bise Et mon équipe mon ter ter tant qu'on tient le jez... T'occupes j'continuerai d'aboyer tant que l'état criminel brûlera nos foyers Vous même vous voyez où que vous soyez dans la rue les loups sont déployés MIEUX VAUT UNE FIN QUI FAIT SOUFFRIR QUE SOUFFRIR EN VAIN UN BUT COURIR QUE COURIR EN VAIN UN VISAGE SOURIRE QUE SOURIRE EN VAIN UN MOT MURIR AVANT DE MOURIR ENFIN... Tu prétends que tu écris dur, mais est ce ton écriture A la hauteur de ce gosse que ses vieux ont décrit pur Parles moi simplement ça me suffit amplement T'auras des compliments du buzz en complément Ce que tu racontes n'a rien à voir en plus ça reste à voir J'suis là car y a à boire et pas se sentir seul le soir Au fait dans ta jeunesse toi t'étais un cassos Pour une histoire de... t'as pété un gars Ce baratin rapporte à faire péter un cable Car quand je t'ai croisé toi t'étais en cabriolet Au fait t'es le dernier que le quartier encadre Et si tu repasses ici on te pliera en quatre En locationvoiture vois ta mère à l'occasion On sait tout ici qui porte le caleçon MIEUX VAUT UNE FIN QUI FAIT SOUFFRIR QUE SOUFFRIR EN VAIN UN BUT COURIR QUE COURIR EN VAIN UN VISAGE SOURIRE QUE SOURIRE EN VAIN UN MOT MURIR AVANT DE MOURIR ENFIN... OK j'aime le bling bling Pas comme cet homme verreux qui s'estime clean Plutôt le jez le fric quand y a tchin tchin Toujours deuspi toujours car qui dort dîne Un mec à l'ancienne que du rentre dedans La lumière éteinte lorsque tu prends ton temps De la banlieue où le mot c'est prends prends prends Car l'appât du gain est tant tentant La rage du ghetto ce bang bang bang Sirène de police ainsi font font font Un appel de phare et déjà tu te ranges Des mecs en baskets et voilà que tu trembles Ce qui fait que tu mouilles tiens c'est étrange Ce que tu n'oses pas dire ces mots qui t'étranglent Provoques pas un talent fâché Tu boiteras comme cette meuf au talon cassé J'espère que tu sais nager, tu t'y es engagé La peur tu le sais n'évite pas le danger rire HAHA HIHI HOHO !!!!! MIEUX VAUT UNE FIN QUI FAIT SOUFFRIR QUE SOUFFRIR EN VAIN UN BUT COURIR QUE COURIR EN VAIN UN VISAGE SOURIRE QUE SOURIRE EN VAIN UN MOT MURIR AVANT DE MOURIR ENFIN... DADDY LOURDEMENT VÔTRE</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Daddy Lord C</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Daddy Lord C</t>
         </is>
       </c>
     </row>
@@ -798,12 +1008,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>L’Âme Sœur</t>
+          <t>Tout le monde sait qui tu es</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Samedi, la soirée, celle d'la semaine dernière J'l'avoue, franchement a foiré Cette fois j'vais y croire et j'mets l'paquet pour fuir l'dawa, l'enfoiré Rencard avec une go, une petite perle plutôt bien taillée Un flow gratte-papier, bien sapé, d'la maille, du style et ça y est J'me pointe en retard déjà j'l'entends en train d'piailler c'est à c'tte heure-ci qu't'arrives? j'en ai marre, ça fait cinq minutes que j't'attends Pour la calmer soirée disco mais d'abord grailler J'veux l'éliminer, mais tête brûlée comme un Pas l'genre de minet, efféminé, blindé d'monnaie Prêt à tout, baltringuer, ramper, lécher, s'faire vanner Plutôt caner qu'de laisser ma poire, fini d'ricaner Personne je permets, si c'n'est celle qui a fait d'moi son nouveau-né Bien élevé, bien rap dur j'ai grandi, gavé, arpenté l'pavé Les mains sales, si tu savais La loi entravée pour qu'dans la rue j'passe, on m'dise avé Lagerfeld, Ralph Lauren Ça frime, ça flambe, s'prend pour Sophia Loren La elle a rien à dire, tu parles, y en a qu'pour mes oreilles T'as une voiture, t'es garé où, c'est quelle marque d'abord? V'là qu'elle veut un chauffeur, j'suis pas chauvin Mais Claudia Schiffer commence à m'chauffer J'suis chaud j'y vais j'démarre j'abrège T'façon tôt ou tard fallait y venir Au peu qui puisse te convenir pour l'avenir et les jours à venir non mais moi tu m'as prise pour qui là? j'arrive la couche au plumard J'sens qu'autant d'chiffres sur un chèque, c'est pas plus mal elle m'coûte la peau des seufs, j'dégoûte la demoiselle En causant d'mes Coste-La, toute la nuit t'bagarre, écoute-la L'âme sur Besoin d'idéal Si tu cherches L'âme sur triche pas Pour jouer à armes égales Si tu cherches L'âme sur Besoin d'une étoile Si tu cherches L'âme sur Aussi pure que du cristal Mercredi, pas ou d'concert, j'suis en congés Pas d'ongles s'ronger, l'pif à éponger Risquer d'plonger faiblir, flancher, mordre le plancher Ici c'est cances-va et quand ça va m'reposer C'est pas la me-da la nouvelle dans l'immédiat qui va m'aider à faits-divers, infos, médias Avec tous les cartonnés qu'elle connaît j'connais c'que désire c'est tricard paumé Désolé, j'sais pas l'pardonner Elle me rend parano quand j'guette ses mains, un doigt par anneau Autant parier sur la être parrainé C'est pas une fille pour toi, elle va te tuer V'là qu'mes parents m'disent Mon paradis part en parodie, question savate, heureusement, j'suis pas radin mais attends, qu'est-ce que tu fais là, c'est qui çui-là? j'm'acquitte, v'là c'que ça m'coûte Ma cote et une putain d'répute de Tonton Makoute L'âme sur Besoin d'idéal Si tu cherches L'âme sur triche pas Pour jouer à armes égales Ouais si tu cherches L'âme sur l'unique, la seule Besoin d'idéal Si tu cherches L'âme sur Aussi pure que du cristal Après l'freaky flow, maintenant j'ai l'fric et l'flow V'là falloir encore qu'j'évite le vrac et Des plans galère, en v'là à la pelle Si tu prends pas la peine de rentrer ton instinct et bien gaillard, tu resteras pèlerin Mais apprends sur Terre, qu'des femmes, pas d'pénurie L'âme sur Besoin d'idéal Si tu cherches L'âme sur triche pas La seule, l'unqiue Si tu cherches L'âme sur Pour jouer à armes égales L'âme sur Besoin d'idéal Si tu cherches L'âme sur Besoin d'une étoile Si tu cherches L'âme sur la seule, l'unique Aussi pure que du cristal ouais, triche pas Si tu cherches L'âme sur L'âme sur</t>
+          <t>C'est comme ça qu'j'fais C'est ça, MC, c'est comme ça qu'j'fais Qui es-tu pour me juger, bourré d'préjugés Dans les jupons d'tes vieux réfugié Parlant fort, poussant ta voix à l'user Sans vouloir abuser, désabusé, faut pas m'refuser D'm'expliquer pourquoi ma haine attisée Comme tous ces délinquants violents, pensant qu'à tiser Parce que j'ai pas sympathisé avec la risée J'veux pas t'baiser XXX s'maîtriser Bordée d'apaiser petit gamin ma mère me le faisait Autour du CD, bref des demoiselles l'ont remplacé Pourvu qu'elles demeurent bien constituées Pour m'enlacer, viens pas m'les casser Avec tes contes, tes histoires d'écolier Rêve d'être prisonniers où des types comme toi prennent des dérouillées Se débrouiller, se battre XXX ma bouche jamais verrouillée Provoquant une femme pour te mener en bateau Un homme costaud qui XXX au premier coup d'couteau L'hiver sans manteau, mon anniversaire sans gâteau Y a pas photo, guette la balafre sur mon pecto' Qui excite les femmes et fait jaser les péquenots Arrête de parler, d'râler, d'gaver l'charley Entouré d'salauds, tout l'monde sait bien qu't'es qu'un charlot Arrête de parler, d'râler, d'gaver l'charley Entouré d'salauds, tout l'monde sait bien qu't'es qu'un charlot Arrête de parler, d'râler, d'gaver l'charley Entouré d'salauds, tout l'monde sait bien qu't'es qu'un charlot Fais bien d'flipper le rap caille que j'taille, te rattrape pas Des connaissances, un niveau scolaire pas trop mauvais Savoir où je vais, une conscience pour tout c'que j'fais Le rap un forfait consolidant mes rêves en vrai Mêlant l'agréable au désagréable tel un bon spray Pas d'à-peu-près, pour l'action réponds toujours prêt Barbès Marcadet, tu sauras qu'y a pas qu'des cadets Ou qu'des soldats dont l'seul combat, fumer l'bouddha Professionnels dans l'deal ou le vol à l'arraché Si on t'l'a caché, là où circule zedou, poudre en sachet Tellement détachés, vivent des gens aux murs attachées J'vais pas t'lâcher, pour qui t'prends-tu, tu t'es crashé J'vends pas d'eau soluble, produit d'résine, juste un papier Ici on est tous frères même si comme nous, y pas d'brindille Joue pas les bandits, tu XXX kiffes le rap bandit Pareil à mon petit devant une glace au sucre candi Répéter c'que j'dis, faut pas qu'ça devienne une maladie S'ils ont du mal à deux, on dansera sur cette mélodie Arrête de parler, d'râler, d'gaver l'charley Entouré d'salauds, tout l'monde sait bien qu't'es qu'un charlot Arrête de parler, d'râler, d'gaver l'charley Entouré d'salauds, tout l'monde sait bien qu't'es qu'un charlot Arrête de parler, d'râler, d'gaver l'charley Entouré d'salauds, tout l'monde sait bien qu't'es qu'un charlot Fais bien d'flipper le rap caille que j'taille, te rattrape pas Entouré d'salauds, tout l'monde sait bien qu't'es qu'un charlot Combien m'critiquaient, le premier à passer à table À m'traiter d'incapable, peu d'ex, un gros cartable Montaient sur mon diable une fois devant des mecs valables Mon charme devant des femmes, indomptable, puisque indésirable S'imaginant que tout est négociable et monnayable Tant mieux si caillassé t'a vu grandir, rester paresseux Quant à t'moquer d'ceux Dont le destin plus fâcheux, l'avenir capricieux Me pousse pas trop à faire feu, réussir je l'veux Toujours crédible aux yeux de Dieu Ça t'en bouche un coin, un gars d'ma trempe, un type de XXX Les bonnes manières se perdent Tout comme les bons MC pleins d'verbe Arrête de parler, d'râler, d'gaver l'charley Entouré d'salauds, tout l'monde sait bien qu't'es qu'un charlot Arrête de parler, d'râler, d'gaver l'charley Entouré d'salauds, tout l'monde sait bien qu't'es qu'un charlot Arrête de parler, d'râler, d'gaver l'charley Entouré d'salauds, tout l'monde sait bien qu't'es qu'un charlot Bien d'flipper le rap caille que j'taille, te rattrape pas Entouré d'salauds, tout l'monde sait bien qu't'es qu'un charlot Fais bien d'flipper le rap caille que j'taille, te rattrape pas Bien d'flipper le rap caille que j'taille, te rattrape pas</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Daddy Lord C</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Daddy Lord C</t>
         </is>
       </c>
     </row>
@@ -815,539 +1035,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>La vie dure</t>
+          <t>Un point d’honneur</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Laisse le bizness aux gars qui rappent mieux que toi Je représente mon crew La Cliqua Je représente ce que la jeunesse d'aujourd'hui veut entendre Un produit qu'on ne peut corrompre et que rien ne peut fendre La Cliqua des incorruptibles, de vrais pros, rien que la vérité Rien que la vérité Rocca Yeah ! Laisse le bizness aux gars qui rappent mieux que toi Raphaël J'ai la voix, le talent, les mots qu'il te faut pour parler de tout ça Rocca Raphael La vie dure, ses combats, les phrases chocs, je suis trop crédible et tu le vois Yeah ! Rocca, Raphaël, Dad au micro débarquent flow Rien que la vérité Rocca Je parle de ce qui m'entoure Le ciel gris, les tours, les joies, les peines, l'amour, le stress de tous les jours Pour les jeunes, c'est l'instant présent qui compte, l'avenir est flou Raphaël J'ai traversé les tunnels les plus sombres, j'irai jusqu'au bout, quoi ? Daddy Lord C D'une manière ou d'une autre, n'essaies pas de me la faire à l'envers J'ai d'autres méthodes pour te calmer que de te faire mal en vers Vivre pénard et être au vert, obligé d'avoir l'esprit ouvert Pour réussir y a des limites, j'suis quand même pas prêt à tout faire Quitte à faire le sale boulot, je préfère de loin celui a qu'il d'affaires Affamé, reste d-spee comme un Ducati moteur compressé Je reste net, je donne pas mon boule, j'y mets un point d'honneur, compris, c'est Ma cause, mon optique, ma raison, ma manière de voir qui me pousse Autrui à rien devoir, rançon à remplir mon devoir Textes d'acier, mental d'enfer, au cas khouya faut pas t'en faire J'investis jamais ma clique dans des bizness nulle part ailleurs Ce coté incorruptible, tu le retrouves nulle part ailleurs Je représente ce que la jeunesse d'aujourd'hui veut entendre Un produit qu'on ne peut corrompre et que rien ne peut fendre La Cliqua des incorruptibles, de vrais pros, rien que la vérité Rien que la vérité Si je rappe c'est parce que j'aime ça Kicker au mic, tu crois que j'avais le choix ? Yeah j'suis né pour ça Crois pas que je sais rien faire d'autre de mes 10 doigts Mais c'est la vie qui l'a voulue ainsi, c'était écrit Je suis un MC fort, un battant qui vivra pour ce qu'il dit C'est ma liberté, ma façon d'exorciser Mes mots de représenter comme il faut ceux qui vont te parler T'as peur de quoi ? Dis Que je fasse une émeute dans toutes les cités, c'est ça qui dérange les képis LÉtat je suis leur pire ennemi, je représente mon pays Pourquoi ? Parce que celui-ci ne veut pas de moi Les contrôles abusifs des flics me font bien comprendre mes droits Extradition, expulsion, on avait déjà le chômage, l'exclusion Tu veux pas savoir ce qui vient de rager mes raisons Mais je vendrais pas mon âme, ni fausserait mon message pour être plus accessible mira Je suis un incorruptible Je représente ce que la jeunesse d'aujourd'hui veut entendre Un produit qu'on ne peut corrompre et que rien ne peut fendre La Cliqua des incorruptibles, de vrais pros, rien que la vérité Rien que la vérité Je représente la jeunesse, les jours gris, la peur d'un lendemain sans boulot Yo Maman ! T'inquiète pas, j'ai ce qu'il faut, je mérite ce qu'il y a de plus beau Le mic, ma liberté d'expression, ma fonction Parler de vérité, sous forme d'amour, de haine, toutes sortes d'émotions Pose pas de questions, m'impose aucune condition J'ai mes convictions, le pognon ne dévie jamais ma direction Plein Sud, garçon d'une vraie aptitude dur absolue C'est juste le prélude d'une nouvelle ère, du rap pur Le mic ma légitime défense, un crime, pour certain l'hymne Pour les jeunes mes rimes assassinent, je ne serai jamais une victime Fier de moi, sûr de moi, concret dans tous mes projets J'ai intérêt d'y croire l'état vas t'mont tant sans pitié En aucun cas je ne serai une putain de cible En tant que vrai gars, Raphaël est incorruptible Scratchs Le hip hop, toi moi, ma cause, je représent</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Daddy Lord C</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>La vie, un combat</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>D-O-N-T-C-H-A Tu me connais Aight 9.8, je représente, gars Trop pressé parfois, je veux des billets, brasser des liasses Préférant gars La fortune sourit Sourit aux audacieux gars Tétonne pas, dans mon quartier les jeunes paraissent plus vieux, car Les temps deviennent dur Difficile pour nous aujourdhui, frangin De parsemer sa semence, chaque jour veiller au bon grain Que la récolte soit bonne chaque année Cest ça que je prie, Seigneur Mais en vain, rien pour rien, par mon front viendra la sueur Cette sueur a coulé de mon front, mon col en est tacheté Si je lutte chaque semaine comme un guedin Cest pour le pouvoir dacheter Fou, guedin du MC qui rappe que pour des gains Les meufs sifflent à chaque fois si pour ton compte elles ont le béguin Je rêve de cueillir des billets sur les putains de branches dun chêne Ça cest comme dans Alice Ici, cest le pays où chacun se démène Nous, on se lève tôt Payer le ticket, être dans le bon wagon Pas de grasse matinée, nourrir les cafards et acheter Baygon Certains lâchent, des guns, cachent Des faux flingues juste pour du cash Mais faut que tu saches que par le pistolet tu finis à coup de hache Tu veux jouer au truand dur pour que la détente te rapporte Mais même dans les films de tueurs gangsters Cest le bon qui le remporte Comme tu veux que le mal règne, si le mal gagne, Satan gagne Pour des enfants noirs, ici, de femmes qui ont porté des pagnes Bref, jai laptitude de vaincre sans devoir sortir les armes Sans dealer de la coke, came, sans devoir faire couler de larmes Alors, re-frè, dis-moi, tu sais comment senfonce une punaise ? Facilement, avec un bruit, comme cela est écrit dans la Genèse Jespère que tu ne pries plus pour quon exauce tes prières Car jai limpression que tu voudrais que sétende le règne de Lucifer Trop pressé parfois, je veux des billets, brasser des liasses Préférant gars La fortune sourit Sourit aux audacieux gars Tétonne pas, dans mon quartier les jeunes paraissent plus vieux, car Trop pressé parfois, je veux des billets, brasser des liasses Préférant gars La fortune sourit Sourit aux audacieux gars Tétonne pas, dans mon quartier les jeunes paraissent plus vieux Arrive le Daddy, plein de rimes, de face, de phases comme promis Apportant ce qui manque au Hip Hop, vaut mieux, parce quil vomit Face au cro-mi, linsoumis y trouve un de ces compromis Au fin fond dun son cramé, lui enlevant son air de paumé À consommer avec modération car pour habitués Pour ceux qui font de largent légalement, illégalement Qui pourrissent en prison, peuvent même pas Plus ont ce quon a pas, le perdront, pardon, car on le reprendra Ainsi va la vie, les aléas faut faire avec Ce quil y a, sil y a, sans se soucier de ce que lon dira Pauvre, un cur de pierre, mal éduqué, la tête dun caillou Lesprit racailleux de simples voyous, pour qui nous prends-tu ? voyons ! Ton histoire à pleurer, rajoutes-y une note de violon Mais avant sache que vieux lon traite sans se brader et se dévaluer Du gamin au vieillard, pas de repos pour la matière grise Aspire pour que le départ se fasse en douceur sans surprise tassumes ta tune, s'en sorte pas prise On me reproche souvent davoir voulu grandir trop vite Les jeunes maintenant à treize ans veulent en paraître dix-huit La galère, sen sortir et essayer de sortir du chaos Montrer que ta tête nest pas remplie de carottes et de cacao La brute épaisse, tu représentes, donne pas que dans le pied au pao En un mot, malgré tes défauts, en service un cerveau Yo, Daddy lord C, Dontcha, aight MC Trop pressé parfois, je veux des billets, brasser des liasses ouais Préférant gars La fortune sourit Sourit aux audacieux gars Tétonne pas, dans mon quartier les jeunes paraissent plus vieux, car Trop pressé parfois, je veux des billets, brasser des liasses Préférant gars MC La fortune sourit Sourit aux audacieux gars Tétonne pas, dans mon quartier les jeunes paraissent plus vieux Yo Vieux 9.9 8 MC Écoute ça Le 9.3, je représente, gars Écoute ça Le 9.2, je dédicace, aight MC, MC Teddy Derrière les barreaux Cliqua, seulement Aight Seulement Da LAs Les miens, je représente Da LAs Les miens, je représente, gars Da LAs Les miens, je représente Da LAs 9.3, je représente, gars Écoute ça 7.7 Le 9.2, je dédicace, aight 7.7 9.4 9.1 Yo D-O-N-T-C-H-A Écoute ça Daddy Lord C, MC Daddy Lord C remet de lordre ici, aight Écoute ça</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Daddy Lord C</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Le Contrat</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Yeah yeah, écoute ça Squadra Le pacte Ça, c'est XXX l'album XXX Eh eh Yeah Les poings fermés dans les poches, observant les ombres qui s'approchent Les amis qui clochent, c'est fou comme le succès change tes proches Y a rien à faire, le mieux c'est d'fuir toute cette médiocrité Changer d'atmosphère, liquider les traîtres démasqués Moi et mon partenaire, on a fait un pacte qui nous unit pour la vie S'il n'y a plus d'amitié entre nous, on arrête c'est promis On a tellement subi de trahisons ces dernières années Qu'aujourd'hui, c'est décidé, c'est Cliqua Squadra pour durer Onda, ganga, mafia S'il faut faire des lois pour s'entendre entre nous, bien, on les fera C'est comme une famille qui s'endurcit Comme un bloc de béton pour une guerre D'l'acier inoxydable, j'y crois dur comme fer J'y vois plus clair Des paranos subsistent encore malgré tout dans l'crew Il n'y a plus d'temps à perdre, le hip-hop n'attend plus que nous Sexe, mensonges au micro, complot Stress, contrats, fiasco Gonzesses et business XXX y a plus d'politesse, plus d'amis ni noblesse Que des soi-disant potes qui s'engraissent Qui cherchent nos faiblesses, nous pressent Pour grossir leur compte en caisse La méfiance est un atout majeur dans la profession Choisis bien tes pions fiston, n'ais confiance qu'en ton intuition C'est comme un échiquier, un face-à-face bestial Où chaque faux mouvement crée les cases vides Sois clair, précis et rapide Tellement d'intrus qui veulent nous séparer, nous disperser, nous aveugler Même brûler les liens sacrés d'une amitié Faire couler, nous effacer, nous liquider Nous retarder yeah Je sais qu'parfois ça peut vexer mais j'dis qu'la vérité Les ombres du mal nous envahissent à chaque faux pas J'ai toujours cru en l'union Mais la gloire, le pognon créent trop de tensions De fausses fréquentations, les compliments Les nouveaux amis sont pires que des sables mouvants Dès qu'on s'enlise, peu en survivant Je nage parmi les requins, j'essaie de suivre mon chemin J'ai mon destin dans les mains Personne m'arrêtera, c'est certain Tch-Tch-Bla, écoute ça gars Mate les dégâts Les savateurs XXX Pour la Cliqua, voici la Squadra El Néro y el Hispano XXX C'est comme un pacte Un lien, une sorte de contrat, liés par le sang Un serment Toute la survie du clan en dépend Je vois dans les yeux, tu vois dans les miens à présent Fidèle aux miens quand bien même ton crew te prête main-forte C'est comme un pacte Un lien, une sorte de contrat, liés par le sang Un serment Toute la survie du clan en dépend Je vois dans les yeux, tu vois dans les miens à présent J'lâcherai pas l'affaire, j'irai jusqu'au bout maintenant J'arrive pour tout péter Tu cherches la paix, t'es mal barré, j'vais pas m'répéter Mais l'image qui m'a refleté C'n'est pas l'pied que j'prends, plaisir que j'trouve quand il faut s'latter La sale ambiance tendue autour de moi que j'laisse flotter Par mon flow t'es subjugué, à devoir me flatter Mais parce que j'mets l'feu, quand l'mal est fait, à ma mille-fa Sois preuve d'amour et d'patience j'le veux bien, calme et patient Vas-y, on touche à un d'mes proches XXX ces théories T'es en rouge, fini, oublie l'principe d'théologie Le temps qu'j'monte au logis afin d'trouver d'quoi t'soulager C'coup-là, j'ai l'expérience, ce serait à refaire, je l'referais Chirdé pour mon crew, mes gars ma clique, rien qu'des refrés Sois pas con, complice XXX pour combine, CD compact Banal délire de copains Plus qu'un XXX pour l'pactole entre nous, pas pour l'échec Meufs choc et soirées chics Ça va plus loin qu'ça gamin Histoire d'bédos, d'sacs à mains Ça commence, des points communs, grandir sans commodités Dans une cité comme on dit Comme on s'dit combattants entre nous J'compte pas ces cons battant en retraite, l'esprit combatif Pas d'ceux qui t'laissent en plan, qui ont plein ou qui compatissent Avoir le même sang dans nos veines nous vaut vannes et venin Va-nu-pieds vénèr s'rabattent sur nous pour nous voir khabatt J'taffe pour un seul crew, une seule famille Dans la main un seul micro, dans ma tête un seul principe Un seul XXX l'argent une seule couleur Donc pour ma vie un seul contrat C'est comme un pacte Un lien, une sorte de contrat, liés par le sang Un serment Toute la survie du clan en dépend Je vois dans les yeux, tu vois dans les miens à présent Fidèle aux miens quand bien même le diable dans la tour m'emporte C'est comme un pacte Un lien, une sorte de contrat, liés par le sang Un serment Toute la survie du clan en dépend Je vois dans les yeux, tu vois dans les miens à présent J'lâcherai pas l'affaire, j'irai jusqu'au bout maintenant</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Daddy Lord C</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Le flow qu’il te faut</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Mafia Trece La pression s'accentue, exprès Aussi vrai que mon accent tue en express Pour les reufrès, sur les ondes je m'empresse de foutre le ramdam Cest Awax, sens-tu ma présence ? Ya bon banania Je mabonne à France Telecom Tu veux Moovens ? Bip mon Tam-Tam Certains pensent pour joindre le Gabon, Dom-Tom Au bled, au jeu de tam-tam Je plaide pour les gars bons Les mauvais, tire au Gomm Cogne pah pah ! Si tu sais que cest le mauvais chemin, écoute, je te dis que tu déconnes Aujourdhui, tas eu des échos On sachemine vers les sommets comme et Gilbert Bécaud SergeM, cest cheum Faut que je perce, cest sûr, même par la cheminée G-Wild, Effa pour miner la place, La Dream Team Vas, A-Speak, Awax, Yannick, Kim On panique les flics et Bernard Minet Si tu frimes, trace ! Tu dis que tes déterminé Si on se croise, flippe, cest la rencontre du 13ème type Chaque étape, je mouille le maillot Réfléchis, cogite, tourne la mayo Aiguise le crayon pour que le pognon tombe Façon varié cest sur ma poire quon pari et Soit pas contrarié je lâche un cahier et ça y est, ça se met à brailler Rap ou boxe, me décourager tu peux toujours essayer Je bosse pour briller, bien grillé, le biz commence à me payer Un fils denculé, une vrai tête brûlée Que rien ne fait reculer Mais vu les Dégâts scrupuleux pour qui joue le Juge doit être moins crapuleux, respect, oblige Toute façon, javoue, le boulot que je viens représenter pour un gars plein de culot Tu fais bien de flipper, le rap de caille que je taille te rattrape pas Si tes trop sensible, une vrai chochotte, alors, gars, sauve-toi Je cautionne pas dhistoires de fils à papa, ça me passionne pas Je trouve pas ça exaltant dailleurs, jai pas le temps Quand on me bigo cest pour faire largent, énervant, pas vrai, msieur lagent ? Emergeant sans avenir ou seul dispersant Anti-costard A fond dedans, à cent pour cent Je suis pour les gars en vêt-sur Sportif Qui se tapent, se battent pour sen sortir veulent pas juste amortir Dans de sales plans foireux, fumer ou ya que mort que ten tire Le mal, mon empire je veux pas que ça empire Comment ralentir ? Suis mon voisin de palier les flics du coin peuvent pas me sentir Ecoute ça, gars Cest comme ça, je fais Daddy Lord C, Mafia Trece Représente, gars Pour la Cliqua représente, yo Ecoute, ça One love 97, 98 Hey ya Les sabres que je manie gâchent la vie des MC renois Ouga ouga Peuvent créer la zizanie entre des reufrès siamois À base Féroces rimes, traque, braque Agressif comme Xena Si les MC me tachent, touchent, tu vois des taches dexéma Le M.I. je manie, quand je brûle, je fais peur au Non, jai trop de sales manies, gratte mon pif et le cul des Barbies Quand jexplose des doses de prose, ya débris dMC partout Des cicatrices de cramés indélébiles comme des tatoo Trece est la Mafia Nicosie Traque-moi dans les rues du 9.3, jai la tête rasée Info lancée insolence et mots sensés Flow insensé pure pensée Mécanique compensée DAfrique à Vitry Trans Les Moovens dépensent pas le fric dans la sense Laissent la chance, pensent et investissent pour avancer dans le biz Les real Gz financés mescortent car Vas représente pour ces potes Apporte son éminence grise fils, en une prise cest balancé Mais cest pas le Pérou Tas beau doser, oser plus de damaja que Jeru Faire le mérou tant que tu déroules pas des rimes cool Passe-moi le microphone, jai les munitions Je suis arrivé en renfort, poursuivant lexpédition Punitive contre le lindustrie musicale Requiem pour tous les pèquenauds quand je me pose sur linstrumental Assassin verbal MC qui en a dans le çon-cale Je suis réputé pour lassassinat verbal de toutes les pédales Tous ceux qui baissent leurs slops Cailles, MC, va mettre à mort Afin de nettoyer le Hip Hop Ils ont le blues Car elles courent après moi, ils me jalousent Ils ont le blues Car mon crew à les femmes, le flow, le flouze Ils ont le blues Car par mon flow ils sont dépassés Repense aux années passées Epoque dépassée Où le rap nétait pas à ce niveau non, non Avant que mon posse, la Mafia Trece Débarque pour mettre la barre plus haut Y-A-2N-I-C-K lui-même Je viens, je me zente-pré Je te zente-pré mes excuses A-Aïe, A-Aïe, A-Aïe Mate les battes swing du fonce-dé, fêlé Telle une drag-queen Mais guette le feeling Dêtre trop puissant comme Pat Ewing K-E-S-I-A-H prêt pour le fighting, cest lui le king Qui sélève au rang des héros Sous qui sabaissent tous les rivaux Appelle oim Geronimo, bravo, nigaud Tas le cul dans le faux Dixième dan de vocal taekwondo Maso, Desperado Coule ton radeau Psycho, tel Mario Battant Wario Sur Nintendo Pas de cadeaux Sur le microphone les phases fusent Senvolent comme Astro le petit robot et te casse-fra Té-ma le pro -fessionnel en extra Tel un pro -totype au calibre, a -ffuté comme un sabre au -bout duquel ta femme kiffera Tout comme un vibro Tu flipperas Cen est trop, car tel un cobra javais les crocs This for my Gz and this is for my hustlaz This is for my hustlaz now back to my Gz</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Daddy Lord C</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Légendaire</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Janvier 1101 Bots DJ Cream Nique la musique de France - 1301 Fonky Family - Si Dieu Veut... - 2301 Svinkels - Juste Fais Là ! EP 3001 Aktivist - Stereotape Février - 0302 Busta Flex - Busta Flex 1302 Artistes multiples - Hostile Hip Hop Vol.2 1606 Basic Vestat Endo - De jungle à jungle - 1802 KDD - Résurrection - 1902 Double Pact - Pour Ma Planète Bleue 2702 Psykopat - L'invasion Mars 3003 Ipm - La galerie des glaces Avril 0104 Hocus Pocus - Seconde Formule 2004 Daddy Lord C - Le noble art - 2004 Suprême NTM - Suprême NTM - 2804 Expression Direkt - Le Bout du monde - 2804 Oxmo Puccino - Opéra Puccino Mai - 0805 Shurik'N - Où je vis 1305 Dabatcha'zz - Thérapie musicale Juin 0106 Ärsenik - Quelques gouttes suffisent... 0306 Ad'Hoc-1 - À Bord Du N-333 - 0506 Kheops - Sad Hill réédition 1CD 1506 Dee Nasty - Le diamant est éternel 1506 Saïan Supa Crew - Saïan Supa Land EP 1906 Basic Vestat Endo - 98 jusquà linfini 1906 Mellowman - Au jour le jour 2206 Le Péril Noir - Le destin 2306 I.m.s. - La bible du soldat Juillet - 0107 Kabal - États d'Âmes - 2107 MC Solaar - MC Solaar Août 0108 Artistes multiples Lord Killer présente Feat - 1508 Driver - Le Grand Schelem Septembre - 0209 Manau - Panique celtique 0709 Artistes multiples - Rapologie 1509 Secteur Ä - Live à l'Olympia 2409 Kontrast - Kontrast Octobre 0710 Lamifa - Lamifa 1310 Les Fabulous Trobadors - On the linha imaginot - 2310 Fabe - Détournement de Son - 2610 Ideal J - Le Combat Continue 2610 Stomy Bugsy - Quelques balles de plus pour le calibre qu'il te faut - XX10 ATK - Heptagone Novembre 0311 Donya - 100 regrets 0411 Artistes multiples - Hip-Hop Vibes - Nouveau Châpitre 0311 New African Poets - La fin du monde 1811 Le Scénario - Méninges en vrac XX11 N.A.P. - La Fin du Monde Décembre 0312 Doc Gyneco - Liaisons Dangereuses Compilation 1712 2 Squatt - Ce que je vois, ce que je vis 2112 Malédiction du Nord - Le rap du nord débarque Maxi XX12 Kilomaître - Meilleurs Vux Maxi Dates non connues - 113 - Ni barreaux, ni barrières, ni frontières EP Agression Verbale Ce n'est que l'début... Artistes multiples B.O Taxi Artistes multiples Compilation Sachons dire Non Artistes multiples - Des groupes français se mouillent... ...Et rappent l'alcool Artistes multiples - Néochrome Mixtape Vol.1 Assassin Wake Up! - Cercle Rouge - 16'30 contre la censure Maxi Cmp Familia L'Honneur Perdu L'Heure Du Crime En Première Ligne DJ Kost - n10 - Ten Tape Commandments - IAM - Lécole du micro d'argent Maxi Imothep - Chroniques de Mars Mafia K'1 Fry - Légendaire EP - MC Solaar Le Tour de La Question Live M Group - Rapide Comme Un Serpent 2ème Morsure Pyroman Neda Le Jour Pi Rainmen Armageddon - Rocé - Pour l'horizon De ta haine à ma haine Rocé - Ricochets Encore et encore - La Rumeur - Deuxième volet Le franc-tireur - Les Sages Poètes de La Rue Jusqu'à l'Amour - Les Sages Poètes de la Rue - Pour qui ? Pourquoi ? Maxi Sté Strausz' Ma génération Stomy Bugsy Gangster d'amour Tour Triptik L'Ébauche Date à confirmer Artistes multiples - Sachons dire non La Dernière Tribu - Révolution Imhotep - Blue Print Pheno Mama Intellect No Mix Tape Vol. 2 Prodige Namor - Que fait la police ? Maxi6</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Daddy Lord C</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Le Professionnel</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Professionnel, j'fais sonner l'fond, l'façonne sors du piano Appris l'solfège ou l'école, reçu deux leçons À devoir fouler l'sol dans la salle sur chaque clé d'sol Kiffer t'es pas l'seul, normal lascar et si ça t'console Gallegos, la Section souscrivent Mon blaze s'inscrit Dans les affaires ça gère, des ronds on soulève Pour l'bifton, compe-moi fiston de ceux qui s'lèvent tôt Même si ici c'est plus KFC, MacDo qu'restos Au top, reste haut, trop d'keufs arpentent tess et bistrots Espère qu'l bif trouve trouve son bifteck dans mon biz go J'pès mais ils s'trompent, à l'ancienne rétro Ouais j'en baise trop Beaucoup me considèrent comme un reur-ti, un simple ler-dea Voici ma réponse eh toi accroche-toi v'là c'que j'leur dis On échange nos places, aussi si le cur t'en dit Du dimanche au lundi, tu constates qu'on même jeu d'bandits On marque une pause à une seule condition la journée remplie On reste professionnels J'bosse pour briller, bien grillé, l'biz commence à m'payer Professionnel Bon nombre m'voient clamser en rêve, ils savent que l'attaque j'aime ça Même si la boxe mon âme sur, j'avoue j'mordrai pas l'hameçon j'retiens la leçon, à part l'caleçon J'suis des affaires dans l'bizness, dans l'commerce, qui en a l'sens Drogues rime avec rappeur, j'vois pas l'rapport T'façon on t'frappe Cette espèce sur terre s'en va, s'évapore Ma couleur t'fait peur, j'constate qu'pour ça t'as des vapeurs Tu vas pour prendre ton pied si j'vends pas, en tous cas vend pas La merde me tente pas eh bien j'm'en vante pas Quand on aime on compte pas Heureusement copain, sinon contraint d'mettre un contrat contre un proche Avec moi, qui s'la contera Mollo, t'affole pas, juste mon micro, pas un couteau Utile pour rappeler certains qu'ils peuvent toujours s'lever tôt Le sale boulot, t'espères plus qu'ils le fassent à ta place Trace, mais avant sache que si j'occupe ton espace Si j'décrasse alors c'est avec moi hélas que ça s'passe Pas mon habitude dans l'rap, du rab du supplémentaire Allonge quelques billets et je verrai bien ce que je vais faire Pas mélanger vitesse et précipitation J'suis un professionnel J'bosse pour briller, bien grillé l'biz commence à m'payer Professionnel Y a au mic, pas d'panique, c'est pas l'Titanic Le lyric lourd, franc-parler, surtout pas d'gimmick Ma populace n'en peut plus, lasse usée comme un joint d'culasse Boulot terne, dégueulasse, SDF, cités, jamais d'palace Pas l'temps qu'j'paraisse, ma gueule pas pour rouler pelles et galoches kalash, aujourd'hui faut qu'tu payes et que tes gars lâchent Insulte-moi, dis c'que tu veux, surtout me traite pas d'lâche Pour percer pas d'lèche, au cou deux grains d'café, surtout pas d'laisse Malgré haine et censure, sans un seul c'est pour moi ça Sans sas et sensass', les fans des sangsues, leur esprit sens-dessus-dessous Sur ce, une chose garçon Viens pas sans sous parce que professionnel J'bosse pour briller, bien grillé l'biz commence à m'payer Professionnel</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Daddy Lord C</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Le Pur Son</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Tu veux t'éclater, tu veux te faire épater D'être du métier, travaillant avec du doigté, toi t'es Laisse donc la place à ceux qui savent venir savater Tu veux t'éclater, tu veux te faire épater D'être du métier, travaillant avec du doigté, toi t'es Laisse donc la place à ceux qui savent Si la plupart des gens en ta faveur sont plus sensibles Gardien de tes rimes, c'est ta valeur au mic qui décide Un flow flexible crée un air inaccessif XXX tu rappes façon XXX soul clap Du rap contact fredonné par un beau Black Chassant le wack par un don du ciel, un mic, une prise jack Pour te montrer que même en solo, à l'aise en Ralph Lau' Possède le funk flow, une vraie tempête, un vrai fléau Pour éduquer ton cerveau, sans cesse de renouveau Hausser le niveau sans trop traumatiser le tempo D'ôter le flou, qu'tu fasses des sous, pas qu'des clous Apporte de quoi s'mettre sous la dent à tous les jaloux Diffusant l'info comme la cause, Barbès XXX La politique des rues XXX déplacé Si t'es mou, te rends un peu plus fâché Pas seulement frime, gratuité, mots obscènes Mes rimes se succèdent, dans l'intellect s'injecte un remède Tu veux t'éclater, tu veux te faire épater D'être du métier, travaillant avec du doigté, toi t'es XXX prends ton pied devant la voie lactée Laisse donc la place à ceux qui savent venir savater Tu veux t'éclater, tu veux te faire épater D'être du métier, travaillant avec du doigté, toi t'es Déjanté, prends ton pied, vois la voie lactée Laisse donc la place à ceux qui savent En Nike, Lacoste XXX Fila, savamment vêtu Mais plus têtu que McEnroe sur court de terre battue Très jeune, j'ai combattu, rendu me suis défendu Pour un statut que je réclame, considérant qu'il m'est dû Qu'on me respecte, qu'on me dise plus souvent tu tues Ne porte pas un inconnu plaqué sur une avenue Jamais soutenu puisque ma go jugeait ta cause perdue Induit en erreur par mon allure, à la bonne heure Pour mon malheur, plutôt le tien corrige ses erreurs Sans faire de faveurs Dans ton esprit s'impose la terreur Tes amis en causent si XXX t'y parviens S'donner les moyens, y arriver sans eau dans son vin Ça étonnerait le monde entier si j'tombe au fond d'un ravin Sans l'vouloir, c'est mon son qu'tu fais jump up Normal tu bloques sur c'qu'évoque l'authentique hip-hop De mon époque, on préfère la soul, copain Vu qu'ta pop censure, boycott pépin Écoute bien l'bruit qu'ça fait quand je crache mon venin Après dis-moi gamin si ton cerveau s'en sort bénin Tu veux t'éclater, tu veux te faire épater D'être du métier, travaillant avec du doigté, toi t'es XXX prends ton pied devant la voie lactée Laisse donc la place à ceux qui savent venir savater Tu veux t'éclater, tu veux te faire épater D'être du métier, travaillant avec du doigté, toi t'es Déjanté, prends ton pied, vois la voie lactée Laisse donc la place à ceux qui savent</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Daddy Lord C</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Le retour du Dad’</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Ça y est c'est reparti, l'artiste hardi de l'art dit ardu Fardeau pour lardus, fais de la résistance bref reprends du Galon j'vais au charbon, Y aura pas de cadeau ni de pardon Le dernier salaud qu'on n'a pas encore foutu au ballon Normal j'ai le bras long, les alibis mes soss et moi les salons Pour mattraper ce sera pas Château-Vallon, la vie de salon Dehors ils prétendent tous qu'on m'entende bien que j'ai le même vice qu'eux Le même flot, la même langue visqueuse, la seule excuse J'me drogue pas j'deale pas bien que depuis longtemps cramé Et pas du genre à consommer seulement qu'du lait écrémé Bêtement rimer arrimer à style phases périmées J'ai longtemps trimé dans le crime, La Défense, Grigny, le 13, Crimée Pas pour aujourd'hui mon son débarque, j'te vois l'supprimer C'est l'retour du Dad Du rap Soweto sur fond de son de Bagdad un expert comptable C'est l'retour du Dad Du rap Soweto sur fond de son de Bagdad MC reste tranquille ou te faire du mal je vais pas me gêner Hey Daddy ! me gêne pas j'suis en train de shooter Montrer aux MCs fragiles que c'est plus l'heure de goûter J'ai pas l'temps de jouer, je l'ai fait en disque tu peux l'écouter Du rap fruité, futé pour ce que cela va te coûter Pour moi c'qu'est vital le choc brutal du fameux métal Bien que j'évite sheitan, c'est pas la CSG qui va me mer-cal Kelkal du mic calcule avec recul pour que tu cales Mc reste tranquille ou tu faire du mal je vais pas me gêner Personne pour me freiner, je maltraite le beat comme une trainée Et né dans la mêlée j'mets les bouchées doubles, botte les plus zélés T'interpeller comme la télé le fait une meuf bien roulée J'fais mieux que roucouler, me défouler te saouler tu craques sous les Boulets de la tête brûlée du crane pelé en Pelle Pelle C'est l'retour du Dad Du rap Soweto sur fond de son de Bagdad un expert comptable C'est l'retour du Dad Du rap Soweto sur fond de son de Bagdad MC reste tranquille ou te faire du mal je vais pas me gêner Au plus haut degré ma voix en continue sans arrêt Sois prêt à devenir taré par mon phrasé sons samples carrés À s'imaginer que tu apprécies mon son tel qu'il est Mon look stylé Ralph Lauren, Lacoste, baggy, crâne pelé Me traite de fêlé par contre bois mes phases comme un gosse son p'tit lait Me critique pompe mon style à l'heure qu'il est File de la ville avant que mes vilains rabattent le filet Et que les vieux lâchent encore une fois voilà j'suis violent J'me fiche des histoires de gangs, d'bandits, d'voyous, d'parrains Ça m'fait marrer, s'ils sont si forts qu'ils viennent un par un Une fois par an à Paris dans les bacs j'parais J'parie qu'mes paroles parues perturbent, paralysent tes parents Me parle pas d'mafia, moi je me fie à c'que j'ai Le manche je lai et ya pas quau mic dailleurs que j'donne des dégelées On cause peu d'moi en bien, j'aggrave les choses avec mon pote colombien Tu veux qu'ça pète le jackpot pour ça tu paies combien ? J'ris quand les ragots racontent qu'intrigant cain-fri qui s'prend pour un ricain, passe pour un brigand Car question d'fric en vrai j'vois grand, j'range ma clique au premier rang C'est l'retour du Dad Du rap Soweto sur fond de son de Bagdad MC reste tranquille ou te faire du mal je vais pas me gêner C'est l'retour du Dad Du rap Soweto sur fond de son de Bagdad MC reste tranquille ou te faire du mal je vais pas me gêner MC reste tranquille ou te faire du mal je vais pas me gêner MC reste tranquille ou te faire du mal je vais pas me gêner MC reste tranquille ou te faire du mal je vais pas me gêner</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Daddy Lord C</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Le Sens du Clan</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Mon clan c'est comme un patate dans ça casse et ça saigne C'est ce que la rue m'a enseigné, au fil des années le pe-ra J'ai appris à le manier comme un sport de combat Dans toutes sortes de terrains minés, trime inédit Avec mon escorte Comme un joint Ma mi-fa faut que tu la respecte C'est comme un toit sur ma tête mec Alors matte le À la conquête du hip-hop français On avance pas avec des sourires forcés mais les sourcils froncés Prêt à foncer afin de tout défoncer on a faim et on sait Alors on s'efforce de rester authentique autant qu'on l'peut Et ce du mieux qu'on peut Car quoi qu'il arrive je pisse dans la rue Car on est ce qu'on est et on a ce qu'on a Et en ce qui me concerne je serais fidèle à mes ainés Je revendique ma clique, dans le 77 mon matricule Le seul et l'même qui t'encule Alors en tant qu'MC je pose une bombe verbale et je creuse Ta tombe sur l'instrumentale Ainsi que pour l'homme qu'on nomme Daddy C sur l'album Le sens du clan se transmet de père en fils Le respect, l'éducation de nos jours s'perd en vice On s'plie en dix pour pas que nos enfants subissent Sans la présence de mes gars franchement j'aurais pas le Ni fait de ma cité un sacré palais Et c'est pas les ragots qui font que mon blase n'est pas laid Trainer les sales histoires que je porte comme des galets Ni l'assurance dans une embrouille comme un vrai A partir au galop porter Je préfère être Condamné à 12 piges afin que tout se pige Je suis pas une tasse-pé même si j'ai changé d'aspect Trahir ça s'paie, que tu y échappe je veux bien J'imagine que ça se peut, mais la rue en laisse peu Moi j'suis fidèle aux miens Y'a que ma vie qui est à prendre Mes meubles à vendre Tout le reste à défendre Mon attitude va dépendre J'ai le sens du clan Le sens du clan se transmet de père en fils Le respect, l'éducation de nos jours s'perd en vice On s'plie en dix pour pas que nos enfants subissent Le sens du clan, je l'ai donc je l'ouvre À mon sens, mon clan est vrai donc découvre Ma carence Nes-O et Daddy C Tu sais que le son n'est pas bad ici MC Faut qu'on sorte tous de là ou on est Même s'il faut faire bouger la femme et l'escorte à la rescousse Laissant derrière nous que le mauvais souvenir d'un passé Dans la merde tu es Mais j'y resterai pas De voir mes reufs tous Dans ce monde de requin, tous vouloir faire briller les billets De façon immonde comme dans Dans mon clan on est tous issu Fais le Mais sache que dans la mêlée, y'a que des loups à l'appel Donc j'appelle à la loi de la jungle Face à ta femme et ton clan savoir rester humble Le mec qui devant toi fera Mais qu'est-ce tu veux que je te dise reuf, flingue-le Le sens du clan se transmet de père en fils Le respect, l'éducation de nos jours s'perd en vice On s'plie en dix pour pas que nos enfants subissent</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Daddy Lord C</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Les Incorruptibles</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Laisse le bizness aux gars qui rappent mieux que toi Je représente mon crew La Cliqua Je représente ce que la jeunesse d'aujourd'hui veut entendre Un produit qu'on ne peut corrompre et que rien ne peut fendre La Cliqua des incorruptibles, de vrais pros, rien que la vérité Rien que la vérité Rocca Yeah ! Laisse le bizness aux gars qui rappent mieux que toi Raphaël J'ai la voix, le talent, les mots qu'il te faut pour parler de tout ça Rocca Raphael La vie dure, ses combats, les phrases chocs, je suis trop crédible et tu le vois Yeah ! Rocca, Raphaël, Dad au micro débarquent flow Rien que la vérité Rocca Je parle de ce qui m'entoure Le ciel gris, les tours, les joies, les peines, l'amour, le stress de tous les jours Pour les jeunes, c'est l'instant présent qui compte, l'avenir est flou Raphaël J'ai traversé les tunnels les plus sombres, j'irai jusqu'au bout, quoi ? Daddy Lord C D'une manière ou d'une autre, n'essaies pas de me la faire à l'envers J'ai d'autres méthodes pour te calmer que de te faire mal en vers Vivre pénard et être au vert, obligé d'avoir l'esprit ouvert Pour réussir y a des limites, j'suis quand même pas prêt à tout faire Quitte à faire le sale boulot, je préfère de loin celui a qu'il d'affaires Affamé, reste d-spee comme un Ducati moteur compressé Je reste net, je donne pas mon boule, j'y mets un point d'honneur, compris, c'est Ma cause, mon optique, ma raison, ma manière de voir qui me pousse Autrui à rien devoir, rançon à remplir mon devoir Textes d'acier, mental d'enfer, au cas khouya faut pas t'en faire J'investis jamais ma clique dans des bizness nulle part ailleurs Ce coté incorruptible, tu le retrouves nulle part ailleurs Je représente ce que la jeunesse d'aujourd'hui veut entendre Un produit qu'on ne peut corrompre et que rien ne peut fendre La Cliqua des incorruptibles, de vrais pros, rien que la vérité Rien que la vérité Si je rappe c'est parce que j'aime ça Kicker au mic, tu crois que j'avais le choix ? Yeah j'suis né pour ça Crois pas que je sais rien faire d'autre de mes 10 doigts Mais c'est la vie qui l'a voulue ainsi, c'était écrit Je suis un MC fort, un battant qui vivra pour ce qu'il dit C'est ma liberté, ma façon d'exorciser Mes mots de représenter comme il faut ceux qui vont te parler T'as peur de quoi ? Dis Que je fasse une émeute dans toutes les cités, c'est ça qui dérange les képis LÉtat je suis leur pire ennemi, je représente mon pays Pourquoi ? Parce que celui-ci ne veut pas de moi Les contrôles abusifs des flics me font bien comprendre mes droits Extradition, expulsion, on avait déjà le chômage, l'exclusion Tu veux pas savoir ce qui vient de rager mes raisons Mais je vendrais pas mon âme, ni fausserait mon message pour être plus accessible mira Je suis un incorruptible Je représente ce que la jeunesse d'aujourd'hui veut entendre Un produit qu'on ne peut corrompre et que rien ne peut fendre La Cliqua des incorruptibles, de vrais pros, rien que la vérité Rien que la vérité Je représente la jeunesse, les jours gris, la peur d'un lendemain sans boulot Yo Maman ! T'inquiète pas, j'ai ce qu'il faut, je mérite ce qu'il y a de plus beau Le mic, ma liberté d'expression, ma fonction Parler de vérité, sous forme d'amour, de haine, toutes sortes d'émotions Pose pas de questions, m'impose aucune condition J'ai mes convictions, le pognon ne dévie jamais ma direction Plein Sud, garçon d'une vraie aptitude dur absolue C'est juste le prélude d'une nouvelle ère, du rap pur Le mic ma légitime défense, un crime, pour certain l'hymne Pour les jeunes mes rimes assassinent, je ne serai jamais une victime Fier de moi, sûr de moi, concret dans tous mes projets J'ai intérêt d'y croire l'état vas t'mont tant sans pitié En aucun cas je ne serai une putain de cible En tant que vrai gars, Raphaël est incorruptible Scratchs Le hip hop, toi moi, ma cause, je représent</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Daddy Lord C</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Les jaloux</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Daddy Lord C remet de lordre ici Daddy Lord C remet de lordre ici Daddy Lord C remet de lordre ici Daddy Lord C remet de lordre ici Ma vinylique gangsta propa-propagande Revendique son immondice sinon te vise, met à lamende Infime ami intime, qui leçons qui le prétende Mange dans ton frigo, boit ton Pop, fume toute ta weed Te dit jamais merci, cest à te pousser au suicide Acide, enfin, sil te sourit, dans ton dos rit de Il te nargue, dès quil drague ta femme te blague, quil bavarde Le biggy Daddy tridigi dit de prendre garde Ca barde, chaque cochon a son Mardi Gras Etape, quaujourdhui soit le tien, tes dans de beaux draps Les chats-chats gogols, gagascaille-ras reloues Appelle-les comme tu veux, je dirais seulement jaloux Ne sintéressent quau sexe, mêlent la fesse au business Je suis vexe et mon réflexe nest pas complexe Ma politique, celle dun type type schizophrénique Cynique, trisomique envers tous les hypocrites, les Les jaloux, jaloux, jaloux, jaloux Les jaloux, jaloux, jaloux, jaloux Daddy Lord C remet de lordre ici Daddy Lord C remet de lordre ici Daddy Lord C remet de lordre ici Daddy Lord C remet de lordre ici Quand je dis hula hoop, il répond sopa, sopa Mauvais conseiller dans mes affaires, il me croit dupe Inutile dans le groupe, arriviste de la troupe, mencroûte Ces troupes déroutent tout ce quelles envoûtent Pas besoin dexpertise aux dégâts quil réalise Conduisent, concrétisent mon analyse vers la bêtise Convoitise, envie et jalousie, envie du voisin Avis aux amateurs désireux dêtre les prochains Daddy Lord C le seul, lunique, le vrai Dun geste détruit la récupération funeste Fêtée à mon insu sur mon deal, sur mes restes Le prétexte, le contexte où je situe mon texte Mènent, malmènent le do-lo-lomaine qui atteste Bon nombre damis me tournent, retournent leurs vestes A ces têtes de chiens pas de quartier, pas de politesse il pour il, dent pour dent, théorème dil y a longtemps Mon temps je le reprends et avec je te paye comptant Jaime mieux être un gagnant quêtre un perdant, ça me rendrait dingo Quand je joue au loto cest pour gagner le gros lot, le bingo Toi-même tu dis pas non aux diamants et aux trois lingots Ta femme quest-ce quelle choisit ? Le que-to ou le roro ? Les khos saisis, comprends limpro du négro super héros Qui se dresse contre Amasser le gros pactole, relever les audimats Oublier le protocole de flambe, de frime, est-ce un crime ? Si le millésime, la cime de mes rimes Musent, riment plus avec mon franc que centimes Si tu naimes pas mon dialecte, quand même, respecte Jinspecte, ceux qui se la pètent, mont direct Vecteur sectaire, balaie, guette le secteur Infâme, toi qui te pâmes de mon programme Jentame, dame, mon bestial te crame Daddy Lord C remet de lordre ici Daddy Lord C remet de lordre ici Daddy Lord C remet de lordre ici Daddy Lord C remet de lordre ici</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Daddy Lord C</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Les quartiers chauffent</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Don't hesitate and leave EPalbum suggestions Last update Oct 30 '24 entries count 1.9k 393 entries YTD objective 366 273 entries in 2023Rating system avg. 55.77, upd. Oct 09 10 Would recommend not to listen to 2 20 Didn't enjoy or wasn't my type 13 30 Meh, expected more or smth different 57 40 Decent background project andor too situational 247 50 Good background project Interesting concept 604 60 Decent project Good ideasmusicality 498 70 Good project, was worth the listen 239 80 A-tier project, splendid would recommend 110 90 S-tier project, splendid on repeat should listen 28 100 Goatesque, superb on repeat must listen 6Listen Later - Kingo Hamada - midnight cruisin Discographies will.i.am, Kekra, Eason Chan, Spacetime Continuum, Brennan Savage, Lana Del Rey, BTS, Laurent Voulzy, Billie Eilish, Bruno Mars, Aether, Georgio FRA, Alcest, The Game, Nas, Mobb Deep, Suprême NTM, Booba, Frank Ocean, Jay-Z, Kanye West, Prince, WILLOW, Jaden, Usher, Yoko Shimomura, Travis Scott, Aerosmith, Radiohead, Coldplay, Andrea Bocelli, chopmonk., 2814, Chynna, Enrico Intra, Jok'air, wuf, Laylow, Supper Moment, JaneBeeby, thaHomey, Isaiah Rashad, Playboi Carti, Anderson .Paak, Xavier Dang, Népal, Yameii Online, AK3K, Black Eyes Peas, borealism, emune, 6ix9ine, Björk, Snoop Dogg, Nirvana, , Danny Brown, Griff, fka twigs, Death Grips, Kendrick Lamar, Earl Sweatshirt, lingua ignota, Xiu Xiu, The Caretaker, The Carebear, Lady Gaga, Jimi Hendrix, Led Zeppelin, Ray Charles, Iron Maiden, Franz Zappa, REPULSIVE, Black Atlass, Rihanna, Gorillaz, Oneohtrix Point Never, Mac Miller, Yves Tumor, Tame Impala, SCH, Jack Stauber, Machine Girl, goreshit, Aphex Twin, Laura Pausini, Starmoon, Acidgvrl, JAY-Z Listened Already - . - .. . - - . l l . l l l . - ooo o 0 - v 2003 Toyota Corolla - 2003 Toyota Corolla 2003 Toyota Corolla - 2013 Toyota Corolla 2003 Toyota Corolla - bsides 23wa - 3 23wa - GALION 23wa - Magenta 23wa - ULTRA - 2xxx - Life 4ria - imstillhere 667 - 33ème Degré 667 - 67ème Degré 6LACK - 6pc Hot EP 6LACK - East Atlanta Love Letter 6LACK - FREE 6LACK 6LACK - Since I Have A Lover 88rising - Head in the Clouds 8d8beats - LAte 90sFlav - Collection 9lives - exclusives AE - The Heavist Sound açewk - Sæcula Condita Adam Bosarge - Structures Without Rooms Adolf Nomura - shut up. AdVenture Capitalist Soundtrack Aero Chord - New Breed Part 1 Aesthesys - I Aftertheparty - Good Boy AgonyOST - Variations Of Hell Ahmad Jamal - One Ajna - SHERPA AKIBA - im lost in a neverending dream AL-90 - Murmansk-60 Alain Goraguer - La Planète Sauvage Original Motion Picture Soundtrack aldn - good grief aldn - greenhouse A L E X - Flow Alice Gas - Sorry 4 Being Famous Aliks - love Alkpote - Alkpote et la crème d'Ile 2 France Alkpote - Alkpote et la crème du 91 Alkpote - Inferno Alkpote - L'empereur Alkpote - L'orgasmixtape Alkpote - L'orgasmixtape, Vol. 2 Alkpote - Les marches de l'empereur Alkpote - L'empereur contre-attaque Alkpote - LSDC Alkpote - Monument Alkpote - Ogre Alkpote - Sadisme et perversion Alkpote - Sucez-moi avant l'album Alkpote - Vie rapide Alkpote Butter Bullets - Ténébreuse musique Allister Brimble - Need for Speed Underground 2 DS OST Alpha Wann - don dada mixtape vol 1 Alpha Wann - UNE MAIN LAVE L'AUTRE Alt236 - Leviathan - Whistle in the Wind AMAI YAYAYI - R F Y Ambar Lucid - Garden of Lucid Ambar Lucid - Dreaming Lucid Aminé - Good For You Aminé - Limbo Your Dream God mulchprize - Andrike Black - Projet 1 Angèle - Nonante-Cinq AnNie.Adaa - QU'AUJOURD'HUI NE MEURE JAMAIS Anthony, Exodia Sienna Sleep - Ateriavia Antoine Daniel - ALBUM 100 LIBRE DE DROIT POUR TWITCH aNTOJE - Booyung .anxious. - 3am EP Anna von Hausswolff - All Thoughts Fly Anna von Hausswolff - Källan Betatype Anna von Hausswolff - Track of Time Arata Iiyoshi, Hideki Sakamoto, Keisuke Ito, Ryoma Nakamura Kenichi Saito - Pokémon Mystery Dungeon Explorers of Time and Explorers of Darkness Soundtrack architecture in tokyo - Summer Paradise Ariana Grande - Christmas Chill Ariana Grande - Dangerous Woman Ariana Grande - My Everything Ariana Grande - Positions Ariana Grande - Sweetener Ariana Grande - thank u, next Ariana Grande - Yours Truly arizcorp - Yesterday Mall Arsaphe - PATIENCEBLOOD Arsaphe Izen - Z-SAFE Ashh - OPIUM Asia Menor - Enola Gay Asuka Ota, Hajime Wakai Koji Kondo - New Super Mario Bros. DS Soundtrack Asuka Ota Ryo Nagamatsu - Mario Kart Wii Soundtrack ATL - AVD - Synthèse Avenged Sevenfold - Life Is But a Dream... Avery Lynch - As Written, Vol. 1 aYm x Ezekey - hues EP 1 ayrtn - Ghost... AZALEA - We'll get the next dream!!! Banda Neira - Yang Patah Tumbuh, Yang Hilang Berganti Bassti x Nalim - Two Minds LP Battaglia - 444 Battaglia - Acid Velvet Batzorig Vaanchig - Great Chinggis Khan beatboxbandit - Connections beatboxbandit - GLOW bdbbb - Otitis Media Bedwetter - Vol. 1 Flick Your Tongue Against Your Teeth and Describe the Present Beeby - Morningstar Benjamin Epps Le chroniqueur sale - Fantôme avec chauffeur Ben Prunty - Chromatic T-Rex Ben Prunty - Cipher The Score for Banking on Bitcoin Ben Prunty - Color Sky Ben Prunty - Curious Merchandise Ben Prunty - Dark Window Ben Prunty - Deep Space Deluxe Ben Prunty - Fragments Ben Prunty - FTL Advanced Edition Soundtrack Ben Prunty - FTL Faster Than Light - Original Soundtrack Ben Prunty - Gravity Ghost Soundtrack Ben Prunty - Music Workbench Ben Prunty - StarCrawlers Soundtrack Ben Reilly - Freelance Bedwetter - Vol. 1 Flick Your Tongue Against Your Teeth and Describe the Present berlioz - open this wall Beyoncé - B'Day Beyoncé - Dangerously in Love Beyoncé - I AM...SASHA FIERCE Platinum Edition Billie Eilish - HIT ME HARD AND SOFT Bitsu - LEMONde Bitsu - NML Bitter Babe Nick Leon - Delirio Bitter Babe Nick Leon - Fuego Clandestino Bkwds - OUT OF SIGHT Black M - La Légende Black BlackXipher - Dark Trap Bladee - Eversince Bladee - Gluee Bladee - Icedancer Bladee - Red Light Bladee - rip bladee Bladee - Working on Dyung Bladee Ecco2k - Crest Bladee Thaiboy Digital - AvP Bladee, Ecco2k Thaiboy Digital - DG Blaiz - Polar Blank Banshee - 4D Blank Banshee - Blank Banshee 0 Blank Banshee - Blank Banshee 1 Blank Banshee - Gaia Blank Banshee - Mega Blank Banshee - Metamorphosis Blank Banshee - Music for Menus Blessu - Pranayama bliss3three - C3L3STIAL Blksmith - DIGITAL TWIN B o n b o o z e - Love Archetypes BONES - OFFLINE BONES - Useless BONES Drew The Architect - ModernArchitecture BONES GREAF - TheWitchTheWizard Booba - AD VITAM ÆTERNAM Booba - Nero Nemesis Booba - ULTRA borealism - Lost Found borealism - Ripples in the Stream Boulevard Depo - RAPP2 Blank Body - 2014-2019 brakence - punk2 Bram Pam - BramPam Bromaz - DISASTER Brother Mynor - Passionfruit Falls Bryson Tiller - A N N I V E R S A R Y Deluxe Bryson Tiller - Bryson Tiller Bryson Tiller - T R A P S O U L Bryson Tiller - True to Self B-Side - Journey To Badlands - - 444 - a sad kind of bliss - can't remember - late night bumps, Vol. 1 - late night bumps, Vol. 2 - late night bumps, Vol. 3 - late night bumps, Vol. 4 as - leaving - PO33 - pook - reflections, Pt. 1 w bob le head bob le head - Yesterday Burial - Untrue BUHI - Bushi BUHI - Bushi 1.5 BUHI - Bushi Tape 2 C418 - 148 C418 - 72 Minutes of Fame C418 - Cookie Clicker C418 - Dief C418 - Excursions C418 - Life Changing Moments Seem Minor in Pictures C418 - Minecraft - Volume Alpha C418 - Minecraft - Volume Beta C418 - One c678924 - 678924 Caballero - OSITO Caleb Belkin - Summer Nights Camellia - Camellia - Blackmagik Blazing Camellia - Cyphisonia Camellia - Crystallized Camellia - Camellia - dreamless wanderer Camellia - GALAXY BURST Camellia - heart of android Camellia - INSANE INFLAME Camellia - INVAIDAS FROM DA JUNGLE Camellia - MEGANTO METEOR Camellia - paroxysm Camellia - PLANETSHAPER Camellia - Reality Distortion Camellia - sudden shower Camellia - Thanks Twitter Followers 40K Carla's Dreams - Antiexemplu Carla's Dreams - Ngoc Carla's Dreams - Nocturn Casiopea - Casiopea Catnapp - Break cat soup - eutaxy Charli xcx - BRAT Charli xcx - True Romance Charly Puth - Voicenotes charmort - Viewfinder Chief Rugged - Sounds from Outerspace Childish Gambino - Because the Internet Childish Gambino - Camp Chilla - EGO Chillhop Music - Chillhop Raw Cuts chopmonk. - autumn ep chorrol - artists Christophe - Les vestiges du Chaos Chuli4n - Night Walk Ciano - 4 soundcloud beats C!erra Myt - Witness of Another World Cigarettes After Sex - Cigarettes After Sex Cigarettes After Sex - Cry Cigarettes After Sex - I. Cigarettes After Sex - X's CIGHT - Architecture City Morgue - CITY MORGUE VOL 1 HELL OR HIGH WATER Clairo - diary 001 Clams Casino - Instrumental Relics Coconuts - Coconuts Coldplay - Ghost Stories Coldplay - Mylo Xyloto Connaisseur Ticaso - Normal de l'Est Connaisseur Ticaso - Rap Life Constrobuz - Rain and Dust cormac - Nobscot. CoryaYo - Songs in the key of Earth vol. 1 Cowbell Cult - Cowbell Cult, Vol. 1 Cult Member - Stockholm Curtis Heron - The Answer cxltgod - The Freakshow of the Century, Pt 1 Cynthoni - Sewerslvt Presents Cynthoni, Pt. 1 Cynthoni - Sewerslvt Presents Cynthoni, Pt. 2 Cynthoni - SMOKE IT TO THE BUTT Daft Punk - Discovery Daft Punk - Homework Daft Punk - Human After All Daft Punk - Random Access Memories Daft Punk - TRON Legacy Damso - Batterie faible Damso - Ipséité Damso - Lithopédion Damso - QALF infinity Damso - Vieux sons Danger - 9142007 Dan Mason - Hypnagogia Danny Baronowsky - Super Meat Boy! - Official Special Edition Soundtrack Danny Towers - Tarantula Danton Eeprom - Yes Is More DARK DESIRE - Vol. 1 DRKNSS - magician whisper DRKNSS - wear flowers in your hair Dated - The Cold Dark Somewhere datfootdive - aLone death's dynamic sound - I'll Try Living Like This Deko - Iridescent Deko - Moonkid Mondays, Vol. 1 Delia - 7 Delia - Deliria Delia - FLEX Delia - Listen Up Delia - Parfum de fericire Delicasteez - Deli De Lorra - Unconditional Derek Pope - Epochs Derek Pope - Poltergeist Des Brennan - Don't Try This At Home Des Brennan - Exit 98 Des Brennan - For A While Des Brennan - Four Years Des Brennan - Growing Apart Des Brennan - Haven Des Brennan - Idyll Des Brennan - My Dear Friend Nostalgia Des Brennan - Serene Des Brennan - We Were Friends EP Des Brennan - You Look Like My Next Mistake Des Brennan X dXL - The Refreshments desert sand feels warm at night - desert sand feels warm at night - desert sand feels warm at night - desert sand feels warm at night - desert sand feels warm at night - desert sand feels warm at night - desert sand feels warm at night - desert sand feels warm at night - desert sand feels warm at night - desert sand feels warm at night - desert sand feels warm at night - desert sand feels warm at night - desert sand feels warm at night - desert sand feels warm at night - desert sand feels warm at night - desert sand feels warm at night - desert sand feels warm at night - desert sand feels warm at night - desert sand feels warm at night - desert sand feels warm at night - desert sand feels warm at night - Ambivision - FLOOR122 desert sand feels warm at night - New World Disciples desert sand feels warm at night - sparkling water desert sand feels warm at night - Tomorrow, 2096 desert sand feels warm at night - desert sand feels warm at night IndyAdvant - desert sand feels warm at night VirtualRealityDeluxe - Midnight Mansions Desert Squid - desktop junk - Cosmic Outerludes Devaloop Zaïd - Hier Jetzt!? Dez - business as usual. Dez - future features Dez - past descriptions Dioscures - Ciela direcia 5 - Cântece noi Dirty River - Train Station Dirty River - VILLAGE disvstxr - Yagmur discarded - discarded Disiz - Pacifique Django - Anthracite Django - ATHANOR Django - So le Flem Django - Troisième terme Django - Tue-moi, mon amour, s'il te plait Dj Billybooi - My Fantasy World DJ Blyatman - Hardkvas DJ Kuroneko - kuroneko DJ Kuroneko - neko garage 2 DJ Kuroneko - shadows collide DJ Okawari - Kaleidoscope DJ Smokey - Evil Wayz DJ Yung Vamp - Night of the Thrill, Vol. 2 Doja Cat - Amala Deluxe Version Doja Cat - Hot Pink Doja Cat - Purrr! Doja Cat - Scarlet Doo - Trackmania Canyon Soundtrack Doo - TrackMania DS Soundtrack Doo - TrackMania Forever Soundtrack Doo - TrackMania Nations ESWC Soundtrack Doo - TrackMania Turbo Build to Race Soundtrack Doo - TrackMania United Soundtrack Doo - TrackMania Wii Soundtrack DOOM DOOM - DOOM 1 Dragon Ball Z Supersonic Warriors 2 Music Drake 21 Savage - Her Loss Drake - Certified Lover Boy Dream.Corp - Online Dream.Corp - T3XTVRE GR1D DR. GABBA - Planet Piano Drew The Architect - Lèiyll drift-133 - Takeafter drip-133 - Becomes a Pattern drift-133 BONES - HateToBreakItToYou drwn. - glow slow DUCKBOY - tragic love songs to study to DUCKBOY - existential hymns for the average sigma Dundy - Acarde Dundy - NO!MASTER Dundy - RETRO Dundy - SPIRIT Dundy - STACKS dwyer - Lanterns dwyer - Olivino dwyer - Raspberry Teeth dwyer - Thursday Mornings Eagle Eyed Tiger - Future or Past Earl Sweatshirt - Some Rap Songs Eason Chan - Eason Chan Eason Chan - Eason Friends 903 ID Club Eason Chan - God Bless Lover Eason Chan - It's Me Eason Chan - My Happy Time Eason Chan - Preparation Eason Chan - Shall We Dance? Shall We Talk! Eason Chan - Some Like it Hot Eason Chan - Tear Eazy Dew - Homea Ecco2k - e Ecco2k - PXE Echelon Records - Echelon, Vol. 1 Echelon Records - Echelon, Vol. 2 Ed Harrison - Neotokyo eelxb - 3 Ole Monks eelxb - Curve eelxb - Jampeon eelxb - Scouts Honor Egoid - Altered Ego eightiesheadachetape - for a while El Matador - XIIINRV El Tigr3 - Kronos Eminem - Kamikaze Eminem - Music To Be Murdered By Eminem - Revival emune - 1993 emune - Auras emune - BAG IT UP TO THIS emune - balance emune - beat ur face to this emune - EAT HER OUT TO THIS emune - Moon Bounce emune - Raw Flips Instrumentals emune - Retaliate emune - smoke a blunt cruise to this emune - Sorry emune - ustwo emune Mujo - SP-ecials engelwood x Jeff Kaale - Hightide engelwood simon eng - jazz channel Enoch Lenoir - Frostbite An Instrumental Tape Erik Satie - Trois Gymnopédies Ex Aquis - Che La Mia Ferita Sia Mortali eyeto8 - Apocalyptic Nirvana FACE - 12 faeriey - the chrome charlie tape Falls - You Have Ben Keeping fantompower - Longing Ferio, krrt Cobain - get five mics Fela Kuti - Gentleman Feldup - A Thousand Doors, Just One Key Feldup - Stared At from a Distance Feldup as Glassatlooker - A Feldup as Hurty eldeen - From the pit LP Feldup as Hurty eldeen - Seven empty polaroids EP Feldup as Hurty eldeen - The street sitting LP Feldup as XSANT - BANG vol. 1 Feldup as XSANT - BANG vol. 2 FEMTOGO neophron - One Man Army Ferdous - Cool Party Fifty Grand - Helena's Skin Fifty Grand - I Don't Know Why fiji.water - fiji.water - 3am Flight Fine-Sir-1584660650 - Fine-Sir-1584660650 - 1584660650 Fine-Sir-1584660650 - Post-Cyber Voxel Infinity Fixpen Sill - FLAG Floème - w a v e s Floème - a g e i n g p o e t r y Floème - Ecdisys Flume - Arrived Anxious, Left Bored Flying Lotus - Yasuke FOREV3RAIN - RAIN Forss - Ecclesia foxxy dekay - Colorful Dreams FrankJavCee - FrankJavCee Collection, Vol. 1, Pt. II Fraoula - Neon Drive OST Franz Liszt - Eine Faust-Symphonie in drei Charakterbildern Franz Liszt - Eine Symphonie zu Dantes Divina Commedia Freddie Dredd - Freddie's Inferno Freeze Corleone - ADC Freeze Corleone - À la recherche de la daillance Freeze Corleone - F.D.T Freeze Corleone - LMF Freeze Corleone - Projet Blue Beam Freeze Corleone - THC Freeze Corleone - Vieilles merdes Freeze Corleone - Vieilles merdes vol.II Freeze Corleone Ashe 22 - RIYAD SADIO Frums - Metacontinues Frums - vignette fujitsu - forests e.p fushou. - essentials gabby start - luca Gambi - LA VIE EST BELLE Gao the Arsonist - OUR BONES ARE ARTIFACTS gawdlee Bryson McGee - COLOSSAL gawdlee - DENISE gawdlee - fragilelawsofwordstructure gawdlee - hopeyouhadabadsummer gawdlee - I Know Gaz120 - Gaz120 Gazo - DRILL FR Getter - Some Creature Geoxor - Irreversible Ghostemane - Hexada GIVON - Give Or Take GIVON - TAKE TIME GIVON - When It's All Said And Done GLOBAL CHILL - midnight smoker Gods Of Something - Inner Void Gods Of Something - The Edge of Reality Godspeed You! Black Emperor - Allelujah! Don't Bend! Ascend! Godspeed You! Black Emperor - Asunder, Sweet and Other Distress Godspeed You! Black Emperor - F A Godspeed You! Black Emperor - Gd's Pee AT STATE'S END! Godspeed You! Black Emperor - Lift Your Skinny Fists Like Antennas to Heaven Godspeed You! Black Emperor - Luciferian Towers Godspeed You! Black Emperor - Slow Riot for New Zero Kanada Godspeed You! Black Emperor - Yanqui U.X.O. Go Ichinose, Junichi Masuda Hitomi Sato - Pokémon Diamond Soundtrack Go Ichinose, Junichi Masuda, Hitomi Sato Satoshi Nohara - Pokémon Platinum Soundtrack Go Ichinose, Junichi Masuda, Morikazu Aoki Hitomi Sato - Pokémon Emerald Soundtrack Go Ichinose, Shota Kageyama, Hitomi Sato, Junichi Masuda Takuto Kitsuta - Pokémon HeartGold and SoulSilver Soundtrack GOLDWATER - discography GOLDWATER - GOLDWATER EP GONE.Fludd - BOYS DON'T CRY - - - - goreshit - Semantic Compositions on Death and Its Meaning Gradur - Where Is l'album de Gradur graves - tomorrow tape grayera - It Feels Like I'm Wilting Away GRËJ - CUISINE GRËJ - ÉTOILES MICHELIN GRËJ - L'album gris GRËJ - PIXELTAPE GRËJ - PIXELTAPE2 GRËJ - RESTAURANT GRËJ - RINASCIMENTO GRËJ - TAKE AWAY EP Gridan Killa Fonic - OPUS MAGNUM GRXGVR - 020 guardin - guardin - Astral Agenda guardin - creature pt. 1 guardin - creature pt. 2 guardin - guardin - lacuna guardin - LOST FOUND guardin - Lost In A Fantasy guardin - outsider guardin - take me home GUILD MERCHANT - GUILD MERCHANT - blood feud GUILD MERCHANT - Heartless Guizmo - Amicalement vôtre Guizmo - C'est tout. Guizmo - Dans ma ruche Guizmo - GPG Guizmo - GPG 2 Guizmo - La banquise Guizmo - Normal Guizmo - Renard Guns N' Roses - Appetite For Destruction Guns N' Roses - G N' R Lies Guns N' Roses - Use Your Illusion I Haarper - Naga haircuts for men - 1989 haircuts for men - a path haircuts for men - ep Halicalf - Gunner The Prophet Hamza - 140 BPM 2 Hamza - Paradise Hamza - Sincèrement Hans Zimmer - Inception Music from the Motion Picture Hans Zimmer - Interstellar Original Motion Picture Soundtrack Harmful Logic - SOULGEMCOLLECTION Harris Cole - Colors Harry Styles - Harry Styles Haux - All We've Known Hector Berlioz - Te Deum hentai boys - 4EVER Heuss L'enfoiré Vald - Horizon vertical Hide - Dead End Adventure Himiko Kikuchi - Flying Beagle hhsweater - fly sumwere H JeuneCrack - 2ème Cycle HKK - Dreamwalker SURF - Waterbed Holder - Undertale Remixed by Holder Home - Hold Hong Kong Express - I Am Here, In Love............ Exist... Exist.... Exist!!! How to Disappear Completely - Seraphim How to Disappear Completely - Seraphim II Hozokauh - time, unraveling H-Pi - Trackmania Original Video Game Soundtrack Hyd - CLEARING i61 - ANGELWAVE Ian - Slayer IC3PEAK - IC3PEAK - IC3PEAK - IC3PEAK - IC3PEAK - FALLAL IC3PEAK - IC3PEAK IC3PEAK - Substances EP IC3PEAK - VACUUM ICYTWAT - 4 tha Troopz ICYTWAT - Dior Junts ICYTWAT - Dream Bwoy ICYTWAT - G4ost ICYTWAT - Good Pussy ICYTWAT - Have Mercy on Us ICYTWAT - ICYTWAT ICYTWAT - ICYTWAT Radio ICYTWAT - Magic as Usual ICYTWAT - Milk ICYTWAT - Siddhi ICYTWAT - Siddhi World ICYTWAT - Throwaway EP ICYTWAT LORDFUBU - Fubu vs. Twat Igorrr - Nostril Ikaz Boi - Paradise Inclasick - Space INDOOR CIGARETTES - VOLUME 1 INDOOR CIGARETTES - VOLUME 2 Inhavite - Raptilian insaneintherainmusic - Sinnohvation instupendo - Friend of a Friend INSULINE NICOTINE - Le retour INSULINE NICOTINE - ZEvent 2023 internetBoi - A Bird Needs Two Wings To Fly Irina Rimes - Acas Irina Rimes - Cosmos Irina Rimes - Despre el Irina Rimes - Origini Irina Rimes - Pastila Irko - Ghillie in the Mist IShowSpeed - Trip 2 Brazil itimar - leaf.ep Ivan Dorn - RANDORN Iwakura - Iwakura - Iwakura - The Backrooms Original Soundtrack Iwakura - The Backrooms Original Soundtrack 2 Iwakura - The Backrooms Original Soundtrack 3 Iwakura - Wires Iwakura frontooms - Limit Jacksonifyer - a glitch in the head Jacksonifyer - Bittersweet Abandonment Jacksonifyer - Distorted Rememberance Jacksonifyer - Hope Lost Jacques Brel - Au printemps Jacques Brel - Ces gens-là Jacques Brel - Jacques Brel 67 Jacques Brel - Jacques Brel et ses chansons Jacques Brel - J'arrive Jacques Brel - La Valse à mille temps Jacques Brel - Les Bonbons Jacques Brel - Les Marquises Jacques Brel - L'homme de la Mancha Jacques Brel - Marieke Jacques Brel - Olympia 1964 Jacques Brel - Quand on n'a que l'amour Jaden - CTV3 Cool Tape Vol. 3 James Grant, Jody Wisternoff Silver Mt. Zion - Anjunadeep 12 Sampler Part 1 Janice Quatlane - The Eternal Diva Layton Kyouju to Eien no Utahime japansaur - RENAISSANCE MIX japansaur - sese flick jarjarjr - Fallen Angel Jasper Byrne - Hotline Miami EP Jax 02.14 - Asian Taste Jeff Kaale x Engelwood ep Jeff Kaale x spencer - weekdays Jeff Kaale - Lagoon Jeff Kaale - Summer in the 50's jenny nuo - bound by expectations jenny nuo - the exhibit Jeremiah Chiu Marta Sofia Honer - Recordings from the Åland Islands Jeremy Soule - The Elder Scrolls V Skyrim OST Jetson - Culture Jeune sachet - FOREIGN Jhené Aiko - Sail Out Jiin - Cult Hymns Joji - BALLADS 1 Joji - Chloe Burbank Volume 1 Joji - In Tongues Deluxe Joji - LOST BALLADS Joji - Lost Instruments Joji - Nectar Joji - SMITHEREENS Jok'Air - Big Daddy Jok jonatan leandoer96 - Katla jonatan leandoer96 - Psycopath Ballads JOY. - JOY TO THE WORLD MIXTAPE JPEGMAFIA - All My Heroes Are Cornballs JPEGMAFIA - black ben carson JPEGMAFIA - EP! JPEGMAFIA - EP2! JPEGMAFIA - LP! JPEGMAFIA - Veteran JrDenil - DAS ALOTTA STRESS Juice WRLD - Affliction Juice WRLD - BINGEDRINKINGMUSIC Juice WRLD - Goodbye Good Riddance Anniversary Edition Juice WRLD - Too Soon.. Juku - HEARTBREAK Julien Doré - Jungle Jack - JUNGLE DES ILLUSIONS VOL 1 Kaaris - 2.7.0 Château Noir Kaaris - Dozo Kaaris - Okou Gnakouri Kaaris - Or Noir Part 3 Kaaris Kalash Criminel - SVR Kaarism - 1min de scam Kaarism - Château noir Kai Whiston - Drayan! Kamanugue - REVELATION 6 Kane Parsons - Backrooms Original Score, Vol. 1 Kane Parsons - Backrooms Original Score, Vol. 2 Kane Parsons - Backrooms Original Score, Vol. 3 Kane Parsons - Daemon Kane Parsons - It's All Happening Kane Parsons - The Oldest View Original Score, Vol. 1 Katro - Vol. IV - Hieracosphinx - I will not crush this world's corolla of wonders - Paradise Lost Kate Soper - Voices from the Killing Jar Kat Graham - Love Music Funk Magic Kavinsky - 1986 Kavinsky - OutRun Kavinsky - Reborn Kavinsky - Teddy Boy kawfee - bottled up kawfee - Heartburn kawfee - KAYTRANADA - 99.9 KAYTRANADA - Kaytra to Do Kazam - Abysses Kazam - Le Chant des Vagues Kaz Baagane - LOT022 KC Shore - solstice Keisuke Ito Yasuhiro Kawagoe - Pokémon Mystery Dungeon Gates to Infinity Soundtrack Kekra - Vréel 2 Kendrick Lamar - DAMN. KevGee - Sedated Tape Kevin MacLeod - PsychoKiller KFM - fail Khali - Palmer wild story Khali - IL ME RESSEMBLE PAS NON PLUS Killa Fonic - 2089 Killa Fonic - BeetleJuice Killa Fonic - III Killa Fonic - Emotiv Munteana Killa Fonic - Lam crim Killa Fonic - MAT-STHNI SARVA-BHTNI Killa Fonic - Osvaldo Deluxe Killa Fonic - Ramses 1989 Killa Fonic - Taxi Driver Killa Fonic - Terra Vista Killa Fonic - Trendsetter Killa Fonic - SS1000 kiLLa Laharl - Digital Shrine killedmyself - backyard cemetery revisited killedmyself - stay where it's safest killedmyself - the next time you see me, you won't killedmyself - that kindled look in her eyes Killer Bee - Venus EP Killstation - Days After Dying KingFsorrow - Color Code K.I. the Roi - If I'm Yours K.I. the Roi - To the Moon kizaru - Mas Fuerte kkami - The Adventures of Purple Star Looking for Ruby Klaus Veen - Blaze Knife Party - 100 No Modern Talking Knife Party - Abandon Ship Knife Party - Haunted House Knife Party - Rage Valley knowmadic - better off knowmadic - Nowhere KOHH - MONOCHROME Koji Kondo - New Super Mario Bros. Soundtrack Koji Kondo - Super Mario 3D Land Soundtrack Koji Kondo - Super Mario 64 Soundtrack Koji Kondo - Super Mario Galaxy Soundtrack Kordhell Scarlxrd - PSYCHX Korn - Follow The Leader Korn - Issues Korn - Korn Korn - Korn III Remember Who You Are Special Edition Korn - Life Is Peachy Korn - Live Rare Korn - See You On the Other Side Korn - Take A Look In The Mirror Korn - The Nothing Korn - The Paradigm Shift Deluxe Korn - The Path of Totality Special Edition Korn - The Serenity of Suffering Deluxe Korn - Untitled Korn - Untouchables KRAAKSTOF - KRAAKSTOF RADIO 001 KRAAKSTOF - KRAAKSTOF VOL.1 KRAAKSTOF - KRAAKSTOF VOL.2 KRAAKSTOF - KRAAKSTOF VOL.3 Krewella - Get Wet Krewella - Play Hard Krewella - Play Harder Kristian Florea - Glasna Intima Krisy - Paradis d'amour KronoMuzik - Free Krono KronoMuzik, Pandrezz Ronare - zzccmxtp KyonPalm - CYBERIA Lady Gaga - The Fame Monster Deluxe Edition La Fève - ERRR Lafleyne - GOLD DIGGER Lancey Foux - FIRST DEGREE Lancey Foux - FRIEND OR FOUX Lancey Foux - LIVE.EVIL Lancey Foux - Pink Lancey Foux - Pink II Lancey Foux Nyge - First Day At Nursery Laura Pausini - From the Inside Laura Pausini - Io canto Laura Pausini - La mia resposta Laura Pausini - Laura Pausini Laura Pausini - Le cose che vivi Laura Pausini - Tra te e il mare Laura Pausini - Resta in ascolto Laura Shigihara - Plants vs. Zombies Soundtrack Laylow - L'Étrange Histoire de Mr. Anderson Lazuli - TOKETA Learic Spellman - Maturation Le Dé - Delta Plane Le Dé - Napalm L'Entourage - Jeunes Entrepreneurs Les Alchimistes - Antisocial LEX - Lightex - Rusty Nail Candy Lil Bo Weep - ILLUSIONS LILDRUGHILL - All Babies Fly lil kaine - No Mercy Lil Mariko - Lil Mariko Lil Peep - California Girls Lil Peep - Changes Lil Peep - Come Over When You're Sober, Pt. 1 Lil Peep - Come Over When You're Sober, Pt. 2 Lil Peep - Crybaby Lil Peep - Everybody's Everything Lil Peep - feelz Lil Peep - Hellboy Lil Peep - Lil Peep Part One Lil Peep - Live Forever Lil Peep - Teen Romance Lil Peep - Vertigo Lil Peep Death - Garden Lil Peep Fish Narc - Goth Angel Sinner Lil Peep Lil Tracy - castles Lil Peep Lil Tracy - CÅSTLES II Lil Peep, Jgrxxn Ghostemane - Elemental Lil Sheitan - Sur Mon Bateau Pirate Lil Xan - TOTAL XANARCHY L'Impératrice - Tako Tsubo Little Big - Antipositive, Pt. 1 Little Big - Antipositive, Pt. 2 Little Big - COVERS Little Big - Funeral Rave Little Big - GO BANANAS Little Big - Lobster Popstar Little Simz - Sometimes I Might Be Introvert lofi.hiphop - 1 yr lofi.hiphop - lofi.hiphop lofi.samurai - oldies Lolo Zouaï - Beautiful Lies Lolo Zouaï - High Highs to Low Lows Deluxe Lolo Zouaï - Ocean Beach Lolo Zouaï - Playgirl Lolo Zouaï - Please Hold Lonepsi - Danger de mot loose tha kid as geerad - brainwater loose tha kid as geerad - waves Loqiemean - Lord Apex - INTERPLANETARY FUNK LP Lord Esperanza - Drapeau Noir Lorenzo - Légende vivante Lorenzo - Sex In The City Lorn - Nothing Else Lorn - RARITIES Lorn - The Maze To Nowhere Lost Colossus - PATH OF LUST VOL.1 Louane - Chambre 12 Love Renaissance - Home From The Holidays Luchè - L1 Luchè - L2 Lucid Monday - LM013 Lucid Monday - LM019 Lucid Monday - LM020 Lucid Monday - LM021 Lucid Monday - Lucid Monday Presents DJ Yung Vamp, Soudiere Dilip Ludwig van Beethoven - Piano Sonata No. 14 Luidji - Boscolo Exedra Luidji - Mécanique des fluides Luidji - Saison 00 Luidji - Tristesse Business Saison 1 und - BlkBird und - Gold Luni - Orange Luther - GARÇON Luther TB - Alpha Luther TB - Love Pack Luther TB - Starter Pack Luv Resval Alkpote - Mariah Mabisyo - Beatmaking Sessions V.1 Mabisyo - Beauty Is Something Simple Mabisyo - Clouds Under Nicotine Extended Edition Mabisyo - Echoes Of The Subconscious Mabisyo - Everything Is Under Control Mabisyo - Light Up Your Heart Mabisyo - The Theory Of Premonitions Mabisyo Majestic 12 - Velvet Notes Mac Quayle - Mr. Robot, Vol. 1 Original Television Series Soundtrack Mac Quayle - Mr. Robot, Vol. 2 Original Television Series Soundtrack Mac Quayle - Mr. Robot, Vol. 3 Original Television Series Soundtrack Mac Quayle - Mr. Robot, Vol. 4 Original Television Series Soundtrack Mac Quayle - Mr. Robot, Vol. 5 Original Television Series Soundtrack Mac Quayle - Mr. Robot, Vol. 6 Original Television Series Soundtrack Mac Quayle - Mr. Robot, Vol. 7 Original Television Series Soundtrack Macroblank - Macroblank - Macroblank - Macroblank - Macroblank - Macroblank - Macroblank - Macroblank - Macroblank - Macroblank - Macroblank - Macroblank - dungeon of lust Macroblank - entropy Macroblank - FETISH Macroblank - HOSTILE Macroblank - ibis valley Macroblank - keygen Macroblank - RARE PSALMS COLLECTION VOL.1 Macroblank - RARE PSALMS COLLECTION VOL.2 Macroblank - serpent lp Macroblank - Solstice Macroblank - Tales of the Cypher Macroblank - The Exiled Lords Macroblank GODSPEED - IMPERIAL Macroblank Oblique Occasions - elegiac blasphemy Macroblank Oblique Occasions - verdant halcyon Macross 82-99 - SAILORWAVE Madvillain - Madvillainy MAGDALENE - GODSLAYER Mag.Lo - Never Magnetic The Shaman X leaf beach - Façade Mai Lan - Autopilote Mai Lan - Mai Lan Mai Lan - Vampire EP Makala - Radio Suicide Male Alchemy - 1984 Male Alchemy - ep Male Alchemy - Male Alchemy - aristocracy Male Alchemy - Chamonix Male Alchemy - Melancholy Of An Angel Male Alchemy - you are afraid of me Mall Greb - How The Dogs Chill, Vol.1 Måneskin - Il ballo della vita Måneskin - Rush! Måneskin - Teatro d'ira - Vol.I Manicurés - EP m a n n y . - Calm ep. m a n n y . - Fallen ep . m a n n y . - Frequence Ep. m a n n y . - genesis ep. m a n n y . - mai tai . ep m a n n y . - wave ep. Manu Militari - Nouvelle vague Marie Therese - Space Chill Marko Glass - Covid Vibes Marko Glass - Markat Marko Glass - Sainted? Marko Glass - Versalingo Marko Glass Bvcovia - Bando Marko Glass Bvcovia - Bando 2 Marko Glass Bvcovia - Bando 3 Marracash - Persona Masahiko Kimura - Spectrobes Soundtrack Masayoshi Takanaka - All Of Me Masayoshi Takanaka - An Insatiable High Masayoshi Takanaka - Brasilian Skies Masayoshi Takanaka - On Guitar Masayoshi Takanaka - Seychelles Masayoshi Takanaka - T-Wave maslo chernogo tmina - Mathematical Records - Lupin Matt Martians - The Drum Chord Theory Maxence - Maykretch - meat computer - social distancing from reality Meep - Stardust meganeko - Eclipse Mekhane - Grains Mekhane - Medjed Melo Lobe - Humble Minds Members Only - Members Only Vol.1! Members Only - Members Only, Vol. 2 menace Santana - ! menace Santana - Freestyle covid Part. 1 menace Santana - Freestyle covid Part. 2 Merge! Yameii Online - Merge! Vs. Yameii MHD - 19 MHD - Mansa MHD - MHD Michael Jackson - Bad Michael Jackson - Ben Michael Jackson - Dangerous Michael Jackson - Farewell My Summer Love Michael Jackson - Forever Michael Michael Jackson - Got To Be There Michael Jackson - HIStory Michael Jackson - Invincible Michael Jackson - Looking Back To Yesterday Michael Jackson - Michael Michael Jackson - Music Me Michael Jackson - Off The Wall Michael Jackson - Thriller Michael Jackson - XSCAPE Michael McCann - Deus Ex Human Revolution Original Soundtrack Michele Morrone - Dark Room Bonus Edition Midi v3.0 - Ebb Flow midwxst - better luck next time. Migos - Culture III MIKE DEAN - 423 - MISOGI - OCCULT Mister V - Double V Mister V - MVP Mixed Matches - all we areall i need Mlodyskiny - Zby Mnogoznaal - Mnogoznaal - modest by default - Admissible Vol. I modest by default - Permaculture modest by default - RAW PRACTICES VOL. I modest by default - RAW PRACTICES VOL. II modest by default - RAW PRACTICES VOL. III modest by default - THE CURSE OF COLONIALISM I modest by default - THE CURSE OF COLONIALISM II modest by default - THE CURSE OF COLONIALISM III modest by default - The Rojava Documents - Belaya Polosa - - Monument - mol - QUIT MUSIC Monodrone - Monodrone - Customer Service Monodrone - Faded Memories Monodrone - Forbidden Fruit Monodrone - metempsychosis Monsieur Nov - Love Therapy Montell Fish - Her Love Still Haunts Me Like a Ghost MSyn - BEFORE Atalante MSyn - NWR MSyn - Victoria Molina MSyn present XXXTENTACION, A Tribute mt. marcy - naked lunch Muha - Identitet Muddyoush - Orchards mulchprize - Mussy - Jig my!lane - Sakura's Shadows M y s t e r y desert sand feels warm at night - Na-Kel Smith - NAMCO SOUNDS - Tekken 4 Original Game Soundtrack Nanku - Nanku Sharma Nasty Nate - Nasty Beats, Vol. 1 Nation Ecco2K - Ça Va Native Tapes - Native Tapes, Vol. 1 Botanical NAV - NAV NAV - Perfect Timing Navie D - Post nedaj - Alter Ego nedaj - BERSERK nedaj - Era9 nedaj - Genesis nedaj - NO MERCY nedaj - NO MERCY II nedaj - STATE OF MIND nedaj - The Abyss nedaj - THE PARADOX EP MIX Nedelko - Rhéologie Nekfeu - Cyborg Nekfeu - Feu Réédition Nekfeu - Les étoiles vagabondes expansion Nemzzz - NEMZZZ TYPE BEAT Records - Sleep Vol. 2 Records - Sleep Vol. 4 Neovaii - Aurora Neovaii - Closure Neovaii - Dawn Neovaii - Dusk Neovaii - Horizon Neovaii - In Time Neovaii - Onward Neovaii - Twilight</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Daddy Lord C</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>L’undaground s’exprime (Chapitre 1)</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>L'underground s'exprime ! C'est un freestyle fanatique comme un film avec un tas de pubs ! ... ... ...</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Daddy Lord C</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Ne joue pas avec le feu</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Yeah, yeah Ne joue pas avec le feu, sinon tu risques de te brûler La douleur équivaut quand Daddy Lord se met à hurler N'essaie pas de contrôler ce qui te dépasse à Gap Mon vocab te balade semblable à du tennis de table Sur le beat, sur le beat, yeah, sur le fonky beat, yeah Chaud devant de dent de mèche pour mttre fin à ton sketch? A l'aise, appréci mon cul sur un bon siège Un jour, vient faire un tour dans le 18ème sur la ligne 13 Il y'a pas plus teigneux qu'un bon mangeur de frite merguez Daddy Lord C, La Clique Ere sans paradis, sans enfer, ohh Ma pauvre vie s'étouffe telle dans un tombeau Cessez le feu, c'est un jeu qui peut blesser, ahh Ahh Rocca se réveille d'un coma Le micro est mon allumette, moi je suis la poudre L'explosif nocif peut éclater comme la foudre Les tambours sonnent, s'actionne la mise à mort des cons La Squadra de La Cliqua en cas de pépin répond Pour qui le feu enquille mon flow comme l'eau éteint les plus nerveux Eloignez moi des flammes et fait partir un coup de feu Le feu te brûle, alors tu hurles, avale la pilule Quand tu ris avec moi c'est parce que tu ne fais pas le poids Le mien est variable, basta, mais pour les meufs je reste acceptable Je deviens bracable, je le deviens quand je suis touché là Toi ça te fait rien, tant que tu ne te brûles pas les mains Tiens, prends-toi ça pour te refroidir au lieu de me maudire Pire, si tu as le sang chaud, éloigne toi de mon personnage Je suis en nage, je prends des risques et devant toi je voyage Tu mailles où que tu ailles, tu dis que je vie les orteils en éventail Tu me fais de la publicité mensongère Pourtant tu te dis mon frère? Trop fier, trop clair Trop jaloux, tu t'fais aussi les passes de ta pouf T'as les cheveux d'un fou, ta jalousie t'a rendu fou Double de dingo Ne joue pas Joue pas avec le feu, ne joue pas Ne joue pas Joue pas avec le feu, ne joue pas Ne joue pas Joue pas avec le feu, ne joue pas Ne joue pas Joue pas avec le feu, ne joue pas Ne joue pas Joue pas avec le feu, ne joue pas Ne joue pas Joue pas avec le feu, ne joue pas Ne joue pas Joue pas avec le feu, ne joue pas Ne joue pas Joue pas avec le feu, ne joue pas Pour le roi, le bus est là, non, non, non, ne joue pas, je ne suis pas le roi Mais tous ceux qui me prennent la tête, j'les remet à leur place Je n'aime pas tous ceux qui nous sous estiment, Bruno des Petits Gars Dans le rap, la taille ou l'âge n'a pas de place, alors kiff ça Rap, ah, je m'en passe sans prendre la position Dépassant tous ces bouffons qui me prennent pour un PA Un bouzin Rubest, ah, de mon pote Eli Mes coéquipiers me donnent la force pour rapper aujourd'hui Je suis encore une fois plus fort que toi Ne joue pas, ne joue pas, le petit boss fait la loi Yeah, yeah, represent, represent, uh, uh Au pays, des bandits comme dans tous les pays Je m'amuse, tu pleures, ils en rient Il y a des caille-ra et des reur-ti, ici Paris Craque une allumette et matte la tête que tu tires Tu joues les durs, mais moi je sais que tu transpires Encore pire, ça empire et tu cries au secours Comme une poule, quand un renard est dans la basse-cour Cours encore et tu vas finir par tomber En dehors du décor quand le corps à corps est imposé Abusé, qui t'as cru baiser? On t'avait prévenu Les grands de ton quartier t'avaient dit de ne pas jouer les tordus T'as perdu, t'as joué avec le feu, ta fin c'est de finir fumé Ecrasé comme un mégot dans un cendrier Si tu ne connaissais pas les règles du jeu Alors pourquoi t'as joué avec le feu mon vieux? Ne joue pas Joue pas avec le feu, ne joue pas Ne joue pas Joue pas avec le feu, ne joue pas Ne joue pas Joue pas avec le feu, ne joue pas Ne joue pas Joue pas avec le feu, ne joue pas Ne joue pas Joue pas avec le feu, ne joue pas Ne joue pas Joue pas avec le feu, ne joue pas Ne joue pas Joue pas avec le feu, ne joue pas Ne joue pas Joue pas avec le feu, ne joue pas Je prends la parole sur le mic sans que l'on m'invite Lady Laistee, la girly au micky dénonce trop de tasse-pé Femme sans s'arrêter, j'ai calmé le feu de la femelle sans respect, hah A l'aide des mots je malmène, la vile femelle qui se traîne Salis mon image, celle des filles de mon âge L'alchimie véner de la meuf qui causait foncky Je rends folle la tasse-pé, kill des keufs qui se raffolent Celle qui pour la notoriété, est prête à se donner Fait pas la belle t'es vilaine, moi j'encaisse pas ta dégaîne Simple sur le beat, pour les girly je rapplique Et t'explique, ne joue pas avec le feu Je butte les Zippo, crypto micro, Osez exploser Dynamite les pseudo MC's à l'eau de rose Comme mes po-zi, on les arrose à la racine carrée Mes rimes les rendent tarés, les sons de ma voix les noient comme une marée Fini les sentiments de concurrence, maintenant le français danse Ne compte pas t'en tirer sans en subir les conséquences La peau percée sur mes phrases on a laissé L'état semble sous le prix de mon silence n'a pas de coût Car il est d'ores et déjà hors de portée Sors de mon esprit, frère pour te contrer Laissez-moi rapper du haut des sommets Ecouter mon écho se répercuter jusque dans les vallées Même si je tombe dans une falaise Mes cordes vocales m'attacheront à l'aise au MC's à la Vèze Ho, go c'est pas du karaoké Tous les po-zi dans la party sont ok Represent pour '95, écoute, écoute Donne ta bourse ou je te course, dit la caille Passe-moi ton pascal ou je t'entaille Faut le fly-fly guy qui t'entaille comme une caille T'attaque au dico comme on t'attaque au couteau Moi je vois celui qui trime qui ne connait pas la Zim Dis moi ça sert à quoi de prendre un coup de couteau? Comme une poussée d'urticaire qui jaillit sous ta peau T'as pas de pot, j'vais te coller sur le beat si tu kiffes la techno Comme les zombies qui s'agitent la Gogo, voici le Voodoo Le Googoo met des coups de Haïti Tiens ton couteau comme un Voodoo, tu casses les cous Si tu joues les casses cous, go, tu joues avec le feu Yeah, yeah, yeah, yeah, check, check Ne joue pas avec le feu, tout feu, tout flamme à Paname Ne joue pas les bufs avec le feu, tout feu, tout flamme à Paname Bobo Rasta donne le mic, dédicasse a tous les po-zi qui font tchatcher Bobo, Rosin, Afrodi, tous les sons Ecoute , alaise qui checkent le mic Je le tiens dans le , écoute Allez, bouge , represent Et puis tous les MC's, écoute , on revient Check, check, check, check, check, check</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Daddy Lord C</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Né Pour Ça</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Rocca Né pour ça, rapper, R.A.P, ma religion c'est Croire en moi et se battre pour y arriver Du sang-mêlé, un esprit combattif, un guerrier Le messager des temps modernes, des Titan né pour ça, le microphone mon épée Excalibur, ma voix le bélier brisant n'importe quelle armée Raphaël Né pour ça, réveille les âmes même par les nuits d'orage Ma voix le magma venant des volcans les plus sauvages Le commencement du monde se fonde dans Ma rage des éclairs, ça explose de partout comme à la guerre Je suis passé par là, l'audimat reste ébahi Né pour me faire entendre, j'ai le flow qui envahit Daddy Lord C Né pour ça, faire les faires-a, forza qu'adore ça Au mic le yakuza qui te pousse à Réussir, le succès t'étouffe pas Tu bouffes quoi ? Pas de pushkas J'use ma voix, je pousse car du gâteau, je veux une des douze parts Quitte à ce que le concert, ce soir, parte en touze-par Car je compte pas voir mon nom seulement inscrit sur le mur au Poska Né pour ça, se battre pour pas finir dans l'oubli Rester dans la course, tenir tête, relever le défi MC, plus qu'une vocation, une philosophie Un don de la vie, le prolongement de nos anatomies En dépit de ce que les gens sur notre méthode de faire l'argent disent Jamais de bêtise sur la qualité d'la marchandise Rocca Né pour ça, rapper 24 heures sur 24 en soirée Le corps trempé de sueur, la voix niquée, la foule agitée Forcené, j'écris sans cesse pour aliéner le mal en moi Bouleverse mes courants négatifs Combats mes démons instinctifs Moitié-homme, moitié-bête magicien, je rentre en piste pour poser Tel un alchimiste qu'est enfermé pour créer Raphaël Né pour ça, tirer dessus de bonnes lattes mes yeux doivent pétiller L'âme obscurcie par l'occupation du moment Loin du stress, mon esprit décompresse Sous hasch Buddha est à l'aise comme dans une Benz Je fume pour m'élever, ma voix se faufile sur le vinyle Me laisse glisser par l'atmosphère ainsi je peaufine mon style Daddy Lord C Né pour ça, pour ceux que je donne ça à 100 au service du pur son Des purs gars, des pures gos, joues pas un mauvais tour gars T'auras besoin d'Urgo Mec m'en veux pas si mon flow me sert d'appât Malgré le succès, j'ai qu'un seul gosse qui m'appelle Papa Rocca Raphaël Né pour ça, gagner, sortir du béton, faire du blé Représenter, lâcher des productions bootleg Mon crew des vrais gars, un gang, mi familia Ma destinée para la vida J'y crois comme personne, sacrifie ma vie Le micro, j'ai choisi Juré fidélité et foi Honneur, respect es cosa nostra Raphaël Né pour ça, donner de la valeur À tout ce que je touche mon ardeur Hypnotiser le peuple, l'emmener dans un véritable bonheur Une sorte de lueur pour contrôler les humeurs C'est révélateur, mon flow rallie les jeunes de toutes les couleurs J'ai besoin d'oxygène, de son, de basse dans les baffles Mon rap est un besoin intense au même titre que la faim ou la soif Daddy Lord C Né pour ça, tu me diras, qu'est-ce que je sais faire à part ça Fringuer, ça fait peur ça, boxer, ça fait peur ça Voler, c'est pire, ça ! Ce qu'on veut, moi, mes compères, c'est Percer, remplir Bercy avec ma soul ton âme la bercer T'inquiète, je serai pas amer si tu t'amuses et dis pas merci Car à voir ça, c'qu'on a bouge la foule comme au foot, le Barça Né pour ça, se battre pour pas finir dans l'oubli Rester dans la course, tenir tête, relever le défi MC, plus qu'une vocation, une philosophie Un don de la vie, le prolongement de nos anatomies En dépit de ce que les gens sur notre méthode de faire l'argent disent Jamais de bêtise sur la qualité d'la marchandise</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Daddy Lord C</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>On Ira Tous Au Paradis</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Janvier - 0101 Aketo - Larmes de guerre 0101 Houari - La balafre - 0101 Keny Arkana - Viens mon frère Avant lexode 2 - 0101 Max Paro - Étoile filante - 0201 Pakigo - Rien ne va plus - 0201 Kepler - Booska'Batman 0201 2 Bal - MV3 ft. Demi Portion, Sinik, Swift Guad Viez - 0301 Atro 90 - Les 90 manèges - 0301 BR La B - Donner - 0301 JKSN - Freestyle Rapleader - 0301 WZ - J'vais l'faire - 0401 Uzi - Intro - 0501 Bitsu - RÉUSSIR OU MOURRIR - 0501 Salgrimo - Rapkèb - 0601 6rano - Tu connais ft. Capow 0601 BES - L'or noir - 0601 Esteban - Les Loups, Pt. 1 - 0601 Farlot - Booster Bleu - 0601 Gen - Le coin ft. Med - 0601 ICO - BBJTM - 0601 Venlo - Regarde ft. Caballero - 0701 Coelho - Nike - 0701 Georgio - Noir Paradis - 0701 Ichon - La vie - 0801 47Ter - OVGTC STAR WARS ft. Kikesa - 0801 Atro Boi - Le jour où on sera vieux - 0801 Chicaille Argenté - Force 0801 Dadou - 99's Mood - 0801 Doria - Oh Boy 0801 Goldee Money - Gilles de la Tourette - 0801 Gotti Maras - BX Drill 2 - 0801 Jayel - Braquage à la Lyonnaise ft. Sasso, Bambino47, Dener, Derone, Jrr, RD Mecra - 0801 Joysad - Venin - 0801 Mister V - Gas ft. Gazo - 0801 Mister You - La Costa - 0801 R.E.D.K. - SQOSLF 3 Je suis Marseille Remix - 0801 Taïro - Révolution Part. 3 Peuples - 0801 Zikxo - Temps 35 - 0901 FrenchCali - Trame - 1001 Aysko - Silver Haze - 1101 Onze - Oshod - 1201 Mapess - FREESTYLE HASSAL 3 - 1301 Benab - Au clair de la rue - 1301 Big B - Start - 1301 Gips - Briiips, Vol. 2 - 1301 Kekra - Realest HLM - 1301 Menavor - Malade 1301 Raous Gang - Visière teintée - 1301 S.Téban - Paris-Dakar ft. Alonzo - 1301 The S - Booska Square Bleu - 1301 La Ligne Bleue DOR - 34 extended - 1401 Chanje - Keur - 1401 Gazo - Kassav ft. Tiakola - 1401 Kenyon - Laisse-moi faire 1401 K.R.K - Aladin - 1401 Lazer MMZ - Y R R - 1401 Olazermi - Monkey ft. Stavo - 1401 ZKR - Booska Dans Les Mains - 1501 4 Sang - Pure - 1501 A2Z - Claire Chazal ft. Kalash Criminel - 1501 Ashkidd - DANS LA VILLE - 1501 Bilton - Chicha menthe ft. Booba - 1501 David Okit - Igo 1501 Fadah - Chaudar - 1501 Hatik - crashtest - 1501 Hunter - Jamais riche - 1501 Juss - A la base - 1501 Mécra - La rue 6 - 1501 Nanek - Fenêtre - 1501 Niska - Chargé - 1501 Slkrack - F.A.D - 1501 Still Fresh - THANOS - 1501 Thabiti - 13D ft. Solda, Graya, Djiha, Elams, SAF, AM La Scampia, Houari Kamikaz - 1501 Youv Dee - J'rêve - 1801 Frenetik - Odin - 1801 Guy2Bezbar - La Calle 3 Ça flingue - 1801 Nahir - Boosk'Araï - 1901 Pakigo - LA DIFF - 1901 Zuukou Mayzie - Sofie Fatale - 2001 Dinor - Booska Ronaldinor 2001 Esteban - Les Loups, Pt. 2 - 2001 Farlot - Booster Rouge - 2001 Gio Dallas - COMMENT FAIRE - 2001 H.LA DROGUE - SEKLENDLAND 2 - 2001 Kaneki - Freestyle Hall 1 - 2001 Kerchak - 9B - 2001 Klem - HANTE - 2001 Malo - Fake - 2001 Roms - J'avance - 2001 Wallace Cleaver - Hors de ma vue - 2001 winnterzuko - Wannacry - 2001 ZeGuerre - Des tals ft. Sifax - 2101 Chaman Sully - TOXIC - 2101 Dwen - Noir - 2101 Hayce Lemsi - Boson de Higgs - 2101 TLZ Clan - Papel - 2101 TRZ - Réel - 2101 Uzi - Cur abîmé - 2101 Youri - Normal - 2201 Ateyaba - Solitaires - 2201 Black M - César ft. GIMS - 2201 Cinco - Gangsta ft. Key Largo - 2201 Davodka - Fatality - 2201 Deadi - Banzaï - 2201 Golgoth - Ocytocine ft. Lutchelle Jasmine - 2201 HD La Relève - Alpha - 2201 Kore - Balafre ft. Ashe 22 Stavo - 2201 La Kadrilla - VAR - 2201 Liqid - Opération Shawarma - 2201 Malty2BZ - La mort en sachet - 2201 Rocé - Jingle Bells - 2201 Sadek - Labess - 2201 Santa - Boeing ft. La Fève - 2201 Scor Novy - Too Much - 2201 Sokuu - Laisse la partir - 2201 Tsew The Kid - Maladroit ft. Lefa 2201 Yassin - Hood - 2201 Zoyou - 98 - 2301 Gouap - Switch 3 - 2401 JNR - 59 US - 2401 Nara - Guess What ft. Realo - 2401 Tisco - Paire de TN - 2501 Leto - Double Bang 10 - 2501 Marty de Lutece - Sequence - 2601 Booba - RATPI WORLD - 2701 Graya - La Castellane 3 - 2701 Koffi Lossa - Paris c'est tragique 4 - 2701 Kpri - Barceloneta - 2701 L2B Gang - Melvin Williams - 2701 Sasso - Freestyle Kiwi - 2801 Busta Flex - EnTeam - 2801 Coelho - Ne m'en veux pas 2801 Gueule d'Ange - Los Santos - 2801 Josman - Fucked Up 4 2801 Hermano Salvatore - Focus - 2801 L'Allemand - Plus d'amour ft. DA Uzi - 2801 Mayo - Remontada - 2801 Nakk Mendosa - Boîte noire - 2801 Slimka - Headshot - 2801 Vin's - Liberté - 2901 91 All Stars - Gang gang ft. S-Pion Wejdene - 2901 Alonzo - FREESTYLE GALACTIQUE - 2901 Bakari - Panamera ft. Sofiane Pamart - 2901 Brvbus - Transac ft. Dinero - 2901 Dadinho - Sucré Dadi ft. Gazo - 2901 Doria - VRRR - 2901 Hash24 - Tom Jedusor ft. Quesse - 2901 Hebi - CUPID - 2901 Jayden - BIPOLAR - 2901 La F - Non Coupable 4 - 2901 La Peee - Diamant brut 7 - 2901 Michel - Nekete - 2901 Moha K - Zoné - 2901 Nahir - Le bus - 2901 Nakry - Du 13 au 06 ft. Mehdi YZ - 2901 Pirate 182 - Mozart - 2901 Prototype Plvs - Nikita - 2901 Stanis.Las - Popstar - 2901 Todiefor - Palpatine ft. Alkpote - 2901 Venlo - Faut que - 2901 Ya Levis - Pour moi ft. Franglish - 3001 Serane - Money Dance - 3001 Werrason - Mytho ft. Stavo - 3101 Ave Purple - Phéromones - 3101 i300 - SCAM - 3101 Roro la Meute - LA MEUTE 5 - 3101 Zbig - DLG 7 Février - 0102 Keehl - Attentat 0102 R.Keto - 23 ft. Kingzer - 0302 Chicaille Argenté - Boosk'Argenté - 0302 DTF - Bah alors - 0302 eden dillinger - ICARE ft. Wallace Cleaver - 0302 Gips - Nous ça va hamdou ft. Kamikaz Zbig - 0302 Hamza - Réel ft. Zed - 0302 Nixon - OneShot - 0302 Realo - START - 0302 S.Pri Noir - AR ft. Gazo - 0302 We Renoi - Guadalajara - 0302 Zamdane - Affamé 6 Vital - 0402 JNR - Booska Slice - 0402 LVZ - Brisé - 0402 R.E.D.K. - SQOSLF 4 - 0402 SCH - Marché noir - 0402 Swift Guad - Osirus ft. Cenza - 0402 Youssoupha - Astronaute - 0502 2TH - Il reste de l'espoir - 0502 Alonzo - FREESTYLE BRB - 0502 Benab - Confidentes - 0502 Boostee - Jeunes Tristes - 0502 Chanje - WDLT 0502 Denza - Gros lot ft. Captaine Roshi - 0502 Esteban - Les Loups, Pt. 3 - 0502 JSX - RATE-PI - 0502 Kore - Mango ft. Lacrim - 0502 Maska - Voie lactée ft. Lefa Lord Esperanza - 0502 Savage Toddy - Papillon ft. Alkpote - 0502 Kepler - Pefra ft. Gambino LaMG - 0502 Seth Gueko Stos - Trop parler peut tuer - 0502 Sofiane - Nouveaux parrains ft. Soolking - 0602 6rano - Tout et tout de suite - 0602 Doc OVG - La Frappe ft. La F - 0702 Jewel Usain - J'arrive - 0702 Tisco - Doucement ft. Brvmsoo - 0802 Fadah - Nid d'embrouilles - 0902 47Ter - Aline - 0902 Mécra - Johnny Drill - 0902 Vadek - Ambition - 1002 404Billy - 0 Terrain glissant - 1002 Biwaï - Palace ft. Jayel - 1002 DNDX - BALKANY - 1002 Gama Boonta - Grand gabarit - 1002 Kaneki - Freestyle Hall 2 - 1002 Kore - Gucci Versace ft. Heuss L'enfoiré - 1002 Kore - Pas bien ft. PLK - 1002 ICO - Dis pardon - 1002 Realo - Down Bad ft. Khali - 1002 Rim'K - Prototype - 1002 Rvzmo Sans pression 7 - 1102 DJ Quick - Coffre chargé ft. RK DA Uzi - 1102 Max DLG - L'avenue ft. Lilea - 1102 Oumar - Yeezy 1102 Ritchy 31 - Texas 1102 Raous Gang - Gso - 1202 Alonzo - CAPO - 1202 Alrima - C'est comment - 1202 Atro Boi - Hypocrite - 1202 Blaz Pit - QZQ 2 - 1202 Boumso - Danger ft. Timal - 1202 Chanceko - Gova - 1202 Davinhor - Pas de sentiments - 1202 Dika - Youleuh 6 - 1202 Djalito - Nouveau - 1202 GLK - Pas le choix ft. Kelle 1202 Gotti Maras - Freestyle Foot Korner - 1202 Gueule d'Ange - Ma moto ft. Sifax - 1202 Guizmo - Les codes - 1202 Hatik - mer - 1202 Hebi - OXYGEN ft. Myk - 1202 Ikyass Rémy - T'as capté - 1202 Joé Doèt Filé - Bien plus fort ft. Ya Levis - 1202 Kader Diaby 4real - Bon c'est l'heure - 1202 Keny Arkana - On les emmerde Avant l'exode 3 - 1202 Larsé - Canon scié - 1202 Luv Resval - Tout s'en va - 1202 Meryl - BB compte - 1202 Paolo - Parano - 1202 Sadek - Aller-retour - 1202 Seth Sad - Comment faire ? - 1202 Suzuya - Personne ne taimera plus que moi - 1202 Svudvde - Inconditionnel - 1202 Tovaritch - Terrain - 1202 Zidi - Goutte de pluie - 1202 Zikxo - N3 ft. RK - 1202 Zuukou Mayzie - Coach Carter - 1302 Eazy Dew - Humide - 1302 Fresh - La douille 4 - 1402 Bob Marlich - D.L.E.E.D.S ft. Ginger Apollo - 1402 Lalbizness - Kryptonite ft. Osirus Jack - 1402 Marty de Lutece - Souviens toi ft. Bolides - 1402 Mims - Les Nôtres - 1502 Roms - Chat noir - 1502 Ziak - Flocko - 1602 HV Manyy - Billets - 1602 KleoKatana - Spectrum - 1602 Nakry - Lewé - 1702 Jack Many - Ooooh...! - 1702 Mytix Yanké - Trap Drill 2 - 1702 Nyda - Chargé ft. Captaine Roshi - 1702 S.Pri Noir - En vrai ft. DA Uzi - 1702 Uzi - Boosk'Akrapovitch - 1702 Zamdane - Affamé 7 - Histoires de la vraie vie - 1802 Coelho - Cluster - 1802 Swift Guad - Salieri ft. Al'Tarba I.N.C.H - 1802 Tedax Max - Vite fait 4 - 1902 4 Sang - Sonar - 1902 Afro S - Cartouche 7 - 1902 B-NØM - Gang Freestyle - 1902 DTF - Pyromane - 1902 Gazo - BOOSKA POIGNARD - 1902 Hunter - Hélicoptère - 1902 J9ueve - Tous mes états ft. La Fève - 1902 La Peee - Rev Ange - 1902 L'As - Pesos E01 - 1902 Mayo - Impliqué - 1902 menace Santana - Full menace - 1902 Nahir - Comme avant - 1902 Ol'Kainry - Chapeauté - 1902 Santa - BOHÈME ft. KUHI - 1902 SDM - La vie de rêve - 1902 Sizlac - Armé - 1902 Slim Lessio - Wichita - 1902 Sonbest - Sacrifice - 1902 Still Fresh - MÊME SCÉNARIO - 1902 Tsew The Kid - Ailleurs - 1902 Vendredi 13 - Fatality ft. Kyû 999 - 1902 Vladimir Cauchemar - Les Professeurs ft. Seth Gueko Freeze Corleone - 2002 Dmh - Famix - 2002 Wassup Rio - Hellsing - 2102 Asad - Benzo - 2102 Bupropion - Du sang sur les yeux - 2102 Jwles - Juste des barres freestyle - 2102 Malo - Ernest - 2102 Taï Z - Depuis le départ - 2202 Achim - GDS 9 - 2202 Le7ept - Oublie - 2202 Louis Aoda - Je ne m'aime pas - 2202 We Renoi - Fort - 2202 Zikxo - JA Booska Hyène - 2302 eden dillinger - GOETHE OU GUTS ? - 2302 Mapess - Salass - 2302 Norsacce - Intro Marathon - 2402 BR La B - Trahison - 2402 Coelho - Booska Se7en - 2402 Djadja Dinaz - À cur ouvert - 2402 Guy2Bezbar - D.C.B - 2402 Moji x Sboy - R.I.P - 2402 NHSR - Chacun sa chance - 2402 Gips - Anna Kournikova - 2402 Pollux - Merge - 2402 Seven Binks - On arrose - 2402 Tiitof - Avec ou sans toi ft. RK - 2402 winnterzuko - cancel - 2502 Dala - 1V1CIBLE - 2502 Gambino - Cali - 2502 Hermano Salvatore - Polaroïd ft. Soumeya - 2502 ISK - Vérité 3 - 2502 Kalash Criminel - La main - 2502 L'Allemand - Depuis le départ - 2502 Lazzio - Miroir - 2502 Vin's - 2021 - 2502 Youssoupha - SOLAAR PLEURE - 2602 7 Jaws - Jusqu'à la fin ft. Vald - 2602 Caballero - Polaire - 2602 Colonel Reyel - Doggystyle - 2602 DIL - La bouteille - 2602 Dinero - Tout est clair - 2602 Fadah - Flash ft. Rakma - 2602 Fredz - Faits d'hiver - 2602 Hash24 - 34 cuir - 2602 Hebi - INFREQUENTABLES ft. John S - 2602 Hiro - Quatre secondes ft. Koba LaD - 2602 JeanJass - Qu'est ce qui m'arrive - 2602 Kekra - Phénomène - 2602 La F - Bendo ft. Sasso 2602 La Famax - Écharpe au nez - 2602 L'As - Tennessee - 2602 Liim's - Toute la nuit - 2602 Max D. Carter - Film The End - 2602 Nanke - Tout en black - 2602 Naps - La kiffance 2602 Oggy Nilz - JLC - 2602 Onze - 4 saisons - 2602 Peet - Out - 2602 Rocé - Han Solo - 2602 Serge Ibaka - Champion ft. Ninho - 2602 So La Lune - Lune City - 2602 Twenty9 - Sur les nerfs - 2702 1Lyre0 - Arkham - 2702 Cikey - Pars avec moi - 2702 H.LA DROGUE - SEKLENLAND 3 - 2702 Keny Arkana - Violence masquée - 2702 Le Risque - On y va - 2802 Jeune Loup - Shooter - 2802 Roro la Meute - Rétro Mars - 0103 LeBinksPoto - 3.30 - 0103 Niska - Gnonmi avec lait ft. Fior 2 Bior - 0203 Benzizou - Freestylizou 4 - 0203 Dosseh - Cardio - 0203 luXe - Hustlers - 0303 404Billy - 11 - 0303 Baby Neelou - Wake Up - 0303 Charles BDL - Freestyle TLP - 0303 Cop Oslm - Straat Drill - 0303 DJ Kayz - Masterclass ft. Landy RK - 0303 Jazzy Bazz, EDGE Esso Luxueux - Montecristo 0303 Rapi Sati - M3 Yankees - 0303 Kepler - Superman - 0303 S.Pri Noir - 7 vies ft. RK - 0303 Youri - Chute libre - 0303 We Renoi - La League - 0303 Wood - Plus besoin de - 0303 Zamdane - Affamé 8 - Hayati - 0303 Zbig - DLG 8 - 0403 Booba - Mona Lisa ft. JSX - 0403 Mayo - Nouvelle beuh - 0403 Savage Toddy - BooskaWayne Freestyle Booska-P - 0403 Slimka - Rainbow ft. Varnish la Piscine - 0503 47Ter - Avec toi - 0503 Aladin 135 - Sur Paname ft. Lesram Zikxo - 0503 Alonzo - FREESTYLE PELOTA - 0503 B-NØM - Cloche Freestyle - 0503 Brarda - Juste un peu ft. Joey Larsé 0503 Dry - Atlantis 3 0503 Dwen - C bon déjà - 0503 Hatik - waï - 0503 Kore - Gambas ft. Sadek - 0503 L'As - Ça passe - 0503 Loveni - Xxlov - 0503 Max DLG - Pars de là 2 - 0503 Mécra - Faites Percer Mecra - 0503 Mehdi YZ - Il est matrixé - 0503 Rethno - Catégories - 0503 Slkrack - Cru ft. La F - 0503 WZ - Street West 2 - 0503 X-Sphère - Damn - 0603 Chow Chow - Ma copine ft. La Fève - 0603 Kima - Tralala ft. Stos, Tiguere 635 Seth Gueko - 0803 Doria - Leçon - 0803 Falcko - Tu lui diras - 0803 Negrito - Tout va mal - 0803 Retro X - MISFIT - 0803 Rsko - Sal histoire - 0903 Criminils - WW3 - 0903 M7S - RATPI1 - 1003 Ashe 22 - Cro cop - 1003 Deeloc - Rétro ft. Freeze Corleone - 1003 Fresh - GTA 20 - 1003 Hatik - à la mélanie - 1003 H Magnum - Te quiero - 1003 Ichon - Domino - 1003 Kaneki - Freestyle Hall 3 - 1003 Neskoo - Comme Philip - 1003 Realo - LITTLE EYES - 1003 Reta - Gucci Mane - 1003 Seth Gueko Stos - Booska Viking - 1103 Arma Jackson - Distance ft. Tayc - 1103 Clacky - Fausse vie - 1103 Golgoth - Drippin ft. ISHA - 1103 Pirate - Grincheux 6 Atlanta - 1203 Bolémvn - Swipe up - 1203 Bushi - Mistral - 1203 Dadinho - Beretta - 1203 Denzo - La pépite - 1203 Dry - Hollywood - 1203 Elh Kmer - Ennemis - 1203 Gambino - Jalousie - 1203 Gotti Maras - Bx Drill 3 - 1203 Hebi - Un peu plus de love - 1203 Kaaris - Château noir - 1203 Kaza - Certifié Toxic 1203 La Peee - Balle dans la tête - 1203 L'As - Quand il pleut 1203 Lpee - Lumière - 1203 Marty de Lutece - Die Hard - 1203 N3MS - Inédit 2 - 1203 Nass 10 - Danger ft. La F, Bambino47 Jrr - 1203 Rohff - Doux-bail - 1203 Smeels - We Just Vibe 1203 Squadra - Charbon - 1203 Suzuya - Suzuya le vampire - 1203 Thabiti - Baltimore - 1203 TripleGo - Ketama 2 - 1403 Zuukou Mayzie - Pourquoi pas ft. Timothée Joly - 1503 Kenyon - Bossman - 1503 Le Risque - C'est pas pour rien - 1503 Neskoo - Cash Money - 1503 SCH - Loup noir - 1503 TLZ Clan - Skk - 1703 143 - Warning! ft. Nyluu - 1703 7.62 - Mode de vie - 1703 Almas - Toujours plus ft. Fresh LaDouille - 1703 Bekar - Chromé - 1703 Dmh - Quartiers Nord - 1703 Douma - À l'affût - 1703 Gambino - Booska TND - 1703 Gianni - Tout perdre ft. Dadju - 1703 Gims - Pyongyang ft. Inso 1703 Grizzly 942 - Freestyle signature - 1703 Jazzy Bazz, EDGE Esso Luxueux - Non-stop - 1703 MadeInParis - Champagne ft. Captaine Roshi - 1703 Moubarak - On a dit ça ft. Toxic Jah Fullah - 1703 Naps - Sans limites ft. JuL - 1703 So La Lune - Freestyle Theia - 1703 S.Pri Noir - Juicy ft. sean - 1703 Squidji - INSTA - 1703 Zamdane - Affamé 9 - Grrr - 1803 Ashe 22 - X3 ft. Gazo - 1803 DTF - Dans ma fonce - 1803 Kerchak - Demande à biggy 1803 Nyda - VDV - 1803 Sid les 3 éléments - Perquise - 1803 Slkrack - Vittel ft. Junior Bvndo - 1903 4 Sang - TRICERAPTOR - 1903 Atro Boi - Monochrome - 1903 B-NØM - État des lieux - 1903 Dellati - No lie - 1903 Dibson - Différent 1903 Djeiz - Mitch - 1903 Eden Seven - 365 X 0.5 - 1903 Fadah - Autre chose - 1903 Jewel Usain - T'es qu'une merde - 1903 Kalash - Donner - 1903 Kamikaz - Piraterie - 1903 Kurtys - Toi ft. Driks - 1903 La F - En vrai - 1903 L'As - Pull up - 1903 Lascaar - Marabout 2 - 1903 Laws Babyface - Virago - 1903 Liim's - Tokarev - 1903 Lorage - Arcane - 1903 Miklo - Ami Ennemis - 1903 Olazermi - FSR 5 - 1903 SAF - Je t'emmène - 1903 Scylla - Chanson d'amour - 1903 SDM - Van Damme - 1903 Sper-K - Le tour de la zone - 1903 Vendredi 13 - Gang - 1903 Zeu - Lincoln - 2003 LKDM - Golem ft. Lucio Bukowski - 2103 Chinwvr - Imagine un monde - 2103 Lemon Haze - J'encaisse - 2103 Mac Seamus - Halo - 2103 NKP - Ozi 2203 Farsenne - Dans ma tchop - 2303 Kodes - Avoir Être - 2303 Niaks - Gog Magog - 2403 404Billy - 22 Oligarchie - 2403 Gips - L'avocat - 2403 ICO - Señorita ft. Just Riadh - 2403 Madrane - Killer ft. Brulux - 2403 MV - Bass Music ft. Slimka - 2403 Pollux - Paramètres - 2403 S.Téban - Audemars - 2403 Tovaritch - Street Fight ft. Kalash Criminel - 2403 Youssoupha - Booska Prims Carrelage Congolais - 2403 YUNG POOR ALO - Des AR et des rides - 2503 Chanceko - Aquaman - 2503 Deadi - FDP - 2503 Gama Boonta - Mars Madness - 2503 Georgio - Danse 2503 Hache-P - Big billets ft. Chily - 2503 Lucio Bukowski - OUJDAT ft. Nedelko - 2603 1decis - Bitume - 2603 3e Souffle - Shooter - 2603 7.62 - GVNG - 2603 Amar - 3AM - 2603 Amin - Prince de Perse - 2603 Asad - All black ft. 6osy - 2603 Black Jack OBS - Bloots Pt. 1 ft. 2key, Badem, RAS, R.W.O, Shaka Doc OVG - 2603 Boub'z - Rotterdam - 2603 Box - Ma vie - 2603 Caballero - Bethleem - 2603 Davodka - Misanthrope 2603 Hardos - Dans la ville ft. Bakhaw - 2603 Hermano Salvatore - Guérir ft. Vin's - 2603 ISK - Vérité 4 - 2603 Jay Jay - Malewa - 2603 JNR - Les ruelles - 2603 Josué - TMTC - 2603 Jwles - Uzine ft. V900 Mad Rey - 2603 Larry - Booster - 2603 Lpee - Sur la côte ft. Moken - 2603 Maxi Jay - HOLD UP - 2603 Mims - Bingo ft. Todd - 2603 Moha K - Vroum Vroum - 2603 Princesse - Combien de temps 2603 Tissmey - Tripoli - 2603 Unité - Besoin d'aide ft. KaNoé, Shotas, Negrito, Cinco Kazmi - 2703 Carbonne - Ocarina - 2703 Lucio Bukowski - Kiyome No Shio - 2803 Lemon Haze - Quadrillée - 2803 menace Santana - Skiboy - 2803 Nueve Sid - Coffré - 2803 Sid les 3 éléments - Ça débite - 2903 Caballero - Goût du beurre - 2903 La Voix - SAUVE-QUI-PEUT - 2903 M le Maudit - Galliano 3003 Elflaco - À la cité - 3003 Gambino - Wesh wesh - 3003 Guy2Bezbar - Business - 3003 Henri Bleu - Démons et merveilles - 3003 TLZ Clan - Four - 3103 Clacky - Thème - 3103 Goldee Money - Face to Face - 3103 Kaneki - Freestyle Hall 4 - 3103 Kepler - Guedin ft. Leto Cheu-B - 3103 Kodes - Freestyle Stupid 3103 Ritchy 31 - Tu m'as dit non - 3103 Roms - CRS - 3103 Sasso - Napoli - 3103 Soso Maness - Zumba Cafew - 3103 S.Pri Noir - Hacienda - 3103 Thabiti - Booska Comorien-Corse - 3103 Zamdane - Affamé 10 - Athéna Avril - 0104 1PLIKÉ140 - BELEK - 0104 AnNie .Adda - RAZZIA ft. PR - 0104 Balafré - Guernica - 0104 Bando - Wesh gros Remix ft. TK, ZeGuerre, Kepler Gueule d'Ange - 0104 Chanceko - Skrt Skrt - 0104 Dala - Démons - 0104 Jwles - Grand 3 Freestyle ft. Le Lij Bob Marlich - 0104 Malo - Khabib - 0104 RK - Dangerous - 0104 Roro la Meute - J'me barre - 0104 Slim Lessio - La vie - 0104 Vin's - J'rappe - 0204 7 Jaws - Tchilili - 0204 Black M - N.S.E.G - 0204 B-NØM - Paradise Freestyle - 0204 Butter Bullets - Miles Davis - 0204 Dabs - Comme Jeff - 0204 Denzo - On smoke ft. Mig - 0204 Dina - Unfollow - 0204 HV Manyy - Cash - 0204 Jayden - FLAMME - 0204 Keny Arkana - Anomalie Avant lexode 4 - 0204 KT Gorique - Long Time - 0204 La Famax - Faut du yellow - 0204 La Fouine - Sacoche - 0204 La Miellerie - Gimmick ft. ISHA Nixon - 0204 Loveni - Personne - 0204 Lucio Bukowski - CHEH ! - 0204 Marty de Lutece - Mal au cur - 0204 Moha MMZ- Mode - 0204 R.E.D.K. - Simple Constat 7 - 0204 Rousnam - Correction 7 - 0204 SLK - Que du benef ft. Sifax - 0204 Smeels - Bleu ciel - 0204 S-Pion - Bye bye ft. Dinor Rdt - 0204 Ysos - Pas le peine ft. Youv Dee - 0404 JMK - No Kap Freestyle 2 0404 Lemon Haze - Branché - 0404 Mapess - Fleury - 0404 Sadek - Scottie Pippen - 0504 Gims - GJS ft. JuL SCH - 0504 Lesram - Wesh Enfoiré 1 - 0504 Tisco - Dans la sauce 2 ft. Madrane Yoro - 0504 Winterfell - SARKOZY ft. Kepler Leto - 0604 Damso - Javais juste envie décrire. - 0604 Gips - Bichoute - 0604 Guizzi - La fame les sous - 0604 Lucio Bukowski - THE WIRE - 0604 Niska - Bolivienne - 0604 Souffrance - Étoiles filantes - 0704 2zer - ViperGTS - 0704 Alonzo - FREESTYLE MANDAT 0704 Djibz - Kilo - 0704 Elams - Thug life - 0704 Graya - Gang - 0704 Hippocampe Fou - Wiki Freestyle 0704 Laro - Captain - 0704 Leo Roi - Instagram - 0704 menace Santana - Michael Myers 0704 Rousnam - Ma force - 0704 Sadek - Robuste - 0704 Sid les 3 éléments - La vie de rêve - 0704 Tiitof - Bad Boy 0704 VV - Orlinski - 0704 YL - Larlar 5 Yamine - 0704 Yzla - Never - 0804 Ashe 22 - Scellé Part. 3 ft. Freeze Corleone - 0804 Bolémvn - GUCCINIKE SANKHARA 6 - 0804 Cookiesan - Esprit shonen ft. D. Ace - 0804 Di-Meh - 4x4 Diplomatique - 0804 Dosseh - Doaveli 1 - 0804 Dwen - Keta 0804 Grizzly942 - Tayeb Meziani - 0804 Mehdi YZ - Booska FPVS - 0804 Pirate - Street Mood - 0804 SAF - Deal Stream ft. Gambino LaMG - 0804 SDM - Daddy ft. Booba - 0804 Vladimir Cauchemar - BRRR ft. Asdek, Laylow Rim'K 0904 3010 - SYMBOLIQUE - 0904 34murphy - recon1 - 0904 Akhenaton - La faim de leur monde - 0904 Atro Boi - Secrets ft. Timea - 0904 Davinhor - Sugar Daddy - 0904 DJ Flash - Sans limites ft. GLK Mula B - 0904 Dry - Fraté ft. Le A - 0904 Eden Seven - X - 0904 Fababy - Comme les grands ft. Still Fresh - 0904 Gama Boonta - Memphis ft. Dawg Sinatra - 0904 Gen - Blanc des yeux - 0904 Hös Copperfield - Alloco - 0904 ISK - Cités de France ft. Sofiane - 0904 J9ueve - Distanciel 0904 Kader Diaby 4Real - Pish-pish ft. Cinco - 0904 Kamikaze - Abysse 0904 Kozi - Tête brûlée ft. Denzo 0904 K.S.A - Tractions ft. Slimka - 0904 La F - Prix ft. Norsacce - 0904 Liims - Angelo - 0904 JeanJass - Ovni - 0904 Kaza - Bandida - 0904 Le Risque - J'descends - 0904 L'Or du Commun - Négatif 0904 Lpee - Love ft. Chat Noir - 0904 Maj Trafyk - Étoiles filantes - 0904 Mécra - Tom Sawyer - 0904 Miklo - Corleone - 0904 Naza - Ma play ft. Keblack Naps - 0904 OldPee - 123 - 0904 Opinel 21 - Port d'arme - 0904 Pakigo - Seul 0904 Reynz - Bleu Hôtel - 0904 Rocé - Cxpitxlistes - 0904 Shotas - La capuche 7 - 0904 Smily - Amour noir - 0904 Suzuya - Meurs Cupidon, meurs.. - 0904 Taïro - Gamekilla ft. Amø - 0904 thaHomey DirtyIceBoyz - ANOTHER KID - 0904 Verso - Famille ft. 313 - 0904 Yonidas - Instinct - 0904 Zuukou Mayzie - Kevin Mitnick ft. Osirus Jack 1004 LSK - Tonnerre ft. Captaine Roshi CR - 1104 Niaks - Commission rogatoire - 1104 Nyluu - Hellcat ft. Uliss - 1104 S.Pri Noir - Assermenté ft. Mister You - 1104 Zizou - La galère - 1204 JeanJass - GOJJ - 1204 Keehl - Attentat II - 1204 Haristone - Si tu me mens - 1204 H.LA DROGUE - SEKLENLAND 4 1204 Kenem - Views - 1204 Malo - Retrograde - 1204 Seven Binks - Valeurs B - 1204 ZeGuerre - Plus rien à faire en bas - 1304 Jazzy Bazz, EDGE Esso Luxueux - Fascinant - 1304 Kodes - Booska Voyou Freestyle Booska-P - 1404 404Billy - 33 Chargeur vide ft. Frenetik - 1404 Beendo Z - . INSPIRÉ DE FAITS RÉELS 1 - 1404 Doxx - Je sombre - 1404 Gio Dallas - TAPE TAPE - 1404 Hyacinthe - Juice WRLD - 1404 Le Croc - Bleu - 1404 Les Grands Enfants - EMO CITY 1404 Slkrack - Gestion Pt. 2 - 1404 Squidji - OXYGÈNE - 1404 Zamdane - Boosk'Affamé - Photogénique - 1504 47Ter - J'essaie - 1504 Azur - Odyssée - 1504 Chanceko - Bombastic - 1504 Dosseh - La vie d'avant - 1504 Flaco Mundo - 7 - 1504 Ormaz - REFLEXE - 1504 Sto - FEU - 1504 Youena - VISEUR 1604 3010 - PREMIÈRE HEURE - 1604 Baka - Neuf - 1604 Bakari - SoloBinks 1 Détonation - 1604 Don Max - Abysses ft. FullBaz Sheldon - 1604 Fiji God - Boss Final - 1604 Hotel Paradisio - L.A.Z - 1604 Le Sid - Hypnotise - 1604 Med Leska - FRIC - 1604 Moji x Sboy - Medecine - 1604 Negrito - Ou bien ? - 1604 RK - Demain 1604 Roms - Booska Prendre - 1604 Sokuu - Des fois - 1604 Southlove - Air France - 1604 Squadra - Guadalajara - 1604 Svudvde - Corrida - 1604 Tissmey - Petit locksé - 1604 Vadek - Chromée 1604 VVES - Warrior - 1604 Zek - Mystique - 1704 Yanns - Elvira - 1804 Jwles - Pantalon De Ski - 1904 Achim - GDS 10 1904 Ambitiou - Mineur ft. Cinco Dadou - 1904 Rafal - Zone - 2004 Biffty - Démonté comme jamais - 2004 M7S - RATPI2 - 2004 shooda - Tous les soirs - 2104 2zer - Sans demander ft. Framal - 2104 Estaban - Binksky 2 - 2104 Franglish - Caviar Freestyle 2104 H-LO - Viser le mille - 2104 Sirap - Brockboi - 2104 Sirap - Woodstock - 2104 X-Sphère - Fleuve - 2204 Benjamin Epps - Notorious - 2204 Box - Réel - 2204 Deeloc - Murder ft. Cinco - 2204 i300 - Pop Wow - 2204 Gambino - Khamsa - 2204 Georgio - Vers le haut - 2204 Guy2Bezbar - Booska Flingueurs - 2204 Realo - HAZE - 2204 Sally - SHOOT ft. KANIS, Chilla, Joanna, Alicia., Vicky R - 2204 So Clock - Petit nuage - 2204 Swift Guad - Petit monstre - 2304 3010 - PRETTY LADY - 2304 3e Souffle - Mélodie - 2304 Bakari - SoloBinks 2 Pilon - 2304 Butter Bullets - Peu importe 2304 Changerz - Stereo Love - 2304 Dibson - Gasolina - 2304 Frenetik - Ragnarok - 2304 Gen - La vie est belle - 2304 Jewel Usain - Paw Patrol - 2304 Jok'Air - Oh nana ft. Naza - 2304 Kalash - Oula - 2304 Key Largo - Papi - 2304 KT Gorique - Servante Ecarlate - 2304 L'Allemand - À la base - 2304 Projet 1411 - Mon cur dans le tien ft. Yung Dee Lapostroz - 2304 Santa - Face ID ft. J9ueve - 2304 Shien - Bâtiment - 2304 SOPA - Ivresse - 2304 Stanis.Las - Minimum - 2404 Batboy - Buzzy Mama ft. Zther Menavor - 2504 Sreen - Batman - 2604 Klem - LES GENS - 2604 Leith - Lalala - 2604 Sofiane - Zidane - 2704 Bekar - Sécurité - 2704 Klem - Autre monde - 2704 Le7ept - V.V.S - 2804 Balao - Pression - 2804 Giacomo - Fauve - 2804 Klem - Froid - 2804 Koffi Lossa - La coach - 2804 Lesram - Wesh Enfoiré 2 - 2804 Marty de Lutece - Tes yeux - 2804 Mig - Criminel ft. ISK - 2804 M le Maudit - Larmes de diamant - 2804 Realo - BOSS MOOD ft. Khali - 2804 Twenty9 - La suite - 2804 YUNG POOR ALO - NOIR PRADA - 2904 Klem - Avant - 2904 Prime - KELAWIN - 2904 Slimka - Hollywood - 3004 3010 - VOXPOPULI - 3004 Aamar - Paramour - 3004 Atro 90 - Mage enchaîné - 3004 Bakari - SoloBinks 3 Impliqué 3004 Beriz - Cur Pique - 3004 Bramsito - Ciudad - 3004 Daba - Tant de fois - 3004 Eddy Woogy - Écoutons François - 3004 Farlot - Plavon - 3004 Gips - Bourré la gueule 3004 Hös Copperfield - CDQDOP - 3004 i300 - Pop Wow - 3004 Jeune LC - Paris Nord - 3004 Josué - Survis ft. Captaine Roshi - 3004 Joysad - Tous les coups sont permis ft. Sofiane - 3004 JSX - Papel - 3004 Klem - Cauchemar - 3004 La Plaie - Dans la ville - 3004 Lpee - Kanye - 3004 Maka - Noir - 3004 Miklo - Longue vie - 3004 Moona - Validée - 3004 Paco - Petite boule bleue - 3004 Palmae - Blue Velvet - 3004 QCLTUR - QCLTUR ft. Raccoon, Connaisseur Ticaso Barnev - 3004 Shaga - Whisky sans glace - 3004 Soso Maness - DLB 13 - 3004 S.Pri Noir - Savage ft. Goya - 3004 USKY - Satin - 3004 RD 1.9 - Frank Lucas - 3004 Zalmad - Coco Mai - 0105 Klem - Loin - 0105 Souffrance - Racialiste - 0205 Anglade - 3 Filtres - 0205 Klem - Dernière - 0305 Achim - GDS 11 - 0305 Georgio - Booska Sacré - 0305 Mayo - Risques - 0305 Pxrselow - Dis-moi que tu ne m'aimes pas - 0405 Senju - Sabre noir - 0505 404Billy - 44 Oh shit - 0505 BlackTria - Totem - 0505 Georgio - Full moon ft. S.Pri Noir - 0505 Larsé - Flow - 0505 Lazuli - No Me Tocas - 0505 Luv Resval - Boosk'Anakin 0507 Nyda - Lovés ft. KR Malsain - 0605 6rano - C'est chaud Remix ft. Sopico, Limsa, Shut!, Rozoo, Double Zulu, B.e Labeu, Nadji Dinero John Dess - 0605 Captaine Roshi - Momonosuke Freestyle Dragon 1 - 0605 Green Montana - BB part. 3 0605 Junior Bvndo - ZOO 1 Toute la night - 0605 Luni Sacks - Mexique Freestyle - 0605 Sheldon - Monde - 0605 Souffrance - 93ème zone - 0605 Squidji - STRIPPER - 0705 A2H Le Sid - Dreams ft. badchieff - 0705 Arma Jackson - Comme d'habitude - 0705 Black M - À la tienne - 0705 Booba - KAYNA - 0705 Davodka - TVPLM - 0705 Dee Eye - L'italien ft. Caballero JeanJass - 0705 DJ Quick - La recette ft. Leto Bolémvn - 0705 Franglish - Pénélope ft. D-Block Europe Yxng Bane - 0705 Hotel Paradisio - OKKOTO - 0705 Kaeles - Trou Noir - 0705 L'Or du Commun - Sable ft. Lous and the Yakuza - 0705 Lorenzo - Légende vivante - 0705 Luv Resval - MPC, Part II La rivière - 0705 Michel - La sauce - 0705 Ratu - Entretien - 0705 Ratu - Surtaxe - 0705 Roméo Elvis - TPA - 0705 thaHomey DirtyIceBoyz - KARATE KID - 0705 Vadek - No melody - 0805 Gambino - Amnésia - 0905 Atro 90 - Goût des îles - 1005 Di-Meh - Bleu pâle ft. Lefa - 1005 Kounta - Le temps - 1205 Gama Boonta - Colbac - 1205 Hiro - Anéanti - 1205 Hyacinthe - Cur chromé ft. Chanje - 1205 Le Croc - Quartier ft. VillaBanks - 1205 Lujipeka - Putain d'époque ft. S.Pri Noir - 1205 Mac Seamus - COMA - 1205 Yannou JR - J'suis zen - 1205 Zamdane - Affamé 12 - Sentimental - 1305 3010 - BAHOE - 1305 6811 - Mauvais Side ft. Sokuu LAY ZY - 1305 BEN plg - L'eau des mirages - 1305 Chinwvr - C'était mieux après - 1305 Elyon - Le noir du coeur - Flux 4 - 1305 Freeze Corleone - Polémique ft. Central Cee - 1305 Guizzi - Soirée - 1305 menace Santana - Freestyle Covid 19 - 1305 Retro X - XDIG8 - 1305 Tisco - Lakers - 1305 Tovaritch - Vodka - 1405 Bambino47 - 147 - 1405 BGL - Qui - 1405 Butter Bullets - Mercedes rose ft. Limsa d'Aulnay - 1405 Dabs - Belle Audi - 1405 DA Uzi - Fermez-la - 1405 Denzo - Trop dedans ft. Koba LaD - 1405 Doria - Plus personne - 1405 Fiji God - Kkvsh - 1405 Guy2Bezbar - La Calle 4 Favelas de Paname ft. Leto - 1405 HD La Relève - Mamma mia - 1405 H Magnum - ÉcolO.G - 1405 Jamaz - Aisance - 1405 Khali - LA TOILE - 1405 Kingzer - Ouh ft. Lirickal - 1405 KT Gorique - Djessimi Djeka - 1405 L'Algérino - Sapapaya ft. JuL SCH - 1405 Larry - Sirène - 1405 Mécra - Principes et valeurs - 1405 Popey - Freestyle Anonymat - 1405 Prototype - Mundo ft. Cinco - 1405 Sam's - Pour quelques dollars de plus - 1405 Sasso - J'en veux encore - 1405 Sofiane - Attrape-moi si tu peux - 1405 Sten - J'comprends pas - 1405 Still Fresh - POR FAVOR - 1405 Sysa - Cest nous la cité 5 1405 Taïpan - Blue ft. Edsun - 1405 TRZ - Sinister - 1405 Yara - Plan B - 1405 YG Pablo - Ellipse, Pt. 1 - 1605 667 - 669 Part. 2 ft. Lyonzon - 1605 Dribo - Instable - 1605 Henri Bleu - Nuage Rose - 1605 Kima - 17 ft. Kalash - 1605 Malo - 20 1605 Tedax Max - Vite fait 5 ft. Brazzerzaky - 1705 Benzizou - SCAR - 1705 Klem - Souvenirs - 1705 Kounta - Le manque - 1805 Ashe 22 - Bicrav bitch - 1805 Freeze Corleone - Téléphone - 1805 Paco - Corps âme - 1805 USKY - Sextasy 1905 Gips - Henini ft. Thabiti - 1905 Klem - Mortel - 1905 M le Maudit - Khedira - 1905 OBOY - No blata - 1905 Pollux - SHINE - 1905 Sofiane - Windsor 1905 S.Téban - Palénoms - 1905 Wallace Cleaver - 39C - 1905 Ziak - Galerie - 2005 Bekar - 6 Hours - 2005 Bolémvn - DM ft. Dinos - 2005 Gambino - Voyou - 2005 Junior Bvndo - ZOO 2 On a faim - 2005 La F - Que d'la mula - 2005 Nyluu - Home - 2005 Sid les 3 élements - Homicide 1 Tous les jours - 2005 Souffrance - Simba - 2105 7.62 - K-WAY - 2105 Alkpote - Crânes Ossements ft. Diddi Trix, Nahir, Ouss Wayne 88Kvly - 2105 Chuki Beats - Couvre feu ft. Frenetik, Geeeko YG Pablo 2105 Cinco - DD 2105 Earvinho - Sarah Fraisou - 2105 Felipe - PTN - 2105 Franglish - Baby mama - 2105 Gianni - Calmant - 2105 Gotti Maras - Nous - 2105 JMK - MRS ft. Zamdane - 2105 JuL - Irréversible - 2105 Keny Arkana - Parole Vraie Projecteurs Avant lexode 5 - 2105 Kikimoteleba - Tigini - 2105 Le A - La foudre - 2105 Leonis - Banlieue sud-est Sherhood 1 - 2105 Livaï - Soleil transparent - 2105 Loveni - Lipgloss ft. MV - 2105 Lyonzon - Gang Gang 2105 Mac Tyer - Binks ft. Rémy, 2G Ikyass - 2105 Moha MMZ - Pourri dans l'âme - 2105 Moji x Sboy - Chimique ft. Luv Resval - 2105 Noname - MDB - 2105 Sokuu - Une place pour toi - 2105 SOPA - N l'amour - 2105 Soso Maness - Les derniers marioles ft. SCH - 2105 Soumeya - Mon instinct - 2105 Todiefor - Fuck les cops ft. Meryl - 2105 Verso - Amigo Amiga - 2105 Zeu - 1UP - 2305 Hipo - Rupture - 2405 Kounta - L'argent - 2506 Klem - Vide - 2506 Sokuu - Monte dans la gov - 2605 Balafré - Gang 2 - 2605 Deeloc - Deuxième sommation - 2605 DJ Weedim - Lifestyle ft. Swift Guad, Oxmo Puccino, Youthstar, Youri Deadi - 2605 eden dillinger - ALLO - 2605 Hache-P - On va les dja - 2605 Jayel - Easy - 2605 Koffi Lossa - Bobby - 2605 Nemir - Vibes - 2605 Rounhaa - Dubaï - 2605 Sirap - Ah bon - 2605 Zidi - Pleine danse - 2705 Brav - Merci 2705 Doni M - Destinée - 2705 Green Montana - Évidemment ft. SDM - 2705 Les Grands Enfants - PEGASE - 2705 Lost - Dollars canadiens - 2705 Hyacinthe - À demain peut-être - 2705 Luni - Asocial. - 2705 M7S - RATPI3 - 2705 MHD - Afro Trap Part. 11 King Kong - 2705 Nero Dee - Khaleesi - 2705 Pirate - Popo - 2705 RK - Menotté ft. Landy - 2705 Sid les 3 éléments - Homicide 2 Porte 18 - 2705 Tedax Max - J'te jure - 2705 Tiakola - Pousse-toi - 2805 1PLIKÉ140 - COCHI - 2805 Anas - Hania - 2805 Booba - Plaza Athénée - 2805 DIL - Vin Diesel - 2805 Dina - Comme dans les films ft. Uzi - 2805 DJ Kayz - Bled ft. Moha K - 2805 Dr. Yaro La Folie - CDVV ft. Naza - 2805 Eline - Acolyte - 2805 Enfantdepauvres - EDP - 2805 Heuss L'enfoiré - BX Land 6 - 2805 Jewel Usain - Ça va rentrer ft. Ysos - 2805 JS - Pas de love - 2805 KeBlack - Billets mauves - 2805 Kepler - Bad Bitch - 2805 Malty2BZ - Drill 4 - 2805 Mig - La 6T - 2805 R.E.D.K. - S.O.M - 2805 Rvzmo - JB ft. ML270 - 2805 Shotas - La capuche 8 - 2805 S.Pri Noir - Sarah Co</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Daddy Lord C</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>On se retrouvera</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Association de MC causant pertes et fracas On se retrouvera, je serai à la prochaine étape Association de MC causant pertes et fracas On se retrouvera, je serai à la prochaine étape Association de MC causant pertes et fracas J'ai pas l'temps d'trainer, de m'faire freiner Dans les sales plans m'laisser entrainer Avant de crever, de bonnes rimes j'viens t'abreuver La rime, mon brevet J'représente pour toi partout ou j'vais J'fais, j'effectue, j'produis, j'nique les faux-culs Hypocrites tordus Fallait qu'ça cesse frangin, que certains l'disent Avant qu'ça s'produise Qu'ils prennent le dessus J'voulais pas douter que tu sois déçu Qu'leur vécu de bagnard inventé Changent nos idéaux Qu'là où on vit soit transformé par des récits d'faux Tu sais d'quoi j'parle, deux ans qu'le hip-hop part en dérive Y'a plus d'morale Le rap n'est plus que meurtre et freestyle Plans mythos d'histoires bateau Chacun se bataille, se bastaille Un passé d'caille rempli de représailles Trop de félons, gars Révolution, j'créerai comme Malcom X, une troupe d'élite Entrainée de rappeurs déchainés De gardiens, si pour la paix faut que j'prenne les armes Tu seras mon guide, mon bras, mes yeux comme mon crew et ma voix Mon guide, mon bras, mes yeux comme mon crew et ma voix On sait que la où t'es, tu r'gardes nos vies Et puis tu souris comme un gardien Au panthéon du Hip-Hop français East, un nouveau but, un nouveau cap On se retrouvera, je serais à la prochaine étape Chaque étape, j'mouille le maillot Réfléchis, cogite, tourne la mayo Aiguise le crayon pour qu'le pognon tombe Façon de varier tôt sur ma poire ou parier Soit pas contrarié J'lâche les cahiers et ça y est, ça se met à brailler Rap en box pour encourager Tu peux toujours essayer J'bosse pour briller, bien grillé L'biz commence a m'payer Un fils d'enculé, une vraie tête brûlée Qu'rien n'fait reculer Mais vu les dégâts scrupuleux Pour qui joue le Juge doit être moins crapuleux Respect oblige, t'façons j'avoue le Boulot qu'j'ai représenté pour un gars plein de culot Donc on l'dit en duo, studio audio sur bande vidéo Nos idéaux quelque soit l'endroit représente nos gars, Ste-ea Pour toi La Cliqua c'texte te dédie On fera jamais partie de ceux que ton regard aura puni Comme tu disais jadis Ouais comme tu disais jadis Pervers et vicieux aussi Les victimes qui s'en soucie Qui sème le vent récolte la mort Leur destin, ils l'ont choisi East Un nouveau but Un nouveau cap Association de MC causant pertes et fracas On sait que la où t'es, tu r'gardes nos vies Et puis tu souris comme un gardien Au panthéon du Hip-Hop français East, un nouveau but, un nouveau cap On se retrouvera, je serais à la prochaine étape En remontant la pente de la Onze, Ste-ea croise La Cliqua Association de MC causant pertes et fracas L'école du Double H avance 5 keuz pour le programme La lame tranche la carotide, le sang jaillit c'est le drame Meurtre microphonique sur cassette, un scoop inédit Que font les journalistes ? Et Ste-Ea appelle Get Busy Endurci comme Dany Dan, je crame, brûle de mille flammes Mon cur est rouge comme un district lumineux d'Amsterdam Je rame dans la même galère que la plupart de mes pairs Faites vos jeux rien ne va plus- noir - Impair est passe -c'est la guerre Pervers et vicieux aussi, les victimes qui s'en soucient Qui sème le vent récole la mort, leur destin ils l'ont choisi La Double 1 va battre tous les records de l'audirap On se retrouvera, je serais à la prochaine étape La bombe du freestyle français Cut et ses projets secrets La fin décembre sent mauvais pour les suckers tu le savais 95, année de l'autoproduction, en masse East et Cut Killer, La Cliqua Hasta Luego, je trace On sait que la où t'es, tu r'gardes nos vies Et puis tu souris comme un gardien Au panthéon du Hip-Hop français East, un nouveau but, un nouveau cap On sait que la où t'es, tu r'gardes nos vies Et puis tu souris comme un gardien Au panthéon du Hip-Hop français East, un nouveau but, un nouveau cap On se retrouvera, je serais à la prochaine étape On se retrouvera, je serais à la prochaine étape On se retrouvera, je serais à la prochaine étape Association de MC causant pertes et fracas 3</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Daddy Lord C</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>P.A.R.I.S.</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Parfois vivre, c'est souffrir... souffrir... Et survivre, ouais survivre... c'est trouver un sens à cette souffrance J'entends mes profs me dire Ta culture, c'est l'hécatombe va lire ! Depuis j'dois bien écrire Lavokato m'valide La délinquance, trop occupé pour m'tourner vers elle Rhey, mes vieilles déceptions sont tes nouveaux rêves C'que j'ai dans l'crâne, tu l'verras pas dans ton IRM Solidaire en taule avec mes reufs, comme Tony Vairelles Nos plus belles chansons parlent des bâtiments Certains anciens sont dans l'héro, mais pas l'département, nan J'me suis vu combattre la rue, et elle perdait j'crois Donc j'l'ai quittée pour pas qu'mon fils réitère l'exploit Beaucoup sont encore en vie, mais ils perdent espoir T'sais, la survie c'est mon domaine, j'sais y faire laisse-moi Leur vie est belle, ils trouvent la nôtre vulgaire Ils sortent de boîte à l'aube, putain j'suis à l'aube d'une guerre Les pacifistes fashions portent des vestes militaires Les descendants d'Gandhi portent des 9 milli', frère Merde, tu crois qu'on s'laisse faire ? Nan nan, reste tranquille J'garde un il ouvert pour qu'ma mère nahess tranquille Jeu d'mots, quand tu nous tiens Dans la rue, des mecs m'accostent Nakkos, continue bien Le peura c'est toute ma iv', pousse-toi Surtout qu'j'arrive comme un dealer d'coke J'crois qu'j'suis gagnant sur toute la ligne Les concerts à Paris s'passent bien Y'a pas d'reustas, viens Voilà l'staff Nakk, Les 10', Nathalie Bastien Leurs ventes chutent, ils ont honte de dire leurs chiffres J'mélange rap et boxe, comme Bors et Daddy Lord C C'est l'chaos, car la Terre vient d'trembler J'voudrais un K-way, ouais j'ai l'caractère bien trempé Ton gamin grandit trop vite, c'est insensé, yo Il regarde les prix des yachts en finissant son Yop J'vais encore éclater la boîte de Nurofen J'crois qu'j'suis perdu, mettez en place le numéro vert Si jamais je m'ennuie, remets-moi ce titre À 14h, toute la France vit à Genoa City On s'humanise par dépit, j'crois Et j'imagine que l'ient-cli n'voit pas la peine des filles d'joie Si j'ai compris, là c'est mon tour de dire c'que j'pense Y'a pas d'médaille quand c'est un concours de circonstances Les p'tites ados, elles bouquinent plus, elles préfèrent Voici Elles ont des kilos en trop, comme les cainfs à Roissy Si si, j'deviens vieux Ils connaissent pas De Gaulle Mais ils répondent tous à l'appel des 18 joints d'beuh Ma sur tu souffres, on va t'ramasser sous quelle forme ? Et ton vieux mec squatte le canapé sous Pelforth Déjouer son destin, crois-moi c'est super fort J'suis devenu quelqu'un, sans marcher sur personne Si tu croises mon côté doux, tu lui diras qu'j'veux l'voir Si être sincère c'est un critère qui rappe mieux qu'moi ? Qui ? Qui ? Devenir quelqu'un... 'dosa5</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Daddy Lord C</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Pas de place pour les traitres</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Yeaaah ! La Cliqua ! Daddy Lord C ! Rocca Raphaël ! La section ! Camouflage ! XXXX J'ai c'qu'il faut pour foutre le boxon L'flow, le vrai son, une clique de champions Une bonne connexion d'plomb De quoi farcir toute la profession d'plans! XXX au sang chaud, le guerrier XXX J'passe devant XXX j'ai le calibre qu'il faut Avant qu'un d'eux dans tous les cas Je sais reconnaître les vrais gars et les faux gars Les gars qui baltringuent et ceux qui restent jusqu'au bout avec toi C'est comme ça, y a plein de faux-culs et ça dans tous les crews Ça fout la merde beaucoup Démasque-les vite avant que le jour J vienne à tomber Avant que me trahisse, je préfère tirer le premier C'est le jugement dernier, l'heure de vérité a sonné Le filet s'est refermé, les judas paniquent, la rue va frapper Prépare tes arrières appelle tes frères, mets-y les barrières La sentence approche comme un présage, trop tard pour faire tes prières Chialer ou regretter, y a pas d'excuses ni d'pardon C'est l'exécution pour haute trahison Pour les bouffons, plumes et goudron Où est passé le sens de l'honneur l'esprit de famille La force de vaincre la rage combattue par la force des liens Je fuck les Donnie Brasco, les traîtres parmi mes pains-co Les infidèles, les complots, ciao XXX x2 Si le hip-hop est un bateau je fais une mutinerie ! Pends tous les traîtres du haut d'un mât, puis noies les wack MC's ! Eh yeah yo, yeah yo ! Pas d'place pour les traîtres... Eh yeah yo, yeah yo, yeah yo ! Dans mon crew y'a pas d'place pour les traîtres... L'honneur, l'humiliation diffèrent souvent l'goût, la saveur A toi d'faire en sorte qu'ta tour bascule, glisse en ta faveur ! Savoir c'qui s'révère, s'avère favorable pour tes affaires T'es dans l'rouge frère... Tu donnes mes reufs, tu veux qu'j'laisse ça faire ? J'trouve ça fort! Pas d'portable, être plus joignable qu'SFR Poucave, shit, j'suis désolé gamin, graille pas d'ce pain-là Du genre, j'en suis pas là à faire l'pin-la devant la police J'reste poli mais j'compte bien punir pourrir polir ta peau lisse Dans mon quartier la caille, les types comme toi, les salauds salés Incitent à l'illicite, faut pas qu't'insistes, j'crains pour ton salut Si mon nom sali, scellé pour toi, la note seulement salée Plus besoin d'parler, t'en as d'jà trop dit Serré par les schmitts, c'qui va déferler va tacher, souiller ton beau sol carrelé Famille, gent-gent unité, ici c'est l'principe maison Bien qu'malfaisant et loin d'la charité, toutes ces leçons Tu sais l'son, tu connais la zik-mu, si y a trahison Mauviettes haïssons, scarla vrais gars bonhommes rares ils sont Comme le bon son rarissime, tu trouves ça risible Où t'iras t'terrer, l'air atterré, j'irai tirer et t'tuerai Car dans mon crew, y a pas d'place pour les traîtres x2 Si le hip-hop est un bateau je fais une mutinerie ! Pends tous les traîtres du haut d'un mât, puis noies les wack MC's ! Eh yeah yo, yeah yo ! Pas d'place pour les traîtres... Eh yeah yo, yeah yo, yeah yo ! Dans mon crew y'a pas d'place pour les traîtres... Y'a trop d'faux ! Trop d'gars qui s'assument pas ! Qui parlent derrière moi, mais devant baissent la tête, écoute ça ! Trop d'arrivistes ont tenté d'saboter mon taf, un peu partout Là d'où je viens l'authenticité passe avant tout ! Matte les gars de mon crew ! Pure attitude naturelle réelle Le destin nous bluffe, les mentalités artificielles Trop d'baltringues se cachent sous une fausse identité, quoi? Si c'est ça le hip-hop, yo, j'emmerde ça Certains sont plus de dignité ni d'fierté Sont là à s'afficher croyant être bien camouflés parce que bien sapés Croyant être camouflés parce que bien accompagnés tu sais La route est longue garçon et seuls les vrais resteront J'ai des principes, un sens de l'honneur, une parole comme personne Des amis de confiance, les coups fourrés sont des pénitences Pour ta lessive faut du vrai détergent, faut l'admettre Car dans mon crew, y a pas d'place pour les traîtres Si le hip-hop est un bateau je fais une mutinerie Pends tous les traîtres du haut d'un mât, puis noie les wack MC's Yeah yo, yeah yo ! Pas d'place pour les traîtres... Yeah yo, yeah yo, yeah yo ! Dans mon crew y a pas d'place pour les traîtres</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Daddy Lord C</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Pas L’Temps De Jouer</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Je te gave de basse comme MacDonald de matière grasse Enlace ta carcasse Par un flow non moins efficace Place-dé, pousse-toi, car aujourdhui cest mon heure Mon tour, mon jour J Droit au but sans raccourci Dose ceux qui osent critiquer quand je me pose Car je tchatche, cause, la vérité des choses Choses que beaucoup oublient, ça ne fait pas un pli Quand jy entends, écoute, reçois, perçois ce qui se dit Comme tous les hommes jaime le sexy, les beaux clips Le luxe, le champagne, les bonnes bagarres, les grands trips, tu flippes Les pieds sur terre, même si ça nen pas à lair Fier de mon ego, de mes biz illégaux Car ambitieux ne me contente pas de remplir mon frigo Toujours plus haut, me hisse, ma folie des grandeurs Mon âme soeur, en qui jai plus le retour dascenseur Posé flegme à la façon Keyser Soze Creuse un faussé entre moi et le mauvais Retiens ce qui me convient Me convient que les choses biens Toi même tu sais, remets de lordre en plein effet Pas l'temps de jouer Mon crew na pas l'temps de jouer Quand je prends la parole ça nest plus un jeu Jai pas l'temps de jouer Mon crew na pas l'temps de jouer Quand je prends la parole ça nest plus un jeu Jai pas l'temps de jouer Mon crew na pas l'temps de jouer Quand je prends la parole ça nest plus un jeu A lécole tu réfléchis avant daller au premier rang Cest tout vu Tu connais ton job, plus tard une fois grand Pareil, de nos jours ça rapporte plus, marier sa fille à un truand Pourquoi tes vieux sénervent, semballent, quand je parle ? Quest-ce qui leur prend ? Mon franc parlé Que je lâche comme du petit lait Me censuré ny compte pas, au micro jy suis scellé Accroché, soudé Un vrai bagnard a son boulet Quest-ce qui se complote ? Pourquoi me rejette-t-on la faute ? Les salaires bas, cest le Président qui a lantidote Règle tes comptes, soit, mais frappe à la bonne porte Tfaçons je pars pas tout seul si un jour le Diable memporte Mentraine avec Lui, me côtoie dans mes ennuis Taffole pas, y'a pas le feu, ce sera pas pour aujourdhui Que sera permis à autrui de fuck avec le taf que je produis Busy sur le mic, même si le nombre des vrais se réduit Jaccrois mon crédit, mon originalité te séduit Pas l'temps de jouer Mon crew na pas l'temps de jouer Quand je prends la parole ça nest plus un jeu Pas l'temps de jouer Mon crew na pas l'temps de jouer Quand je prends la parole ça nest plus un jeu Pas l'temps de jouer Mon crew na pas l'temps de jouer Quand je prends la parole ça nest plus un jeu Busy sur le mic, comme un flic et sa matraque Du rap contact, flow posé dosé Par le biais de mon jab du gauche, une prise jack Normal, tu raques quand je récidive, donne sur bonus track Cest de mon devoir de dénoncer, parler de ce qui gêne De ma compétence De mon ressort, de mon domaine Dêtre formel Afin que tout le monde se souvienne Se rappelle, garde des séquelles du négro XL Tas le chant du réel au travers le son mixé dun maxi Pressé comme prendre le premier le taxi Pourquoi à Paris Voudrait-on que mon langage varie ? corruptions, scandales, abus en série Gouvernants pourris Carotte on te nourrit Me pousse à vomir Et tu désires que je fasse un sourire Que je lâche un fou rire Quand à mes yeux se déroule le pire Quand je prends le mic je représente et ne blague pas Ne lâche pas Ne lutilise pas pour être sympa Tout le monde, il est beau, il est gentil Certains le disent mieux que moi Le font mieux que moi Chaque fois pitié quils deviennent des proies Moi je nai pas l'temps de jouer Pas l'temps de jouer Mon crew na pas l'temps de jouer Quand je prends la parole ça nest plus un jeu Pas l'temps de jouer Mon crew na pas l'temps de jouer Quand je prends la parole ça nest plus un jeu Pas l'temps de jouer Mon crew na pas l'temps de jouer Quand je prends la parole ça nest plus un jeu ça nest plus un jeu</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Daddy Lord C</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Protège-toi</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Rap de lover Vigilant toutefois, crois-moi Vigile en tendresse Écoute ça Faut que tu saches bébé, pour pas faire d'bébé Pour pas apprendre de nouvelle pouvant tlaisser bouche bée Pas regretter quand tu cajoles ce type tel un bébé Tu lui donnes des idées hein, quand tu remues ton tarpé Faut pas t'plaindre si son effort de te garder tard paie D'où tu mconnais pour m'faire croire qu't'es sa première poupée Tout ça parce que ta photo il l'a découpée Comme sur le ring, apprends que le premier des coups paie À voir c'qui t'motive, comme ce motif dans mes couplets Dis, t'es une pro dans la méthode de saccoupler Lamour est un jeu, on s'y fie tous car chaque coup plaît Faut pas lui reprocher demain de tavoir doublée En tout d'vigilance j't'ai poussée à redoubler Ça ta pas empêchée cette nuit de te dédoubler hein Quand je suis avec toi moi aussi, hein Tu me serres dans tes bras ouais, ouais Surtout, pour notre amour, fais ça pour moi Protège-toi bébé, protège-toi Quand je suis avec toi moi aussi Tu me serres dans tes bras ouais, ouais Surtout, pour notre amour, fais ça Protège-toi tonton, protège-toi Ce soir c'qu'on m'propose, j'reconnais qu'c'est tentant C'sera tout autant d'la même alors prends tout ton temps T'as pas l'air bête pourtant, t'as pas la tête à Toto À voir l'rabla comment tu brasses, tu comptes les totaux T'es pas un toutou, la vie chez toi c'est rien ou tout Mais si ça t'tombe dessus, ce sera pire qu'la guerre Tutsis-Hutus Vas-y enfile sans honte ce bonnet à gros pompon T'uses bien une feuille à rouler quand tu fumes le popo 'Scuse-moi, j'veux pas choquer par la rudesse d'mes propos Comment on met c'truc en latex ? Bah, avec les mains tiens Tu ferais mieux d't'appliquer si en vie tu veux qu'ça t'maintient J'cause qu'à preuve de loin d'là moi oh, j'suis pas homo Mais c'que j'dis, dédicace à l'homme dur jusqu'à l'homme mou J'te prends au mot, lave ton esprit comme Paic ou Omo Prévenu au moins, t'avanceras pas les lascars au moins Perdant même en disant au Sida, c'est toi ou moi Quand je suis avec toi moi aussi, hein Tu me serres dans tes bras ouais, ouais Surtout, pour notre amour, fais ça pour moi Protège-toi bébé, protège-toi Quand je suis avec toi moi aussi Tu me serres dans tes bras ouais, ouais Surtout, pour notre amour, fais ça Protège-toi tonton, protège-toi Pour ce j'me donne à fond comme ceux dans l'foot J'ai c'qu'il faut, des mots lourds pas seulement un beat qui fond Ton voisin c'qu'il fout t'occupes, t'occupes, toi fais c'qu'il faut Aux résultats médicaux on verra c'est qui qu'est fou Qui qu'est fou, l'aventurier, la chair tu penses qu'à la fendre Ou celui en cas d'coup dur qui enfile son scaphandre Sing my lady quand t'as pécho la maladie Va pas chialer après en soupirant, bah l'mal est dit Toi demoiselle, après c'qu'il t'a donné de bon, nomme N'appelle pas l'virus par le nom de ton bonhomme Mon rôle au mic quel qu'il soit, éviter l'incident En poussant au raisonnable, au moins l'incitant L'incitant, l'incitant Ouais, ouais Protège-toi bébé Protège-toi tonton Protège-toi aussi gars Quand je suis avec toi moi aussi, hein Tu me serres dans tes bras ouais, ouais Surtout, pour notre amour, fais ça pour moi Protège-toi bébé, protège-toi Quand je suis avec toi moi aussi Tu me serres dans tes bras ouais, ouais Surtout, pour notre amour, fais ça Protège-toi tonton, protège-toi</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Daddy Lord C</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Quand ton passé te rattrape</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Quand ton passé te rattrape, méfie-toi d'sa force de frappe Tu tombes dans la trappe gavée d'crabes, phase de rap mou L'esprit ramolli, gens trop polis, des meufs bien roulées T'as changé d'rôle au bras ronronne une montre Rolex Maintenant t'as des ronds, ça roule, ton passé drôle tu laisses Loin derrière, manière à XXX reculer, bêtement basculer Manipuler sans scrupule un d'ces jeux masculins Jouer les vilains alors qu'là tu t'la XXX tranquille hein T'as trouvé l'filon, plus besoin d'filer, faire le filou Pas d'bile, on voit qu'ça s'passe, t'engraisses, prends des kilos L'passé on l'oublie vite, XXX ta cellulite Ça s'complique quand s'pointe le type d'une ancienne élite À qui t'as fait payer XXX dépasser les limites À l'époque épique où Pacino pour toi plus qu'un mythe Donc tu l'imitais, danger, fatalité Eh, tu t'souviens d'moi enculé? XXX v'là qu'tu répliques, attends que j't'explique J'mate qu'tu fais sur toi tu t'chies dessus Comme en face des keufs dans un cul-de-sac, un trou sans issue Rangé, casé, comme sur le beat mon phrasé Regrette le passé, l'époque tu jouais les Keyser Soze Fallait oser, et désormais voudrais t'reposer Mais tes anciens clients sans cesse reviennent pour t'ankyloser Quand ton passé te rattrape ou frappe, tape à ta porte L'ambiance qu'il apporte, tu peux l'éviter que lorsque Que lorsque au moins ce service te rapporte Quand ton passé te rattrape ou frappe, tape à ta porte L'ambiance qu'il apporte, tu peux l'éviter que lorsque Que lorsque au moins ce service te rapporte Le genre de Suzy, tout son tralala Et tu tombes dans l'coma, habillé, tu t'crois vaguement au sauna Son arrivée, peux pas t'priver d'cette madonna À qui elle se donne, à toi, lui dire bébé tu sais qu't'es bonne ah Vu l'effet qu'on a à la voir, ça t'promet direct nirvana Tu peux pas vanner quand depuis des années j'te vois entamé Damné à damer des dames fanées Jamais j'plaisante, j'blague, quand il s'agit d'femmes et d'monnaie Qu'est-ce tu veux, j'ai cette manie, faudra m'compter parmi Cette armée d'mecs cramés qui pour c'sujet peuvent pas la fermer Des hommes, des tonnes à la conso, pourtant pas d'coma Au lit un combat, comme à Las Vegas le pire des traumas Le premier quereau-ma XXX femelle n'est pas son format Le temps passe, même les plus belles ne peuvent faire face Aux menaces des rides, aux séquelles, quelle crasse D'ailleurs Anna se lasse, ses nombreux excès et flirts l'agacent Désire du durable, changer d'air devient inévitable Son profil lui permet, avec un homme respectable Bref, Anna une fois pour toutes à ces délires, met un verrou Nouvelle adresse, nouveau numéro, un blindé d'blaireau Un peu moins véreux qu'les autres, p't-être un peu plus sérieux On verra vers où elle ira, l'avenir et l'destin nous l'diront Pour l'moment faut assurer on sait jamais Au cas où les fins d'mois difficile, tant pis si c'est un cas au lit Tu vas rigoler, v'là qu'un des gosses sort bariolé Pourtant l'teint du pater, la peau d'la mère couleur riz au lait Rions bien Anna, v'là ton passé qui t'rit au nez Quand ton passé te rattrape ou frappe, tape à ta porte L'ambiance qu'il apporte, tu peux l'éviter que lorsque Que lorsque au moins ce service te rapporte Quand ton passé te rattrape ou frappe, tape à ta porte L'ambiance qu'il apporte, tu peux l'éviter que lorsque Que lorsque au moins ce service te rapporte Quand ton passé te rattrape, méfie-toi de sa force de frappe Suffit derrière ton dos que quelques gars réclament justice Des histoires sans demi-mesure, t'as pas fait preuve de justesse Discret jusqu'à c'que l'jeu s'tasse, les gens s'taisent Mais qu'on s'dise bien, c'est pas en un clin d'il Qu'une bonne réputation s'tisse Penses-tu sérieusement pouvoir gommer certains événements Sous prétexte simplement qu't'étais juste âgé de vingt ans Donc évidemment, pas contrôler une fois d'plus ton tempérament Tant pis, rarement t'en sors pour pas t'faire XXX chiale à torrents Car le passé aime ces restaurants n'affichant jamais complets C'con d'blé on l'veut tous mais maintenant, te v'là comblé</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Daddy Lord C</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Rap Champion</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Avec ma clique C'est toujours le même son depuis qu'nous couvons Tant pis si c'est pour toujours les mêmes que les coups vont Même si c'est plus varié à présent c'que les radios balancent J'vois aucun compromis, coup d'gueule lorsque des balances Est-ce que ça a vraiment basculé du bon côté d'la balance Je me force à chaque fois bonhomme pour que ta bataille Aille bien plus loin qu'un gros mélange de weed de tabac thaÏ Dans les annales du son soit gravé Daddy Lord son logo Et ce, quitte à mettre foutre le zbeul dans ces locaux Passer pour un taré, comme dit Rocca Mucho loco Que l'petit nourri XXX flambée d'alloco Ait d'quoi s'mettre sous la dent et faire avancer la loco Que tu salives devant du rap, le live du XXX Car pour la sélection hip-hop demeure toujours en qualif' Hélas question gent-gent c'est pas encore la bourse d'un calife Passe-moi un mic, un calibre, j'bosse pas avec un caniche Daddy Lord C Yeah you know me Lorsque le rap champion arrive enfin à point nommé Depuis les Jaloux, Conçus pour durer ou le Noble art Ça demeure ça reste pour le même but, le même principe qu'on vit Que tu sois dans l'rock, la techno, je n'sais quoi, je t'y convie Même si ici les gosses préfèrent les guns aux fruits confits Mais dis-toi que XXX comme dit Koffi À chaque fois qu'on m'propose une te-fê, une soirée mée-ca C'est toujours que j'vienne en solo sans la présence de mes gars Si tu crois qu'ça peut m'égarer, XXX personne ne m'égale C'est le retour du Dad On connaît déjà Ok merci t'es til-gen Mais c'est pas ça à mon concert qui t'aidera à rentrer des gens J'rappe pour tous les critères sociaux surtout pour ceux qu'on dit jeunes Qui font l'beurre à Pierre-Luc Séguillon quand on déjeune Actifs, plein d'rebondissements, pas bateau comme un sitcom Comme attention, mon but, mes intentions sont explicites comme Mike Tyson, quitte à m'emporter et t'bouffer l'oreille Que j'perde ma licence et qu'à la fédé, mon blaze on raye J'ai du succès comme les keufs le dealer, attends guette J'prépare mon OPA comme Microsoft XXX Bill Gates Daddy Lord C Yeah you know me Lorsque le rap champion arrive enfin à point nommé C'est pas l'petit fétu qui va m'freiner Tu fais pas l'poids, t'as pas d'pot c'est XXX Dans l'rap, on s'met à palper, j'sais faire le faux, lyrics de faiblard Un rap de taspé, change pas d'esprit Seulement d'espace et un peu d'aspect Et à c'prix, XXX keuf, teur-inspec J'te respecte, la preuve, t'apprécies, t'as pas besoin d'Aspro Comment est-ce pris? Le rap facile d'la lèche, beaucoup s'laissent prendre Bah j'laisse faire, à voir, tu peux m'croire, parole d'expert Quand j'respire, j'reste pire qu'un XXX le fric ne rince pas Garde espoir, pour cela, prends tout ça pour du sport C'qu'ils disent pas, c'que t'éprouves en face XXX transport C'est une transe pour qu'tu saches qu'on transpire pour qu'le vrai transperce Daddy Lord C Yeah you know me Lorsque le rap champion arrive enfin à point nommé Jai pas ltemps djouer, jveux du concret envoie la monnaie</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Daddy Lord C</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Rap contact</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Tache de tenir ta langue Sinon la tienne dégage Mate les dégâts Légende de rap Comment Chief ? ça va Daddy Tranquille, à part ça quest ce quon dit ? Tu sais même pas sur not' dos tout ce quils nont pas dit Tout cquil nont pas du dire Tout cquil nont pas pu jacter devant nous T'as vu ou pas sur l'avenue Pourtant jrime à lexcès, comme chacun le sait Jsuis pas à l'essai, jdois remonter le temps comme Jackie Chan le fait Chaque jour que Dieu fait, des bêtes de couplets Back in a day, Dad faut quon nous paye Nos copies ça play, on revoit ta plaie receleur, soit enfin heureux cest lheure Si t'es ahuri, c'est l'air Tu t'amuse tu ris c'est l'art Nous traite pas de vicelards Hisse la barre bien haut Ceux qu'ont pas dflows quils se barrent C'est le duo de choc qui revient jsais que tattendais ce come-back Rocca, Daddy man phat de nouveau réunis ça fera date Doorag, casquette, baggy, jean, slim, clean Clean, tes yeux hallucinent Vla la dream team Gin, rhum, champagne, donne ce que tas dmieux bonhomme Tu payes cache la somme, on va tfaire cracher la donne Tu connais lhistoire quand y a plus rien despoir Jamais on laisse choir, ça se passe le soir Autour dun joint, dune Heineken Aucune caille me ken, lheure où aucun vide nous canne Y a quune meuf qui nous calme ou le bon sens qui nous came Qui nous dame, qui nous damne Pardon à mes dames de taffer rien quavec mes amygdales Trop de mots Grigny et pense à toi jusquà Pygale Jlève pour toi, toi.le reste ça mest égal Tache de tenir ta langue Sinon la tienne dégage Mate les dégâts Légende de rap Sache tenir ta langue Dis-leur Gallegos, dis-leur Sinon la tienne dégage Matte les dégâts 'Voici la Squadra Je dois faire bouger toutes les têtes, poulet vos têtes, hurlés et si tes murs tremblent, assures-les Courez si vous voyez un colombien et un africain faire du business ensemble Ptêtre bien quça parle came et butin Diamant, flow et putains Cool et taffe et scrutin Wack MC tu luttes hein ? Plus dun, jen mets à lamende Jclaque rien quà la demande Clark, montre-leur qui commande Vas-y sos jen vois déjà qui srendent Où est lintrus ? Où est lintro ? Qui est le pro ? qui est le gros ? Qui est laccroc ? qui fait le show ? Du champagne qui a le seau ? De qui est le son ? Jette le mauvais et retiens le bon Prends une leçon De notre coté beaucoup le sont Cest ptêtre indécent des groupes indécents Bois ça sans verser du sang Pas besoin ddessin, encore moins d'être sain Daddy Lord C, Rocca, jette ton blaze hein ! Légende de rap Vital rap contact médicinal Mate les dégâts Jai pas ltemps djouer, jveux du concret envoie la monnaie Jai fini par manier le micro comme une sarbacane Quand mon verbe te canne tel un retour de flamme Soit tu tombes sous le charme chico soit il faut que tu tarmes Chauffer la salle faut lavouer cest facile lété Nous on fait les quatre saisons avec facilité La Squadra dla cliqua au cas où tu connais pas hein On représente le vrai Hip Hop allez déconnez pas On est là, les anciens les nouveaux reurs-ti confirmés Go, femmes classes, taff, perce le noyau dur suit nos traces Cest pour les balafrés, les damnés et les affamés Les têtes enflammées, les cramées, jsuis pas là que pour damer Aya yay, Americano Latino Africano La Squadra mon frère, yeah yeah toujours là1</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Daddy Lord C</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Rap contact 2</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>They said, Loso need a PG! Well, I hate that they had to get Scott involved They invested in me 'cause they knew it was no chance of a profit prophet loss Oh, you Goliath in this town? No you gon' lyith on the ground after I rock his jaw! A single hit will crack heads for thinkin' your wit needs Whitney Houston just to body God Bodyguard Aye, A. Ward! Why they rootin' against me? Are they not in awe? Like, how many times squares Time Square gonna wanna see me drop the ball? But for what? You think that I'm upset at that? My brother, not at all My thinkin' is, How they gonna hurt a PG in Houston if I'm not appalled a Paul? Follow me, see, P CP, three acapella Capela rounds for the project is not enough to offer That's why I put my heart in Harden to help the PJ's, and that's just for four starters! Boy, I'mma kill you, and then give the Lord props 'Cause for playin' with a talent that's Astro-nomical, your career'll Correa come to a short stop! I am sure, Scott, your best bet is to call a truce, man Why would I get out of pocket with two nickels like I'm carrying loose change? I'll grab that wire off ya body, then wrap it around ya neck I'll make it look like a new chain They'll see Scotty Scottie with a mic Mike hangin' from him like the Flu Game That's why it's Bullpen over bull...stuff - got you Look, you gotta get the reference Why you upset? Just cause your name's Scotty that don't mean you gotta be defensive Oh, did I mention, that we love Jesus? But we like fights Watch how the tables turn when I come across your temple I'm tryin' to be like Christ Oh, your team type nice? Well, I don't care who Scott called or Scott hired You are not hard, and your block liars We can get it shakin' with the hands, or the arms lift up You want the Scott Hall, or the Scott Steiner!? I'm so ahead of my time, they knew I would come destroy All of my messages are from the Future like...I'm good luv, enjoy. If I diss Scott, then this gotta be The biggest body of work that every disc got in the discography Oh, you gon' lift rounds at me? Then I'm attackin' this guy gotta, lackin' it like nada 'Cause it's a wrap if I start it up like Afrika Bambaataa Hey, he be gettin' reaction off trash when it's so borin' to me Maybe I don't understand everything Scott land Scotland because it's so foreign to me Oh, accordin' to P, I didn't have to take this battle You almost got left, Scott But if I wasn't running back for this easy kill Ezekiel, then who are you gonna impress, Scott Prescott? I bet, Scott, we on two different levels, and even the viewers know! For me? This is the preseason For you? It's like the Super Bowl! Here's a rule to grow lose your flow I could give your career a lift Lyft But if you U wanna drive, go get an Uber, bro This body is gettin' bigger, I'mma kill him before the tumor grows Jesus flip, Yeezy kicks I can really boost your soul sole! 'Cause I got charisma, punches and a flow that's cold! Boy, they knew he was gonna lose Round 1 I just came here so he wouldn't lose his soul First, givin' honor to god bishop Smack. And the rest of the members on the deacon board. I'mma start this off with a prayer real fast, if y'all don't mind. Bow your head with me. Let's have fun tonight Dear Lord, I prayed and prayed that Smack would come to my city and I'd be on the card Then, well, that's finally come true There's only one person that could've made that happen, Lord and, well, that had to be You Is it me, or am I trippin'? But these URL niggas on some crazy shit 'Cause how this battle in my city, but I ain't the motherfuckin' main event!? You know me, Lord, I'm really just grateful for this opportunity But they could've gave me T-Top or somebody! Damn, look at how they doin' me! And I know your Commandments, Thou shall not steal, thou shall not kill, and so-so But You got to forgive me for what I'm 'bout to do to Loso Him thought he was gonna come get him a dub in my city Really? Lord, you and I both know that's a no-go He's standin' here right now, Lord But in 'bout 30-35 minutes, he's gon' be knockin' on yo' do'! I KNOW! I KNOW! I KNOW! Aye, God gon' strike y'all down for yellin' through my prayer, so listen See, Lord, I'm thankful for every fan in attendance, and every fan that's a witness So let us all say Amen while I go handle my business Amen Where yo' daddy John John at? I need to talk to him He ain't want war? Well, a war been brought to him He ain't want war? Tell that nigga to go back East before I put an end to his whole lil' South career Bitch, we want war! It's the south of America, it ain't South Korea! That nigga tell y'all when and where to move Dawg, we all know how the story go Now ain't none of you niggas poppin' Bullpen Battle League look like the Maury show But let you tell it, it's Bullpen over the bullshit, nigga And with John, that's yo' homie tho? Boy, you in Texas now save all that bullshit for the rodeo! Houston bars, my nigga! You know the code, bitch! They hate to see a nigga shine like my old bitch You try to touch mine? I'm fine, you'll get the whole clip Just know we gon' ride for ours hours let's take a road trip First stop, Third Ward, I take him to my projects to get it started We slip ya in them PJ's this ain't no slumber party Next stop New Orleans, Louisiana, where I'm puttin' yo' ass I drag you down to the boot, right after I put my foot in yo' ass! Now, man, listen, fuck what that nigga DNA was rappin' 'bout The city treat me like a Prince cause I Rap-A-Lot! I can give a rat's ass if you the toughest nigga in your class or not! Boy, this big Texas TEC Tech will get every nigga on yo' campus shot! Boy, I'm squeezin' on the dang iron! I'm weavin' and them thangs flyin'! Try to call my bluff? Bitch, you better have Jesus on your main line! Whoever thought we was even won't be leavin' with the same mind! 'Cause I believe in Jesus, but bitch, I'm a heathen at the same time! So scratch all that religion shit, you actually a hypocrite Rappin' what you rappin' for he cappin' at some benefits I'm laughin' at this nigga when he do them make-believe gun bars just to relate to the crowd See, that's the part I'm not gettin' Because a man of God should know better than to compromise just to fit in! I know you're pushin' for the dub, lil' homie, won't get this win I'mma shove you an L, my nigga now go dig in! Round 1, man, let's make it happen It must hurt to know that you're from Houston, on a stage with somebody who's never been here before And yet, you don't matter the most They literally could've called this battle, Loso Versus... Yo, Why Does It Even Matter? We Just Need Him To Get This PG Out The Way, So He Can Battle Some GOATS. See the fact is you dope, in ya hometown league They be watchin' and admirin' But Smack wouldn't have booked this in New York, Virginia Hell, even Compton ain't even buyin' it Tell me, Scott, what are you providin' then? 'Cause if you can only get sold at home Then that means you're nothin' more than a product of your environment Let's try it, then you saw this as an opportunity, and chased it Bent backwards just to get this to work embrace in brace it Ya faced it, for the simple fact that you didn't pray I would hate for you to tank forever like a No Limit chain They knew I was a star when I walked in, they been amazed In 60 seconds, they knew I was an Astro field look what a Minute made Maid! Wow, you're disappointin' Maybe you should try somethin' new, since nuisance your style is so annoyin' Like, y'all know how he rap, right? When them choppers lift up, you gon' think that it's MASH And when them bucks handed out, you gon' think that it's cas- Scotty, they didn't book you in three years You may think it's the staff It's not politics, it's common sense we think that you're trash! So, what hurts more? The outward pain? Nah, I say inward N-word, like I don't curse, boy Funny, you've been hustlin' backwards with everything you work towards Oh, they want to usher in ya death Guess who's standin' before the church doors? You're down 2-0 already, and he gon' need a lot more than the tre Trae if he want to get into the 3rd, Ward! Aye, you are dirt-poor, I pray they don't book a failure I be tryin' to take these rappers to the light, I'll try to Sugar Hill ya Wait, wait, wait, wait, should Christian rappers- Man, keep askin', Can he, man? Candyman and the hook'll kill ya! Get ya eye dent if I identify think you look familiar! 'Cause I will strike holmes, with a right blow Get to snappin' on him like nice poems When I do a number on this Houston rapper like Mike Jones! What's that? 281-330-8004! Nah, forget that, I got a different approach, tho' What I'm liftin' is so cold All he heard was, Who? Mike Jones! 'Cause I'm tippin' on fo' fo's! Or, I could have John John handle my light work I ain't gotta reach to smoke ya Funny how a Don is Adonis the reason son is hidin' Watch how we expose ya Oh, you on track for a response? Well, I think he needs some closure See, he don't Rap-A-Lot, but when you see J Prince, just know that the beef is over! They say, To each his own, bruh So with my face in the skies disguise, I can tell why you mad, Scott mascot No, no, no? Cool, I got another one This won't be a tie I'm at ya neck with every question I'mma ask, Scott ascot Nah, nah, nah, cool, I got one more Look, here's the plan, Scott The next time you write, string punchlines together so they can start makin' some sense You can still kill thugs Just get an Ill Will plug, so at least what ya makin' Jamaican connects! I am showin' you a small clip of what I can do I am Go-Pro ready 1-2, 1-2 I am Cotto deadly The only reason they ain't hit you is 'cause Loso said it And I kept you on my good side like I'm photogenic Nah, nah, I got charisma, punches, and a flow that's cold You just lost Round 2, and I promise you, you not gon' lose your soul Shout out to all my supporters in the building They haters want me to die out, but I doubt it 'cause I'm too resilient They gon' be mad like, Man, we wanted that nigga Scotty dead, but Loso who they sent to kill him And that nigga damn near died on stage like Wendy Williams! Put three fingers in the air wit' me, y'all Yeah, I'm from that Ward I was raised in the bottom of the Tre It's like three minutes that way This shit right here is my backyard And today, my city want to hear you rap bars on this SMACK card They ain't come to see you rap God to a rap god I'm perfect, at least that's how I feel on this damn stage And if I ain't perfect to you, then I'm closer to you on your best damn days I mean peep it, fresh fit, fresh kicks, and shit, check out the man's waves Fresh cut nigga, I'mma need a Band-Aid You ain't seen my battles killin' niggas on the YouTube? I'm the shit, boy this is what I do do doo-doo Aye, Sy, I think it's time I switch into a new mood 'Cause this battle shit in Texas now, and down here, we playin' by some new rules Aye, fuck that pussy-ass vest, lil' bitch, I'mma shoot through He like, Be a man and fight wit' ya hands, until I doot! doot! Then these hands start connectin' like a Bluetooth! Do a number on this square like Sudoku! I hit his ass wit' two! Ooh! He fell in the street The nigga balled up, tucked his tail in his feet He get up, try to run Bitch, I got a gun, and I shoot well wit' the heat This ratchet spit better than Cardi Boy, you better Be Careful wit' me! I grab the new big Glock and quick to squirt it I snap and you get shot it's picture-perfect The same pastor that be mad at ya like, Uhh, Loso, why you skip the service? Gon' be the same one rappin' at your eulogy like, He didn't deserve it. I know, and after this, I'm headed to Florida, straight to yo' bitch house She wrote a check that that ass can't cash, then make that bitch bounce She say, Loso can't fuck me! He be hollerin' 'bout he celibate. I say, Bitch, I ain't tryin' to fuck ya neither, I just wanted you to suck my dick. But fuck it, she let my brother hit, we both had some fun A bitch with two Johns I nicknamed her Da Don Come see me! Come SEE ME! Come SEE ME! Yeeaaaahh! The hoe was like, Damn, Scotty! Ya dick game is the bomb. But he's still countin' on Love his nickname is Lebron And I don't trust this bitch, so I grab it and tuck it In case this faggot start wildin' out Wild N' Out like Emmanuel Hudson Boy, if you ain't got a plan on hand, man, plan for destruction 12-gauge give him all these bucks Let's see just how you manage ya budget No, no, wait, these new shooters, they cheap, and they don't even give me no problems One of 'em say he gon' let the K ring for just 25 dollars I been out here grindin' eight days a week, and each of it's 25 hours So when a nigga speak on niggas who's hustlin', they can't deny ours Time, man AYO, SCOTTY! Aye, what airline they booked you in? Oh, you drove Aight, well, what hotel they put you in? Oh, you're home Aight, cool, see, aye, that's great, 'cause that could've been a double loss for your friend But please tell me Smack at least covered the cost for ya- Look bro, you ain't gotta lie, ain't no need to floss to pretend Plus, I seen how they spelled his name Scott on my contract I knew he was gettin' double-crossed in the end! I say, listen and register! I came to tweak ya wrongs because you tweet too long In other words, I'm fixin' yo' character Ain't no need to start dissin' the messenger I just think it's Childish how he wanna shoot down the church Aye, This Is America! The hint that I'm gettin', bruh, is Smack having no desires to push your brand You gotta call on the block for some help I mean the only reason he booked you for the warehouse Is cause he had plans of puttin' ya stock on the shelf Aye, that's why I don't rock by myself When you see Los', you see I'm steppin' to you, reppin' the crew Thought John John was the only great Bullpen had until the Reverend debut See, the first part of my movie left an impression on you And although it took you a long time to see it, now you know I'm incredible, too Incredibles 2 Let's extend it to you! Houston Bar Code is it? That's ya league? Aye, what are you doin', Scott? Always actin' like you on top, your crew won't pop Nobody in it wit' a Big Bang I see we got the same view on God Boy you are not responsible for anybody's career That right there is confusin', Ahk 'Cause how you like to talk a good game, but never been a good steward, Stuart Scott? You got a battle wit' DNA, hosted by Hollow Da Don and it's sittin' at 60,000 views I know you mad and upset, you be sharin' that battle everyday like, Yo, it's a classic, I bet The whole concept of askin' I get But just cause you rep' Bar Code doesn't mean you need to tag every thread Aye, let's back up instead, 'cause you lack creativity Always copyin' my moves You're shootin' yourself, it gotta stop For instance, I put on for Christianity Now, he wanna put on for his block I battled DNA, he battled DNA 'cause he just wanna follow his pops I beat Phara Funeral, then you beat Phara- Oh, I see why you keep puttin' yourself in a box! Crowd starts chanting 3-0 That pussy good, that pussy good Trash! Trash! Everybody told me Aye, it's always gun bar after gun bar They be lazy when they preppin' I mean all of my metaphors make them see now senile They goin' crazy up in the reference Aye, you think I gotta act hard wit' a .380 without a message? Boy, I'm Hacksaw Ridge I be savin' 'em without a weapon 'Cause all that, Christians are weak because they say they need the Lord. These the same dudes that try angles triangles to get they words across like a Ouija Board Aye, you right, every mornin' when my feet hit the floor, my knees hit the floor But not because of what I need, because I know I need Him more For instance, He guides me, that's why I never been without sight Even when they cut my electricity off, I never been without light I should've died on that cross, but Jesus got on and got me Now my verdict is the same as his battle price In other words, I got off Scott-free Aye, where are all them URL battlers who was on the Internet gunnin' for me? Aye, Twork, I just finished my PG! What's now your excuse for runnin' from me!? Unfortunately, I just finished Now we gotta listen to him spittin' that trash Thank God I ain't got no more rounds of me whippin' that ass! ...Good night! I started not to do this bullshit-ass battle A PG? URL was on some mo' shit I used to think Hitman and Verb and them was just sayin' that shit for promotion But e'rytime y'all look up, it's another East Coast, then a West Coast nigga bein' shoved in ya face No hate, but shit, them boys down South got somethin' to say It's like they ain't even lookin' our way Now to me, that's some sucker shit Fuck the battle rap politics! We created our own government! And right now, you lookin' at the nigga who governs it And I don't know what Loso done did to deserve this punishment But fuck it, I got the heat, I cock the heat, then spray yo' face Nigga, I'll drop the heat and ya ass get beat like an 808 Claimin' he's worth a mill' meal Boy, down here, niggas will take yo' plate Roll a blade Rollerblade 'cross ya neck, bitch, then they gon' skate! I know you had this win projected well, and it ain't goin' great Now you gettin' this F'in L, and it ain't yo' state Now wait, ain't the great state of Florida who birthed you, my nigga? Why you ain't puttin' on wit' them people? Why you ain't givin' them none of these good lines? You doin' all these shows, but still ain't showed Mother Florida no Good Times? When I go back to Florida, I'm gon' back to that lil' spot where yo' freak be She sucked me clean and keep me clean I gotta O.C.D I tell that bitch, Take it out yo' mouth, then slap it on yo' jaws! She like when daddy talk crazy to her she call me Lavar Ball! Nah, y'all, fuck all that! It's war time now, I'm fully in motion Bitch, you better go buy the biggest bottle of bulletproof lotion Nigga, cut the commotion Extended clip on the hammer holdin' I bet 21 knock ya off like Amber Rose Dammit, bro, I'm high Eyes lookin' like a Chinese dude Two sticks in my hands look like I'm 'bout to eat Chinese food Don't try me, dude, 'cause we could even put the guns up Beat ya ass, you gon' walk around wit' bigger knots on you than Blac Youngsta Before I go, 'cause God sent me here with a message for ya nigga He say you gotta stop gettin' in these battles actin' like you Him Jump on stage and start judgin' niggas Let he without sin cast the first stone- Yeah, you know these words that I utter, nigga Stop tellin' other niggas how to live they life, dawg You are not them other niggas I know what he gon' say, But I'm my brother's keeper Nooo, you are not my brother, nigga! If you done knew 'bout half of the shit niggas dealt wit' Then maybe you would think, Man, he probably couldn't help it. Or maybe you too nervous to even go scratch the surface and dig for a purpose before you caught yourself tryin' to help shit Who made these people the fuckin' keeper to my life? When, a few years ago, I was invisible to ya eyesight But now it's critical, I don't get to do the shit that I like? However I choose to live my life, it's my life - am I right!? Right, so for instance, if Chess wanna be a dirty lil' nigga his whole life, dawg Let that nigga be that! Don't look at Charlie Clips and T-Top and say, Now, why them niggas eat that? Next time you see DNA, before you say, Bro, where that nigga teeth at? What you should be sayin' is, He made it to the top without it, so I too can achieve that. H-Town, nigga! We out this bitch, mayne!1</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Daddy Lord C</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Rap Contact 3</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Rap contact, au mic come back Ma clique débarque dans tous les bacs, claque À chaque attaque XXX t'éclate en vrac mac Bouddha, Rocca, Clark XXX Gallegos pour l'troisième acte Autodidacte, OK c'est vrai j'ai l'bac en sac Quoi que c'est la rue, ses trappes, qui m'ont forgé mais soit C'qui compte, du tact, du flow des mots des rimes exactes J'ai choisi d'être MC, me battre pour mes XXX c'est un pacte Impact verbal, comme les balles je transperce les dalles Cale l'instrumentale, mon freestyle vocal fait scandale, emballe les vandales J'balaie le mic tous les sales MC XXX à l'hexagonale Cliqua chirurgicale pour un rap médicinal Lifting complet, on déride le rap français On vire les peaux mortes et on redonne au hip-hop un bon aspect Fat sound des bidonvilles pullule comme des bactéries J'continuerai même si j'dois test' tous les MC Soy mero melo primero dello rappero toreo Comu yanero rumpero perua quiro por quero Saga légendaire, rap Titanic On trahira pas notre public Mon rap flow progresse Interpelle ton attention les textes qui blessent Rap contact, médicinal Ça y est c'est reparti pour un nouveau Rap Contact 3 Frappe pas d'ici si maintenant, on s'la raconte à trois Daddy Lord moi-même Rocca et mon pote Raphaël Pour ceux qu'ça nous gêne de signer des autographes à elles Et si tout s'dégage enfin mon phrasé Mes mérites corespondent au côté teigneux À la hargne, on lâche rien XXX lourds, franc-parler, pas d'gimmick ni d'sacerdoce Sur vinyle ou mixtape, aux wack MC que ça sert d'os J'dirai pas que l'usage de ma musique, même si elle est bonne, sert À transformer les mecs en curés et les jeunes filles en bonnes surs J'avoue j'ai pas trop d'mal à faire valoir mon côté bosseur La tâche demeure plutôt facile c'est vrai quand t'es boxeur Mon son ma mélodie j'en conviens ne t'paraît pas bien douce C'est pas pour autant qu'tu ne danseras pas dessus aux Bains-Douches Sinon ça s'passe bien tranquille Franchement sens ça cool Ce soir faut qu'ça l'fasse sans embrouilles, sans qu'le sang ça coule Pour que ça colle, que des XXX ton surnom ça colle La foule soit devant toi pareil à un toxico sans sa colle Pourquoi tu tailles, j'ai pas l'humour d'Yves Duteil Pourtant j'suis d'taille qu'tu prennes une table, claque une bouteille Mon rap flow progresse Interpelle ton attention les textes qui blessent Rap contact, médicinal Contact au mic de manière stratégique Pour ma clique, mon public Ça va plus loin que la flambe et l'fric Les vibes d'la notoriété prennent le dessus Sois le bienvenu, je représente les gars de la rue J'donne du rap pour les durs, ramène le hip-hop à sa base Crue est mon écriture, goûte à la construction d'mes phrases J'essaie de mériter mon nom pour garder ma position Croire en ma puissance sur le son pour m'imposer pour de bon Dans la musique tout doit être géant Le but est d'éveiller un maximum de gens avec un maximum de sentiments Flow infatigable, hors du commun Chaque jour je m'concentre sur ma situation mic en main frangin Un pour ma mif', deux pour mes amis puis trois pour le cash Pour la vie et la foi qu'il y a en moi Plus que jamais, j'avance sans regret sans cesse Même si béni de sagesse, mon rap flow progresse Tu veux du style, mon crew débarque muni d'ses ustensiles Fallait pas nous appeler, maintenant nous v'là dans toutes les villes Mon rap flow progresse Interpelle ton attention les textes qui blessent Rap contact, médicinal</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Daddy Lord C</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Requiem</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Back in the ghetto x2 Assez assez, en voilà assez Le système glisse, mène, sonne ton requiem Haine, peine, parsèment le dilemme Le système glisse, mène, sonne ton requiem Assez assez, en voilà assez Agacé, lassé des excès je vais tout casser Arrêtez, jétouffe, laissez-moi respirer Ma vie perd son sens, mon goût, mon souffle est épuisé Tout sefface, quest-ce qui se passe, où sont mes traces ? Dans un désert de glace, ma face, mon tout devient flasque Un casque, un masque à gaz, pour mon crâne Puisque dans mon cerveau bouillonne une tempête, une bourrasque Lexistence absorbe mes substances, méfiance Limpuissance donne naissance à bien de perpétuelles souffrances Pense au bon sens, à lintense résistance, ma conscience lance loffensive La sentence avance et on ne pense quà se remplir la panse Jai beau mappliquer, lutter pour être plus méthodique La rue guide mes pas vers un cap pas catholique Chaotique, incompatible aux produits chimiques Mon cas dépasse scientifiques, avec eux toutes choses physiques Oh ! Bientôt vos maux briseront vos cerveaux Métro, boulot, dodo, trop didiots suivent le troupeau Limpôt ou léchafaud, faut donner ta peau pour du repos, pour un tombeau Je ne suis quun robot mais la fierté de mon bourreau Bluesé, entourloupé, leurré, lesprit emmuré Ecoeuré, préférant passer pour un demeuré La drogue dont je me came, le hip-hop ma seule denrée Rentre dans le stress qui oppresse le négro beurré Sors, viens faire un tour dehors, explore, sors de ton décor pécore Si la rue tu ignores, tu ignores pourquoi je suis hardcore La vie, la mort, lutte à corps à corps Encore laurore, encore une journée deffort On rapte ma pensée, capte mes idées, plutôt que madapter Je préfère encore me suicider Suicider, vendre son âme, son bien, sa vie au diable Que de servir de pâture à des incapables x2 Assez assez, en voilà assez Le système glisse, mène, sonne ton requiem Haine, peine, parsèment le dilemme Le système glisse, mène, sonne ton requiem Back in the ghetto, back in the ghetto... Jétouffe dans des décombres, souffre de maux en nombre Vis dans une pénombre, lombre des cons mencombre Ils poussent vers le vice, dans les villes en polyester Où vit lhomme perdu à la recherche dun salaire Je suis la faille, le produit qui déraille, lappareil déglingué La caille, lentaille du système, la volaille qui braille au travail à la chaîne Je vois des hommes qui gueulent de stress Cesse que le système te prenne ton mental en laisse Business, défaite, méfait, en fait cest net On rentre en décadence dans une société soi-disant prête Là où je fourre mes pattes, on memboîte, mexploite de gauche à droite Je tâte, mate lobstacle et avec hâte, bah ! , léclate Jai des choses à dire, mais peu de fric pour lavenir Sans mentir, je nai pas besoin de filles pour madoucir On me colle, on misole en sous-sol, manque de bol Même en camisole, mes paroles prennent leur envol Lanonyme, ultime victime que le régime opprime Frime dans le crime, tandis que je manime dans la rime Sans centimes, crevant la dalle à la recherche dun Pascal Le jeune de la rue craque, braque pour quelques balles Haaa ! Qui sonne le requiem ? Tombe dans la messe quon te parsème de chrysanthèmes Get down ! Get down, plutôt guette dans ma tête ce boucan Mes cellules, lune après lautre, se dérobent, foutent le camp Lincident mincitant à un tempérament moins excitant Pas étonnant à tes dépends je décide de prendre du bon temps Lhygiène on sen tamponne, survivre faut que tu ty cramponnes Dans ma zone la drogue vaut bien plus cher que la couche dozone Ingurgite ma zic synthétique, vas-y avale mon Aspégic Plein de techniques, pas de critiques sans gimmicks Prêt à tout pour du fric même à de laérobic Le vice devient une porte de sortie au lieu dun hobby Cette phobie, lEtat produit un tas de photocopies Youpi youpi ya ! Youpi ya ya yo ! Dans les quartiers chauds lhonnêteté fait pas de vieux os Dire sil vous plaît ça me déplaît, moi jai dépassé ce cap Mon Hijack capte, décape, tape tous les new jacks Qui vont à lencontre du Chief Rocca ou du Daddy Mac x2 Assez assez, en voilà assez Le système glisse, mène, sonne ton requiem Haine, peine, parsèment le dilemme Le système glisse, mène, sonne ton requiem</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Daddy Lord C</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Rien n’est impossible</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Sur le Mix, DJ Poska Au microphone, Lord Issa, toi-même tu sais C'est dangereux Exclusive Approche-toi DLC Eh, pas l'temps d'jouer, gros Aïe, aïe, aïe Tu mets un N, après un A, après un S, après un M, après un E Tout est possible, je dis que rien n'est impossible Pour avancer, t'accroche pas à du futile J'ai dit que tout est possible, rien n'est impossible Il faut se battre, baisser la tête est inutile Tout est possible, j'ai dit que rien n'est impossible Réagis t t'attache pas à du futile Tout est possibl, rien n'est impossible Il faut se battre, baisser la tête n'est pas utile Rester positif, j'dis que rien n'est impossible C'est c'qui m'motive, triste ou peut t'pousser au suicide Quand tout part en sucette sept sur sept, prise de tête sur prise de bec Sans prise de prix ni check Y a pas d'surprise du chef Pas impossible que j'change les règles Impossible que j'me taise, moi j'me tape avant d'me tèj À chaque étage même dans un état étrange Impossible que j'me rende, pas impossible que j'me range ou que j'me venge Si tu m'mens, je veux croire que c'est impossible que j'flanche Ou que j'tende la main dans le métro pour que j'mange Toujours un dernier plan sous la manche Impossible que j'porte la frange Ma peau, un gros problème pour la France Impossible que tout soit parfait, pour ça qu'souvent tout est à refaire Mes rêves d'enfant, j'y crois plus du tout dur comme fer Rien n'est impossible, j'suis déjà devenu père Tout est possible, au deuxième tour j'ai vu Le Pen Peut-être qu'de mon vivant en Palestine j'verrai la paix Tout est possible, je dis que rien n'est impossible Pour avancer, t'accroche pas à du futile J'ai dit que tout est possible, rien n'est impossible Il faut se battre, baisser la tête est inutile Tout est possible, j'ai dit que rien n'est impossible Réagis et t'attache pas à du futile Je dis que tout est possible, rien n'est impossible Il faut se battre, baisser la tête n'est pas utile Cela dit, je m'entends, tout est possible On vise nous aussi c'que tous tes potes ciblent XXX, je l'avoue, à titre posthume Mais personne prétendra, pas le bon costume, ouais J'apprécie Malcolm, ses caisses en custom C'est toujours du bon dès qu'on accouche donne Que Dieu te pardonne, qu'avant qu'on cartonne Pour qu'à tes oreilles ce soit mon nom qu'on marmonne Va nourrir la marmaille, sourire sous cette maille Bien qu'le patron soit aussi mauvais que ce barman Tout est possible, vu c'qu'on ramène même Un clin d'il à Arthur H, Mandela et Mel-Man Tout est possible OK, mais faut pas pousser Jamais sur l'terrain l'gazon ne va repousser On vient te doucher, XXX retoucher Sans devoir baisser les frocs ou encore coucher Tout est possible, je dis que rien n'est impossible Pour avancer, t'accroche pas à du futile J'ai dit que tout est possible, rien n'est impossible Il faut se battre, baisser la tête est inutile Tout est possible, j'ai dit que rien n'est impossible Réagis et t'attache pas à du futile Je dis que tout est possible, rien n'est impossible Il faut se battre, baisser la tête n'est pas utile Tout est possible donc vas-y, reste posé Mets-toi bien, le son, Voodoo l'a composé Donc on va s'amuser mais sans abuser Ni oublier qu'on nous veut sur l'banc des accusés Rien n'est impossible parce que tout est accessible Y a pas d'magie, faut agir, rien n'arrive si tu restes assis La maille divise, la devise c'est de s'presser Vise, mais faut être précis pour pas finir les poches percées Tout est possible, t'as vu Nasme Daddy font un feat C'qui s'passe ensuite pour qu'les mythos soient en fuite Qu'à cogiter le son, les mots, le fond ainsi À c'que les gosses à l'école soient forts en chiffres Impossible que j'change, que d'la vérité quand j'chante Tout est parti d'ma chambre, pas impossible que ça s'vende Impossible que j'montre pas c'que j'ai dans l'ventre XXX c'est pas du Hugh Grant Que les derniers finiront devant Tout est possible, je dis que rien n'est impossible Pour avancer, t'accroche pas à du futile J'ai dit que tout est possible, rien n'est impossible Il faut se battre, baisser la tête est inutile Tout est possible, j'ai dit que rien n'est impossible Réagis et t'attache pas à du futile Je dis que tout est possible, rien n'est impossible Il faut se battre, baisser la tête n'est pas utile Wesh poto Track List Tu mets un N, après un A, après un S, après un M, après un E D.L.C Aïe, aïe, aïe On a dit, rien n'est impossible, poto Rien n'est impossible, poto Rien n'est impossible Aïe, aïe, aïe Aïe, aïe, aïe Track List Combinaison Exclusive Daddy Lord C, Nasme C'est pas fini</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Daddy Lord C</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Souffrir</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Baggy jean berline limousine 4x4 Toyota Histoire de ne pas avoir l'allure que ce coyote a... Vu son état lui ressembler t'es fou ou quoi? Pas me fréquenter c'est ce que ta femme t'as dit? T'a-t-elle dit où elle était un certain mercredi? Pas de gros mots ça peut gâter ma promo avec ça en plus tu peux finir alcoolo Mais ne joue pas avec moi stp au sale colon au salop ici on te brisera le colon... Wé j'apprécie le fric le luxe tu piges Et jme fiche sur moi ce que les gens là disent J'garde le sourire tant que mes gosses me font la bise Et mon équipe mon ter ter tant qu'on tient le jez... T'occupes j'continuerai d'aboyer tant que l'état criminel brûlera nos foyers Vous même vous voyez où que vous soyez dans la rue les loups sont déployés MIEUX VAUT UNE FIN QUI FAIT SOUFFRIR QUE SOUFFRIR EN VAIN UN BUT COURIR QUE COURIR EN VAIN UN VISAGE SOURIRE QUE SOURIRE EN VAIN UN MOT MURIR AVANT DE MOURIR ENFIN... Tu prétends que tu écris dur, mais est ce ton écriture A la hauteur de ce gosse que ses vieux ont décrit pur Parles moi simplement ça me suffit amplement T'auras des compliments du buzz en complément Ce que tu racontes n'a rien à voir en plus ça reste à voir J'suis là car y a à boire et pas se sentir seul le soir Au fait dans ta jeunesse toi t'étais un cassos Pour une histoire de... t'as pété un gars Ce baratin rapporte à faire péter un cable Car quand je t'ai croisé toi t'étais en cabriolet Au fait t'es le dernier que le quartier encadre Et si tu repasses ici on te pliera en quatre En locationvoiture vois ta mère à l'occasion On sait tout ici qui porte le caleçon MIEUX VAUT UNE FIN QUI FAIT SOUFFRIR QUE SOUFFRIR EN VAIN UN BUT COURIR QUE COURIR EN VAIN UN VISAGE SOURIRE QUE SOURIRE EN VAIN UN MOT MURIR AVANT DE MOURIR ENFIN... OK j'aime le bling bling Pas comme cet homme verreux qui s'estime clean Plutôt le jez le fric quand y a tchin tchin Toujours deuspi toujours car qui dort dîne Un mec à l'ancienne que du rentre dedans La lumière éteinte lorsque tu prends ton temps De la banlieue où le mot c'est prends prends prends Car l'appât du gain est tant tentant La rage du ghetto ce bang bang bang Sirène de police ainsi font font font Un appel de phare et déjà tu te ranges Des mecs en baskets et voilà que tu trembles Ce qui fait que tu mouilles tiens c'est étrange Ce que tu n'oses pas dire ces mots qui t'étranglent Provoques pas un talent fâché Tu boiteras comme cette meuf au talon cassé J'espère que tu sais nager, tu t'y es engagé La peur tu le sais n'évite pas le danger rire HAHA HIHI HOHO !!!!! MIEUX VAUT UNE FIN QUI FAIT SOUFFRIR QUE SOUFFRIR EN VAIN UN BUT COURIR QUE COURIR EN VAIN UN VISAGE SOURIRE QUE SOURIRE EN VAIN UN MOT MURIR AVANT DE MOURIR ENFIN... DADDY LOURDEMENT VÔTRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Daddy Lord C</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Tout le monde sait qui tu es</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>C'est comme ça qu'j'fais C'est ça, MC, c'est comme ça qu'j'fais Qui es-tu pour me juger, bourré d'préjugés Dans les jupons d'tes vieux réfugié Parlant fort, poussant ta voix à l'user Sans vouloir abuser, désabusé, faut pas m'refuser D'm'expliquer pourquoi ma haine attisée Comme tous ces délinquants violents, pensant qu'à tiser Parce que j'ai pas sympathisé avec la risée J'veux pas t'baiser XXX s'maîtriser Bordée d'apaiser petit gamin ma mère me le faisait Autour du CD, bref des demoiselles l'ont remplacé Pourvu qu'elles demeurent bien constituées Pour m'enlacer, viens pas m'les casser Avec tes contes, tes histoires d'écolier Rêve d'être prisonniers où des types comme toi prennent des dérouillées Se débrouiller, se battre XXX ma bouche jamais verrouillée Provoquant une femme pour te mener en bateau Un homme costaud qui XXX au premier coup d'couteau L'hiver sans manteau, mon anniversaire sans gâteau Y a pas photo, guette la balafre sur mon pecto' Qui excite les femmes et fait jaser les péquenots Arrête de parler, d'râler, d'gaver l'charley Entouré d'salauds, tout l'monde sait bien qu't'es qu'un charlot Arrête de parler, d'râler, d'gaver l'charley Entouré d'salauds, tout l'monde sait bien qu't'es qu'un charlot Arrête de parler, d'râler, d'gaver l'charley Entouré d'salauds, tout l'monde sait bien qu't'es qu'un charlot Fais bien d'flipper le rap caille que j'taille, te rattrape pas Des connaissances, un niveau scolaire pas trop mauvais Savoir où je vais, une conscience pour tout c'que j'fais Le rap un forfait consolidant mes rêves en vrai Mêlant l'agréable au désagréable tel un bon spray Pas d'à-peu-près, pour l'action réponds toujours prêt Barbès Marcadet, tu sauras qu'y a pas qu'des cadets Ou qu'des soldats dont l'seul combat, fumer l'bouddha Professionnels dans l'deal ou le vol à l'arraché Si on t'l'a caché, là où circule zedou, poudre en sachet Tellement détachés, vivent des gens aux murs attachées J'vais pas t'lâcher, pour qui t'prends-tu, tu t'es crashé J'vends pas d'eau soluble, produit d'résine, juste un papier Ici on est tous frères même si comme nous, y pas d'brindille Joue pas les bandits, tu XXX kiffes le rap bandit Pareil à mon petit devant une glace au sucre candi Répéter c'que j'dis, faut pas qu'ça devienne une maladie S'ils ont du mal à deux, on dansera sur cette mélodie Arrête de parler, d'râler, d'gaver l'charley Entouré d'salauds, tout l'monde sait bien qu't'es qu'un charlot Arrête de parler, d'râler, d'gaver l'charley Entouré d'salauds, tout l'monde sait bien qu't'es qu'un charlot Arrête de parler, d'râler, d'gaver l'charley Entouré d'salauds, tout l'monde sait bien qu't'es qu'un charlot Fais bien d'flipper le rap caille que j'taille, te rattrape pas Entouré d'salauds, tout l'monde sait bien qu't'es qu'un charlot Combien m'critiquaient, le premier à passer à table À m'traiter d'incapable, peu d'ex, un gros cartable Montaient sur mon diable une fois devant des mecs valables Mon charme devant des femmes, indomptable, puisque indésirable S'imaginant que tout est négociable et monnayable Tant mieux si caillassé t'a vu grandir, rester paresseux Quant à t'moquer d'ceux Dont le destin plus fâcheux, l'avenir capricieux Me pousse pas trop à faire feu, réussir je l'veux Toujours crédible aux yeux de Dieu Ça t'en bouche un coin, un gars d'ma trempe, un type de XXX Les bonnes manières se perdent Tout comme les bons MC pleins d'verbe Arrête de parler, d'râler, d'gaver l'charley Entouré d'salauds, tout l'monde sait bien qu't'es qu'un charlot Arrête de parler, d'râler, d'gaver l'charley Entouré d'salauds, tout l'monde sait bien qu't'es qu'un charlot Arrête de parler, d'râler, d'gaver l'charley Entouré d'salauds, tout l'monde sait bien qu't'es qu'un charlot Bien d'flipper le rap caille que j'taille, te rattrape pas Entouré d'salauds, tout l'monde sait bien qu't'es qu'un charlot Fais bien d'flipper le rap caille que j'taille, te rattrape pas Bien d'flipper le rap caille que j'taille, te rattrape pas</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Daddy Lord C</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Tué dans la rue</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>O-o-k, hé Skenawin Music J'ai passé l'âge de m'dire Il faut qu'ça pète Ils voudraient qu'j'la baisse et, du coup, j'hoche la tête Zéro tolérance pour ceux qui pompent la tech' J'fais des intolérances à c'que l'époque accepte J'viens de l'époque poste-cassette Où, si tu bégayes en freestyle, t'es juste une grosse tapette J'suis rentré dans l'game en mode shortclaquettes T'es prévnu et l'bienvenu dans l'Simpl Constat 7 J'rappe, t'as l'impression qu'je pars en guerre J'prends ça au sérieux, y'a rien de marrant, frère J'vois le rap comme un art à part entière Pour moi, c'est comme le vélo prends le bus si tu sais pas en faire Pas d'longues études, j'ai stoppé à temps Pour être diplômé de L'École du micro d'argent Un point commun avec IAM j'te l'explique en chanson On est nés sous la même étoile celle de la Ligue des champions Et j'ai débité pour aller froisser des compil' Et j'ai débuté sur la face B comme Chill Les yeux rouges vifs que toutes les écuries craignent Quand tu m'demandes où j'vis dans la même ville que Shurik'n Et vu qu'hier est plus loin que demain Le troisième il surveille mes arrières quand je crache le venin J'me voyais à Beach Galawa avec une Testarossa J'écoutais la Cliqua, Daddy Lord C, les textes de Rocca Mystik, et j'voulais être le chef, bref, j'fais trop d'tueries à la fois Comme les frères de FF, entre la furie et la foi J'aime pas m'étendre, j'leur fais archi mal, j'fusille Cherche vraiment pas à comprendre, c'est d'la marginale musique Dans le bocal, j'ai des alligators J'ai lié nos rimes avec nos modes de vies hardcore Et, même si ça m'arrange, jamais j'croque avec les faux J'écris mes textes sur mes phalanges et je boxe avec les mots Entouré qu'de gars solides Car plus rien n'va si les gars qui font cet art se niquent Et puis j'te fais légèrement goûter à mon flow, tu trouveras ça sans doute stupide Pas b'soin d'en faire des tonnes, d'en boire des litres, quelques gouttes suffisent La puissance vient du Nord, ça te paraît louche ? Sale vie infecte, le monde est stone, d'mande à Carré rouge J'suis un psychopathe de la rime le roi Mais nul besoin de me faire suivre tant qu'j'suis follow par les Psy 4 de ma ville J'éclaire ma ville, j'suis une menace terrible Issus des ghettos fabuleux, on a fait d'nos bâtiments des halls cains-ri' Comme L'indis, et t'as pigé, que sale quand je crache Si t'es DJ, tu s'ras validé qu'si y'a l'style dans tes scratchs C'est du classique sans fioriture Culture urbaine mon cul, mon art se nomme R-A-P C'est du classique, ouais Culture urbaine mon cul, mon art se nomme R-A-P C'est du classique sans fioriture Culture urbaine mon cul, mon art se nomme R-A-P C'est du classique, ouais Culture urbaine mon cul, mon art se nomme R-A-P Les connexions sont screds car faut mettre de la ruse Pour devenir un sage poète de la rue Et crois pas qu'j'avance à tâtons comme un père qui rentre de GAV J'écris des lettres à Macron avec l'impertinence de Fabe Et c'est pour ceux qui bougent, les anti-poucaves C'est pour tous nos bougs, tous ceux qui se sentent intouchables Tous soudés car c'est mieux si on s'entraide, sans doute J'suis plus rap qu'RB, beaucoup plus 113 que 112 La prod' est tellement lourde que, par amour, j'pourrais la crosser Faux MC, si tu m'vois dans ton ch'min, wutsi n'drongozé Évite de faire le caïd, surtout si t'es pas équipé Le micro, c'est comme le calibre si tu l'sors, faut pas hésiter Écoutez, ça fait click-click, j'ai plus de balle, c'est dead Mieux vaut être tué par un flic plutôt qu'buté par un frère C'est mon choix, de quoi j'me mêle ? J'préfère mourir d'une balle d'un flic plutôt qu'me prendre deux balles de neg' Tirer par amour ou jalousie J'ai mal au mic quand j'entends le niveau, j'hallucine Mais le combat continue, j'en fais mon idéal Hostile à l'article L.432, j'applique la loi du point final Ouais, tu m'connais quand y'a embrouille Mon expression devient directe car mon esprit part en couilles J'suis dans de drôles d'histoires, négro, je trouve pas ça malsain Selon les khos qui squattent les halls, je suis un assassin Leurs politiques, j'sais pas ce qu'elles valent Du coup, je m'en moque, demande au Doc, j'y nnais-co' que dalle Jamais faire confiance à la parole du président, tout reste à vérifier Car j'sais pas si c'tho-my' m'dira la vérité Eh, eh, faut qu'ces bâtards atterrissent J'suis un rappeur aguerri qui a le hardcore à Kery Sale à la Nubi, du coup, les trois-quarts se font harakiri J'ai la rage comme Faf et Arkana Keny J'fais mon job à plein temps pour qu'ça tourne mieux Mais qu'est-ce, mais qu'est-ce qu'on attend pour foutre le feu? Quarante degrés Celsius, je leur ai mis la fièvre Sous-coté, j'suis un roi sans couronne, j'ai pas gobé la fève J's'rai pas diamant ça, je l'savais Gros, j'suis tellement lourd qu'les spécialistes savent pas où m'caser J'voulais mettre ma rime sur les ondes et puis tous les voir ramper Puis mettre Paris sous les bombes, que le Hip-Hop repose en paix Eh, MC, j'ai pas fini, pourquoi tu t'couches pare-terre ? J'viens faire des bisous baveux avec la langue de Molière J'suis pas d'humeur donc j'laisse courir la rumeur selon laquelle J'suis un sniper qui tire à balles réelles baow J'écris dans ma tête et peu importe le thème J'imagine les mots et mets le fond et la forme en tandem Un gars à la hauteur, c'est rare comme une radio qui joue le jeu Vieux, le temps passe et passe et passe, toujours pas mieux que Couvre-Feu T'entends pas ou quoi ? On parle à la ghetto youth, râle à la ghetto youth Elle, chienne qu'on malmène à la ghetto youth Je dis rien et c'est ça qui les détruit Car le silence n'est pas un oubli mais le meilleur des mépris Eh ouais, mon son te met la pression donc ton mauvais il me fixe À ce problème, j'trouverai solution, t'inquiète, quelles que soient les X J'garde la mentale d'un buteur Pour pas être classé mal comme X dans l'alphabet mais être un king comme Martin Luther Et t'es jamais déçu, eh ouais, poto, j'suis loin Si loin que je n'entends même plus l'instru' Mais j'suis jamais a capella, d'mande à Dinos, j'les laisse en pleurs Quand j'prends l'micro, les MC flippent, j'rappe sur les battements de leur cur C'est du classique sans fioriture Culture urbaine mon cul, mon art se nomme R-A-P C'est du classique, ouais Culture urbaine mon cul, mon art se nomme R-A-P C'est du classique sans fioriture Culture urbaine mon cul, mon art se nomme R-A-P C'est du classique, ouais Culture urbaine mon cul, mon art se nomme R-A-P R-A-P, R-A-P, R-A-P, R-A-P, R-A-P, R-A-P, R-A-P, R-A-P, R-A-P R-A-P, R-A-P, R-A-P, R-A-P, R-A-P, R-A-P, R-A-P, R-A-P, R-A-P R-A-P, R-A-P, R-A-P, R-A-P, R-A-P, R-A-P, R-A-P, R-A-P, R-A-P R-A-P, R-A-P, R-A-P, R-A-P, R-A-P, R-A-P, R-A-P, R-A-P, R-A-P1</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Daddy Lord C</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Un point d’honneur</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
           <t>Bien des victoires méritent honte, silence, sourdine et panier J'nie pas, j'panique pas le rap fané nique pas le raffiné Femmes et fans s'enflamment pour des tempos bateaux mal peaufinés Ma gueule j'l'ouvre je l'affirme me vide car je l'avoue je l'ai fine Quand depuis des lustres beaucoup se sont saignés pour être signés Des bacs consignés pourtant du rap les plus conseillés Les cons ça y est s'agitent ça jure à croire singerie injure Domineront un jour franchise qualité une fatalité j'pense pas Un manque de maturité ouais Endurant, dur au mal j'durcis la procédure Je sais que c'est dur de garder espoir quand certains sûrs d'eux au moins un sur deux Se servent du rap façon Sardou pour parler de rue du jamais vu Connus ni d'Adam ni d'Eve la question s'pose tous ceux-là sortent d'où ? Bien que j'en sois mordu ce rap me dégoûte dessus je broute Comme dit l'autre chacun sa route chacun son chemin moi j'prends le mien J'donne pas mon boule, je reste net, j'm'efforce qu'on me respecte Et là-dessus gamin J'y mets un point d'honneur... Respect oblige... Respect oblige... Décale ! Décampe ! Tire-toi ! Béou ! Bouge je changerai pas de camp Combien ? même frime filles ou flouze tombent en même temps Tu m'en diras tant, je veux aucunement ressembler à un de ces gens Plein de faux-semblant, vivant des cancans Comptant sur les autres dans le caca J'apprécie, j'préfère encore de loin comme tu dis cette racaille sans l'sou Prête à tout, tout le temps saoule parlant sans cesse de palabres et de dessous Déçu de ça ? j'm'en bats en déblatérant un rap vétérans de chien errant Pas d'un rat invétéré qui vit en se terrant Prêt à lourder frères et daronnes pour que l'embrouille se fasse enterrer Mon son un clairon éclairant, ceux qui se reconnaîtront se tairont La réussite qu'est ce que tu crois ? pourquoi je suis là, bien sûr je ne pense qu'à ça J'mets le paquet, froisse, ma côte croisse quitte à bouffer l'pain rassis Qu'un raciste réussisse l'assemblée se réunisse à faire en sorte que j'me retrouve à Roissy J'mens pas j'donne pas mon boule j'reste net, j'm'efforce qu'on me respecte Et là-dessus gamin, là-d'ssus gamin J'y mets un point d'honneur... Respect oblige... Respect oblige... Respect oblige... Chaque jour que Dieu fait j'essaie de faire en sorte que ça le fasse Que ça se passe, qu'il y ait pas de casse, bien que j'ai pas de cash en sport pro mais sans le fric de pat cash J'cache pas je cherche le pascal faut pas que je cale donc j'me tue à la tâche pour fuir la misère Ça m'prend des heures d'trouver un plan à ma mesure qui m'assure fromage et dessert Mon désir mon souhait un kaiser, un prince des tunes un brasseur J'rêve c'est rasoir, en attendant j'travaille mes méninges, ménage ni les gars ni le son sur lequel j'me lâche et je lynche Car j'apprécie luxe et beaux linges de jouer j'ai plus l'âge C'qui me botte voir mon blase devenir plus large Marre d'être en marge donc corrige soigne marginalise moins mon image Être connu ou me faire connaître en tant que poète de mec honnête Moi je regrette tout le mal, le crime sale que j'ai pu commettre J'voudrais pas que mon gosse voie qu'il possède un père malhonnête Y'a pas de quoi être fier Façon j'me fie à mon étoile Allah ma comète Qu'on me mette aux Baumettes, Fleury, Fresnes, la Santé J'reste net j'm'efforce qu'on me respecte, j'donne pas mon boule Et là-dessus gamin, là-dessus gamin J'y mets un point d'honneur Respect oblige Respect oblige Respect oblige La Cliqua y met un point d'honneur Respect oblige Section Camouflage, Gallegos, S, Noï Y mettent un point d'honneur Respect oblige Respect oblige Dallas y met un point d'honneur Les Dalton y mettent un point d'honneur Wrung Division y met un point d'honneur Respect oblige Respect oblige J'y mets un point d'honneur</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Daddy Lord C</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Daddy Lord C</t>
         </is>
       </c>
     </row>
